--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28DAA68-8737-4216-AB27-A59EB87AABF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8A90F-0657-432C-87BA-501BB03C2BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Погодовая величина эмиграции из России в 1896-1916 гг</t>
+  </si>
+  <si>
+    <t>1896-1916</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -261,7 +264,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -588,24 +591,24 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.578125" customWidth="1"/>
-    <col min="3" max="3" width="20.83984375" customWidth="1"/>
-    <col min="4" max="4" width="24.62890625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -617,7 +620,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1904</v>
       </c>
@@ -628,7 +631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1906</v>
       </c>
@@ -639,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1909</v>
       </c>
@@ -650,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1910</v>
       </c>
@@ -661,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1911</v>
       </c>
@@ -672,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1912</v>
       </c>
@@ -683,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1913</v>
       </c>
@@ -694,132 +697,132 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -834,17 +837,17 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.47265625" customWidth="1"/>
-    <col min="5" max="5" width="12.3671875" customWidth="1"/>
-    <col min="6" max="6" width="27.20703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
@@ -864,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1896</v>
       </c>
@@ -876,19 +879,19 @@
         <v>6308</v>
       </c>
       <c r="D2" s="5">
-        <f>B2-C2</f>
+        <f t="shared" ref="D2:D7" si="0">B2-C2</f>
         <v>45828</v>
       </c>
       <c r="E2" s="6">
-        <f>C2/B2</f>
+        <f t="shared" ref="E2:E7" si="1">C2/B2</f>
         <v>0.12099125364431487</v>
       </c>
       <c r="F2" s="5">
-        <f>D2/0.95</f>
+        <f t="shared" ref="F2:F7" si="2">D2/0.95</f>
         <v>48240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1897</v>
@@ -901,21 +904,21 @@
         <v>3066</v>
       </c>
       <c r="D3" s="5">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>26915</v>
       </c>
       <c r="E3" s="6">
-        <f>C3/B3</f>
+        <f t="shared" si="1"/>
         <v>0.10226476768620126</v>
       </c>
       <c r="F3" s="5">
-        <f>D3/0.95</f>
+        <f t="shared" si="2"/>
         <v>28331.578947368424</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A22" si="0">A3+1</f>
+        <f t="shared" ref="A4:A22" si="3">A3+1</f>
         <v>1898</v>
       </c>
       <c r="B4" s="5">
@@ -926,21 +929,21 @@
         <v>2607</v>
       </c>
       <c r="D4" s="5">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>31947</v>
       </c>
       <c r="E4" s="6">
-        <f>C4/B4</f>
+        <f t="shared" si="1"/>
         <v>7.5447126237193962E-2</v>
       </c>
       <c r="F4" s="5">
-        <f>D4/0.95</f>
+        <f t="shared" si="2"/>
         <v>33628.42105263158</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1899</v>
       </c>
       <c r="B5" s="5">
@@ -950,21 +953,21 @@
         <v>6097</v>
       </c>
       <c r="D5" s="5">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>54885</v>
       </c>
       <c r="E5" s="6">
-        <f>C5/B5</f>
+        <f t="shared" si="1"/>
         <v>9.998032206224787E-2</v>
       </c>
       <c r="F5" s="5">
-        <f>D5/0.95</f>
+        <f t="shared" si="2"/>
         <v>57773.68421052632</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1900</v>
       </c>
       <c r="B6" s="5">
@@ -974,21 +977,21 @@
         <v>12612</v>
       </c>
       <c r="D6" s="5">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>78175</v>
       </c>
       <c r="E6" s="6">
-        <f>C6/B6</f>
+        <f t="shared" si="1"/>
         <v>0.13891856763633559</v>
       </c>
       <c r="F6" s="5">
-        <f>D6/0.95</f>
+        <f t="shared" si="2"/>
         <v>82289.473684210534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1901</v>
       </c>
       <c r="B7" s="5">
@@ -998,21 +1001,21 @@
         <v>9999</v>
       </c>
       <c r="D7" s="5">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>75258</v>
       </c>
       <c r="E7" s="6">
-        <f>C7/B7</f>
+        <f t="shared" si="1"/>
         <v>0.11728069249445794</v>
       </c>
       <c r="F7" s="5">
-        <f>D7/0.95</f>
+        <f t="shared" si="2"/>
         <v>79218.947368421053</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1902</v>
       </c>
       <c r="B8" s="5">
@@ -1022,21 +1025,21 @@
         <v>13868</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D22" si="1">B8-C8</f>
+        <f t="shared" ref="D8:D22" si="4">B8-C8</f>
         <v>93479</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:E22" si="2">C8/B8</f>
+        <f t="shared" ref="E8:E23" si="5">C8/B8</f>
         <v>0.12918851947422844</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F22" si="3">D8/0.95</f>
+        <f t="shared" ref="F8:F22" si="6">D8/0.95</f>
         <v>98398.947368421053</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1903</v>
       </c>
       <c r="B9" s="5">
@@ -1046,21 +1049,21 @@
         <v>18864</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>117229</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13861109682349571</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>123398.94736842105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1904</v>
       </c>
       <c r="B10" s="5">
@@ -1070,21 +1073,21 @@
         <v>10157</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>134984</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.9980226124940578E-2</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>142088.42105263157</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1905</v>
       </c>
       <c r="B11" s="5">
@@ -1094,21 +1097,21 @@
         <v>17012</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>167885</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.2007982822868956E-2</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>176721.05263157896</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1906</v>
       </c>
       <c r="B12" s="5">
@@ -1118,21 +1121,21 @@
         <v>14136</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>201529</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.5546101592748013E-2</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>212135.78947368421</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1907</v>
       </c>
       <c r="B13" s="5">
@@ -1142,21 +1145,21 @@
         <v>14860</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>244083</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.7387146978292523E-2</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>256929.47368421053</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1908</v>
       </c>
       <c r="B14" s="5">
@@ -1166,21 +1169,21 @@
         <v>6746</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>149965</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.3047392971776073E-2</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>157857.89473684211</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1909</v>
       </c>
       <c r="B15" s="5">
@@ -1190,21 +1193,21 @@
         <v>11687</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>108773</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.7019757595882453E-2</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>114497.89473684211</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1910</v>
       </c>
       <c r="B16" s="5">
@@ -1214,21 +1217,21 @@
         <v>15736</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>171056</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.4243436549745171E-2</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>180058.94736842107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1911</v>
       </c>
       <c r="B17" s="5">
@@ -1238,21 +1241,21 @@
         <v>9779</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>148942</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1611254969411736E-2</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>156781.05263157896</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1912</v>
       </c>
       <c r="B18" s="5">
@@ -1262,21 +1265,21 @@
         <v>6641</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>155754</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.089411619815881E-2</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>163951.57894736843</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1913</v>
       </c>
       <c r="B19" s="5">
@@ -1286,21 +1289,21 @@
         <v>12756</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>278284</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.3829026937877956E-2</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>292930.5263157895</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1914</v>
       </c>
       <c r="B20" s="5">
@@ -1310,21 +1313,21 @@
         <v>12805</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>242855</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.0086051787530311E-2</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>255636.84210526317</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1915</v>
       </c>
       <c r="B21" s="5">
@@ -1334,21 +1337,21 @@
         <v>3472</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22715</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13258487035551991</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23910.526315789473</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1916</v>
       </c>
       <c r="B22" s="5">
@@ -1358,19 +1361,44 @@
         <v>5649</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2193</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.72035195103289973</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2308.4210526315792</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5">
+        <f>SUM(B2:B22)</f>
+        <v>2767591</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUM(C2:C22)</f>
+        <v>214857</v>
+      </c>
+      <c r="D23" s="5">
+        <f>SUM(D2:D22)</f>
+        <v>2552734</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="5"/>
+        <v>7.7633219648423485E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <f>SUM(F2:F22)</f>
+        <v>2687088.4210526319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8A90F-0657-432C-87BA-501BB03C2BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2FD35-79B7-4B6A-AF50-1DE9C4235BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="16905" activeTab="1" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>1896-1916</t>
+  </si>
+  <si>
+    <t>в США поляки</t>
+  </si>
+  <si>
+    <t>в США евреи</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E018E8-FFD2-476D-8A98-BDF34A70858D}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -834,10 +840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7496F63D-12C4-4F78-B39E-C61E39C373AD}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +853,7 @@
     <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
@@ -866,8 +872,14 @@
       <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1896</v>
       </c>
@@ -891,7 +903,7 @@
         <v>48240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1897</v>
@@ -916,7 +928,7 @@
         <v>28331.578947368424</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A22" si="3">A3+1</f>
         <v>1898</v>
@@ -941,7 +953,7 @@
         <v>33628.42105263158</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>1899</v>
@@ -965,7 +977,7 @@
         <v>57773.68421052632</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>1900</v>
@@ -989,7 +1001,7 @@
         <v>82289.473684210534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>1901</v>
@@ -1013,7 +1025,7 @@
         <v>79218.947368421053</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>1902</v>
@@ -1037,7 +1049,7 @@
         <v>98398.947368421053</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>1903</v>
@@ -1061,7 +1073,7 @@
         <v>123398.94736842105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>1904</v>
@@ -1085,7 +1097,7 @@
         <v>142088.42105263157</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>1905</v>
@@ -1109,7 +1121,7 @@
         <v>176721.05263157896</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>1906</v>
@@ -1133,7 +1145,7 @@
         <v>212135.78947368421</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>1907</v>
@@ -1157,7 +1169,7 @@
         <v>256929.47368421053</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>1908</v>
@@ -1181,7 +1193,7 @@
         <v>157857.89473684211</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>1909</v>
@@ -1205,7 +1217,7 @@
         <v>114497.89473684211</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>1910</v>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2FD35-79B7-4B6A-AF50-1DE9C4235BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040FA58E-1CEB-4B57-9E13-00F99C7FB4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="16905" activeTab="1" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="60255" yWindow="555" windowWidth="30255" windowHeight="21915" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="note" sheetId="2" r:id="rId1"/>
+    <sheet name="note-1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="note-2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -203,14 +204,150 @@
   </si>
   <si>
     <t>в США евреи</t>
+  </si>
+  <si>
+    <t>*********************************************************************************************</t>
+  </si>
+  <si>
+    <t>Разбивка иммигрантов из США в Россию по народностям</t>
+  </si>
+  <si>
+    <t>год отчёта</t>
+  </si>
+  <si>
+    <t>стр.</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>10-13</t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
+  <si>
+    <t>13-16</t>
+  </si>
+  <si>
+    <t>12-14</t>
+  </si>
+  <si>
+    <t>15-18</t>
+  </si>
+  <si>
+    <t>17-20</t>
+  </si>
+  <si>
+    <t>23-25</t>
+  </si>
+  <si>
+    <t>26-28</t>
+  </si>
+  <si>
+    <t>80-82</t>
+  </si>
+  <si>
+    <t>52-53</t>
+  </si>
+  <si>
+    <t>48-51</t>
+  </si>
+  <si>
+    <t>70-72</t>
+  </si>
+  <si>
+    <t>Разбивка по народности для стран эмиграции начала регистрироваться начиная с 1899 финансового года.</t>
+  </si>
+  <si>
+    <t>что пропорция между народностями такова же, как в среднем за 1899-1901 фин. годы.</t>
+  </si>
+  <si>
+    <t>армяне</t>
+  </si>
+  <si>
+    <t>финны</t>
+  </si>
+  <si>
+    <t>немцы</t>
+  </si>
+  <si>
+    <t>греки</t>
+  </si>
+  <si>
+    <t>евреи</t>
+  </si>
+  <si>
+    <t>литовцы</t>
+  </si>
+  <si>
+    <t>поляки</t>
+  </si>
+  <si>
+    <t>русские</t>
+  </si>
+  <si>
+    <t>русины</t>
+  </si>
+  <si>
+    <t>скандинавы</t>
+  </si>
+  <si>
+    <t>всего</t>
+  </si>
+  <si>
+    <t>другие</t>
+  </si>
+  <si>
+    <t>% в 1899-1901</t>
+  </si>
+  <si>
+    <t>Вычисленные величины помечены синим цветом.</t>
+  </si>
+  <si>
+    <t>фин. год</t>
+  </si>
+  <si>
+    <t>сумма 1899-1901</t>
+  </si>
+  <si>
+    <t>Пересчёт для календарных лет:</t>
+  </si>
+  <si>
+    <t>кал. год</t>
+  </si>
+  <si>
+    <t>1896-1915</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Annual report of the Commissioner-General of Immigration YYYY</t>
+  </si>
+  <si>
+    <t>таблица "Immigrant aliens admitted , fiscal year ended June 30 , 19XX , by countries of last permanent residence and races or peoples"</t>
+  </si>
+  <si>
+    <t>приводит значения за год к 30 июня указанного финансового года</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Разбивка по народностям иммигрантов из Россси в США в финансовый год заканчивающийся 30 июня YYYY.</t>
+  </si>
+  <si>
+    <t>Для 1896-1899 гг. разбивка расчитана исходя из общего числа иммигрантов из России в США в данный год, в предположении,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -229,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,6 +420,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,30 +747,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E018E8-FFD2-476D-8A98-BDF34A70858D}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.578125" customWidth="1"/>
+    <col min="3" max="3" width="20.83984375" customWidth="1"/>
+    <col min="4" max="4" width="24.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -626,7 +782,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <v>1904</v>
       </c>
@@ -637,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>1906</v>
       </c>
@@ -648,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>1909</v>
       </c>
@@ -659,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>1910</v>
       </c>
@@ -670,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <v>1911</v>
       </c>
@@ -681,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>1912</v>
       </c>
@@ -692,7 +848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <v>1913</v>
       </c>
@@ -703,134 +859,355 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1">
+        <v>1896</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1">
+        <f>B60+1</f>
+        <v>1897</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1">
+        <f t="shared" ref="B62:B80" si="0">B61+1</f>
+        <v>1898</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>1899</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>1901</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>1902</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>1903</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="1">
+        <f t="shared" si="0"/>
+        <v>1904</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="1">
+        <f t="shared" si="0"/>
+        <v>1905</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1">
+        <f t="shared" si="0"/>
+        <v>1906</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="1">
+        <f t="shared" si="0"/>
+        <v>1907</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="1">
+        <f t="shared" si="0"/>
+        <v>1908</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="1">
+        <f t="shared" si="0"/>
+        <v>1909</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="1">
+        <f t="shared" si="0"/>
+        <v>1910</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="1">
+        <f t="shared" si="0"/>
+        <v>1911</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="1">
+        <f t="shared" si="0"/>
+        <v>1912</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="1">
+        <f t="shared" si="0"/>
+        <v>1913</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="1">
+        <f t="shared" si="0"/>
+        <v>1914</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="1">
+        <f t="shared" si="0"/>
+        <v>1915</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="1">
+        <f t="shared" si="0"/>
+        <v>1916</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -842,18 +1219,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7496F63D-12C4-4F78-B39E-C61E39C373AD}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" customWidth="1"/>
+    <col min="5" max="5" width="12.41796875" customWidth="1"/>
+    <col min="6" max="6" width="27.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
@@ -879,7 +1256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1896</v>
       </c>
@@ -903,7 +1280,7 @@
         <v>48240</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1897</v>
@@ -928,7 +1305,7 @@
         <v>28331.578947368424</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A22" si="3">A3+1</f>
         <v>1898</v>
@@ -953,7 +1330,7 @@
         <v>33628.42105263158</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>1899</v>
@@ -977,7 +1354,7 @@
         <v>57773.68421052632</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>1900</v>
@@ -1001,7 +1378,7 @@
         <v>82289.473684210534</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>1901</v>
@@ -1025,7 +1402,7 @@
         <v>79218.947368421053</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>1902</v>
@@ -1049,7 +1426,7 @@
         <v>98398.947368421053</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>1903</v>
@@ -1073,7 +1450,7 @@
         <v>123398.94736842105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>1904</v>
@@ -1097,7 +1474,7 @@
         <v>142088.42105263157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>1905</v>
@@ -1121,7 +1498,7 @@
         <v>176721.05263157896</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>1906</v>
@@ -1145,7 +1522,7 @@
         <v>212135.78947368421</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>1907</v>
@@ -1169,7 +1546,7 @@
         <v>256929.47368421053</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>1908</v>
@@ -1193,7 +1570,7 @@
         <v>157857.89473684211</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>1909</v>
@@ -1217,7 +1594,7 @@
         <v>114497.89473684211</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>1910</v>
@@ -1241,7 +1618,7 @@
         <v>180058.94736842107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>1911</v>
@@ -1265,7 +1642,7 @@
         <v>156781.05263157896</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>1912</v>
@@ -1289,7 +1666,7 @@
         <v>163951.57894736843</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>1913</v>
@@ -1313,7 +1690,7 @@
         <v>292930.5263157895</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>1914</v>
@@ -1337,7 +1714,7 @@
         <v>255636.84210526317</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>1915</v>
@@ -1361,7 +1738,7 @@
         <v>23910.526315789473</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>1916</v>
@@ -1385,7 +1762,7 @@
         <v>2308.4210526315792</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1410,9 +1787,2377 @@
         <v>2687088.4210526319</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
+  <dimension ref="A1:M62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.5234375" customWidth="1"/>
+    <col min="2" max="2" width="7.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.68359375" customWidth="1"/>
+    <col min="7" max="7" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1015625" customWidth="1"/>
+    <col min="13" max="13" width="6.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B11" s="10">
+        <f>$L11*B$35/100</f>
+        <v>0.21995899184055759</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:K13" si="0">$L11*C$35/100</f>
+        <v>6275.2100782192674</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>3601.8284913891302</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.65987697552167279</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>21764.062406655812</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>5705.7362483440629</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>13085.80034257845</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>764.79741462961874</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>9.0183186654628589</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="0"/>
+        <v>856.96023221081236</v>
+      </c>
+      <c r="L11" s="12">
+        <f>45137+6308+691</f>
+        <v>52136</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" ref="M11:M24" si="1">L11-SUM(B11:K11)</f>
+        <v>71.706631340020976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <f>A11+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B12" s="10">
+        <f>$L12*B$35/100</f>
+        <v>0.12648823335836576</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>3608.5828094808162</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>2071.2448212432391</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37946470007509725</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>12515.504737876856</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>3281.1047733160071</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>7525.0379789558947</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>439.79958738703777</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>5.1860175676929954</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="0"/>
+        <v>492.79815716419296</v>
+      </c>
+      <c r="L12" s="12">
+        <f>22750+3066+4165</f>
+        <v>29981</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="1"/>
+        <v>41.23516407482748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <f t="shared" ref="A13:A31" si="2">A12+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B13" s="10">
+        <f>$L13*B$35/100</f>
+        <v>0.14578147544995063</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>4158.9997131116415</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>2387.1716604929416</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.43734442634985188</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>14424.493869870816</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>3781.5714731717198</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>8672.8315374684644</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>506.88219013947838</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9770404934479755</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="0"/>
+        <v>567.9646283530077</v>
+      </c>
+      <c r="L13" s="12">
+        <f>27221+2607+4726</f>
+        <v>34554</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="1"/>
+        <v>47.524760996682744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>1899</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6048</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5383</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>24275</v>
+      </c>
+      <c r="G14" s="5">
+        <v>6838</v>
+      </c>
+      <c r="H14" s="5">
+        <v>15517</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1657</v>
+      </c>
+      <c r="J14" s="5">
+        <v>29</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1012</v>
+      </c>
+      <c r="L14" s="5">
+        <v>60982</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>12515</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5349</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>37011</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10297</v>
+      </c>
+      <c r="H15" s="5">
+        <v>22500</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1165</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1859</v>
+      </c>
+      <c r="L15" s="5">
+        <v>90787</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>1901</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9966</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5643</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>37660</v>
+      </c>
+      <c r="G16" s="5">
+        <v>8805</v>
+      </c>
+      <c r="H16" s="5">
+        <v>21475</v>
+      </c>
+      <c r="I16" s="5">
+        <v>655</v>
+      </c>
+      <c r="J16" s="5">
+        <v>12</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1025</v>
+      </c>
+      <c r="L16" s="5">
+        <v>85257</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>1902</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>13854</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8542</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>37846</v>
+      </c>
+      <c r="G17" s="5">
+        <v>9975</v>
+      </c>
+      <c r="H17" s="5">
+        <v>33859</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1536</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1727</v>
+      </c>
+      <c r="L17" s="5">
+        <v>107347</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>1903</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>18776</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10485</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>47689</v>
+      </c>
+      <c r="G18" s="5">
+        <v>14420</v>
+      </c>
+      <c r="H18" s="5">
+        <v>39548</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3565</v>
+      </c>
+      <c r="J18" s="5">
+        <v>24</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1571</v>
+      </c>
+      <c r="L18" s="5">
+        <v>136093</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>1904</v>
+      </c>
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10077</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7128</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>77544</v>
+      </c>
+      <c r="G19" s="5">
+        <v>12707</v>
+      </c>
+      <c r="H19" s="5">
+        <v>32577</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3907</v>
+      </c>
+      <c r="J19" s="5">
+        <v>173</v>
+      </c>
+      <c r="K19" s="5">
+        <v>871</v>
+      </c>
+      <c r="L19" s="5">
+        <v>145141</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>1905</v>
+      </c>
+      <c r="B20" s="5">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <v>16671</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6722</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>92388</v>
+      </c>
+      <c r="G20" s="5">
+        <v>17649</v>
+      </c>
+      <c r="H20" s="5">
+        <v>47224</v>
+      </c>
+      <c r="I20" s="5">
+        <v>3278</v>
+      </c>
+      <c r="J20" s="5">
+        <v>178</v>
+      </c>
+      <c r="K20" s="5">
+        <v>690</v>
+      </c>
+      <c r="L20" s="5">
+        <v>184897</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>1906</v>
+      </c>
+      <c r="B21" s="5">
+        <v>130</v>
+      </c>
+      <c r="C21" s="5">
+        <v>13461</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10279</v>
+      </c>
+      <c r="E21" s="5">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <v>125234</v>
+      </c>
+      <c r="G21" s="5">
+        <v>13697</v>
+      </c>
+      <c r="H21" s="5">
+        <v>46204</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5282</v>
+      </c>
+      <c r="J21" s="5">
+        <v>259</v>
+      </c>
+      <c r="K21" s="5">
+        <v>937</v>
+      </c>
+      <c r="L21" s="5">
+        <v>215665</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>1907</v>
+      </c>
+      <c r="B22" s="5">
+        <v>341</v>
+      </c>
+      <c r="C22" s="5">
+        <v>14311</v>
+      </c>
+      <c r="D22" s="5">
+        <v>13480</v>
+      </c>
+      <c r="E22" s="5">
+        <v>46</v>
+      </c>
+      <c r="F22" s="5">
+        <v>114932</v>
+      </c>
+      <c r="G22" s="5">
+        <v>24811</v>
+      </c>
+      <c r="H22" s="5">
+        <v>73122</v>
+      </c>
+      <c r="I22" s="5">
+        <v>16085</v>
+      </c>
+      <c r="J22" s="5">
+        <v>150</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1416</v>
+      </c>
+      <c r="L22" s="5">
+        <v>258943</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>1908</v>
+      </c>
+      <c r="B23" s="5">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6303</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10009</v>
+      </c>
+      <c r="E23" s="5">
+        <v>24</v>
+      </c>
+      <c r="F23" s="5">
+        <v>71978</v>
+      </c>
+      <c r="G23" s="5">
+        <v>13270</v>
+      </c>
+      <c r="H23" s="5">
+        <v>37947</v>
+      </c>
+      <c r="I23" s="5">
+        <v>16324</v>
+      </c>
+      <c r="J23" s="5">
+        <v>37</v>
+      </c>
+      <c r="K23" s="5">
+        <v>527</v>
+      </c>
+      <c r="L23" s="5">
+        <v>156711</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>1909</v>
+      </c>
+      <c r="B24" s="5">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5">
+        <v>11202</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7781</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>39150</v>
+      </c>
+      <c r="G24" s="5">
+        <v>14595</v>
+      </c>
+      <c r="H24" s="5">
+        <v>37770</v>
+      </c>
+      <c r="I24" s="5">
+        <v>9099</v>
+      </c>
+      <c r="J24" s="5">
+        <v>70</v>
+      </c>
+      <c r="K24" s="5">
+        <v>591</v>
+      </c>
+      <c r="L24" s="5">
+        <v>120460</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>1910</v>
+      </c>
+      <c r="B25" s="5">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5">
+        <v>14999</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10016</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5">
+        <v>59824</v>
+      </c>
+      <c r="G25" s="5">
+        <v>21676</v>
+      </c>
+      <c r="H25" s="5">
+        <v>63635</v>
+      </c>
+      <c r="I25" s="5">
+        <v>14768</v>
+      </c>
+      <c r="J25" s="5">
+        <v>102</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1398</v>
+      </c>
+      <c r="L25" s="5">
+        <v>186792</v>
+      </c>
+      <c r="M25" s="5">
+        <f>L25-SUM(B25:K25)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1">
+        <f t="shared" si="2"/>
+        <v>1911</v>
+      </c>
+      <c r="B26" s="5">
+        <v>152</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8942</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8779</v>
+      </c>
+      <c r="E26" s="5">
+        <v>29</v>
+      </c>
+      <c r="F26" s="5">
+        <v>65472</v>
+      </c>
+      <c r="G26" s="5">
+        <v>16210</v>
+      </c>
+      <c r="H26" s="5">
+        <v>40193</v>
+      </c>
+      <c r="I26" s="5">
+        <v>17581</v>
+      </c>
+      <c r="J26" s="5">
+        <v>196</v>
+      </c>
+      <c r="K26" s="5">
+        <v>730</v>
+      </c>
+      <c r="L26" s="5">
+        <v>158721</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" ref="M26:M30" si="3">L26-SUM(B26:K26)</f>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1">
+        <f t="shared" si="2"/>
+        <v>1912</v>
+      </c>
+      <c r="B27" s="5">
+        <v>250</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5709</v>
+      </c>
+      <c r="D27" s="5">
+        <v>11031</v>
+      </c>
+      <c r="E27" s="5">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5">
+        <v>58389</v>
+      </c>
+      <c r="G27" s="5">
+        <v>13756</v>
+      </c>
+      <c r="H27" s="5">
+        <v>51244</v>
+      </c>
+      <c r="I27" s="5">
+        <v>21101</v>
+      </c>
+      <c r="J27" s="5">
+        <v>384</v>
+      </c>
+      <c r="K27" s="5">
+        <v>414</v>
+      </c>
+      <c r="L27" s="5">
+        <v>162395</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1">
+        <f t="shared" si="2"/>
+        <v>1913</v>
+      </c>
+      <c r="B28" s="5">
+        <v>909</v>
+      </c>
+      <c r="C28" s="5">
+        <v>11156</v>
+      </c>
+      <c r="D28" s="5">
+        <v>17857</v>
+      </c>
+      <c r="E28" s="5">
+        <v>30</v>
+      </c>
+      <c r="F28" s="5">
+        <v>74033</v>
+      </c>
+      <c r="G28" s="5">
+        <v>23873</v>
+      </c>
+      <c r="H28" s="5">
+        <v>112345</v>
+      </c>
+      <c r="I28" s="5">
+        <v>48472</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1074</v>
+      </c>
+      <c r="K28" s="5">
+        <v>892</v>
+      </c>
+      <c r="L28" s="5">
+        <v>291040</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="3"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1">
+        <f t="shared" si="2"/>
+        <v>1914</v>
+      </c>
+      <c r="B29" s="5">
+        <v>872</v>
+      </c>
+      <c r="C29" s="5">
+        <v>10968</v>
+      </c>
+      <c r="D29" s="5">
+        <v>9889</v>
+      </c>
+      <c r="E29" s="5">
+        <v>63</v>
+      </c>
+      <c r="F29" s="5">
+        <v>102638</v>
+      </c>
+      <c r="G29" s="5">
+        <v>20808</v>
+      </c>
+      <c r="H29" s="5">
+        <v>66278</v>
+      </c>
+      <c r="I29" s="5">
+        <v>40241</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2543</v>
+      </c>
+      <c r="K29" s="5">
+        <v>743</v>
+      </c>
+      <c r="L29" s="5">
+        <v>255660</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="3"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
+        <f t="shared" si="2"/>
+        <v>1915</v>
+      </c>
+      <c r="B30" s="5">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1650</v>
+      </c>
+      <c r="D30" s="5">
+        <v>905</v>
+      </c>
+      <c r="E30" s="5">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5">
+        <v>14496</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2218</v>
+      </c>
+      <c r="H30" s="5">
+        <v>4486</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2030</v>
+      </c>
+      <c r="J30" s="5">
+        <v>158</v>
+      </c>
+      <c r="K30" s="5">
+        <v>121</v>
+      </c>
+      <c r="L30" s="5">
+        <v>26187</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1">
+        <f t="shared" si="2"/>
+        <v>1916</v>
+      </c>
+      <c r="B31" s="5">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3834</v>
+      </c>
+      <c r="D31" s="5">
+        <v>63</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2138</v>
+      </c>
+      <c r="G31" s="5">
+        <v>136</v>
+      </c>
+      <c r="H31" s="5">
+        <v>277</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1026</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>267</v>
+      </c>
+      <c r="L31" s="5">
+        <v>7842</v>
+      </c>
+      <c r="M31" s="5">
+        <f>L31-SUM(B31:K31)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="5">
+        <f>SUM(B14:B16)</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" ref="C34:M34" si="4">SUM(C14:C16)</f>
+        <v>28529</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="4"/>
+        <v>16375</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="4"/>
+        <v>98946</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="4"/>
+        <v>25940</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="4"/>
+        <v>59492</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="4"/>
+        <v>3477</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="4"/>
+        <v>3896</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="4"/>
+        <v>237026</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" si="4"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <f>100*B34/$L34</f>
+        <v>4.218946444693831E-4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:M35" si="5">100*C34/$L34</f>
+        <v>12.03623231206703</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>6.9085248031861486</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>1.2656839334081493E-3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>41.74478749166758</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>10.943947077535798</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>25.099356188772539</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>1.4669276788200452</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>1.7297680423244706E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>1.6437015348527166</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>0.1375376540970189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B41" s="5">
+        <f>(B11+B12)/2</f>
+        <v>0.17322361259946167</v>
+      </c>
+      <c r="C41" s="5">
+        <f>(C11+C12)/2</f>
+        <v>4941.8964438500416</v>
+      </c>
+      <c r="D41" s="5">
+        <f>(D11+D12)/2</f>
+        <v>2836.5366563161847</v>
+      </c>
+      <c r="E41" s="5">
+        <f>(E11+E12)/2</f>
+        <v>0.51967083779838497</v>
+      </c>
+      <c r="F41" s="5">
+        <f>(F11+F12)/2</f>
+        <v>17139.783572266333</v>
+      </c>
+      <c r="G41" s="5">
+        <f>(G11+G12)/2</f>
+        <v>4493.4205108300348</v>
+      </c>
+      <c r="H41" s="5">
+        <f>(H11+H12)/2</f>
+        <v>10305.419160767173</v>
+      </c>
+      <c r="I41" s="5">
+        <f>(I11+I12)/2</f>
+        <v>602.29850100832823</v>
+      </c>
+      <c r="J41" s="5">
+        <f>(J11+J12)/2</f>
+        <v>7.1021681165779267</v>
+      </c>
+      <c r="K41" s="5">
+        <f>(K11+K12)/2</f>
+        <v>674.8791946875026</v>
+      </c>
+      <c r="L41" s="5">
+        <f>(L11+L12)/2</f>
+        <v>41058.5</v>
+      </c>
+      <c r="M41" s="5">
+        <f>(M11+M12)/2</f>
+        <v>56.470897707424228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
+        <f>A41+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B42" s="5">
+        <f t="shared" ref="B42:K42" si="6">(B12+B13)/2</f>
+        <v>0.13613485440415818</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="6"/>
+        <v>3883.7912612962291</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="6"/>
+        <v>2229.2082408680903</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40840456321247454</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="6"/>
+        <v>13469.999303873836</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="6"/>
+        <v>3531.3381232438633</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="6"/>
+        <v>8098.9347582121791</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="6"/>
+        <v>473.34088876325808</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="6"/>
+        <v>5.5815290305704854</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="6"/>
+        <v>530.38139275860033</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" ref="L42:M60" si="7">(L12+L13)/2</f>
+        <v>32267.5</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="7"/>
+        <v>44.379962535755112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
+        <f t="shared" ref="A43:A61" si="8">A42+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B43" s="5">
+        <f t="shared" ref="B43:K43" si="9">(B13+B14)/2</f>
+        <v>7.2890737724975313E-2</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="9"/>
+        <v>5103.4998565558208</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="9"/>
+        <v>3885.0858302464708</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="9"/>
+        <v>0.71867221317492591</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="9"/>
+        <v>19349.746934935407</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="9"/>
+        <v>5309.7857365858599</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="9"/>
+        <v>12094.915768734232</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="9"/>
+        <v>1081.9410950697393</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="9"/>
+        <v>17.488520246723986</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="9"/>
+        <v>789.98231417650391</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="7"/>
+        <v>47768</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="7"/>
+        <v>134.76238049834137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
+        <f t="shared" si="8"/>
+        <v>1899</v>
+      </c>
+      <c r="B44" s="5">
+        <f t="shared" ref="B44:K44" si="10">(B14+B15)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="10"/>
+        <v>9281.5</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="10"/>
+        <v>5366</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="10"/>
+        <v>30643</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="10"/>
+        <v>8567.5</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="10"/>
+        <v>19008.5</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="10"/>
+        <v>1411</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="10"/>
+        <v>14.5</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="10"/>
+        <v>1435.5</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="7"/>
+        <v>75884.5</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1">
+        <f t="shared" si="8"/>
+        <v>1900</v>
+      </c>
+      <c r="B45" s="5">
+        <f t="shared" ref="B45:K45" si="11">(B15+B16)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="11"/>
+        <v>11240.5</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="11"/>
+        <v>5496</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="11"/>
+        <v>37335.5</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="11"/>
+        <v>9551</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="11"/>
+        <v>21987.5</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="11"/>
+        <v>910</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="11"/>
+        <v>1442</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="7"/>
+        <v>88022</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
+        <f t="shared" si="8"/>
+        <v>1901</v>
+      </c>
+      <c r="B46" s="5">
+        <f t="shared" ref="B46:K46" si="12">(B16+B17)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="12"/>
+        <v>11910</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="12"/>
+        <v>7092.5</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="12"/>
+        <v>37753</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="12"/>
+        <v>9390</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="12"/>
+        <v>27667</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="12"/>
+        <v>1095.5</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="12"/>
+        <v>1376</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="7"/>
+        <v>96302</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="B47" s="5">
+        <f t="shared" ref="B47:K47" si="13">(B17+B18)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="13"/>
+        <v>16315</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="13"/>
+        <v>9513.5</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="13"/>
+        <v>42767.5</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="13"/>
+        <v>12197.5</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="13"/>
+        <v>36703.5</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="13"/>
+        <v>2550.5</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="13"/>
+        <v>1649</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="7"/>
+        <v>121720</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="7"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
+        <f t="shared" si="8"/>
+        <v>1903</v>
+      </c>
+      <c r="B48" s="5">
+        <f t="shared" ref="B48:K48" si="14">(B18+B19)/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="14"/>
+        <v>14426.5</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="14"/>
+        <v>8806.5</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="14"/>
+        <v>62616.5</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="14"/>
+        <v>13563.5</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="14"/>
+        <v>36062.5</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="14"/>
+        <v>3736</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="14"/>
+        <v>98.5</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="14"/>
+        <v>1221</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="7"/>
+        <v>140617</v>
+      </c>
+      <c r="M48" s="5">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
+        <f t="shared" si="8"/>
+        <v>1904</v>
+      </c>
+      <c r="B49" s="5">
+        <f t="shared" ref="B49:K49" si="15">(B19+B20)/2</f>
+        <v>13.5</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="15"/>
+        <v>13374</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="15"/>
+        <v>6925</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="15"/>
+        <v>84966</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="15"/>
+        <v>15178</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="15"/>
+        <v>39900.5</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="15"/>
+        <v>3592.5</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="15"/>
+        <v>175.5</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="15"/>
+        <v>780.5</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="7"/>
+        <v>165019</v>
+      </c>
+      <c r="M49" s="5">
+        <f t="shared" si="7"/>
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
+        <f t="shared" si="8"/>
+        <v>1905</v>
+      </c>
+      <c r="B50" s="5">
+        <f t="shared" ref="B50:K50" si="16">(B20+B21)/2</f>
+        <v>70</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="16"/>
+        <v>15066</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="16"/>
+        <v>8500.5</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="16"/>
+        <v>108811</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="16"/>
+        <v>15673</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="16"/>
+        <v>46714</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="16"/>
+        <v>4280</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="16"/>
+        <v>218.5</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="16"/>
+        <v>813.5</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="7"/>
+        <v>200281</v>
+      </c>
+      <c r="M50" s="5">
+        <f t="shared" si="7"/>
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1">
+        <f t="shared" si="8"/>
+        <v>1906</v>
+      </c>
+      <c r="B51" s="5">
+        <f t="shared" ref="B51:K51" si="17">(B21+B22)/2</f>
+        <v>235.5</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="17"/>
+        <v>13886</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="17"/>
+        <v>11879.5</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="17"/>
+        <v>30.5</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="17"/>
+        <v>120083</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="17"/>
+        <v>19254</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="17"/>
+        <v>59663</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="17"/>
+        <v>10683.5</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="17"/>
+        <v>204.5</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="17"/>
+        <v>1176.5</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="7"/>
+        <v>237304</v>
+      </c>
+      <c r="M51" s="5">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1">
+        <f t="shared" si="8"/>
+        <v>1907</v>
+      </c>
+      <c r="B52" s="5">
+        <f t="shared" ref="B52:K52" si="18">(B22+B23)/2</f>
+        <v>201.5</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="18"/>
+        <v>10307</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="18"/>
+        <v>11744.5</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="18"/>
+        <v>35</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="18"/>
+        <v>93455</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="18"/>
+        <v>19040.5</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="18"/>
+        <v>55534.5</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="18"/>
+        <v>16204.5</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="18"/>
+        <v>93.5</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="18"/>
+        <v>971.5</v>
+      </c>
+      <c r="L52" s="5">
+        <f t="shared" si="7"/>
+        <v>207827</v>
+      </c>
+      <c r="M52" s="5">
+        <f t="shared" si="7"/>
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1">
+        <f t="shared" si="8"/>
+        <v>1908</v>
+      </c>
+      <c r="B53" s="5">
+        <f t="shared" ref="B53:K53" si="19">(B23+B24)/2</f>
+        <v>56</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="19"/>
+        <v>8752.5</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="19"/>
+        <v>8895</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="19"/>
+        <v>14.5</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="19"/>
+        <v>55564</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="19"/>
+        <v>13932.5</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="19"/>
+        <v>37858.5</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="19"/>
+        <v>12711.5</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="19"/>
+        <v>53.5</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="19"/>
+        <v>559</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="7"/>
+        <v>138585.5</v>
+      </c>
+      <c r="M53" s="5">
+        <f t="shared" si="7"/>
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1">
+        <f t="shared" si="8"/>
+        <v>1909</v>
+      </c>
+      <c r="B54" s="5">
+        <f t="shared" ref="B54:K54" si="20">(B24+B25)/2</f>
+        <v>51</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="20"/>
+        <v>13100.5</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="20"/>
+        <v>8898.5</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="20"/>
+        <v>49487</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="20"/>
+        <v>18135.5</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="20"/>
+        <v>50702.5</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="20"/>
+        <v>11933.5</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="20"/>
+        <v>86</v>
+      </c>
+      <c r="K54" s="5">
+        <f t="shared" si="20"/>
+        <v>994.5</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="shared" si="7"/>
+        <v>153626</v>
+      </c>
+      <c r="M54" s="5">
+        <f t="shared" si="7"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1">
+        <f t="shared" si="8"/>
+        <v>1910</v>
+      </c>
+      <c r="B55" s="5">
+        <f t="shared" ref="B55:K55" si="21">(B25+B26)/2</f>
+        <v>102</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="21"/>
+        <v>11970.5</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="21"/>
+        <v>9397.5</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="21"/>
+        <v>62648</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="21"/>
+        <v>18943</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="21"/>
+        <v>51914</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="21"/>
+        <v>16174.5</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="21"/>
+        <v>149</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="21"/>
+        <v>1064</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="7"/>
+        <v>172756.5</v>
+      </c>
+      <c r="M55" s="5">
+        <f t="shared" si="7"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
+        <f t="shared" si="8"/>
+        <v>1911</v>
+      </c>
+      <c r="B56" s="5">
+        <f t="shared" ref="B56:K56" si="22">(B26+B27)/2</f>
+        <v>201</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="22"/>
+        <v>7325.5</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="22"/>
+        <v>9905</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="22"/>
+        <v>61930.5</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="22"/>
+        <v>14983</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="22"/>
+        <v>45718.5</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="22"/>
+        <v>19341</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="22"/>
+        <v>290</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="22"/>
+        <v>572</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="7"/>
+        <v>160558</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="7"/>
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1">
+        <f t="shared" si="8"/>
+        <v>1912</v>
+      </c>
+      <c r="B57" s="5">
+        <f t="shared" ref="B57:K57" si="23">(B27+B28)/2</f>
+        <v>579.5</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="23"/>
+        <v>8432.5</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="23"/>
+        <v>14444</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="23"/>
+        <v>19.5</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="23"/>
+        <v>66211</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="23"/>
+        <v>18814.5</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="23"/>
+        <v>81794.5</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="23"/>
+        <v>34786.5</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="23"/>
+        <v>729</v>
+      </c>
+      <c r="K57" s="5">
+        <f t="shared" si="23"/>
+        <v>653</v>
+      </c>
+      <c r="L57" s="5">
+        <f t="shared" si="7"/>
+        <v>226717.5</v>
+      </c>
+      <c r="M57" s="5">
+        <f t="shared" si="7"/>
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1">
+        <f t="shared" si="8"/>
+        <v>1913</v>
+      </c>
+      <c r="B58" s="5">
+        <f t="shared" ref="B58:K58" si="24">(B28+B29)/2</f>
+        <v>890.5</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="24"/>
+        <v>11062</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="24"/>
+        <v>13873</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="24"/>
+        <v>46.5</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="24"/>
+        <v>88335.5</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="24"/>
+        <v>22340.5</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="24"/>
+        <v>89311.5</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="24"/>
+        <v>44356.5</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="24"/>
+        <v>1808.5</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="24"/>
+        <v>817.5</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="7"/>
+        <v>273350</v>
+      </c>
+      <c r="M58" s="5">
+        <f t="shared" si="7"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1">
+        <f t="shared" si="8"/>
+        <v>1914</v>
+      </c>
+      <c r="B59" s="5">
+        <f t="shared" ref="B59:K59" si="25">(B29+B30)/2</f>
+        <v>456.5</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="25"/>
+        <v>6309</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="25"/>
+        <v>5397</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="25"/>
+        <v>38.5</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="25"/>
+        <v>58567</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="25"/>
+        <v>11513</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" si="25"/>
+        <v>35382</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="25"/>
+        <v>21135.5</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="25"/>
+        <v>1350.5</v>
+      </c>
+      <c r="K59" s="5">
+        <f t="shared" si="25"/>
+        <v>432</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="7"/>
+        <v>140923.5</v>
+      </c>
+      <c r="M59" s="5">
+        <f t="shared" si="7"/>
+        <v>342.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1">
+        <f t="shared" si="8"/>
+        <v>1915</v>
+      </c>
+      <c r="B60" s="5">
+        <f t="shared" ref="B60:K60" si="26">(B30+B31)/2</f>
+        <v>42.5</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="26"/>
+        <v>2742</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="26"/>
+        <v>484</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="26"/>
+        <v>8317</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="26"/>
+        <v>1177</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="26"/>
+        <v>2381.5</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="26"/>
+        <v>1528</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="26"/>
+        <v>80</v>
+      </c>
+      <c r="K60" s="5">
+        <f t="shared" si="26"/>
+        <v>194</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="7"/>
+        <v>17014.5</v>
+      </c>
+      <c r="M60" s="5">
+        <f t="shared" si="7"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="14">
+        <f>SUM(B41:B60)</f>
+        <v>2909.3822492047284</v>
+      </c>
+      <c r="C61" s="14">
+        <f t="shared" ref="C61:M61" si="27">SUM(C41:C60)</f>
+        <v>199430.1875617021</v>
+      </c>
+      <c r="D61" s="14">
+        <f t="shared" si="27"/>
+        <v>155568.83072743076</v>
+      </c>
+      <c r="E61" s="14">
+        <f t="shared" si="27"/>
+        <v>251.14674761418578</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" si="27"/>
+        <v>1119450.0298110754</v>
+      </c>
+      <c r="G61" s="14">
+        <f t="shared" si="27"/>
+        <v>255588.54437065974</v>
+      </c>
+      <c r="H61" s="14">
+        <f t="shared" si="27"/>
+        <v>768803.26968771359</v>
+      </c>
+      <c r="I61" s="14">
+        <f t="shared" si="27"/>
+        <v>208588.08048484131</v>
+      </c>
+      <c r="J61" s="14">
+        <f t="shared" si="27"/>
+        <v>5405.6722173938724</v>
+      </c>
+      <c r="K61" s="14">
+        <f t="shared" si="27"/>
+        <v>18146.742901622609</v>
+      </c>
+      <c r="L61" s="14">
+        <f t="shared" si="27"/>
+        <v>2737602</v>
+      </c>
+      <c r="M61" s="14">
+        <f t="shared" si="27"/>
+        <v>3460.1132407415207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="15">
+        <f>100*B61/$L61</f>
+        <v>0.10627484379412085</v>
+      </c>
+      <c r="C62" s="15">
+        <f t="shared" ref="C62:M62" si="28">100*C61/$L61</f>
+        <v>7.2848495713292909</v>
+      </c>
+      <c r="D62" s="15">
+        <f t="shared" si="28"/>
+        <v>5.6826679235122848</v>
+      </c>
+      <c r="E62" s="15">
+        <f t="shared" si="28"/>
+        <v>9.1739685905469735E-3</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="28"/>
+        <v>40.891628140652855</v>
+      </c>
+      <c r="G62" s="15">
+        <f t="shared" si="28"/>
+        <v>9.336219960778072</v>
+      </c>
+      <c r="H62" s="15">
+        <f t="shared" si="28"/>
+        <v>28.083091321810603</v>
+      </c>
+      <c r="I62" s="15">
+        <f t="shared" si="28"/>
+        <v>7.6193720082335314</v>
+      </c>
+      <c r="J62" s="15">
+        <f t="shared" si="28"/>
+        <v>0.19746012084276213</v>
+      </c>
+      <c r="K62" s="15">
+        <f t="shared" si="28"/>
+        <v>0.66287001914897081</v>
+      </c>
+      <c r="L62" s="15">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="M62" s="15">
+        <f t="shared" si="28"/>
+        <v>0.12639212130695113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040FA58E-1CEB-4B57-9E13-00F99C7FB4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDBD49-2A08-472A-B43A-FB8D24CB192A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60255" yWindow="555" windowWidth="30255" windowHeight="21915" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="59070" yWindow="1065" windowWidth="25635" windowHeight="21915" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -158,9 +158,6 @@
     <t>https://books.google.com/books?id=mmVVUktJiIsC</t>
   </si>
   <si>
-    <t>Annual report of the Commissioner-General of Immigration 1897 стр. 14</t>
-  </si>
-  <si>
     <t>https://books.google.com/books?id=N5QoAAAAMAAJ</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>https://www.google.com/books/edition/Annual_Report_of_the_Commissioner_Genera/9g4w6AU9gv0C</t>
   </si>
   <si>
-    <t>Annual report of the Commissioner-General of Immigration 1898 стр.  4</t>
-  </si>
-  <si>
     <t>https://www.google.com/books/edition/Annual_Report_of_the_Commissioner_Genera/44JGAQAAIAAJ</t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>кал. год</t>
   </si>
   <si>
-    <t>1896-1915</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -332,13 +323,54 @@
     <t>приводит значения за год к 30 июня указанного финансового года</t>
   </si>
   <si>
-    <t>нет</t>
-  </si>
-  <si>
     <t>Разбивка по народностям иммигрантов из Россси в США в финансовый год заканчивающийся 30 июня YYYY.</t>
   </si>
   <si>
     <t>Для 1896-1899 гг. разбивка расчитана исходя из общего числа иммигрантов из России в США в данный год, в предположении,</t>
+  </si>
+  <si>
+    <t>-нет-</t>
+  </si>
+  <si>
+    <t>из всех стран</t>
+  </si>
+  <si>
+    <t>% из России</t>
+  </si>
+  <si>
+    <t>"литовцы" = латыши + литовцы + эстонцы</t>
+  </si>
+  <si>
+    <t>"скандинавы" = норвежцы + шведы + датчане</t>
+  </si>
+  <si>
+    <t>по Annual report 1916 стр. 76-79:</t>
+  </si>
+  <si>
+    <t>Annual report of the Commissioner-General of Immigration 1898 стр.  4, 28</t>
+  </si>
+  <si>
+    <t>для 1896-1898: Russia (proper) + Finald + Poland</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Russia
+proper</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>R+F+P</t>
+  </si>
+  <si>
+    <t>Annual report of the Commissioner-General of Immigration 1897 стр. 14, 18</t>
+  </si>
+  <si>
+    <t>фин.
+год</t>
   </si>
 </sst>
 </file>
@@ -349,7 +381,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +397,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +422,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -398,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,6 +476,21 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,30 +805,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E018E8-FFD2-476D-8A98-BDF34A70858D}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.578125" customWidth="1"/>
     <col min="3" max="3" width="20.83984375" customWidth="1"/>
     <col min="4" max="4" width="24.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -782,7 +840,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5">
       <c r="B6" s="1">
         <v>1904</v>
       </c>
@@ -793,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5">
       <c r="B7" s="1">
         <v>1906</v>
       </c>
@@ -804,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5">
       <c r="B8" s="1">
         <v>1909</v>
       </c>
@@ -815,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5">
       <c r="B9" s="1">
         <v>1910</v>
       </c>
@@ -826,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5">
       <c r="B10" s="1">
         <v>1911</v>
       </c>
@@ -837,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5">
       <c r="B11" s="1">
         <v>1912</v>
       </c>
@@ -848,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5">
       <c r="B12" s="1">
         <v>1913</v>
       </c>
@@ -859,355 +917,370 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2">
       <c r="B34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2">
       <c r="B35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
+      <c r="C59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3">
       <c r="B60" s="1">
         <v>1896</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="B61" s="1">
         <f>B60+1</f>
         <v>1897</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="B62" s="1">
         <f t="shared" ref="B62:B80" si="0">B61+1</f>
         <v>1898</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>1899</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68" s="1">
         <f t="shared" si="0"/>
         <v>1904</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69" s="1">
         <f t="shared" si="0"/>
         <v>1905</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70" s="1">
         <f t="shared" si="0"/>
         <v>1906</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71" s="1">
         <f t="shared" si="0"/>
         <v>1907</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72" s="1">
         <f t="shared" si="0"/>
         <v>1908</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" s="1">
         <f t="shared" si="0"/>
         <v>1909</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
       <c r="B74" s="1">
         <f t="shared" si="0"/>
         <v>1910</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75" s="1">
         <f t="shared" si="0"/>
         <v>1911</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76" s="1">
         <f t="shared" si="0"/>
         <v>1912</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77" s="1">
         <f t="shared" si="0"/>
         <v>1913</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78" s="1">
         <f t="shared" si="0"/>
         <v>1914</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
       <c r="B79" s="1">
         <f t="shared" si="0"/>
         <v>1915</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80" s="1">
         <f t="shared" si="0"/>
         <v>1916</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1217,20 +1290,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7496F63D-12C4-4F78-B39E-C61E39C373AD}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="P1" sqref="P1:T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="10.41796875" customWidth="1"/>
     <col min="5" max="5" width="12.41796875" customWidth="1"/>
     <col min="6" max="6" width="27.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="43.2">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
@@ -1250,13 +1323,28 @@
         <v>21</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>1896</v>
       </c>
@@ -1279,8 +1367,27 @@
         <f t="shared" ref="F2:F7" si="2">D2/0.95</f>
         <v>48240</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1896</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>45137</v>
+      </c>
+      <c r="R2" s="5">
+        <v>6308</v>
+      </c>
+      <c r="S2" s="5">
+        <v>691</v>
+      </c>
+      <c r="T2" s="5">
+        <f>SUM(Q2:S2)</f>
+        <v>52136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1897</v>
@@ -1304,8 +1411,25 @@
         <f t="shared" si="2"/>
         <v>28331.578947368424</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" s="1">
+        <f>P2+1</f>
+        <v>1897</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>22750</v>
+      </c>
+      <c r="R3" s="5">
+        <v>3066</v>
+      </c>
+      <c r="S3" s="5">
+        <v>4165</v>
+      </c>
+      <c r="T3" s="5">
+        <f>SUM(Q3:S3)</f>
+        <v>29981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A22" si="3">A3+1</f>
         <v>1898</v>
@@ -1329,8 +1453,25 @@
         <f t="shared" si="2"/>
         <v>33628.42105263158</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" s="1">
+        <f t="shared" ref="P4" si="4">P3+1</f>
+        <v>1898</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>27221</v>
+      </c>
+      <c r="R4" s="5">
+        <v>2607</v>
+      </c>
+      <c r="S4" s="5">
+        <v>4726</v>
+      </c>
+      <c r="T4" s="5">
+        <f>SUM(Q4:S4)</f>
+        <v>34554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>1899</v>
@@ -1354,7 +1495,7 @@
         <v>57773.68421052632</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>1900</v>
@@ -1378,7 +1519,7 @@
         <v>82289.473684210534</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>1901</v>
@@ -1402,7 +1543,7 @@
         <v>79218.947368421053</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>1902</v>
@@ -1414,19 +1555,19 @@
         <v>13868</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D22" si="4">B8-C8</f>
+        <f t="shared" ref="D8:D22" si="5">B8-C8</f>
         <v>93479</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:E23" si="5">C8/B8</f>
+        <f t="shared" ref="E8:E23" si="6">C8/B8</f>
         <v>0.12918851947422844</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F22" si="6">D8/0.95</f>
+        <f t="shared" ref="F8:F22" si="7">D8/0.95</f>
         <v>98398.947368421053</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>1903</v>
@@ -1438,19 +1579,19 @@
         <v>18864</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>117229</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13861109682349571</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123398.94736842105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>1904</v>
@@ -1462,19 +1603,19 @@
         <v>10157</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134984</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9980226124940578E-2</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142088.42105263157</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>1905</v>
@@ -1486,19 +1627,19 @@
         <v>17012</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>167885</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2007982822868956E-2</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>176721.05263157896</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>1906</v>
@@ -1510,19 +1651,19 @@
         <v>14136</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>201529</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5546101592748013E-2</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>212135.78947368421</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>1907</v>
@@ -1534,19 +1675,19 @@
         <v>14860</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>244083</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7387146978292523E-2</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>256929.47368421053</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>1908</v>
@@ -1558,19 +1699,19 @@
         <v>6746</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149965</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3047392971776073E-2</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>157857.89473684211</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>1909</v>
@@ -1582,19 +1723,19 @@
         <v>11687</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108773</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7019757595882453E-2</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>114497.89473684211</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>1910</v>
@@ -1606,19 +1747,19 @@
         <v>15736</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>171056</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4243436549745171E-2</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>180058.94736842107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>1911</v>
@@ -1630,19 +1771,19 @@
         <v>9779</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148942</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1611254969411736E-2</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156781.05263157896</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>1912</v>
@@ -1654,19 +1795,19 @@
         <v>6641</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>155754</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.089411619815881E-2</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>163951.57894736843</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>1913</v>
@@ -1678,19 +1819,19 @@
         <v>12756</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>278284</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3829026937877956E-2</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>292930.5263157895</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>1914</v>
@@ -1702,19 +1843,19 @@
         <v>12805</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>242855</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0086051787530311E-2</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>255636.84210526317</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>1915</v>
@@ -1726,19 +1867,19 @@
         <v>3472</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22715</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13258487035551991</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23910.526315789473</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>1916</v>
@@ -1750,21 +1891,21 @@
         <v>5649</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2193</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72035195103289973</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2308.4210526315792</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5">
         <f>SUM(B2:B22)</f>
@@ -1779,7 +1920,7 @@
         <v>2552734</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7633219648423485E-2</v>
       </c>
       <c r="F23" s="5">
@@ -1787,7 +1928,7 @@
         <v>2687088.4210526319</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
@@ -1798,96 +1939,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.5234375" customWidth="1"/>
     <col min="2" max="2" width="7.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1015625" customWidth="1"/>
+    <col min="4" max="4" width="7.578125" customWidth="1"/>
+    <col min="5" max="5" width="5.734375" customWidth="1"/>
     <col min="6" max="6" width="8.68359375" customWidth="1"/>
     <col min="7" max="7" width="8.20703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.68359375" customWidth="1"/>
+    <col min="9" max="9" width="7.578125" customWidth="1"/>
     <col min="10" max="10" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1015625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1015625" customWidth="1"/>
+    <col min="11" max="11" width="10.9453125" customWidth="1"/>
+    <col min="12" max="12" width="10.1015625" customWidth="1"/>
     <col min="13" max="13" width="6.7890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="P9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="S10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI10" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
         <v>1896</v>
       </c>
@@ -1939,8 +2172,9 @@
         <f t="shared" ref="M11:M24" si="1">L11-SUM(B11:K11)</f>
         <v>71.706631340020976</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
         <f>A11+1</f>
         <v>1897</v>
@@ -1993,8 +2227,9 @@
         <f t="shared" si="1"/>
         <v>41.23516407482748</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
         <f t="shared" ref="A13:A31" si="2">A12+1</f>
         <v>1898</v>
@@ -2047,8 +2282,9 @@
         <f t="shared" si="1"/>
         <v>47.524760996682744</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>1899</v>
@@ -2090,8 +2326,63 @@
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P14" s="18">
+        <v>6097</v>
+      </c>
+      <c r="Q14" s="20">
+        <f>100*C14/P14</f>
+        <v>99.196326061997709</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="18">
+        <v>26632</v>
+      </c>
+      <c r="T14" s="20">
+        <f>100*D14/S14</f>
+        <v>20.212526284169421</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="18">
+        <v>37415</v>
+      </c>
+      <c r="W14" s="20">
+        <f>100*F14/V14</f>
+        <v>64.880395563276764</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="17">
+        <v>6858</v>
+      </c>
+      <c r="Z14" s="20">
+        <f>100*G14/Y14</f>
+        <v>99.708369787109945</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="17">
+        <v>28466</v>
+      </c>
+      <c r="AC14" s="20">
+        <f>100*H14/AB14</f>
+        <v>54.510644277383548</v>
+      </c>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="17">
+        <v>1774</v>
+      </c>
+      <c r="AF14" s="20">
+        <f>100*I14/AE14</f>
+        <v>93.404735062006765</v>
+      </c>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="17">
+        <v>23249</v>
+      </c>
+      <c r="AI14" s="20">
+        <f>100*K14/AH14</f>
+        <v>4.3528753924899997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>1900</v>
@@ -2133,8 +2424,63 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P15" s="18">
+        <v>12612</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" ref="Q15:Q32" si="3">100*C15/P15</f>
+        <v>99.230891214716138</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="18">
+        <v>29682</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" ref="T15:T32" si="4">100*D15/S15</f>
+        <v>18.021022842126541</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="18">
+        <v>60764</v>
+      </c>
+      <c r="W15" s="20">
+        <f t="shared" ref="W15:W32" si="5">100*F15/V15</f>
+        <v>60.909420051346189</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="17">
+        <v>10311</v>
+      </c>
+      <c r="Z15" s="20">
+        <f t="shared" ref="Z15:Z32" si="6">100*G15/Y15</f>
+        <v>99.864222674813306</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="17">
+        <v>46938</v>
+      </c>
+      <c r="AC15" s="20">
+        <f t="shared" ref="AC15:AC32" si="7">100*H15/AB15</f>
+        <v>47.935574587754061</v>
+      </c>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="17">
+        <v>1200</v>
+      </c>
+      <c r="AF15" s="20">
+        <f t="shared" ref="AF15:AF32" si="8">100*I15/AE15</f>
+        <v>97.083333333333329</v>
+      </c>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="17">
+        <v>32952</v>
+      </c>
+      <c r="AI15" s="20">
+        <f t="shared" ref="AI15:AI32" si="9">100*K15/AH15</f>
+        <v>5.6415392085457636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>1901</v>
@@ -2176,8 +2522,63 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P16" s="18">
+        <v>9999</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="3"/>
+        <v>99.669966996699671</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="18">
+        <v>34742</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="4"/>
+        <v>16.242588221748893</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="18">
+        <v>58098</v>
+      </c>
+      <c r="W16" s="20">
+        <f t="shared" si="5"/>
+        <v>64.82150848566215</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="17">
+        <v>8815</v>
+      </c>
+      <c r="Z16" s="20">
+        <f t="shared" si="6"/>
+        <v>99.886557005104933</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="17">
+        <v>43617</v>
+      </c>
+      <c r="AC16" s="20">
+        <f t="shared" si="7"/>
+        <v>49.235389870921885</v>
+      </c>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="17">
+        <v>672</v>
+      </c>
+      <c r="AF16" s="20">
+        <f t="shared" si="8"/>
+        <v>97.470238095238102</v>
+      </c>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="17">
+        <v>40277</v>
+      </c>
+      <c r="AI16" s="20">
+        <f t="shared" si="9"/>
+        <v>2.5448767286540708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>1902</v>
@@ -2219,8 +2620,63 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P17" s="18">
+        <v>13868</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="3"/>
+        <v>99.899048168445347</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="18">
+        <v>51686</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="4"/>
+        <v>16.526719034167861</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="18">
+        <v>57688</v>
+      </c>
+      <c r="W17" s="20">
+        <f t="shared" si="5"/>
+        <v>65.604631812508671</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="17">
+        <v>11629</v>
+      </c>
+      <c r="Z17" s="20">
+        <f t="shared" si="6"/>
+        <v>85.77693696792501</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="17">
+        <v>69620</v>
+      </c>
+      <c r="AC17" s="20">
+        <f t="shared" si="7"/>
+        <v>48.634013214593509</v>
+      </c>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="17">
+        <v>1551</v>
+      </c>
+      <c r="AF17" s="20">
+        <f t="shared" si="8"/>
+        <v>99.032882011605409</v>
+      </c>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="17">
+        <v>55780</v>
+      </c>
+      <c r="AI17" s="20">
+        <f t="shared" si="9"/>
+        <v>3.0960917891717461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>1903</v>
@@ -2262,8 +2718,63 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P18" s="18">
+        <v>18864</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="3"/>
+        <v>99.533502968617469</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="18">
+        <v>71782</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="4"/>
+        <v>14.606725920147111</v>
+      </c>
+      <c r="U18" s="5"/>
+      <c r="V18" s="18">
+        <v>76203</v>
+      </c>
+      <c r="W18" s="20">
+        <f t="shared" si="5"/>
+        <v>62.581525661719354</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="17">
+        <v>14432</v>
+      </c>
+      <c r="Z18" s="20">
+        <f t="shared" si="6"/>
+        <v>99.91685144124169</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="17">
+        <v>82343</v>
+      </c>
+      <c r="AC18" s="20">
+        <f t="shared" si="7"/>
+        <v>48.028369138846045</v>
+      </c>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="17">
+        <v>3608</v>
+      </c>
+      <c r="AF18" s="20">
+        <f t="shared" si="8"/>
+        <v>98.808203991130824</v>
+      </c>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="17">
+        <v>79347</v>
+      </c>
+      <c r="AI18" s="20">
+        <f t="shared" si="9"/>
+        <v>1.9799110237312059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>1904</v>
@@ -2305,8 +2816,63 @@
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P19" s="18">
+        <v>10157</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="3"/>
+        <v>99.212365856059861</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="18">
+        <v>74790</v>
+      </c>
+      <c r="T19" s="20">
+        <f t="shared" si="4"/>
+        <v>9.5306859205776178</v>
+      </c>
+      <c r="U19" s="5"/>
+      <c r="V19" s="18">
+        <v>106236</v>
+      </c>
+      <c r="W19" s="20">
+        <f t="shared" si="5"/>
+        <v>72.992206031853613</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="17">
+        <v>12780</v>
+      </c>
+      <c r="Z19" s="20">
+        <f t="shared" si="6"/>
+        <v>99.42879499217527</v>
+      </c>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="17">
+        <v>67757</v>
+      </c>
+      <c r="AC19" s="20">
+        <f t="shared" si="7"/>
+        <v>48.079165252298658</v>
+      </c>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="17">
+        <v>3861</v>
+      </c>
+      <c r="AF19" s="20">
+        <f t="shared" si="8"/>
+        <v>101.1914011914012</v>
+      </c>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="17">
+        <v>61029</v>
+      </c>
+      <c r="AI19" s="20">
+        <f t="shared" si="9"/>
+        <v>1.427190352127677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>1905</v>
@@ -2348,8 +2914,63 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P20" s="18">
+        <v>17012</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="3"/>
+        <v>97.995532565248055</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="18">
+        <v>82360</v>
+      </c>
+      <c r="T20" s="20">
+        <f t="shared" si="4"/>
+        <v>8.1617289946576008</v>
+      </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="18">
+        <v>129910</v>
+      </c>
+      <c r="W20" s="20">
+        <f t="shared" si="5"/>
+        <v>71.116927103379268</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="17">
+        <v>18604</v>
+      </c>
+      <c r="Z20" s="20">
+        <f t="shared" si="6"/>
+        <v>94.866695334336697</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="17">
+        <v>102437</v>
+      </c>
+      <c r="AC20" s="20">
+        <f t="shared" si="7"/>
+        <v>46.100530081903997</v>
+      </c>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="17">
+        <v>3746</v>
+      </c>
+      <c r="AF20" s="20">
+        <f t="shared" si="8"/>
+        <v>87.506673785371063</v>
+      </c>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="17">
+        <v>62284</v>
+      </c>
+      <c r="AI20" s="20">
+        <f t="shared" si="9"/>
+        <v>1.1078286558345642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>1906</v>
@@ -2391,8 +3012,63 @@
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P21" s="18">
+        <v>14136</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="3"/>
+        <v>95.224957555178264</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="18">
+        <v>86813</v>
+      </c>
+      <c r="T21" s="20">
+        <f t="shared" si="4"/>
+        <v>11.840392567933375</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="18">
+        <v>153748</v>
+      </c>
+      <c r="W21" s="20">
+        <f t="shared" si="5"/>
+        <v>81.454067695189536</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="17">
+        <v>14257</v>
+      </c>
+      <c r="Z21" s="20">
+        <f t="shared" si="6"/>
+        <v>96.072104930911138</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="17">
+        <v>95835</v>
+      </c>
+      <c r="AC21" s="20">
+        <f t="shared" si="7"/>
+        <v>48.212031095111392</v>
+      </c>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="17">
+        <v>5814</v>
+      </c>
+      <c r="AF21" s="20">
+        <f t="shared" si="8"/>
+        <v>90.849673202614383</v>
+      </c>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="17">
+        <v>58141</v>
+      </c>
+      <c r="AI21" s="20">
+        <f t="shared" si="9"/>
+        <v>1.61159938769543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>1907</v>
@@ -2434,8 +3110,63 @@
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P22" s="18">
+        <v>14860</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="3"/>
+        <v>96.305518169582768</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="18">
+        <v>92936</v>
+      </c>
+      <c r="T22" s="20">
+        <f t="shared" si="4"/>
+        <v>14.504605319789963</v>
+      </c>
+      <c r="U22" s="5"/>
+      <c r="V22" s="18">
+        <v>149182</v>
+      </c>
+      <c r="W22" s="20">
+        <f t="shared" si="5"/>
+        <v>77.041466128621408</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="17">
+        <v>25884</v>
+      </c>
+      <c r="Z22" s="20">
+        <f t="shared" si="6"/>
+        <v>95.854581981146652</v>
+      </c>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="17">
+        <v>138033</v>
+      </c>
+      <c r="AC22" s="20">
+        <f t="shared" si="7"/>
+        <v>52.974288757036362</v>
+      </c>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="17">
+        <v>16807</v>
+      </c>
+      <c r="AF22" s="20">
+        <f t="shared" si="8"/>
+        <v>95.70417088118046</v>
+      </c>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="17">
+        <v>53425</v>
+      </c>
+      <c r="AI22" s="20">
+        <f t="shared" si="9"/>
+        <v>2.650444548432382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>1908</v>
@@ -2477,8 +3208,63 @@
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P23" s="18">
+        <v>6746</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="3"/>
+        <v>93.43314556774385</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="18">
+        <v>73038</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="4"/>
+        <v>13.703825405953065</v>
+      </c>
+      <c r="U23" s="5"/>
+      <c r="V23" s="18">
+        <v>103387</v>
+      </c>
+      <c r="W23" s="20">
+        <f t="shared" si="5"/>
+        <v>69.619971563155914</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="17">
+        <v>13720</v>
+      </c>
+      <c r="Z23" s="20">
+        <f t="shared" si="6"/>
+        <v>96.720116618075807</v>
+      </c>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="17">
+        <v>68105</v>
+      </c>
+      <c r="AC23" s="20">
+        <f t="shared" si="7"/>
+        <v>55.71837603700169</v>
+      </c>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="17">
+        <v>17111</v>
+      </c>
+      <c r="AF23" s="20">
+        <f t="shared" si="8"/>
+        <v>95.400619484542105</v>
+      </c>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="17">
+        <v>32789</v>
+      </c>
+      <c r="AI23" s="20">
+        <f t="shared" si="9"/>
+        <v>1.6072463326115465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>1909</v>
@@ -2520,8 +3306,63 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P24" s="18">
+        <v>11687</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="3"/>
+        <v>95.850089843415759</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="18">
+        <v>58534</v>
+      </c>
+      <c r="T24" s="20">
+        <f t="shared" si="4"/>
+        <v>13.293128779854444</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="18">
+        <v>57551</v>
+      </c>
+      <c r="W24" s="20">
+        <f t="shared" si="5"/>
+        <v>68.026619867595699</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="17">
+        <v>15254</v>
+      </c>
+      <c r="Z24" s="20">
+        <f t="shared" si="6"/>
+        <v>95.679821686115119</v>
+      </c>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="17">
+        <v>77565</v>
+      </c>
+      <c r="AC24" s="20">
+        <f t="shared" si="7"/>
+        <v>48.694643202475341</v>
+      </c>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="17">
+        <v>10038</v>
+      </c>
+      <c r="AF24" s="20">
+        <f t="shared" si="8"/>
+        <v>90.645546921697544</v>
+      </c>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="17">
+        <v>34996</v>
+      </c>
+      <c r="AI24" s="20">
+        <f t="shared" si="9"/>
+        <v>1.6887644302205966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>1910</v>
@@ -2563,8 +3404,63 @@
         <f>L25-SUM(B25:K25)</f>
         <v>319</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P25" s="18">
+        <v>15736</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" si="3"/>
+        <v>95.316471784443308</v>
+      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="18">
+        <v>71380</v>
+      </c>
+      <c r="T25" s="20">
+        <f t="shared" si="4"/>
+        <v>14.031941720369851</v>
+      </c>
+      <c r="U25" s="5"/>
+      <c r="V25" s="18">
+        <v>84260</v>
+      </c>
+      <c r="W25" s="20">
+        <f t="shared" si="5"/>
+        <v>70.999287918347974</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="17">
+        <v>22714</v>
+      </c>
+      <c r="Z25" s="20">
+        <f t="shared" si="6"/>
+        <v>95.430131196618831</v>
+      </c>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="17">
+        <v>128348</v>
+      </c>
+      <c r="AC25" s="20">
+        <f t="shared" si="7"/>
+        <v>49.580047994514914</v>
+      </c>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="17">
+        <v>17294</v>
+      </c>
+      <c r="AF25" s="20">
+        <f t="shared" si="8"/>
+        <v>85.393778188967275</v>
+      </c>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="17">
+        <v>52037</v>
+      </c>
+      <c r="AI25" s="20">
+        <f t="shared" si="9"/>
+        <v>2.6865499548398257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>1911</v>
@@ -2603,11 +3499,66 @@
         <v>158721</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" ref="M26:M30" si="3">L26-SUM(B26:K26)</f>
+        <f t="shared" ref="M26:M30" si="10">L26-SUM(B26:K26)</f>
         <v>437</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P26" s="18">
+        <v>9779</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="3"/>
+        <v>91.440842621944981</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="18">
+        <v>66471</v>
+      </c>
+      <c r="T26" s="20">
+        <f t="shared" si="4"/>
+        <v>13.207263317837855</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" s="18">
+        <v>91223</v>
+      </c>
+      <c r="W26" s="20">
+        <f t="shared" si="5"/>
+        <v>71.771373447485828</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="17">
+        <v>17027</v>
+      </c>
+      <c r="Z26" s="20">
+        <f t="shared" si="6"/>
+        <v>95.201738415457797</v>
+      </c>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="17">
+        <v>71446</v>
+      </c>
+      <c r="AC26" s="20">
+        <f t="shared" si="7"/>
+        <v>56.256473420485399</v>
+      </c>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="17">
+        <v>18721</v>
+      </c>
+      <c r="AF26" s="20">
+        <f t="shared" si="8"/>
+        <v>93.910581699695527</v>
+      </c>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="17">
+        <v>45859</v>
+      </c>
+      <c r="AI26" s="20">
+        <f t="shared" si="9"/>
+        <v>1.5918358446542664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>1912</v>
@@ -2646,11 +3597,66 @@
         <v>162395</v>
       </c>
       <c r="M27" s="5">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="P27" s="18">
+        <v>6641</v>
+      </c>
+      <c r="Q27" s="20">
         <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>85.965968980575212</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="18">
+        <v>65343</v>
+      </c>
+      <c r="T27" s="20">
+        <f t="shared" si="4"/>
+        <v>16.881685873008585</v>
+      </c>
+      <c r="U27" s="5"/>
+      <c r="V27" s="18">
+        <v>80595</v>
+      </c>
+      <c r="W27" s="20">
+        <f t="shared" si="5"/>
+        <v>72.447422296668535</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="17">
+        <v>14078</v>
+      </c>
+      <c r="Z27" s="20">
+        <f t="shared" si="6"/>
+        <v>97.71274328739878</v>
+      </c>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="17">
+        <v>85163</v>
+      </c>
+      <c r="AC27" s="20">
+        <f t="shared" si="7"/>
+        <v>60.171670796002957</v>
+      </c>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="17">
+        <v>22558</v>
+      </c>
+      <c r="AF27" s="20">
+        <f t="shared" si="8"/>
+        <v>93.54109406862311</v>
+      </c>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="17">
+        <v>31601</v>
+      </c>
+      <c r="AI27" s="20">
+        <f t="shared" si="9"/>
+        <v>1.3100851238884845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>1913</v>
@@ -2689,11 +3695,66 @@
         <v>291040</v>
       </c>
       <c r="M28" s="5">
+        <f t="shared" si="10"/>
+        <v>399</v>
+      </c>
+      <c r="P28" s="18">
+        <v>12756</v>
+      </c>
+      <c r="Q28" s="20">
         <f t="shared" si="3"/>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>87.456883035434302</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="18">
+        <v>80865</v>
+      </c>
+      <c r="T28" s="20">
+        <f t="shared" si="4"/>
+        <v>22.082483150930564</v>
+      </c>
+      <c r="U28" s="5"/>
+      <c r="V28" s="18">
+        <v>101330</v>
+      </c>
+      <c r="W28" s="20">
+        <f t="shared" si="5"/>
+        <v>73.061284910687846</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="17">
+        <v>24647</v>
+      </c>
+      <c r="Z28" s="20">
+        <f t="shared" si="6"/>
+        <v>96.859658376272975</v>
+      </c>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="17">
+        <v>174365</v>
+      </c>
+      <c r="AC28" s="20">
+        <f t="shared" si="7"/>
+        <v>64.430935107389672</v>
+      </c>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="17">
+        <v>51472</v>
+      </c>
+      <c r="AF28" s="20">
+        <f t="shared" si="8"/>
+        <v>94.171588436431463</v>
+      </c>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="17">
+        <v>38737</v>
+      </c>
+      <c r="AI28" s="20">
+        <f t="shared" si="9"/>
+        <v>2.3027080052662829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>1914</v>
@@ -2732,11 +3793,66 @@
         <v>255660</v>
       </c>
       <c r="M29" s="5">
+        <f t="shared" si="10"/>
+        <v>617</v>
+      </c>
+      <c r="P29" s="18">
+        <v>12805</v>
+      </c>
+      <c r="Q29" s="20">
         <f t="shared" si="3"/>
-        <v>617</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>85.654041390082</v>
+      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="18">
+        <v>79871</v>
+      </c>
+      <c r="T29" s="20">
+        <f t="shared" si="4"/>
+        <v>12.381214708717808</v>
+      </c>
+      <c r="U29" s="5"/>
+      <c r="V29" s="18">
+        <v>138051</v>
+      </c>
+      <c r="W29" s="20">
+        <f t="shared" si="5"/>
+        <v>74.347885926215667</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="17">
+        <v>21584</v>
+      </c>
+      <c r="Z29" s="20">
+        <f t="shared" si="6"/>
+        <v>96.404744255003706</v>
+      </c>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="17">
+        <v>122657</v>
+      </c>
+      <c r="AC29" s="20">
+        <f t="shared" si="7"/>
+        <v>54.035236472439401</v>
+      </c>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="17">
+        <v>44957</v>
+      </c>
+      <c r="AF29" s="20">
+        <f t="shared" si="8"/>
+        <v>89.509976199479496</v>
+      </c>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="17">
+        <v>36053</v>
+      </c>
+      <c r="AI29" s="20">
+        <f t="shared" si="9"/>
+        <v>2.0608548525781489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>1915</v>
@@ -2775,11 +3891,66 @@
         <v>26187</v>
       </c>
       <c r="M30" s="5">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="P30" s="18">
+        <v>3472</v>
+      </c>
+      <c r="Q30" s="20">
         <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>47.523041474654377</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="18">
+        <v>20729</v>
+      </c>
+      <c r="T30" s="20">
+        <f t="shared" si="4"/>
+        <v>4.3658642481547592</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="18">
+        <v>26497</v>
+      </c>
+      <c r="W30" s="20">
+        <f t="shared" si="5"/>
+        <v>54.708080160018113</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="17">
+        <v>2638</v>
+      </c>
+      <c r="Z30" s="20">
+        <f t="shared" si="6"/>
+        <v>84.078847611827143</v>
+      </c>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="17">
+        <v>9065</v>
+      </c>
+      <c r="AC30" s="20">
+        <f t="shared" si="7"/>
+        <v>49.487038058466631</v>
+      </c>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="17">
+        <v>4459</v>
+      </c>
+      <c r="AF30" s="20">
+        <f t="shared" si="8"/>
+        <v>45.525902668759812</v>
+      </c>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="17">
+        <v>24263</v>
+      </c>
+      <c r="AI30" s="20">
+        <f t="shared" si="9"/>
+        <v>0.49870172690928577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>1916</v>
@@ -2821,1342 +3992,1590 @@
         <f>L31-SUM(B31:K31)</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="P31" s="18">
+        <v>5649</v>
+      </c>
+      <c r="Q31" s="20">
+        <f t="shared" si="3"/>
+        <v>67.870419543281997</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="18">
+        <v>11555</v>
+      </c>
+      <c r="T31" s="20">
+        <f t="shared" si="4"/>
+        <v>0.54521852012115968</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="18">
+        <v>15108</v>
+      </c>
+      <c r="W31" s="20">
+        <f t="shared" si="5"/>
+        <v>14.151442944135557</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="17">
+        <v>599</v>
+      </c>
+      <c r="Z31" s="20">
+        <f t="shared" si="6"/>
+        <v>22.70450751252087</v>
+      </c>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="17">
+        <v>4502</v>
+      </c>
+      <c r="AC31" s="20">
+        <f t="shared" si="7"/>
+        <v>6.1528209684584629</v>
+      </c>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="17">
+        <v>4858</v>
+      </c>
+      <c r="AF31" s="20">
+        <f t="shared" si="8"/>
+        <v>21.119802387813916</v>
+      </c>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="17">
+        <v>19172</v>
+      </c>
+      <c r="AI31" s="20">
+        <f t="shared" si="9"/>
+        <v>1.3926559566033798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B32" s="5">
+        <v>103</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3745</v>
+      </c>
+      <c r="D32" s="5">
+        <v>39</v>
+      </c>
+      <c r="E32" s="5">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5">
+        <v>6801</v>
+      </c>
+      <c r="G32" s="5">
+        <v>73</v>
+      </c>
+      <c r="H32" s="5">
+        <v>360</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1006</v>
+      </c>
+      <c r="J32" s="5">
+        <v>7</v>
+      </c>
+      <c r="K32" s="5">
+        <v>455</v>
+      </c>
+      <c r="L32" s="5">
+        <v>12716</v>
+      </c>
+      <c r="M32" s="5">
+        <f>L32-SUM(B32:K32)</f>
+        <v>116</v>
+      </c>
+      <c r="P32" s="18">
+        <v>202876</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8459551647311658</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="18">
+        <v>1079209</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="4"/>
+        <v>3.6137578541320541E-3</v>
+      </c>
+      <c r="U32" s="5"/>
+      <c r="V32" s="18">
+        <v>1527246</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" si="5"/>
+        <v>0.44531136437744806</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="17">
+        <v>255831</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" si="6"/>
+        <v>2.8534462203564072E-2</v>
+      </c>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="17">
+        <v>1416262</v>
+      </c>
+      <c r="AC32" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5419025575776234E-2</v>
+      </c>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="17">
+        <v>230601</v>
+      </c>
+      <c r="AF32" s="5">
+        <f t="shared" si="8"/>
+        <v>0.43625136057519265</v>
+      </c>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="17">
+        <v>781991</v>
+      </c>
+      <c r="AI32" s="20">
+        <f t="shared" si="9"/>
+        <v>5.8184812868690303E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="P33" s="19">
+        <f>SUM(P14:P31)-P32</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="19">
+        <f>SUM(S14:S31)-S32</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="19">
+        <f>SUM(V14:V31)-V32</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="19">
+        <f>SUM(Y14:Y31)-Y32</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="19">
+        <f>SUM(AB14:AB31)-AB32</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="19">
+        <f>SUM(AE14:AE31)-AE32</f>
+        <v>-100</v>
+      </c>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="19">
+        <f>SUM(AH14:AH31)-AH32</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="5">
         <f>SUM(B14:B16)</f>
         <v>1</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:M34" si="4">SUM(C14:C16)</f>
+        <f t="shared" ref="C34:M34" si="11">SUM(C14:C16)</f>
         <v>28529</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>16375</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>98946</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>25940</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>59492</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3477</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3896</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>237026</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <f>100*B34/$L34</f>
         <v>4.218946444693831E-4</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:M35" si="5">100*C34/$L34</f>
+        <f t="shared" ref="C35:M35" si="12">100*C34/$L34</f>
         <v>12.03623231206703</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6.9085248031861486</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.2656839334081493E-3</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>41.74478749166758</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>10.943947077535798</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>25.099356188772539</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.4669276788200452</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.7297680423244706E-2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.6437015348527166</v>
       </c>
       <c r="L35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="M35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.1375376540970189</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="J40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="K40" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="M40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
         <v>1896</v>
       </c>
       <c r="B41" s="5">
-        <f>(B11+B12)/2</f>
+        <f t="shared" ref="B41:M41" si="13">(B11+B12)/2</f>
         <v>0.17322361259946167</v>
       </c>
       <c r="C41" s="5">
-        <f>(C11+C12)/2</f>
+        <f t="shared" si="13"/>
         <v>4941.8964438500416</v>
       </c>
       <c r="D41" s="5">
-        <f>(D11+D12)/2</f>
+        <f t="shared" si="13"/>
         <v>2836.5366563161847</v>
       </c>
       <c r="E41" s="5">
-        <f>(E11+E12)/2</f>
+        <f t="shared" si="13"/>
         <v>0.51967083779838497</v>
       </c>
       <c r="F41" s="5">
-        <f>(F11+F12)/2</f>
+        <f t="shared" si="13"/>
         <v>17139.783572266333</v>
       </c>
       <c r="G41" s="5">
-        <f>(G11+G12)/2</f>
+        <f t="shared" si="13"/>
         <v>4493.4205108300348</v>
       </c>
       <c r="H41" s="5">
-        <f>(H11+H12)/2</f>
+        <f t="shared" si="13"/>
         <v>10305.419160767173</v>
       </c>
       <c r="I41" s="5">
-        <f>(I11+I12)/2</f>
+        <f t="shared" si="13"/>
         <v>602.29850100832823</v>
       </c>
       <c r="J41" s="5">
-        <f>(J11+J12)/2</f>
+        <f t="shared" si="13"/>
         <v>7.1021681165779267</v>
       </c>
       <c r="K41" s="5">
-        <f>(K11+K12)/2</f>
+        <f t="shared" si="13"/>
         <v>674.8791946875026</v>
       </c>
       <c r="L41" s="5">
-        <f>(L11+L12)/2</f>
+        <f t="shared" si="13"/>
         <v>41058.5</v>
       </c>
       <c r="M41" s="5">
-        <f>(M11+M12)/2</f>
+        <f t="shared" si="13"/>
         <v>56.470897707424228</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
         <f>A41+1</f>
         <v>1897</v>
       </c>
       <c r="B42" s="5">
-        <f t="shared" ref="B42:K42" si="6">(B12+B13)/2</f>
+        <f t="shared" ref="B42:K42" si="14">(B12+B13)/2</f>
         <v>0.13613485440415818</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>3883.7912612962291</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>2229.2082408680903</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.40840456321247454</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>13469.999303873836</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>3531.3381232438633</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>8098.9347582121791</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>473.34088876325808</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>5.5815290305704854</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>530.38139275860033</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" ref="L42:M60" si="7">(L12+L13)/2</f>
+        <f t="shared" ref="L42:M61" si="15">(L12+L13)/2</f>
         <v>32267.5</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>44.379962535755112</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <f t="shared" ref="A43:A61" si="8">A42+1</f>
+        <f t="shared" ref="A43:A60" si="16">A42+1</f>
         <v>1898</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" ref="B43:K43" si="9">(B13+B14)/2</f>
+        <f t="shared" ref="B43:K43" si="17">(B13+B14)/2</f>
         <v>7.2890737724975313E-2</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>5103.4998565558208</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>3885.0858302464708</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.71867221317492591</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>19349.746934935407</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>5309.7857365858599</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>12094.915768734232</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1081.9410950697393</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>17.488520246723986</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>789.98231417650391</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>47768</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>134.76238049834137</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1899</v>
       </c>
       <c r="B44" s="5">
-        <f t="shared" ref="B44:K44" si="10">(B14+B15)/2</f>
+        <f t="shared" ref="B44:K44" si="18">(B14+B15)/2</f>
         <v>0.5</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9281.5</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5366</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>30643</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8567.5</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>19008.5</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1411</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>14.5</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1435.5</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>75884.5</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1900</v>
       </c>
       <c r="B45" s="5">
-        <f t="shared" ref="B45:K45" si="11">(B15+B16)/2</f>
+        <f t="shared" ref="B45:K45" si="19">(B15+B16)/2</f>
         <v>0.5</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>11240.5</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5496</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>37335.5</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9551</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>21987.5</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>910</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1442</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>88022</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1901</v>
       </c>
       <c r="B46" s="5">
-        <f t="shared" ref="B46:K46" si="12">(B16+B17)/2</f>
+        <f t="shared" ref="B46:K46" si="20">(B16+B17)/2</f>
         <v>0</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>11910</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7092.5</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>37753</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9390</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>27667</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1095.5</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1376</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>96302</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1902</v>
       </c>
       <c r="B47" s="5">
-        <f t="shared" ref="B47:K47" si="13">(B17+B18)/2</f>
+        <f t="shared" ref="B47:K47" si="21">(B17+B18)/2</f>
         <v>0</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>16315</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>9513.5</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>42767.5</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>12197.5</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>36703.5</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2550.5</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1649</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>121720</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1903</v>
       </c>
       <c r="B48" s="5">
-        <f t="shared" ref="B48:K48" si="14">(B18+B19)/2</f>
+        <f t="shared" ref="B48:K48" si="22">(B18+B19)/2</f>
         <v>8.5</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>14426.5</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>8806.5</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>62616.5</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>13563.5</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>36062.5</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3736</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>98.5</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1221</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>140617</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1904</v>
       </c>
       <c r="B49" s="5">
-        <f t="shared" ref="B49:K49" si="15">(B19+B20)/2</f>
+        <f t="shared" ref="B49:K49" si="23">(B19+B20)/2</f>
         <v>13.5</v>
       </c>
       <c r="C49" s="5">
+        <f t="shared" si="23"/>
+        <v>13374</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="23"/>
+        <v>6925</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="23"/>
+        <v>84966</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="23"/>
+        <v>15178</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="23"/>
+        <v>39900.5</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="23"/>
+        <v>3592.5</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="23"/>
+        <v>175.5</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="23"/>
+        <v>780.5</v>
+      </c>
+      <c r="L49" s="5">
         <f t="shared" si="15"/>
-        <v>13374</v>
-      </c>
-      <c r="D49" s="5">
+        <v>165019</v>
+      </c>
+      <c r="M49" s="5">
         <f t="shared" si="15"/>
-        <v>6925</v>
-      </c>
-      <c r="E49" s="5">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <f t="shared" si="16"/>
+        <v>1905</v>
+      </c>
+      <c r="B50" s="5">
+        <f t="shared" ref="B50:K50" si="24">(B20+B21)/2</f>
+        <v>70</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="24"/>
+        <v>15066</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="24"/>
+        <v>8500.5</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="24"/>
+        <v>108811</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="24"/>
+        <v>15673</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="24"/>
+        <v>46714</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="24"/>
+        <v>4280</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="24"/>
+        <v>218.5</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="24"/>
+        <v>813.5</v>
+      </c>
+      <c r="L50" s="5">
         <f t="shared" si="15"/>
+        <v>200281</v>
+      </c>
+      <c r="M50" s="5">
+        <f t="shared" si="15"/>
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <f t="shared" si="16"/>
+        <v>1906</v>
+      </c>
+      <c r="B51" s="5">
+        <f t="shared" ref="B51:K51" si="25">(B21+B22)/2</f>
+        <v>235.5</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="25"/>
+        <v>13886</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="25"/>
+        <v>11879.5</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="25"/>
+        <v>30.5</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="25"/>
+        <v>120083</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="25"/>
+        <v>19254</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="25"/>
+        <v>59663</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="25"/>
+        <v>10683.5</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="25"/>
+        <v>204.5</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="25"/>
+        <v>1176.5</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="15"/>
+        <v>237304</v>
+      </c>
+      <c r="M51" s="5">
+        <f t="shared" si="15"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <f t="shared" si="16"/>
+        <v>1907</v>
+      </c>
+      <c r="B52" s="5">
+        <f t="shared" ref="B52:K52" si="26">(B22+B23)/2</f>
+        <v>201.5</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="26"/>
+        <v>10307</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="26"/>
+        <v>11744.5</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="26"/>
+        <v>93455</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="26"/>
+        <v>19040.5</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="26"/>
+        <v>55534.5</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="26"/>
+        <v>16204.5</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="26"/>
+        <v>93.5</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="26"/>
+        <v>971.5</v>
+      </c>
+      <c r="L52" s="5">
+        <f t="shared" si="15"/>
+        <v>207827</v>
+      </c>
+      <c r="M52" s="5">
+        <f t="shared" si="15"/>
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <f t="shared" si="16"/>
+        <v>1908</v>
+      </c>
+      <c r="B53" s="5">
+        <f t="shared" ref="B53:K53" si="27">(B23+B24)/2</f>
+        <v>56</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="27"/>
+        <v>8752.5</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="27"/>
+        <v>8895</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="27"/>
+        <v>14.5</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="27"/>
+        <v>55564</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="27"/>
+        <v>13932.5</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="27"/>
+        <v>37858.5</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="27"/>
+        <v>12711.5</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="27"/>
+        <v>53.5</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="27"/>
+        <v>559</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="15"/>
+        <v>138585.5</v>
+      </c>
+      <c r="M53" s="5">
+        <f t="shared" si="15"/>
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <f t="shared" si="16"/>
+        <v>1909</v>
+      </c>
+      <c r="B54" s="5">
+        <f t="shared" ref="B54:K54" si="28">(B24+B25)/2</f>
+        <v>51</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="28"/>
+        <v>13100.5</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="28"/>
+        <v>8898.5</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F54" s="5">
+        <f t="shared" si="28"/>
+        <v>49487</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="28"/>
+        <v>18135.5</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="28"/>
+        <v>50702.5</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="28"/>
+        <v>11933.5</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="28"/>
+        <v>86</v>
+      </c>
+      <c r="K54" s="5">
+        <f t="shared" si="28"/>
+        <v>994.5</v>
+      </c>
+      <c r="L54" s="5">
         <f t="shared" si="15"/>
-        <v>84966</v>
-      </c>
-      <c r="G49" s="5">
+        <v>153626</v>
+      </c>
+      <c r="M54" s="5">
         <f t="shared" si="15"/>
-        <v>15178</v>
-      </c>
-      <c r="H49" s="5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <f t="shared" si="16"/>
+        <v>1910</v>
+      </c>
+      <c r="B55" s="5">
+        <f t="shared" ref="B55:K55" si="29">(B25+B26)/2</f>
+        <v>102</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="29"/>
+        <v>11970.5</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="29"/>
+        <v>9397.5</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="29"/>
+        <v>62648</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="29"/>
+        <v>18943</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="29"/>
+        <v>51914</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="29"/>
+        <v>16174.5</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="29"/>
+        <v>149</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="29"/>
+        <v>1064</v>
+      </c>
+      <c r="L55" s="5">
         <f t="shared" si="15"/>
-        <v>39900.5</v>
-      </c>
-      <c r="I49" s="5">
+        <v>172756.5</v>
+      </c>
+      <c r="M55" s="5">
         <f t="shared" si="15"/>
-        <v>3592.5</v>
-      </c>
-      <c r="J49" s="5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <f t="shared" si="16"/>
+        <v>1911</v>
+      </c>
+      <c r="B56" s="5">
+        <f t="shared" ref="B56:K56" si="30">(B26+B27)/2</f>
+        <v>201</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="30"/>
+        <v>7325.5</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="30"/>
+        <v>9905</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="30"/>
+        <v>61930.5</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="30"/>
+        <v>14983</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="30"/>
+        <v>45718.5</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="30"/>
+        <v>19341</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="30"/>
+        <v>290</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="30"/>
+        <v>572</v>
+      </c>
+      <c r="L56" s="5">
         <f t="shared" si="15"/>
-        <v>175.5</v>
-      </c>
-      <c r="K49" s="5">
+        <v>160558</v>
+      </c>
+      <c r="M56" s="5">
         <f t="shared" si="15"/>
-        <v>780.5</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="7"/>
-        <v>165019</v>
-      </c>
-      <c r="M49" s="5">
-        <f t="shared" si="7"/>
-        <v>109.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1">
-        <f t="shared" si="8"/>
-        <v>1905</v>
-      </c>
-      <c r="B50" s="5">
-        <f t="shared" ref="B50:K50" si="16">(B20+B21)/2</f>
-        <v>70</v>
-      </c>
-      <c r="C50" s="5">
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
         <f t="shared" si="16"/>
-        <v>15066</v>
-      </c>
-      <c r="D50" s="5">
+        <v>1912</v>
+      </c>
+      <c r="B57" s="5">
+        <f t="shared" ref="B57:K57" si="31">(B27+B28)/2</f>
+        <v>579.5</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="31"/>
+        <v>8432.5</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="31"/>
+        <v>14444</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="31"/>
+        <v>19.5</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="31"/>
+        <v>66211</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="31"/>
+        <v>18814.5</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="31"/>
+        <v>81794.5</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="31"/>
+        <v>34786.5</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="31"/>
+        <v>729</v>
+      </c>
+      <c r="K57" s="5">
+        <f t="shared" si="31"/>
+        <v>653</v>
+      </c>
+      <c r="L57" s="5">
+        <f t="shared" si="15"/>
+        <v>226717.5</v>
+      </c>
+      <c r="M57" s="5">
+        <f t="shared" si="15"/>
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
         <f t="shared" si="16"/>
-        <v>8500.5</v>
-      </c>
-      <c r="E50" s="5">
+        <v>1913</v>
+      </c>
+      <c r="B58" s="5">
+        <f t="shared" ref="B58:K58" si="32">(B28+B29)/2</f>
+        <v>890.5</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="32"/>
+        <v>11062</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="32"/>
+        <v>13873</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="32"/>
+        <v>46.5</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="32"/>
+        <v>88335.5</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="32"/>
+        <v>22340.5</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="32"/>
+        <v>89311.5</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="32"/>
+        <v>44356.5</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="32"/>
+        <v>1808.5</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="32"/>
+        <v>817.5</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="15"/>
+        <v>273350</v>
+      </c>
+      <c r="M58" s="5">
+        <f t="shared" si="15"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
         <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="F50" s="5">
+        <v>1914</v>
+      </c>
+      <c r="B59" s="5">
+        <f t="shared" ref="B59:K59" si="33">(B29+B30)/2</f>
+        <v>456.5</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="33"/>
+        <v>6309</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="33"/>
+        <v>5397</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="33"/>
+        <v>38.5</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="33"/>
+        <v>58567</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="33"/>
+        <v>11513</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" si="33"/>
+        <v>35382</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="33"/>
+        <v>21135.5</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="33"/>
+        <v>1350.5</v>
+      </c>
+      <c r="K59" s="5">
+        <f t="shared" si="33"/>
+        <v>432</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="15"/>
+        <v>140923.5</v>
+      </c>
+      <c r="M59" s="5">
+        <f t="shared" si="15"/>
+        <v>342.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
         <f t="shared" si="16"/>
-        <v>108811</v>
-      </c>
-      <c r="G50" s="5">
-        <f t="shared" si="16"/>
-        <v>15673</v>
-      </c>
-      <c r="H50" s="5">
-        <f t="shared" si="16"/>
-        <v>46714</v>
-      </c>
-      <c r="I50" s="5">
-        <f t="shared" si="16"/>
-        <v>4280</v>
-      </c>
-      <c r="J50" s="5">
-        <f t="shared" si="16"/>
-        <v>218.5</v>
-      </c>
-      <c r="K50" s="5">
-        <f t="shared" si="16"/>
-        <v>813.5</v>
-      </c>
-      <c r="L50" s="5">
-        <f t="shared" si="7"/>
-        <v>200281</v>
-      </c>
-      <c r="M50" s="5">
-        <f t="shared" si="7"/>
-        <v>124.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1">
-        <f t="shared" si="8"/>
-        <v>1906</v>
-      </c>
-      <c r="B51" s="5">
-        <f t="shared" ref="B51:K51" si="17">(B21+B22)/2</f>
-        <v>235.5</v>
-      </c>
-      <c r="C51" s="5">
-        <f t="shared" si="17"/>
-        <v>13886</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="17"/>
-        <v>11879.5</v>
-      </c>
-      <c r="E51" s="5">
-        <f t="shared" si="17"/>
-        <v>30.5</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" si="17"/>
-        <v>120083</v>
-      </c>
-      <c r="G51" s="5">
-        <f t="shared" si="17"/>
-        <v>19254</v>
-      </c>
-      <c r="H51" s="5">
-        <f t="shared" si="17"/>
-        <v>59663</v>
-      </c>
-      <c r="I51" s="5">
-        <f t="shared" si="17"/>
-        <v>10683.5</v>
-      </c>
-      <c r="J51" s="5">
-        <f t="shared" si="17"/>
-        <v>204.5</v>
-      </c>
-      <c r="K51" s="5">
-        <f t="shared" si="17"/>
-        <v>1176.5</v>
-      </c>
-      <c r="L51" s="5">
-        <f t="shared" si="7"/>
-        <v>237304</v>
-      </c>
-      <c r="M51" s="5">
-        <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1">
-        <f t="shared" si="8"/>
-        <v>1907</v>
-      </c>
-      <c r="B52" s="5">
-        <f t="shared" ref="B52:K52" si="18">(B22+B23)/2</f>
-        <v>201.5</v>
-      </c>
-      <c r="C52" s="5">
-        <f t="shared" si="18"/>
-        <v>10307</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="18"/>
-        <v>11744.5</v>
-      </c>
-      <c r="E52" s="5">
-        <f t="shared" si="18"/>
-        <v>35</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="18"/>
-        <v>93455</v>
-      </c>
-      <c r="G52" s="5">
-        <f t="shared" si="18"/>
-        <v>19040.5</v>
-      </c>
-      <c r="H52" s="5">
-        <f t="shared" si="18"/>
-        <v>55534.5</v>
-      </c>
-      <c r="I52" s="5">
-        <f t="shared" si="18"/>
-        <v>16204.5</v>
-      </c>
-      <c r="J52" s="5">
-        <f t="shared" si="18"/>
-        <v>93.5</v>
-      </c>
-      <c r="K52" s="5">
-        <f t="shared" si="18"/>
-        <v>971.5</v>
-      </c>
-      <c r="L52" s="5">
-        <f t="shared" si="7"/>
-        <v>207827</v>
-      </c>
-      <c r="M52" s="5">
-        <f t="shared" si="7"/>
-        <v>239.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1">
-        <f t="shared" si="8"/>
-        <v>1908</v>
-      </c>
-      <c r="B53" s="5">
-        <f t="shared" ref="B53:K53" si="19">(B23+B24)/2</f>
-        <v>56</v>
-      </c>
-      <c r="C53" s="5">
-        <f t="shared" si="19"/>
-        <v>8752.5</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="19"/>
-        <v>8895</v>
-      </c>
-      <c r="E53" s="5">
-        <f t="shared" si="19"/>
-        <v>14.5</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="19"/>
-        <v>55564</v>
-      </c>
-      <c r="G53" s="5">
-        <f t="shared" si="19"/>
-        <v>13932.5</v>
-      </c>
-      <c r="H53" s="5">
-        <f t="shared" si="19"/>
-        <v>37858.5</v>
-      </c>
-      <c r="I53" s="5">
-        <f t="shared" si="19"/>
-        <v>12711.5</v>
-      </c>
-      <c r="J53" s="5">
-        <f t="shared" si="19"/>
-        <v>53.5</v>
-      </c>
-      <c r="K53" s="5">
-        <f t="shared" si="19"/>
-        <v>559</v>
-      </c>
-      <c r="L53" s="5">
-        <f t="shared" si="7"/>
-        <v>138585.5</v>
-      </c>
-      <c r="M53" s="5">
-        <f t="shared" si="7"/>
-        <v>188.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1">
-        <f t="shared" si="8"/>
-        <v>1909</v>
-      </c>
-      <c r="B54" s="5">
-        <f t="shared" ref="B54:K54" si="20">(B24+B25)/2</f>
+        <v>1915</v>
+      </c>
+      <c r="B60" s="5">
+        <f t="shared" ref="B60:K61" si="34">(B30+B31)/2</f>
+        <v>42.5</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="34"/>
+        <v>2742</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="34"/>
+        <v>484</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="34"/>
+        <v>8317</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="34"/>
+        <v>1177</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="34"/>
+        <v>2381.5</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="34"/>
+        <v>1528</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="34"/>
+        <v>80</v>
+      </c>
+      <c r="K60" s="5">
+        <f t="shared" si="34"/>
+        <v>194</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="15"/>
+        <v>17014.5</v>
+      </c>
+      <c r="M60" s="5">
+        <f t="shared" si="15"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B61" s="5">
+        <f t="shared" si="34"/>
+        <v>73.5</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="34"/>
+        <v>3789.5</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="34"/>
         <v>51</v>
       </c>
-      <c r="C54" s="5">
-        <f t="shared" si="20"/>
-        <v>13100.5</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="20"/>
-        <v>8898.5</v>
-      </c>
-      <c r="E54" s="5">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" si="20"/>
-        <v>49487</v>
-      </c>
-      <c r="G54" s="5">
-        <f t="shared" si="20"/>
-        <v>18135.5</v>
-      </c>
-      <c r="H54" s="5">
-        <f t="shared" si="20"/>
-        <v>50702.5</v>
-      </c>
-      <c r="I54" s="5">
-        <f t="shared" si="20"/>
-        <v>11933.5</v>
-      </c>
-      <c r="J54" s="5">
-        <f t="shared" si="20"/>
-        <v>86</v>
-      </c>
-      <c r="K54" s="5">
-        <f t="shared" si="20"/>
-        <v>994.5</v>
-      </c>
-      <c r="L54" s="5">
-        <f t="shared" si="7"/>
-        <v>153626</v>
-      </c>
-      <c r="M54" s="5">
-        <f t="shared" si="7"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1">
-        <f t="shared" si="8"/>
-        <v>1910</v>
-      </c>
-      <c r="B55" s="5">
-        <f t="shared" ref="B55:K55" si="21">(B25+B26)/2</f>
-        <v>102</v>
-      </c>
-      <c r="C55" s="5">
-        <f t="shared" si="21"/>
-        <v>11970.5</v>
-      </c>
-      <c r="D55" s="5">
-        <f t="shared" si="21"/>
-        <v>9397.5</v>
-      </c>
-      <c r="E55" s="5">
-        <f t="shared" si="21"/>
-        <v>16</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" si="21"/>
-        <v>62648</v>
-      </c>
-      <c r="G55" s="5">
-        <f t="shared" si="21"/>
-        <v>18943</v>
-      </c>
-      <c r="H55" s="5">
-        <f t="shared" si="21"/>
-        <v>51914</v>
-      </c>
-      <c r="I55" s="5">
-        <f t="shared" si="21"/>
-        <v>16174.5</v>
-      </c>
-      <c r="J55" s="5">
-        <f t="shared" si="21"/>
-        <v>149</v>
-      </c>
-      <c r="K55" s="5">
-        <f t="shared" si="21"/>
-        <v>1064</v>
-      </c>
-      <c r="L55" s="5">
-        <f t="shared" si="7"/>
-        <v>172756.5</v>
-      </c>
-      <c r="M55" s="5">
-        <f t="shared" si="7"/>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1">
-        <f t="shared" si="8"/>
-        <v>1911</v>
-      </c>
-      <c r="B56" s="5">
-        <f t="shared" ref="B56:K56" si="22">(B26+B27)/2</f>
-        <v>201</v>
-      </c>
-      <c r="C56" s="5">
-        <f t="shared" si="22"/>
-        <v>7325.5</v>
-      </c>
-      <c r="D56" s="5">
-        <f t="shared" si="22"/>
-        <v>9905</v>
-      </c>
-      <c r="E56" s="5">
-        <f t="shared" si="22"/>
-        <v>19</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" si="22"/>
-        <v>61930.5</v>
-      </c>
-      <c r="G56" s="5">
-        <f t="shared" si="22"/>
-        <v>14983</v>
-      </c>
-      <c r="H56" s="5">
-        <f t="shared" si="22"/>
-        <v>45718.5</v>
-      </c>
-      <c r="I56" s="5">
-        <f t="shared" si="22"/>
-        <v>19341</v>
-      </c>
-      <c r="J56" s="5">
-        <f t="shared" si="22"/>
-        <v>290</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" si="22"/>
-        <v>572</v>
-      </c>
-      <c r="L56" s="5">
-        <f t="shared" si="7"/>
-        <v>160558</v>
-      </c>
-      <c r="M56" s="5">
-        <f t="shared" si="7"/>
-        <v>272.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1">
-        <f t="shared" si="8"/>
-        <v>1912</v>
-      </c>
-      <c r="B57" s="5">
-        <f t="shared" ref="B57:K57" si="23">(B27+B28)/2</f>
-        <v>579.5</v>
-      </c>
-      <c r="C57" s="5">
-        <f t="shared" si="23"/>
-        <v>8432.5</v>
-      </c>
-      <c r="D57" s="5">
-        <f t="shared" si="23"/>
-        <v>14444</v>
-      </c>
-      <c r="E57" s="5">
-        <f t="shared" si="23"/>
-        <v>19.5</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="23"/>
-        <v>66211</v>
-      </c>
-      <c r="G57" s="5">
-        <f t="shared" si="23"/>
-        <v>18814.5</v>
-      </c>
-      <c r="H57" s="5">
-        <f t="shared" si="23"/>
-        <v>81794.5</v>
-      </c>
-      <c r="I57" s="5">
-        <f t="shared" si="23"/>
-        <v>34786.5</v>
-      </c>
-      <c r="J57" s="5">
-        <f t="shared" si="23"/>
-        <v>729</v>
-      </c>
-      <c r="K57" s="5">
-        <f t="shared" si="23"/>
-        <v>653</v>
-      </c>
-      <c r="L57" s="5">
-        <f t="shared" si="7"/>
-        <v>226717.5</v>
-      </c>
-      <c r="M57" s="5">
-        <f t="shared" si="7"/>
-        <v>253.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1">
-        <f t="shared" si="8"/>
-        <v>1913</v>
-      </c>
-      <c r="B58" s="5">
-        <f t="shared" ref="B58:K58" si="24">(B28+B29)/2</f>
-        <v>890.5</v>
-      </c>
-      <c r="C58" s="5">
-        <f t="shared" si="24"/>
-        <v>11062</v>
-      </c>
-      <c r="D58" s="5">
-        <f t="shared" si="24"/>
-        <v>13873</v>
-      </c>
-      <c r="E58" s="5">
-        <f t="shared" si="24"/>
-        <v>46.5</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="24"/>
-        <v>88335.5</v>
-      </c>
-      <c r="G58" s="5">
-        <f t="shared" si="24"/>
-        <v>22340.5</v>
-      </c>
-      <c r="H58" s="5">
-        <f t="shared" si="24"/>
-        <v>89311.5</v>
-      </c>
-      <c r="I58" s="5">
-        <f t="shared" si="24"/>
-        <v>44356.5</v>
-      </c>
-      <c r="J58" s="5">
-        <f t="shared" si="24"/>
-        <v>1808.5</v>
-      </c>
-      <c r="K58" s="5">
-        <f t="shared" si="24"/>
-        <v>817.5</v>
-      </c>
-      <c r="L58" s="5">
-        <f t="shared" si="7"/>
-        <v>273350</v>
-      </c>
-      <c r="M58" s="5">
-        <f t="shared" si="7"/>
-        <v>508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1">
-        <f t="shared" si="8"/>
-        <v>1914</v>
-      </c>
-      <c r="B59" s="5">
-        <f t="shared" ref="B59:K59" si="25">(B29+B30)/2</f>
-        <v>456.5</v>
-      </c>
-      <c r="C59" s="5">
-        <f t="shared" si="25"/>
-        <v>6309</v>
-      </c>
-      <c r="D59" s="5">
-        <f t="shared" si="25"/>
-        <v>5397</v>
-      </c>
-      <c r="E59" s="5">
-        <f t="shared" si="25"/>
-        <v>38.5</v>
-      </c>
-      <c r="F59" s="5">
-        <f t="shared" si="25"/>
-        <v>58567</v>
-      </c>
-      <c r="G59" s="5">
-        <f t="shared" si="25"/>
-        <v>11513</v>
-      </c>
-      <c r="H59" s="5">
-        <f t="shared" si="25"/>
-        <v>35382</v>
-      </c>
-      <c r="I59" s="5">
-        <f t="shared" si="25"/>
-        <v>21135.5</v>
-      </c>
-      <c r="J59" s="5">
-        <f t="shared" si="25"/>
-        <v>1350.5</v>
-      </c>
-      <c r="K59" s="5">
-        <f t="shared" si="25"/>
-        <v>432</v>
-      </c>
-      <c r="L59" s="5">
-        <f t="shared" si="7"/>
-        <v>140923.5</v>
-      </c>
-      <c r="M59" s="5">
-        <f t="shared" si="7"/>
-        <v>342.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1">
-        <f t="shared" si="8"/>
-        <v>1915</v>
-      </c>
-      <c r="B60" s="5">
-        <f t="shared" ref="B60:K60" si="26">(B30+B31)/2</f>
-        <v>42.5</v>
-      </c>
-      <c r="C60" s="5">
-        <f t="shared" si="26"/>
-        <v>2742</v>
-      </c>
-      <c r="D60" s="5">
-        <f t="shared" si="26"/>
-        <v>484</v>
-      </c>
-      <c r="E60" s="5">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="F60" s="5">
-        <f t="shared" si="26"/>
-        <v>8317</v>
-      </c>
-      <c r="G60" s="5">
-        <f t="shared" si="26"/>
-        <v>1177</v>
-      </c>
-      <c r="H60" s="5">
-        <f t="shared" si="26"/>
-        <v>2381.5</v>
-      </c>
-      <c r="I60" s="5">
-        <f t="shared" si="26"/>
-        <v>1528</v>
-      </c>
-      <c r="J60" s="5">
-        <f t="shared" si="26"/>
-        <v>80</v>
-      </c>
-      <c r="K60" s="5">
-        <f t="shared" si="26"/>
-        <v>194</v>
-      </c>
-      <c r="L60" s="5">
-        <f t="shared" si="7"/>
-        <v>17014.5</v>
-      </c>
-      <c r="M60" s="5">
-        <f t="shared" si="7"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="14">
-        <f>SUM(B41:B60)</f>
-        <v>2909.3822492047284</v>
-      </c>
-      <c r="C61" s="14">
-        <f t="shared" ref="C61:M61" si="27">SUM(C41:C60)</f>
-        <v>199430.1875617021</v>
-      </c>
-      <c r="D61" s="14">
-        <f t="shared" si="27"/>
-        <v>155568.83072743076</v>
-      </c>
-      <c r="E61" s="14">
-        <f t="shared" si="27"/>
-        <v>251.14674761418578</v>
-      </c>
-      <c r="F61" s="14">
-        <f t="shared" si="27"/>
-        <v>1119450.0298110754</v>
-      </c>
-      <c r="G61" s="14">
-        <f t="shared" si="27"/>
-        <v>255588.54437065974</v>
-      </c>
-      <c r="H61" s="14">
-        <f t="shared" si="27"/>
-        <v>768803.26968771359</v>
-      </c>
-      <c r="I61" s="14">
-        <f t="shared" si="27"/>
-        <v>208588.08048484131</v>
-      </c>
-      <c r="J61" s="14">
-        <f t="shared" si="27"/>
-        <v>5405.6722173938724</v>
-      </c>
-      <c r="K61" s="14">
-        <f t="shared" si="27"/>
-        <v>18146.742901622609</v>
-      </c>
-      <c r="L61" s="14">
-        <f t="shared" si="27"/>
-        <v>2737602</v>
-      </c>
-      <c r="M61" s="14">
-        <f t="shared" si="27"/>
-        <v>3460.1132407415207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61" s="5">
+        <f t="shared" si="34"/>
+        <v>6.5</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="34"/>
+        <v>4469.5</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="34"/>
+        <v>104.5</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="34"/>
+        <v>318.5</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="34"/>
+        <v>1016</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="34"/>
+        <v>4.5</v>
+      </c>
+      <c r="K61" s="5">
+        <f t="shared" si="34"/>
+        <v>361</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="15"/>
+        <v>10279</v>
+      </c>
+      <c r="M61" s="5">
+        <f t="shared" si="15"/>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="15">
-        <f>100*B61/$L61</f>
-        <v>0.10627484379412085</v>
-      </c>
-      <c r="C62" s="15">
-        <f t="shared" ref="C62:M62" si="28">100*C61/$L61</f>
-        <v>7.2848495713292909</v>
-      </c>
-      <c r="D62" s="15">
-        <f t="shared" si="28"/>
-        <v>5.6826679235122848</v>
-      </c>
-      <c r="E62" s="15">
-        <f t="shared" si="28"/>
-        <v>9.1739685905469735E-3</v>
-      </c>
-      <c r="F62" s="15">
-        <f t="shared" si="28"/>
-        <v>40.891628140652855</v>
-      </c>
-      <c r="G62" s="15">
-        <f t="shared" si="28"/>
-        <v>9.336219960778072</v>
-      </c>
-      <c r="H62" s="15">
-        <f t="shared" si="28"/>
-        <v>28.083091321810603</v>
-      </c>
-      <c r="I62" s="15">
-        <f t="shared" si="28"/>
-        <v>7.6193720082335314</v>
-      </c>
-      <c r="J62" s="15">
-        <f t="shared" si="28"/>
-        <v>0.19746012084276213</v>
-      </c>
-      <c r="K62" s="15">
-        <f t="shared" si="28"/>
-        <v>0.66287001914897081</v>
-      </c>
-      <c r="L62" s="15">
-        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="B62" s="14">
+        <f>SUM(B41:B61)</f>
+        <v>2982.8822492047284</v>
+      </c>
+      <c r="C62" s="14">
+        <f t="shared" ref="C62:M62" si="35">SUM(C41:C61)</f>
+        <v>203219.6875617021</v>
+      </c>
+      <c r="D62" s="14">
+        <f t="shared" si="35"/>
+        <v>155619.83072743076</v>
+      </c>
+      <c r="E62" s="14">
+        <f t="shared" si="35"/>
+        <v>257.64674761418576</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" si="35"/>
+        <v>1123919.5298110754</v>
+      </c>
+      <c r="G62" s="14">
+        <f t="shared" si="35"/>
+        <v>255693.04437065974</v>
+      </c>
+      <c r="H62" s="14">
+        <f t="shared" si="35"/>
+        <v>769121.76968771359</v>
+      </c>
+      <c r="I62" s="14">
+        <f t="shared" si="35"/>
+        <v>209604.08048484131</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="35"/>
+        <v>5410.1722173938724</v>
+      </c>
+      <c r="K62" s="14">
+        <f t="shared" si="35"/>
+        <v>18507.742901622609</v>
+      </c>
+      <c r="L62" s="14">
+        <f t="shared" si="35"/>
+        <v>2747881</v>
+      </c>
+      <c r="M62" s="14">
+        <f t="shared" si="35"/>
+        <v>3544.6132407415207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="15">
+        <f>100*B62/$L62</f>
+        <v>0.10855208974496088</v>
+      </c>
+      <c r="C63" s="15">
+        <f t="shared" ref="C63:M63" si="36">100*C62/$L62</f>
+        <v>7.3955053934905512</v>
+      </c>
+      <c r="D63" s="15">
+        <f t="shared" si="36"/>
+        <v>5.6632667399873124</v>
+      </c>
+      <c r="E63" s="15">
+        <f t="shared" si="36"/>
+        <v>9.376197426824006E-3</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="36"/>
+        <v>40.901317408252957</v>
+      </c>
+      <c r="G63" s="15">
+        <f t="shared" si="36"/>
+        <v>9.3050988878579428</v>
+      </c>
+      <c r="H63" s="15">
+        <f t="shared" si="36"/>
+        <v>27.989631635711792</v>
+      </c>
+      <c r="I63" s="15">
+        <f t="shared" si="36"/>
+        <v>7.6278441637334851</v>
+      </c>
+      <c r="J63" s="15">
+        <f t="shared" si="36"/>
+        <v>0.1968852442079505</v>
+      </c>
+      <c r="K63" s="15">
+        <f t="shared" si="36"/>
+        <v>0.6735278165838553</v>
+      </c>
+      <c r="L63" s="15">
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
-      <c r="M62" s="15">
-        <f t="shared" si="28"/>
-        <v>0.12639212130695113</v>
+      <c r="M63" s="15">
+        <f t="shared" si="36"/>
+        <v>0.12899442300236147</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDBD49-2A08-472A-B43A-FB8D24CB192A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0312C27-DC24-4E94-8C8D-9D48118C511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59070" yWindow="1065" windowWidth="25635" windowHeight="21915" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="3" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="note-2" sheetId="3" r:id="rId3"/>
+    <sheet name="note-2" sheetId="1" r:id="rId2"/>
+    <sheet name="note-3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -1941,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5581,4 +5582,924 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="13.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1896</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.17322361259946167</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4941.8964438500416</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2836.5366563161847</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.51967083779838497</v>
+      </c>
+      <c r="F2" s="5">
+        <v>17139.783572266333</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4493.4205108300348</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10305.419160767173</v>
+      </c>
+      <c r="I2" s="5">
+        <v>602.29850100832823</v>
+      </c>
+      <c r="J2" s="5">
+        <v>7.1021681165779267</v>
+      </c>
+      <c r="K2" s="5">
+        <v>674.8791946875026</v>
+      </c>
+      <c r="L2" s="5">
+        <v>41058.5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>56.470897707424228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>1897</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.13613485440415818</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3883.7912612962291</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2229.2082408680903</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.40840456321247454</v>
+      </c>
+      <c r="F3" s="5">
+        <v>13469.999303873836</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3531.3381232438633</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8098.9347582121791</v>
+      </c>
+      <c r="I3" s="5">
+        <v>473.34088876325808</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5.5815290305704854</v>
+      </c>
+      <c r="K3" s="5">
+        <v>530.38139275860033</v>
+      </c>
+      <c r="L3" s="5">
+        <v>32267.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>44.379962535755112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>1898</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.2890737724975313E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5103.4998565558208</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3885.0858302464708</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.71867221317492591</v>
+      </c>
+      <c r="F4" s="5">
+        <v>19349.746934935407</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5309.7857365858599</v>
+      </c>
+      <c r="H4" s="5">
+        <v>12094.915768734232</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1081.9410950697393</v>
+      </c>
+      <c r="J4" s="5">
+        <v>17.488520246723986</v>
+      </c>
+      <c r="K4" s="5">
+        <v>789.98231417650391</v>
+      </c>
+      <c r="L4" s="5">
+        <v>47768</v>
+      </c>
+      <c r="M4" s="5">
+        <v>134.76238049834137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>1899</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9281.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5366</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30643</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8567.5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>19008.5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1411</v>
+      </c>
+      <c r="J5" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1435.5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>75884.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>1900</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>11240.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5496</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>37335.5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9551</v>
+      </c>
+      <c r="H6" s="5">
+        <v>21987.5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>910</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1442</v>
+      </c>
+      <c r="L6" s="5">
+        <v>88022</v>
+      </c>
+      <c r="M6" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>1901</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>11910</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7092.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>37753</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9390</v>
+      </c>
+      <c r="H7" s="5">
+        <v>27667</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1095.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1376</v>
+      </c>
+      <c r="L7" s="5">
+        <v>96302</v>
+      </c>
+      <c r="M7" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>1902</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>16315</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9513.5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42767.5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12197.5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>36703.5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2550.5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1649</v>
+      </c>
+      <c r="L8" s="5">
+        <v>121720</v>
+      </c>
+      <c r="M8" s="5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>1903</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>14426.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8806.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>62616.5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>13563.5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>36062.5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3736</v>
+      </c>
+      <c r="J9" s="5">
+        <v>98.5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1221</v>
+      </c>
+      <c r="L9" s="5">
+        <v>140617</v>
+      </c>
+      <c r="M9" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>1904</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13374</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6925</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>84966</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15178</v>
+      </c>
+      <c r="H10" s="5">
+        <v>39900.5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3592.5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>175.5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>780.5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>165019</v>
+      </c>
+      <c r="M10" s="5">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>1905</v>
+      </c>
+      <c r="B11" s="5">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15066</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8500.5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>108811</v>
+      </c>
+      <c r="G11" s="5">
+        <v>15673</v>
+      </c>
+      <c r="H11" s="5">
+        <v>46714</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4280</v>
+      </c>
+      <c r="J11" s="5">
+        <v>218.5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>813.5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>200281</v>
+      </c>
+      <c r="M11" s="5">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1906</v>
+      </c>
+      <c r="B12" s="5">
+        <v>235.5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>13886</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11879.5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>120083</v>
+      </c>
+      <c r="G12" s="5">
+        <v>19254</v>
+      </c>
+      <c r="H12" s="5">
+        <v>59663</v>
+      </c>
+      <c r="I12" s="5">
+        <v>10683.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>204.5</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1176.5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>237304</v>
+      </c>
+      <c r="M12" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>1907</v>
+      </c>
+      <c r="B13" s="5">
+        <v>201.5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10307</v>
+      </c>
+      <c r="D13" s="5">
+        <v>11744.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5">
+        <v>93455</v>
+      </c>
+      <c r="G13" s="5">
+        <v>19040.5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>55534.5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>16204.5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>93.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>971.5</v>
+      </c>
+      <c r="L13" s="5">
+        <v>207827</v>
+      </c>
+      <c r="M13" s="5">
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>1908</v>
+      </c>
+      <c r="B14" s="5">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8752.5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8895</v>
+      </c>
+      <c r="E14" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>55564</v>
+      </c>
+      <c r="G14" s="5">
+        <v>13932.5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>37858.5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>12711.5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>53.5</v>
+      </c>
+      <c r="K14" s="5">
+        <v>559</v>
+      </c>
+      <c r="L14" s="5">
+        <v>138585.5</v>
+      </c>
+      <c r="M14" s="5">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>1909</v>
+      </c>
+      <c r="B15" s="5">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5">
+        <v>13100.5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8898.5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>49487</v>
+      </c>
+      <c r="G15" s="5">
+        <v>18135.5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>50702.5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>11933.5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>86</v>
+      </c>
+      <c r="K15" s="5">
+        <v>994.5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>153626</v>
+      </c>
+      <c r="M15" s="5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>1910</v>
+      </c>
+      <c r="B16" s="5">
+        <v>102</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11970.5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9397.5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5">
+        <v>62648</v>
+      </c>
+      <c r="G16" s="5">
+        <v>18943</v>
+      </c>
+      <c r="H16" s="5">
+        <v>51914</v>
+      </c>
+      <c r="I16" s="5">
+        <v>16174.5</v>
+      </c>
+      <c r="J16" s="5">
+        <v>149</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1064</v>
+      </c>
+      <c r="L16" s="5">
+        <v>172756.5</v>
+      </c>
+      <c r="M16" s="5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>1911</v>
+      </c>
+      <c r="B17" s="5">
+        <v>201</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7325.5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9905</v>
+      </c>
+      <c r="E17" s="5">
+        <v>19</v>
+      </c>
+      <c r="F17" s="5">
+        <v>61930.5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>14983</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45718.5</v>
+      </c>
+      <c r="I17" s="5">
+        <v>19341</v>
+      </c>
+      <c r="J17" s="5">
+        <v>290</v>
+      </c>
+      <c r="K17" s="5">
+        <v>572</v>
+      </c>
+      <c r="L17" s="5">
+        <v>160558</v>
+      </c>
+      <c r="M17" s="5">
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>1912</v>
+      </c>
+      <c r="B18" s="5">
+        <v>579.5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8432.5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>14444</v>
+      </c>
+      <c r="E18" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>66211</v>
+      </c>
+      <c r="G18" s="5">
+        <v>18814.5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>81794.5</v>
+      </c>
+      <c r="I18" s="5">
+        <v>34786.5</v>
+      </c>
+      <c r="J18" s="5">
+        <v>729</v>
+      </c>
+      <c r="K18" s="5">
+        <v>653</v>
+      </c>
+      <c r="L18" s="5">
+        <v>226717.5</v>
+      </c>
+      <c r="M18" s="5">
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>1913</v>
+      </c>
+      <c r="B19" s="5">
+        <v>890.5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>11062</v>
+      </c>
+      <c r="D19" s="5">
+        <v>13873</v>
+      </c>
+      <c r="E19" s="5">
+        <v>46.5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>88335.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>22340.5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>89311.5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>44356.5</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1808.5</v>
+      </c>
+      <c r="K19" s="5">
+        <v>817.5</v>
+      </c>
+      <c r="L19" s="5">
+        <v>273350</v>
+      </c>
+      <c r="M19" s="5">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>1914</v>
+      </c>
+      <c r="B20" s="5">
+        <v>456.5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6309</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5397</v>
+      </c>
+      <c r="E20" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>58567</v>
+      </c>
+      <c r="G20" s="5">
+        <v>11513</v>
+      </c>
+      <c r="H20" s="5">
+        <v>35382</v>
+      </c>
+      <c r="I20" s="5">
+        <v>21135.5</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1350.5</v>
+      </c>
+      <c r="K20" s="5">
+        <v>432</v>
+      </c>
+      <c r="L20" s="5">
+        <v>140923.5</v>
+      </c>
+      <c r="M20" s="5">
+        <v>342.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>1915</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2742</v>
+      </c>
+      <c r="D21" s="5">
+        <v>484</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8317</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1177</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2381.5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1528</v>
+      </c>
+      <c r="J21" s="5">
+        <v>80</v>
+      </c>
+      <c r="K21" s="5">
+        <v>194</v>
+      </c>
+      <c r="L21" s="5">
+        <v>17014.5</v>
+      </c>
+      <c r="M21" s="5">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>1916</v>
+      </c>
+      <c r="B22" s="5">
+        <v>73.5</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3789.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4469.5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>104.5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>318.5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1016</v>
+      </c>
+      <c r="J22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>361</v>
+      </c>
+      <c r="L22" s="5">
+        <v>10279</v>
+      </c>
+      <c r="M22" s="5">
+        <v>84.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0312C27-DC24-4E94-8C8D-9D48118C511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD733176-D5D1-4294-8C92-9B0E69F35834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="3" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="1890" yWindow="3030" windowWidth="26055" windowHeight="17910" activeTab="3" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
     <sheet name="note-2" sheetId="1" r:id="rId2"/>
     <sheet name="note-3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="note-5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -372,17 +368,97 @@
   <si>
     <t>фин.
 год</t>
+  </si>
+  <si>
+    <t>NBER, "International Migrations", Volume I : Statistics, сост. W. Willcox, New York, 1929, стр. 241-248</t>
+  </si>
+  <si>
+    <t>Канада и др. 
+британские владения в
+сев. Америке</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>Аргентина</t>
+  </si>
+  <si>
+    <t>Бразилия</t>
+  </si>
+  <si>
+    <t>др. амер.
+гос-ва</t>
+  </si>
+  <si>
+    <t>Азия</t>
+  </si>
+  <si>
+    <t>Океания</t>
+  </si>
+  <si>
+    <t>Африка</t>
+  </si>
+  <si>
+    <t>другие
+страны</t>
+  </si>
+  <si>
+    <t>годы</t>
+  </si>
+  <si>
+    <t>1871-1875</t>
+  </si>
+  <si>
+    <t>1876-1880</t>
+  </si>
+  <si>
+    <t>1881-1885</t>
+  </si>
+  <si>
+    <t>1886-1890</t>
+  </si>
+  <si>
+    <t>1891-1895</t>
+  </si>
+  <si>
+    <t>1896-1900</t>
+  </si>
+  <si>
+    <t>1901-1905</t>
+  </si>
+  <si>
+    <t>1906-1910</t>
+  </si>
+  <si>
+    <t>1911-1915</t>
+  </si>
+  <si>
+    <t>1896-1915</t>
+  </si>
+  <si>
+    <t>% за 1896-1915</t>
+  </si>
+  <si>
+    <t>1876-1915</t>
+  </si>
+  <si>
+    <t>% за 1876-1915</t>
+  </si>
+  <si>
+    <t>Эмиграция из России в различные страны вне Европы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,6 +568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,24 +895,24 @@
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.578125" customWidth="1"/>
-    <col min="3" max="3" width="20.83984375" customWidth="1"/>
-    <col min="4" max="4" width="24.578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -841,7 +924,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1904</v>
       </c>
@@ -852,7 +935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1906</v>
       </c>
@@ -863,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1909</v>
       </c>
@@ -874,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1910</v>
       </c>
@@ -885,7 +968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1911</v>
       </c>
@@ -896,7 +979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1912</v>
       </c>
@@ -907,7 +990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1913</v>
       </c>
@@ -918,162 +1001,162 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
@@ -1081,7 +1164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>1896</v>
       </c>
@@ -1089,7 +1172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <f>B60+1</f>
         <v>1897</v>
@@ -1098,7 +1181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <f t="shared" ref="B62:B80" si="0">B61+1</f>
         <v>1898</v>
@@ -1107,7 +1190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>1899</v>
@@ -1116,7 +1199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>1900</v>
@@ -1125,7 +1208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>1901</v>
@@ -1134,7 +1217,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>1902</v>
@@ -1143,7 +1226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>1903</v>
@@ -1152,7 +1235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <f t="shared" si="0"/>
         <v>1904</v>
@@ -1161,7 +1244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <f t="shared" si="0"/>
         <v>1905</v>
@@ -1170,7 +1253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <f t="shared" si="0"/>
         <v>1906</v>
@@ -1179,7 +1262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <f t="shared" si="0"/>
         <v>1907</v>
@@ -1188,7 +1271,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <f t="shared" si="0"/>
         <v>1908</v>
@@ -1197,7 +1280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <f t="shared" si="0"/>
         <v>1909</v>
@@ -1206,7 +1289,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <f t="shared" si="0"/>
         <v>1910</v>
@@ -1215,7 +1298,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <f t="shared" si="0"/>
         <v>1911</v>
@@ -1224,7 +1307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <f t="shared" si="0"/>
         <v>1912</v>
@@ -1233,7 +1316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <f t="shared" si="0"/>
         <v>1913</v>
@@ -1242,7 +1325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <f t="shared" si="0"/>
         <v>1914</v>
@@ -1251,7 +1334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <f t="shared" si="0"/>
         <v>1915</v>
@@ -1260,7 +1343,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <f t="shared" si="0"/>
         <v>1916</v>
@@ -1269,17 +1352,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1917</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -1297,14 +1380,14 @@
       <selection activeCell="P1" sqref="P1:T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.41796875" customWidth="1"/>
-    <col min="5" max="5" width="12.41796875" customWidth="1"/>
-    <col min="6" max="6" width="27.15625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.2">
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
@@ -1345,7 +1428,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1896</v>
       </c>
@@ -1388,7 +1471,7 @@
         <v>52136</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1897</v>
@@ -1430,7 +1513,7 @@
         <v>29981</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A22" si="3">A3+1</f>
         <v>1898</v>
@@ -1472,7 +1555,7 @@
         <v>34554</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>1899</v>
@@ -1496,7 +1579,7 @@
         <v>57773.68421052632</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>1900</v>
@@ -1520,7 +1603,7 @@
         <v>82289.473684210534</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>1901</v>
@@ -1544,7 +1627,7 @@
         <v>79218.947368421053</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>1902</v>
@@ -1568,7 +1651,7 @@
         <v>98398.947368421053</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>1903</v>
@@ -1592,7 +1675,7 @@
         <v>123398.94736842105</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>1904</v>
@@ -1616,7 +1699,7 @@
         <v>142088.42105263157</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>1905</v>
@@ -1640,7 +1723,7 @@
         <v>176721.05263157896</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>1906</v>
@@ -1664,7 +1747,7 @@
         <v>212135.78947368421</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>1907</v>
@@ -1688,7 +1771,7 @@
         <v>256929.47368421053</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>1908</v>
@@ -1712,7 +1795,7 @@
         <v>157857.89473684211</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>1909</v>
@@ -1736,7 +1819,7 @@
         <v>114497.89473684211</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>1910</v>
@@ -1760,7 +1843,7 @@
         <v>180058.94736842107</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>1911</v>
@@ -1784,7 +1867,7 @@
         <v>156781.05263157896</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>1912</v>
@@ -1808,7 +1891,7 @@
         <v>163951.57894736843</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>1913</v>
@@ -1832,7 +1915,7 @@
         <v>292930.5263157895</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>1914</v>
@@ -1856,7 +1939,7 @@
         <v>255636.84210526317</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>1915</v>
@@ -1880,7 +1963,7 @@
         <v>23910.526315789473</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>1916</v>
@@ -1904,7 +1987,7 @@
         <v>2308.4210526315792</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1929,7 +2012,7 @@
         <v>2687088.4210526319</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
@@ -1942,62 +2025,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5234375" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1015625" customWidth="1"/>
-    <col min="4" max="4" width="7.578125" customWidth="1"/>
-    <col min="5" max="5" width="5.734375" customWidth="1"/>
-    <col min="6" max="6" width="8.68359375" customWidth="1"/>
-    <col min="7" max="7" width="8.20703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.68359375" customWidth="1"/>
-    <col min="9" max="9" width="7.578125" customWidth="1"/>
-    <col min="10" max="10" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.9453125" customWidth="1"/>
-    <col min="12" max="12" width="10.1015625" customWidth="1"/>
-    <col min="13" max="13" width="6.7890625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2005,7 +2088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="P9" s="16" t="s">
         <v>72</v>
       </c>
@@ -2038,7 +2121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>85</v>
       </c>
@@ -2121,7 +2204,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1896</v>
       </c>
@@ -2175,7 +2258,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>A11+1</f>
         <v>1897</v>
@@ -2230,7 +2313,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" ref="A13:A31" si="2">A12+1</f>
         <v>1898</v>
@@ -2285,7 +2368,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>1899</v>
@@ -2383,7 +2466,7 @@
         <v>4.3528753924899997</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>1900</v>
@@ -2481,7 +2564,7 @@
         <v>5.6415392085457636</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>1901</v>
@@ -2579,7 +2662,7 @@
         <v>2.5448767286540708</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>1902</v>
@@ -2677,7 +2760,7 @@
         <v>3.0960917891717461</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>1903</v>
@@ -2775,7 +2858,7 @@
         <v>1.9799110237312059</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>1904</v>
@@ -2873,7 +2956,7 @@
         <v>1.427190352127677</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>1905</v>
@@ -2971,7 +3054,7 @@
         <v>1.1078286558345642</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>1906</v>
@@ -3069,7 +3152,7 @@
         <v>1.61159938769543</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>1907</v>
@@ -3167,7 +3250,7 @@
         <v>2.650444548432382</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>1908</v>
@@ -3265,7 +3348,7 @@
         <v>1.6072463326115465</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>1909</v>
@@ -3363,7 +3446,7 @@
         <v>1.6887644302205966</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>1910</v>
@@ -3461,7 +3544,7 @@
         <v>2.6865499548398257</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>1911</v>
@@ -3559,7 +3642,7 @@
         <v>1.5918358446542664</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>1912</v>
@@ -3657,7 +3740,7 @@
         <v>1.3100851238884845</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>1913</v>
@@ -3755,7 +3838,7 @@
         <v>2.3027080052662829</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>1914</v>
@@ -3853,7 +3936,7 @@
         <v>2.0608548525781489</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>1915</v>
@@ -3951,7 +4034,7 @@
         <v>0.49870172690928577</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>1916</v>
@@ -4049,7 +4132,7 @@
         <v>1.3926559566033798</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1917</v>
       </c>
@@ -4146,7 +4229,7 @@
         <v>5.8184812868690303E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="P33" s="19">
         <f>SUM(P14:P31)-P32</f>
         <v>0</v>
@@ -4189,7 +4272,7 @@
       </c>
       <c r="AI33" s="5"/>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -4242,7 +4325,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -4295,12 +4378,12 @@
         <v>0.1375376540970189</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>88</v>
       </c>
@@ -4341,7 +4424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1896</v>
       </c>
@@ -4394,7 +4477,7 @@
         <v>56.470897707424228</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>A41+1</f>
         <v>1897</v>
@@ -4448,7 +4531,7 @@
         <v>44.379962535755112</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" ref="A43:A60" si="16">A42+1</f>
         <v>1898</v>
@@ -4502,7 +4585,7 @@
         <v>134.76238049834137</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="16"/>
         <v>1899</v>
@@ -4556,7 +4639,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="16"/>
         <v>1900</v>
@@ -4610,7 +4693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="16"/>
         <v>1901</v>
@@ -4664,7 +4747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="16"/>
         <v>1902</v>
@@ -4718,7 +4801,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="16"/>
         <v>1903</v>
@@ -4772,7 +4855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="16"/>
         <v>1904</v>
@@ -4826,7 +4909,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="16"/>
         <v>1905</v>
@@ -4880,7 +4963,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="16"/>
         <v>1906</v>
@@ -4934,7 +5017,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="16"/>
         <v>1907</v>
@@ -4988,7 +5071,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="16"/>
         <v>1908</v>
@@ -5042,7 +5125,7 @@
         <v>188.5</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="16"/>
         <v>1909</v>
@@ -5096,7 +5179,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="16"/>
         <v>1910</v>
@@ -5150,7 +5233,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="16"/>
         <v>1911</v>
@@ -5204,7 +5287,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="16"/>
         <v>1912</v>
@@ -5258,7 +5341,7 @@
         <v>253.5</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="16"/>
         <v>1913</v>
@@ -5312,7 +5395,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="16"/>
         <v>1914</v>
@@ -5366,7 +5449,7 @@
         <v>342.5</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="16"/>
         <v>1915</v>
@@ -5420,7 +5503,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1916</v>
       </c>
@@ -5473,7 +5556,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>49</v>
       </c>
@@ -5526,7 +5609,7 @@
         <v>3544.6132407415207</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>89</v>
       </c>
@@ -5585,19 +5668,724 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F1B77F-63AA-4843-B8D8-CA14FF4F0797}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4339</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25985</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>36</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>30398</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="5">
+        <v>20056</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2150</v>
+      </c>
+      <c r="D7" s="5">
+        <v>953</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4194</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>159</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>27525</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="5">
+        <v>184</v>
+      </c>
+      <c r="C8" s="5">
+        <v>63815</v>
+      </c>
+      <c r="D8" s="5">
+        <v>60</v>
+      </c>
+      <c r="E8" s="5">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>38</v>
+      </c>
+      <c r="I8" s="5">
+        <v>209</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>64393</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1951</v>
+      </c>
+      <c r="C9" s="5">
+        <v>187089</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3933</v>
+      </c>
+      <c r="E9" s="5">
+        <v>29528</v>
+      </c>
+      <c r="F9" s="5">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>175</v>
+      </c>
+      <c r="I9" s="5">
+        <v>511</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>223248</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7227</v>
+      </c>
+      <c r="C10" s="5">
+        <v>253103</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5720</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10769</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5">
+        <v>37</v>
+      </c>
+      <c r="H10" s="5">
+        <v>155</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2238</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>279258</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1594</v>
+      </c>
+      <c r="C11" s="5">
+        <v>162814</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4991</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1070</v>
+      </c>
+      <c r="F11" s="5">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5">
+        <v>97</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3304</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>173914</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2787</v>
+      </c>
+      <c r="C12" s="5">
+        <v>321504</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11107</v>
+      </c>
+      <c r="E12" s="5">
+        <v>963</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>66</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3740</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>340174</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3292</v>
+      </c>
+      <c r="C13" s="5">
+        <v>424128</v>
+      </c>
+      <c r="D13" s="5">
+        <v>35644</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8232</v>
+      </c>
+      <c r="F13" s="5">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>87</v>
+      </c>
+      <c r="I13" s="5">
+        <v>550</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>471971</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="5">
+        <v>24693</v>
+      </c>
+      <c r="C14" s="5">
+        <v>330377</v>
+      </c>
+      <c r="D14" s="5">
+        <v>31939</v>
+      </c>
+      <c r="E14" s="5">
+        <v>21559</v>
+      </c>
+      <c r="F14" s="5">
+        <v>217</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>117</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1009</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>409911</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="14">
+        <f>SUM(B6:B14)</f>
+        <v>66123</v>
+      </c>
+      <c r="C15" s="14">
+        <f>SUM(C6:C14)</f>
+        <v>1770965</v>
+      </c>
+      <c r="D15" s="14">
+        <f>SUM(D6:D14)</f>
+        <v>94352</v>
+      </c>
+      <c r="E15" s="14">
+        <f>SUM(E6:E14)</f>
+        <v>76389</v>
+      </c>
+      <c r="F15" s="14">
+        <f>SUM(F6:F14)</f>
+        <v>405</v>
+      </c>
+      <c r="G15" s="14">
+        <f>SUM(G6:G14)</f>
+        <v>60</v>
+      </c>
+      <c r="H15" s="14">
+        <f>SUM(H6:H14)</f>
+        <v>776</v>
+      </c>
+      <c r="I15" s="14">
+        <f>SUM(I6:I14)</f>
+        <v>11721</v>
+      </c>
+      <c r="J15" s="14">
+        <f>SUM(J6:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <f>SUM(K6:K14)</f>
+        <v>2020792</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="25">
+        <f t="shared" ref="B16" si="0">100*B15/$K15</f>
+        <v>3.2721329063060423</v>
+      </c>
+      <c r="C16" s="25">
+        <f t="shared" ref="C16:K18" si="1">100*C15/$K15</f>
+        <v>87.637173939722643</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" ref="D16" si="2">100*D15/$K15</f>
+        <v>4.6690604475868867</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" ref="E16" si="3">100*E15/$K15</f>
+        <v>3.7801515445429317</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" ref="F16" si="4">100*F15/$K15</f>
+        <v>2.0041647037399198E-2</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" ref="G16" si="5">100*G15/$K15</f>
+        <v>2.9691328944295107E-3</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" ref="H16" si="6">100*H15/$K15</f>
+        <v>3.8400785434621672E-2</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" ref="I16" si="7">100*I15/$K15</f>
+        <v>0.58002011092680494</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" ref="J16" si="8">100*J15/$K15</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" ref="K16" si="9">100*K15/$K15</f>
+        <v>100</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="19">
+        <f>SUM(B11:B14)</f>
+        <v>32366</v>
+      </c>
+      <c r="C17" s="19">
+        <f>SUM(C11:C14)</f>
+        <v>1238823</v>
+      </c>
+      <c r="D17" s="19">
+        <f>SUM(D11:D14)</f>
+        <v>83681</v>
+      </c>
+      <c r="E17" s="19">
+        <f>SUM(E11:E14)</f>
+        <v>31824</v>
+      </c>
+      <c r="F17" s="19">
+        <f>SUM(F11:F14)</f>
+        <v>298</v>
+      </c>
+      <c r="G17" s="19">
+        <f>SUM(G11:G14)</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="19">
+        <f>SUM(H11:H14)</f>
+        <v>367</v>
+      </c>
+      <c r="I17" s="19">
+        <f>SUM(I11:I14)</f>
+        <v>8603</v>
+      </c>
+      <c r="J17" s="19">
+        <f>SUM(J11:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <f>SUM(K11:K14)</f>
+        <v>1395970</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="27">
+        <f>100*B17/$K17</f>
+        <v>2.3185312005272318</v>
+      </c>
+      <c r="C18" s="27">
+        <f t="shared" si="1"/>
+        <v>88.742809659233359</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" si="1"/>
+        <v>5.9944697951961716</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="1"/>
+        <v>2.2797051512568323</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="1"/>
+        <v>2.134716362099472E-2</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="1"/>
+        <v>5.7307821801328112E-4</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="1"/>
+        <v>2.628996325135927E-2</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="1"/>
+        <v>0.61627398869603212</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="13.578125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
@@ -5638,7 +6426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1896</v>
       </c>
@@ -5679,7 +6467,7 @@
         <v>56.470897707424228</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1897</v>
       </c>
@@ -5720,7 +6508,7 @@
         <v>44.379962535755112</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1898</v>
       </c>
@@ -5761,7 +6549,7 @@
         <v>134.76238049834137</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1899</v>
       </c>
@@ -5802,7 +6590,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1900</v>
       </c>
@@ -5843,7 +6631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1901</v>
       </c>
@@ -5884,7 +6672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1902</v>
       </c>
@@ -5925,7 +6713,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1903</v>
       </c>
@@ -5966,7 +6754,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1904</v>
       </c>
@@ -6007,7 +6795,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1905</v>
       </c>
@@ -6048,7 +6836,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1906</v>
       </c>
@@ -6089,7 +6877,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1907</v>
       </c>
@@ -6130,7 +6918,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1908</v>
       </c>
@@ -6171,7 +6959,7 @@
         <v>188.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1909</v>
       </c>
@@ -6212,7 +7000,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1910</v>
       </c>
@@ -6253,7 +7041,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1911</v>
       </c>
@@ -6294,7 +7082,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1912</v>
       </c>
@@ -6335,7 +7123,7 @@
         <v>253.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1913</v>
       </c>
@@ -6376,7 +7164,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1914</v>
       </c>
@@ -6417,7 +7205,7 @@
         <v>342.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1915</v>
       </c>
@@ -6458,7 +7246,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1916</v>
       </c>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD733176-D5D1-4294-8C92-9B0E69F35834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C90A8-A75B-4EA2-991E-948A8E4A9674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="3030" windowWidth="26055" windowHeight="17910" activeTab="3" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="2175" yWindow="3315" windowWidth="26055" windowHeight="17910" activeTab="4" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -5671,7 +5671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F1B77F-63AA-4843-B8D8-CA14FF4F0797}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6054,43 +6054,43 @@
         <v>131</v>
       </c>
       <c r="B15" s="14">
-        <f>SUM(B6:B14)</f>
+        <f t="shared" ref="B15:K15" si="0">SUM(B6:B14)</f>
         <v>66123</v>
       </c>
       <c r="C15" s="14">
-        <f>SUM(C6:C14)</f>
+        <f t="shared" si="0"/>
         <v>1770965</v>
       </c>
       <c r="D15" s="14">
-        <f>SUM(D6:D14)</f>
+        <f t="shared" si="0"/>
         <v>94352</v>
       </c>
       <c r="E15" s="14">
-        <f>SUM(E6:E14)</f>
+        <f t="shared" si="0"/>
         <v>76389</v>
       </c>
       <c r="F15" s="14">
-        <f>SUM(F6:F14)</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="G15" s="14">
-        <f>SUM(G6:G14)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H15" s="14">
-        <f>SUM(H6:H14)</f>
+        <f t="shared" si="0"/>
         <v>776</v>
       </c>
       <c r="I15" s="14">
-        <f>SUM(I6:I14)</f>
+        <f t="shared" si="0"/>
         <v>11721</v>
       </c>
       <c r="J15" s="14">
-        <f>SUM(J6:J14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="14">
-        <f>SUM(K6:K14)</f>
+        <f t="shared" si="0"/>
         <v>2020792</v>
       </c>
       <c r="L15" s="5"/>
@@ -6100,43 +6100,43 @@
         <v>132</v>
       </c>
       <c r="B16" s="25">
-        <f t="shared" ref="B16" si="0">100*B15/$K15</f>
+        <f t="shared" ref="B16" si="1">100*B15/$K15</f>
         <v>3.2721329063060423</v>
       </c>
       <c r="C16" s="25">
-        <f t="shared" ref="C16:K18" si="1">100*C15/$K15</f>
+        <f t="shared" ref="C16:K18" si="2">100*C15/$K15</f>
         <v>87.637173939722643</v>
       </c>
       <c r="D16" s="25">
-        <f t="shared" ref="D16" si="2">100*D15/$K15</f>
+        <f t="shared" ref="D16" si="3">100*D15/$K15</f>
         <v>4.6690604475868867</v>
       </c>
       <c r="E16" s="25">
-        <f t="shared" ref="E16" si="3">100*E15/$K15</f>
+        <f t="shared" ref="E16" si="4">100*E15/$K15</f>
         <v>3.7801515445429317</v>
       </c>
       <c r="F16" s="25">
-        <f t="shared" ref="F16" si="4">100*F15/$K15</f>
+        <f t="shared" ref="F16" si="5">100*F15/$K15</f>
         <v>2.0041647037399198E-2</v>
       </c>
       <c r="G16" s="25">
-        <f t="shared" ref="G16" si="5">100*G15/$K15</f>
+        <f t="shared" ref="G16" si="6">100*G15/$K15</f>
         <v>2.9691328944295107E-3</v>
       </c>
       <c r="H16" s="25">
-        <f t="shared" ref="H16" si="6">100*H15/$K15</f>
+        <f t="shared" ref="H16" si="7">100*H15/$K15</f>
         <v>3.8400785434621672E-2</v>
       </c>
       <c r="I16" s="25">
-        <f t="shared" ref="I16" si="7">100*I15/$K15</f>
+        <f t="shared" ref="I16" si="8">100*I15/$K15</f>
         <v>0.58002011092680494</v>
       </c>
       <c r="J16" s="25">
-        <f t="shared" ref="J16" si="8">100*J15/$K15</f>
+        <f t="shared" ref="J16" si="9">100*J15/$K15</f>
         <v>0</v>
       </c>
       <c r="K16" s="25">
-        <f t="shared" ref="K16" si="9">100*K15/$K15</f>
+        <f t="shared" ref="K16" si="10">100*K15/$K15</f>
         <v>100</v>
       </c>
       <c r="L16" s="5"/>
@@ -6146,43 +6146,43 @@
         <v>129</v>
       </c>
       <c r="B17" s="19">
-        <f>SUM(B11:B14)</f>
+        <f t="shared" ref="B17:K17" si="11">SUM(B11:B14)</f>
         <v>32366</v>
       </c>
       <c r="C17" s="19">
-        <f>SUM(C11:C14)</f>
+        <f t="shared" si="11"/>
         <v>1238823</v>
       </c>
       <c r="D17" s="19">
-        <f>SUM(D11:D14)</f>
+        <f t="shared" si="11"/>
         <v>83681</v>
       </c>
       <c r="E17" s="19">
-        <f>SUM(E11:E14)</f>
+        <f t="shared" si="11"/>
         <v>31824</v>
       </c>
       <c r="F17" s="19">
-        <f>SUM(F11:F14)</f>
+        <f t="shared" si="11"/>
         <v>298</v>
       </c>
       <c r="G17" s="19">
-        <f>SUM(G11:G14)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="H17" s="19">
-        <f>SUM(H11:H14)</f>
+        <f t="shared" si="11"/>
         <v>367</v>
       </c>
       <c r="I17" s="19">
-        <f>SUM(I11:I14)</f>
+        <f t="shared" si="11"/>
         <v>8603</v>
       </c>
       <c r="J17" s="19">
-        <f>SUM(J11:J14)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K17" s="19">
-        <f>SUM(K11:K14)</f>
+        <f t="shared" si="11"/>
         <v>1395970</v>
       </c>
     </row>
@@ -6195,39 +6195,39 @@
         <v>2.3185312005272318</v>
       </c>
       <c r="C18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.742809659233359</v>
       </c>
       <c r="D18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9944697951961716</v>
       </c>
       <c r="E18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2797051512568323</v>
       </c>
       <c r="F18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.134716362099472E-2</v>
       </c>
       <c r="G18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7307821801328112E-4</v>
       </c>
       <c r="H18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.628996325135927E-2</v>
       </c>
       <c r="I18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61627398869603212</v>
       </c>
       <c r="J18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -6374,10 +6374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,7 +6385,7 @@
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1896</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>56.470897707424228</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1897</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>44.379962535755112</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1898</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>134.76238049834137</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1899</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1900</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1901</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1902</v>
       </c>
@@ -6712,8 +6712,9 @@
       <c r="M8" s="5">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1903</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1904</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1905</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1906</v>
       </c>
@@ -6877,7 +6878,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1907</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1908</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>188.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1909</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1910</v>
       </c>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C90A8-A75B-4EA2-991E-948A8E4A9674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE79F95-F43D-4FD8-88E9-4975CB9FF3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3315" windowWidth="26055" windowHeight="17910" activeTab="4" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="2970" yWindow="4110" windowWidth="26055" windowHeight="17910" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="152">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>*********************************************************************************************</t>
-  </si>
-  <si>
-    <t>Разбивка иммигрантов из США в Россию по народностям</t>
   </si>
   <si>
     <t>год отчёта</t>
@@ -447,6 +444,63 @@
   </si>
   <si>
     <t>Эмиграция из России в различные страны вне Европы</t>
+  </si>
+  <si>
+    <t>Разбивка реэмигрантов из США в Россию по народностям</t>
+  </si>
+  <si>
+    <t>Разбивка иммигрантов в США из России по народностям</t>
+  </si>
+  <si>
+    <t>Разбивка по народностям реэмигрантов из США в Россию в финансовый год заканчивающийся 30 июня YYYY.</t>
+  </si>
+  <si>
+    <t>66-68</t>
+  </si>
+  <si>
+    <t>30-32</t>
+  </si>
+  <si>
+    <t>83-85</t>
+  </si>
+  <si>
+    <t>40-42</t>
+  </si>
+  <si>
+    <t>14-16</t>
+  </si>
+  <si>
+    <t>52-55</t>
+  </si>
+  <si>
+    <t>73-75</t>
+  </si>
+  <si>
+    <t>29-31</t>
+  </si>
+  <si>
+    <t>Величины прибытия для тех же фин. лет, с теми же пробелами:</t>
+  </si>
+  <si>
+    <t>прибытие</t>
+  </si>
+  <si>
+    <t>реэмиграция</t>
+  </si>
+  <si>
+    <t>% реэмиграции</t>
+  </si>
+  <si>
+    <t>Суммы прибытия, реэмиграции и % реэмиграции за 1908-1917 фин.годы:</t>
+  </si>
+  <si>
+    <t>Прилагая вычисленный коэфициент реэмиграции к каждому году из 1896-1907 фин. годов, а также к пробелам, получаем величину реэмиграции по фин. годам:</t>
+  </si>
+  <si>
+    <t>Баланс чистой иммиграции (иммиграция минус реэмиграция) для фин. лет будет:</t>
+  </si>
+  <si>
+    <t>Баланс чистой иммиграции (иммиграция минус реэмиграция) для календарных лет:</t>
   </si>
 </sst>
 </file>
@@ -478,6 +532,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -518,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,6 +630,7 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E018E8-FFD2-476D-8A98-BDF34A70858D}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1084,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1104,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -1138,30 +1194,30 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,7 +1225,7 @@
         <v>1896</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,7 +1234,7 @@
         <v>1897</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,7 +1243,7 @@
         <v>1898</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1252,7 @@
         <v>1899</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,7 +1261,7 @@
         <v>1900</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -1214,7 +1270,7 @@
         <v>1901</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -1223,7 +1279,7 @@
         <v>1902</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -1232,7 +1288,7 @@
         <v>1903</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -1241,7 +1297,7 @@
         <v>1904</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -1250,7 +1306,7 @@
         <v>1905</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -1259,7 +1315,7 @@
         <v>1906</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -1268,7 +1324,7 @@
         <v>1907</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -1277,7 +1333,7 @@
         <v>1908</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -1286,7 +1342,7 @@
         <v>1909</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -1295,7 +1351,7 @@
         <v>1910</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -1304,7 +1360,7 @@
         <v>1911</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -1313,7 +1369,7 @@
         <v>1912</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -1322,7 +1378,7 @@
         <v>1913</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -1331,7 +1387,7 @@
         <v>1914</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -1340,7 +1396,7 @@
         <v>1915</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -1349,22 +1405,118 @@
         <v>1916</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B81">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
         <v>1917</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>99</v>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>1908</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <f t="shared" ref="B89:B96" si="1">B88+1</f>
+        <v>1909</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>1910</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>1911</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>1912</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>1913</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>1914</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>1915</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <f t="shared" si="1"/>
+        <v>1916</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>1917</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1413,19 +1565,19 @@
         <v>51</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1452,7 +1604,7 @@
         <v>48240</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" s="1">
         <v>1896</v>
@@ -2023,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
-  <dimension ref="A1:AI63"/>
+  <dimension ref="A1:AI178"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2188,7 @@
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
@@ -2062,146 +2214,146 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="P9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="P10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="S10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="V10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="W10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="Y10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="AB10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AC10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="AE10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AF10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="AH10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI10" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="AI10" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -4274,7 +4426,7 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="5">
         <f>SUM(B14:B16)</f>
@@ -4327,7 +4479,7 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35">
         <f>100*B34/$L34</f>
@@ -4380,48 +4532,48 @@
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="J40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="K40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="M40" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
@@ -5611,7 +5763,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="15">
         <f>100*B62/$L62</f>
@@ -5662,8 +5814,4707 @@
         <v>0.12899442300236147</v>
       </c>
     </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B69" s="5">
+        <v>9</v>
+      </c>
+      <c r="C69" s="5">
+        <v>3360</v>
+      </c>
+      <c r="D69" s="5">
+        <v>408</v>
+      </c>
+      <c r="E69" s="5">
+        <v>7</v>
+      </c>
+      <c r="F69" s="5">
+        <v>5439</v>
+      </c>
+      <c r="G69" s="5">
+        <v>3282</v>
+      </c>
+      <c r="H69" s="5">
+        <v>18187</v>
+      </c>
+      <c r="I69" s="5">
+        <v>6636</v>
+      </c>
+      <c r="J69" s="5">
+        <v>50</v>
+      </c>
+      <c r="K69" s="5">
+        <v>141</v>
+      </c>
+      <c r="L69" s="5">
+        <v>37777</v>
+      </c>
+      <c r="M69" s="5">
+        <f t="shared" ref="M69:M77" si="37">L69-SUM(B69:K69)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <f t="shared" ref="A70:A76" si="38">A69+1</f>
+        <v>1909</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1035</v>
+      </c>
+      <c r="D70" s="5">
+        <v>338</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2</v>
+      </c>
+      <c r="F70" s="5">
+        <v>3989</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1944</v>
+      </c>
+      <c r="H70" s="5">
+        <v>8421</v>
+      </c>
+      <c r="I70" s="5">
+        <v>3819</v>
+      </c>
+      <c r="J70" s="5">
+        <v>30</v>
+      </c>
+      <c r="K70" s="5">
+        <v>41</v>
+      </c>
+      <c r="L70" s="5">
+        <v>19707</v>
+      </c>
+      <c r="M70" s="5">
+        <f t="shared" si="37"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <f t="shared" si="38"/>
+        <v>1910</v>
+      </c>
+      <c r="B71" s="5">
+        <v>4</v>
+      </c>
+      <c r="C71" s="5">
+        <v>692</v>
+      </c>
+      <c r="D71" s="5">
+        <v>503</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5">
+        <v>3295</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1765</v>
+      </c>
+      <c r="H71" s="5">
+        <v>6705</v>
+      </c>
+      <c r="I71" s="5">
+        <v>4223</v>
+      </c>
+      <c r="J71" s="5">
+        <v>38</v>
+      </c>
+      <c r="K71" s="5">
+        <v>22</v>
+      </c>
+      <c r="L71" s="5">
+        <v>17362</v>
+      </c>
+      <c r="M71" s="5">
+        <f t="shared" si="37"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <f t="shared" si="38"/>
+        <v>1911</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5">
+        <v>4219</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5">
+        <v>2430</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5">
+        <v>3838</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5">
+        <v>27053</v>
+      </c>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <f t="shared" si="38"/>
+        <v>1912</v>
+      </c>
+      <c r="B73" s="5">
+        <v>18</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2430</v>
+      </c>
+      <c r="D73" s="5">
+        <v>519</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3</v>
+      </c>
+      <c r="F73" s="5">
+        <v>4448</v>
+      </c>
+      <c r="G73" s="5">
+        <v>4112</v>
+      </c>
+      <c r="H73" s="5">
+        <v>14701</v>
+      </c>
+      <c r="I73" s="5">
+        <v>8139</v>
+      </c>
+      <c r="J73" s="5">
+        <v>133</v>
+      </c>
+      <c r="K73" s="5">
+        <v>59</v>
+      </c>
+      <c r="L73" s="5">
+        <v>34681</v>
+      </c>
+      <c r="M73" s="5">
+        <f t="shared" si="37"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <f t="shared" si="38"/>
+        <v>1913</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5">
+        <v>3053</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5">
+        <v>3276</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5">
+        <v>5327</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5">
+        <v>26923</v>
+      </c>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <f t="shared" si="38"/>
+        <v>1914</v>
+      </c>
+      <c r="B75" s="5">
+        <v>58</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2252</v>
+      </c>
+      <c r="D75" s="5">
+        <v>811</v>
+      </c>
+      <c r="E75" s="5">
+        <v>5</v>
+      </c>
+      <c r="F75" s="5">
+        <v>4174</v>
+      </c>
+      <c r="G75" s="5">
+        <v>5480</v>
+      </c>
+      <c r="H75" s="5">
+        <v>18779</v>
+      </c>
+      <c r="I75" s="5">
+        <v>15703</v>
+      </c>
+      <c r="J75" s="5">
+        <v>67</v>
+      </c>
+      <c r="K75" s="5">
+        <v>28</v>
+      </c>
+      <c r="L75" s="5">
+        <v>47451</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" si="37"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <f t="shared" si="38"/>
+        <v>1915</v>
+      </c>
+      <c r="B76" s="5">
+        <v>217</v>
+      </c>
+      <c r="C76" s="5">
+        <v>727</v>
+      </c>
+      <c r="D76" s="5">
+        <v>167</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2</v>
+      </c>
+      <c r="F76" s="5">
+        <v>873</v>
+      </c>
+      <c r="G76" s="5">
+        <v>965</v>
+      </c>
+      <c r="H76" s="5">
+        <v>4694</v>
+      </c>
+      <c r="I76" s="5">
+        <v>10501</v>
+      </c>
+      <c r="J76" s="5">
+        <v>40</v>
+      </c>
+      <c r="K76" s="5">
+        <v>33</v>
+      </c>
+      <c r="L76" s="5">
+        <v>18297</v>
+      </c>
+      <c r="M76" s="5">
+        <f t="shared" si="37"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B77" s="5">
+        <v>354</v>
+      </c>
+      <c r="C77" s="5">
+        <v>379</v>
+      </c>
+      <c r="D77" s="5">
+        <v>20</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>45</v>
+      </c>
+      <c r="G77" s="5">
+        <v>26</v>
+      </c>
+      <c r="H77" s="5">
+        <v>229</v>
+      </c>
+      <c r="I77" s="5">
+        <v>4106</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
+        <v>11</v>
+      </c>
+      <c r="L77" s="5">
+        <v>5259</v>
+      </c>
+      <c r="M77" s="5">
+        <f t="shared" si="37"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1917</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1256</v>
+      </c>
+      <c r="G78" s="5">
+        <v>38</v>
+      </c>
+      <c r="H78" s="5">
+        <v>119</v>
+      </c>
+      <c r="I78" s="5">
+        <v>6393</v>
+      </c>
+      <c r="L78" s="5">
+        <v>5947</v>
+      </c>
+      <c r="M78" s="5"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B83" s="5">
+        <v>62</v>
+      </c>
+      <c r="C83" s="5">
+        <v>6303</v>
+      </c>
+      <c r="D83" s="5">
+        <v>10009</v>
+      </c>
+      <c r="E83" s="5">
+        <v>24</v>
+      </c>
+      <c r="F83" s="5">
+        <v>71978</v>
+      </c>
+      <c r="G83" s="5">
+        <v>13270</v>
+      </c>
+      <c r="H83" s="5">
+        <v>37947</v>
+      </c>
+      <c r="I83" s="5">
+        <v>16324</v>
+      </c>
+      <c r="J83" s="5">
+        <v>37</v>
+      </c>
+      <c r="K83" s="5">
+        <v>527</v>
+      </c>
+      <c r="L83" s="5">
+        <v>156711</v>
+      </c>
+      <c r="M83" s="5">
+        <f t="shared" ref="M83:M84" si="39">L83-SUM(B83:K83)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <f t="shared" ref="A84:A90" si="40">A83+1</f>
+        <v>1909</v>
+      </c>
+      <c r="B84" s="5">
+        <v>50</v>
+      </c>
+      <c r="C84" s="5">
+        <v>11202</v>
+      </c>
+      <c r="D84" s="5">
+        <v>7781</v>
+      </c>
+      <c r="E84" s="5">
+        <v>5</v>
+      </c>
+      <c r="F84" s="5">
+        <v>39150</v>
+      </c>
+      <c r="G84" s="5">
+        <v>14595</v>
+      </c>
+      <c r="H84" s="5">
+        <v>37770</v>
+      </c>
+      <c r="I84" s="5">
+        <v>9099</v>
+      </c>
+      <c r="J84" s="5">
+        <v>70</v>
+      </c>
+      <c r="K84" s="5">
+        <v>591</v>
+      </c>
+      <c r="L84" s="5">
+        <v>120460</v>
+      </c>
+      <c r="M84" s="5">
+        <f t="shared" si="39"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <f t="shared" si="40"/>
+        <v>1910</v>
+      </c>
+      <c r="B85" s="5">
+        <v>52</v>
+      </c>
+      <c r="C85" s="5">
+        <v>14999</v>
+      </c>
+      <c r="D85" s="5">
+        <v>10016</v>
+      </c>
+      <c r="E85" s="5">
+        <v>3</v>
+      </c>
+      <c r="F85" s="5">
+        <v>59824</v>
+      </c>
+      <c r="G85" s="5">
+        <v>21676</v>
+      </c>
+      <c r="H85" s="5">
+        <v>63635</v>
+      </c>
+      <c r="I85" s="5">
+        <v>14768</v>
+      </c>
+      <c r="J85" s="5">
+        <v>102</v>
+      </c>
+      <c r="K85" s="5">
+        <v>1398</v>
+      </c>
+      <c r="L85" s="5">
+        <v>186792</v>
+      </c>
+      <c r="M85" s="5">
+        <f>L85-SUM(B85:K85)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <f t="shared" si="40"/>
+        <v>1911</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5">
+        <v>8942</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5">
+        <v>16210</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5">
+        <v>17581</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5">
+        <v>158721</v>
+      </c>
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <f t="shared" si="40"/>
+        <v>1912</v>
+      </c>
+      <c r="B87" s="5">
+        <v>250</v>
+      </c>
+      <c r="C87" s="5">
+        <v>5709</v>
+      </c>
+      <c r="D87" s="5">
+        <v>11031</v>
+      </c>
+      <c r="E87" s="5">
+        <v>9</v>
+      </c>
+      <c r="F87" s="5">
+        <v>58389</v>
+      </c>
+      <c r="G87" s="5">
+        <v>13756</v>
+      </c>
+      <c r="H87" s="5">
+        <v>51244</v>
+      </c>
+      <c r="I87" s="5">
+        <v>21101</v>
+      </c>
+      <c r="J87" s="5">
+        <v>384</v>
+      </c>
+      <c r="K87" s="5">
+        <v>414</v>
+      </c>
+      <c r="L87" s="5">
+        <v>162395</v>
+      </c>
+      <c r="M87" s="5">
+        <f t="shared" ref="M87:M90" si="41">L87-SUM(B87:K87)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <f t="shared" si="40"/>
+        <v>1913</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5">
+        <v>11156</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
+        <v>23873</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5">
+        <v>48472</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5">
+        <v>291040</v>
+      </c>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <f t="shared" si="40"/>
+        <v>1914</v>
+      </c>
+      <c r="B89" s="5">
+        <v>872</v>
+      </c>
+      <c r="C89" s="5">
+        <v>10968</v>
+      </c>
+      <c r="D89" s="5">
+        <v>9889</v>
+      </c>
+      <c r="E89" s="5">
+        <v>63</v>
+      </c>
+      <c r="F89" s="5">
+        <v>102638</v>
+      </c>
+      <c r="G89" s="5">
+        <v>20808</v>
+      </c>
+      <c r="H89" s="5">
+        <v>66278</v>
+      </c>
+      <c r="I89" s="5">
+        <v>40241</v>
+      </c>
+      <c r="J89" s="5">
+        <v>2543</v>
+      </c>
+      <c r="K89" s="5">
+        <v>743</v>
+      </c>
+      <c r="L89" s="5">
+        <v>255660</v>
+      </c>
+      <c r="M89" s="5">
+        <f t="shared" si="41"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <f t="shared" si="40"/>
+        <v>1915</v>
+      </c>
+      <c r="B90" s="5">
+        <v>41</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1650</v>
+      </c>
+      <c r="D90" s="5">
+        <v>905</v>
+      </c>
+      <c r="E90" s="5">
+        <v>14</v>
+      </c>
+      <c r="F90" s="5">
+        <v>14496</v>
+      </c>
+      <c r="G90" s="5">
+        <v>2218</v>
+      </c>
+      <c r="H90" s="5">
+        <v>4486</v>
+      </c>
+      <c r="I90" s="5">
+        <v>2030</v>
+      </c>
+      <c r="J90" s="5">
+        <v>158</v>
+      </c>
+      <c r="K90" s="5">
+        <v>121</v>
+      </c>
+      <c r="L90" s="5">
+        <v>26187</v>
+      </c>
+      <c r="M90" s="5">
+        <f t="shared" si="41"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44</v>
+      </c>
+      <c r="C91" s="5">
+        <v>3834</v>
+      </c>
+      <c r="D91" s="5">
+        <v>63</v>
+      </c>
+      <c r="E91" s="5">
+        <v>2</v>
+      </c>
+      <c r="F91" s="5">
+        <v>2138</v>
+      </c>
+      <c r="G91" s="5">
+        <v>136</v>
+      </c>
+      <c r="H91" s="5">
+        <v>277</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1026</v>
+      </c>
+      <c r="J91" s="5">
+        <v>2</v>
+      </c>
+      <c r="K91" s="5">
+        <v>267</v>
+      </c>
+      <c r="L91" s="5">
+        <v>7842</v>
+      </c>
+      <c r="M91" s="5">
+        <f>L91-SUM(B91:K91)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5">
+        <v>3745</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5">
+        <v>73</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5">
+        <v>1006</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5">
+        <v>12716</v>
+      </c>
+      <c r="M92" s="5"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="5">
+        <f>SUM(B83:B92)</f>
+        <v>1371</v>
+      </c>
+      <c r="C97" s="5">
+        <f>SUM(C83:C92)</f>
+        <v>78508</v>
+      </c>
+      <c r="D97" s="5">
+        <f>SUM(D83:D92)</f>
+        <v>49694</v>
+      </c>
+      <c r="E97" s="5">
+        <f>SUM(E83:E92)</f>
+        <v>120</v>
+      </c>
+      <c r="F97" s="5">
+        <f>SUM(F83:F92)</f>
+        <v>348613</v>
+      </c>
+      <c r="G97" s="5">
+        <f>SUM(G83:G92)</f>
+        <v>126615</v>
+      </c>
+      <c r="H97" s="5">
+        <f>SUM(H83:H92)</f>
+        <v>261637</v>
+      </c>
+      <c r="I97" s="5">
+        <f>SUM(I83:I92)</f>
+        <v>171648</v>
+      </c>
+      <c r="J97" s="5">
+        <f>SUM(J83:J92)</f>
+        <v>3296</v>
+      </c>
+      <c r="K97" s="5">
+        <f>SUM(K83:K92)</f>
+        <v>4061</v>
+      </c>
+      <c r="L97" s="5">
+        <f>SUM(L83:L92)</f>
+        <v>1378524</v>
+      </c>
+      <c r="M97" s="5">
+        <f>SUM(M83:M92)</f>
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="5">
+        <f>SUM(B69:B78)</f>
+        <v>661</v>
+      </c>
+      <c r="C98" s="5">
+        <f>SUM(C69:C78)</f>
+        <v>19403</v>
+      </c>
+      <c r="D98" s="5">
+        <f>SUM(D69:D78)</f>
+        <v>2766</v>
+      </c>
+      <c r="E98" s="5">
+        <f>SUM(E69:E78)</f>
+        <v>22</v>
+      </c>
+      <c r="F98" s="5">
+        <f>SUM(F69:F78)</f>
+        <v>22263</v>
+      </c>
+      <c r="G98" s="5">
+        <f>SUM(G69:G78)</f>
+        <v>23318</v>
+      </c>
+      <c r="H98" s="5">
+        <f>SUM(H69:H78)</f>
+        <v>71835</v>
+      </c>
+      <c r="I98" s="5">
+        <f>SUM(I69:I78)</f>
+        <v>68685</v>
+      </c>
+      <c r="J98" s="5">
+        <f>SUM(J69:J78)</f>
+        <v>358</v>
+      </c>
+      <c r="K98" s="5">
+        <f>SUM(K69:K78)</f>
+        <v>335</v>
+      </c>
+      <c r="L98" s="5">
+        <f>SUM(L69:L78)</f>
+        <v>240457</v>
+      </c>
+      <c r="M98" s="5">
+        <f>SUM(M69:M78)</f>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="28">
+        <f>100*B98/B97</f>
+        <v>48.212983223924141</v>
+      </c>
+      <c r="C99" s="28">
+        <f t="shared" ref="C99:M99" si="42">100*C98/C97</f>
+        <v>24.7146787588526</v>
+      </c>
+      <c r="D99" s="28">
+        <f t="shared" si="42"/>
+        <v>5.5660643135992274</v>
+      </c>
+      <c r="E99" s="28">
+        <f t="shared" si="42"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F99" s="28">
+        <f t="shared" si="42"/>
+        <v>6.386164600861127</v>
+      </c>
+      <c r="G99" s="28">
+        <f t="shared" si="42"/>
+        <v>18.416459345259252</v>
+      </c>
+      <c r="H99" s="28">
+        <f t="shared" si="42"/>
+        <v>27.455979085526895</v>
+      </c>
+      <c r="I99" s="28">
+        <f t="shared" si="42"/>
+        <v>40.015030760626395</v>
+      </c>
+      <c r="J99" s="28">
+        <f t="shared" si="42"/>
+        <v>10.861650485436893</v>
+      </c>
+      <c r="K99" s="28">
+        <f t="shared" si="42"/>
+        <v>8.2491997045062799</v>
+      </c>
+      <c r="L99" s="28">
+        <f t="shared" si="42"/>
+        <v>17.443076798082586</v>
+      </c>
+      <c r="M99" s="28">
+        <f t="shared" si="42"/>
+        <v>54.280155642023345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B104" s="5">
+        <f>B11* (B$99/100)</f>
+        <v>0.10604879183560069</v>
+      </c>
+      <c r="C104" s="5">
+        <f t="shared" ref="C104:M104" si="43">C11* (C$99/100)</f>
+        <v>1550.8980122750347</v>
+      </c>
+      <c r="D104" s="5">
+        <f t="shared" si="43"/>
+        <v>200.48009029625982</v>
+      </c>
+      <c r="E104" s="5">
+        <f t="shared" si="43"/>
+        <v>0.12097744551230667</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" si="43"/>
+        <v>1389.8888491231778</v>
+      </c>
+      <c r="G104" s="5">
+        <f t="shared" si="43"/>
+        <v>1050.7945965240046</v>
+      </c>
+      <c r="H104" s="5">
+        <f t="shared" si="43"/>
+        <v>3592.8346052321458</v>
+      </c>
+      <c r="I104" s="5">
+        <f t="shared" si="43"/>
+        <v>306.03392072051736</v>
+      </c>
+      <c r="J104" s="5">
+        <f t="shared" si="43"/>
+        <v>0.97953825310549258</v>
+      </c>
+      <c r="K104" s="5">
+        <f t="shared" si="43"/>
+        <v>70.692360943270657</v>
+      </c>
+      <c r="L104" s="5">
+        <f t="shared" si="43"/>
+        <v>9094.1225194483359</v>
+      </c>
+      <c r="M104" s="5">
+        <f t="shared" si="43"/>
+        <v>38.922471097015276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <f>A104+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B105" s="5">
+        <f t="shared" ref="B105:M105" si="44">B12* (B$99/100)</f>
+        <v>6.0983750729306903E-2</v>
+      </c>
+      <c r="C105" s="5">
+        <f t="shared" si="44"/>
+        <v>891.84964911036161</v>
+      </c>
+      <c r="D105" s="5">
+        <f t="shared" si="44"/>
+        <v>115.28681884249205</v>
+      </c>
+      <c r="E105" s="5">
+        <f t="shared" si="44"/>
+        <v>6.9568528347101158E-2</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" si="44"/>
+        <v>799.26073318938893</v>
+      </c>
+      <c r="G105" s="5">
+        <f t="shared" si="44"/>
+        <v>604.26332665310315</v>
+      </c>
+      <c r="H105" s="5">
+        <f t="shared" si="44"/>
+        <v>2066.0728536800862</v>
+      </c>
+      <c r="I105" s="5">
+        <f t="shared" si="44"/>
+        <v>175.98594017803114</v>
+      </c>
+      <c r="J105" s="5">
+        <f t="shared" si="44"/>
+        <v>0.56328710231616885</v>
+      </c>
+      <c r="K105" s="5">
+        <f t="shared" si="44"/>
+        <v>40.651904124600996</v>
+      </c>
+      <c r="L105" s="5">
+        <f t="shared" si="44"/>
+        <v>5229.60885483314</v>
+      </c>
+      <c r="M105" s="5">
+        <f t="shared" si="44"/>
+        <v>22.382511239060051</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <f t="shared" ref="A106:B124" si="45">A105+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B106" s="5">
+        <f t="shared" ref="B106:M106" si="46">B13* (B$99/100)</f>
+        <v>7.028559830227378E-2</v>
+      </c>
+      <c r="C106" s="5">
+        <f t="shared" si="46"/>
+        <v>1027.8834186771435</v>
+      </c>
+      <c r="D106" s="5">
+        <f t="shared" si="46"/>
+        <v>132.87150989905174</v>
+      </c>
+      <c r="E106" s="5">
+        <f t="shared" si="46"/>
+        <v>8.0179811497472844E-2</v>
+      </c>
+      <c r="F106" s="5">
+        <f t="shared" si="46"/>
+        <v>921.17192137107338</v>
+      </c>
+      <c r="G106" s="5">
+        <f t="shared" si="46"/>
+        <v>696.43157296859113</v>
+      </c>
+      <c r="H106" s="5">
+        <f t="shared" si="46"/>
+        <v>2381.210813050322</v>
+      </c>
+      <c r="I106" s="5">
+        <f t="shared" si="46"/>
+        <v>202.82906430444905</v>
+      </c>
+      <c r="J106" s="5">
+        <f t="shared" si="46"/>
+        <v>0.6492052477713518</v>
+      </c>
+      <c r="K106" s="5">
+        <f t="shared" si="46"/>
+        <v>46.852536443796502</v>
+      </c>
+      <c r="L106" s="5">
+        <f t="shared" si="46"/>
+        <v>6027.2807568094568</v>
+      </c>
+      <c r="M106" s="5">
+        <f t="shared" si="46"/>
+        <v>25.796514237498997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <f t="shared" si="45"/>
+        <v>1899</v>
+      </c>
+      <c r="B107" s="5">
+        <f t="shared" ref="B107:M107" si="47">B14* (B$99/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C107" s="5">
+        <f t="shared" si="47"/>
+        <v>1494.7437713354052</v>
+      </c>
+      <c r="D107" s="5">
+        <f t="shared" si="47"/>
+        <v>299.62124200104643</v>
+      </c>
+      <c r="E107" s="5">
+        <f t="shared" si="47"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="F107" s="5">
+        <f t="shared" si="47"/>
+        <v>1550.2414568590386</v>
+      </c>
+      <c r="G107" s="5">
+        <f t="shared" si="47"/>
+        <v>1259.3174900288275</v>
+      </c>
+      <c r="H107" s="5">
+        <f t="shared" si="47"/>
+        <v>4260.3442747012077</v>
+      </c>
+      <c r="I107" s="5">
+        <f t="shared" si="47"/>
+        <v>663.04905970357936</v>
+      </c>
+      <c r="J107" s="5">
+        <f t="shared" si="47"/>
+        <v>3.1498786407766994</v>
+      </c>
+      <c r="K107" s="5">
+        <f t="shared" si="47"/>
+        <v>83.481901009603547</v>
+      </c>
+      <c r="L107" s="5">
+        <f t="shared" si="47"/>
+        <v>10637.137093006722</v>
+      </c>
+      <c r="M107" s="5">
+        <f t="shared" si="47"/>
+        <v>120.50194552529182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <f t="shared" si="45"/>
+        <v>1900</v>
+      </c>
+      <c r="B108" s="5">
+        <f t="shared" ref="B108:M108" si="48">B15* (B$99/100)</f>
+        <v>0.48212983223924138</v>
+      </c>
+      <c r="C108" s="5">
+        <f t="shared" si="48"/>
+        <v>3093.0420466704027</v>
+      </c>
+      <c r="D108" s="5">
+        <f t="shared" si="48"/>
+        <v>297.72878013442266</v>
+      </c>
+      <c r="E108" s="5">
+        <f t="shared" si="48"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" si="48"/>
+        <v>2363.5833804247118</v>
+      </c>
+      <c r="G108" s="5">
+        <f t="shared" si="48"/>
+        <v>1896.3428187813449</v>
+      </c>
+      <c r="H108" s="5">
+        <f t="shared" si="48"/>
+        <v>6177.5952942435515</v>
+      </c>
+      <c r="I108" s="5">
+        <f t="shared" si="48"/>
+        <v>466.17510836129753</v>
+      </c>
+      <c r="J108" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="5">
+        <f t="shared" si="48"/>
+        <v>153.35262250677175</v>
+      </c>
+      <c r="L108" s="5">
+        <f t="shared" si="48"/>
+        <v>15836.046132675237</v>
+      </c>
+      <c r="M108" s="5">
+        <f t="shared" si="48"/>
+        <v>47.766536964980538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <f t="shared" si="45"/>
+        <v>1901</v>
+      </c>
+      <c r="B109" s="5">
+        <f t="shared" ref="B109:M109" si="49">B16* (B$99/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C109" s="5">
+        <f t="shared" si="49"/>
+        <v>2463.0648851072501</v>
+      </c>
+      <c r="D109" s="5">
+        <f t="shared" si="49"/>
+        <v>314.09300921640443</v>
+      </c>
+      <c r="E109" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="49"/>
+        <v>2405.0295886843005</v>
+      </c>
+      <c r="G109" s="5">
+        <f t="shared" si="49"/>
+        <v>1621.5692453500769</v>
+      </c>
+      <c r="H109" s="5">
+        <f t="shared" si="49"/>
+        <v>5896.1715086169006</v>
+      </c>
+      <c r="I109" s="5">
+        <f t="shared" si="49"/>
+        <v>262.09845148210292</v>
+      </c>
+      <c r="J109" s="5">
+        <f t="shared" si="49"/>
+        <v>1.3033980582524274</v>
+      </c>
+      <c r="K109" s="5">
+        <f t="shared" si="49"/>
+        <v>84.554296971189373</v>
+      </c>
+      <c r="L109" s="5">
+        <f t="shared" si="49"/>
+        <v>14871.443985741269</v>
+      </c>
+      <c r="M109" s="5">
+        <f t="shared" si="49"/>
+        <v>8.6848249027237348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <f t="shared" si="45"/>
+        <v>1902</v>
+      </c>
+      <c r="B110" s="5">
+        <f t="shared" ref="B110:M110" si="50">B17* (B$99/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="5">
+        <f t="shared" si="50"/>
+        <v>3423.9715952514389</v>
+      </c>
+      <c r="D110" s="5">
+        <f t="shared" si="50"/>
+        <v>475.45321366764603</v>
+      </c>
+      <c r="E110" s="5">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="5">
+        <f t="shared" si="50"/>
+        <v>2416.907854841902</v>
+      </c>
+      <c r="G110" s="5">
+        <f t="shared" si="50"/>
+        <v>1837.0418196896103</v>
+      </c>
+      <c r="H110" s="5">
+        <f t="shared" si="50"/>
+        <v>9296.3199585685506</v>
+      </c>
+      <c r="I110" s="5">
+        <f t="shared" si="50"/>
+        <v>614.63087248322142</v>
+      </c>
+      <c r="J110" s="5">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="5">
+        <f t="shared" si="50"/>
+        <v>142.46367889682344</v>
+      </c>
+      <c r="L110" s="5">
+        <f t="shared" si="50"/>
+        <v>18724.619650437711</v>
+      </c>
+      <c r="M110" s="5">
+        <f t="shared" si="50"/>
+        <v>4.3424124513618674</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <f t="shared" si="45"/>
+        <v>1903</v>
+      </c>
+      <c r="B111" s="5">
+        <f t="shared" ref="B111:M111" si="51">B18* (B$99/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="5">
+        <f t="shared" si="51"/>
+        <v>4640.4280837621636</v>
+      </c>
+      <c r="D111" s="5">
+        <f t="shared" si="51"/>
+        <v>583.60184328087905</v>
+      </c>
+      <c r="E111" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="5">
+        <f t="shared" si="51"/>
+        <v>3045.4980365046631</v>
+      </c>
+      <c r="G111" s="5">
+        <f t="shared" si="51"/>
+        <v>2655.6534375863839</v>
+      </c>
+      <c r="H111" s="5">
+        <f t="shared" si="51"/>
+        <v>10858.290608744175</v>
+      </c>
+      <c r="I111" s="5">
+        <f t="shared" si="51"/>
+        <v>1426.5358466163311</v>
+      </c>
+      <c r="J111" s="5">
+        <f t="shared" si="51"/>
+        <v>2.6067961165048548</v>
+      </c>
+      <c r="K111" s="5">
+        <f t="shared" si="51"/>
+        <v>129.59492735779367</v>
+      </c>
+      <c r="L111" s="5">
+        <f t="shared" si="51"/>
+        <v>23738.806506814533</v>
+      </c>
+      <c r="M111" s="5">
+        <f t="shared" si="51"/>
+        <v>8.1420233463035014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <f t="shared" si="45"/>
+        <v>1904</v>
+      </c>
+      <c r="B112" s="5">
+        <f t="shared" ref="B112:M112" si="52">B19* (B$99/100)</f>
+        <v>8.1962071480671028</v>
+      </c>
+      <c r="C112" s="5">
+        <f t="shared" si="52"/>
+        <v>2490.4981785295763</v>
+      </c>
+      <c r="D112" s="5">
+        <f t="shared" si="52"/>
+        <v>396.74906427335293</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" si="52"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="F112" s="5">
+        <f t="shared" si="52"/>
+        <v>4952.0874780917529</v>
+      </c>
+      <c r="G112" s="5">
+        <f t="shared" si="52"/>
+        <v>2340.1794890020929</v>
+      </c>
+      <c r="H112" s="5">
+        <f t="shared" si="52"/>
+        <v>8944.334306692097</v>
+      </c>
+      <c r="I112" s="5">
+        <f t="shared" si="52"/>
+        <v>1563.3872518176734</v>
+      </c>
+      <c r="J112" s="5">
+        <f t="shared" si="52"/>
+        <v>18.790655339805827</v>
+      </c>
+      <c r="K112" s="5">
+        <f t="shared" si="52"/>
+        <v>71.850529426249693</v>
+      </c>
+      <c r="L112" s="5">
+        <f t="shared" si="52"/>
+        <v>25317.056095505046</v>
+      </c>
+      <c r="M112" s="5">
+        <f t="shared" si="52"/>
+        <v>74.363813229571974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <f t="shared" si="45"/>
+        <v>1905</v>
+      </c>
+      <c r="B113" s="5">
+        <f t="shared" ref="B113:M113" si="53">B20* (B$99/100)</f>
+        <v>4.8212983223924137</v>
+      </c>
+      <c r="C113" s="5">
+        <f t="shared" si="53"/>
+        <v>4120.1840958883167</v>
+      </c>
+      <c r="D113" s="5">
+        <f t="shared" si="53"/>
+        <v>374.15084316014008</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" si="53"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F113" s="5">
+        <f t="shared" si="53"/>
+        <v>5900.0497514435783</v>
+      </c>
+      <c r="G113" s="5">
+        <f t="shared" si="53"/>
+        <v>3250.3209098448051</v>
+      </c>
+      <c r="H113" s="5">
+        <f t="shared" si="53"/>
+        <v>12965.81156334922</v>
+      </c>
+      <c r="I113" s="5">
+        <f t="shared" si="53"/>
+        <v>1311.6927083333333</v>
+      </c>
+      <c r="J113" s="5">
+        <f t="shared" si="53"/>
+        <v>19.333737864077673</v>
+      </c>
+      <c r="K113" s="5">
+        <f t="shared" si="53"/>
+        <v>56.919477961093328</v>
+      </c>
+      <c r="L113" s="5">
+        <f t="shared" si="53"/>
+        <v>32251.725707350757</v>
+      </c>
+      <c r="M113" s="5">
+        <f t="shared" si="53"/>
+        <v>44.509727626459139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <f t="shared" si="45"/>
+        <v>1906</v>
+      </c>
+      <c r="B114" s="5">
+        <f t="shared" ref="B114:M114" si="54">B21* (B$99/100)</f>
+        <v>62.67687819110138</v>
+      </c>
+      <c r="C114" s="5">
+        <f t="shared" si="54"/>
+        <v>3326.8429077291485</v>
+      </c>
+      <c r="D114" s="5">
+        <f t="shared" si="54"/>
+        <v>572.13575079486463</v>
+      </c>
+      <c r="E114" s="5">
+        <f t="shared" si="54"/>
+        <v>2.75</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" si="54"/>
+        <v>7997.6493762424243</v>
+      </c>
+      <c r="G114" s="5">
+        <f t="shared" si="54"/>
+        <v>2522.5024365201593</v>
+      </c>
+      <c r="H114" s="5">
+        <f t="shared" si="54"/>
+        <v>12685.760576676847</v>
+      </c>
+      <c r="I114" s="5">
+        <f t="shared" si="54"/>
+        <v>2113.5939247762863</v>
+      </c>
+      <c r="J114" s="5">
+        <f t="shared" si="54"/>
+        <v>28.131674757281555</v>
+      </c>
+      <c r="K114" s="5">
+        <f t="shared" si="54"/>
+        <v>77.295001231223836</v>
+      </c>
+      <c r="L114" s="5">
+        <f t="shared" si="54"/>
+        <v>37618.611576584808</v>
+      </c>
+      <c r="M114" s="5">
+        <f t="shared" si="54"/>
+        <v>90.647859922178981</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <f t="shared" si="45"/>
+        <v>1907</v>
+      </c>
+      <c r="B115" s="5">
+        <f t="shared" ref="B115:M115" si="55">B22* (B$99/100)</f>
+        <v>164.40627279358131</v>
+      </c>
+      <c r="C115" s="5">
+        <f t="shared" si="55"/>
+        <v>3536.9176771793955</v>
+      </c>
+      <c r="D115" s="5">
+        <f t="shared" si="55"/>
+        <v>750.30546947317589</v>
+      </c>
+      <c r="E115" s="5">
+        <f t="shared" si="55"/>
+        <v>8.4333333333333336</v>
+      </c>
+      <c r="F115" s="5">
+        <f t="shared" si="55"/>
+        <v>7339.7466990617104</v>
+      </c>
+      <c r="G115" s="5">
+        <f t="shared" si="55"/>
+        <v>4569.3077281522728</v>
+      </c>
+      <c r="H115" s="5">
+        <f t="shared" si="55"/>
+        <v>20076.361026918974</v>
+      </c>
+      <c r="I115" s="5">
+        <f t="shared" si="55"/>
+        <v>6436.4176978467558</v>
+      </c>
+      <c r="J115" s="5">
+        <f t="shared" si="55"/>
+        <v>16.292475728155342</v>
+      </c>
+      <c r="K115" s="5">
+        <f t="shared" si="55"/>
+        <v>116.80866781580892</v>
+      </c>
+      <c r="L115" s="5">
+        <f t="shared" si="55"/>
+        <v>45167.626353258987</v>
+      </c>
+      <c r="M115" s="5">
+        <f t="shared" si="55"/>
+        <v>135.15758754863813</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <f t="shared" si="45"/>
+        <v>1908</v>
+      </c>
+      <c r="B116" s="5">
+        <v>9</v>
+      </c>
+      <c r="C116" s="5">
+        <v>3360</v>
+      </c>
+      <c r="D116" s="5">
+        <v>408</v>
+      </c>
+      <c r="E116" s="5">
+        <v>7</v>
+      </c>
+      <c r="F116" s="5">
+        <v>5439</v>
+      </c>
+      <c r="G116" s="5">
+        <v>3282</v>
+      </c>
+      <c r="H116" s="5">
+        <v>18187</v>
+      </c>
+      <c r="I116" s="5">
+        <v>6636</v>
+      </c>
+      <c r="J116" s="5">
+        <v>50</v>
+      </c>
+      <c r="K116" s="5">
+        <v>141</v>
+      </c>
+      <c r="L116" s="5">
+        <v>37777</v>
+      </c>
+      <c r="M116" s="5">
+        <f t="shared" ref="M116:M124" si="56">L116-SUM(B116:K116)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <f t="shared" si="45"/>
+        <v>1909</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1</v>
+      </c>
+      <c r="C117" s="5">
+        <v>1035</v>
+      </c>
+      <c r="D117" s="5">
+        <v>338</v>
+      </c>
+      <c r="E117" s="5">
+        <v>2</v>
+      </c>
+      <c r="F117" s="5">
+        <v>3989</v>
+      </c>
+      <c r="G117" s="5">
+        <v>1944</v>
+      </c>
+      <c r="H117" s="5">
+        <v>8421</v>
+      </c>
+      <c r="I117" s="5">
+        <v>3819</v>
+      </c>
+      <c r="J117" s="5">
+        <v>30</v>
+      </c>
+      <c r="K117" s="5">
+        <v>41</v>
+      </c>
+      <c r="L117" s="5">
+        <v>19707</v>
+      </c>
+      <c r="M117" s="5">
+        <f t="shared" si="56"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <f t="shared" si="45"/>
+        <v>1910</v>
+      </c>
+      <c r="B118" s="5">
+        <v>4</v>
+      </c>
+      <c r="C118" s="5">
+        <v>692</v>
+      </c>
+      <c r="D118" s="5">
+        <v>503</v>
+      </c>
+      <c r="E118" s="5">
+        <v>3</v>
+      </c>
+      <c r="F118" s="5">
+        <v>3295</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1765</v>
+      </c>
+      <c r="H118" s="5">
+        <v>6705</v>
+      </c>
+      <c r="I118" s="5">
+        <v>4223</v>
+      </c>
+      <c r="J118" s="5">
+        <v>38</v>
+      </c>
+      <c r="K118" s="5">
+        <v>22</v>
+      </c>
+      <c r="L118" s="5">
+        <v>17362</v>
+      </c>
+      <c r="M118" s="5">
+        <f t="shared" si="56"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <f t="shared" si="45"/>
+        <v>1911</v>
+      </c>
+      <c r="B119" s="5">
+        <f>B26*( B$99/100)</f>
+        <v>73.283734500364687</v>
+      </c>
+      <c r="C119" s="5">
+        <v>4219</v>
+      </c>
+      <c r="D119" s="5">
+        <f t="shared" ref="D119:F119" si="57">D26*( D$99/100)</f>
+        <v>488.64478609087621</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" si="57"/>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" si="57"/>
+        <v>4181.1496874757968</v>
+      </c>
+      <c r="G119" s="5">
+        <v>2430</v>
+      </c>
+      <c r="H119" s="5">
+        <f>H26*( H$99/100)</f>
+        <v>11035.381673845824</v>
+      </c>
+      <c r="I119" s="5">
+        <v>3838</v>
+      </c>
+      <c r="J119" s="5">
+        <f>J26*( J$99/100)</f>
+        <v>21.288834951456312</v>
+      </c>
+      <c r="K119" s="5">
+        <f>K26*( K$99/100)</f>
+        <v>60.219157842895839</v>
+      </c>
+      <c r="L119" s="5">
+        <v>27053</v>
+      </c>
+      <c r="M119" s="5">
+        <f>M26*( M$99/100)</f>
+        <v>237.20428015564201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <f t="shared" si="45"/>
+        <v>1912</v>
+      </c>
+      <c r="B120" s="5">
+        <v>18</v>
+      </c>
+      <c r="C120" s="5">
+        <v>2430</v>
+      </c>
+      <c r="D120" s="5">
+        <v>519</v>
+      </c>
+      <c r="E120" s="5">
+        <v>3</v>
+      </c>
+      <c r="F120" s="5">
+        <v>4448</v>
+      </c>
+      <c r="G120" s="5">
+        <v>4112</v>
+      </c>
+      <c r="H120" s="5">
+        <v>14701</v>
+      </c>
+      <c r="I120" s="5">
+        <v>8139</v>
+      </c>
+      <c r="J120" s="5">
+        <v>133</v>
+      </c>
+      <c r="K120" s="5">
+        <v>59</v>
+      </c>
+      <c r="L120" s="5">
+        <v>34681</v>
+      </c>
+      <c r="M120" s="5">
+        <f t="shared" ref="M120:M125" si="58">L120-SUM(B120:K120)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <f t="shared" si="45"/>
+        <v>1913</v>
+      </c>
+      <c r="B121" s="5">
+        <f>B28*( B$99/100)</f>
+        <v>438.25601750547042</v>
+      </c>
+      <c r="C121" s="5">
+        <v>3053</v>
+      </c>
+      <c r="D121" s="5">
+        <f t="shared" ref="D121:F121" si="59">D28*( D$99/100)</f>
+        <v>993.93210447941408</v>
+      </c>
+      <c r="E121" s="5">
+        <f t="shared" si="59"/>
+        <v>5.5</v>
+      </c>
+      <c r="F121" s="5">
+        <f t="shared" si="59"/>
+        <v>4727.8692389555181</v>
+      </c>
+      <c r="G121" s="5">
+        <v>3276</v>
+      </c>
+      <c r="H121" s="5">
+        <f>H28*( H$99/100)</f>
+        <v>30845.419703635187</v>
+      </c>
+      <c r="I121" s="5">
+        <v>5327</v>
+      </c>
+      <c r="J121" s="5">
+        <f t="shared" ref="J121:K121" si="60">J28*( J$99/100)</f>
+        <v>116.65412621359224</v>
+      </c>
+      <c r="K121" s="5">
+        <f t="shared" si="60"/>
+        <v>73.58286136419602</v>
+      </c>
+      <c r="L121" s="5">
+        <v>26923</v>
+      </c>
+      <c r="M121" s="5">
+        <f>M28*( M$99/100)</f>
+        <v>216.57782101167314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <f t="shared" si="45"/>
+        <v>1914</v>
+      </c>
+      <c r="B122" s="5">
+        <v>58</v>
+      </c>
+      <c r="C122" s="5">
+        <v>2252</v>
+      </c>
+      <c r="D122" s="5">
+        <v>811</v>
+      </c>
+      <c r="E122" s="5">
+        <v>5</v>
+      </c>
+      <c r="F122" s="5">
+        <v>4174</v>
+      </c>
+      <c r="G122" s="5">
+        <v>5480</v>
+      </c>
+      <c r="H122" s="5">
+        <v>18779</v>
+      </c>
+      <c r="I122" s="5">
+        <v>15703</v>
+      </c>
+      <c r="J122" s="5">
+        <v>67</v>
+      </c>
+      <c r="K122" s="5">
+        <v>28</v>
+      </c>
+      <c r="L122" s="5">
+        <v>47451</v>
+      </c>
+      <c r="M122" s="5">
+        <f t="shared" ref="M122:M125" si="61">L122-SUM(B122:K122)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <f t="shared" si="45"/>
+        <v>1915</v>
+      </c>
+      <c r="B123" s="5">
+        <v>217</v>
+      </c>
+      <c r="C123" s="5">
+        <v>727</v>
+      </c>
+      <c r="D123" s="5">
+        <v>167</v>
+      </c>
+      <c r="E123" s="5">
+        <v>2</v>
+      </c>
+      <c r="F123" s="5">
+        <v>873</v>
+      </c>
+      <c r="G123" s="5">
+        <v>965</v>
+      </c>
+      <c r="H123" s="5">
+        <v>4694</v>
+      </c>
+      <c r="I123" s="5">
+        <v>10501</v>
+      </c>
+      <c r="J123" s="5">
+        <v>40</v>
+      </c>
+      <c r="K123" s="5">
+        <v>33</v>
+      </c>
+      <c r="L123" s="5">
+        <v>18297</v>
+      </c>
+      <c r="M123" s="5">
+        <f t="shared" si="61"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <f t="shared" si="45"/>
+        <v>1916</v>
+      </c>
+      <c r="B124" s="5">
+        <v>354</v>
+      </c>
+      <c r="C124" s="5">
+        <v>379</v>
+      </c>
+      <c r="D124" s="5">
+        <v>20</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5">
+        <v>45</v>
+      </c>
+      <c r="G124" s="5">
+        <v>26</v>
+      </c>
+      <c r="H124" s="5">
+        <v>229</v>
+      </c>
+      <c r="I124" s="5">
+        <v>4106</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0</v>
+      </c>
+      <c r="K124" s="5">
+        <v>11</v>
+      </c>
+      <c r="L124" s="5">
+        <v>5259</v>
+      </c>
+      <c r="M124" s="5">
+        <f t="shared" si="61"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B125" s="5">
+        <f>B32*( B$99/100)</f>
+        <v>49.659372720641862</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1256</v>
+      </c>
+      <c r="D125" s="5">
+        <f>D32*(1 - D$99/100)</f>
+        <v>36.829234917696304</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" ref="E125:F125" si="62">E32*( E$99/100)</f>
+        <v>2.0166666666666666</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="62"/>
+        <v>434.32305450456528</v>
+      </c>
+      <c r="G125" s="5">
+        <v>38</v>
+      </c>
+      <c r="H125" s="5">
+        <v>119</v>
+      </c>
+      <c r="I125" s="5">
+        <v>6393</v>
+      </c>
+      <c r="J125" s="5">
+        <f t="shared" ref="J125:K125" si="63">J32*( J$99/100)</f>
+        <v>0.7603155339805826</v>
+      </c>
+      <c r="K125" s="5">
+        <f t="shared" si="63"/>
+        <v>37.533858655503572</v>
+      </c>
+      <c r="L125" s="5">
+        <v>5947</v>
+      </c>
+      <c r="M125" s="5">
+        <f>M32*( M$99/100)</f>
+        <v>62.964980544747078</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M129" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B130" s="5">
+        <f t="shared" ref="B130:C150" si="64">B11-B104</f>
+        <v>0.1139102000049569</v>
+      </c>
+      <c r="C130" s="5">
+        <f t="shared" ref="C130:M130" si="65">C11-C104</f>
+        <v>4724.3120659442329</v>
+      </c>
+      <c r="D130" s="5">
+        <f t="shared" si="65"/>
+        <v>3401.3484010928705</v>
+      </c>
+      <c r="E130" s="5">
+        <f t="shared" si="65"/>
+        <v>0.53889953000936608</v>
+      </c>
+      <c r="F130" s="5">
+        <f t="shared" si="65"/>
+        <v>20374.173557532635</v>
+      </c>
+      <c r="G130" s="5">
+        <f t="shared" si="65"/>
+        <v>4654.9416518200578</v>
+      </c>
+      <c r="H130" s="5">
+        <f t="shared" si="65"/>
+        <v>9492.9657373463051</v>
+      </c>
+      <c r="I130" s="5">
+        <f t="shared" si="65"/>
+        <v>458.76349390910138</v>
+      </c>
+      <c r="J130" s="5">
+        <f t="shared" si="65"/>
+        <v>8.038780412357367</v>
+      </c>
+      <c r="K130" s="5">
+        <f t="shared" si="65"/>
+        <v>786.26787126754175</v>
+      </c>
+      <c r="L130" s="5">
+        <f t="shared" si="65"/>
+        <v>43041.877480551666</v>
+      </c>
+      <c r="M130" s="5">
+        <f t="shared" si="65"/>
+        <v>32.784160243005701</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <f>A130+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B131" s="5">
+        <f t="shared" si="64"/>
+        <v>6.5504482629058863E-2</v>
+      </c>
+      <c r="C131" s="5">
+        <f t="shared" ref="C131:M131" si="66">C12-C105</f>
+        <v>2716.7331603704547</v>
+      </c>
+      <c r="D131" s="5">
+        <f t="shared" si="66"/>
+        <v>1955.9580024007471</v>
+      </c>
+      <c r="E131" s="5">
+        <f t="shared" si="66"/>
+        <v>0.30989617172799611</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" si="66"/>
+        <v>11716.244004687467</v>
+      </c>
+      <c r="G131" s="5">
+        <f t="shared" si="66"/>
+        <v>2676.8414466629038</v>
+      </c>
+      <c r="H131" s="5">
+        <f t="shared" si="66"/>
+        <v>5458.9651252758085</v>
+      </c>
+      <c r="I131" s="5">
+        <f t="shared" si="66"/>
+        <v>263.8136472090066</v>
+      </c>
+      <c r="J131" s="5">
+        <f t="shared" si="66"/>
+        <v>4.6227304653768266</v>
+      </c>
+      <c r="K131" s="5">
+        <f t="shared" si="66"/>
+        <v>452.14625303959195</v>
+      </c>
+      <c r="L131" s="5">
+        <f t="shared" si="66"/>
+        <v>24751.391145166861</v>
+      </c>
+      <c r="M131" s="5">
+        <f t="shared" si="66"/>
+        <v>18.852652835767429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <f t="shared" ref="A132:A150" si="67">A131+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B132" s="5">
+        <f t="shared" si="64"/>
+        <v>7.5495877147676846E-2</v>
+      </c>
+      <c r="C132" s="5">
+        <f t="shared" ref="C132:M132" si="68">C13-C106</f>
+        <v>3131.1162944344978</v>
+      </c>
+      <c r="D132" s="5">
+        <f t="shared" si="68"/>
+        <v>2254.3001505938896</v>
+      </c>
+      <c r="E132" s="5">
+        <f t="shared" si="68"/>
+        <v>0.35716461485237905</v>
+      </c>
+      <c r="F132" s="5">
+        <f t="shared" si="68"/>
+        <v>13503.321948499743</v>
+      </c>
+      <c r="G132" s="5">
+        <f t="shared" si="68"/>
+        <v>3085.1399002031285</v>
+      </c>
+      <c r="H132" s="5">
+        <f t="shared" si="68"/>
+        <v>6291.6207244181423</v>
+      </c>
+      <c r="I132" s="5">
+        <f t="shared" si="68"/>
+        <v>304.05312583502933</v>
+      </c>
+      <c r="J132" s="5">
+        <f t="shared" si="68"/>
+        <v>5.3278352456766234</v>
+      </c>
+      <c r="K132" s="5">
+        <f t="shared" si="68"/>
+        <v>521.11209190921124</v>
+      </c>
+      <c r="L132" s="5">
+        <f t="shared" si="68"/>
+        <v>28526.719243190542</v>
+      </c>
+      <c r="M132" s="5">
+        <f t="shared" si="68"/>
+        <v>21.728246759183747</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <f t="shared" si="67"/>
+        <v>1899</v>
+      </c>
+      <c r="B133" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="C133" s="5">
+        <f t="shared" ref="C133:M133" si="69">C14-C107</f>
+        <v>4553.2562286645953</v>
+      </c>
+      <c r="D133" s="5">
+        <f t="shared" si="69"/>
+        <v>5083.3787579989539</v>
+      </c>
+      <c r="E133" s="5">
+        <f t="shared" si="69"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="F133" s="5">
+        <f t="shared" si="69"/>
+        <v>22724.758543140961</v>
+      </c>
+      <c r="G133" s="5">
+        <f t="shared" si="69"/>
+        <v>5578.6825099711723</v>
+      </c>
+      <c r="H133" s="5">
+        <f t="shared" si="69"/>
+        <v>11256.655725298791</v>
+      </c>
+      <c r="I133" s="5">
+        <f t="shared" si="69"/>
+        <v>993.95094029642064</v>
+      </c>
+      <c r="J133" s="5">
+        <f t="shared" si="69"/>
+        <v>25.850121359223301</v>
+      </c>
+      <c r="K133" s="5">
+        <f t="shared" si="69"/>
+        <v>928.51809899039642</v>
+      </c>
+      <c r="L133" s="5">
+        <f t="shared" si="69"/>
+        <v>50344.862906993279</v>
+      </c>
+      <c r="M133" s="5">
+        <f t="shared" si="69"/>
+        <v>101.49805447470818</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <f t="shared" si="67"/>
+        <v>1900</v>
+      </c>
+      <c r="B134" s="5">
+        <f t="shared" si="64"/>
+        <v>0.51787016776075867</v>
+      </c>
+      <c r="C134" s="5">
+        <f t="shared" ref="C134:M134" si="70">C15-C108</f>
+        <v>9421.9579533295982</v>
+      </c>
+      <c r="D134" s="5">
+        <f t="shared" si="70"/>
+        <v>5051.2712198655772</v>
+      </c>
+      <c r="E134" s="5">
+        <f t="shared" si="70"/>
+        <v>1.6333333333333333</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="70"/>
+        <v>34647.416619575291</v>
+      </c>
+      <c r="G134" s="5">
+        <f t="shared" si="70"/>
+        <v>8400.6571812186558</v>
+      </c>
+      <c r="H134" s="5">
+        <f t="shared" si="70"/>
+        <v>16322.404705756449</v>
+      </c>
+      <c r="I134" s="5">
+        <f t="shared" si="70"/>
+        <v>698.82489163870241</v>
+      </c>
+      <c r="J134" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="5">
+        <f t="shared" si="70"/>
+        <v>1705.6473774932283</v>
+      </c>
+      <c r="L134" s="5">
+        <f t="shared" si="70"/>
+        <v>74950.953867324759</v>
+      </c>
+      <c r="M134" s="5">
+        <f t="shared" si="70"/>
+        <v>40.233463035019462</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <f t="shared" si="67"/>
+        <v>1901</v>
+      </c>
+      <c r="B135" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="C135" s="5">
+        <f t="shared" ref="C135:M135" si="71">C16-C109</f>
+        <v>7502.9351148927499</v>
+      </c>
+      <c r="D135" s="5">
+        <f t="shared" si="71"/>
+        <v>5328.9069907835956</v>
+      </c>
+      <c r="E135" s="5">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="5">
+        <f t="shared" si="71"/>
+        <v>35254.970411315699</v>
+      </c>
+      <c r="G135" s="5">
+        <f t="shared" si="71"/>
+        <v>7183.4307546499231</v>
+      </c>
+      <c r="H135" s="5">
+        <f t="shared" si="71"/>
+        <v>15578.828491383099</v>
+      </c>
+      <c r="I135" s="5">
+        <f t="shared" si="71"/>
+        <v>392.90154851789708</v>
+      </c>
+      <c r="J135" s="5">
+        <f t="shared" si="71"/>
+        <v>10.696601941747574</v>
+      </c>
+      <c r="K135" s="5">
+        <f t="shared" si="71"/>
+        <v>940.44570302881061</v>
+      </c>
+      <c r="L135" s="5">
+        <f t="shared" si="71"/>
+        <v>70385.556014258735</v>
+      </c>
+      <c r="M135" s="5">
+        <f t="shared" si="71"/>
+        <v>7.3151750972762652</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <f t="shared" si="67"/>
+        <v>1902</v>
+      </c>
+      <c r="B136" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="C136" s="5">
+        <f t="shared" ref="C136:M136" si="72">C17-C110</f>
+        <v>10430.028404748562</v>
+      </c>
+      <c r="D136" s="5">
+        <f t="shared" si="72"/>
+        <v>8066.5467863323538</v>
+      </c>
+      <c r="E136" s="5">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" si="72"/>
+        <v>35429.092145158094</v>
+      </c>
+      <c r="G136" s="5">
+        <f t="shared" si="72"/>
+        <v>8137.9581803103902</v>
+      </c>
+      <c r="H136" s="5">
+        <f t="shared" si="72"/>
+        <v>24562.680041431449</v>
+      </c>
+      <c r="I136" s="5">
+        <f t="shared" si="72"/>
+        <v>921.36912751677858</v>
+      </c>
+      <c r="J136" s="5">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="5">
+        <f t="shared" si="72"/>
+        <v>1584.5363211031765</v>
+      </c>
+      <c r="L136" s="5">
+        <f t="shared" si="72"/>
+        <v>88622.380349562285</v>
+      </c>
+      <c r="M136" s="5">
+        <f t="shared" si="72"/>
+        <v>3.6575875486381326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <f t="shared" si="67"/>
+        <v>1903</v>
+      </c>
+      <c r="B137" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="C137" s="5">
+        <f t="shared" ref="C137:M137" si="73">C18-C111</f>
+        <v>14135.571916237837</v>
+      </c>
+      <c r="D137" s="5">
+        <f t="shared" si="73"/>
+        <v>9901.3981567191204</v>
+      </c>
+      <c r="E137" s="5">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="5">
+        <f t="shared" si="73"/>
+        <v>44643.501963495335</v>
+      </c>
+      <c r="G137" s="5">
+        <f t="shared" si="73"/>
+        <v>11764.346562413615</v>
+      </c>
+      <c r="H137" s="5">
+        <f t="shared" si="73"/>
+        <v>28689.709391255827</v>
+      </c>
+      <c r="I137" s="5">
+        <f t="shared" si="73"/>
+        <v>2138.4641533836689</v>
+      </c>
+      <c r="J137" s="5">
+        <f t="shared" si="73"/>
+        <v>21.393203883495147</v>
+      </c>
+      <c r="K137" s="5">
+        <f t="shared" si="73"/>
+        <v>1441.4050726422063</v>
+      </c>
+      <c r="L137" s="5">
+        <f t="shared" si="73"/>
+        <v>112354.19349318546</v>
+      </c>
+      <c r="M137" s="5">
+        <f t="shared" si="73"/>
+        <v>6.8579766536964986</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <f t="shared" si="67"/>
+        <v>1904</v>
+      </c>
+      <c r="B138" s="5">
+        <f t="shared" si="64"/>
+        <v>8.8037928519328972</v>
+      </c>
+      <c r="C138" s="5">
+        <f t="shared" ref="C138:M138" si="74">C19-C112</f>
+        <v>7586.5018214704232</v>
+      </c>
+      <c r="D138" s="5">
+        <f t="shared" si="74"/>
+        <v>6731.2509357266472</v>
+      </c>
+      <c r="E138" s="5">
+        <f t="shared" si="74"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F138" s="5">
+        <f t="shared" si="74"/>
+        <v>72591.912521908249</v>
+      </c>
+      <c r="G138" s="5">
+        <f t="shared" si="74"/>
+        <v>10366.820510997906</v>
+      </c>
+      <c r="H138" s="5">
+        <f t="shared" si="74"/>
+        <v>23632.665693307903</v>
+      </c>
+      <c r="I138" s="5">
+        <f t="shared" si="74"/>
+        <v>2343.6127481823269</v>
+      </c>
+      <c r="J138" s="5">
+        <f t="shared" si="74"/>
+        <v>154.20934466019418</v>
+      </c>
+      <c r="K138" s="5">
+        <f t="shared" si="74"/>
+        <v>799.14947057375025</v>
+      </c>
+      <c r="L138" s="5">
+        <f t="shared" si="74"/>
+        <v>119823.94390449495</v>
+      </c>
+      <c r="M138" s="5">
+        <f t="shared" si="74"/>
+        <v>62.636186770428026</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <f t="shared" si="67"/>
+        <v>1905</v>
+      </c>
+      <c r="B139" s="5">
+        <f t="shared" si="64"/>
+        <v>5.1787016776075863</v>
+      </c>
+      <c r="C139" s="5">
+        <f t="shared" ref="C139:M139" si="75">C20-C113</f>
+        <v>12550.815904111683</v>
+      </c>
+      <c r="D139" s="5">
+        <f t="shared" si="75"/>
+        <v>6347.8491568398604</v>
+      </c>
+      <c r="E139" s="5">
+        <f t="shared" si="75"/>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="F139" s="5">
+        <f t="shared" si="75"/>
+        <v>86487.950248556415</v>
+      </c>
+      <c r="G139" s="5">
+        <f t="shared" si="75"/>
+        <v>14398.679090155194</v>
+      </c>
+      <c r="H139" s="5">
+        <f t="shared" si="75"/>
+        <v>34258.18843665078</v>
+      </c>
+      <c r="I139" s="5">
+        <f t="shared" si="75"/>
+        <v>1966.3072916666667</v>
+      </c>
+      <c r="J139" s="5">
+        <f t="shared" si="75"/>
+        <v>158.66626213592232</v>
+      </c>
+      <c r="K139" s="5">
+        <f t="shared" si="75"/>
+        <v>633.08052203890668</v>
+      </c>
+      <c r="L139" s="5">
+        <f t="shared" si="75"/>
+        <v>152645.27429264924</v>
+      </c>
+      <c r="M139" s="5">
+        <f t="shared" si="75"/>
+        <v>37.490272373540861</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <f t="shared" si="67"/>
+        <v>1906</v>
+      </c>
+      <c r="B140" s="5">
+        <f t="shared" si="64"/>
+        <v>67.32312180889862</v>
+      </c>
+      <c r="C140" s="5">
+        <f t="shared" ref="C140:M140" si="76">C21-C114</f>
+        <v>10134.157092270852</v>
+      </c>
+      <c r="D140" s="5">
+        <f t="shared" si="76"/>
+        <v>9706.8642492051349</v>
+      </c>
+      <c r="E140" s="5">
+        <f t="shared" si="76"/>
+        <v>12.25</v>
+      </c>
+      <c r="F140" s="5">
+        <f t="shared" si="76"/>
+        <v>117236.35062375758</v>
+      </c>
+      <c r="G140" s="5">
+        <f t="shared" si="76"/>
+        <v>11174.497563479841</v>
+      </c>
+      <c r="H140" s="5">
+        <f t="shared" si="76"/>
+        <v>33518.239423323153</v>
+      </c>
+      <c r="I140" s="5">
+        <f t="shared" si="76"/>
+        <v>3168.4060752237137</v>
+      </c>
+      <c r="J140" s="5">
+        <f t="shared" si="76"/>
+        <v>230.86832524271844</v>
+      </c>
+      <c r="K140" s="5">
+        <f t="shared" si="76"/>
+        <v>859.70499876877614</v>
+      </c>
+      <c r="L140" s="5">
+        <f t="shared" si="76"/>
+        <v>178046.38842341519</v>
+      </c>
+      <c r="M140" s="5">
+        <f t="shared" si="76"/>
+        <v>76.352140077821019</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <f t="shared" si="67"/>
+        <v>1907</v>
+      </c>
+      <c r="B141" s="5">
+        <f t="shared" si="64"/>
+        <v>176.59372720641869</v>
+      </c>
+      <c r="C141" s="5">
+        <f t="shared" ref="C141:M141" si="77">C22-C115</f>
+        <v>10774.082322820605</v>
+      </c>
+      <c r="D141" s="5">
+        <f t="shared" si="77"/>
+        <v>12729.694530526824</v>
+      </c>
+      <c r="E141" s="5">
+        <f t="shared" si="77"/>
+        <v>37.566666666666663</v>
+      </c>
+      <c r="F141" s="5">
+        <f t="shared" si="77"/>
+        <v>107592.25330093829</v>
+      </c>
+      <c r="G141" s="5">
+        <f t="shared" si="77"/>
+        <v>20241.692271847729</v>
+      </c>
+      <c r="H141" s="5">
+        <f t="shared" si="77"/>
+        <v>53045.638973081026</v>
+      </c>
+      <c r="I141" s="5">
+        <f t="shared" si="77"/>
+        <v>9648.5823021532451</v>
+      </c>
+      <c r="J141" s="5">
+        <f t="shared" si="77"/>
+        <v>133.70752427184465</v>
+      </c>
+      <c r="K141" s="5">
+        <f t="shared" si="77"/>
+        <v>1299.1913321841912</v>
+      </c>
+      <c r="L141" s="5">
+        <f t="shared" si="77"/>
+        <v>213775.37364674101</v>
+      </c>
+      <c r="M141" s="5">
+        <f t="shared" si="77"/>
+        <v>113.84241245136187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <f t="shared" si="67"/>
+        <v>1908</v>
+      </c>
+      <c r="B142" s="5">
+        <f t="shared" si="64"/>
+        <v>53</v>
+      </c>
+      <c r="C142" s="5">
+        <f t="shared" ref="C142:M142" si="78">C23-C116</f>
+        <v>2943</v>
+      </c>
+      <c r="D142" s="5">
+        <f t="shared" si="78"/>
+        <v>9601</v>
+      </c>
+      <c r="E142" s="5">
+        <f t="shared" si="78"/>
+        <v>17</v>
+      </c>
+      <c r="F142" s="5">
+        <f t="shared" si="78"/>
+        <v>66539</v>
+      </c>
+      <c r="G142" s="5">
+        <f t="shared" si="78"/>
+        <v>9988</v>
+      </c>
+      <c r="H142" s="5">
+        <f t="shared" si="78"/>
+        <v>19760</v>
+      </c>
+      <c r="I142" s="5">
+        <f t="shared" si="78"/>
+        <v>9688</v>
+      </c>
+      <c r="J142" s="5">
+        <f t="shared" si="78"/>
+        <v>-13</v>
+      </c>
+      <c r="K142" s="5">
+        <f t="shared" si="78"/>
+        <v>386</v>
+      </c>
+      <c r="L142" s="5">
+        <f t="shared" si="78"/>
+        <v>118934</v>
+      </c>
+      <c r="M142" s="5">
+        <f t="shared" si="78"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <f t="shared" si="67"/>
+        <v>1909</v>
+      </c>
+      <c r="B143" s="5">
+        <f t="shared" si="64"/>
+        <v>49</v>
+      </c>
+      <c r="C143" s="5">
+        <f t="shared" ref="C143:M143" si="79">C24-C117</f>
+        <v>10167</v>
+      </c>
+      <c r="D143" s="5">
+        <f t="shared" si="79"/>
+        <v>7443</v>
+      </c>
+      <c r="E143" s="5">
+        <f t="shared" si="79"/>
+        <v>3</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="79"/>
+        <v>35161</v>
+      </c>
+      <c r="G143" s="5">
+        <f t="shared" si="79"/>
+        <v>12651</v>
+      </c>
+      <c r="H143" s="5">
+        <f t="shared" si="79"/>
+        <v>29349</v>
+      </c>
+      <c r="I143" s="5">
+        <f t="shared" si="79"/>
+        <v>5280</v>
+      </c>
+      <c r="J143" s="5">
+        <f t="shared" si="79"/>
+        <v>40</v>
+      </c>
+      <c r="K143" s="5">
+        <f t="shared" si="79"/>
+        <v>550</v>
+      </c>
+      <c r="L143" s="5">
+        <f t="shared" si="79"/>
+        <v>100753</v>
+      </c>
+      <c r="M143" s="5">
+        <f t="shared" si="79"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <f t="shared" si="67"/>
+        <v>1910</v>
+      </c>
+      <c r="B144" s="5">
+        <f t="shared" si="64"/>
+        <v>48</v>
+      </c>
+      <c r="C144" s="5">
+        <f t="shared" ref="C144:M144" si="80">C25-C118</f>
+        <v>14307</v>
+      </c>
+      <c r="D144" s="5">
+        <f t="shared" si="80"/>
+        <v>9513</v>
+      </c>
+      <c r="E144" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="5">
+        <f>F25-F118</f>
+        <v>56529</v>
+      </c>
+      <c r="G144" s="5">
+        <f t="shared" si="80"/>
+        <v>19911</v>
+      </c>
+      <c r="H144" s="5">
+        <f t="shared" si="80"/>
+        <v>56930</v>
+      </c>
+      <c r="I144" s="5">
+        <f t="shared" si="80"/>
+        <v>10545</v>
+      </c>
+      <c r="J144" s="5">
+        <f t="shared" si="80"/>
+        <v>64</v>
+      </c>
+      <c r="K144" s="5">
+        <f t="shared" si="80"/>
+        <v>1376</v>
+      </c>
+      <c r="L144" s="5">
+        <f t="shared" si="80"/>
+        <v>169430</v>
+      </c>
+      <c r="M144" s="5">
+        <f t="shared" si="80"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <f t="shared" si="67"/>
+        <v>1911</v>
+      </c>
+      <c r="B145" s="5">
+        <f t="shared" si="64"/>
+        <v>78.716265499635313</v>
+      </c>
+      <c r="C145" s="5">
+        <f t="shared" ref="C145:M145" si="81">C26-C119</f>
+        <v>4723</v>
+      </c>
+      <c r="D145" s="5">
+        <f t="shared" si="81"/>
+        <v>8290.3552139091244</v>
+      </c>
+      <c r="E145" s="5">
+        <f t="shared" si="81"/>
+        <v>23.683333333333334</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="81"/>
+        <v>61290.850312524206</v>
+      </c>
+      <c r="G145" s="5">
+        <f t="shared" si="81"/>
+        <v>13780</v>
+      </c>
+      <c r="H145" s="5">
+        <f t="shared" si="81"/>
+        <v>29157.618326154174</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="81"/>
+        <v>13743</v>
+      </c>
+      <c r="J145" s="5">
+        <f t="shared" si="81"/>
+        <v>174.71116504854368</v>
+      </c>
+      <c r="K145" s="5">
+        <f t="shared" si="81"/>
+        <v>669.78084215710419</v>
+      </c>
+      <c r="L145" s="5">
+        <f t="shared" si="81"/>
+        <v>131668</v>
+      </c>
+      <c r="M145" s="5">
+        <f t="shared" si="81"/>
+        <v>199.79571984435799</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <f t="shared" si="67"/>
+        <v>1912</v>
+      </c>
+      <c r="B146" s="5">
+        <f t="shared" si="64"/>
+        <v>232</v>
+      </c>
+      <c r="C146" s="5">
+        <f t="shared" ref="C146:M146" si="82">C27-C120</f>
+        <v>3279</v>
+      </c>
+      <c r="D146" s="5">
+        <f t="shared" si="82"/>
+        <v>10512</v>
+      </c>
+      <c r="E146" s="5">
+        <f t="shared" si="82"/>
+        <v>6</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" si="82"/>
+        <v>53941</v>
+      </c>
+      <c r="G146" s="5">
+        <f t="shared" si="82"/>
+        <v>9644</v>
+      </c>
+      <c r="H146" s="5">
+        <f t="shared" si="82"/>
+        <v>36543</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="82"/>
+        <v>12962</v>
+      </c>
+      <c r="J146" s="5">
+        <f t="shared" si="82"/>
+        <v>251</v>
+      </c>
+      <c r="K146" s="5">
+        <f t="shared" si="82"/>
+        <v>355</v>
+      </c>
+      <c r="L146" s="5">
+        <f t="shared" si="82"/>
+        <v>127714</v>
+      </c>
+      <c r="M146" s="5">
+        <f t="shared" si="82"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <f t="shared" si="67"/>
+        <v>1913</v>
+      </c>
+      <c r="B147" s="5">
+        <f t="shared" si="64"/>
+        <v>470.74398249452958</v>
+      </c>
+      <c r="C147" s="5">
+        <f t="shared" ref="C147:M147" si="83">C28-C121</f>
+        <v>8103</v>
+      </c>
+      <c r="D147" s="5">
+        <f t="shared" si="83"/>
+        <v>16863.067895520588</v>
+      </c>
+      <c r="E147" s="5">
+        <f t="shared" si="83"/>
+        <v>24.5</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" si="83"/>
+        <v>69305.130761044478</v>
+      </c>
+      <c r="G147" s="5">
+        <f t="shared" si="83"/>
+        <v>20597</v>
+      </c>
+      <c r="H147" s="5">
+        <f t="shared" si="83"/>
+        <v>81499.580296364817</v>
+      </c>
+      <c r="I147" s="5">
+        <f t="shared" si="83"/>
+        <v>43145</v>
+      </c>
+      <c r="J147" s="5">
+        <f t="shared" si="83"/>
+        <v>957.34587378640776</v>
+      </c>
+      <c r="K147" s="5">
+        <f t="shared" si="83"/>
+        <v>818.41713863580401</v>
+      </c>
+      <c r="L147" s="5">
+        <f t="shared" si="83"/>
+        <v>264117</v>
+      </c>
+      <c r="M147" s="5">
+        <f t="shared" si="83"/>
+        <v>182.42217898832686</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <f t="shared" si="67"/>
+        <v>1914</v>
+      </c>
+      <c r="B148" s="5">
+        <f t="shared" si="64"/>
+        <v>814</v>
+      </c>
+      <c r="C148" s="5">
+        <f t="shared" ref="C148:M148" si="84">C29-C122</f>
+        <v>8716</v>
+      </c>
+      <c r="D148" s="5">
+        <f t="shared" si="84"/>
+        <v>9078</v>
+      </c>
+      <c r="E148" s="5">
+        <f t="shared" si="84"/>
+        <v>58</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" si="84"/>
+        <v>98464</v>
+      </c>
+      <c r="G148" s="5">
+        <f t="shared" si="84"/>
+        <v>15328</v>
+      </c>
+      <c r="H148" s="5">
+        <f t="shared" si="84"/>
+        <v>47499</v>
+      </c>
+      <c r="I148" s="5">
+        <f t="shared" si="84"/>
+        <v>24538</v>
+      </c>
+      <c r="J148" s="5">
+        <f t="shared" si="84"/>
+        <v>2476</v>
+      </c>
+      <c r="K148" s="5">
+        <f t="shared" si="84"/>
+        <v>715</v>
+      </c>
+      <c r="L148" s="5">
+        <f t="shared" si="84"/>
+        <v>208209</v>
+      </c>
+      <c r="M148" s="5">
+        <f t="shared" si="84"/>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <f t="shared" si="67"/>
+        <v>1915</v>
+      </c>
+      <c r="B149" s="5">
+        <f t="shared" si="64"/>
+        <v>-176</v>
+      </c>
+      <c r="C149" s="5">
+        <f t="shared" ref="C149:M149" si="85">C30-C123</f>
+        <v>923</v>
+      </c>
+      <c r="D149" s="5">
+        <f t="shared" si="85"/>
+        <v>738</v>
+      </c>
+      <c r="E149" s="5">
+        <f t="shared" si="85"/>
+        <v>12</v>
+      </c>
+      <c r="F149" s="5">
+        <f t="shared" si="85"/>
+        <v>13623</v>
+      </c>
+      <c r="G149" s="5">
+        <f t="shared" si="85"/>
+        <v>1253</v>
+      </c>
+      <c r="H149" s="5">
+        <f t="shared" si="85"/>
+        <v>-208</v>
+      </c>
+      <c r="I149" s="5">
+        <f t="shared" si="85"/>
+        <v>-8471</v>
+      </c>
+      <c r="J149" s="5">
+        <f t="shared" si="85"/>
+        <v>118</v>
+      </c>
+      <c r="K149" s="5">
+        <f t="shared" si="85"/>
+        <v>88</v>
+      </c>
+      <c r="L149" s="5">
+        <f t="shared" si="85"/>
+        <v>7890</v>
+      </c>
+      <c r="M149" s="5">
+        <f t="shared" si="85"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <f t="shared" si="67"/>
+        <v>1916</v>
+      </c>
+      <c r="B150" s="5">
+        <f t="shared" si="64"/>
+        <v>-310</v>
+      </c>
+      <c r="C150" s="5">
+        <f t="shared" ref="C150:M150" si="86">C31-C124</f>
+        <v>3455</v>
+      </c>
+      <c r="D150" s="5">
+        <f t="shared" si="86"/>
+        <v>43</v>
+      </c>
+      <c r="E150" s="5">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="F150" s="5">
+        <f t="shared" si="86"/>
+        <v>2093</v>
+      </c>
+      <c r="G150" s="5">
+        <f t="shared" si="86"/>
+        <v>110</v>
+      </c>
+      <c r="H150" s="5">
+        <f t="shared" si="86"/>
+        <v>48</v>
+      </c>
+      <c r="I150" s="5">
+        <f t="shared" si="86"/>
+        <v>-3080</v>
+      </c>
+      <c r="J150" s="5">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="K150" s="5">
+        <f t="shared" si="86"/>
+        <v>256</v>
+      </c>
+      <c r="L150" s="5">
+        <f t="shared" si="86"/>
+        <v>2583</v>
+      </c>
+      <c r="M150" s="5">
+        <f t="shared" si="86"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B151" s="5">
+        <f>B32-B125</f>
+        <v>53.340627279358138</v>
+      </c>
+      <c r="C151" s="5">
+        <f t="shared" ref="C151:M151" si="87">C32-C125</f>
+        <v>2489</v>
+      </c>
+      <c r="D151" s="5">
+        <f t="shared" si="87"/>
+        <v>2.1707650823036957</v>
+      </c>
+      <c r="E151" s="5">
+        <f t="shared" si="87"/>
+        <v>8.9833333333333343</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" si="87"/>
+        <v>6366.6769454954347</v>
+      </c>
+      <c r="G151" s="5">
+        <f t="shared" si="87"/>
+        <v>35</v>
+      </c>
+      <c r="H151" s="5">
+        <f t="shared" si="87"/>
+        <v>241</v>
+      </c>
+      <c r="I151" s="5">
+        <f t="shared" si="87"/>
+        <v>-5387</v>
+      </c>
+      <c r="J151" s="5">
+        <f t="shared" si="87"/>
+        <v>6.2396844660194173</v>
+      </c>
+      <c r="K151" s="5">
+        <f t="shared" si="87"/>
+        <v>417.46614134449641</v>
+      </c>
+      <c r="L151" s="5">
+        <f t="shared" si="87"/>
+        <v>6769</v>
+      </c>
+      <c r="M151" s="5">
+        <f t="shared" si="87"/>
+        <v>53.035019455252922</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K155" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B156" s="5">
+        <f>(B130+B131)/2</f>
+        <v>8.9707341317007888E-2</v>
+      </c>
+      <c r="C156" s="5">
+        <f t="shared" ref="C156:M156" si="88">(C130+C131)/2</f>
+        <v>3720.5226131573436</v>
+      </c>
+      <c r="D156" s="5">
+        <f t="shared" si="88"/>
+        <v>2678.6532017468089</v>
+      </c>
+      <c r="E156" s="5">
+        <f t="shared" si="88"/>
+        <v>0.42439785086868109</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="88"/>
+        <v>16045.20878111005</v>
+      </c>
+      <c r="G156" s="5">
+        <f t="shared" si="88"/>
+        <v>3665.8915492414808</v>
+      </c>
+      <c r="H156" s="5">
+        <f t="shared" si="88"/>
+        <v>7475.9654313110568</v>
+      </c>
+      <c r="I156" s="5">
+        <f t="shared" si="88"/>
+        <v>361.28857055905399</v>
+      </c>
+      <c r="J156" s="5">
+        <f t="shared" si="88"/>
+        <v>6.3307554388670972</v>
+      </c>
+      <c r="K156" s="5">
+        <f t="shared" si="88"/>
+        <v>619.20706215356688</v>
+      </c>
+      <c r="L156" s="5">
+        <f t="shared" si="88"/>
+        <v>33896.634312859263</v>
+      </c>
+      <c r="M156" s="5">
+        <f t="shared" si="88"/>
+        <v>25.818406539386565</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <f>A156+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B157" s="5">
+        <f t="shared" ref="B157:M157" si="89">(B131+B132)/2</f>
+        <v>7.0500179888367848E-2</v>
+      </c>
+      <c r="C157" s="5">
+        <f t="shared" si="89"/>
+        <v>2923.9247274024765</v>
+      </c>
+      <c r="D157" s="5">
+        <f t="shared" si="89"/>
+        <v>2105.1290764973182</v>
+      </c>
+      <c r="E157" s="5">
+        <f t="shared" si="89"/>
+        <v>0.33353039329018758</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" si="89"/>
+        <v>12609.782976593604</v>
+      </c>
+      <c r="G157" s="5">
+        <f t="shared" si="89"/>
+        <v>2880.9906734330161</v>
+      </c>
+      <c r="H157" s="5">
+        <f t="shared" si="89"/>
+        <v>5875.2929248469754</v>
+      </c>
+      <c r="I157" s="5">
+        <f t="shared" si="89"/>
+        <v>283.93338652201794</v>
+      </c>
+      <c r="J157" s="5">
+        <f t="shared" si="89"/>
+        <v>4.975282855526725</v>
+      </c>
+      <c r="K157" s="5">
+        <f t="shared" si="89"/>
+        <v>486.62917247440157</v>
+      </c>
+      <c r="L157" s="5">
+        <f t="shared" si="89"/>
+        <v>26639.055194178702</v>
+      </c>
+      <c r="M157" s="5">
+        <f t="shared" si="89"/>
+        <v>20.290449797475588</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <f t="shared" ref="A158:A175" si="90">A157+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B158" s="5">
+        <f t="shared" ref="B158:M158" si="91">(B132+B133)/2</f>
+        <v>3.7747938573838423E-2</v>
+      </c>
+      <c r="C158" s="5">
+        <f t="shared" si="91"/>
+        <v>3842.1862615495465</v>
+      </c>
+      <c r="D158" s="5">
+        <f t="shared" si="91"/>
+        <v>3668.8394542964215</v>
+      </c>
+      <c r="E158" s="5">
+        <f t="shared" si="91"/>
+        <v>0.58691564075952285</v>
+      </c>
+      <c r="F158" s="5">
+        <f t="shared" si="91"/>
+        <v>18114.040245820353</v>
+      </c>
+      <c r="G158" s="5">
+        <f t="shared" si="91"/>
+        <v>4331.9112050871499</v>
+      </c>
+      <c r="H158" s="5">
+        <f t="shared" si="91"/>
+        <v>8774.1382248584669</v>
+      </c>
+      <c r="I158" s="5">
+        <f t="shared" si="91"/>
+        <v>649.00203306572496</v>
+      </c>
+      <c r="J158" s="5">
+        <f t="shared" si="91"/>
+        <v>15.588978302449963</v>
+      </c>
+      <c r="K158" s="5">
+        <f t="shared" si="91"/>
+        <v>724.81509544980383</v>
+      </c>
+      <c r="L158" s="5">
+        <f t="shared" si="91"/>
+        <v>39435.791075091911</v>
+      </c>
+      <c r="M158" s="5">
+        <f t="shared" si="91"/>
+        <v>61.613150616945966</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <f t="shared" si="90"/>
+        <v>1899</v>
+      </c>
+      <c r="B159" s="5">
+        <f t="shared" ref="B159:M159" si="92">(B133+B134)/2</f>
+        <v>0.25893508388037934</v>
+      </c>
+      <c r="C159" s="5">
+        <f t="shared" si="92"/>
+        <v>6987.6070909970967</v>
+      </c>
+      <c r="D159" s="5">
+        <f t="shared" si="92"/>
+        <v>5067.3249889322651</v>
+      </c>
+      <c r="E159" s="5">
+        <f t="shared" si="92"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" si="92"/>
+        <v>28686.087581358126</v>
+      </c>
+      <c r="G159" s="5">
+        <f t="shared" si="92"/>
+        <v>6989.6698455949136</v>
+      </c>
+      <c r="H159" s="5">
+        <f t="shared" si="92"/>
+        <v>13789.53021552762</v>
+      </c>
+      <c r="I159" s="5">
+        <f t="shared" si="92"/>
+        <v>846.38791596756153</v>
+      </c>
+      <c r="J159" s="5">
+        <f t="shared" si="92"/>
+        <v>12.925060679611651</v>
+      </c>
+      <c r="K159" s="5">
+        <f t="shared" si="92"/>
+        <v>1317.0827382418124</v>
+      </c>
+      <c r="L159" s="5">
+        <f t="shared" si="92"/>
+        <v>62647.908387159019</v>
+      </c>
+      <c r="M159" s="5">
+        <f t="shared" si="92"/>
+        <v>70.865758754863819</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <f t="shared" si="90"/>
+        <v>1900</v>
+      </c>
+      <c r="B160" s="5">
+        <f t="shared" ref="B160:M160" si="93">(B134+B135)/2</f>
+        <v>0.25893508388037934</v>
+      </c>
+      <c r="C160" s="5">
+        <f t="shared" si="93"/>
+        <v>8462.4465341111736</v>
+      </c>
+      <c r="D160" s="5">
+        <f t="shared" si="93"/>
+        <v>5190.0891053245869</v>
+      </c>
+      <c r="E160" s="5">
+        <f t="shared" si="93"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="F160" s="5">
+        <f t="shared" si="93"/>
+        <v>34951.193515445499</v>
+      </c>
+      <c r="G160" s="5">
+        <f t="shared" si="93"/>
+        <v>7792.043967934289</v>
+      </c>
+      <c r="H160" s="5">
+        <f t="shared" si="93"/>
+        <v>15950.616598569773</v>
+      </c>
+      <c r="I160" s="5">
+        <f t="shared" si="93"/>
+        <v>545.86322007829972</v>
+      </c>
+      <c r="J160" s="5">
+        <f t="shared" si="93"/>
+        <v>5.3483009708737868</v>
+      </c>
+      <c r="K160" s="5">
+        <f t="shared" si="93"/>
+        <v>1323.0465402610193</v>
+      </c>
+      <c r="L160" s="5">
+        <f t="shared" si="93"/>
+        <v>72668.254940791754</v>
+      </c>
+      <c r="M160" s="5">
+        <f t="shared" si="93"/>
+        <v>23.774319066147864</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <f t="shared" si="90"/>
+        <v>1901</v>
+      </c>
+      <c r="B161" s="5">
+        <f t="shared" ref="B161:M161" si="94">(B135+B136)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="5">
+        <f t="shared" si="94"/>
+        <v>8966.4817598206555</v>
+      </c>
+      <c r="D161" s="5">
+        <f t="shared" si="94"/>
+        <v>6697.7268885579742</v>
+      </c>
+      <c r="E161" s="5">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="5">
+        <f t="shared" si="94"/>
+        <v>35342.0312782369</v>
+      </c>
+      <c r="G161" s="5">
+        <f t="shared" si="94"/>
+        <v>7660.6944674801562</v>
+      </c>
+      <c r="H161" s="5">
+        <f t="shared" si="94"/>
+        <v>20070.754266407275</v>
+      </c>
+      <c r="I161" s="5">
+        <f t="shared" si="94"/>
+        <v>657.13533801733786</v>
+      </c>
+      <c r="J161" s="5">
+        <f t="shared" si="94"/>
+        <v>5.3483009708737868</v>
+      </c>
+      <c r="K161" s="5">
+        <f t="shared" si="94"/>
+        <v>1262.4910120659936</v>
+      </c>
+      <c r="L161" s="5">
+        <f t="shared" si="94"/>
+        <v>79503.968181910517</v>
+      </c>
+      <c r="M161" s="5">
+        <f t="shared" si="94"/>
+        <v>5.4863813229571985</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <f t="shared" si="90"/>
+        <v>1902</v>
+      </c>
+      <c r="B162" s="5">
+        <f t="shared" ref="B162:M162" si="95">(B136+B137)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C162" s="5">
+        <f t="shared" si="95"/>
+        <v>12282.8001604932</v>
+      </c>
+      <c r="D162" s="5">
+        <f t="shared" si="95"/>
+        <v>8983.9724715257362</v>
+      </c>
+      <c r="E162" s="5">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" si="95"/>
+        <v>40036.297054326715</v>
+      </c>
+      <c r="G162" s="5">
+        <f t="shared" si="95"/>
+        <v>9951.1523713620027</v>
+      </c>
+      <c r="H162" s="5">
+        <f t="shared" si="95"/>
+        <v>26626.194716343638</v>
+      </c>
+      <c r="I162" s="5">
+        <f t="shared" si="95"/>
+        <v>1529.9166404502237</v>
+      </c>
+      <c r="J162" s="5">
+        <f t="shared" si="95"/>
+        <v>10.696601941747574</v>
+      </c>
+      <c r="K162" s="5">
+        <f t="shared" si="95"/>
+        <v>1512.9706968726914</v>
+      </c>
+      <c r="L162" s="5">
+        <f t="shared" si="95"/>
+        <v>100488.28692137387</v>
+      </c>
+      <c r="M162" s="5">
+        <f t="shared" si="95"/>
+        <v>5.2577821011673151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <f t="shared" si="90"/>
+        <v>1903</v>
+      </c>
+      <c r="B163" s="5">
+        <f t="shared" ref="B163:M163" si="96">(B137+B138)/2</f>
+        <v>4.4018964259664486</v>
+      </c>
+      <c r="C163" s="5">
+        <f t="shared" si="96"/>
+        <v>10861.036868854131</v>
+      </c>
+      <c r="D163" s="5">
+        <f t="shared" si="96"/>
+        <v>8316.3245462228842</v>
+      </c>
+      <c r="E163" s="5">
+        <f t="shared" si="96"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" si="96"/>
+        <v>58617.707242701792</v>
+      </c>
+      <c r="G163" s="5">
+        <f t="shared" si="96"/>
+        <v>11065.583536705761</v>
+      </c>
+      <c r="H163" s="5">
+        <f t="shared" si="96"/>
+        <v>26161.187542281863</v>
+      </c>
+      <c r="I163" s="5">
+        <f t="shared" si="96"/>
+        <v>2241.0384507829976</v>
+      </c>
+      <c r="J163" s="5">
+        <f t="shared" si="96"/>
+        <v>87.801274271844662</v>
+      </c>
+      <c r="K163" s="5">
+        <f t="shared" si="96"/>
+        <v>1120.2772716079783</v>
+      </c>
+      <c r="L163" s="5">
+        <f t="shared" si="96"/>
+        <v>116089.06869884022</v>
+      </c>
+      <c r="M163" s="5">
+        <f t="shared" si="96"/>
+        <v>34.747081712062261</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <f t="shared" si="90"/>
+        <v>1904</v>
+      </c>
+      <c r="B164" s="5">
+        <f t="shared" ref="B164:M164" si="97">(B138+B139)/2</f>
+        <v>6.9912472647702417</v>
+      </c>
+      <c r="C164" s="5">
+        <f t="shared" si="97"/>
+        <v>10068.658862791053</v>
+      </c>
+      <c r="D164" s="5">
+        <f t="shared" si="97"/>
+        <v>6539.5500462832533</v>
+      </c>
+      <c r="E164" s="5">
+        <f t="shared" si="97"/>
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="F164" s="5">
+        <f t="shared" si="97"/>
+        <v>79539.931385232339</v>
+      </c>
+      <c r="G164" s="5">
+        <f t="shared" si="97"/>
+        <v>12382.74980057655</v>
+      </c>
+      <c r="H164" s="5">
+        <f t="shared" si="97"/>
+        <v>28945.42706497934</v>
+      </c>
+      <c r="I164" s="5">
+        <f t="shared" si="97"/>
+        <v>2154.9600199244969</v>
+      </c>
+      <c r="J164" s="5">
+        <f t="shared" si="97"/>
+        <v>156.43780339805824</v>
+      </c>
+      <c r="K164" s="5">
+        <f t="shared" si="97"/>
+        <v>716.11499630632852</v>
+      </c>
+      <c r="L164" s="5">
+        <f t="shared" si="97"/>
+        <v>136234.60909857211</v>
+      </c>
+      <c r="M164" s="5">
+        <f t="shared" si="97"/>
+        <v>50.063229571984444</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <f t="shared" si="90"/>
+        <v>1905</v>
+      </c>
+      <c r="B165" s="5">
+        <f t="shared" ref="B165:M165" si="98">(B139+B140)/2</f>
+        <v>36.250911743253106</v>
+      </c>
+      <c r="C165" s="5">
+        <f t="shared" si="98"/>
+        <v>11342.486498191269</v>
+      </c>
+      <c r="D165" s="5">
+        <f t="shared" si="98"/>
+        <v>8027.3567030224976</v>
+      </c>
+      <c r="E165" s="5">
+        <f t="shared" si="98"/>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="F165" s="5">
+        <f t="shared" si="98"/>
+        <v>101862.150436157</v>
+      </c>
+      <c r="G165" s="5">
+        <f t="shared" si="98"/>
+        <v>12786.588326817517</v>
+      </c>
+      <c r="H165" s="5">
+        <f t="shared" si="98"/>
+        <v>33888.213929986967</v>
+      </c>
+      <c r="I165" s="5">
+        <f t="shared" si="98"/>
+        <v>2567.3566834451904</v>
+      </c>
+      <c r="J165" s="5">
+        <f t="shared" si="98"/>
+        <v>194.76729368932038</v>
+      </c>
+      <c r="K165" s="5">
+        <f t="shared" si="98"/>
+        <v>746.39276040384141</v>
+      </c>
+      <c r="L165" s="5">
+        <f t="shared" si="98"/>
+        <v>165345.83135803221</v>
+      </c>
+      <c r="M165" s="5">
+        <f t="shared" si="98"/>
+        <v>56.92120622568094</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <f t="shared" si="90"/>
+        <v>1906</v>
+      </c>
+      <c r="B166" s="5">
+        <f t="shared" ref="B166:M166" si="99">(B140+B141)/2</f>
+        <v>121.95842450765866</v>
+      </c>
+      <c r="C166" s="5">
+        <f t="shared" si="99"/>
+        <v>10454.119707545728</v>
+      </c>
+      <c r="D166" s="5">
+        <f t="shared" si="99"/>
+        <v>11218.27938986598</v>
+      </c>
+      <c r="E166" s="5">
+        <f t="shared" si="99"/>
+        <v>24.908333333333331</v>
+      </c>
+      <c r="F166" s="5">
+        <f t="shared" si="99"/>
+        <v>112414.30196234793</v>
+      </c>
+      <c r="G166" s="5">
+        <f t="shared" si="99"/>
+        <v>15708.094917663784</v>
+      </c>
+      <c r="H166" s="5">
+        <f t="shared" si="99"/>
+        <v>43281.93919820209</v>
+      </c>
+      <c r="I166" s="5">
+        <f t="shared" si="99"/>
+        <v>6408.494188688479</v>
+      </c>
+      <c r="J166" s="5">
+        <f t="shared" si="99"/>
+        <v>182.28792475728153</v>
+      </c>
+      <c r="K166" s="5">
+        <f t="shared" si="99"/>
+        <v>1079.4481654764836</v>
+      </c>
+      <c r="L166" s="5">
+        <f t="shared" si="99"/>
+        <v>195910.88103507808</v>
+      </c>
+      <c r="M166" s="5">
+        <f t="shared" si="99"/>
+        <v>95.097276264591443</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <f t="shared" si="90"/>
+        <v>1907</v>
+      </c>
+      <c r="B167" s="5">
+        <f t="shared" ref="B167:M167" si="100">(B141+B142)/2</f>
+        <v>114.79686360320935</v>
+      </c>
+      <c r="C167" s="5">
+        <f t="shared" si="100"/>
+        <v>6858.5411614103023</v>
+      </c>
+      <c r="D167" s="5">
+        <f t="shared" si="100"/>
+        <v>11165.347265263412</v>
+      </c>
+      <c r="E167" s="5">
+        <f t="shared" si="100"/>
+        <v>27.283333333333331</v>
+      </c>
+      <c r="F167" s="5">
+        <f t="shared" si="100"/>
+        <v>87065.626650469145</v>
+      </c>
+      <c r="G167" s="5">
+        <f t="shared" si="100"/>
+        <v>15114.846135923864</v>
+      </c>
+      <c r="H167" s="5">
+        <f t="shared" si="100"/>
+        <v>36402.819486540509</v>
+      </c>
+      <c r="I167" s="5">
+        <f t="shared" si="100"/>
+        <v>9668.2911510766226</v>
+      </c>
+      <c r="J167" s="5">
+        <f t="shared" si="100"/>
+        <v>60.353762135922324</v>
+      </c>
+      <c r="K167" s="5">
+        <f t="shared" si="100"/>
+        <v>842.5956660920956</v>
+      </c>
+      <c r="L167" s="5">
+        <f t="shared" si="100"/>
+        <v>166354.68682337052</v>
+      </c>
+      <c r="M167" s="5">
+        <f t="shared" si="100"/>
+        <v>42.921206225680933</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <f t="shared" si="90"/>
+        <v>1908</v>
+      </c>
+      <c r="B168" s="5">
+        <f t="shared" ref="B168:M168" si="101">(B142+B143)/2</f>
+        <v>51</v>
+      </c>
+      <c r="C168" s="5">
+        <f t="shared" si="101"/>
+        <v>6555</v>
+      </c>
+      <c r="D168" s="5">
+        <f t="shared" si="101"/>
+        <v>8522</v>
+      </c>
+      <c r="E168" s="5">
+        <f t="shared" si="101"/>
+        <v>10</v>
+      </c>
+      <c r="F168" s="5">
+        <f t="shared" si="101"/>
+        <v>50850</v>
+      </c>
+      <c r="G168" s="5">
+        <f t="shared" si="101"/>
+        <v>11319.5</v>
+      </c>
+      <c r="H168" s="5">
+        <f t="shared" si="101"/>
+        <v>24554.5</v>
+      </c>
+      <c r="I168" s="5">
+        <f t="shared" si="101"/>
+        <v>7484</v>
+      </c>
+      <c r="J168" s="5">
+        <f t="shared" si="101"/>
+        <v>13.5</v>
+      </c>
+      <c r="K168" s="5">
+        <f t="shared" si="101"/>
+        <v>468</v>
+      </c>
+      <c r="L168" s="5">
+        <f t="shared" si="101"/>
+        <v>109843.5</v>
+      </c>
+      <c r="M168" s="5">
+        <f t="shared" si="101"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <f t="shared" si="90"/>
+        <v>1909</v>
+      </c>
+      <c r="B169" s="5">
+        <f t="shared" ref="B169:M169" si="102">(B143+B144)/2</f>
+        <v>48.5</v>
+      </c>
+      <c r="C169" s="5">
+        <f t="shared" si="102"/>
+        <v>12237</v>
+      </c>
+      <c r="D169" s="5">
+        <f t="shared" si="102"/>
+        <v>8478</v>
+      </c>
+      <c r="E169" s="5">
+        <f t="shared" si="102"/>
+        <v>1.5</v>
+      </c>
+      <c r="F169" s="5">
+        <f t="shared" si="102"/>
+        <v>45845</v>
+      </c>
+      <c r="G169" s="5">
+        <f t="shared" si="102"/>
+        <v>16281</v>
+      </c>
+      <c r="H169" s="5">
+        <f t="shared" si="102"/>
+        <v>43139.5</v>
+      </c>
+      <c r="I169" s="5">
+        <f t="shared" si="102"/>
+        <v>7912.5</v>
+      </c>
+      <c r="J169" s="5">
+        <f t="shared" si="102"/>
+        <v>52</v>
+      </c>
+      <c r="K169" s="5">
+        <f t="shared" si="102"/>
+        <v>963</v>
+      </c>
+      <c r="L169" s="5">
+        <f t="shared" si="102"/>
+        <v>135091.5</v>
+      </c>
+      <c r="M169" s="5">
+        <f t="shared" si="102"/>
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <f t="shared" si="90"/>
+        <v>1910</v>
+      </c>
+      <c r="B170" s="5">
+        <f t="shared" ref="B170:M170" si="103">(B144+B145)/2</f>
+        <v>63.358132749817656</v>
+      </c>
+      <c r="C170" s="5">
+        <f t="shared" si="103"/>
+        <v>9515</v>
+      </c>
+      <c r="D170" s="5">
+        <f t="shared" si="103"/>
+        <v>8901.6776069545631</v>
+      </c>
+      <c r="E170" s="5">
+        <f t="shared" si="103"/>
+        <v>11.841666666666667</v>
+      </c>
+      <c r="F170" s="5">
+        <f t="shared" si="103"/>
+        <v>58909.925156262107</v>
+      </c>
+      <c r="G170" s="5">
+        <f t="shared" si="103"/>
+        <v>16845.5</v>
+      </c>
+      <c r="H170" s="5">
+        <f t="shared" si="103"/>
+        <v>43043.809163077087</v>
+      </c>
+      <c r="I170" s="5">
+        <f t="shared" si="103"/>
+        <v>12144</v>
+      </c>
+      <c r="J170" s="5">
+        <f t="shared" si="103"/>
+        <v>119.35558252427184</v>
+      </c>
+      <c r="K170" s="5">
+        <f t="shared" si="103"/>
+        <v>1022.8904210785521</v>
+      </c>
+      <c r="L170" s="5">
+        <f t="shared" si="103"/>
+        <v>150549</v>
+      </c>
+      <c r="M170" s="5">
+        <f t="shared" si="103"/>
+        <v>203.39785992217901</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <f t="shared" si="90"/>
+        <v>1911</v>
+      </c>
+      <c r="B171" s="5">
+        <f t="shared" ref="B171:M171" si="104">(B145+B146)/2</f>
+        <v>155.35813274981766</v>
+      </c>
+      <c r="C171" s="5">
+        <f t="shared" si="104"/>
+        <v>4001</v>
+      </c>
+      <c r="D171" s="5">
+        <f t="shared" si="104"/>
+        <v>9401.1776069545631</v>
+      </c>
+      <c r="E171" s="5">
+        <f t="shared" si="104"/>
+        <v>14.841666666666667</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" si="104"/>
+        <v>57615.925156262107</v>
+      </c>
+      <c r="G171" s="5">
+        <f t="shared" si="104"/>
+        <v>11712</v>
+      </c>
+      <c r="H171" s="5">
+        <f t="shared" si="104"/>
+        <v>32850.309163077087</v>
+      </c>
+      <c r="I171" s="5">
+        <f t="shared" si="104"/>
+        <v>13352.5</v>
+      </c>
+      <c r="J171" s="5">
+        <f t="shared" si="104"/>
+        <v>212.85558252427182</v>
+      </c>
+      <c r="K171" s="5">
+        <f t="shared" si="104"/>
+        <v>512.39042107855209</v>
+      </c>
+      <c r="L171" s="5">
+        <f t="shared" si="104"/>
+        <v>129691</v>
+      </c>
+      <c r="M171" s="5">
+        <f t="shared" si="104"/>
+        <v>94.397859922178995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <f t="shared" si="90"/>
+        <v>1912</v>
+      </c>
+      <c r="B172" s="5">
+        <f t="shared" ref="B172:M172" si="105">(B146+B147)/2</f>
+        <v>351.37199124726476</v>
+      </c>
+      <c r="C172" s="5">
+        <f t="shared" si="105"/>
+        <v>5691</v>
+      </c>
+      <c r="D172" s="5">
+        <f t="shared" si="105"/>
+        <v>13687.533947760294</v>
+      </c>
+      <c r="E172" s="5">
+        <f t="shared" si="105"/>
+        <v>15.25</v>
+      </c>
+      <c r="F172" s="5">
+        <f t="shared" si="105"/>
+        <v>61623.065380522239</v>
+      </c>
+      <c r="G172" s="5">
+        <f t="shared" si="105"/>
+        <v>15120.5</v>
+      </c>
+      <c r="H172" s="5">
+        <f t="shared" si="105"/>
+        <v>59021.290148182408</v>
+      </c>
+      <c r="I172" s="5">
+        <f t="shared" si="105"/>
+        <v>28053.5</v>
+      </c>
+      <c r="J172" s="5">
+        <f t="shared" si="105"/>
+        <v>604.17293689320388</v>
+      </c>
+      <c r="K172" s="5">
+        <f t="shared" si="105"/>
+        <v>586.70856931790195</v>
+      </c>
+      <c r="L172" s="5">
+        <f t="shared" si="105"/>
+        <v>195915.5</v>
+      </c>
+      <c r="M172" s="5">
+        <f t="shared" si="105"/>
+        <v>85.711089494163431</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <f t="shared" si="90"/>
+        <v>1913</v>
+      </c>
+      <c r="B173" s="5">
+        <f t="shared" ref="B173:M173" si="106">(B147+B148)/2</f>
+        <v>642.37199124726476</v>
+      </c>
+      <c r="C173" s="5">
+        <f t="shared" si="106"/>
+        <v>8409.5</v>
+      </c>
+      <c r="D173" s="5">
+        <f t="shared" si="106"/>
+        <v>12970.533947760294</v>
+      </c>
+      <c r="E173" s="5">
+        <f t="shared" si="106"/>
+        <v>41.25</v>
+      </c>
+      <c r="F173" s="5">
+        <f t="shared" si="106"/>
+        <v>83884.565380522239</v>
+      </c>
+      <c r="G173" s="5">
+        <f t="shared" si="106"/>
+        <v>17962.5</v>
+      </c>
+      <c r="H173" s="5">
+        <f t="shared" si="106"/>
+        <v>64499.290148182408</v>
+      </c>
+      <c r="I173" s="5">
+        <f t="shared" si="106"/>
+        <v>33841.5</v>
+      </c>
+      <c r="J173" s="5">
+        <f t="shared" si="106"/>
+        <v>1716.6729368932038</v>
+      </c>
+      <c r="K173" s="5">
+        <f t="shared" si="106"/>
+        <v>766.70856931790195</v>
+      </c>
+      <c r="L173" s="5">
+        <f t="shared" si="106"/>
+        <v>236163</v>
+      </c>
+      <c r="M173" s="5">
+        <f t="shared" si="106"/>
+        <v>352.71108949416345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <f t="shared" si="90"/>
+        <v>1914</v>
+      </c>
+      <c r="B174" s="5">
+        <f t="shared" ref="B174:M174" si="107">(B148+B149)/2</f>
+        <v>319</v>
+      </c>
+      <c r="C174" s="5">
+        <f t="shared" si="107"/>
+        <v>4819.5</v>
+      </c>
+      <c r="D174" s="5">
+        <f t="shared" si="107"/>
+        <v>4908</v>
+      </c>
+      <c r="E174" s="5">
+        <f t="shared" si="107"/>
+        <v>35</v>
+      </c>
+      <c r="F174" s="5">
+        <f t="shared" si="107"/>
+        <v>56043.5</v>
+      </c>
+      <c r="G174" s="5">
+        <f t="shared" si="107"/>
+        <v>8290.5</v>
+      </c>
+      <c r="H174" s="5">
+        <f t="shared" si="107"/>
+        <v>23645.5</v>
+      </c>
+      <c r="I174" s="5">
+        <f t="shared" si="107"/>
+        <v>8033.5</v>
+      </c>
+      <c r="J174" s="5">
+        <f t="shared" si="107"/>
+        <v>1297</v>
+      </c>
+      <c r="K174" s="5">
+        <f t="shared" si="107"/>
+        <v>401.5</v>
+      </c>
+      <c r="L174" s="5">
+        <f t="shared" si="107"/>
+        <v>108049.5</v>
+      </c>
+      <c r="M174" s="5">
+        <f t="shared" si="107"/>
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <f t="shared" si="90"/>
+        <v>1915</v>
+      </c>
+      <c r="B175" s="5">
+        <f t="shared" ref="B175:M175" si="108">(B149+B150)/2</f>
+        <v>-243</v>
+      </c>
+      <c r="C175" s="5">
+        <f t="shared" si="108"/>
+        <v>2189</v>
+      </c>
+      <c r="D175" s="5">
+        <f t="shared" si="108"/>
+        <v>390.5</v>
+      </c>
+      <c r="E175" s="5">
+        <f t="shared" si="108"/>
+        <v>7</v>
+      </c>
+      <c r="F175" s="5">
+        <f t="shared" si="108"/>
+        <v>7858</v>
+      </c>
+      <c r="G175" s="5">
+        <f t="shared" si="108"/>
+        <v>681.5</v>
+      </c>
+      <c r="H175" s="5">
+        <f t="shared" si="108"/>
+        <v>-80</v>
+      </c>
+      <c r="I175" s="5">
+        <f t="shared" si="108"/>
+        <v>-5775.5</v>
+      </c>
+      <c r="J175" s="5">
+        <f t="shared" si="108"/>
+        <v>60</v>
+      </c>
+      <c r="K175" s="5">
+        <f t="shared" si="108"/>
+        <v>172</v>
+      </c>
+      <c r="L175" s="5">
+        <f t="shared" si="108"/>
+        <v>5236.5</v>
+      </c>
+      <c r="M175" s="5">
+        <f t="shared" si="108"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B176" s="5">
+        <f t="shared" ref="B176:M176" si="109">(B150+B151)/2</f>
+        <v>-128.32968636032092</v>
+      </c>
+      <c r="C176" s="5">
+        <f t="shared" si="109"/>
+        <v>2972</v>
+      </c>
+      <c r="D176" s="5">
+        <f t="shared" si="109"/>
+        <v>22.585382541151848</v>
+      </c>
+      <c r="E176" s="5">
+        <f t="shared" si="109"/>
+        <v>5.4916666666666671</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" si="109"/>
+        <v>4229.8384727477169</v>
+      </c>
+      <c r="G176" s="5">
+        <f t="shared" si="109"/>
+        <v>72.5</v>
+      </c>
+      <c r="H176" s="5">
+        <f t="shared" si="109"/>
+        <v>144.5</v>
+      </c>
+      <c r="I176" s="5">
+        <f t="shared" si="109"/>
+        <v>-4233.5</v>
+      </c>
+      <c r="J176" s="5">
+        <f t="shared" si="109"/>
+        <v>4.1198422330097086</v>
+      </c>
+      <c r="K176" s="5">
+        <f t="shared" si="109"/>
+        <v>336.73307067224823</v>
+      </c>
+      <c r="L176" s="5">
+        <f t="shared" si="109"/>
+        <v>4676</v>
+      </c>
+      <c r="M176" s="5">
+        <f t="shared" si="109"/>
+        <v>8.5175097276264609</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" s="5">
+        <f>SUM(B156:B176)</f>
+        <v>1544.7457308062417</v>
+      </c>
+      <c r="C177" s="5">
+        <f t="shared" ref="C177:M177" si="110">SUM(C156:C176)</f>
+        <v>153159.81224632397</v>
+      </c>
+      <c r="D177" s="5">
+        <f t="shared" si="110"/>
+        <v>146940.60162951</v>
+      </c>
+      <c r="E177" s="5">
+        <f t="shared" si="110"/>
+        <v>210.41151055158508</v>
+      </c>
+      <c r="F177" s="5">
+        <f t="shared" si="110"/>
+        <v>1052144.1786561161</v>
+      </c>
+      <c r="G177" s="5">
+        <f t="shared" si="110"/>
+        <v>208615.7167978205</v>
+      </c>
+      <c r="H177" s="5">
+        <f t="shared" si="110"/>
+        <v>558060.77822237462</v>
+      </c>
+      <c r="I177" s="5">
+        <f t="shared" si="110"/>
+        <v>128726.167598578</v>
+      </c>
+      <c r="J177" s="5">
+        <f t="shared" si="110"/>
+        <v>4822.5382204803391</v>
+      </c>
+      <c r="K177" s="5">
+        <f t="shared" si="110"/>
+        <v>16981.002228871173</v>
+      </c>
+      <c r="L177" s="5">
+        <f t="shared" si="110"/>
+        <v>2270430.4760272582</v>
+      </c>
+      <c r="M177" s="5">
+        <f t="shared" si="110"/>
+        <v>1620.5916567592556</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B178" s="5">
+        <f>100*B177/$L177</f>
+        <v>6.8037570280909843E-2</v>
+      </c>
+      <c r="C178" s="28">
+        <f t="shared" ref="C178:M178" si="111">100*C177/$L177</f>
+        <v>6.7458490301063581</v>
+      </c>
+      <c r="D178" s="28">
+        <f t="shared" si="111"/>
+        <v>6.471926939891282</v>
+      </c>
+      <c r="E178" s="28">
+        <f t="shared" si="111"/>
+        <v>9.2674720839617079E-3</v>
+      </c>
+      <c r="F178" s="28">
+        <f t="shared" si="111"/>
+        <v>46.341175815131386</v>
+      </c>
+      <c r="G178" s="28">
+        <f t="shared" si="111"/>
+        <v>9.1883772262804975</v>
+      </c>
+      <c r="H178" s="28">
+        <f t="shared" si="111"/>
+        <v>24.57951406637455</v>
+      </c>
+      <c r="I178" s="28">
+        <f t="shared" si="111"/>
+        <v>5.6696811004677752</v>
+      </c>
+      <c r="J178" s="28">
+        <f t="shared" si="111"/>
+        <v>0.21240633753818769</v>
+      </c>
+      <c r="K178" s="28">
+        <f t="shared" si="111"/>
+        <v>0.74791993889124064</v>
+      </c>
+      <c r="L178" s="28">
+        <f t="shared" si="111"/>
+        <v>100</v>
+      </c>
+      <c r="M178" s="28">
+        <f t="shared" si="111"/>
+        <v>7.1378166998309761E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5682,52 +10533,52 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>111</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" t="s">
         <v>114</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>115</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>118</v>
-      </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5">
         <v>4339</v>
@@ -5763,7 +10614,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="5">
         <v>20056</v>
@@ -5799,7 +10650,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="5">
         <v>184</v>
@@ -5835,7 +10686,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="5">
         <v>1951</v>
@@ -5871,7 +10722,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="5">
         <v>7227</v>
@@ -5907,7 +10758,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="5">
         <v>1594</v>
@@ -5943,7 +10794,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="5">
         <v>2787</v>
@@ -5979,7 +10830,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="5">
         <v>3292</v>
@@ -6015,7 +10866,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="5">
         <v>24693</v>
@@ -6051,7 +10902,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="14">
         <f t="shared" ref="B15:K15" si="0">SUM(B6:B14)</f>
@@ -6097,7 +10948,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="25">
         <f t="shared" ref="B16" si="1">100*B15/$K15</f>
@@ -6143,7 +10994,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="19">
         <f t="shared" ref="B17:K17" si="11">SUM(B11:B14)</f>
@@ -6188,7 +11039,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="27">
         <f>100*B17/$K17</f>
@@ -6376,7 +11227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -6390,40 +11241,40 @@
         <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE79F95-F43D-4FD8-88E9-4975CB9FF3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A704C1-11BD-4D98-BD9B-533EF8386A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="4110" windowWidth="26055" windowHeight="17910" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="1125" yWindow="8055" windowWidth="26055" windowHeight="17910" activeTab="3" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="158">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -443,9 +443,6 @@
     <t>% за 1876-1915</t>
   </si>
   <si>
-    <t>Эмиграция из России в различные страны вне Европы</t>
-  </si>
-  <si>
     <t>Разбивка реэмигрантов из США в Россию по народностям</t>
   </si>
   <si>
@@ -501,6 +498,27 @@
   </si>
   <si>
     <t>Баланс чистой иммиграции (иммиграция минус реэмиграция) для календарных лет:</t>
+  </si>
+  <si>
+    <t>Эмиграция из России в различные страны вне Европы ТОЛЬКО через немецкие порты.</t>
+  </si>
+  <si>
+    <t>Эмиграция из России в различные страны.</t>
+  </si>
+  <si>
+    <t>NBER, "International Migrations", Volume I : Statistics, сост. W. Willcox, New York, 1929, стр. 261-273.</t>
+  </si>
+  <si>
+    <t>Канада</t>
+  </si>
+  <si>
+    <t>Парагвай</t>
+  </si>
+  <si>
+    <t>Австралия</t>
+  </si>
+  <si>
+    <t>Гавайи</t>
   </si>
 </sst>
 </file>
@@ -573,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,6 +649,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,7 +1215,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1449,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,7 +1457,7 @@
         <v>1908</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1466,7 @@
         <v>1909</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1454,7 +1475,7 @@
         <v>1910</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,7 +1484,7 @@
         <v>1911</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1493,7 @@
         <v>1912</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,7 +1502,7 @@
         <v>1913</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1490,7 +1511,7 @@
         <v>1914</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +1520,7 @@
         <v>1915</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1529,7 @@
         <v>1916</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -1516,7 +1537,7 @@
         <v>1917</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
   <dimension ref="A1:AI178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
@@ -5816,7 +5837,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6234,7 +6255,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6656,7 +6677,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -6699,166 +6720,166 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" s="5">
-        <f>SUM(B83:B92)</f>
+        <f t="shared" ref="B97:M97" si="42">SUM(B83:B92)</f>
         <v>1371</v>
       </c>
       <c r="C97" s="5">
-        <f>SUM(C83:C92)</f>
+        <f t="shared" si="42"/>
         <v>78508</v>
       </c>
       <c r="D97" s="5">
-        <f>SUM(D83:D92)</f>
+        <f t="shared" si="42"/>
         <v>49694</v>
       </c>
       <c r="E97" s="5">
-        <f>SUM(E83:E92)</f>
+        <f t="shared" si="42"/>
         <v>120</v>
       </c>
       <c r="F97" s="5">
-        <f>SUM(F83:F92)</f>
+        <f t="shared" si="42"/>
         <v>348613</v>
       </c>
       <c r="G97" s="5">
-        <f>SUM(G83:G92)</f>
+        <f t="shared" si="42"/>
         <v>126615</v>
       </c>
       <c r="H97" s="5">
-        <f>SUM(H83:H92)</f>
+        <f t="shared" si="42"/>
         <v>261637</v>
       </c>
       <c r="I97" s="5">
-        <f>SUM(I83:I92)</f>
+        <f t="shared" si="42"/>
         <v>171648</v>
       </c>
       <c r="J97" s="5">
-        <f>SUM(J83:J92)</f>
+        <f t="shared" si="42"/>
         <v>3296</v>
       </c>
       <c r="K97" s="5">
-        <f>SUM(K83:K92)</f>
+        <f t="shared" si="42"/>
         <v>4061</v>
       </c>
       <c r="L97" s="5">
-        <f>SUM(L83:L92)</f>
+        <f t="shared" si="42"/>
         <v>1378524</v>
       </c>
       <c r="M97" s="5">
-        <f>SUM(M83:M92)</f>
+        <f t="shared" si="42"/>
         <v>1542</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" s="5">
-        <f>SUM(B69:B78)</f>
+        <f t="shared" ref="B98:M98" si="43">SUM(B69:B78)</f>
         <v>661</v>
       </c>
       <c r="C98" s="5">
-        <f>SUM(C69:C78)</f>
+        <f t="shared" si="43"/>
         <v>19403</v>
       </c>
       <c r="D98" s="5">
-        <f>SUM(D69:D78)</f>
+        <f t="shared" si="43"/>
         <v>2766</v>
       </c>
       <c r="E98" s="5">
-        <f>SUM(E69:E78)</f>
+        <f t="shared" si="43"/>
         <v>22</v>
       </c>
       <c r="F98" s="5">
-        <f>SUM(F69:F78)</f>
+        <f t="shared" si="43"/>
         <v>22263</v>
       </c>
       <c r="G98" s="5">
-        <f>SUM(G69:G78)</f>
+        <f t="shared" si="43"/>
         <v>23318</v>
       </c>
       <c r="H98" s="5">
-        <f>SUM(H69:H78)</f>
+        <f t="shared" si="43"/>
         <v>71835</v>
       </c>
       <c r="I98" s="5">
-        <f>SUM(I69:I78)</f>
+        <f t="shared" si="43"/>
         <v>68685</v>
       </c>
       <c r="J98" s="5">
-        <f>SUM(J69:J78)</f>
+        <f t="shared" si="43"/>
         <v>358</v>
       </c>
       <c r="K98" s="5">
-        <f>SUM(K69:K78)</f>
+        <f t="shared" si="43"/>
         <v>335</v>
       </c>
       <c r="L98" s="5">
-        <f>SUM(L69:L78)</f>
+        <f t="shared" si="43"/>
         <v>240457</v>
       </c>
       <c r="M98" s="5">
-        <f>SUM(M69:M78)</f>
+        <f t="shared" si="43"/>
         <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B99" s="28">
         <f>100*B98/B97</f>
         <v>48.212983223924141</v>
       </c>
       <c r="C99" s="28">
-        <f t="shared" ref="C99:M99" si="42">100*C98/C97</f>
+        <f t="shared" ref="C99:M99" si="44">100*C98/C97</f>
         <v>24.7146787588526</v>
       </c>
       <c r="D99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.5660643135992274</v>
       </c>
       <c r="E99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>18.333333333333332</v>
       </c>
       <c r="F99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.386164600861127</v>
       </c>
       <c r="G99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>18.416459345259252</v>
       </c>
       <c r="H99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>27.455979085526895</v>
       </c>
       <c r="I99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>40.015030760626395</v>
       </c>
       <c r="J99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10.861650485436893</v>
       </c>
       <c r="K99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>8.2491997045062799</v>
       </c>
       <c r="L99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>17.443076798082586</v>
       </c>
       <c r="M99" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>54.280155642023345</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -6911,47 +6932,47 @@
         <v>0.10604879183560069</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" ref="C104:M104" si="43">C11* (C$99/100)</f>
+        <f t="shared" ref="C104:M104" si="45">C11* (C$99/100)</f>
         <v>1550.8980122750347</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>200.48009029625982</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.12097744551230667</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1389.8888491231778</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1050.7945965240046</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3592.8346052321458</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>306.03392072051736</v>
       </c>
       <c r="J104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.97953825310549258</v>
       </c>
       <c r="K104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>70.692360943270657</v>
       </c>
       <c r="L104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9094.1225194483359</v>
       </c>
       <c r="M104" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>38.922471097015276</v>
       </c>
     </row>
@@ -6961,597 +6982,597 @@
         <v>1897</v>
       </c>
       <c r="B105" s="5">
-        <f t="shared" ref="B105:M105" si="44">B12* (B$99/100)</f>
+        <f t="shared" ref="B105:M105" si="46">B12* (B$99/100)</f>
         <v>6.0983750729306903E-2</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>891.84964911036161</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>115.28681884249205</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.9568528347101158E-2</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>799.26073318938893</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>604.26332665310315</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2066.0728536800862</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>175.98594017803114</v>
       </c>
       <c r="J105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.56328710231616885</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>40.651904124600996</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5229.60885483314</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>22.382511239060051</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f t="shared" ref="A106:B124" si="45">A105+1</f>
+        <f t="shared" ref="A106:A124" si="47">A105+1</f>
         <v>1898</v>
       </c>
       <c r="B106" s="5">
-        <f t="shared" ref="B106:M106" si="46">B13* (B$99/100)</f>
+        <f t="shared" ref="B106:M106" si="48">B13* (B$99/100)</f>
         <v>7.028559830227378E-2</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1027.8834186771435</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>132.87150989905174</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>8.0179811497472844E-2</v>
       </c>
       <c r="F106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>921.17192137107338</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>696.43157296859113</v>
       </c>
       <c r="H106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2381.210813050322</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>202.82906430444905</v>
       </c>
       <c r="J106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.6492052477713518</v>
       </c>
       <c r="K106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>46.852536443796502</v>
       </c>
       <c r="L106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>6027.2807568094568</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>25.796514237498997</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1899</v>
       </c>
       <c r="B107" s="5">
-        <f t="shared" ref="B107:M107" si="47">B14* (B$99/100)</f>
+        <f t="shared" ref="B107:M107" si="49">B14* (B$99/100)</f>
         <v>0</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1494.7437713354052</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>299.62124200104643</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1550.2414568590386</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1259.3174900288275</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4260.3442747012077</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>663.04905970357936</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>3.1498786407766994</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>83.481901009603547</v>
       </c>
       <c r="L107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10637.137093006722</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>120.50194552529182</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1900</v>
       </c>
       <c r="B108" s="5">
-        <f t="shared" ref="B108:M108" si="48">B15* (B$99/100)</f>
+        <f t="shared" ref="B108:M108" si="50">B15* (B$99/100)</f>
         <v>0.48212983223924138</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3093.0420466704027</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>297.72878013442266</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>2363.5833804247118</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1896.3428187813449</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>6177.5952942435515</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>466.17510836129753</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>153.35262250677175</v>
       </c>
       <c r="L108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>15836.046132675237</v>
       </c>
       <c r="M108" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>47.766536964980538</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1901</v>
       </c>
       <c r="B109" s="5">
-        <f t="shared" ref="B109:M109" si="49">B16* (B$99/100)</f>
+        <f t="shared" ref="B109:M109" si="51">B16* (B$99/100)</f>
         <v>0</v>
       </c>
       <c r="C109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2463.0648851072501</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>314.09300921640443</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2405.0295886843005</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1621.5692453500769</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5896.1715086169006</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>262.09845148210292</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.3033980582524274</v>
       </c>
       <c r="K109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>84.554296971189373</v>
       </c>
       <c r="L109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>14871.443985741269</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>8.6848249027237348</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1902</v>
       </c>
       <c r="B110" s="5">
-        <f t="shared" ref="B110:M110" si="50">B17* (B$99/100)</f>
+        <f t="shared" ref="B110:M110" si="52">B17* (B$99/100)</f>
         <v>0</v>
       </c>
       <c r="C110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>3423.9715952514389</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>475.45321366764603</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2416.907854841902</v>
       </c>
       <c r="G110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1837.0418196896103</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9296.3199585685506</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>614.63087248322142</v>
       </c>
       <c r="J110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="K110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>142.46367889682344</v>
       </c>
       <c r="L110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>18724.619650437711</v>
       </c>
       <c r="M110" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>4.3424124513618674</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1903</v>
       </c>
       <c r="B111" s="5">
-        <f t="shared" ref="B111:M111" si="51">B18* (B$99/100)</f>
+        <f t="shared" ref="B111:M111" si="53">B18* (B$99/100)</f>
         <v>0</v>
       </c>
       <c r="C111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>4640.4280837621636</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>583.60184328087905</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3045.4980365046631</v>
       </c>
       <c r="G111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2655.6534375863839</v>
       </c>
       <c r="H111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10858.290608744175</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1426.5358466163311</v>
       </c>
       <c r="J111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2.6067961165048548</v>
       </c>
       <c r="K111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>129.59492735779367</v>
       </c>
       <c r="L111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>23738.806506814533</v>
       </c>
       <c r="M111" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>8.1420233463035014</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1904</v>
       </c>
       <c r="B112" s="5">
-        <f t="shared" ref="B112:M112" si="52">B19* (B$99/100)</f>
+        <f t="shared" ref="B112:M112" si="54">B19* (B$99/100)</f>
         <v>8.1962071480671028</v>
       </c>
       <c r="C112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2490.4981785295763</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>396.74906427335293</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4952.0874780917529</v>
       </c>
       <c r="G112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2340.1794890020929</v>
       </c>
       <c r="H112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>8944.334306692097</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1563.3872518176734</v>
       </c>
       <c r="J112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>18.790655339805827</v>
       </c>
       <c r="K112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>71.850529426249693</v>
       </c>
       <c r="L112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>25317.056095505046</v>
       </c>
       <c r="M112" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>74.363813229571974</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1905</v>
       </c>
       <c r="B113" s="5">
-        <f t="shared" ref="B113:M113" si="53">B20* (B$99/100)</f>
+        <f t="shared" ref="B113:M113" si="55">B20* (B$99/100)</f>
         <v>4.8212983223924137</v>
       </c>
       <c r="C113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4120.1840958883167</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>374.15084316014008</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5900.0497514435783</v>
       </c>
       <c r="G113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3250.3209098448051</v>
       </c>
       <c r="H113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>12965.81156334922</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1311.6927083333333</v>
       </c>
       <c r="J113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>19.333737864077673</v>
       </c>
       <c r="K113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>56.919477961093328</v>
       </c>
       <c r="L113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>32251.725707350757</v>
       </c>
       <c r="M113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>44.509727626459139</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1906</v>
       </c>
       <c r="B114" s="5">
-        <f t="shared" ref="B114:M114" si="54">B21* (B$99/100)</f>
+        <f t="shared" ref="B114:M114" si="56">B21* (B$99/100)</f>
         <v>62.67687819110138</v>
       </c>
       <c r="C114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>3326.8429077291485</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>572.13575079486463</v>
       </c>
       <c r="E114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.75</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>7997.6493762424243</v>
       </c>
       <c r="G114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2522.5024365201593</v>
       </c>
       <c r="H114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>12685.760576676847</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2113.5939247762863</v>
       </c>
       <c r="J114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>28.131674757281555</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>77.295001231223836</v>
       </c>
       <c r="L114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>37618.611576584808</v>
       </c>
       <c r="M114" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>90.647859922178981</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1907</v>
       </c>
       <c r="B115" s="5">
-        <f t="shared" ref="B115:M115" si="55">B22* (B$99/100)</f>
+        <f t="shared" ref="B115:M115" si="57">B22* (B$99/100)</f>
         <v>164.40627279358131</v>
       </c>
       <c r="C115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>3536.9176771793955</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>750.30546947317589</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8.4333333333333336</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7339.7466990617104</v>
       </c>
       <c r="G115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>4569.3077281522728</v>
       </c>
       <c r="H115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>20076.361026918974</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>6436.4176978467558</v>
       </c>
       <c r="J115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>16.292475728155342</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>116.80866781580892</v>
       </c>
       <c r="L115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>45167.626353258987</v>
       </c>
       <c r="M115" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>135.15758754863813</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1908</v>
       </c>
       <c r="B116" s="5">
@@ -7588,13 +7609,13 @@
         <v>37777</v>
       </c>
       <c r="M116" s="5">
-        <f t="shared" ref="M116:M124" si="56">L116-SUM(B116:K116)</f>
+        <f t="shared" ref="M116:M118" si="58">L116-SUM(B116:K116)</f>
         <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1909</v>
       </c>
       <c r="B117" s="5">
@@ -7631,13 +7652,13 @@
         <v>19707</v>
       </c>
       <c r="M117" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1910</v>
       </c>
       <c r="B118" s="5">
@@ -7674,13 +7695,13 @@
         <v>17362</v>
       </c>
       <c r="M118" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1911</v>
       </c>
       <c r="B119" s="5">
@@ -7691,15 +7712,15 @@
         <v>4219</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" ref="D119:F119" si="57">D26*( D$99/100)</f>
+        <f t="shared" ref="D119:F119" si="59">D26*( D$99/100)</f>
         <v>488.64478609087621</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>5.3166666666666664</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>4181.1496874757968</v>
       </c>
       <c r="G119" s="5">
@@ -7730,7 +7751,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1912</v>
       </c>
       <c r="B120" s="5">
@@ -7767,13 +7788,13 @@
         <v>34681</v>
       </c>
       <c r="M120" s="5">
-        <f t="shared" ref="M120:M125" si="58">L120-SUM(B120:K120)</f>
+        <f t="shared" ref="M120" si="60">L120-SUM(B120:K120)</f>
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1913</v>
       </c>
       <c r="B121" s="5">
@@ -7784,15 +7805,15 @@
         <v>3053</v>
       </c>
       <c r="D121" s="5">
-        <f t="shared" ref="D121:F121" si="59">D28*( D$99/100)</f>
+        <f t="shared" ref="D121:F121" si="61">D28*( D$99/100)</f>
         <v>993.93210447941408</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>5.5</v>
       </c>
       <c r="F121" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4727.8692389555181</v>
       </c>
       <c r="G121" s="5">
@@ -7806,11 +7827,11 @@
         <v>5327</v>
       </c>
       <c r="J121" s="5">
-        <f t="shared" ref="J121:K121" si="60">J28*( J$99/100)</f>
+        <f t="shared" ref="J121:K121" si="62">J28*( J$99/100)</f>
         <v>116.65412621359224</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>73.58286136419602</v>
       </c>
       <c r="L121" s="5">
@@ -7823,7 +7844,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1914</v>
       </c>
       <c r="B122" s="5">
@@ -7860,13 +7881,13 @@
         <v>47451</v>
       </c>
       <c r="M122" s="5">
-        <f t="shared" ref="M122:M125" si="61">L122-SUM(B122:K122)</f>
+        <f t="shared" ref="M122:M124" si="63">L122-SUM(B122:K122)</f>
         <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1915</v>
       </c>
       <c r="B123" s="5">
@@ -7903,13 +7924,13 @@
         <v>18297</v>
       </c>
       <c r="M123" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1916</v>
       </c>
       <c r="B124" s="5">
@@ -7944,7 +7965,7 @@
         <v>5259</v>
       </c>
       <c r="M124" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>89</v>
       </c>
     </row>
@@ -7964,11 +7985,11 @@
         <v>36.829234917696304</v>
       </c>
       <c r="E125" s="5">
-        <f t="shared" ref="E125:F125" si="62">E32*( E$99/100)</f>
+        <f t="shared" ref="E125:F125" si="64">E32*( E$99/100)</f>
         <v>2.0166666666666666</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>434.32305450456528</v>
       </c>
       <c r="G125" s="5">
@@ -7981,11 +8002,11 @@
         <v>6393</v>
       </c>
       <c r="J125" s="5">
-        <f t="shared" ref="J125:K125" si="63">J32*( J$99/100)</f>
+        <f t="shared" ref="J125:K125" si="65">J32*( J$99/100)</f>
         <v>0.7603155339805826</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>37.533858655503572</v>
       </c>
       <c r="L125" s="5">
@@ -7998,7 +8019,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -8047,51 +8068,51 @@
         <v>1896</v>
       </c>
       <c r="B130" s="5">
-        <f t="shared" ref="B130:C150" si="64">B11-B104</f>
+        <f t="shared" ref="B130:B150" si="66">B11-B104</f>
         <v>0.1139102000049569</v>
       </c>
       <c r="C130" s="5">
-        <f t="shared" ref="C130:M130" si="65">C11-C104</f>
+        <f t="shared" ref="C130:M130" si="67">C11-C104</f>
         <v>4724.3120659442329</v>
       </c>
       <c r="D130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>3401.3484010928705</v>
       </c>
       <c r="E130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.53889953000936608</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>20374.173557532635</v>
       </c>
       <c r="G130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4654.9416518200578</v>
       </c>
       <c r="H130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>9492.9657373463051</v>
       </c>
       <c r="I130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>458.76349390910138</v>
       </c>
       <c r="J130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8.038780412357367</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>786.26787126754175</v>
       </c>
       <c r="L130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>43041.877480551666</v>
       </c>
       <c r="M130" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>32.784160243005701</v>
       </c>
     </row>
@@ -8101,721 +8122,721 @@
         <v>1897</v>
       </c>
       <c r="B131" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>6.5504482629058863E-2</v>
       </c>
       <c r="C131" s="5">
-        <f t="shared" ref="C131:M131" si="66">C12-C105</f>
+        <f t="shared" ref="C131:M131" si="68">C12-C105</f>
         <v>2716.7331603704547</v>
       </c>
       <c r="D131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1955.9580024007471</v>
       </c>
       <c r="E131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0.30989617172799611</v>
       </c>
       <c r="F131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>11716.244004687467</v>
       </c>
       <c r="G131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>2676.8414466629038</v>
       </c>
       <c r="H131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>5458.9651252758085</v>
       </c>
       <c r="I131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>263.8136472090066</v>
       </c>
       <c r="J131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.6227304653768266</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>452.14625303959195</v>
       </c>
       <c r="L131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>24751.391145166861</v>
       </c>
       <c r="M131" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>18.852652835767429</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <f t="shared" ref="A132:A150" si="67">A131+1</f>
+        <f t="shared" ref="A132:A150" si="69">A131+1</f>
         <v>1898</v>
       </c>
       <c r="B132" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>7.5495877147676846E-2</v>
       </c>
       <c r="C132" s="5">
-        <f t="shared" ref="C132:M132" si="68">C13-C106</f>
+        <f t="shared" ref="C132:M132" si="70">C13-C106</f>
         <v>3131.1162944344978</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>2254.3001505938896</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.35716461485237905</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>13503.321948499743</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>3085.1399002031285</v>
       </c>
       <c r="H132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>6291.6207244181423</v>
       </c>
       <c r="I132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>304.05312583502933</v>
       </c>
       <c r="J132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>5.3278352456766234</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>521.11209190921124</v>
       </c>
       <c r="L132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>28526.719243190542</v>
       </c>
       <c r="M132" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>21.728246759183747</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1899</v>
       </c>
       <c r="B133" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="C133" s="5">
-        <f t="shared" ref="C133:M133" si="69">C14-C107</f>
+        <f t="shared" ref="C133:M133" si="71">C14-C107</f>
         <v>4553.2562286645953</v>
       </c>
       <c r="D133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>5083.3787579989539</v>
       </c>
       <c r="E133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.81666666666666665</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>22724.758543140961</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>5578.6825099711723</v>
       </c>
       <c r="H133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>11256.655725298791</v>
       </c>
       <c r="I133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>993.95094029642064</v>
       </c>
       <c r="J133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>25.850121359223301</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>928.51809899039642</v>
       </c>
       <c r="L133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>50344.862906993279</v>
       </c>
       <c r="M133" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>101.49805447470818</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1900</v>
       </c>
       <c r="B134" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.51787016776075867</v>
       </c>
       <c r="C134" s="5">
-        <f t="shared" ref="C134:M134" si="70">C15-C108</f>
+        <f t="shared" ref="C134:M134" si="72">C15-C108</f>
         <v>9421.9579533295982</v>
       </c>
       <c r="D134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>5051.2712198655772</v>
       </c>
       <c r="E134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1.6333333333333333</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>34647.416619575291</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>8400.6571812186558</v>
       </c>
       <c r="H134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>16322.404705756449</v>
       </c>
       <c r="I134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>698.82489163870241</v>
       </c>
       <c r="J134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1705.6473774932283</v>
       </c>
       <c r="L134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>74950.953867324759</v>
       </c>
       <c r="M134" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>40.233463035019462</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1901</v>
       </c>
       <c r="B135" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="C135" s="5">
-        <f t="shared" ref="C135:M135" si="71">C16-C109</f>
+        <f t="shared" ref="C135:M135" si="73">C16-C109</f>
         <v>7502.9351148927499</v>
       </c>
       <c r="D135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>5328.9069907835956</v>
       </c>
       <c r="E135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>35254.970411315699</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>7183.4307546499231</v>
       </c>
       <c r="H135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>15578.828491383099</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>392.90154851789708</v>
       </c>
       <c r="J135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>10.696601941747574</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>940.44570302881061</v>
       </c>
       <c r="L135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>70385.556014258735</v>
       </c>
       <c r="M135" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>7.3151750972762652</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1902</v>
       </c>
       <c r="B136" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="C136" s="5">
-        <f t="shared" ref="C136:M136" si="72">C17-C110</f>
+        <f t="shared" ref="C136:M136" si="74">C17-C110</f>
         <v>10430.028404748562</v>
       </c>
       <c r="D136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>8066.5467863323538</v>
       </c>
       <c r="E136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>35429.092145158094</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>8137.9581803103902</v>
       </c>
       <c r="H136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>24562.680041431449</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>921.36912751677858</v>
       </c>
       <c r="J136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1584.5363211031765</v>
       </c>
       <c r="L136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>88622.380349562285</v>
       </c>
       <c r="M136" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>3.6575875486381326</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1903</v>
       </c>
       <c r="B137" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="C137" s="5">
-        <f t="shared" ref="C137:M137" si="73">C18-C111</f>
+        <f t="shared" ref="C137:M137" si="75">C18-C111</f>
         <v>14135.571916237837</v>
       </c>
       <c r="D137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9901.3981567191204</v>
       </c>
       <c r="E137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>44643.501963495335</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>11764.346562413615</v>
       </c>
       <c r="H137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>28689.709391255827</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2138.4641533836689</v>
       </c>
       <c r="J137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>21.393203883495147</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1441.4050726422063</v>
       </c>
       <c r="L137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>112354.19349318546</v>
       </c>
       <c r="M137" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>6.8579766536964986</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1904</v>
       </c>
       <c r="B138" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>8.8037928519328972</v>
       </c>
       <c r="C138" s="5">
-        <f t="shared" ref="C138:M138" si="74">C19-C112</f>
+        <f t="shared" ref="C138:M138" si="76">C19-C112</f>
         <v>7586.5018214704232</v>
       </c>
       <c r="D138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>6731.2509357266472</v>
       </c>
       <c r="E138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>72591.912521908249</v>
       </c>
       <c r="G138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>10366.820510997906</v>
       </c>
       <c r="H138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>23632.665693307903</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>2343.6127481823269</v>
       </c>
       <c r="J138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>154.20934466019418</v>
       </c>
       <c r="K138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>799.14947057375025</v>
       </c>
       <c r="L138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>119823.94390449495</v>
       </c>
       <c r="M138" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>62.636186770428026</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1905</v>
       </c>
       <c r="B139" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.1787016776075863</v>
       </c>
       <c r="C139" s="5">
-        <f t="shared" ref="C139:M139" si="75">C20-C113</f>
+        <f t="shared" ref="C139:M139" si="77">C20-C113</f>
         <v>12550.815904111683</v>
       </c>
       <c r="D139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>6347.8491568398604</v>
       </c>
       <c r="E139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>4.083333333333333</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>86487.950248556415</v>
       </c>
       <c r="G139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>14398.679090155194</v>
       </c>
       <c r="H139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>34258.18843665078</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1966.3072916666667</v>
       </c>
       <c r="J139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>158.66626213592232</v>
       </c>
       <c r="K139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>633.08052203890668</v>
       </c>
       <c r="L139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>152645.27429264924</v>
       </c>
       <c r="M139" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>37.490272373540861</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1906</v>
       </c>
       <c r="B140" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>67.32312180889862</v>
       </c>
       <c r="C140" s="5">
-        <f t="shared" ref="C140:M140" si="76">C21-C114</f>
+        <f t="shared" ref="C140:M140" si="78">C21-C114</f>
         <v>10134.157092270852</v>
       </c>
       <c r="D140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>9706.8642492051349</v>
       </c>
       <c r="E140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>12.25</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>117236.35062375758</v>
       </c>
       <c r="G140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>11174.497563479841</v>
       </c>
       <c r="H140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>33518.239423323153</v>
       </c>
       <c r="I140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>3168.4060752237137</v>
       </c>
       <c r="J140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>230.86832524271844</v>
       </c>
       <c r="K140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>859.70499876877614</v>
       </c>
       <c r="L140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>178046.38842341519</v>
       </c>
       <c r="M140" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>76.352140077821019</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1907</v>
       </c>
       <c r="B141" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>176.59372720641869</v>
       </c>
       <c r="C141" s="5">
-        <f t="shared" ref="C141:M141" si="77">C22-C115</f>
+        <f t="shared" ref="C141:M141" si="79">C22-C115</f>
         <v>10774.082322820605</v>
       </c>
       <c r="D141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>12729.694530526824</v>
       </c>
       <c r="E141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>37.566666666666663</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>107592.25330093829</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>20241.692271847729</v>
       </c>
       <c r="H141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>53045.638973081026</v>
       </c>
       <c r="I141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9648.5823021532451</v>
       </c>
       <c r="J141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>133.70752427184465</v>
       </c>
       <c r="K141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1299.1913321841912</v>
       </c>
       <c r="L141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>213775.37364674101</v>
       </c>
       <c r="M141" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>113.84241245136187</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1908</v>
       </c>
       <c r="B142" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>53</v>
       </c>
       <c r="C142" s="5">
-        <f t="shared" ref="C142:M142" si="78">C23-C116</f>
+        <f t="shared" ref="C142:M142" si="80">C23-C116</f>
         <v>2943</v>
       </c>
       <c r="D142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>9601</v>
       </c>
       <c r="E142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>17</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>66539</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>9988</v>
       </c>
       <c r="H142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>19760</v>
       </c>
       <c r="I142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>9688</v>
       </c>
       <c r="J142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-13</v>
       </c>
       <c r="K142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>386</v>
       </c>
       <c r="L142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>118934</v>
       </c>
       <c r="M142" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-28</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1909</v>
       </c>
       <c r="B143" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>49</v>
       </c>
       <c r="C143" s="5">
-        <f t="shared" ref="C143:M143" si="79">C24-C117</f>
+        <f t="shared" ref="C143:M143" si="81">C24-C117</f>
         <v>10167</v>
       </c>
       <c r="D143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>7443</v>
       </c>
       <c r="E143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>35161</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>12651</v>
       </c>
       <c r="H143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>29349</v>
       </c>
       <c r="I143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>5280</v>
       </c>
       <c r="J143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>40</v>
       </c>
       <c r="K143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>550</v>
       </c>
       <c r="L143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>100753</v>
       </c>
       <c r="M143" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1910</v>
       </c>
       <c r="B144" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>48</v>
       </c>
       <c r="C144" s="5">
-        <f t="shared" ref="C144:M144" si="80">C25-C118</f>
+        <f t="shared" ref="C144:M144" si="82">C25-C118</f>
         <v>14307</v>
       </c>
       <c r="D144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9513</v>
       </c>
       <c r="E144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="F144" s="5">
@@ -8823,355 +8844,355 @@
         <v>56529</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>19911</v>
       </c>
       <c r="H144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>56930</v>
       </c>
       <c r="I144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>10545</v>
       </c>
       <c r="J144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>64</v>
       </c>
       <c r="K144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1376</v>
       </c>
       <c r="L144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>169430</v>
       </c>
       <c r="M144" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1911</v>
       </c>
       <c r="B145" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>78.716265499635313</v>
       </c>
       <c r="C145" s="5">
-        <f t="shared" ref="C145:M145" si="81">C26-C119</f>
+        <f t="shared" ref="C145:M145" si="83">C26-C119</f>
         <v>4723</v>
       </c>
       <c r="D145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>8290.3552139091244</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>23.683333333333334</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>61290.850312524206</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>13780</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>29157.618326154174</v>
       </c>
       <c r="I145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>13743</v>
       </c>
       <c r="J145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>174.71116504854368</v>
       </c>
       <c r="K145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>669.78084215710419</v>
       </c>
       <c r="L145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>131668</v>
       </c>
       <c r="M145" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>199.79571984435799</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1912</v>
       </c>
       <c r="B146" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>232</v>
       </c>
       <c r="C146" s="5">
-        <f t="shared" ref="C146:M146" si="82">C27-C120</f>
+        <f t="shared" ref="C146:M146" si="84">C27-C120</f>
         <v>3279</v>
       </c>
       <c r="D146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>10512</v>
       </c>
       <c r="E146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>6</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>53941</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>9644</v>
       </c>
       <c r="H146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>36543</v>
       </c>
       <c r="I146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>12962</v>
       </c>
       <c r="J146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>251</v>
       </c>
       <c r="K146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>355</v>
       </c>
       <c r="L146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>127714</v>
       </c>
       <c r="M146" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-11</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1913</v>
       </c>
       <c r="B147" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>470.74398249452958</v>
       </c>
       <c r="C147" s="5">
-        <f t="shared" ref="C147:M147" si="83">C28-C121</f>
+        <f t="shared" ref="C147:M147" si="85">C28-C121</f>
         <v>8103</v>
       </c>
       <c r="D147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>16863.067895520588</v>
       </c>
       <c r="E147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>24.5</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>69305.130761044478</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>20597</v>
       </c>
       <c r="H147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>81499.580296364817</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>43145</v>
       </c>
       <c r="J147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>957.34587378640776</v>
       </c>
       <c r="K147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>818.41713863580401</v>
       </c>
       <c r="L147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>264117</v>
       </c>
       <c r="M147" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>182.42217898832686</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1914</v>
       </c>
       <c r="B148" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>814</v>
       </c>
       <c r="C148" s="5">
-        <f t="shared" ref="C148:M148" si="84">C29-C122</f>
+        <f t="shared" ref="C148:M148" si="86">C29-C122</f>
         <v>8716</v>
       </c>
       <c r="D148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>9078</v>
       </c>
       <c r="E148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>58</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>98464</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>15328</v>
       </c>
       <c r="H148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>47499</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>24538</v>
       </c>
       <c r="J148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>2476</v>
       </c>
       <c r="K148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>715</v>
       </c>
       <c r="L148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>208209</v>
       </c>
       <c r="M148" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1915</v>
       </c>
       <c r="B149" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-176</v>
       </c>
       <c r="C149" s="5">
-        <f t="shared" ref="C149:M149" si="85">C30-C123</f>
+        <f t="shared" ref="C149:M149" si="87">C30-C123</f>
         <v>923</v>
       </c>
       <c r="D149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>738</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>12</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>13623</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1253</v>
       </c>
       <c r="H149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-208</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-8471</v>
       </c>
       <c r="J149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>118</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>88</v>
       </c>
       <c r="L149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>7890</v>
       </c>
       <c r="M149" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-10</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1916</v>
       </c>
       <c r="B150" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-310</v>
       </c>
       <c r="C150" s="5">
-        <f t="shared" ref="C150:M150" si="86">C31-C124</f>
+        <f t="shared" ref="C150:M150" si="88">C31-C124</f>
         <v>3455</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>43</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>2</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>2093</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>110</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>48</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>-3080</v>
       </c>
       <c r="J150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>2</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>256</v>
       </c>
       <c r="L150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>2583</v>
       </c>
       <c r="M150" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>-36</v>
       </c>
     </row>
@@ -9184,53 +9205,53 @@
         <v>53.340627279358138</v>
       </c>
       <c r="C151" s="5">
-        <f t="shared" ref="C151:M151" si="87">C32-C125</f>
+        <f t="shared" ref="C151:M151" si="89">C32-C125</f>
         <v>2489</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2.1707650823036957</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>8.9833333333333343</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>6366.6769454954347</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>35</v>
       </c>
       <c r="H151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>241</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>-5387</v>
       </c>
       <c r="J151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>6.2396844660194173</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>417.46614134449641</v>
       </c>
       <c r="L151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>6769</v>
       </c>
       <c r="M151" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>53.035019455252922</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -9283,47 +9304,47 @@
         <v>8.9707341317007888E-2</v>
       </c>
       <c r="C156" s="5">
-        <f t="shared" ref="C156:M156" si="88">(C130+C131)/2</f>
+        <f t="shared" ref="C156:M156" si="90">(C130+C131)/2</f>
         <v>3720.5226131573436</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2678.6532017468089</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0.42439785086868109</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>16045.20878111005</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3665.8915492414808</v>
       </c>
       <c r="H156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>7475.9654313110568</v>
       </c>
       <c r="I156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>361.28857055905399</v>
       </c>
       <c r="J156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>6.3307554388670972</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>619.20706215356688</v>
       </c>
       <c r="L156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>33896.634312859263</v>
       </c>
       <c r="M156" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>25.818406539386565</v>
       </c>
     </row>
@@ -9333,1023 +9354,1023 @@
         <v>1897</v>
       </c>
       <c r="B157" s="5">
-        <f t="shared" ref="B157:M157" si="89">(B131+B132)/2</f>
+        <f t="shared" ref="B157:M157" si="91">(B131+B132)/2</f>
         <v>7.0500179888367848E-2</v>
       </c>
       <c r="C157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2923.9247274024765</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2105.1290764973182</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0.33353039329018758</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>12609.782976593604</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2880.9906734330161</v>
       </c>
       <c r="H157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>5875.2929248469754</v>
       </c>
       <c r="I157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>283.93338652201794</v>
       </c>
       <c r="J157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>4.975282855526725</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>486.62917247440157</v>
       </c>
       <c r="L157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>26639.055194178702</v>
       </c>
       <c r="M157" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>20.290449797475588</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f t="shared" ref="A158:A175" si="90">A157+1</f>
+        <f t="shared" ref="A158:A175" si="92">A157+1</f>
         <v>1898</v>
       </c>
       <c r="B158" s="5">
-        <f t="shared" ref="B158:M158" si="91">(B132+B133)/2</f>
+        <f t="shared" ref="B158:M158" si="93">(B132+B133)/2</f>
         <v>3.7747938573838423E-2</v>
       </c>
       <c r="C158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>3842.1862615495465</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>3668.8394542964215</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0.58691564075952285</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>18114.040245820353</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>4331.9112050871499</v>
       </c>
       <c r="H158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>8774.1382248584669</v>
       </c>
       <c r="I158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>649.00203306572496</v>
       </c>
       <c r="J158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>15.588978302449963</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>724.81509544980383</v>
       </c>
       <c r="L158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>39435.791075091911</v>
       </c>
       <c r="M158" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>61.613150616945966</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1899</v>
       </c>
       <c r="B159" s="5">
-        <f t="shared" ref="B159:M159" si="92">(B133+B134)/2</f>
+        <f t="shared" ref="B159:M159" si="94">(B133+B134)/2</f>
         <v>0.25893508388037934</v>
       </c>
       <c r="C159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>6987.6070909970967</v>
       </c>
       <c r="D159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>5067.3249889322651</v>
       </c>
       <c r="E159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1.2250000000000001</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>28686.087581358126</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>6989.6698455949136</v>
       </c>
       <c r="H159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>13789.53021552762</v>
       </c>
       <c r="I159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>846.38791596756153</v>
       </c>
       <c r="J159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>12.925060679611651</v>
       </c>
       <c r="K159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1317.0827382418124</v>
       </c>
       <c r="L159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>62647.908387159019</v>
       </c>
       <c r="M159" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>70.865758754863819</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1900</v>
       </c>
       <c r="B160" s="5">
-        <f t="shared" ref="B160:M160" si="93">(B134+B135)/2</f>
+        <f t="shared" ref="B160:M160" si="95">(B134+B135)/2</f>
         <v>0.25893508388037934</v>
       </c>
       <c r="C160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>8462.4465341111736</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>5190.0891053245869</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.81666666666666665</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>34951.193515445499</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>7792.043967934289</v>
       </c>
       <c r="H160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>15950.616598569773</v>
       </c>
       <c r="I160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>545.86322007829972</v>
       </c>
       <c r="J160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>5.3483009708737868</v>
       </c>
       <c r="K160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1323.0465402610193</v>
       </c>
       <c r="L160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>72668.254940791754</v>
       </c>
       <c r="M160" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>23.774319066147864</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1901</v>
       </c>
       <c r="B161" s="5">
-        <f t="shared" ref="B161:M161" si="94">(B135+B136)/2</f>
+        <f t="shared" ref="B161:M161" si="96">(B135+B136)/2</f>
         <v>0</v>
       </c>
       <c r="C161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>8966.4817598206555</v>
       </c>
       <c r="D161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>6697.7268885579742</v>
       </c>
       <c r="E161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>35342.0312782369</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>7660.6944674801562</v>
       </c>
       <c r="H161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>20070.754266407275</v>
       </c>
       <c r="I161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>657.13533801733786</v>
       </c>
       <c r="J161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>5.3483009708737868</v>
       </c>
       <c r="K161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1262.4910120659936</v>
       </c>
       <c r="L161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>79503.968181910517</v>
       </c>
       <c r="M161" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>5.4863813229571985</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1902</v>
       </c>
       <c r="B162" s="5">
-        <f t="shared" ref="B162:M162" si="95">(B136+B137)/2</f>
+        <f t="shared" ref="B162:M162" si="97">(B136+B137)/2</f>
         <v>0</v>
       </c>
       <c r="C162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>12282.8001604932</v>
       </c>
       <c r="D162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>8983.9724715257362</v>
       </c>
       <c r="E162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>40036.297054326715</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>9951.1523713620027</v>
       </c>
       <c r="H162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>26626.194716343638</v>
       </c>
       <c r="I162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1529.9166404502237</v>
       </c>
       <c r="J162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>10.696601941747574</v>
       </c>
       <c r="K162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1512.9706968726914</v>
       </c>
       <c r="L162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>100488.28692137387</v>
       </c>
       <c r="M162" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>5.2577821011673151</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1903</v>
       </c>
       <c r="B163" s="5">
-        <f t="shared" ref="B163:M163" si="96">(B137+B138)/2</f>
+        <f t="shared" ref="B163:M163" si="98">(B137+B138)/2</f>
         <v>4.4018964259664486</v>
       </c>
       <c r="C163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>10861.036868854131</v>
       </c>
       <c r="D163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>8316.3245462228842</v>
       </c>
       <c r="E163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1.2250000000000001</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>58617.707242701792</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>11065.583536705761</v>
       </c>
       <c r="H163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>26161.187542281863</v>
       </c>
       <c r="I163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>2241.0384507829976</v>
       </c>
       <c r="J163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>87.801274271844662</v>
       </c>
       <c r="K163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1120.2772716079783</v>
       </c>
       <c r="L163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>116089.06869884022</v>
       </c>
       <c r="M163" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>34.747081712062261</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1904</v>
       </c>
       <c r="B164" s="5">
-        <f t="shared" ref="B164:M164" si="97">(B138+B139)/2</f>
+        <f t="shared" ref="B164:M164" si="99">(B138+B139)/2</f>
         <v>6.9912472647702417</v>
       </c>
       <c r="C164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>10068.658862791053</v>
       </c>
       <c r="D164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>6539.5500462832533</v>
       </c>
       <c r="E164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>3.2666666666666666</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>79539.931385232339</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>12382.74980057655</v>
       </c>
       <c r="H164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>28945.42706497934</v>
       </c>
       <c r="I164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>2154.9600199244969</v>
       </c>
       <c r="J164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>156.43780339805824</v>
       </c>
       <c r="K164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>716.11499630632852</v>
       </c>
       <c r="L164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>136234.60909857211</v>
       </c>
       <c r="M164" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>50.063229571984444</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1905</v>
       </c>
       <c r="B165" s="5">
-        <f t="shared" ref="B165:M165" si="98">(B139+B140)/2</f>
+        <f t="shared" ref="B165:M165" si="100">(B139+B140)/2</f>
         <v>36.250911743253106</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>11342.486498191269</v>
       </c>
       <c r="D165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>8027.3567030224976</v>
       </c>
       <c r="E165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="F165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>101862.150436157</v>
       </c>
       <c r="G165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>12786.588326817517</v>
       </c>
       <c r="H165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>33888.213929986967</v>
       </c>
       <c r="I165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>2567.3566834451904</v>
       </c>
       <c r="J165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>194.76729368932038</v>
       </c>
       <c r="K165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>746.39276040384141</v>
       </c>
       <c r="L165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>165345.83135803221</v>
       </c>
       <c r="M165" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>56.92120622568094</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1906</v>
       </c>
       <c r="B166" s="5">
-        <f t="shared" ref="B166:M166" si="99">(B140+B141)/2</f>
+        <f t="shared" ref="B166:M166" si="101">(B140+B141)/2</f>
         <v>121.95842450765866</v>
       </c>
       <c r="C166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>10454.119707545728</v>
       </c>
       <c r="D166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>11218.27938986598</v>
       </c>
       <c r="E166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>24.908333333333331</v>
       </c>
       <c r="F166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>112414.30196234793</v>
       </c>
       <c r="G166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>15708.094917663784</v>
       </c>
       <c r="H166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>43281.93919820209</v>
       </c>
       <c r="I166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>6408.494188688479</v>
       </c>
       <c r="J166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>182.28792475728153</v>
       </c>
       <c r="K166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1079.4481654764836</v>
       </c>
       <c r="L166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>195910.88103507808</v>
       </c>
       <c r="M166" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>95.097276264591443</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1907</v>
       </c>
       <c r="B167" s="5">
-        <f t="shared" ref="B167:M167" si="100">(B141+B142)/2</f>
+        <f t="shared" ref="B167:M167" si="102">(B141+B142)/2</f>
         <v>114.79686360320935</v>
       </c>
       <c r="C167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>6858.5411614103023</v>
       </c>
       <c r="D167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>11165.347265263412</v>
       </c>
       <c r="E167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>27.283333333333331</v>
       </c>
       <c r="F167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>87065.626650469145</v>
       </c>
       <c r="G167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>15114.846135923864</v>
       </c>
       <c r="H167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>36402.819486540509</v>
       </c>
       <c r="I167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>9668.2911510766226</v>
       </c>
       <c r="J167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>60.353762135922324</v>
       </c>
       <c r="K167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>842.5956660920956</v>
       </c>
       <c r="L167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>166354.68682337052</v>
       </c>
       <c r="M167" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>42.921206225680933</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1908</v>
       </c>
       <c r="B168" s="5">
-        <f t="shared" ref="B168:M168" si="101">(B142+B143)/2</f>
+        <f t="shared" ref="B168:M168" si="103">(B142+B143)/2</f>
         <v>51</v>
       </c>
       <c r="C168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>6555</v>
       </c>
       <c r="D168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>8522</v>
       </c>
       <c r="E168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>10</v>
       </c>
       <c r="F168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>50850</v>
       </c>
       <c r="G168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>11319.5</v>
       </c>
       <c r="H168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>24554.5</v>
       </c>
       <c r="I168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>7484</v>
       </c>
       <c r="J168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>13.5</v>
       </c>
       <c r="K168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>468</v>
       </c>
       <c r="L168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>109843.5</v>
       </c>
       <c r="M168" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1909</v>
       </c>
       <c r="B169" s="5">
-        <f t="shared" ref="B169:M169" si="102">(B143+B144)/2</f>
+        <f t="shared" ref="B169:M169" si="104">(B143+B144)/2</f>
         <v>48.5</v>
       </c>
       <c r="C169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>12237</v>
       </c>
       <c r="D169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>8478</v>
       </c>
       <c r="E169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1.5</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>45845</v>
       </c>
       <c r="G169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>16281</v>
       </c>
       <c r="H169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>43139.5</v>
       </c>
       <c r="I169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>7912.5</v>
       </c>
       <c r="J169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>52</v>
       </c>
       <c r="K169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>963</v>
       </c>
       <c r="L169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>135091.5</v>
       </c>
       <c r="M169" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>133.5</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1910</v>
       </c>
       <c r="B170" s="5">
-        <f t="shared" ref="B170:M170" si="103">(B144+B145)/2</f>
+        <f t="shared" ref="B170:M170" si="105">(B144+B145)/2</f>
         <v>63.358132749817656</v>
       </c>
       <c r="C170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>9515</v>
       </c>
       <c r="D170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>8901.6776069545631</v>
       </c>
       <c r="E170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>11.841666666666667</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>58909.925156262107</v>
       </c>
       <c r="G170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>16845.5</v>
       </c>
       <c r="H170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>43043.809163077087</v>
       </c>
       <c r="I170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>12144</v>
       </c>
       <c r="J170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>119.35558252427184</v>
       </c>
       <c r="K170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1022.8904210785521</v>
       </c>
       <c r="L170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>150549</v>
       </c>
       <c r="M170" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>203.39785992217901</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1911</v>
       </c>
       <c r="B171" s="5">
-        <f t="shared" ref="B171:M171" si="104">(B145+B146)/2</f>
+        <f t="shared" ref="B171:M171" si="106">(B145+B146)/2</f>
         <v>155.35813274981766</v>
       </c>
       <c r="C171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>4001</v>
       </c>
       <c r="D171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>9401.1776069545631</v>
       </c>
       <c r="E171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>14.841666666666667</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>57615.925156262107</v>
       </c>
       <c r="G171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>11712</v>
       </c>
       <c r="H171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>32850.309163077087</v>
       </c>
       <c r="I171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>13352.5</v>
       </c>
       <c r="J171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>212.85558252427182</v>
       </c>
       <c r="K171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>512.39042107855209</v>
       </c>
       <c r="L171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>129691</v>
       </c>
       <c r="M171" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>94.397859922178995</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1912</v>
       </c>
       <c r="B172" s="5">
-        <f t="shared" ref="B172:M172" si="105">(B146+B147)/2</f>
+        <f t="shared" ref="B172:M172" si="107">(B146+B147)/2</f>
         <v>351.37199124726476</v>
       </c>
       <c r="C172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>5691</v>
       </c>
       <c r="D172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>13687.533947760294</v>
       </c>
       <c r="E172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>15.25</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>61623.065380522239</v>
       </c>
       <c r="G172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>15120.5</v>
       </c>
       <c r="H172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>59021.290148182408</v>
       </c>
       <c r="I172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>28053.5</v>
       </c>
       <c r="J172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>604.17293689320388</v>
       </c>
       <c r="K172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>586.70856931790195</v>
       </c>
       <c r="L172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>195915.5</v>
       </c>
       <c r="M172" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>85.711089494163431</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1913</v>
       </c>
       <c r="B173" s="5">
-        <f t="shared" ref="B173:M173" si="106">(B147+B148)/2</f>
+        <f t="shared" ref="B173:M173" si="108">(B147+B148)/2</f>
         <v>642.37199124726476</v>
       </c>
       <c r="C173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>8409.5</v>
       </c>
       <c r="D173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>12970.533947760294</v>
       </c>
       <c r="E173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>41.25</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>83884.565380522239</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>17962.5</v>
       </c>
       <c r="H173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>64499.290148182408</v>
       </c>
       <c r="I173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>33841.5</v>
       </c>
       <c r="J173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1716.6729368932038</v>
       </c>
       <c r="K173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>766.70856931790195</v>
       </c>
       <c r="L173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>236163</v>
       </c>
       <c r="M173" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>352.71108949416345</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1914</v>
       </c>
       <c r="B174" s="5">
-        <f t="shared" ref="B174:M174" si="107">(B148+B149)/2</f>
+        <f t="shared" ref="B174:M174" si="109">(B148+B149)/2</f>
         <v>319</v>
       </c>
       <c r="C174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>4819.5</v>
       </c>
       <c r="D174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>4908</v>
       </c>
       <c r="E174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>35</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>56043.5</v>
       </c>
       <c r="G174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8290.5</v>
       </c>
       <c r="H174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>23645.5</v>
       </c>
       <c r="I174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8033.5</v>
       </c>
       <c r="J174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>1297</v>
       </c>
       <c r="K174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>401.5</v>
       </c>
       <c r="L174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>108049.5</v>
       </c>
       <c r="M174" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>256.5</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1915</v>
       </c>
       <c r="B175" s="5">
-        <f t="shared" ref="B175:M175" si="108">(B149+B150)/2</f>
+        <f t="shared" ref="B175:M175" si="110">(B149+B150)/2</f>
         <v>-243</v>
       </c>
       <c r="C175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2189</v>
       </c>
       <c r="D175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>390.5</v>
       </c>
       <c r="E175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>7</v>
       </c>
       <c r="F175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>7858</v>
       </c>
       <c r="G175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>681.5</v>
       </c>
       <c r="H175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>-80</v>
       </c>
       <c r="I175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>-5775.5</v>
       </c>
       <c r="J175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>60</v>
       </c>
       <c r="K175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>172</v>
       </c>
       <c r="L175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>5236.5</v>
       </c>
       <c r="M175" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>-23</v>
       </c>
     </row>
@@ -10358,51 +10379,51 @@
         <v>1916</v>
       </c>
       <c r="B176" s="5">
-        <f t="shared" ref="B176:M176" si="109">(B150+B151)/2</f>
+        <f t="shared" ref="B176:M176" si="111">(B150+B151)/2</f>
         <v>-128.32968636032092</v>
       </c>
       <c r="C176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>2972</v>
       </c>
       <c r="D176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>22.585382541151848</v>
       </c>
       <c r="E176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>5.4916666666666671</v>
       </c>
       <c r="F176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>4229.8384727477169</v>
       </c>
       <c r="G176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>72.5</v>
       </c>
       <c r="H176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>144.5</v>
       </c>
       <c r="I176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-4233.5</v>
       </c>
       <c r="J176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>4.1198422330097086</v>
       </c>
       <c r="K176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>336.73307067224823</v>
       </c>
       <c r="L176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>4676</v>
       </c>
       <c r="M176" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8.5175097276264609</v>
       </c>
     </row>
@@ -10415,47 +10436,47 @@
         <v>1544.7457308062417</v>
       </c>
       <c r="C177" s="5">
-        <f t="shared" ref="C177:M177" si="110">SUM(C156:C176)</f>
+        <f t="shared" ref="C177:M177" si="112">SUM(C156:C176)</f>
         <v>153159.81224632397</v>
       </c>
       <c r="D177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>146940.60162951</v>
       </c>
       <c r="E177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>210.41151055158508</v>
       </c>
       <c r="F177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1052144.1786561161</v>
       </c>
       <c r="G177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>208615.7167978205</v>
       </c>
       <c r="H177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>558060.77822237462</v>
       </c>
       <c r="I177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>128726.167598578</v>
       </c>
       <c r="J177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>4822.5382204803391</v>
       </c>
       <c r="K177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>16981.002228871173</v>
       </c>
       <c r="L177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>2270430.4760272582</v>
       </c>
       <c r="M177" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1620.5916567592556</v>
       </c>
     </row>
@@ -10468,47 +10489,47 @@
         <v>6.8037570280909843E-2</v>
       </c>
       <c r="C178" s="28">
-        <f t="shared" ref="C178:M178" si="111">100*C177/$L177</f>
+        <f t="shared" ref="C178:M178" si="113">100*C177/$L177</f>
         <v>6.7458490301063581</v>
       </c>
       <c r="D178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>6.471926939891282</v>
       </c>
       <c r="E178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>9.2674720839617079E-3</v>
       </c>
       <c r="F178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>46.341175815131386</v>
       </c>
       <c r="G178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>9.1883772262804975</v>
       </c>
       <c r="H178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>24.57951406637455</v>
       </c>
       <c r="I178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>5.6696811004677752</v>
       </c>
       <c r="J178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0.21240633753818769</v>
       </c>
       <c r="K178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0.74791993889124064</v>
       </c>
       <c r="L178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>100</v>
       </c>
       <c r="M178" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>7.1378166998309761E-2</v>
       </c>
     </row>
@@ -10520,9 +10541,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F1B77F-63AA-4843-B8D8-CA14FF4F0797}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10533,7 +10556,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -10992,7 +11015,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>128</v>
       </c>
@@ -11037,7 +11060,7 @@
         <v>1395970</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>129</v>
       </c>
@@ -11082,8 +11105,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -11095,7 +11120,10 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -11107,7 +11135,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -11119,93 +11147,260 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="5">
+        <v>258858</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6456</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1978</v>
+      </c>
+      <c r="F25" s="5">
+        <v>9</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <f>SUM(B25:H25)</f>
+        <v>267301</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="5">
+        <v>12995</v>
+      </c>
+      <c r="C26" s="5">
+        <v>678735</v>
+      </c>
+      <c r="D26" s="5">
+        <v>19739</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1861</v>
+      </c>
+      <c r="F26" s="5">
+        <v>18</v>
+      </c>
+      <c r="G26" s="5">
+        <v>527</v>
+      </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:I29" si="12">SUM(B26:H26)</f>
+        <v>713875</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="5">
+        <v>26337</v>
+      </c>
+      <c r="C27" s="5">
+        <v>938571</v>
+      </c>
+      <c r="D27" s="5">
+        <v>64754</v>
+      </c>
+      <c r="E27" s="5">
+        <v>15360</v>
+      </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5">
+        <v>2231</v>
+      </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5">
+        <f t="shared" si="12"/>
+        <v>1047253</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="5">
+        <v>58290</v>
+      </c>
+      <c r="C28" s="5">
+        <v>894003</v>
+      </c>
+      <c r="D28" s="5">
+        <v>55308</v>
+      </c>
+      <c r="E28" s="5">
+        <v>35055</v>
+      </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="G28" s="5">
+        <v>5649</v>
+      </c>
+      <c r="H28" s="5">
+        <v>404</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="12"/>
+        <v>1048709</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="14">
+        <f>SUM(B25:B28)</f>
+        <v>97622</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" ref="C29:H29" si="13">SUM(C25:C28)</f>
+        <v>2770167</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="13"/>
+        <v>146257</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="13"/>
+        <v>54254</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="13"/>
+        <v>8407</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="13"/>
+        <v>404</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="12"/>
+        <v>3077138</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="25">
+        <f>100*B29/$I29</f>
+        <v>3.1724934013359167</v>
+      </c>
+      <c r="C30" s="25">
+        <f t="shared" ref="C30:I30" si="14">100*C29/$I29</f>
+        <v>90.024139313868929</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="14"/>
+        <v>4.7530205015179687</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="14"/>
+        <v>1.76313184524061</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" si="14"/>
+        <v>8.7743871090604326E-4</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="14"/>
+        <v>0.27320841639211502</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="14"/>
+        <v>1.3129082933557091E-2</v>
+      </c>
+      <c r="I30" s="25">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -11216,6 +11411,11 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A704C1-11BD-4D98-BD9B-533EF8386A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683EB772-3809-4169-8342-3FEC35168E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="8055" windowWidth="26055" windowHeight="17910" activeTab="3" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="1950" yWindow="3870" windowWidth="26055" windowHeight="17910" activeTab="4" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="161">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -519,6 +519,15 @@
   </si>
   <si>
     <t>Гавайи</t>
+  </si>
+  <si>
+    <t>Для 1908-1914 гг:</t>
+  </si>
+  <si>
+    <t>Мы сохраняем для армян коэффициент 1908-1914 гг., для остальных принимаем среднее значение между величинами для 1908-1914 гг. и 1909-1917 гг.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как видно, для армян повышенное возвращение в 1915-1917 гг. было вызвано специфическими временными причинами, для остальных коэффициенты малоизменны (русское возвращение было ускорено войной). </t>
   </si>
 </sst>
 </file>
@@ -2196,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
-  <dimension ref="A1:AI178"/>
+  <dimension ref="A1:AI191"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H180" sqref="H180"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6877,15 +6886,52 @@
         <v>54.280155642023345</v>
       </c>
     </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+    </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>148</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="B103" s="11" t="s">
         <v>70</v>
       </c>
@@ -6924,3613 +6970,3970 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>1896</v>
+      <c r="A104" t="s">
+        <v>144</v>
       </c>
       <c r="B104" s="5">
-        <f>B11* (B$99/100)</f>
-        <v>0.10604879183560069</v>
+        <f>SUM(B83:B89)</f>
+        <v>1286</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" ref="C104:M104" si="45">C11* (C$99/100)</f>
-        <v>1550.8980122750347</v>
+        <f t="shared" ref="C104:M104" si="45">SUM(C83:C89)</f>
+        <v>69279</v>
       </c>
       <c r="D104" s="5">
         <f t="shared" si="45"/>
-        <v>200.48009029625982</v>
+        <v>48726</v>
       </c>
       <c r="E104" s="5">
         <f t="shared" si="45"/>
-        <v>0.12097744551230667</v>
+        <v>104</v>
       </c>
       <c r="F104" s="5">
         <f t="shared" si="45"/>
-        <v>1389.8888491231778</v>
+        <v>331979</v>
       </c>
       <c r="G104" s="5">
         <f t="shared" si="45"/>
-        <v>1050.7945965240046</v>
+        <v>124188</v>
       </c>
       <c r="H104" s="5">
         <f t="shared" si="45"/>
-        <v>3592.8346052321458</v>
+        <v>256874</v>
       </c>
       <c r="I104" s="5">
         <f t="shared" si="45"/>
-        <v>306.03392072051736</v>
+        <v>167586</v>
       </c>
       <c r="J104" s="5">
         <f t="shared" si="45"/>
-        <v>0.97953825310549258</v>
+        <v>3136</v>
       </c>
       <c r="K104" s="5">
         <f t="shared" si="45"/>
-        <v>70.692360943270657</v>
+        <v>3673</v>
       </c>
       <c r="L104" s="5">
         <f t="shared" si="45"/>
-        <v>9094.1225194483359</v>
+        <v>1331779</v>
       </c>
       <c r="M104" s="5">
         <f t="shared" si="45"/>
-        <v>38.922471097015276</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <f>A104+1</f>
-        <v>1897</v>
+      <c r="A105" t="s">
+        <v>145</v>
       </c>
       <c r="B105" s="5">
-        <f t="shared" ref="B105:M105" si="46">B12* (B$99/100)</f>
-        <v>6.0983750729306903E-2</v>
+        <f>SUM(B69:B75)</f>
+        <v>90</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="46"/>
-        <v>891.84964911036161</v>
+        <f t="shared" ref="C105:M105" si="46">SUM(C69:C75)</f>
+        <v>17041</v>
       </c>
       <c r="D105" s="5">
         <f t="shared" si="46"/>
-        <v>115.28681884249205</v>
+        <v>2579</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" si="46"/>
-        <v>6.9568528347101158E-2</v>
+        <v>20</v>
       </c>
       <c r="F105" s="5">
         <f t="shared" si="46"/>
-        <v>799.26073318938893</v>
+        <v>21345</v>
       </c>
       <c r="G105" s="5">
         <f t="shared" si="46"/>
-        <v>604.26332665310315</v>
+        <v>22289</v>
       </c>
       <c r="H105" s="5">
         <f t="shared" si="46"/>
-        <v>2066.0728536800862</v>
+        <v>66793</v>
       </c>
       <c r="I105" s="5">
         <f t="shared" si="46"/>
-        <v>175.98594017803114</v>
+        <v>47685</v>
       </c>
       <c r="J105" s="5">
         <f t="shared" si="46"/>
-        <v>0.56328710231616885</v>
+        <v>318</v>
       </c>
       <c r="K105" s="5">
         <f t="shared" si="46"/>
-        <v>40.651904124600996</v>
+        <v>291</v>
       </c>
       <c r="L105" s="5">
         <f t="shared" si="46"/>
-        <v>5229.60885483314</v>
+        <v>210954</v>
       </c>
       <c r="M105" s="5">
         <f t="shared" si="46"/>
-        <v>22.382511239060051</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <f t="shared" ref="A106:A124" si="47">A105+1</f>
-        <v>1898</v>
-      </c>
-      <c r="B106" s="5">
-        <f t="shared" ref="B106:M106" si="48">B13* (B$99/100)</f>
-        <v>7.028559830227378E-2</v>
-      </c>
-      <c r="C106" s="5">
+      <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="28">
+        <f>100*B105/B104</f>
+        <v>6.9984447900466566</v>
+      </c>
+      <c r="C106" s="28">
+        <f t="shared" ref="C106:M106" si="47">100*C105/C104</f>
+        <v>24.597641420921203</v>
+      </c>
+      <c r="D106" s="28">
+        <f t="shared" si="47"/>
+        <v>5.2928621269958542</v>
+      </c>
+      <c r="E106" s="28">
+        <f t="shared" si="47"/>
+        <v>19.23076923076923</v>
+      </c>
+      <c r="F106" s="28">
+        <f t="shared" si="47"/>
+        <v>6.4296235605264185</v>
+      </c>
+      <c r="G106" s="28">
+        <f t="shared" si="47"/>
+        <v>17.947788836280477</v>
+      </c>
+      <c r="H106" s="28">
+        <f t="shared" si="47"/>
+        <v>26.002242344495745</v>
+      </c>
+      <c r="I106" s="28">
+        <f t="shared" si="47"/>
+        <v>28.454047474132683</v>
+      </c>
+      <c r="J106" s="28">
+        <f t="shared" si="47"/>
+        <v>10.14030612244898</v>
+      </c>
+      <c r="K106" s="28">
+        <f t="shared" si="47"/>
+        <v>7.9226790089844812</v>
+      </c>
+      <c r="L106" s="28">
+        <f t="shared" si="47"/>
+        <v>15.840015498066871</v>
+      </c>
+      <c r="M106" s="28">
+        <f t="shared" si="47"/>
+        <v>47.149894440534837</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="28"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="28">
+        <f>B106</f>
+        <v>6.9984447900466566</v>
+      </c>
+      <c r="C112" s="28">
+        <f>(C106+C99)/2</f>
+        <v>24.656160089886903</v>
+      </c>
+      <c r="D112" s="28">
+        <f t="shared" ref="D112:M112" si="48">(D106+D99)/2</f>
+        <v>5.4294632202975404</v>
+      </c>
+      <c r="E112" s="28">
         <f t="shared" si="48"/>
-        <v>1027.8834186771435</v>
-      </c>
-      <c r="D106" s="5">
+        <v>18.782051282051281</v>
+      </c>
+      <c r="F112" s="28">
         <f t="shared" si="48"/>
-        <v>132.87150989905174</v>
-      </c>
-      <c r="E106" s="5">
+        <v>6.4078940806937723</v>
+      </c>
+      <c r="G112" s="28">
         <f t="shared" si="48"/>
-        <v>8.0179811497472844E-2</v>
-      </c>
-      <c r="F106" s="5">
+        <v>18.182124090769864</v>
+      </c>
+      <c r="H112" s="28">
         <f t="shared" si="48"/>
-        <v>921.17192137107338</v>
-      </c>
-      <c r="G106" s="5">
+        <v>26.72911071501132</v>
+      </c>
+      <c r="I112" s="28">
         <f t="shared" si="48"/>
-        <v>696.43157296859113</v>
-      </c>
-      <c r="H106" s="5">
+        <v>34.234539117379541</v>
+      </c>
+      <c r="J112" s="28">
         <f t="shared" si="48"/>
-        <v>2381.210813050322</v>
-      </c>
-      <c r="I106" s="5">
+        <v>10.500978303942937</v>
+      </c>
+      <c r="K112" s="28">
         <f t="shared" si="48"/>
-        <v>202.82906430444905</v>
-      </c>
-      <c r="J106" s="5">
+        <v>8.0859393567453814</v>
+      </c>
+      <c r="L112" s="28">
         <f t="shared" si="48"/>
-        <v>0.6492052477713518</v>
-      </c>
-      <c r="K106" s="5">
+        <v>16.641546148074728</v>
+      </c>
+      <c r="M112" s="28">
         <f t="shared" si="48"/>
-        <v>46.852536443796502</v>
-      </c>
-      <c r="L106" s="5">
-        <f t="shared" si="48"/>
-        <v>6027.2807568094568</v>
-      </c>
-      <c r="M106" s="5">
-        <f t="shared" si="48"/>
-        <v>25.796514237498997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <f t="shared" si="47"/>
-        <v>1899</v>
-      </c>
-      <c r="B107" s="5">
-        <f t="shared" ref="B107:M107" si="49">B14* (B$99/100)</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="5">
-        <f t="shared" si="49"/>
-        <v>1494.7437713354052</v>
-      </c>
-      <c r="D107" s="5">
-        <f t="shared" si="49"/>
-        <v>299.62124200104643</v>
-      </c>
-      <c r="E107" s="5">
-        <f t="shared" si="49"/>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="F107" s="5">
-        <f t="shared" si="49"/>
-        <v>1550.2414568590386</v>
-      </c>
-      <c r="G107" s="5">
-        <f t="shared" si="49"/>
-        <v>1259.3174900288275</v>
-      </c>
-      <c r="H107" s="5">
-        <f t="shared" si="49"/>
-        <v>4260.3442747012077</v>
-      </c>
-      <c r="I107" s="5">
-        <f t="shared" si="49"/>
-        <v>663.04905970357936</v>
-      </c>
-      <c r="J107" s="5">
-        <f t="shared" si="49"/>
-        <v>3.1498786407766994</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="49"/>
-        <v>83.481901009603547</v>
-      </c>
-      <c r="L107" s="5">
-        <f t="shared" si="49"/>
-        <v>10637.137093006722</v>
-      </c>
-      <c r="M107" s="5">
-        <f t="shared" si="49"/>
-        <v>120.50194552529182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <f t="shared" si="47"/>
-        <v>1900</v>
-      </c>
-      <c r="B108" s="5">
-        <f t="shared" ref="B108:M108" si="50">B15* (B$99/100)</f>
-        <v>0.48212983223924138</v>
-      </c>
-      <c r="C108" s="5">
-        <f t="shared" si="50"/>
-        <v>3093.0420466704027</v>
-      </c>
-      <c r="D108" s="5">
-        <f t="shared" si="50"/>
-        <v>297.72878013442266</v>
-      </c>
-      <c r="E108" s="5">
-        <f t="shared" si="50"/>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="F108" s="5">
-        <f t="shared" si="50"/>
-        <v>2363.5833804247118</v>
-      </c>
-      <c r="G108" s="5">
-        <f t="shared" si="50"/>
-        <v>1896.3428187813449</v>
-      </c>
-      <c r="H108" s="5">
-        <f t="shared" si="50"/>
-        <v>6177.5952942435515</v>
-      </c>
-      <c r="I108" s="5">
-        <f t="shared" si="50"/>
-        <v>466.17510836129753</v>
-      </c>
-      <c r="J108" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="50"/>
-        <v>153.35262250677175</v>
-      </c>
-      <c r="L108" s="5">
-        <f t="shared" si="50"/>
-        <v>15836.046132675237</v>
-      </c>
-      <c r="M108" s="5">
-        <f t="shared" si="50"/>
-        <v>47.766536964980538</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <f t="shared" si="47"/>
-        <v>1901</v>
-      </c>
-      <c r="B109" s="5">
-        <f t="shared" ref="B109:M109" si="51">B16* (B$99/100)</f>
-        <v>0</v>
-      </c>
-      <c r="C109" s="5">
-        <f t="shared" si="51"/>
-        <v>2463.0648851072501</v>
-      </c>
-      <c r="D109" s="5">
-        <f t="shared" si="51"/>
-        <v>314.09300921640443</v>
-      </c>
-      <c r="E109" s="5">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="F109" s="5">
-        <f t="shared" si="51"/>
-        <v>2405.0295886843005</v>
-      </c>
-      <c r="G109" s="5">
-        <f t="shared" si="51"/>
-        <v>1621.5692453500769</v>
-      </c>
-      <c r="H109" s="5">
-        <f t="shared" si="51"/>
-        <v>5896.1715086169006</v>
-      </c>
-      <c r="I109" s="5">
-        <f t="shared" si="51"/>
-        <v>262.09845148210292</v>
-      </c>
-      <c r="J109" s="5">
-        <f t="shared" si="51"/>
-        <v>1.3033980582524274</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="51"/>
-        <v>84.554296971189373</v>
-      </c>
-      <c r="L109" s="5">
-        <f t="shared" si="51"/>
-        <v>14871.443985741269</v>
-      </c>
-      <c r="M109" s="5">
-        <f t="shared" si="51"/>
-        <v>8.6848249027237348</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <f t="shared" si="47"/>
-        <v>1902</v>
-      </c>
-      <c r="B110" s="5">
-        <f t="shared" ref="B110:M110" si="52">B17* (B$99/100)</f>
-        <v>0</v>
-      </c>
-      <c r="C110" s="5">
-        <f t="shared" si="52"/>
-        <v>3423.9715952514389</v>
-      </c>
-      <c r="D110" s="5">
-        <f t="shared" si="52"/>
-        <v>475.45321366764603</v>
-      </c>
-      <c r="E110" s="5">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="5">
-        <f t="shared" si="52"/>
-        <v>2416.907854841902</v>
-      </c>
-      <c r="G110" s="5">
-        <f t="shared" si="52"/>
-        <v>1837.0418196896103</v>
-      </c>
-      <c r="H110" s="5">
-        <f t="shared" si="52"/>
-        <v>9296.3199585685506</v>
-      </c>
-      <c r="I110" s="5">
-        <f t="shared" si="52"/>
-        <v>614.63087248322142</v>
-      </c>
-      <c r="J110" s="5">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="52"/>
-        <v>142.46367889682344</v>
-      </c>
-      <c r="L110" s="5">
-        <f t="shared" si="52"/>
-        <v>18724.619650437711</v>
-      </c>
-      <c r="M110" s="5">
-        <f t="shared" si="52"/>
-        <v>4.3424124513618674</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <f t="shared" si="47"/>
-        <v>1903</v>
-      </c>
-      <c r="B111" s="5">
-        <f t="shared" ref="B111:M111" si="53">B18* (B$99/100)</f>
-        <v>0</v>
-      </c>
-      <c r="C111" s="5">
-        <f t="shared" si="53"/>
-        <v>4640.4280837621636</v>
-      </c>
-      <c r="D111" s="5">
-        <f t="shared" si="53"/>
-        <v>583.60184328087905</v>
-      </c>
-      <c r="E111" s="5">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="5">
-        <f t="shared" si="53"/>
-        <v>3045.4980365046631</v>
-      </c>
-      <c r="G111" s="5">
-        <f t="shared" si="53"/>
-        <v>2655.6534375863839</v>
-      </c>
-      <c r="H111" s="5">
-        <f t="shared" si="53"/>
-        <v>10858.290608744175</v>
-      </c>
-      <c r="I111" s="5">
-        <f t="shared" si="53"/>
-        <v>1426.5358466163311</v>
-      </c>
-      <c r="J111" s="5">
-        <f t="shared" si="53"/>
-        <v>2.6067961165048548</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="53"/>
-        <v>129.59492735779367</v>
-      </c>
-      <c r="L111" s="5">
-        <f t="shared" si="53"/>
-        <v>23738.806506814533</v>
-      </c>
-      <c r="M111" s="5">
-        <f t="shared" si="53"/>
-        <v>8.1420233463035014</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <f t="shared" si="47"/>
-        <v>1904</v>
-      </c>
-      <c r="B112" s="5">
-        <f t="shared" ref="B112:M112" si="54">B19* (B$99/100)</f>
-        <v>8.1962071480671028</v>
-      </c>
-      <c r="C112" s="5">
-        <f t="shared" si="54"/>
-        <v>2490.4981785295763</v>
-      </c>
-      <c r="D112" s="5">
-        <f t="shared" si="54"/>
-        <v>396.74906427335293</v>
-      </c>
-      <c r="E112" s="5">
-        <f t="shared" si="54"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="F112" s="5">
-        <f t="shared" si="54"/>
-        <v>4952.0874780917529</v>
-      </c>
-      <c r="G112" s="5">
-        <f t="shared" si="54"/>
-        <v>2340.1794890020929</v>
-      </c>
-      <c r="H112" s="5">
-        <f t="shared" si="54"/>
-        <v>8944.334306692097</v>
-      </c>
-      <c r="I112" s="5">
-        <f t="shared" si="54"/>
-        <v>1563.3872518176734</v>
-      </c>
-      <c r="J112" s="5">
-        <f t="shared" si="54"/>
-        <v>18.790655339805827</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="54"/>
-        <v>71.850529426249693</v>
-      </c>
-      <c r="L112" s="5">
-        <f t="shared" si="54"/>
-        <v>25317.056095505046</v>
-      </c>
-      <c r="M112" s="5">
-        <f t="shared" si="54"/>
-        <v>74.363813229571974</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <f t="shared" si="47"/>
-        <v>1905</v>
-      </c>
-      <c r="B113" s="5">
-        <f t="shared" ref="B113:M113" si="55">B20* (B$99/100)</f>
-        <v>4.8212983223924137</v>
-      </c>
-      <c r="C113" s="5">
-        <f t="shared" si="55"/>
-        <v>4120.1840958883167</v>
-      </c>
-      <c r="D113" s="5">
-        <f t="shared" si="55"/>
-        <v>374.15084316014008</v>
-      </c>
-      <c r="E113" s="5">
-        <f t="shared" si="55"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F113" s="5">
-        <f t="shared" si="55"/>
-        <v>5900.0497514435783</v>
-      </c>
-      <c r="G113" s="5">
-        <f t="shared" si="55"/>
-        <v>3250.3209098448051</v>
-      </c>
-      <c r="H113" s="5">
-        <f t="shared" si="55"/>
-        <v>12965.81156334922</v>
-      </c>
-      <c r="I113" s="5">
-        <f t="shared" si="55"/>
-        <v>1311.6927083333333</v>
-      </c>
-      <c r="J113" s="5">
-        <f t="shared" si="55"/>
-        <v>19.333737864077673</v>
-      </c>
-      <c r="K113" s="5">
-        <f t="shared" si="55"/>
-        <v>56.919477961093328</v>
-      </c>
-      <c r="L113" s="5">
-        <f t="shared" si="55"/>
-        <v>32251.725707350757</v>
-      </c>
-      <c r="M113" s="5">
-        <f t="shared" si="55"/>
-        <v>44.509727626459139</v>
+        <v>50.715025041279091</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <f t="shared" si="47"/>
-        <v>1906</v>
-      </c>
-      <c r="B114" s="5">
-        <f t="shared" ref="B114:M114" si="56">B21* (B$99/100)</f>
-        <v>62.67687819110138</v>
-      </c>
-      <c r="C114" s="5">
-        <f t="shared" si="56"/>
-        <v>3326.8429077291485</v>
-      </c>
-      <c r="D114" s="5">
-        <f t="shared" si="56"/>
-        <v>572.13575079486463</v>
-      </c>
-      <c r="E114" s="5">
-        <f t="shared" si="56"/>
-        <v>2.75</v>
-      </c>
-      <c r="F114" s="5">
-        <f t="shared" si="56"/>
-        <v>7997.6493762424243</v>
-      </c>
-      <c r="G114" s="5">
-        <f t="shared" si="56"/>
-        <v>2522.5024365201593</v>
-      </c>
-      <c r="H114" s="5">
-        <f t="shared" si="56"/>
-        <v>12685.760576676847</v>
-      </c>
-      <c r="I114" s="5">
-        <f t="shared" si="56"/>
-        <v>2113.5939247762863</v>
-      </c>
-      <c r="J114" s="5">
-        <f t="shared" si="56"/>
-        <v>28.131674757281555</v>
-      </c>
-      <c r="K114" s="5">
-        <f t="shared" si="56"/>
-        <v>77.295001231223836</v>
-      </c>
-      <c r="L114" s="5">
-        <f t="shared" si="56"/>
-        <v>37618.611576584808</v>
-      </c>
-      <c r="M114" s="5">
-        <f t="shared" si="56"/>
-        <v>90.647859922178981</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <f t="shared" si="47"/>
-        <v>1907</v>
-      </c>
-      <c r="B115" s="5">
-        <f t="shared" ref="B115:M115" si="57">B22* (B$99/100)</f>
-        <v>164.40627279358131</v>
-      </c>
-      <c r="C115" s="5">
-        <f t="shared" si="57"/>
-        <v>3536.9176771793955</v>
-      </c>
-      <c r="D115" s="5">
-        <f t="shared" si="57"/>
-        <v>750.30546947317589</v>
-      </c>
-      <c r="E115" s="5">
-        <f t="shared" si="57"/>
-        <v>8.4333333333333336</v>
-      </c>
-      <c r="F115" s="5">
-        <f t="shared" si="57"/>
-        <v>7339.7466990617104</v>
-      </c>
-      <c r="G115" s="5">
-        <f t="shared" si="57"/>
-        <v>4569.3077281522728</v>
-      </c>
-      <c r="H115" s="5">
-        <f t="shared" si="57"/>
-        <v>20076.361026918974</v>
-      </c>
-      <c r="I115" s="5">
-        <f t="shared" si="57"/>
-        <v>6436.4176978467558</v>
-      </c>
-      <c r="J115" s="5">
-        <f t="shared" si="57"/>
-        <v>16.292475728155342</v>
-      </c>
-      <c r="K115" s="5">
-        <f t="shared" si="57"/>
-        <v>116.80866781580892</v>
-      </c>
-      <c r="L115" s="5">
-        <f t="shared" si="57"/>
-        <v>45167.626353258987</v>
-      </c>
-      <c r="M115" s="5">
-        <f t="shared" si="57"/>
-        <v>135.15758754863813</v>
+      <c r="A114" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <f t="shared" si="47"/>
-        <v>1908</v>
-      </c>
-      <c r="B116" s="5">
-        <v>9</v>
-      </c>
-      <c r="C116" s="5">
-        <v>3360</v>
-      </c>
-      <c r="D116" s="5">
-        <v>408</v>
-      </c>
-      <c r="E116" s="5">
-        <v>7</v>
-      </c>
-      <c r="F116" s="5">
-        <v>5439</v>
-      </c>
-      <c r="G116" s="5">
-        <v>3282</v>
-      </c>
-      <c r="H116" s="5">
-        <v>18187</v>
-      </c>
-      <c r="I116" s="5">
-        <v>6636</v>
-      </c>
-      <c r="J116" s="5">
-        <v>50</v>
-      </c>
-      <c r="K116" s="5">
-        <v>141</v>
-      </c>
-      <c r="L116" s="5">
-        <v>37777</v>
-      </c>
-      <c r="M116" s="5">
-        <f t="shared" ref="M116:M118" si="58">L116-SUM(B116:K116)</f>
-        <v>258</v>
+      <c r="A116" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <f t="shared" si="47"/>
-        <v>1909</v>
+        <v>1896</v>
       </c>
       <c r="B117" s="5">
-        <v>1</v>
+        <f t="shared" ref="B117:M117" si="49">B11* (B$112/100)</f>
+        <v>1.5393708604704653E-2</v>
       </c>
       <c r="C117" s="5">
-        <v>1035</v>
+        <f t="shared" si="49"/>
+        <v>1547.2258428624598</v>
       </c>
       <c r="D117" s="5">
-        <v>338</v>
+        <f t="shared" si="49"/>
+        <v>195.55995319817058</v>
       </c>
       <c r="E117" s="5">
-        <v>2</v>
+        <f t="shared" si="49"/>
+        <v>0.12393843194092957</v>
       </c>
       <c r="F117" s="5">
-        <v>3989</v>
+        <f t="shared" si="49"/>
+        <v>1394.6180666745963</v>
       </c>
       <c r="G117" s="5">
-        <v>1944</v>
+        <f t="shared" si="49"/>
+        <v>1037.4240449659544</v>
       </c>
       <c r="H117" s="5">
-        <v>8421</v>
+        <f t="shared" si="49"/>
+        <v>3497.7180615131242</v>
       </c>
       <c r="I117" s="5">
-        <v>3819</v>
+        <f t="shared" si="49"/>
+        <v>261.82487008008422</v>
       </c>
       <c r="J117" s="5">
-        <v>30</v>
+        <f t="shared" si="49"/>
+        <v>0.947011686440691</v>
       </c>
       <c r="K117" s="5">
-        <v>41</v>
+        <f t="shared" si="49"/>
+        <v>69.293284687990678</v>
       </c>
       <c r="L117" s="5">
-        <v>19707</v>
+        <f t="shared" si="49"/>
+        <v>8676.2364997602399</v>
       </c>
       <c r="M117" s="5">
-        <f t="shared" si="58"/>
-        <v>87</v>
+        <f t="shared" si="49"/>
+        <v>36.366036040349321</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f t="shared" si="47"/>
-        <v>1910</v>
+        <f>A117+1</f>
+        <v>1897</v>
       </c>
       <c r="B118" s="5">
-        <v>4</v>
+        <f t="shared" ref="B118:M118" si="50">B12* (B$112/100)</f>
+        <v>8.8522091774906053E-3</v>
       </c>
       <c r="C118" s="5">
-        <v>692</v>
+        <f t="shared" si="50"/>
+        <v>889.73795448172848</v>
       </c>
       <c r="D118" s="5">
-        <v>503</v>
+        <f t="shared" si="50"/>
+        <v>112.4574757717192</v>
       </c>
       <c r="E118" s="5">
-        <v>3</v>
+        <f t="shared" si="50"/>
+        <v>7.1271254565386855E-2</v>
       </c>
       <c r="F118" s="5">
-        <v>3295</v>
+        <f t="shared" si="50"/>
+        <v>801.9802872673597</v>
       </c>
       <c r="G118" s="5">
-        <v>1765</v>
+        <f t="shared" si="50"/>
+        <v>596.5745414324897</v>
       </c>
       <c r="H118" s="5">
-        <v>6705</v>
+        <f t="shared" si="50"/>
+        <v>2011.3757327417711</v>
       </c>
       <c r="I118" s="5">
-        <v>4223</v>
+        <f t="shared" si="50"/>
+        <v>150.56336178208926</v>
       </c>
       <c r="J118" s="5">
-        <v>38</v>
+        <f t="shared" si="50"/>
+        <v>0.54458257962211065</v>
       </c>
       <c r="K118" s="5">
-        <v>22</v>
+        <f t="shared" si="50"/>
+        <v>39.847360139455432</v>
       </c>
       <c r="L118" s="5">
-        <v>17362</v>
+        <f t="shared" si="50"/>
+        <v>4989.3019506542832</v>
       </c>
       <c r="M118" s="5">
-        <f t="shared" si="58"/>
-        <v>112</v>
+        <f t="shared" si="50"/>
+        <v>20.912423786361277</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f t="shared" si="47"/>
-        <v>1911</v>
+        <f t="shared" ref="A119:A137" si="51">A118+1</f>
+        <v>1898</v>
       </c>
       <c r="B119" s="5">
-        <f>B26*( B$99/100)</f>
-        <v>73.283734500364687</v>
+        <f t="shared" ref="B119:M119" si="52">B13* (B$112/100)</f>
+        <v>1.0202436073480215E-2</v>
       </c>
       <c r="C119" s="5">
-        <v>4219</v>
+        <f t="shared" si="52"/>
+        <v>1025.4496274027433</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" ref="D119:F119" si="59">D26*( D$99/100)</f>
-        <v>488.64478609087621</v>
+        <f t="shared" si="52"/>
+        <v>129.61060731183034</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="59"/>
-        <v>5.3166666666666664</v>
+        <f t="shared" si="52"/>
+        <v>8.2142254436222181E-2</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="59"/>
-        <v>4181.1496874757968</v>
+        <f t="shared" si="52"/>
+        <v>924.30628885748808</v>
       </c>
       <c r="G119" s="5">
-        <v>2430</v>
+        <f t="shared" si="52"/>
+        <v>687.57001783323608</v>
       </c>
       <c r="H119" s="5">
-        <f>H26*( H$99/100)</f>
-        <v>11035.381673845824</v>
+        <f t="shared" si="52"/>
+        <v>2318.1707437763639</v>
       </c>
       <c r="I119" s="5">
-        <v>3838</v>
+        <f t="shared" si="52"/>
+        <v>173.52878166232986</v>
       </c>
       <c r="J119" s="5">
-        <f>J26*( J$99/100)</f>
-        <v>21.288834951456312</v>
+        <f t="shared" si="52"/>
+        <v>0.62764772543485581</v>
       </c>
       <c r="K119" s="5">
-        <f>K26*( K$99/100)</f>
-        <v>60.219157842895839</v>
+        <f t="shared" si="52"/>
+        <v>45.92527541638848</v>
       </c>
       <c r="L119" s="5">
-        <v>27053</v>
+        <f t="shared" si="52"/>
+        <v>5750.3198560057408</v>
       </c>
       <c r="M119" s="5">
-        <f>M26*( M$99/100)</f>
-        <v>237.20428015564201</v>
+        <f t="shared" si="52"/>
+        <v>24.102194440275692</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <f t="shared" si="47"/>
-        <v>1912</v>
+        <f t="shared" si="51"/>
+        <v>1899</v>
       </c>
       <c r="B120" s="5">
-        <v>18</v>
+        <f t="shared" ref="B120:M120" si="53">B14* (B$112/100)</f>
+        <v>0</v>
       </c>
       <c r="C120" s="5">
-        <v>2430</v>
+        <f t="shared" si="53"/>
+        <v>1491.2045622363598</v>
       </c>
       <c r="D120" s="5">
-        <v>519</v>
+        <f t="shared" si="53"/>
+        <v>292.26800514861657</v>
       </c>
       <c r="E120" s="5">
-        <v>3</v>
+        <f t="shared" si="53"/>
+        <v>0.18782051282051282</v>
       </c>
       <c r="F120" s="5">
-        <v>4448</v>
+        <f t="shared" si="53"/>
+        <v>1555.5162880884134</v>
       </c>
       <c r="G120" s="5">
-        <v>4112</v>
+        <f t="shared" si="53"/>
+        <v>1243.2936453268433</v>
       </c>
       <c r="H120" s="5">
-        <v>14701</v>
+        <f t="shared" si="53"/>
+        <v>4147.5561096483061</v>
       </c>
       <c r="I120" s="5">
-        <v>8139</v>
+        <f t="shared" si="53"/>
+        <v>567.26631317497902</v>
       </c>
       <c r="J120" s="5">
-        <v>133</v>
+        <f t="shared" si="53"/>
+        <v>3.0452837081434518</v>
       </c>
       <c r="K120" s="5">
-        <v>59</v>
+        <f t="shared" si="53"/>
+        <v>81.82970629026326</v>
       </c>
       <c r="L120" s="5">
-        <v>34681</v>
+        <f t="shared" si="53"/>
+        <v>10148.34767201893</v>
       </c>
       <c r="M120" s="5">
-        <f t="shared" ref="M120" si="60">L120-SUM(B120:K120)</f>
-        <v>119</v>
+        <f t="shared" si="53"/>
+        <v>112.58735559163959</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <f t="shared" si="47"/>
-        <v>1913</v>
+        <f t="shared" si="51"/>
+        <v>1900</v>
       </c>
       <c r="B121" s="5">
-        <f>B28*( B$99/100)</f>
-        <v>438.25601750547042</v>
+        <f t="shared" ref="B121:M121" si="54">B15* (B$112/100)</f>
+        <v>6.9984447900466568E-2</v>
       </c>
       <c r="C121" s="5">
-        <v>3053</v>
+        <f t="shared" si="54"/>
+        <v>3085.7184352493459</v>
       </c>
       <c r="D121" s="5">
-        <f t="shared" ref="D121:F121" si="61">D28*( D$99/100)</f>
-        <v>993.93210447941408</v>
+        <f t="shared" si="54"/>
+        <v>290.42198765371541</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="61"/>
-        <v>5.5</v>
+        <f t="shared" si="54"/>
+        <v>0.37564102564102564</v>
       </c>
       <c r="F121" s="5">
-        <f t="shared" si="61"/>
-        <v>4727.8692389555181</v>
+        <f t="shared" si="54"/>
+        <v>2371.6256782055721</v>
       </c>
       <c r="G121" s="5">
-        <v>3276</v>
+        <f t="shared" si="54"/>
+        <v>1872.2133176265729</v>
       </c>
       <c r="H121" s="5">
-        <f>H28*( H$99/100)</f>
-        <v>30845.419703635187</v>
+        <f t="shared" si="54"/>
+        <v>6014.0499108775466</v>
       </c>
       <c r="I121" s="5">
-        <v>5327</v>
+        <f t="shared" si="54"/>
+        <v>398.83238071747166</v>
       </c>
       <c r="J121" s="5">
-        <f t="shared" ref="J121:K121" si="62">J28*( J$99/100)</f>
-        <v>116.65412621359224</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="62"/>
-        <v>73.58286136419602</v>
+        <f t="shared" si="54"/>
+        <v>150.31761264189663</v>
       </c>
       <c r="L121" s="5">
-        <v>26923</v>
+        <f t="shared" si="54"/>
+        <v>15108.360501452602</v>
       </c>
       <c r="M121" s="5">
-        <f>M28*( M$99/100)</f>
-        <v>216.57782101167314</v>
+        <f t="shared" si="54"/>
+        <v>44.629222036325601</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <f t="shared" si="47"/>
-        <v>1914</v>
+        <f t="shared" si="51"/>
+        <v>1901</v>
       </c>
       <c r="B122" s="5">
-        <v>58</v>
+        <f t="shared" ref="B122:M122" si="55">B16* (B$112/100)</f>
+        <v>0</v>
       </c>
       <c r="C122" s="5">
-        <v>2252</v>
+        <f t="shared" si="55"/>
+        <v>2457.2329145581289</v>
       </c>
       <c r="D122" s="5">
-        <v>811</v>
+        <f t="shared" si="55"/>
+        <v>306.38460952139019</v>
       </c>
       <c r="E122" s="5">
-        <v>5</v>
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
       <c r="F122" s="5">
-        <v>4174</v>
+        <f t="shared" si="55"/>
+        <v>2413.2129107892747</v>
       </c>
       <c r="G122" s="5">
-        <v>5480</v>
+        <f t="shared" si="55"/>
+        <v>1600.9360261922864</v>
       </c>
       <c r="H122" s="5">
-        <v>18779</v>
+        <f t="shared" si="55"/>
+        <v>5740.0765260486805</v>
       </c>
       <c r="I122" s="5">
-        <v>15703</v>
+        <f t="shared" si="55"/>
+        <v>224.236231218836</v>
       </c>
       <c r="J122" s="5">
-        <v>67</v>
+        <f t="shared" si="55"/>
+        <v>1.2601173964731525</v>
       </c>
       <c r="K122" s="5">
-        <v>28</v>
+        <f t="shared" si="55"/>
+        <v>82.88087840664015</v>
       </c>
       <c r="L122" s="5">
-        <v>47451</v>
+        <f t="shared" si="55"/>
+        <v>14188.08299946407</v>
       </c>
       <c r="M122" s="5">
-        <f t="shared" ref="M122:M124" si="63">L122-SUM(B122:K122)</f>
-        <v>94</v>
+        <f t="shared" si="55"/>
+        <v>8.114404006604655</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <f t="shared" si="47"/>
-        <v>1915</v>
+        <f t="shared" si="51"/>
+        <v>1902</v>
       </c>
       <c r="B123" s="5">
-        <v>217</v>
+        <f t="shared" ref="B123:M123" si="56">B17* (B$112/100)</f>
+        <v>0</v>
       </c>
       <c r="C123" s="5">
-        <v>727</v>
+        <f t="shared" si="56"/>
+        <v>3415.8644188529315</v>
       </c>
       <c r="D123" s="5">
-        <v>167</v>
+        <f t="shared" si="56"/>
+        <v>463.78474827781588</v>
       </c>
       <c r="E123" s="5">
-        <v>2</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="F123" s="5">
-        <v>873</v>
+        <f t="shared" si="56"/>
+        <v>2425.1315937793652</v>
       </c>
       <c r="G123" s="5">
-        <v>965</v>
+        <f t="shared" si="56"/>
+        <v>1813.6668780542939</v>
       </c>
       <c r="H123" s="5">
-        <v>4694</v>
+        <f t="shared" si="56"/>
+        <v>9050.2095969956827</v>
       </c>
       <c r="I123" s="5">
-        <v>10501</v>
+        <f t="shared" si="56"/>
+        <v>525.84252084294974</v>
       </c>
       <c r="J123" s="5">
-        <v>40</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="K123" s="5">
-        <v>33</v>
+        <f t="shared" si="56"/>
+        <v>139.64417269099272</v>
       </c>
       <c r="L123" s="5">
-        <v>18297</v>
+        <f t="shared" si="56"/>
+        <v>17864.200543573777</v>
       </c>
       <c r="M123" s="5">
-        <f t="shared" si="63"/>
-        <v>78</v>
+        <f t="shared" si="56"/>
+        <v>4.0572020033023275</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <f t="shared" si="47"/>
-        <v>1916</v>
+        <f t="shared" si="51"/>
+        <v>1903</v>
       </c>
       <c r="B124" s="5">
-        <v>354</v>
+        <f t="shared" ref="B124:M124" si="57">B18* (B$112/100)</f>
+        <v>0</v>
       </c>
       <c r="C124" s="5">
-        <v>379</v>
+        <f t="shared" si="57"/>
+        <v>4629.4406184771651</v>
       </c>
       <c r="D124" s="5">
-        <v>20</v>
-      </c>
-      <c r="E124" s="5"/>
+        <f t="shared" si="57"/>
+        <v>569.27921864819712</v>
+      </c>
+      <c r="E124" s="5">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="F124" s="5">
-        <v>45</v>
+        <f t="shared" si="57"/>
+        <v>3055.860608142053</v>
       </c>
       <c r="G124" s="5">
-        <v>26</v>
+        <f t="shared" si="57"/>
+        <v>2621.8622938890144</v>
       </c>
       <c r="H124" s="5">
-        <v>229</v>
+        <f t="shared" si="57"/>
+        <v>10570.828705572676</v>
       </c>
       <c r="I124" s="5">
-        <v>4106</v>
+        <f t="shared" si="57"/>
+        <v>1220.4613195345808</v>
       </c>
       <c r="J124" s="5">
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>2.5202347929463049</v>
       </c>
       <c r="K124" s="5">
-        <v>11</v>
+        <f t="shared" si="57"/>
+        <v>127.03010729446993</v>
       </c>
       <c r="L124" s="5">
-        <v>5259</v>
+        <f t="shared" si="57"/>
+        <v>22647.979399299336</v>
       </c>
       <c r="M124" s="5">
-        <f t="shared" si="63"/>
-        <v>89</v>
+        <f t="shared" si="57"/>
+        <v>7.6072537561918638</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>1917</v>
+        <f t="shared" si="51"/>
+        <v>1904</v>
       </c>
       <c r="B125" s="5">
-        <f>B32*( B$99/100)</f>
-        <v>49.659372720641862</v>
+        <f t="shared" ref="B125:M125" si="58">B19* (B$112/100)</f>
+        <v>1.1897356143079316</v>
       </c>
       <c r="C125" s="5">
-        <v>1256</v>
+        <f t="shared" si="58"/>
+        <v>2484.6012522579031</v>
       </c>
       <c r="D125" s="5">
-        <f>D32*(1 - D$99/100)</f>
-        <v>36.829234917696304</v>
+        <f t="shared" si="58"/>
+        <v>387.01213834280867</v>
       </c>
       <c r="E125" s="5">
-        <f t="shared" ref="E125:F125" si="64">E32*( E$99/100)</f>
-        <v>2.0166666666666666</v>
+        <f t="shared" si="58"/>
+        <v>0.56346153846153846</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="64"/>
-        <v>434.32305450456528</v>
+        <f t="shared" si="58"/>
+        <v>4968.937385933179</v>
       </c>
       <c r="G125" s="5">
-        <v>38</v>
+        <f t="shared" si="58"/>
+        <v>2310.4025082141266</v>
       </c>
       <c r="H125" s="5">
-        <v>119</v>
+        <f t="shared" si="58"/>
+        <v>8707.5423976292368</v>
       </c>
       <c r="I125" s="5">
-        <v>6393</v>
+        <f t="shared" si="58"/>
+        <v>1337.5434433160187</v>
       </c>
       <c r="J125" s="5">
-        <f t="shared" ref="J125:K125" si="65">J32*( J$99/100)</f>
-        <v>0.7603155339805826</v>
+        <f t="shared" si="58"/>
+        <v>18.166692465821281</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="65"/>
-        <v>37.533858655503572</v>
+        <f t="shared" si="58"/>
+        <v>70.428531797252262</v>
       </c>
       <c r="L125" s="5">
-        <v>5947</v>
+        <f t="shared" si="58"/>
+        <v>24153.70649477714</v>
       </c>
       <c r="M125" s="5">
-        <f>M32*( M$99/100)</f>
-        <v>62.964980544747078</v>
+        <f t="shared" si="58"/>
+        <v>69.479584306552354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <f t="shared" si="51"/>
+        <v>1905</v>
+      </c>
+      <c r="B126" s="5">
+        <f t="shared" ref="B126:M126" si="59">B20* (B$112/100)</f>
+        <v>0.69984447900466562</v>
+      </c>
+      <c r="C126" s="5">
+        <f t="shared" si="59"/>
+        <v>4110.4284485850458</v>
+      </c>
+      <c r="D126" s="5">
+        <f t="shared" si="59"/>
+        <v>364.96851766840064</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" si="59"/>
+        <v>0.9391025641025641</v>
+      </c>
+      <c r="F126" s="5">
+        <f t="shared" si="59"/>
+        <v>5920.1251832713624</v>
+      </c>
+      <c r="G126" s="5">
+        <f t="shared" si="59"/>
+        <v>3208.9630807799731</v>
+      </c>
+      <c r="H126" s="5">
+        <f t="shared" si="59"/>
+        <v>12622.555244056945</v>
+      </c>
+      <c r="I126" s="5">
+        <f t="shared" si="59"/>
+        <v>1122.2081922677014</v>
+      </c>
+      <c r="J126" s="5">
+        <f t="shared" si="59"/>
+        <v>18.691741381018428</v>
+      </c>
+      <c r="K126" s="5">
+        <f t="shared" si="59"/>
+        <v>55.792981561543129</v>
+      </c>
+      <c r="L126" s="5">
+        <f t="shared" si="59"/>
+        <v>30769.719581405727</v>
+      </c>
+      <c r="M126" s="5">
+        <f t="shared" si="59"/>
+        <v>41.586320533848856</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>149</v>
+      <c r="A127" s="1">
+        <f t="shared" si="51"/>
+        <v>1906</v>
+      </c>
+      <c r="B127" s="5">
+        <f t="shared" ref="B127:M127" si="60">B21* (B$112/100)</f>
+        <v>9.0979782270606542</v>
+      </c>
+      <c r="C127" s="5">
+        <f t="shared" si="60"/>
+        <v>3318.9657096996762</v>
+      </c>
+      <c r="D127" s="5">
+        <f t="shared" si="60"/>
+        <v>558.09452441438418</v>
+      </c>
+      <c r="E127" s="5">
+        <f t="shared" si="60"/>
+        <v>2.8173076923076925</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" si="60"/>
+        <v>8024.8620730160392</v>
+      </c>
+      <c r="G127" s="5">
+        <f t="shared" si="60"/>
+        <v>2490.405536712748</v>
+      </c>
+      <c r="H127" s="5">
+        <f t="shared" si="60"/>
+        <v>12349.918314763829</v>
+      </c>
+      <c r="I127" s="5">
+        <f t="shared" si="60"/>
+        <v>1808.2683561799874</v>
+      </c>
+      <c r="J127" s="5">
+        <f t="shared" si="60"/>
+        <v>27.197533807212206</v>
+      </c>
+      <c r="K127" s="5">
+        <f t="shared" si="60"/>
+        <v>75.765251772704218</v>
+      </c>
+      <c r="L127" s="5">
+        <f t="shared" si="60"/>
+        <v>35889.99050024536</v>
+      </c>
+      <c r="M127" s="5">
+        <f t="shared" si="60"/>
+        <v>84.694091818936087</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <f t="shared" si="51"/>
+        <v>1907</v>
+      </c>
+      <c r="B128" s="5">
+        <f>B22* (B$112/100)</f>
+        <v>23.864696734059098</v>
+      </c>
+      <c r="C128" s="5">
+        <f t="shared" ref="C128:M128" si="61">C22* (C$112/100)</f>
+        <v>3528.5430704637147</v>
+      </c>
+      <c r="D128" s="5">
+        <f t="shared" si="61"/>
+        <v>731.8916420961084</v>
+      </c>
+      <c r="E128" s="5">
+        <f t="shared" si="61"/>
+        <v>8.6397435897435901</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" si="61"/>
+        <v>7364.7208248229663</v>
+      </c>
+      <c r="G128" s="5">
+        <f t="shared" si="61"/>
+        <v>4511.1668081609105</v>
+      </c>
+      <c r="H128" s="5">
+        <f t="shared" si="61"/>
+        <v>19544.860337030575</v>
+      </c>
+      <c r="I128" s="5">
+        <f t="shared" si="61"/>
+        <v>5506.6256170304996</v>
+      </c>
+      <c r="J128" s="5">
+        <f t="shared" si="61"/>
+        <v>15.751467455914407</v>
+      </c>
+      <c r="K128" s="5">
+        <f t="shared" si="61"/>
+        <v>114.49690129151459</v>
+      </c>
+      <c r="L128" s="5">
+        <f t="shared" si="61"/>
+        <v>43092.118842209136</v>
+      </c>
+      <c r="M128" s="5">
+        <f t="shared" si="61"/>
+        <v>126.28041235278495</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I129" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J129" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K129" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L129" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M129" s="11" t="s">
-        <v>81</v>
+      <c r="A129" s="1">
+        <f t="shared" si="51"/>
+        <v>1908</v>
+      </c>
+      <c r="B129" s="5">
+        <v>9</v>
+      </c>
+      <c r="C129" s="5">
+        <v>3360</v>
+      </c>
+      <c r="D129" s="5">
+        <v>408</v>
+      </c>
+      <c r="E129" s="5">
+        <v>7</v>
+      </c>
+      <c r="F129" s="5">
+        <v>5439</v>
+      </c>
+      <c r="G129" s="5">
+        <v>3282</v>
+      </c>
+      <c r="H129" s="5">
+        <v>18187</v>
+      </c>
+      <c r="I129" s="5">
+        <v>6636</v>
+      </c>
+      <c r="J129" s="5">
+        <v>50</v>
+      </c>
+      <c r="K129" s="5">
+        <v>141</v>
+      </c>
+      <c r="L129" s="5">
+        <v>37777</v>
+      </c>
+      <c r="M129" s="5">
+        <f t="shared" ref="M129:M137" si="62">L129-SUM(B129:K129)</f>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>1896</v>
+        <f t="shared" si="51"/>
+        <v>1909</v>
       </c>
       <c r="B130" s="5">
-        <f t="shared" ref="B130:B150" si="66">B11-B104</f>
-        <v>0.1139102000049569</v>
+        <v>1</v>
       </c>
       <c r="C130" s="5">
-        <f t="shared" ref="C130:M130" si="67">C11-C104</f>
-        <v>4724.3120659442329</v>
+        <v>1035</v>
       </c>
       <c r="D130" s="5">
-        <f t="shared" si="67"/>
-        <v>3401.3484010928705</v>
+        <v>338</v>
       </c>
       <c r="E130" s="5">
-        <f t="shared" si="67"/>
-        <v>0.53889953000936608</v>
+        <v>2</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" si="67"/>
-        <v>20374.173557532635</v>
+        <v>3989</v>
       </c>
       <c r="G130" s="5">
-        <f t="shared" si="67"/>
-        <v>4654.9416518200578</v>
+        <v>1944</v>
       </c>
       <c r="H130" s="5">
-        <f t="shared" si="67"/>
-        <v>9492.9657373463051</v>
+        <v>8421</v>
       </c>
       <c r="I130" s="5">
-        <f t="shared" si="67"/>
-        <v>458.76349390910138</v>
+        <v>3819</v>
       </c>
       <c r="J130" s="5">
-        <f t="shared" si="67"/>
-        <v>8.038780412357367</v>
+        <v>30</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="67"/>
-        <v>786.26787126754175</v>
+        <v>41</v>
       </c>
       <c r="L130" s="5">
-        <f t="shared" si="67"/>
-        <v>43041.877480551666</v>
+        <v>19707</v>
       </c>
       <c r="M130" s="5">
-        <f t="shared" si="67"/>
-        <v>32.784160243005701</v>
+        <f t="shared" si="62"/>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <f>A130+1</f>
-        <v>1897</v>
+        <f t="shared" si="51"/>
+        <v>1910</v>
       </c>
       <c r="B131" s="5">
-        <f t="shared" si="66"/>
-        <v>6.5504482629058863E-2</v>
+        <v>4</v>
       </c>
       <c r="C131" s="5">
-        <f t="shared" ref="C131:M131" si="68">C12-C105</f>
-        <v>2716.7331603704547</v>
+        <v>692</v>
       </c>
       <c r="D131" s="5">
-        <f t="shared" si="68"/>
-        <v>1955.9580024007471</v>
+        <v>503</v>
       </c>
       <c r="E131" s="5">
-        <f t="shared" si="68"/>
-        <v>0.30989617172799611</v>
+        <v>3</v>
       </c>
       <c r="F131" s="5">
-        <f t="shared" si="68"/>
-        <v>11716.244004687467</v>
+        <v>3295</v>
       </c>
       <c r="G131" s="5">
-        <f t="shared" si="68"/>
-        <v>2676.8414466629038</v>
+        <v>1765</v>
       </c>
       <c r="H131" s="5">
-        <f t="shared" si="68"/>
-        <v>5458.9651252758085</v>
+        <v>6705</v>
       </c>
       <c r="I131" s="5">
-        <f t="shared" si="68"/>
-        <v>263.8136472090066</v>
+        <v>4223</v>
       </c>
       <c r="J131" s="5">
-        <f t="shared" si="68"/>
-        <v>4.6227304653768266</v>
+        <v>38</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="68"/>
-        <v>452.14625303959195</v>
+        <v>22</v>
       </c>
       <c r="L131" s="5">
-        <f t="shared" si="68"/>
-        <v>24751.391145166861</v>
+        <v>17362</v>
       </c>
       <c r="M131" s="5">
-        <f t="shared" si="68"/>
-        <v>18.852652835767429</v>
+        <f t="shared" si="62"/>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <f t="shared" ref="A132:A150" si="69">A131+1</f>
-        <v>1898</v>
+        <f t="shared" si="51"/>
+        <v>1911</v>
       </c>
       <c r="B132" s="5">
-        <f t="shared" si="66"/>
-        <v>7.5495877147676846E-2</v>
+        <f>B26*B$112/100</f>
+        <v>10.637636080870918</v>
       </c>
       <c r="C132" s="5">
-        <f t="shared" ref="C132:M132" si="70">C13-C106</f>
-        <v>3131.1162944344978</v>
+        <v>4219</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" si="70"/>
-        <v>2254.3001505938896</v>
+        <f t="shared" ref="D132:F132" si="63">D26*D$112/100</f>
+        <v>476.65257610992109</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" si="70"/>
-        <v>0.35716461485237905</v>
+        <f t="shared" si="63"/>
+        <v>5.4467948717948715</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="70"/>
-        <v>13503.321948499743</v>
+        <f t="shared" si="63"/>
+        <v>4195.3764125118269</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" si="70"/>
-        <v>3085.1399002031285</v>
+        <v>2430</v>
       </c>
       <c r="H132" s="5">
-        <f t="shared" si="70"/>
-        <v>6291.6207244181423</v>
+        <f>H26*H$112/100</f>
+        <v>10743.231469684499</v>
       </c>
       <c r="I132" s="5">
-        <f t="shared" si="70"/>
-        <v>304.05312583502933</v>
+        <v>3838</v>
       </c>
       <c r="J132" s="5">
-        <f t="shared" si="70"/>
-        <v>5.3278352456766234</v>
+        <f>J26*J$112/100</f>
+        <v>20.581917475728154</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="70"/>
-        <v>521.11209190921124</v>
+        <f>K26*K$112/100</f>
+        <v>59.027357304241285</v>
       </c>
       <c r="L132" s="5">
-        <f t="shared" si="70"/>
-        <v>28526.719243190542</v>
+        <v>27053</v>
       </c>
       <c r="M132" s="5">
-        <f t="shared" si="70"/>
-        <v>21.728246759183747</v>
+        <f>M26*M$112/100</f>
+        <v>221.62465943038961</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <f t="shared" si="69"/>
-        <v>1899</v>
+        <f t="shared" si="51"/>
+        <v>1912</v>
       </c>
       <c r="B133" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C133" s="5">
-        <f t="shared" ref="C133:M133" si="71">C14-C107</f>
-        <v>4553.2562286645953</v>
+        <v>2430</v>
       </c>
       <c r="D133" s="5">
-        <f t="shared" si="71"/>
-        <v>5083.3787579989539</v>
+        <v>519</v>
       </c>
       <c r="E133" s="5">
-        <f t="shared" si="71"/>
-        <v>0.81666666666666665</v>
+        <v>3</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="71"/>
-        <v>22724.758543140961</v>
+        <v>4448</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" si="71"/>
-        <v>5578.6825099711723</v>
+        <v>4112</v>
       </c>
       <c r="H133" s="5">
-        <f t="shared" si="71"/>
-        <v>11256.655725298791</v>
+        <v>14701</v>
       </c>
       <c r="I133" s="5">
-        <f t="shared" si="71"/>
-        <v>993.95094029642064</v>
+        <v>8139</v>
       </c>
       <c r="J133" s="5">
-        <f t="shared" si="71"/>
-        <v>25.850121359223301</v>
+        <v>133</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="71"/>
-        <v>928.51809899039642</v>
+        <v>59</v>
       </c>
       <c r="L133" s="5">
-        <f t="shared" si="71"/>
-        <v>50344.862906993279</v>
+        <v>34681</v>
       </c>
       <c r="M133" s="5">
-        <f t="shared" si="71"/>
-        <v>101.49805447470818</v>
+        <f t="shared" ref="M133:M138" si="64">L133-SUM(B133:K133)</f>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <f t="shared" si="69"/>
-        <v>1900</v>
+        <f t="shared" si="51"/>
+        <v>1913</v>
       </c>
       <c r="B134" s="5">
+        <f>B28*B$112/100</f>
+        <v>63.615863141524102</v>
+      </c>
+      <c r="C134" s="5">
+        <v>3053</v>
+      </c>
+      <c r="D134" s="5">
+        <f t="shared" ref="D134:F134" si="65">D28*D$112/100</f>
+        <v>969.53924724853175</v>
+      </c>
+      <c r="E134" s="5">
+        <f t="shared" si="65"/>
+        <v>5.6346153846153841</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="65"/>
+        <v>4743.9562247600206</v>
+      </c>
+      <c r="G134" s="5">
+        <v>3276</v>
+      </c>
+      <c r="H134" s="5">
+        <f>H28*H$112/100</f>
+        <v>30028.819432779466</v>
+      </c>
+      <c r="I134" s="5">
+        <v>5327</v>
+      </c>
+      <c r="J134" s="5">
+        <f t="shared" ref="J134:K134" si="66">J28*J$112/100</f>
+        <v>112.78050698434714</v>
+      </c>
+      <c r="K134" s="5">
         <f t="shared" si="66"/>
-        <v>0.51787016776075867</v>
-      </c>
-      <c r="C134" s="5">
-        <f t="shared" ref="C134:M134" si="72">C15-C108</f>
-        <v>9421.9579533295982</v>
-      </c>
-      <c r="D134" s="5">
-        <f t="shared" si="72"/>
-        <v>5051.2712198655772</v>
-      </c>
-      <c r="E134" s="5">
-        <f t="shared" si="72"/>
-        <v>1.6333333333333333</v>
-      </c>
-      <c r="F134" s="5">
-        <f t="shared" si="72"/>
-        <v>34647.416619575291</v>
-      </c>
-      <c r="G134" s="5">
-        <f t="shared" si="72"/>
-        <v>8400.6571812186558</v>
-      </c>
-      <c r="H134" s="5">
-        <f t="shared" si="72"/>
-        <v>16322.404705756449</v>
-      </c>
-      <c r="I134" s="5">
-        <f t="shared" si="72"/>
-        <v>698.82489163870241</v>
-      </c>
-      <c r="J134" s="5">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K134" s="5">
-        <f t="shared" si="72"/>
-        <v>1705.6473774932283</v>
+        <v>72.126579062168801</v>
       </c>
       <c r="L134" s="5">
-        <f t="shared" si="72"/>
-        <v>74950.953867324759</v>
+        <v>26923</v>
       </c>
       <c r="M134" s="5">
-        <f t="shared" si="72"/>
-        <v>40.233463035019462</v>
+        <f>M28*M$112/100</f>
+        <v>202.35294991470357</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f t="shared" si="69"/>
-        <v>1901</v>
+        <f t="shared" si="51"/>
+        <v>1914</v>
       </c>
       <c r="B135" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C135" s="5">
-        <f t="shared" ref="C135:M135" si="73">C16-C109</f>
-        <v>7502.9351148927499</v>
+        <v>2252</v>
       </c>
       <c r="D135" s="5">
-        <f t="shared" si="73"/>
-        <v>5328.9069907835956</v>
+        <v>811</v>
       </c>
       <c r="E135" s="5">
-        <f t="shared" si="73"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="73"/>
-        <v>35254.970411315699</v>
+        <v>4174</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="73"/>
-        <v>7183.4307546499231</v>
+        <v>5480</v>
       </c>
       <c r="H135" s="5">
-        <f t="shared" si="73"/>
-        <v>15578.828491383099</v>
+        <v>18779</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" si="73"/>
-        <v>392.90154851789708</v>
+        <v>15703</v>
       </c>
       <c r="J135" s="5">
-        <f t="shared" si="73"/>
-        <v>10.696601941747574</v>
+        <v>67</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="73"/>
-        <v>940.44570302881061</v>
+        <v>28</v>
       </c>
       <c r="L135" s="5">
-        <f t="shared" si="73"/>
-        <v>70385.556014258735</v>
+        <v>47451</v>
       </c>
       <c r="M135" s="5">
-        <f t="shared" si="73"/>
-        <v>7.3151750972762652</v>
+        <f t="shared" ref="M135:M138" si="67">L135-SUM(B135:K135)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f t="shared" si="69"/>
-        <v>1902</v>
+        <f t="shared" si="51"/>
+        <v>1915</v>
       </c>
       <c r="B136" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C136" s="5">
-        <f t="shared" ref="C136:M136" si="74">C17-C110</f>
-        <v>10430.028404748562</v>
+        <v>727</v>
       </c>
       <c r="D136" s="5">
-        <f t="shared" si="74"/>
-        <v>8066.5467863323538</v>
+        <v>167</v>
       </c>
       <c r="E136" s="5">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="74"/>
-        <v>35429.092145158094</v>
+        <v>873</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="74"/>
-        <v>8137.9581803103902</v>
+        <v>965</v>
       </c>
       <c r="H136" s="5">
-        <f t="shared" si="74"/>
-        <v>24562.680041431449</v>
+        <v>4694</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="74"/>
-        <v>921.36912751677858</v>
+        <v>10501</v>
       </c>
       <c r="J136" s="5">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="74"/>
-        <v>1584.5363211031765</v>
+        <v>33</v>
       </c>
       <c r="L136" s="5">
-        <f t="shared" si="74"/>
-        <v>88622.380349562285</v>
+        <v>18297</v>
       </c>
       <c r="M136" s="5">
-        <f t="shared" si="74"/>
-        <v>3.6575875486381326</v>
+        <f t="shared" si="67"/>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
+        <f t="shared" si="51"/>
+        <v>1916</v>
+      </c>
+      <c r="B137" s="5">
+        <v>354</v>
+      </c>
+      <c r="C137" s="5">
+        <v>379</v>
+      </c>
+      <c r="D137" s="5">
+        <v>20</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0</v>
+      </c>
+      <c r="F137" s="5">
+        <v>45</v>
+      </c>
+      <c r="G137" s="5">
+        <v>26</v>
+      </c>
+      <c r="H137" s="5">
+        <v>229</v>
+      </c>
+      <c r="I137" s="5">
+        <v>4106</v>
+      </c>
+      <c r="J137" s="5">
+        <v>0</v>
+      </c>
+      <c r="K137" s="5">
+        <v>11</v>
+      </c>
+      <c r="L137" s="5">
+        <v>5259</v>
+      </c>
+      <c r="M137" s="5">
+        <f t="shared" si="67"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B138" s="5">
+        <f>B32*B$112/100</f>
+        <v>7.2083981337480569</v>
+      </c>
+      <c r="C138" s="5">
+        <v>1256</v>
+      </c>
+      <c r="D138" s="5">
+        <f t="shared" ref="D138:F138" si="68">D32*D$112/100</f>
+        <v>2.1174906559160407</v>
+      </c>
+      <c r="E138" s="5">
+        <f t="shared" si="68"/>
+        <v>2.0660256410256408</v>
+      </c>
+      <c r="F138" s="5">
+        <f t="shared" si="68"/>
+        <v>435.80087642798344</v>
+      </c>
+      <c r="G138" s="5">
+        <v>38</v>
+      </c>
+      <c r="H138" s="5">
+        <v>119</v>
+      </c>
+      <c r="I138" s="5">
+        <v>6393</v>
+      </c>
+      <c r="J138" s="5">
+        <f t="shared" ref="J138:K138" si="69">J32*J$112/100</f>
+        <v>0.73506848127600566</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="69"/>
-        <v>1903</v>
-      </c>
-      <c r="B137" s="5">
-        <f t="shared" si="66"/>
+        <v>36.791024073191487</v>
+      </c>
+      <c r="L138" s="5">
+        <v>5947</v>
+      </c>
+      <c r="M138" s="5">
+        <f>M32*M$112/100</f>
+        <v>58.82942904788375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B143" s="5">
+        <f>B11-B117</f>
+        <v>0.20456528323585293</v>
+      </c>
+      <c r="C143" s="5">
+        <f t="shared" ref="C143:M143" si="70">C11-C117</f>
+        <v>4727.9842353568074</v>
+      </c>
+      <c r="D143" s="5">
+        <f t="shared" si="70"/>
+        <v>3406.2685381909596</v>
+      </c>
+      <c r="E143" s="5">
+        <f t="shared" si="70"/>
+        <v>0.53593854358074322</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="70"/>
+        <v>20369.444339981215</v>
+      </c>
+      <c r="G143" s="5">
+        <f t="shared" si="70"/>
+        <v>4668.3122033781083</v>
+      </c>
+      <c r="H143" s="5">
+        <f t="shared" si="70"/>
+        <v>9588.0822810653262</v>
+      </c>
+      <c r="I143" s="5">
+        <f t="shared" si="70"/>
+        <v>502.97254454953452</v>
+      </c>
+      <c r="J143" s="5">
+        <f t="shared" si="70"/>
+        <v>8.0713069790221681</v>
+      </c>
+      <c r="K143" s="5">
+        <f t="shared" si="70"/>
+        <v>787.66694752282172</v>
+      </c>
+      <c r="L143" s="5">
+        <f t="shared" si="70"/>
+        <v>43459.763500239758</v>
+      </c>
+      <c r="M143" s="5">
+        <f t="shared" si="70"/>
+        <v>35.340595299671655</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <f>A143+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B144" s="5">
+        <f>B12-B118</f>
+        <v>0.11763602418087515</v>
+      </c>
+      <c r="C144" s="5">
+        <f t="shared" ref="C144:M144" si="71">C12-C118</f>
+        <v>2718.8448549990876</v>
+      </c>
+      <c r="D144" s="5">
+        <f t="shared" si="71"/>
+        <v>1958.78734547152</v>
+      </c>
+      <c r="E144" s="5">
+        <f t="shared" si="71"/>
+        <v>0.3081934455097104</v>
+      </c>
+      <c r="F144" s="5">
+        <f t="shared" si="71"/>
+        <v>11713.524450609497</v>
+      </c>
+      <c r="G144" s="5">
+        <f t="shared" si="71"/>
+        <v>2684.5302318835174</v>
+      </c>
+      <c r="H144" s="5">
+        <f t="shared" si="71"/>
+        <v>5513.662246214124</v>
+      </c>
+      <c r="I144" s="5">
+        <f t="shared" si="71"/>
+        <v>289.23622560494852</v>
+      </c>
+      <c r="J144" s="5">
+        <f t="shared" si="71"/>
+        <v>4.6414349880708849</v>
+      </c>
+      <c r="K144" s="5">
+        <f t="shared" si="71"/>
+        <v>452.95079702473754</v>
+      </c>
+      <c r="L144" s="5">
+        <f t="shared" si="71"/>
+        <v>24991.698049345716</v>
+      </c>
+      <c r="M144" s="5">
+        <f t="shared" si="71"/>
+        <v>20.322740288466203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <f t="shared" ref="A145:A163" si="72">A144+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B145" s="5">
+        <f>B13-B119</f>
+        <v>0.13557903937647042</v>
+      </c>
+      <c r="C145" s="5">
+        <f t="shared" ref="C145:M145" si="73">C13-C119</f>
+        <v>3133.5500857088982</v>
+      </c>
+      <c r="D145" s="5">
+        <f t="shared" si="73"/>
+        <v>2257.5610531811112</v>
+      </c>
+      <c r="E145" s="5">
+        <f t="shared" si="73"/>
+        <v>0.35520217191362968</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="73"/>
+        <v>13500.187581013328</v>
+      </c>
+      <c r="G145" s="5">
+        <f t="shared" si="73"/>
+        <v>3094.0014553384835</v>
+      </c>
+      <c r="H145" s="5">
+        <f t="shared" si="73"/>
+        <v>6354.6607936921009</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="73"/>
+        <v>333.35340847714849</v>
+      </c>
+      <c r="J145" s="5">
+        <f t="shared" si="73"/>
+        <v>5.3493927680131197</v>
+      </c>
+      <c r="K145" s="5">
+        <f t="shared" si="73"/>
+        <v>522.03935293661925</v>
+      </c>
+      <c r="L145" s="5">
+        <f t="shared" si="73"/>
+        <v>28803.680143994257</v>
+      </c>
+      <c r="M145" s="5">
+        <f t="shared" si="73"/>
+        <v>23.422566556407052</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <f t="shared" si="72"/>
+        <v>1899</v>
+      </c>
+      <c r="B146" s="5">
+        <f>B14-B120</f>
         <v>0</v>
       </c>
-      <c r="C137" s="5">
-        <f t="shared" ref="C137:M137" si="75">C18-C111</f>
-        <v>14135.571916237837</v>
-      </c>
-      <c r="D137" s="5">
+      <c r="C146" s="5">
+        <f t="shared" ref="C146:M146" si="74">C14-C120</f>
+        <v>4556.7954377636397</v>
+      </c>
+      <c r="D146" s="5">
+        <f t="shared" si="74"/>
+        <v>5090.7319948513832</v>
+      </c>
+      <c r="E146" s="5">
+        <f t="shared" si="74"/>
+        <v>0.81217948717948718</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" si="74"/>
+        <v>22719.483711911587</v>
+      </c>
+      <c r="G146" s="5">
+        <f t="shared" si="74"/>
+        <v>5594.706354673157</v>
+      </c>
+      <c r="H146" s="5">
+        <f t="shared" si="74"/>
+        <v>11369.443890351693</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="74"/>
+        <v>1089.7336868250209</v>
+      </c>
+      <c r="J146" s="5">
+        <f t="shared" si="74"/>
+        <v>25.954716291856549</v>
+      </c>
+      <c r="K146" s="5">
+        <f t="shared" si="74"/>
+        <v>930.17029370973671</v>
+      </c>
+      <c r="L146" s="5">
+        <f t="shared" si="74"/>
+        <v>50833.652327981072</v>
+      </c>
+      <c r="M146" s="5">
+        <f t="shared" si="74"/>
+        <v>109.41264440836041</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <f t="shared" si="72"/>
+        <v>1900</v>
+      </c>
+      <c r="B147" s="5">
+        <f>B15-B121</f>
+        <v>0.93001555209953346</v>
+      </c>
+      <c r="C147" s="5">
+        <f t="shared" ref="C147:M147" si="75">C15-C121</f>
+        <v>9429.2815647506541</v>
+      </c>
+      <c r="D147" s="5">
         <f t="shared" si="75"/>
-        <v>9901.3981567191204</v>
-      </c>
-      <c r="E137" s="5">
+        <v>5058.5780123462846</v>
+      </c>
+      <c r="E147" s="5">
+        <f t="shared" si="75"/>
+        <v>1.6243589743589744</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" si="75"/>
+        <v>34639.374321794428</v>
+      </c>
+      <c r="G147" s="5">
+        <f t="shared" si="75"/>
+        <v>8424.7866823734275</v>
+      </c>
+      <c r="H147" s="5">
+        <f t="shared" si="75"/>
+        <v>16485.950089122452</v>
+      </c>
+      <c r="I147" s="5">
+        <f t="shared" si="75"/>
+        <v>766.16761928252834</v>
+      </c>
+      <c r="J147" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="F137" s="5">
+      <c r="K147" s="5">
         <f t="shared" si="75"/>
-        <v>44643.501963495335</v>
-      </c>
-      <c r="G137" s="5">
+        <v>1708.6823873581034</v>
+      </c>
+      <c r="L147" s="5">
         <f t="shared" si="75"/>
-        <v>11764.346562413615</v>
-      </c>
-      <c r="H137" s="5">
+        <v>75678.639498547403</v>
+      </c>
+      <c r="M147" s="5">
         <f t="shared" si="75"/>
-        <v>28689.709391255827</v>
-      </c>
-      <c r="I137" s="5">
-        <f t="shared" si="75"/>
-        <v>2138.4641533836689</v>
-      </c>
-      <c r="J137" s="5">
-        <f t="shared" si="75"/>
-        <v>21.393203883495147</v>
-      </c>
-      <c r="K137" s="5">
-        <f t="shared" si="75"/>
-        <v>1441.4050726422063</v>
-      </c>
-      <c r="L137" s="5">
-        <f t="shared" si="75"/>
-        <v>112354.19349318546</v>
-      </c>
-      <c r="M137" s="5">
-        <f t="shared" si="75"/>
-        <v>6.8579766536964986</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <f t="shared" si="69"/>
-        <v>1904</v>
-      </c>
-      <c r="B138" s="5">
-        <f t="shared" si="66"/>
-        <v>8.8037928519328972</v>
-      </c>
-      <c r="C138" s="5">
-        <f t="shared" ref="C138:M138" si="76">C19-C112</f>
-        <v>7586.5018214704232</v>
-      </c>
-      <c r="D138" s="5">
-        <f t="shared" si="76"/>
-        <v>6731.2509357266472</v>
-      </c>
-      <c r="E138" s="5">
-        <f t="shared" si="76"/>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F138" s="5">
-        <f t="shared" si="76"/>
-        <v>72591.912521908249</v>
-      </c>
-      <c r="G138" s="5">
-        <f t="shared" si="76"/>
-        <v>10366.820510997906</v>
-      </c>
-      <c r="H138" s="5">
-        <f t="shared" si="76"/>
-        <v>23632.665693307903</v>
-      </c>
-      <c r="I138" s="5">
-        <f t="shared" si="76"/>
-        <v>2343.6127481823269</v>
-      </c>
-      <c r="J138" s="5">
-        <f t="shared" si="76"/>
-        <v>154.20934466019418</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="76"/>
-        <v>799.14947057375025</v>
-      </c>
-      <c r="L138" s="5">
-        <f t="shared" si="76"/>
-        <v>119823.94390449495</v>
-      </c>
-      <c r="M138" s="5">
-        <f t="shared" si="76"/>
-        <v>62.636186770428026</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <f t="shared" si="69"/>
-        <v>1905</v>
-      </c>
-      <c r="B139" s="5">
-        <f t="shared" si="66"/>
-        <v>5.1787016776075863</v>
-      </c>
-      <c r="C139" s="5">
-        <f t="shared" ref="C139:M139" si="77">C20-C113</f>
-        <v>12550.815904111683</v>
-      </c>
-      <c r="D139" s="5">
-        <f t="shared" si="77"/>
-        <v>6347.8491568398604</v>
-      </c>
-      <c r="E139" s="5">
-        <f t="shared" si="77"/>
-        <v>4.083333333333333</v>
-      </c>
-      <c r="F139" s="5">
-        <f t="shared" si="77"/>
-        <v>86487.950248556415</v>
-      </c>
-      <c r="G139" s="5">
-        <f t="shared" si="77"/>
-        <v>14398.679090155194</v>
-      </c>
-      <c r="H139" s="5">
-        <f t="shared" si="77"/>
-        <v>34258.18843665078</v>
-      </c>
-      <c r="I139" s="5">
-        <f t="shared" si="77"/>
-        <v>1966.3072916666667</v>
-      </c>
-      <c r="J139" s="5">
-        <f t="shared" si="77"/>
-        <v>158.66626213592232</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="77"/>
-        <v>633.08052203890668</v>
-      </c>
-      <c r="L139" s="5">
-        <f t="shared" si="77"/>
-        <v>152645.27429264924</v>
-      </c>
-      <c r="M139" s="5">
-        <f t="shared" si="77"/>
-        <v>37.490272373540861</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <f t="shared" si="69"/>
-        <v>1906</v>
-      </c>
-      <c r="B140" s="5">
-        <f t="shared" si="66"/>
-        <v>67.32312180889862</v>
-      </c>
-      <c r="C140" s="5">
-        <f t="shared" ref="C140:M140" si="78">C21-C114</f>
-        <v>10134.157092270852</v>
-      </c>
-      <c r="D140" s="5">
-        <f t="shared" si="78"/>
-        <v>9706.8642492051349</v>
-      </c>
-      <c r="E140" s="5">
-        <f t="shared" si="78"/>
-        <v>12.25</v>
-      </c>
-      <c r="F140" s="5">
-        <f t="shared" si="78"/>
-        <v>117236.35062375758</v>
-      </c>
-      <c r="G140" s="5">
-        <f t="shared" si="78"/>
-        <v>11174.497563479841</v>
-      </c>
-      <c r="H140" s="5">
-        <f t="shared" si="78"/>
-        <v>33518.239423323153</v>
-      </c>
-      <c r="I140" s="5">
-        <f t="shared" si="78"/>
-        <v>3168.4060752237137</v>
-      </c>
-      <c r="J140" s="5">
-        <f t="shared" si="78"/>
-        <v>230.86832524271844</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="78"/>
-        <v>859.70499876877614</v>
-      </c>
-      <c r="L140" s="5">
-        <f t="shared" si="78"/>
-        <v>178046.38842341519</v>
-      </c>
-      <c r="M140" s="5">
-        <f t="shared" si="78"/>
-        <v>76.352140077821019</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <f t="shared" si="69"/>
-        <v>1907</v>
-      </c>
-      <c r="B141" s="5">
-        <f t="shared" si="66"/>
-        <v>176.59372720641869</v>
-      </c>
-      <c r="C141" s="5">
-        <f t="shared" ref="C141:M141" si="79">C22-C115</f>
-        <v>10774.082322820605</v>
-      </c>
-      <c r="D141" s="5">
-        <f t="shared" si="79"/>
-        <v>12729.694530526824</v>
-      </c>
-      <c r="E141" s="5">
-        <f t="shared" si="79"/>
-        <v>37.566666666666663</v>
-      </c>
-      <c r="F141" s="5">
-        <f t="shared" si="79"/>
-        <v>107592.25330093829</v>
-      </c>
-      <c r="G141" s="5">
-        <f t="shared" si="79"/>
-        <v>20241.692271847729</v>
-      </c>
-      <c r="H141" s="5">
-        <f t="shared" si="79"/>
-        <v>53045.638973081026</v>
-      </c>
-      <c r="I141" s="5">
-        <f t="shared" si="79"/>
-        <v>9648.5823021532451</v>
-      </c>
-      <c r="J141" s="5">
-        <f t="shared" si="79"/>
-        <v>133.70752427184465</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="79"/>
-        <v>1299.1913321841912</v>
-      </c>
-      <c r="L141" s="5">
-        <f t="shared" si="79"/>
-        <v>213775.37364674101</v>
-      </c>
-      <c r="M141" s="5">
-        <f t="shared" si="79"/>
-        <v>113.84241245136187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <f t="shared" si="69"/>
-        <v>1908</v>
-      </c>
-      <c r="B142" s="5">
-        <f t="shared" si="66"/>
-        <v>53</v>
-      </c>
-      <c r="C142" s="5">
-        <f t="shared" ref="C142:M142" si="80">C23-C116</f>
-        <v>2943</v>
-      </c>
-      <c r="D142" s="5">
-        <f t="shared" si="80"/>
-        <v>9601</v>
-      </c>
-      <c r="E142" s="5">
-        <f t="shared" si="80"/>
-        <v>17</v>
-      </c>
-      <c r="F142" s="5">
-        <f t="shared" si="80"/>
-        <v>66539</v>
-      </c>
-      <c r="G142" s="5">
-        <f t="shared" si="80"/>
-        <v>9988</v>
-      </c>
-      <c r="H142" s="5">
-        <f t="shared" si="80"/>
-        <v>19760</v>
-      </c>
-      <c r="I142" s="5">
-        <f t="shared" si="80"/>
-        <v>9688</v>
-      </c>
-      <c r="J142" s="5">
-        <f t="shared" si="80"/>
-        <v>-13</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="80"/>
-        <v>386</v>
-      </c>
-      <c r="L142" s="5">
-        <f t="shared" si="80"/>
-        <v>118934</v>
-      </c>
-      <c r="M142" s="5">
-        <f t="shared" si="80"/>
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <f t="shared" si="69"/>
-        <v>1909</v>
-      </c>
-      <c r="B143" s="5">
-        <f t="shared" si="66"/>
-        <v>49</v>
-      </c>
-      <c r="C143" s="5">
-        <f t="shared" ref="C143:M143" si="81">C24-C117</f>
-        <v>10167</v>
-      </c>
-      <c r="D143" s="5">
-        <f t="shared" si="81"/>
-        <v>7443</v>
-      </c>
-      <c r="E143" s="5">
-        <f t="shared" si="81"/>
-        <v>3</v>
-      </c>
-      <c r="F143" s="5">
-        <f t="shared" si="81"/>
-        <v>35161</v>
-      </c>
-      <c r="G143" s="5">
-        <f t="shared" si="81"/>
-        <v>12651</v>
-      </c>
-      <c r="H143" s="5">
-        <f t="shared" si="81"/>
-        <v>29349</v>
-      </c>
-      <c r="I143" s="5">
-        <f t="shared" si="81"/>
-        <v>5280</v>
-      </c>
-      <c r="J143" s="5">
-        <f t="shared" si="81"/>
-        <v>40</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="81"/>
-        <v>550</v>
-      </c>
-      <c r="L143" s="5">
-        <f t="shared" si="81"/>
-        <v>100753</v>
-      </c>
-      <c r="M143" s="5">
-        <f t="shared" si="81"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <f t="shared" si="69"/>
-        <v>1910</v>
-      </c>
-      <c r="B144" s="5">
-        <f t="shared" si="66"/>
-        <v>48</v>
-      </c>
-      <c r="C144" s="5">
-        <f t="shared" ref="C144:M144" si="82">C25-C118</f>
-        <v>14307</v>
-      </c>
-      <c r="D144" s="5">
-        <f t="shared" si="82"/>
-        <v>9513</v>
-      </c>
-      <c r="E144" s="5">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="F144" s="5">
-        <f>F25-F118</f>
-        <v>56529</v>
-      </c>
-      <c r="G144" s="5">
-        <f t="shared" si="82"/>
-        <v>19911</v>
-      </c>
-      <c r="H144" s="5">
-        <f t="shared" si="82"/>
-        <v>56930</v>
-      </c>
-      <c r="I144" s="5">
-        <f t="shared" si="82"/>
-        <v>10545</v>
-      </c>
-      <c r="J144" s="5">
-        <f t="shared" si="82"/>
-        <v>64</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="82"/>
-        <v>1376</v>
-      </c>
-      <c r="L144" s="5">
-        <f t="shared" si="82"/>
-        <v>169430</v>
-      </c>
-      <c r="M144" s="5">
-        <f t="shared" si="82"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <f t="shared" si="69"/>
-        <v>1911</v>
-      </c>
-      <c r="B145" s="5">
-        <f t="shared" si="66"/>
-        <v>78.716265499635313</v>
-      </c>
-      <c r="C145" s="5">
-        <f t="shared" ref="C145:M145" si="83">C26-C119</f>
-        <v>4723</v>
-      </c>
-      <c r="D145" s="5">
-        <f t="shared" si="83"/>
-        <v>8290.3552139091244</v>
-      </c>
-      <c r="E145" s="5">
-        <f t="shared" si="83"/>
-        <v>23.683333333333334</v>
-      </c>
-      <c r="F145" s="5">
-        <f t="shared" si="83"/>
-        <v>61290.850312524206</v>
-      </c>
-      <c r="G145" s="5">
-        <f t="shared" si="83"/>
-        <v>13780</v>
-      </c>
-      <c r="H145" s="5">
-        <f t="shared" si="83"/>
-        <v>29157.618326154174</v>
-      </c>
-      <c r="I145" s="5">
-        <f t="shared" si="83"/>
-        <v>13743</v>
-      </c>
-      <c r="J145" s="5">
-        <f t="shared" si="83"/>
-        <v>174.71116504854368</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="83"/>
-        <v>669.78084215710419</v>
-      </c>
-      <c r="L145" s="5">
-        <f t="shared" si="83"/>
-        <v>131668</v>
-      </c>
-      <c r="M145" s="5">
-        <f t="shared" si="83"/>
-        <v>199.79571984435799</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <f t="shared" si="69"/>
-        <v>1912</v>
-      </c>
-      <c r="B146" s="5">
-        <f t="shared" si="66"/>
-        <v>232</v>
-      </c>
-      <c r="C146" s="5">
-        <f t="shared" ref="C146:M146" si="84">C27-C120</f>
-        <v>3279</v>
-      </c>
-      <c r="D146" s="5">
-        <f t="shared" si="84"/>
-        <v>10512</v>
-      </c>
-      <c r="E146" s="5">
-        <f t="shared" si="84"/>
-        <v>6</v>
-      </c>
-      <c r="F146" s="5">
-        <f t="shared" si="84"/>
-        <v>53941</v>
-      </c>
-      <c r="G146" s="5">
-        <f t="shared" si="84"/>
-        <v>9644</v>
-      </c>
-      <c r="H146" s="5">
-        <f t="shared" si="84"/>
-        <v>36543</v>
-      </c>
-      <c r="I146" s="5">
-        <f t="shared" si="84"/>
-        <v>12962</v>
-      </c>
-      <c r="J146" s="5">
-        <f t="shared" si="84"/>
-        <v>251</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="84"/>
-        <v>355</v>
-      </c>
-      <c r="L146" s="5">
-        <f t="shared" si="84"/>
-        <v>127714</v>
-      </c>
-      <c r="M146" s="5">
-        <f t="shared" si="84"/>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <f t="shared" si="69"/>
-        <v>1913</v>
-      </c>
-      <c r="B147" s="5">
-        <f t="shared" si="66"/>
-        <v>470.74398249452958</v>
-      </c>
-      <c r="C147" s="5">
-        <f t="shared" ref="C147:M147" si="85">C28-C121</f>
-        <v>8103</v>
-      </c>
-      <c r="D147" s="5">
-        <f t="shared" si="85"/>
-        <v>16863.067895520588</v>
-      </c>
-      <c r="E147" s="5">
-        <f t="shared" si="85"/>
-        <v>24.5</v>
-      </c>
-      <c r="F147" s="5">
-        <f t="shared" si="85"/>
-        <v>69305.130761044478</v>
-      </c>
-      <c r="G147" s="5">
-        <f t="shared" si="85"/>
-        <v>20597</v>
-      </c>
-      <c r="H147" s="5">
-        <f t="shared" si="85"/>
-        <v>81499.580296364817</v>
-      </c>
-      <c r="I147" s="5">
-        <f t="shared" si="85"/>
-        <v>43145</v>
-      </c>
-      <c r="J147" s="5">
-        <f t="shared" si="85"/>
-        <v>957.34587378640776</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="85"/>
-        <v>818.41713863580401</v>
-      </c>
-      <c r="L147" s="5">
-        <f t="shared" si="85"/>
-        <v>264117</v>
-      </c>
-      <c r="M147" s="5">
-        <f t="shared" si="85"/>
-        <v>182.42217898832686</v>
+        <v>43.370777963674399</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f t="shared" si="69"/>
-        <v>1914</v>
+        <f t="shared" si="72"/>
+        <v>1901</v>
       </c>
       <c r="B148" s="5">
-        <f t="shared" si="66"/>
-        <v>814</v>
+        <f>B16-B122</f>
+        <v>0</v>
       </c>
       <c r="C148" s="5">
-        <f t="shared" ref="C148:M148" si="86">C29-C122</f>
-        <v>8716</v>
+        <f t="shared" ref="C148:M148" si="76">C16-C122</f>
+        <v>7508.7670854418711</v>
       </c>
       <c r="D148" s="5">
-        <f t="shared" si="86"/>
-        <v>9078</v>
+        <f t="shared" si="76"/>
+        <v>5336.6153904786097</v>
       </c>
       <c r="E148" s="5">
-        <f t="shared" si="86"/>
-        <v>58</v>
+        <f t="shared" si="76"/>
+        <v>0</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="86"/>
-        <v>98464</v>
+        <f t="shared" si="76"/>
+        <v>35246.787089210724</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="86"/>
-        <v>15328</v>
+        <f t="shared" si="76"/>
+        <v>7204.0639738077134</v>
       </c>
       <c r="H148" s="5">
-        <f t="shared" si="86"/>
-        <v>47499</v>
+        <f t="shared" si="76"/>
+        <v>15734.923473951319</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="86"/>
-        <v>24538</v>
+        <f t="shared" si="76"/>
+        <v>430.763768781164</v>
       </c>
       <c r="J148" s="5">
-        <f t="shared" si="86"/>
-        <v>2476</v>
+        <f t="shared" si="76"/>
+        <v>10.739882603526848</v>
       </c>
       <c r="K148" s="5">
-        <f t="shared" si="86"/>
-        <v>715</v>
+        <f t="shared" si="76"/>
+        <v>942.11912159335986</v>
       </c>
       <c r="L148" s="5">
-        <f t="shared" si="86"/>
-        <v>208209</v>
+        <f t="shared" si="76"/>
+        <v>71068.917000535934</v>
       </c>
       <c r="M148" s="5">
-        <f t="shared" si="86"/>
-        <v>523</v>
+        <f t="shared" si="76"/>
+        <v>7.885595993395345</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f t="shared" si="69"/>
-        <v>1915</v>
+        <f t="shared" si="72"/>
+        <v>1902</v>
       </c>
       <c r="B149" s="5">
-        <f t="shared" si="66"/>
-        <v>-176</v>
+        <f>B17-B123</f>
+        <v>0</v>
       </c>
       <c r="C149" s="5">
-        <f t="shared" ref="C149:M149" si="87">C30-C123</f>
-        <v>923</v>
+        <f t="shared" ref="C149:M149" si="77">C17-C123</f>
+        <v>10438.135581147068</v>
       </c>
       <c r="D149" s="5">
-        <f t="shared" si="87"/>
-        <v>738</v>
+        <f t="shared" si="77"/>
+        <v>8078.2152517221839</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="87"/>
-        <v>12</v>
+        <f t="shared" si="77"/>
+        <v>0</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="87"/>
-        <v>13623</v>
+        <f t="shared" si="77"/>
+        <v>35420.868406220638</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="87"/>
-        <v>1253</v>
+        <f t="shared" si="77"/>
+        <v>8161.3331219457059</v>
       </c>
       <c r="H149" s="5">
-        <f t="shared" si="87"/>
-        <v>-208</v>
+        <f t="shared" si="77"/>
+        <v>24808.790403004317</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="87"/>
-        <v>-8471</v>
+        <f t="shared" si="77"/>
+        <v>1010.1574791570503</v>
       </c>
       <c r="J149" s="5">
-        <f t="shared" si="87"/>
-        <v>118</v>
+        <f t="shared" si="77"/>
+        <v>0</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="87"/>
-        <v>88</v>
+        <f t="shared" si="77"/>
+        <v>1587.3558273090073</v>
       </c>
       <c r="L149" s="5">
-        <f t="shared" si="87"/>
-        <v>7890</v>
+        <f t="shared" si="77"/>
+        <v>89482.799456426219</v>
       </c>
       <c r="M149" s="5">
-        <f t="shared" si="87"/>
-        <v>-10</v>
+        <f t="shared" si="77"/>
+        <v>3.9427979966976725</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f t="shared" si="69"/>
-        <v>1916</v>
+        <f t="shared" si="72"/>
+        <v>1903</v>
       </c>
       <c r="B150" s="5">
-        <f t="shared" si="66"/>
-        <v>-310</v>
+        <f>B18-B124</f>
+        <v>0</v>
       </c>
       <c r="C150" s="5">
-        <f t="shared" ref="C150:M150" si="88">C31-C124</f>
-        <v>3455</v>
+        <f t="shared" ref="C150:M150" si="78">C18-C124</f>
+        <v>14146.559381522835</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" si="88"/>
-        <v>43</v>
+        <f t="shared" si="78"/>
+        <v>9915.7207813518035</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" si="88"/>
-        <v>2</v>
+        <f t="shared" si="78"/>
+        <v>0</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="88"/>
-        <v>2093</v>
+        <f t="shared" si="78"/>
+        <v>44633.139391857949</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="88"/>
-        <v>110</v>
+        <f t="shared" si="78"/>
+        <v>11798.137706110985</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" si="88"/>
-        <v>48</v>
+        <f t="shared" si="78"/>
+        <v>28977.171294427324</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="88"/>
-        <v>-3080</v>
+        <f t="shared" si="78"/>
+        <v>2344.538680465419</v>
       </c>
       <c r="J150" s="5">
-        <f t="shared" si="88"/>
-        <v>2</v>
+        <f t="shared" si="78"/>
+        <v>21.479765207053696</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="88"/>
-        <v>256</v>
+        <f t="shared" si="78"/>
+        <v>1443.9698927055301</v>
       </c>
       <c r="L150" s="5">
-        <f t="shared" si="88"/>
-        <v>2583</v>
+        <f t="shared" si="78"/>
+        <v>113445.02060070066</v>
       </c>
       <c r="M150" s="5">
-        <f t="shared" si="88"/>
-        <v>-36</v>
+        <f t="shared" si="78"/>
+        <v>7.3927462438081362</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>1917</v>
+        <f t="shared" si="72"/>
+        <v>1904</v>
       </c>
       <c r="B151" s="5">
-        <f>B32-B125</f>
-        <v>53.340627279358138</v>
+        <f>B19-B125</f>
+        <v>15.810264385692069</v>
       </c>
       <c r="C151" s="5">
-        <f t="shared" ref="C151:M151" si="89">C32-C125</f>
-        <v>2489</v>
+        <f t="shared" ref="C151:M151" si="79">C19-C125</f>
+        <v>7592.3987477420969</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="89"/>
-        <v>2.1707650823036957</v>
+        <f t="shared" si="79"/>
+        <v>6740.9878616571914</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="89"/>
-        <v>8.9833333333333343</v>
+        <f t="shared" si="79"/>
+        <v>2.4365384615384613</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="89"/>
-        <v>6366.6769454954347</v>
+        <f t="shared" si="79"/>
+        <v>72575.062614066817</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="89"/>
-        <v>35</v>
+        <f t="shared" si="79"/>
+        <v>10396.597491785873</v>
       </c>
       <c r="H151" s="5">
-        <f t="shared" si="89"/>
-        <v>241</v>
+        <f t="shared" si="79"/>
+        <v>23869.457602370763</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="89"/>
-        <v>-5387</v>
+        <f t="shared" si="79"/>
+        <v>2569.456556683981</v>
       </c>
       <c r="J151" s="5">
-        <f t="shared" si="89"/>
-        <v>6.2396844660194173</v>
+        <f t="shared" si="79"/>
+        <v>154.83330753417872</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="89"/>
-        <v>417.46614134449641</v>
+        <f t="shared" si="79"/>
+        <v>800.57146820274772</v>
       </c>
       <c r="L151" s="5">
-        <f t="shared" si="89"/>
-        <v>6769</v>
+        <f t="shared" si="79"/>
+        <v>120987.29350522286</v>
       </c>
       <c r="M151" s="5">
-        <f t="shared" si="89"/>
-        <v>53.035019455252922</v>
+        <f t="shared" si="79"/>
+        <v>67.520415693447646</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <f t="shared" si="72"/>
+        <v>1905</v>
+      </c>
+      <c r="B152" s="5">
+        <f>B20-B126</f>
+        <v>9.3001555209953342</v>
+      </c>
+      <c r="C152" s="5">
+        <f t="shared" ref="C152:M152" si="80">C20-C126</f>
+        <v>12560.571551414954</v>
+      </c>
+      <c r="D152" s="5">
+        <f t="shared" si="80"/>
+        <v>6357.0314823315994</v>
+      </c>
+      <c r="E152" s="5">
+        <f t="shared" si="80"/>
+        <v>4.0608974358974361</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" si="80"/>
+        <v>86467.874816728639</v>
+      </c>
+      <c r="G152" s="5">
+        <f t="shared" si="80"/>
+        <v>14440.036919220027</v>
+      </c>
+      <c r="H152" s="5">
+        <f t="shared" si="80"/>
+        <v>34601.444755943055</v>
+      </c>
+      <c r="I152" s="5">
+        <f t="shared" si="80"/>
+        <v>2155.7918077322984</v>
+      </c>
+      <c r="J152" s="5">
+        <f t="shared" si="80"/>
+        <v>159.30825861898157</v>
+      </c>
+      <c r="K152" s="5">
+        <f t="shared" si="80"/>
+        <v>634.20701843845688</v>
+      </c>
+      <c r="L152" s="5">
+        <f t="shared" si="80"/>
+        <v>154127.28041859428</v>
+      </c>
+      <c r="M152" s="5">
+        <f t="shared" si="80"/>
+        <v>40.413679466151144</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>150</v>
+      <c r="A153" s="1">
+        <f t="shared" si="72"/>
+        <v>1906</v>
+      </c>
+      <c r="B153" s="5">
+        <f>B21-B127</f>
+        <v>120.90202177293935</v>
+      </c>
+      <c r="C153" s="5">
+        <f t="shared" ref="C153:M153" si="81">C21-C127</f>
+        <v>10142.034290300324</v>
+      </c>
+      <c r="D153" s="5">
+        <f t="shared" si="81"/>
+        <v>9720.9054755856159</v>
+      </c>
+      <c r="E153" s="5">
+        <f t="shared" si="81"/>
+        <v>12.182692307692307</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" si="81"/>
+        <v>117209.13792698397</v>
+      </c>
+      <c r="G153" s="5">
+        <f t="shared" si="81"/>
+        <v>11206.594463287252</v>
+      </c>
+      <c r="H153" s="5">
+        <f t="shared" si="81"/>
+        <v>33854.081685236175</v>
+      </c>
+      <c r="I153" s="5">
+        <f t="shared" si="81"/>
+        <v>3473.7316438200123</v>
+      </c>
+      <c r="J153" s="5">
+        <f t="shared" si="81"/>
+        <v>231.80246619278779</v>
+      </c>
+      <c r="K153" s="5">
+        <f t="shared" si="81"/>
+        <v>861.23474822729577</v>
+      </c>
+      <c r="L153" s="5">
+        <f t="shared" si="81"/>
+        <v>179775.00949975464</v>
+      </c>
+      <c r="M153" s="5">
+        <f t="shared" si="81"/>
+        <v>82.305908181063913</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <f t="shared" si="72"/>
+        <v>1907</v>
+      </c>
+      <c r="B154" s="5">
+        <f>B22-B128</f>
+        <v>317.13530326594088</v>
+      </c>
+      <c r="C154" s="5">
+        <f t="shared" ref="C154:M154" si="82">C22-C128</f>
+        <v>10782.456929536285</v>
+      </c>
+      <c r="D154" s="5">
+        <f t="shared" si="82"/>
+        <v>12748.108357903891</v>
+      </c>
+      <c r="E154" s="5">
+        <f t="shared" si="82"/>
+        <v>37.360256410256412</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" si="82"/>
+        <v>107567.27917517703</v>
+      </c>
+      <c r="G154" s="5">
+        <f t="shared" si="82"/>
+        <v>20299.83319183909</v>
+      </c>
+      <c r="H154" s="5">
+        <f t="shared" si="82"/>
+        <v>53577.139662969421</v>
+      </c>
+      <c r="I154" s="5">
+        <f t="shared" si="82"/>
+        <v>10578.374382969501</v>
+      </c>
+      <c r="J154" s="5">
+        <f t="shared" si="82"/>
+        <v>134.24853254408561</v>
+      </c>
+      <c r="K154" s="5">
+        <f t="shared" si="82"/>
+        <v>1301.5030987084854</v>
+      </c>
+      <c r="L154" s="5">
+        <f t="shared" si="82"/>
+        <v>215850.88115779086</v>
+      </c>
+      <c r="M154" s="5">
+        <f t="shared" si="82"/>
+        <v>122.71958764721505</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J155" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K155" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L155" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M155" s="11" t="s">
-        <v>81</v>
+      <c r="A155" s="1">
+        <f t="shared" si="72"/>
+        <v>1908</v>
+      </c>
+      <c r="B155" s="5">
+        <f>B23-B129</f>
+        <v>53</v>
+      </c>
+      <c r="C155" s="5">
+        <f t="shared" ref="C155:M155" si="83">C23-C129</f>
+        <v>2943</v>
+      </c>
+      <c r="D155" s="5">
+        <f t="shared" si="83"/>
+        <v>9601</v>
+      </c>
+      <c r="E155" s="5">
+        <f t="shared" si="83"/>
+        <v>17</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="83"/>
+        <v>66539</v>
+      </c>
+      <c r="G155" s="5">
+        <f t="shared" si="83"/>
+        <v>9988</v>
+      </c>
+      <c r="H155" s="5">
+        <f t="shared" si="83"/>
+        <v>19760</v>
+      </c>
+      <c r="I155" s="5">
+        <f t="shared" si="83"/>
+        <v>9688</v>
+      </c>
+      <c r="J155" s="5">
+        <f t="shared" si="83"/>
+        <v>-13</v>
+      </c>
+      <c r="K155" s="5">
+        <f t="shared" si="83"/>
+        <v>386</v>
+      </c>
+      <c r="L155" s="5">
+        <f t="shared" si="83"/>
+        <v>118934</v>
+      </c>
+      <c r="M155" s="5">
+        <f t="shared" si="83"/>
+        <v>-28</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>1896</v>
+        <f t="shared" si="72"/>
+        <v>1909</v>
       </c>
       <c r="B156" s="5">
-        <f>(B130+B131)/2</f>
-        <v>8.9707341317007888E-2</v>
+        <f>B24-B130</f>
+        <v>49</v>
       </c>
       <c r="C156" s="5">
-        <f t="shared" ref="C156:M156" si="90">(C130+C131)/2</f>
-        <v>3720.5226131573436</v>
+        <f t="shared" ref="C156:M156" si="84">C24-C130</f>
+        <v>10167</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="90"/>
-        <v>2678.6532017468089</v>
+        <f t="shared" si="84"/>
+        <v>7443</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="90"/>
-        <v>0.42439785086868109</v>
+        <f t="shared" si="84"/>
+        <v>3</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="90"/>
-        <v>16045.20878111005</v>
+        <f t="shared" si="84"/>
+        <v>35161</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="90"/>
-        <v>3665.8915492414808</v>
+        <f t="shared" si="84"/>
+        <v>12651</v>
       </c>
       <c r="H156" s="5">
-        <f t="shared" si="90"/>
-        <v>7475.9654313110568</v>
+        <f t="shared" si="84"/>
+        <v>29349</v>
       </c>
       <c r="I156" s="5">
-        <f t="shared" si="90"/>
-        <v>361.28857055905399</v>
+        <f t="shared" si="84"/>
+        <v>5280</v>
       </c>
       <c r="J156" s="5">
-        <f t="shared" si="90"/>
-        <v>6.3307554388670972</v>
+        <f t="shared" si="84"/>
+        <v>40</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="90"/>
-        <v>619.20706215356688</v>
+        <f t="shared" si="84"/>
+        <v>550</v>
       </c>
       <c r="L156" s="5">
-        <f t="shared" si="90"/>
-        <v>33896.634312859263</v>
+        <f t="shared" si="84"/>
+        <v>100753</v>
       </c>
       <c r="M156" s="5">
-        <f t="shared" si="90"/>
-        <v>25.818406539386565</v>
+        <f t="shared" si="84"/>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <f>A156+1</f>
-        <v>1897</v>
+        <f t="shared" si="72"/>
+        <v>1910</v>
       </c>
       <c r="B157" s="5">
-        <f t="shared" ref="B157:M157" si="91">(B131+B132)/2</f>
-        <v>7.0500179888367848E-2</v>
+        <f>B25-B131</f>
+        <v>48</v>
       </c>
       <c r="C157" s="5">
-        <f t="shared" si="91"/>
-        <v>2923.9247274024765</v>
+        <f t="shared" ref="C157:M157" si="85">C25-C131</f>
+        <v>14307</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="91"/>
-        <v>2105.1290764973182</v>
+        <f t="shared" si="85"/>
+        <v>9513</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="91"/>
-        <v>0.33353039329018758</v>
+        <f t="shared" si="85"/>
+        <v>0</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" si="91"/>
-        <v>12609.782976593604</v>
+        <f>F25-F131</f>
+        <v>56529</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="91"/>
-        <v>2880.9906734330161</v>
+        <f t="shared" si="85"/>
+        <v>19911</v>
       </c>
       <c r="H157" s="5">
-        <f t="shared" si="91"/>
-        <v>5875.2929248469754</v>
+        <f t="shared" si="85"/>
+        <v>56930</v>
       </c>
       <c r="I157" s="5">
-        <f t="shared" si="91"/>
-        <v>283.93338652201794</v>
+        <f t="shared" si="85"/>
+        <v>10545</v>
       </c>
       <c r="J157" s="5">
-        <f t="shared" si="91"/>
-        <v>4.975282855526725</v>
+        <f t="shared" si="85"/>
+        <v>64</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="91"/>
-        <v>486.62917247440157</v>
+        <f t="shared" si="85"/>
+        <v>1376</v>
       </c>
       <c r="L157" s="5">
-        <f t="shared" si="91"/>
-        <v>26639.055194178702</v>
+        <f t="shared" si="85"/>
+        <v>169430</v>
       </c>
       <c r="M157" s="5">
-        <f t="shared" si="91"/>
-        <v>20.290449797475588</v>
+        <f t="shared" si="85"/>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f t="shared" ref="A158:A175" si="92">A157+1</f>
-        <v>1898</v>
+        <f t="shared" si="72"/>
+        <v>1911</v>
       </c>
       <c r="B158" s="5">
-        <f t="shared" ref="B158:M158" si="93">(B132+B133)/2</f>
-        <v>3.7747938573838423E-2</v>
+        <f>B26-B132</f>
+        <v>141.36236391912908</v>
       </c>
       <c r="C158" s="5">
-        <f t="shared" si="93"/>
-        <v>3842.1862615495465</v>
+        <f t="shared" ref="C158:M158" si="86">C26-C132</f>
+        <v>4723</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="93"/>
-        <v>3668.8394542964215</v>
+        <f t="shared" si="86"/>
+        <v>8302.3474238900781</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="93"/>
-        <v>0.58691564075952285</v>
+        <f t="shared" si="86"/>
+        <v>23.553205128205128</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="93"/>
-        <v>18114.040245820353</v>
+        <f t="shared" si="86"/>
+        <v>61276.623587488175</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="93"/>
-        <v>4331.9112050871499</v>
+        <f t="shared" si="86"/>
+        <v>13780</v>
       </c>
       <c r="H158" s="5">
-        <f t="shared" si="93"/>
-        <v>8774.1382248584669</v>
+        <f t="shared" si="86"/>
+        <v>29449.768530315501</v>
       </c>
       <c r="I158" s="5">
-        <f t="shared" si="93"/>
-        <v>649.00203306572496</v>
+        <f t="shared" si="86"/>
+        <v>13743</v>
       </c>
       <c r="J158" s="5">
-        <f t="shared" si="93"/>
-        <v>15.588978302449963</v>
+        <f t="shared" si="86"/>
+        <v>175.41808252427185</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="93"/>
-        <v>724.81509544980383</v>
+        <f t="shared" si="86"/>
+        <v>670.97264269575874</v>
       </c>
       <c r="L158" s="5">
-        <f t="shared" si="93"/>
-        <v>39435.791075091911</v>
+        <f t="shared" si="86"/>
+        <v>131668</v>
       </c>
       <c r="M158" s="5">
-        <f t="shared" si="93"/>
-        <v>61.613150616945966</v>
+        <f t="shared" si="86"/>
+        <v>215.37534056961039</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f t="shared" si="92"/>
-        <v>1899</v>
+        <f t="shared" si="72"/>
+        <v>1912</v>
       </c>
       <c r="B159" s="5">
-        <f t="shared" ref="B159:M159" si="94">(B133+B134)/2</f>
-        <v>0.25893508388037934</v>
+        <f>B27-B133</f>
+        <v>232</v>
       </c>
       <c r="C159" s="5">
-        <f t="shared" si="94"/>
-        <v>6987.6070909970967</v>
+        <f t="shared" ref="C159:M159" si="87">C27-C133</f>
+        <v>3279</v>
       </c>
       <c r="D159" s="5">
-        <f t="shared" si="94"/>
-        <v>5067.3249889322651</v>
+        <f t="shared" si="87"/>
+        <v>10512</v>
       </c>
       <c r="E159" s="5">
-        <f t="shared" si="94"/>
-        <v>1.2250000000000001</v>
+        <f t="shared" si="87"/>
+        <v>6</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="94"/>
-        <v>28686.087581358126</v>
+        <f t="shared" si="87"/>
+        <v>53941</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="94"/>
-        <v>6989.6698455949136</v>
+        <f t="shared" si="87"/>
+        <v>9644</v>
       </c>
       <c r="H159" s="5">
-        <f t="shared" si="94"/>
-        <v>13789.53021552762</v>
+        <f t="shared" si="87"/>
+        <v>36543</v>
       </c>
       <c r="I159" s="5">
-        <f t="shared" si="94"/>
-        <v>846.38791596756153</v>
+        <f t="shared" si="87"/>
+        <v>12962</v>
       </c>
       <c r="J159" s="5">
-        <f t="shared" si="94"/>
-        <v>12.925060679611651</v>
+        <f t="shared" si="87"/>
+        <v>251</v>
       </c>
       <c r="K159" s="5">
-        <f t="shared" si="94"/>
-        <v>1317.0827382418124</v>
+        <f t="shared" si="87"/>
+        <v>355</v>
       </c>
       <c r="L159" s="5">
-        <f t="shared" si="94"/>
-        <v>62647.908387159019</v>
+        <f t="shared" si="87"/>
+        <v>127714</v>
       </c>
       <c r="M159" s="5">
-        <f t="shared" si="94"/>
-        <v>70.865758754863819</v>
+        <f t="shared" si="87"/>
+        <v>-11</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="72"/>
+        <v>1913</v>
       </c>
       <c r="B160" s="5">
-        <f t="shared" ref="B160:M160" si="95">(B134+B135)/2</f>
-        <v>0.25893508388037934</v>
+        <f>B28-B134</f>
+        <v>845.38413685847593</v>
       </c>
       <c r="C160" s="5">
-        <f t="shared" si="95"/>
-        <v>8462.4465341111736</v>
+        <f t="shared" ref="C160:M160" si="88">C28-C134</f>
+        <v>8103</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" si="95"/>
-        <v>5190.0891053245869</v>
+        <f t="shared" si="88"/>
+        <v>16887.460752751467</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="95"/>
-        <v>0.81666666666666665</v>
+        <f t="shared" si="88"/>
+        <v>24.365384615384617</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="95"/>
-        <v>34951.193515445499</v>
+        <f t="shared" si="88"/>
+        <v>69289.043775239974</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="95"/>
-        <v>7792.043967934289</v>
+        <f t="shared" si="88"/>
+        <v>20597</v>
       </c>
       <c r="H160" s="5">
-        <f t="shared" si="95"/>
-        <v>15950.616598569773</v>
+        <f t="shared" si="88"/>
+        <v>82316.180567220537</v>
       </c>
       <c r="I160" s="5">
-        <f t="shared" si="95"/>
-        <v>545.86322007829972</v>
+        <f t="shared" si="88"/>
+        <v>43145</v>
       </c>
       <c r="J160" s="5">
-        <f t="shared" si="95"/>
-        <v>5.3483009708737868</v>
+        <f t="shared" si="88"/>
+        <v>961.21949301565292</v>
       </c>
       <c r="K160" s="5">
-        <f t="shared" si="95"/>
-        <v>1323.0465402610193</v>
+        <f t="shared" si="88"/>
+        <v>819.87342093783116</v>
       </c>
       <c r="L160" s="5">
-        <f t="shared" si="95"/>
-        <v>72668.254940791754</v>
+        <f t="shared" si="88"/>
+        <v>264117</v>
       </c>
       <c r="M160" s="5">
-        <f t="shared" si="95"/>
-        <v>23.774319066147864</v>
+        <f t="shared" si="88"/>
+        <v>196.64705008529643</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" si="92"/>
-        <v>1901</v>
+        <f t="shared" si="72"/>
+        <v>1914</v>
       </c>
       <c r="B161" s="5">
-        <f t="shared" ref="B161:M161" si="96">(B135+B136)/2</f>
-        <v>0</v>
+        <f>B29-B135</f>
+        <v>814</v>
       </c>
       <c r="C161" s="5">
-        <f t="shared" si="96"/>
-        <v>8966.4817598206555</v>
+        <f t="shared" ref="C161:M161" si="89">C29-C135</f>
+        <v>8716</v>
       </c>
       <c r="D161" s="5">
-        <f t="shared" si="96"/>
-        <v>6697.7268885579742</v>
+        <f t="shared" si="89"/>
+        <v>9078</v>
       </c>
       <c r="E161" s="5">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="89"/>
+        <v>58</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="96"/>
-        <v>35342.0312782369</v>
+        <f t="shared" si="89"/>
+        <v>98464</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="96"/>
-        <v>7660.6944674801562</v>
+        <f t="shared" si="89"/>
+        <v>15328</v>
       </c>
       <c r="H161" s="5">
-        <f t="shared" si="96"/>
-        <v>20070.754266407275</v>
+        <f t="shared" si="89"/>
+        <v>47499</v>
       </c>
       <c r="I161" s="5">
-        <f t="shared" si="96"/>
-        <v>657.13533801733786</v>
+        <f t="shared" si="89"/>
+        <v>24538</v>
       </c>
       <c r="J161" s="5">
-        <f t="shared" si="96"/>
-        <v>5.3483009708737868</v>
+        <f t="shared" si="89"/>
+        <v>2476</v>
       </c>
       <c r="K161" s="5">
-        <f t="shared" si="96"/>
-        <v>1262.4910120659936</v>
+        <f t="shared" si="89"/>
+        <v>715</v>
       </c>
       <c r="L161" s="5">
-        <f t="shared" si="96"/>
-        <v>79503.968181910517</v>
+        <f t="shared" si="89"/>
+        <v>208209</v>
       </c>
       <c r="M161" s="5">
-        <f t="shared" si="96"/>
-        <v>5.4863813229571985</v>
+        <f t="shared" si="89"/>
+        <v>523</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="92"/>
-        <v>1902</v>
+        <f t="shared" si="72"/>
+        <v>1915</v>
       </c>
       <c r="B162" s="5">
-        <f t="shared" ref="B162:M162" si="97">(B136+B137)/2</f>
-        <v>0</v>
+        <f>B30-B136</f>
+        <v>-176</v>
       </c>
       <c r="C162" s="5">
-        <f t="shared" si="97"/>
-        <v>12282.8001604932</v>
+        <f t="shared" ref="C162:M162" si="90">C30-C136</f>
+        <v>923</v>
       </c>
       <c r="D162" s="5">
-        <f t="shared" si="97"/>
-        <v>8983.9724715257362</v>
+        <f t="shared" si="90"/>
+        <v>738</v>
       </c>
       <c r="E162" s="5">
-        <f t="shared" si="97"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>12</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="97"/>
-        <v>40036.297054326715</v>
+        <f t="shared" si="90"/>
+        <v>13623</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" si="97"/>
-        <v>9951.1523713620027</v>
+        <f t="shared" si="90"/>
+        <v>1253</v>
       </c>
       <c r="H162" s="5">
-        <f t="shared" si="97"/>
-        <v>26626.194716343638</v>
+        <f t="shared" si="90"/>
+        <v>-208</v>
       </c>
       <c r="I162" s="5">
-        <f t="shared" si="97"/>
-        <v>1529.9166404502237</v>
+        <f t="shared" si="90"/>
+        <v>-8471</v>
       </c>
       <c r="J162" s="5">
-        <f t="shared" si="97"/>
-        <v>10.696601941747574</v>
+        <f t="shared" si="90"/>
+        <v>118</v>
       </c>
       <c r="K162" s="5">
-        <f t="shared" si="97"/>
-        <v>1512.9706968726914</v>
+        <f t="shared" si="90"/>
+        <v>88</v>
       </c>
       <c r="L162" s="5">
-        <f t="shared" si="97"/>
-        <v>100488.28692137387</v>
+        <f t="shared" si="90"/>
+        <v>7890</v>
       </c>
       <c r="M162" s="5">
-        <f t="shared" si="97"/>
-        <v>5.2577821011673151</v>
+        <f t="shared" si="90"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="92"/>
-        <v>1903</v>
+        <f t="shared" si="72"/>
+        <v>1916</v>
       </c>
       <c r="B163" s="5">
-        <f t="shared" ref="B163:M163" si="98">(B137+B138)/2</f>
-        <v>4.4018964259664486</v>
+        <f>B31-B137</f>
+        <v>-310</v>
       </c>
       <c r="C163" s="5">
-        <f t="shared" si="98"/>
-        <v>10861.036868854131</v>
+        <f t="shared" ref="C163:M163" si="91">C31-C137</f>
+        <v>3455</v>
       </c>
       <c r="D163" s="5">
-        <f t="shared" si="98"/>
-        <v>8316.3245462228842</v>
+        <f t="shared" si="91"/>
+        <v>43</v>
       </c>
       <c r="E163" s="5">
-        <f t="shared" si="98"/>
-        <v>1.2250000000000001</v>
+        <f t="shared" si="91"/>
+        <v>2</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="98"/>
-        <v>58617.707242701792</v>
+        <f t="shared" si="91"/>
+        <v>2093</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="98"/>
-        <v>11065.583536705761</v>
+        <f t="shared" si="91"/>
+        <v>110</v>
       </c>
       <c r="H163" s="5">
-        <f t="shared" si="98"/>
-        <v>26161.187542281863</v>
+        <f t="shared" si="91"/>
+        <v>48</v>
       </c>
       <c r="I163" s="5">
-        <f t="shared" si="98"/>
-        <v>2241.0384507829976</v>
+        <f t="shared" si="91"/>
+        <v>-3080</v>
       </c>
       <c r="J163" s="5">
-        <f t="shared" si="98"/>
-        <v>87.801274271844662</v>
+        <f t="shared" si="91"/>
+        <v>2</v>
       </c>
       <c r="K163" s="5">
-        <f t="shared" si="98"/>
-        <v>1120.2772716079783</v>
+        <f t="shared" si="91"/>
+        <v>256</v>
       </c>
       <c r="L163" s="5">
-        <f t="shared" si="98"/>
-        <v>116089.06869884022</v>
+        <f t="shared" si="91"/>
+        <v>2583</v>
       </c>
       <c r="M163" s="5">
-        <f t="shared" si="98"/>
-        <v>34.747081712062261</v>
+        <f t="shared" si="91"/>
+        <v>-36</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B164" s="5">
+        <f>B32-B138</f>
+        <v>95.791601866251938</v>
+      </c>
+      <c r="C164" s="5">
+        <f t="shared" ref="C164:M164" si="92">C32-C138</f>
+        <v>2489</v>
+      </c>
+      <c r="D164" s="5">
         <f t="shared" si="92"/>
-        <v>1904</v>
-      </c>
-      <c r="B164" s="5">
-        <f t="shared" ref="B164:M164" si="99">(B138+B139)/2</f>
-        <v>6.9912472647702417</v>
-      </c>
-      <c r="C164" s="5">
-        <f t="shared" si="99"/>
-        <v>10068.658862791053</v>
-      </c>
-      <c r="D164" s="5">
-        <f t="shared" si="99"/>
-        <v>6539.5500462832533</v>
+        <v>36.882509344083957</v>
       </c>
       <c r="E164" s="5">
-        <f t="shared" si="99"/>
-        <v>3.2666666666666666</v>
+        <f t="shared" si="92"/>
+        <v>8.9339743589743588</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="99"/>
-        <v>79539.931385232339</v>
+        <f t="shared" si="92"/>
+        <v>6365.1991235720161</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="99"/>
-        <v>12382.74980057655</v>
+        <f t="shared" si="92"/>
+        <v>35</v>
       </c>
       <c r="H164" s="5">
-        <f t="shared" si="99"/>
-        <v>28945.42706497934</v>
+        <f t="shared" si="92"/>
+        <v>241</v>
       </c>
       <c r="I164" s="5">
-        <f t="shared" si="99"/>
-        <v>2154.9600199244969</v>
+        <f t="shared" si="92"/>
+        <v>-5387</v>
       </c>
       <c r="J164" s="5">
-        <f t="shared" si="99"/>
-        <v>156.43780339805824</v>
+        <f t="shared" si="92"/>
+        <v>6.2649315187239942</v>
       </c>
       <c r="K164" s="5">
-        <f t="shared" si="99"/>
-        <v>716.11499630632852</v>
+        <f t="shared" si="92"/>
+        <v>418.20897592680853</v>
       </c>
       <c r="L164" s="5">
-        <f t="shared" si="99"/>
-        <v>136234.60909857211</v>
+        <f t="shared" si="92"/>
+        <v>6769</v>
       </c>
       <c r="M164" s="5">
-        <f t="shared" si="99"/>
-        <v>50.063229571984444</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
         <f t="shared" si="92"/>
-        <v>1905</v>
-      </c>
-      <c r="B165" s="5">
-        <f t="shared" ref="B165:M165" si="100">(B139+B140)/2</f>
-        <v>36.250911743253106</v>
-      </c>
-      <c r="C165" s="5">
-        <f t="shared" si="100"/>
-        <v>11342.486498191269</v>
-      </c>
-      <c r="D165" s="5">
-        <f t="shared" si="100"/>
-        <v>8027.3567030224976</v>
-      </c>
-      <c r="E165" s="5">
-        <f t="shared" si="100"/>
-        <v>8.1666666666666661</v>
-      </c>
-      <c r="F165" s="5">
-        <f t="shared" si="100"/>
-        <v>101862.150436157</v>
-      </c>
-      <c r="G165" s="5">
-        <f t="shared" si="100"/>
-        <v>12786.588326817517</v>
-      </c>
-      <c r="H165" s="5">
-        <f t="shared" si="100"/>
-        <v>33888.213929986967</v>
-      </c>
-      <c r="I165" s="5">
-        <f t="shared" si="100"/>
-        <v>2567.3566834451904</v>
-      </c>
-      <c r="J165" s="5">
-        <f t="shared" si="100"/>
-        <v>194.76729368932038</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="100"/>
-        <v>746.39276040384141</v>
-      </c>
-      <c r="L165" s="5">
-        <f t="shared" si="100"/>
-        <v>165345.83135803221</v>
-      </c>
-      <c r="M165" s="5">
-        <f t="shared" si="100"/>
-        <v>56.92120622568094</v>
+        <v>57.17057095211625</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <f t="shared" si="92"/>
-        <v>1906</v>
-      </c>
-      <c r="B166" s="5">
-        <f t="shared" ref="B166:M166" si="101">(B140+B141)/2</f>
-        <v>121.95842450765866</v>
-      </c>
-      <c r="C166" s="5">
-        <f t="shared" si="101"/>
-        <v>10454.119707545728</v>
-      </c>
-      <c r="D166" s="5">
-        <f t="shared" si="101"/>
-        <v>11218.27938986598</v>
-      </c>
-      <c r="E166" s="5">
-        <f t="shared" si="101"/>
-        <v>24.908333333333331</v>
-      </c>
-      <c r="F166" s="5">
-        <f t="shared" si="101"/>
-        <v>112414.30196234793</v>
-      </c>
-      <c r="G166" s="5">
-        <f t="shared" si="101"/>
-        <v>15708.094917663784</v>
-      </c>
-      <c r="H166" s="5">
-        <f t="shared" si="101"/>
-        <v>43281.93919820209</v>
-      </c>
-      <c r="I166" s="5">
-        <f t="shared" si="101"/>
-        <v>6408.494188688479</v>
-      </c>
-      <c r="J166" s="5">
-        <f t="shared" si="101"/>
-        <v>182.28792475728153</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="101"/>
-        <v>1079.4481654764836</v>
-      </c>
-      <c r="L166" s="5">
-        <f t="shared" si="101"/>
-        <v>195910.88103507808</v>
-      </c>
-      <c r="M166" s="5">
-        <f t="shared" si="101"/>
-        <v>95.097276264591443</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <f t="shared" si="92"/>
-        <v>1907</v>
-      </c>
-      <c r="B167" s="5">
-        <f t="shared" ref="B167:M167" si="102">(B141+B142)/2</f>
-        <v>114.79686360320935</v>
-      </c>
-      <c r="C167" s="5">
-        <f t="shared" si="102"/>
-        <v>6858.5411614103023</v>
-      </c>
-      <c r="D167" s="5">
-        <f t="shared" si="102"/>
-        <v>11165.347265263412</v>
-      </c>
-      <c r="E167" s="5">
-        <f t="shared" si="102"/>
-        <v>27.283333333333331</v>
-      </c>
-      <c r="F167" s="5">
-        <f t="shared" si="102"/>
-        <v>87065.626650469145</v>
-      </c>
-      <c r="G167" s="5">
-        <f t="shared" si="102"/>
-        <v>15114.846135923864</v>
-      </c>
-      <c r="H167" s="5">
-        <f t="shared" si="102"/>
-        <v>36402.819486540509</v>
-      </c>
-      <c r="I167" s="5">
-        <f t="shared" si="102"/>
-        <v>9668.2911510766226</v>
-      </c>
-      <c r="J167" s="5">
-        <f t="shared" si="102"/>
-        <v>60.353762135922324</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="102"/>
-        <v>842.5956660920956</v>
-      </c>
-      <c r="L167" s="5">
-        <f t="shared" si="102"/>
-        <v>166354.68682337052</v>
-      </c>
-      <c r="M167" s="5">
-        <f t="shared" si="102"/>
-        <v>42.921206225680933</v>
+      <c r="A166" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <f t="shared" si="92"/>
-        <v>1908</v>
-      </c>
-      <c r="B168" s="5">
-        <f t="shared" ref="B168:M168" si="103">(B142+B143)/2</f>
-        <v>51</v>
-      </c>
-      <c r="C168" s="5">
-        <f t="shared" si="103"/>
-        <v>6555</v>
-      </c>
-      <c r="D168" s="5">
-        <f t="shared" si="103"/>
-        <v>8522</v>
-      </c>
-      <c r="E168" s="5">
-        <f t="shared" si="103"/>
-        <v>10</v>
-      </c>
-      <c r="F168" s="5">
-        <f t="shared" si="103"/>
-        <v>50850</v>
-      </c>
-      <c r="G168" s="5">
-        <f t="shared" si="103"/>
-        <v>11319.5</v>
-      </c>
-      <c r="H168" s="5">
-        <f t="shared" si="103"/>
-        <v>24554.5</v>
-      </c>
-      <c r="I168" s="5">
-        <f t="shared" si="103"/>
-        <v>7484</v>
-      </c>
-      <c r="J168" s="5">
-        <f t="shared" si="103"/>
-        <v>13.5</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="103"/>
-        <v>468</v>
-      </c>
-      <c r="L168" s="5">
-        <f t="shared" si="103"/>
-        <v>109843.5</v>
-      </c>
-      <c r="M168" s="5">
-        <f t="shared" si="103"/>
-        <v>16</v>
+      <c r="A168" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K168" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L168" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M168" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <f t="shared" si="92"/>
-        <v>1909</v>
+        <v>1896</v>
       </c>
       <c r="B169" s="5">
-        <f t="shared" ref="B169:M169" si="104">(B143+B144)/2</f>
-        <v>48.5</v>
+        <f>(B143+B144)/2</f>
+        <v>0.16110065370836404</v>
       </c>
       <c r="C169" s="5">
-        <f t="shared" si="104"/>
-        <v>12237</v>
+        <f t="shared" ref="C169:M169" si="93">(C143+C144)/2</f>
+        <v>3723.4145451779477</v>
       </c>
       <c r="D169" s="5">
-        <f t="shared" si="104"/>
-        <v>8478</v>
+        <f t="shared" si="93"/>
+        <v>2682.5279418312398</v>
       </c>
       <c r="E169" s="5">
-        <f t="shared" si="104"/>
-        <v>1.5</v>
+        <f t="shared" si="93"/>
+        <v>0.42206599454522681</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="104"/>
-        <v>45845</v>
+        <f t="shared" si="93"/>
+        <v>16041.484395295356</v>
       </c>
       <c r="G169" s="5">
-        <f t="shared" si="104"/>
-        <v>16281</v>
+        <f t="shared" si="93"/>
+        <v>3676.4212176308129</v>
       </c>
       <c r="H169" s="5">
-        <f t="shared" si="104"/>
-        <v>43139.5</v>
+        <f t="shared" si="93"/>
+        <v>7550.8722636397251</v>
       </c>
       <c r="I169" s="5">
-        <f t="shared" si="104"/>
-        <v>7912.5</v>
+        <f t="shared" si="93"/>
+        <v>396.10438507724155</v>
       </c>
       <c r="J169" s="5">
-        <f t="shared" si="104"/>
-        <v>52</v>
+        <f t="shared" si="93"/>
+        <v>6.3563709835465261</v>
       </c>
       <c r="K169" s="5">
-        <f t="shared" si="104"/>
-        <v>963</v>
+        <f t="shared" si="93"/>
+        <v>620.30887227377957</v>
       </c>
       <c r="L169" s="5">
-        <f t="shared" si="104"/>
-        <v>135091.5</v>
+        <f t="shared" si="93"/>
+        <v>34225.730774792741</v>
       </c>
       <c r="M169" s="5">
-        <f t="shared" si="104"/>
-        <v>133.5</v>
+        <f t="shared" si="93"/>
+        <v>27.831667794068927</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <f t="shared" si="92"/>
-        <v>1910</v>
+        <f>A169+1</f>
+        <v>1897</v>
       </c>
       <c r="B170" s="5">
-        <f t="shared" ref="B170:M170" si="105">(B144+B145)/2</f>
-        <v>63.358132749817656</v>
+        <f t="shared" ref="B170:M170" si="94">(B144+B145)/2</f>
+        <v>0.12660753177867279</v>
       </c>
       <c r="C170" s="5">
-        <f t="shared" si="105"/>
-        <v>9515</v>
+        <f t="shared" si="94"/>
+        <v>2926.1974703539927</v>
       </c>
       <c r="D170" s="5">
-        <f t="shared" si="105"/>
-        <v>8901.6776069545631</v>
+        <f t="shared" si="94"/>
+        <v>2108.1741993263158</v>
       </c>
       <c r="E170" s="5">
-        <f t="shared" si="105"/>
-        <v>11.841666666666667</v>
+        <f t="shared" si="94"/>
+        <v>0.33169780871167004</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="105"/>
-        <v>58909.925156262107</v>
+        <f t="shared" si="94"/>
+        <v>12606.856015811412</v>
       </c>
       <c r="G170" s="5">
-        <f t="shared" si="105"/>
-        <v>16845.5</v>
+        <f t="shared" si="94"/>
+        <v>2889.2658436110005</v>
       </c>
       <c r="H170" s="5">
-        <f t="shared" si="105"/>
-        <v>43043.809163077087</v>
+        <f t="shared" si="94"/>
+        <v>5934.1615199531125</v>
       </c>
       <c r="I170" s="5">
-        <f t="shared" si="105"/>
-        <v>12144</v>
+        <f t="shared" si="94"/>
+        <v>311.29481704104853</v>
       </c>
       <c r="J170" s="5">
-        <f t="shared" si="105"/>
-        <v>119.35558252427184</v>
+        <f t="shared" si="94"/>
+        <v>4.9954138780420028</v>
       </c>
       <c r="K170" s="5">
-        <f t="shared" si="105"/>
-        <v>1022.8904210785521</v>
+        <f t="shared" si="94"/>
+        <v>487.4950749806784</v>
       </c>
       <c r="L170" s="5">
-        <f t="shared" si="105"/>
-        <v>150549</v>
+        <f t="shared" si="94"/>
+        <v>26897.689096669987</v>
       </c>
       <c r="M170" s="5">
-        <f t="shared" si="105"/>
-        <v>203.39785992217901</v>
+        <f t="shared" si="94"/>
+        <v>21.872653422436628</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f t="shared" si="92"/>
-        <v>1911</v>
+        <f t="shared" ref="A171:A188" si="95">A170+1</f>
+        <v>1898</v>
       </c>
       <c r="B171" s="5">
-        <f t="shared" ref="B171:M171" si="106">(B145+B146)/2</f>
-        <v>155.35813274981766</v>
+        <f t="shared" ref="B171:M171" si="96">(B145+B146)/2</f>
+        <v>6.7789519688235211E-2</v>
       </c>
       <c r="C171" s="5">
-        <f t="shared" si="106"/>
-        <v>4001</v>
+        <f t="shared" si="96"/>
+        <v>3845.172761736269</v>
       </c>
       <c r="D171" s="5">
-        <f t="shared" si="106"/>
-        <v>9401.1776069545631</v>
+        <f t="shared" si="96"/>
+        <v>3674.146524016247</v>
       </c>
       <c r="E171" s="5">
-        <f t="shared" si="106"/>
-        <v>14.841666666666667</v>
+        <f t="shared" si="96"/>
+        <v>0.58369082954655838</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" si="106"/>
-        <v>57615.925156262107</v>
+        <f t="shared" si="96"/>
+        <v>18109.835646462459</v>
       </c>
       <c r="G171" s="5">
-        <f t="shared" si="106"/>
-        <v>11712</v>
+        <f t="shared" si="96"/>
+        <v>4344.3539050058207</v>
       </c>
       <c r="H171" s="5">
-        <f t="shared" si="106"/>
-        <v>32850.309163077087</v>
+        <f t="shared" si="96"/>
+        <v>8862.052342021896</v>
       </c>
       <c r="I171" s="5">
-        <f t="shared" si="106"/>
-        <v>13352.5</v>
+        <f t="shared" si="96"/>
+        <v>711.54354765108474</v>
       </c>
       <c r="J171" s="5">
-        <f t="shared" si="106"/>
-        <v>212.85558252427182</v>
+        <f t="shared" si="96"/>
+        <v>15.652054529934833</v>
       </c>
       <c r="K171" s="5">
-        <f t="shared" si="106"/>
-        <v>512.39042107855209</v>
+        <f t="shared" si="96"/>
+        <v>726.10482332317792</v>
       </c>
       <c r="L171" s="5">
-        <f t="shared" si="106"/>
-        <v>129691</v>
+        <f t="shared" si="96"/>
+        <v>39818.666235987665</v>
       </c>
       <c r="M171" s="5">
-        <f t="shared" si="106"/>
-        <v>94.397859922178995</v>
+        <f t="shared" si="96"/>
+        <v>66.417605482383735</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f t="shared" si="92"/>
-        <v>1912</v>
+        <f t="shared" si="95"/>
+        <v>1899</v>
       </c>
       <c r="B172" s="5">
-        <f t="shared" ref="B172:M172" si="107">(B146+B147)/2</f>
-        <v>351.37199124726476</v>
+        <f t="shared" ref="B172:M172" si="97">(B146+B147)/2</f>
+        <v>0.46500777604976673</v>
       </c>
       <c r="C172" s="5">
-        <f t="shared" si="107"/>
-        <v>5691</v>
+        <f t="shared" si="97"/>
+        <v>6993.0385012571469</v>
       </c>
       <c r="D172" s="5">
-        <f t="shared" si="107"/>
-        <v>13687.533947760294</v>
+        <f t="shared" si="97"/>
+        <v>5074.6550035988339</v>
       </c>
       <c r="E172" s="5">
-        <f t="shared" si="107"/>
-        <v>15.25</v>
+        <f t="shared" si="97"/>
+        <v>1.2182692307692307</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="107"/>
-        <v>61623.065380522239</v>
+        <f t="shared" si="97"/>
+        <v>28679.429016853006</v>
       </c>
       <c r="G172" s="5">
-        <f t="shared" si="107"/>
-        <v>15120.5</v>
+        <f t="shared" si="97"/>
+        <v>7009.7465185232923</v>
       </c>
       <c r="H172" s="5">
-        <f t="shared" si="107"/>
-        <v>59021.290148182408</v>
+        <f t="shared" si="97"/>
+        <v>13927.696989737073</v>
       </c>
       <c r="I172" s="5">
-        <f t="shared" si="107"/>
-        <v>28053.5</v>
+        <f t="shared" si="97"/>
+        <v>927.95065305377466</v>
       </c>
       <c r="J172" s="5">
-        <f t="shared" si="107"/>
-        <v>604.17293689320388</v>
+        <f t="shared" si="97"/>
+        <v>12.977358145928275</v>
       </c>
       <c r="K172" s="5">
-        <f t="shared" si="107"/>
-        <v>586.70856931790195</v>
+        <f t="shared" si="97"/>
+        <v>1319.42634053392</v>
       </c>
       <c r="L172" s="5">
-        <f t="shared" si="107"/>
-        <v>195915.5</v>
+        <f t="shared" si="97"/>
+        <v>63256.145913264234</v>
       </c>
       <c r="M172" s="5">
-        <f t="shared" si="107"/>
-        <v>85.711089494163431</v>
+        <f t="shared" si="97"/>
+        <v>76.391711186017403</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" si="92"/>
-        <v>1913</v>
+        <f t="shared" si="95"/>
+        <v>1900</v>
       </c>
       <c r="B173" s="5">
-        <f t="shared" ref="B173:M173" si="108">(B147+B148)/2</f>
-        <v>642.37199124726476</v>
+        <f t="shared" ref="B173:M173" si="98">(B147+B148)/2</f>
+        <v>0.46500777604976673</v>
       </c>
       <c r="C173" s="5">
-        <f t="shared" si="108"/>
-        <v>8409.5</v>
+        <f t="shared" si="98"/>
+        <v>8469.0243250962631</v>
       </c>
       <c r="D173" s="5">
-        <f t="shared" si="108"/>
-        <v>12970.533947760294</v>
+        <f t="shared" si="98"/>
+        <v>5197.5967014124471</v>
       </c>
       <c r="E173" s="5">
-        <f t="shared" si="108"/>
-        <v>41.25</v>
+        <f t="shared" si="98"/>
+        <v>0.81217948717948718</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="108"/>
-        <v>83884.565380522239</v>
+        <f t="shared" si="98"/>
+        <v>34943.08070550258</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" si="108"/>
-        <v>17962.5</v>
+        <f t="shared" si="98"/>
+        <v>7814.4253280905705</v>
       </c>
       <c r="H173" s="5">
-        <f t="shared" si="108"/>
-        <v>64499.290148182408</v>
+        <f t="shared" si="98"/>
+        <v>16110.436781536886</v>
       </c>
       <c r="I173" s="5">
-        <f t="shared" si="108"/>
-        <v>33841.5</v>
+        <f t="shared" si="98"/>
+        <v>598.46569403184617</v>
       </c>
       <c r="J173" s="5">
-        <f t="shared" si="108"/>
-        <v>1716.6729368932038</v>
+        <f t="shared" si="98"/>
+        <v>5.3699413017634239</v>
       </c>
       <c r="K173" s="5">
-        <f t="shared" si="108"/>
-        <v>766.70856931790195</v>
+        <f t="shared" si="98"/>
+        <v>1325.4007544757317</v>
       </c>
       <c r="L173" s="5">
-        <f t="shared" si="108"/>
-        <v>236163</v>
+        <f t="shared" si="98"/>
+        <v>73373.778249541676</v>
       </c>
       <c r="M173" s="5">
-        <f t="shared" si="108"/>
-        <v>352.71108949416345</v>
+        <f t="shared" si="98"/>
+        <v>25.62818697853487</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f t="shared" si="92"/>
-        <v>1914</v>
+        <f t="shared" si="95"/>
+        <v>1901</v>
       </c>
       <c r="B174" s="5">
-        <f t="shared" ref="B174:M174" si="109">(B148+B149)/2</f>
-        <v>319</v>
+        <f t="shared" ref="B174:M174" si="99">(B148+B149)/2</f>
+        <v>0</v>
       </c>
       <c r="C174" s="5">
-        <f t="shared" si="109"/>
-        <v>4819.5</v>
+        <f t="shared" si="99"/>
+        <v>8973.4513332944698</v>
       </c>
       <c r="D174" s="5">
-        <f t="shared" si="109"/>
-        <v>4908</v>
+        <f t="shared" si="99"/>
+        <v>6707.4153211003968</v>
       </c>
       <c r="E174" s="5">
-        <f t="shared" si="109"/>
-        <v>35</v>
+        <f t="shared" si="99"/>
+        <v>0</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" si="109"/>
-        <v>56043.5</v>
+        <f t="shared" si="99"/>
+        <v>35333.827747715681</v>
       </c>
       <c r="G174" s="5">
-        <f t="shared" si="109"/>
-        <v>8290.5</v>
+        <f t="shared" si="99"/>
+        <v>7682.6985478767092</v>
       </c>
       <c r="H174" s="5">
-        <f t="shared" si="109"/>
-        <v>23645.5</v>
+        <f t="shared" si="99"/>
+        <v>20271.856938477817</v>
       </c>
       <c r="I174" s="5">
-        <f t="shared" si="109"/>
-        <v>8033.5</v>
+        <f t="shared" si="99"/>
+        <v>720.46062396910713</v>
       </c>
       <c r="J174" s="5">
-        <f t="shared" si="109"/>
-        <v>1297</v>
+        <f t="shared" si="99"/>
+        <v>5.3699413017634239</v>
       </c>
       <c r="K174" s="5">
-        <f t="shared" si="109"/>
-        <v>401.5</v>
+        <f t="shared" si="99"/>
+        <v>1264.7374744511835</v>
       </c>
       <c r="L174" s="5">
-        <f t="shared" si="109"/>
-        <v>108049.5</v>
+        <f t="shared" si="99"/>
+        <v>80275.858228481084</v>
       </c>
       <c r="M174" s="5">
-        <f t="shared" si="109"/>
-        <v>256.5</v>
+        <f t="shared" si="99"/>
+        <v>5.9141969950465088</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f t="shared" si="92"/>
-        <v>1915</v>
+        <f t="shared" si="95"/>
+        <v>1902</v>
       </c>
       <c r="B175" s="5">
-        <f t="shared" ref="B175:M175" si="110">(B149+B150)/2</f>
-        <v>-243</v>
+        <f t="shared" ref="B175:M175" si="100">(B149+B150)/2</f>
+        <v>0</v>
       </c>
       <c r="C175" s="5">
-        <f t="shared" si="110"/>
-        <v>2189</v>
+        <f t="shared" si="100"/>
+        <v>12292.347481334951</v>
       </c>
       <c r="D175" s="5">
-        <f t="shared" si="110"/>
-        <v>390.5</v>
+        <f t="shared" si="100"/>
+        <v>8996.9680165369937</v>
       </c>
       <c r="E175" s="5">
-        <f t="shared" si="110"/>
-        <v>7</v>
+        <f t="shared" si="100"/>
+        <v>0</v>
       </c>
       <c r="F175" s="5">
-        <f t="shared" si="110"/>
-        <v>7858</v>
+        <f t="shared" si="100"/>
+        <v>40027.003899039293</v>
       </c>
       <c r="G175" s="5">
-        <f t="shared" si="110"/>
-        <v>681.5</v>
+        <f t="shared" si="100"/>
+        <v>9979.735414028346</v>
       </c>
       <c r="H175" s="5">
-        <f t="shared" si="110"/>
-        <v>-80</v>
+        <f t="shared" si="100"/>
+        <v>26892.980848715823</v>
       </c>
       <c r="I175" s="5">
-        <f t="shared" si="110"/>
-        <v>-5775.5</v>
+        <f t="shared" si="100"/>
+        <v>1677.3480798112346</v>
       </c>
       <c r="J175" s="5">
-        <f t="shared" si="110"/>
-        <v>60</v>
+        <f t="shared" si="100"/>
+        <v>10.739882603526848</v>
       </c>
       <c r="K175" s="5">
-        <f t="shared" si="110"/>
-        <v>172</v>
+        <f t="shared" si="100"/>
+        <v>1515.6628600072686</v>
       </c>
       <c r="L175" s="5">
-        <f t="shared" si="110"/>
-        <v>5236.5</v>
+        <f t="shared" si="100"/>
+        <v>101463.91002856343</v>
       </c>
       <c r="M175" s="5">
-        <f t="shared" si="110"/>
-        <v>-23</v>
+        <f t="shared" si="100"/>
+        <v>5.6677721202529039</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
+        <f t="shared" si="95"/>
+        <v>1903</v>
+      </c>
+      <c r="B176" s="5">
+        <f t="shared" ref="B176:M176" si="101">(B150+B151)/2</f>
+        <v>7.9051321928460343</v>
+      </c>
+      <c r="C176" s="5">
+        <f t="shared" si="101"/>
+        <v>10869.479064632465</v>
+      </c>
+      <c r="D176" s="5">
+        <f t="shared" si="101"/>
+        <v>8328.3543215044974</v>
+      </c>
+      <c r="E176" s="5">
+        <f t="shared" si="101"/>
+        <v>1.2182692307692307</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" si="101"/>
+        <v>58604.101002962387</v>
+      </c>
+      <c r="G176" s="5">
+        <f t="shared" si="101"/>
+        <v>11097.367598948429</v>
+      </c>
+      <c r="H176" s="5">
+        <f t="shared" si="101"/>
+        <v>26423.314448399044</v>
+      </c>
+      <c r="I176" s="5">
+        <f t="shared" si="101"/>
+        <v>2456.9976185747</v>
+      </c>
+      <c r="J176" s="5">
+        <f t="shared" si="101"/>
+        <v>88.156536370616209</v>
+      </c>
+      <c r="K176" s="5">
+        <f t="shared" si="101"/>
+        <v>1122.270680454139</v>
+      </c>
+      <c r="L176" s="5">
+        <f t="shared" si="101"/>
+        <v>117216.15705296176</v>
+      </c>
+      <c r="M176" s="5">
+        <f t="shared" si="101"/>
+        <v>37.45658096862789</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <f t="shared" si="95"/>
+        <v>1904</v>
+      </c>
+      <c r="B177" s="5">
+        <f t="shared" ref="B177:M177" si="102">(B151+B152)/2</f>
+        <v>12.555209953343702</v>
+      </c>
+      <c r="C177" s="5">
+        <f t="shared" si="102"/>
+        <v>10076.485149578526</v>
+      </c>
+      <c r="D177" s="5">
+        <f t="shared" si="102"/>
+        <v>6549.0096719943958</v>
+      </c>
+      <c r="E177" s="5">
+        <f t="shared" si="102"/>
+        <v>3.2487179487179487</v>
+      </c>
+      <c r="F177" s="5">
+        <f t="shared" si="102"/>
+        <v>79521.468715397728</v>
+      </c>
+      <c r="G177" s="5">
+        <f t="shared" si="102"/>
+        <v>12418.31720550295</v>
+      </c>
+      <c r="H177" s="5">
+        <f t="shared" si="102"/>
+        <v>29235.451179156909</v>
+      </c>
+      <c r="I177" s="5">
+        <f t="shared" si="102"/>
+        <v>2362.6241822081397</v>
+      </c>
+      <c r="J177" s="5">
+        <f t="shared" si="102"/>
+        <v>157.07078307658014</v>
+      </c>
+      <c r="K177" s="5">
+        <f t="shared" si="102"/>
+        <v>717.3892433206023</v>
+      </c>
+      <c r="L177" s="5">
+        <f t="shared" si="102"/>
+        <v>137557.28696190857</v>
+      </c>
+      <c r="M177" s="5">
+        <f t="shared" si="102"/>
+        <v>53.967047579799399</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <f t="shared" si="95"/>
+        <v>1905</v>
+      </c>
+      <c r="B178" s="5">
+        <f t="shared" ref="B178:M178" si="103">(B152+B153)/2</f>
+        <v>65.101088646967341</v>
+      </c>
+      <c r="C178" s="5">
+        <f t="shared" si="103"/>
+        <v>11351.302920857639</v>
+      </c>
+      <c r="D178" s="5">
+        <f t="shared" si="103"/>
+        <v>8038.9684789586081</v>
+      </c>
+      <c r="E178" s="5">
+        <f t="shared" si="103"/>
+        <v>8.1217948717948723</v>
+      </c>
+      <c r="F178" s="5">
+        <f t="shared" si="103"/>
+        <v>101838.5063718563</v>
+      </c>
+      <c r="G178" s="5">
+        <f t="shared" si="103"/>
+        <v>12823.31569125364</v>
+      </c>
+      <c r="H178" s="5">
+        <f t="shared" si="103"/>
+        <v>34227.763220589615</v>
+      </c>
+      <c r="I178" s="5">
+        <f t="shared" si="103"/>
+        <v>2814.7617257761553</v>
+      </c>
+      <c r="J178" s="5">
+        <f t="shared" si="103"/>
+        <v>195.55536240588469</v>
+      </c>
+      <c r="K178" s="5">
+        <f t="shared" si="103"/>
+        <v>747.72088333287638</v>
+      </c>
+      <c r="L178" s="5">
+        <f t="shared" si="103"/>
+        <v>166951.14495917445</v>
+      </c>
+      <c r="M178" s="5">
+        <f t="shared" si="103"/>
+        <v>61.359793823607532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <f t="shared" si="95"/>
+        <v>1906</v>
+      </c>
+      <c r="B179" s="5">
+        <f t="shared" ref="B179:M179" si="104">(B153+B154)/2</f>
+        <v>219.01866251944011</v>
+      </c>
+      <c r="C179" s="5">
+        <f t="shared" si="104"/>
+        <v>10462.245609918304</v>
+      </c>
+      <c r="D179" s="5">
+        <f t="shared" si="104"/>
+        <v>11234.506916744755</v>
+      </c>
+      <c r="E179" s="5">
+        <f t="shared" si="104"/>
+        <v>24.771474358974359</v>
+      </c>
+      <c r="F179" s="5">
+        <f t="shared" si="104"/>
+        <v>112388.20855108049</v>
+      </c>
+      <c r="G179" s="5">
+        <f t="shared" si="104"/>
+        <v>15753.213827563171</v>
+      </c>
+      <c r="H179" s="5">
+        <f t="shared" si="104"/>
+        <v>43715.610674102798</v>
+      </c>
+      <c r="I179" s="5">
+        <f t="shared" si="104"/>
+        <v>7026.0530133947568</v>
+      </c>
+      <c r="J179" s="5">
+        <f t="shared" si="104"/>
+        <v>183.0254993684367</v>
+      </c>
+      <c r="K179" s="5">
+        <f t="shared" si="104"/>
+        <v>1081.3689234678905</v>
+      </c>
+      <c r="L179" s="5">
+        <f t="shared" si="104"/>
+        <v>197812.94532877277</v>
+      </c>
+      <c r="M179" s="5">
+        <f t="shared" si="104"/>
+        <v>102.51274791413948</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <f t="shared" si="95"/>
+        <v>1907</v>
+      </c>
+      <c r="B180" s="5">
+        <f t="shared" ref="B180:M180" si="105">(B154+B155)/2</f>
+        <v>185.06765163297044</v>
+      </c>
+      <c r="C180" s="5">
+        <f t="shared" si="105"/>
+        <v>6862.7284647681427</v>
+      </c>
+      <c r="D180" s="5">
+        <f t="shared" si="105"/>
+        <v>11174.554178951945</v>
+      </c>
+      <c r="E180" s="5">
+        <f t="shared" si="105"/>
+        <v>27.180128205128206</v>
+      </c>
+      <c r="F180" s="5">
+        <f t="shared" si="105"/>
+        <v>87053.139587588521</v>
+      </c>
+      <c r="G180" s="5">
+        <f t="shared" si="105"/>
+        <v>15143.916595919545</v>
+      </c>
+      <c r="H180" s="5">
+        <f t="shared" si="105"/>
+        <v>36668.56983148471</v>
+      </c>
+      <c r="I180" s="5">
+        <f t="shared" si="105"/>
+        <v>10133.187191484751</v>
+      </c>
+      <c r="J180" s="5">
+        <f t="shared" si="105"/>
+        <v>60.624266272042803</v>
+      </c>
+      <c r="K180" s="5">
+        <f t="shared" si="105"/>
+        <v>843.75154935424268</v>
+      </c>
+      <c r="L180" s="5">
+        <f t="shared" si="105"/>
+        <v>167392.44057889545</v>
+      </c>
+      <c r="M180" s="5">
+        <f t="shared" si="105"/>
+        <v>47.359793823607525</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <f t="shared" si="95"/>
+        <v>1908</v>
+      </c>
+      <c r="B181" s="5">
+        <f t="shared" ref="B181:M181" si="106">(B155+B156)/2</f>
+        <v>51</v>
+      </c>
+      <c r="C181" s="5">
+        <f t="shared" si="106"/>
+        <v>6555</v>
+      </c>
+      <c r="D181" s="5">
+        <f t="shared" si="106"/>
+        <v>8522</v>
+      </c>
+      <c r="E181" s="5">
+        <f t="shared" si="106"/>
+        <v>10</v>
+      </c>
+      <c r="F181" s="5">
+        <f t="shared" si="106"/>
+        <v>50850</v>
+      </c>
+      <c r="G181" s="5">
+        <f t="shared" si="106"/>
+        <v>11319.5</v>
+      </c>
+      <c r="H181" s="5">
+        <f t="shared" si="106"/>
+        <v>24554.5</v>
+      </c>
+      <c r="I181" s="5">
+        <f t="shared" si="106"/>
+        <v>7484</v>
+      </c>
+      <c r="J181" s="5">
+        <f t="shared" si="106"/>
+        <v>13.5</v>
+      </c>
+      <c r="K181" s="5">
+        <f t="shared" si="106"/>
+        <v>468</v>
+      </c>
+      <c r="L181" s="5">
+        <f t="shared" si="106"/>
+        <v>109843.5</v>
+      </c>
+      <c r="M181" s="5">
+        <f t="shared" si="106"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <f t="shared" si="95"/>
+        <v>1909</v>
+      </c>
+      <c r="B182" s="5">
+        <f t="shared" ref="B182:M182" si="107">(B156+B157)/2</f>
+        <v>48.5</v>
+      </c>
+      <c r="C182" s="5">
+        <f t="shared" si="107"/>
+        <v>12237</v>
+      </c>
+      <c r="D182" s="5">
+        <f t="shared" si="107"/>
+        <v>8478</v>
+      </c>
+      <c r="E182" s="5">
+        <f t="shared" si="107"/>
+        <v>1.5</v>
+      </c>
+      <c r="F182" s="5">
+        <f t="shared" si="107"/>
+        <v>45845</v>
+      </c>
+      <c r="G182" s="5">
+        <f t="shared" si="107"/>
+        <v>16281</v>
+      </c>
+      <c r="H182" s="5">
+        <f t="shared" si="107"/>
+        <v>43139.5</v>
+      </c>
+      <c r="I182" s="5">
+        <f t="shared" si="107"/>
+        <v>7912.5</v>
+      </c>
+      <c r="J182" s="5">
+        <f t="shared" si="107"/>
+        <v>52</v>
+      </c>
+      <c r="K182" s="5">
+        <f t="shared" si="107"/>
+        <v>963</v>
+      </c>
+      <c r="L182" s="5">
+        <f t="shared" si="107"/>
+        <v>135091.5</v>
+      </c>
+      <c r="M182" s="5">
+        <f t="shared" si="107"/>
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <f t="shared" si="95"/>
+        <v>1910</v>
+      </c>
+      <c r="B183" s="5">
+        <f t="shared" ref="B183:M183" si="108">(B157+B158)/2</f>
+        <v>94.68118195956454</v>
+      </c>
+      <c r="C183" s="5">
+        <f t="shared" si="108"/>
+        <v>9515</v>
+      </c>
+      <c r="D183" s="5">
+        <f t="shared" si="108"/>
+        <v>8907.673711945039</v>
+      </c>
+      <c r="E183" s="5">
+        <f t="shared" si="108"/>
+        <v>11.776602564102564</v>
+      </c>
+      <c r="F183" s="5">
+        <f t="shared" si="108"/>
+        <v>58902.811793744084</v>
+      </c>
+      <c r="G183" s="5">
+        <f t="shared" si="108"/>
+        <v>16845.5</v>
+      </c>
+      <c r="H183" s="5">
+        <f t="shared" si="108"/>
+        <v>43189.884265157751</v>
+      </c>
+      <c r="I183" s="5">
+        <f t="shared" si="108"/>
+        <v>12144</v>
+      </c>
+      <c r="J183" s="5">
+        <f t="shared" si="108"/>
+        <v>119.70904126213593</v>
+      </c>
+      <c r="K183" s="5">
+        <f t="shared" si="108"/>
+        <v>1023.4863213478793</v>
+      </c>
+      <c r="L183" s="5">
+        <f t="shared" si="108"/>
+        <v>150549</v>
+      </c>
+      <c r="M183" s="5">
+        <f t="shared" si="108"/>
+        <v>211.18767028480519</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <f t="shared" si="95"/>
+        <v>1911</v>
+      </c>
+      <c r="B184" s="5">
+        <f t="shared" ref="B184:M184" si="109">(B158+B159)/2</f>
+        <v>186.68118195956453</v>
+      </c>
+      <c r="C184" s="5">
+        <f t="shared" si="109"/>
+        <v>4001</v>
+      </c>
+      <c r="D184" s="5">
+        <f t="shared" si="109"/>
+        <v>9407.173711945039</v>
+      </c>
+      <c r="E184" s="5">
+        <f t="shared" si="109"/>
+        <v>14.776602564102564</v>
+      </c>
+      <c r="F184" s="5">
+        <f t="shared" si="109"/>
+        <v>57608.811793744084</v>
+      </c>
+      <c r="G184" s="5">
+        <f t="shared" si="109"/>
+        <v>11712</v>
+      </c>
+      <c r="H184" s="5">
+        <f t="shared" si="109"/>
+        <v>32996.384265157751</v>
+      </c>
+      <c r="I184" s="5">
+        <f t="shared" si="109"/>
+        <v>13352.5</v>
+      </c>
+      <c r="J184" s="5">
+        <f t="shared" si="109"/>
+        <v>213.20904126213594</v>
+      </c>
+      <c r="K184" s="5">
+        <f t="shared" si="109"/>
+        <v>512.98632134787931</v>
+      </c>
+      <c r="L184" s="5">
+        <f t="shared" si="109"/>
+        <v>129691</v>
+      </c>
+      <c r="M184" s="5">
+        <f t="shared" si="109"/>
+        <v>102.18767028480519</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <f t="shared" si="95"/>
+        <v>1912</v>
+      </c>
+      <c r="B185" s="5">
+        <f t="shared" ref="B185:M185" si="110">(B159+B160)/2</f>
+        <v>538.69206842923791</v>
+      </c>
+      <c r="C185" s="5">
+        <f t="shared" si="110"/>
+        <v>5691</v>
+      </c>
+      <c r="D185" s="5">
+        <f t="shared" si="110"/>
+        <v>13699.730376375734</v>
+      </c>
+      <c r="E185" s="5">
+        <f t="shared" si="110"/>
+        <v>15.182692307692308</v>
+      </c>
+      <c r="F185" s="5">
+        <f t="shared" si="110"/>
+        <v>61615.021887619987</v>
+      </c>
+      <c r="G185" s="5">
+        <f t="shared" si="110"/>
+        <v>15120.5</v>
+      </c>
+      <c r="H185" s="5">
+        <f t="shared" si="110"/>
+        <v>59429.590283610269</v>
+      </c>
+      <c r="I185" s="5">
+        <f t="shared" si="110"/>
+        <v>28053.5</v>
+      </c>
+      <c r="J185" s="5">
+        <f t="shared" si="110"/>
+        <v>606.10974650782646</v>
+      </c>
+      <c r="K185" s="5">
+        <f t="shared" si="110"/>
+        <v>587.43671046891563</v>
+      </c>
+      <c r="L185" s="5">
+        <f t="shared" si="110"/>
+        <v>195915.5</v>
+      </c>
+      <c r="M185" s="5">
+        <f t="shared" si="110"/>
+        <v>92.823525042648214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <f t="shared" si="95"/>
+        <v>1913</v>
+      </c>
+      <c r="B186" s="5">
+        <f t="shared" ref="B186:M186" si="111">(B160+B161)/2</f>
+        <v>829.69206842923791</v>
+      </c>
+      <c r="C186" s="5">
+        <f t="shared" si="111"/>
+        <v>8409.5</v>
+      </c>
+      <c r="D186" s="5">
+        <f t="shared" si="111"/>
+        <v>12982.730376375734</v>
+      </c>
+      <c r="E186" s="5">
+        <f t="shared" si="111"/>
+        <v>41.182692307692307</v>
+      </c>
+      <c r="F186" s="5">
+        <f t="shared" si="111"/>
+        <v>83876.52188761998</v>
+      </c>
+      <c r="G186" s="5">
+        <f t="shared" si="111"/>
+        <v>17962.5</v>
+      </c>
+      <c r="H186" s="5">
+        <f t="shared" si="111"/>
+        <v>64907.590283610269</v>
+      </c>
+      <c r="I186" s="5">
+        <f t="shared" si="111"/>
+        <v>33841.5</v>
+      </c>
+      <c r="J186" s="5">
+        <f t="shared" si="111"/>
+        <v>1718.6097465078265</v>
+      </c>
+      <c r="K186" s="5">
+        <f t="shared" si="111"/>
+        <v>767.43671046891563</v>
+      </c>
+      <c r="L186" s="5">
+        <f t="shared" si="111"/>
+        <v>236163</v>
+      </c>
+      <c r="M186" s="5">
+        <f t="shared" si="111"/>
+        <v>359.82352504264821</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <f t="shared" si="95"/>
+        <v>1914</v>
+      </c>
+      <c r="B187" s="5">
+        <f t="shared" ref="B187:M187" si="112">(B161+B162)/2</f>
+        <v>319</v>
+      </c>
+      <c r="C187" s="5">
+        <f t="shared" si="112"/>
+        <v>4819.5</v>
+      </c>
+      <c r="D187" s="5">
+        <f t="shared" si="112"/>
+        <v>4908</v>
+      </c>
+      <c r="E187" s="5">
+        <f t="shared" si="112"/>
+        <v>35</v>
+      </c>
+      <c r="F187" s="5">
+        <f t="shared" si="112"/>
+        <v>56043.5</v>
+      </c>
+      <c r="G187" s="5">
+        <f t="shared" si="112"/>
+        <v>8290.5</v>
+      </c>
+      <c r="H187" s="5">
+        <f t="shared" si="112"/>
+        <v>23645.5</v>
+      </c>
+      <c r="I187" s="5">
+        <f t="shared" si="112"/>
+        <v>8033.5</v>
+      </c>
+      <c r="J187" s="5">
+        <f t="shared" si="112"/>
+        <v>1297</v>
+      </c>
+      <c r="K187" s="5">
+        <f t="shared" si="112"/>
+        <v>401.5</v>
+      </c>
+      <c r="L187" s="5">
+        <f t="shared" si="112"/>
+        <v>108049.5</v>
+      </c>
+      <c r="M187" s="5">
+        <f t="shared" si="112"/>
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <f t="shared" si="95"/>
+        <v>1915</v>
+      </c>
+      <c r="B188" s="5">
+        <f t="shared" ref="B188:M188" si="113">(B162+B163)/2</f>
+        <v>-243</v>
+      </c>
+      <c r="C188" s="5">
+        <f t="shared" si="113"/>
+        <v>2189</v>
+      </c>
+      <c r="D188" s="5">
+        <f t="shared" si="113"/>
+        <v>390.5</v>
+      </c>
+      <c r="E188" s="5">
+        <f t="shared" si="113"/>
+        <v>7</v>
+      </c>
+      <c r="F188" s="5">
+        <f t="shared" si="113"/>
+        <v>7858</v>
+      </c>
+      <c r="G188" s="5">
+        <f t="shared" si="113"/>
+        <v>681.5</v>
+      </c>
+      <c r="H188" s="5">
+        <f t="shared" si="113"/>
+        <v>-80</v>
+      </c>
+      <c r="I188" s="5">
+        <f t="shared" si="113"/>
+        <v>-5775.5</v>
+      </c>
+      <c r="J188" s="5">
+        <f t="shared" si="113"/>
+        <v>60</v>
+      </c>
+      <c r="K188" s="5">
+        <f t="shared" si="113"/>
+        <v>172</v>
+      </c>
+      <c r="L188" s="5">
+        <f t="shared" si="113"/>
+        <v>5236.5</v>
+      </c>
+      <c r="M188" s="5">
+        <f t="shared" si="113"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>1916</v>
       </c>
-      <c r="B176" s="5">
-        <f t="shared" ref="B176:M176" si="111">(B150+B151)/2</f>
-        <v>-128.32968636032092</v>
-      </c>
-      <c r="C176" s="5">
-        <f t="shared" si="111"/>
+      <c r="B189" s="5">
+        <f t="shared" ref="B189:M189" si="114">(B163+B164)/2</f>
+        <v>-107.10419906687403</v>
+      </c>
+      <c r="C189" s="5">
+        <f t="shared" si="114"/>
         <v>2972</v>
       </c>
-      <c r="D176" s="5">
-        <f t="shared" si="111"/>
-        <v>22.585382541151848</v>
-      </c>
-      <c r="E176" s="5">
-        <f t="shared" si="111"/>
-        <v>5.4916666666666671</v>
-      </c>
-      <c r="F176" s="5">
-        <f t="shared" si="111"/>
-        <v>4229.8384727477169</v>
-      </c>
-      <c r="G176" s="5">
-        <f t="shared" si="111"/>
+      <c r="D189" s="5">
+        <f t="shared" si="114"/>
+        <v>39.941254672041978</v>
+      </c>
+      <c r="E189" s="5">
+        <f t="shared" si="114"/>
+        <v>5.4669871794871794</v>
+      </c>
+      <c r="F189" s="5">
+        <f t="shared" si="114"/>
+        <v>4229.0995617860081</v>
+      </c>
+      <c r="G189" s="5">
+        <f t="shared" si="114"/>
         <v>72.5</v>
       </c>
-      <c r="H176" s="5">
-        <f t="shared" si="111"/>
+      <c r="H189" s="5">
+        <f t="shared" si="114"/>
         <v>144.5</v>
       </c>
-      <c r="I176" s="5">
-        <f t="shared" si="111"/>
+      <c r="I189" s="5">
+        <f t="shared" si="114"/>
         <v>-4233.5</v>
       </c>
-      <c r="J176" s="5">
-        <f t="shared" si="111"/>
-        <v>4.1198422330097086</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="111"/>
-        <v>336.73307067224823</v>
-      </c>
-      <c r="L176" s="5">
-        <f t="shared" si="111"/>
+      <c r="J189" s="5">
+        <f t="shared" si="114"/>
+        <v>4.1324657593619971</v>
+      </c>
+      <c r="K189" s="5">
+        <f t="shared" si="114"/>
+        <v>337.10448796340427</v>
+      </c>
+      <c r="L189" s="5">
+        <f t="shared" si="114"/>
         <v>4676</v>
       </c>
-      <c r="M176" s="5">
-        <f t="shared" si="111"/>
-        <v>8.5175097276264609</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
+      <c r="M189" s="5">
+        <f t="shared" si="114"/>
+        <v>10.585285476058125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B177" s="5">
-        <f>SUM(B156:B176)</f>
-        <v>1544.7457308062417</v>
-      </c>
-      <c r="C177" s="5">
-        <f t="shared" ref="C177:M177" si="112">SUM(C156:C176)</f>
-        <v>153159.81224632397</v>
-      </c>
-      <c r="D177" s="5">
-        <f t="shared" si="112"/>
-        <v>146940.60162951</v>
-      </c>
-      <c r="E177" s="5">
-        <f t="shared" si="112"/>
-        <v>210.41151055158508</v>
-      </c>
-      <c r="F177" s="5">
-        <f t="shared" si="112"/>
-        <v>1052144.1786561161</v>
-      </c>
-      <c r="G177" s="5">
-        <f t="shared" si="112"/>
-        <v>208615.7167978205</v>
-      </c>
-      <c r="H177" s="5">
-        <f t="shared" si="112"/>
-        <v>558060.77822237462</v>
-      </c>
-      <c r="I177" s="5">
-        <f t="shared" si="112"/>
-        <v>128726.167598578</v>
-      </c>
-      <c r="J177" s="5">
-        <f t="shared" si="112"/>
-        <v>4822.5382204803391</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="112"/>
-        <v>16981.002228871173</v>
-      </c>
-      <c r="L177" s="5">
-        <f t="shared" si="112"/>
-        <v>2270430.4760272582</v>
-      </c>
-      <c r="M177" s="5">
-        <f t="shared" si="112"/>
-        <v>1620.5916567592556</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="13" t="s">
+      <c r="B190" s="5">
+        <f>SUM(B169:B189)</f>
+        <v>2209.0755599135732</v>
+      </c>
+      <c r="C190" s="5">
+        <f t="shared" ref="C190:M190" si="115">SUM(C169:C189)</f>
+        <v>153233.88762800611</v>
+      </c>
+      <c r="D190" s="5">
+        <f t="shared" si="115"/>
+        <v>147102.62670729027</v>
+      </c>
+      <c r="E190" s="5">
+        <f t="shared" si="115"/>
+        <v>209.79386488921369</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" si="115"/>
+        <v>1051975.7085800793</v>
+      </c>
+      <c r="G190" s="5">
+        <f t="shared" si="115"/>
+        <v>208918.27769395427</v>
+      </c>
+      <c r="H190" s="5">
+        <f t="shared" si="115"/>
+        <v>561748.21613535145</v>
+      </c>
+      <c r="I190" s="5">
+        <f t="shared" si="115"/>
+        <v>130949.29153207384</v>
+      </c>
+      <c r="J190" s="5">
+        <f t="shared" si="115"/>
+        <v>4830.1634515373526</v>
+      </c>
+      <c r="K190" s="5">
+        <f t="shared" si="115"/>
+        <v>17004.588031572483</v>
+      </c>
+      <c r="L190" s="5">
+        <f t="shared" si="115"/>
+        <v>2281457.2534090141</v>
+      </c>
+      <c r="M190" s="5">
+        <f t="shared" si="115"/>
+        <v>1691.9874342194878</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B178" s="5">
-        <f>100*B177/$L177</f>
-        <v>6.8037570280909843E-2</v>
-      </c>
-      <c r="C178" s="28">
-        <f t="shared" ref="C178:M178" si="113">100*C177/$L177</f>
-        <v>6.7458490301063581</v>
-      </c>
-      <c r="D178" s="28">
-        <f t="shared" si="113"/>
-        <v>6.471926939891282</v>
-      </c>
-      <c r="E178" s="28">
-        <f t="shared" si="113"/>
-        <v>9.2674720839617079E-3</v>
-      </c>
-      <c r="F178" s="28">
-        <f t="shared" si="113"/>
-        <v>46.341175815131386</v>
-      </c>
-      <c r="G178" s="28">
-        <f t="shared" si="113"/>
-        <v>9.1883772262804975</v>
-      </c>
-      <c r="H178" s="28">
-        <f t="shared" si="113"/>
-        <v>24.57951406637455</v>
-      </c>
-      <c r="I178" s="28">
-        <f t="shared" si="113"/>
-        <v>5.6696811004677752</v>
-      </c>
-      <c r="J178" s="28">
-        <f t="shared" si="113"/>
-        <v>0.21240633753818769</v>
-      </c>
-      <c r="K178" s="28">
-        <f t="shared" si="113"/>
-        <v>0.74791993889124064</v>
-      </c>
-      <c r="L178" s="28">
-        <f t="shared" si="113"/>
+      <c r="B191" s="5">
+        <f>100*B190/$L190</f>
+        <v>9.6827392080772665E-2</v>
+      </c>
+      <c r="C191" s="28">
+        <f t="shared" ref="C191:M191" si="116">100*C190/$L190</f>
+        <v>6.7164917247097211</v>
+      </c>
+      <c r="D191" s="28">
+        <f t="shared" si="116"/>
+        <v>6.4477485382417576</v>
+      </c>
+      <c r="E191" s="28">
+        <f t="shared" si="116"/>
+        <v>9.1956079639771513E-3</v>
+      </c>
+      <c r="F191" s="28">
+        <f t="shared" si="116"/>
+        <v>46.109814549809741</v>
+      </c>
+      <c r="G191" s="28">
+        <f t="shared" si="116"/>
+        <v>9.1572295462377404</v>
+      </c>
+      <c r="H191" s="28">
+        <f t="shared" si="116"/>
+        <v>24.622342377704964</v>
+      </c>
+      <c r="I191" s="28">
+        <f t="shared" si="116"/>
+        <v>5.739721458134091</v>
+      </c>
+      <c r="J191" s="28">
+        <f t="shared" si="116"/>
+        <v>0.21171395801170476</v>
+      </c>
+      <c r="K191" s="28">
+        <f t="shared" si="116"/>
+        <v>0.74533888400336124</v>
+      </c>
+      <c r="L191" s="28">
+        <f t="shared" si="116"/>
         <v>100</v>
       </c>
-      <c r="M178" s="28">
-        <f t="shared" si="113"/>
-        <v>7.1378166998309761E-2</v>
+      <c r="M191" s="28">
+        <f t="shared" si="116"/>
+        <v>7.4162574455045135E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10543,7 +10946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F1B77F-63AA-4843-B8D8-CA14FF4F0797}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -11427,8 +11830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11482,40 +11885,40 @@
         <v>1896</v>
       </c>
       <c r="B2" s="5">
-        <v>0.17322361259946167</v>
+        <v>0.16110065370836404</v>
       </c>
       <c r="C2" s="5">
-        <v>4941.8964438500416</v>
+        <v>3723.4145451779477</v>
       </c>
       <c r="D2" s="5">
-        <v>2836.5366563161847</v>
+        <v>2682.5279418312398</v>
       </c>
       <c r="E2" s="5">
-        <v>0.51967083779838497</v>
+        <v>0.42206599454522681</v>
       </c>
       <c r="F2" s="5">
-        <v>17139.783572266333</v>
+        <v>16041.484395295356</v>
       </c>
       <c r="G2" s="5">
-        <v>4493.4205108300348</v>
+        <v>3676.4212176308129</v>
       </c>
       <c r="H2" s="5">
-        <v>10305.419160767173</v>
+        <v>7550.8722636397251</v>
       </c>
       <c r="I2" s="5">
-        <v>602.29850100832823</v>
+        <v>396.10438507724155</v>
       </c>
       <c r="J2" s="5">
-        <v>7.1021681165779267</v>
+        <v>6.3563709835465261</v>
       </c>
       <c r="K2" s="5">
-        <v>674.8791946875026</v>
+        <v>620.30887227377957</v>
       </c>
       <c r="L2" s="5">
-        <v>41058.5</v>
+        <v>34225.730774792741</v>
       </c>
       <c r="M2" s="5">
-        <v>56.470897707424228</v>
+        <v>27.831667794068927</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -11523,40 +11926,40 @@
         <v>1897</v>
       </c>
       <c r="B3" s="5">
-        <v>0.13613485440415818</v>
+        <v>0.12660753177867279</v>
       </c>
       <c r="C3" s="5">
-        <v>3883.7912612962291</v>
+        <v>2926.1974703539927</v>
       </c>
       <c r="D3" s="5">
-        <v>2229.2082408680903</v>
+        <v>2108.1741993263158</v>
       </c>
       <c r="E3" s="5">
-        <v>0.40840456321247454</v>
+        <v>0.33169780871167004</v>
       </c>
       <c r="F3" s="5">
-        <v>13469.999303873836</v>
+        <v>12606.856015811412</v>
       </c>
       <c r="G3" s="5">
-        <v>3531.3381232438633</v>
+        <v>2889.2658436110005</v>
       </c>
       <c r="H3" s="5">
-        <v>8098.9347582121791</v>
+        <v>5934.1615199531125</v>
       </c>
       <c r="I3" s="5">
-        <v>473.34088876325808</v>
+        <v>311.29481704104853</v>
       </c>
       <c r="J3" s="5">
-        <v>5.5815290305704854</v>
+        <v>4.9954138780420028</v>
       </c>
       <c r="K3" s="5">
-        <v>530.38139275860033</v>
+        <v>487.4950749806784</v>
       </c>
       <c r="L3" s="5">
-        <v>32267.5</v>
+        <v>26897.689096669987</v>
       </c>
       <c r="M3" s="5">
-        <v>44.379962535755112</v>
+        <v>21.872653422436628</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -11564,40 +11967,40 @@
         <v>1898</v>
       </c>
       <c r="B4" s="5">
-        <v>7.2890737724975313E-2</v>
+        <v>6.7789519688235211E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>5103.4998565558208</v>
+        <v>3845.172761736269</v>
       </c>
       <c r="D4" s="5">
-        <v>3885.0858302464708</v>
+        <v>3674.146524016247</v>
       </c>
       <c r="E4" s="5">
-        <v>0.71867221317492591</v>
+        <v>0.58369082954655838</v>
       </c>
       <c r="F4" s="5">
-        <v>19349.746934935407</v>
+        <v>18109.835646462459</v>
       </c>
       <c r="G4" s="5">
-        <v>5309.7857365858599</v>
+        <v>4344.3539050058207</v>
       </c>
       <c r="H4" s="5">
-        <v>12094.915768734232</v>
+        <v>8862.052342021896</v>
       </c>
       <c r="I4" s="5">
-        <v>1081.9410950697393</v>
+        <v>711.54354765108474</v>
       </c>
       <c r="J4" s="5">
-        <v>17.488520246723986</v>
+        <v>15.652054529934833</v>
       </c>
       <c r="K4" s="5">
-        <v>789.98231417650391</v>
+        <v>726.10482332317792</v>
       </c>
       <c r="L4" s="5">
-        <v>47768</v>
+        <v>39818.666235987665</v>
       </c>
       <c r="M4" s="5">
-        <v>134.76238049834137</v>
+        <v>66.417605482383735</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -11605,40 +12008,40 @@
         <v>1899</v>
       </c>
       <c r="B5" s="5">
-        <v>0.5</v>
+        <v>0.46500777604976673</v>
       </c>
       <c r="C5" s="5">
-        <v>9281.5</v>
+        <v>6993.0385012571469</v>
       </c>
       <c r="D5" s="5">
-        <v>5366</v>
+        <v>5074.6550035988339</v>
       </c>
       <c r="E5" s="5">
-        <v>1.5</v>
+        <v>1.2182692307692307</v>
       </c>
       <c r="F5" s="5">
-        <v>30643</v>
+        <v>28679.429016853006</v>
       </c>
       <c r="G5" s="5">
-        <v>8567.5</v>
+        <v>7009.7465185232923</v>
       </c>
       <c r="H5" s="5">
-        <v>19008.5</v>
+        <v>13927.696989737073</v>
       </c>
       <c r="I5" s="5">
-        <v>1411</v>
+        <v>927.95065305377466</v>
       </c>
       <c r="J5" s="5">
-        <v>14.5</v>
+        <v>12.977358145928275</v>
       </c>
       <c r="K5" s="5">
-        <v>1435.5</v>
+        <v>1319.42634053392</v>
       </c>
       <c r="L5" s="5">
-        <v>75884.5</v>
+        <v>63256.145913264234</v>
       </c>
       <c r="M5" s="5">
-        <v>155</v>
+        <v>76.391711186017403</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -11646,40 +12049,40 @@
         <v>1900</v>
       </c>
       <c r="B6" s="5">
-        <v>0.5</v>
+        <v>0.46500777604976673</v>
       </c>
       <c r="C6" s="5">
-        <v>11240.5</v>
+        <v>8469.0243250962631</v>
       </c>
       <c r="D6" s="5">
-        <v>5496</v>
+        <v>5197.5967014124471</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>0.81217948717948718</v>
       </c>
       <c r="F6" s="5">
-        <v>37335.5</v>
+        <v>34943.08070550258</v>
       </c>
       <c r="G6" s="5">
-        <v>9551</v>
+        <v>7814.4253280905705</v>
       </c>
       <c r="H6" s="5">
-        <v>21987.5</v>
+        <v>16110.436781536886</v>
       </c>
       <c r="I6" s="5">
-        <v>910</v>
+        <v>598.46569403184617</v>
       </c>
       <c r="J6" s="5">
-        <v>6</v>
+        <v>5.3699413017634239</v>
       </c>
       <c r="K6" s="5">
-        <v>1442</v>
+        <v>1325.4007544757317</v>
       </c>
       <c r="L6" s="5">
-        <v>88022</v>
+        <v>73373.778249541676</v>
       </c>
       <c r="M6" s="5">
-        <v>52</v>
+        <v>25.62818697853487</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -11690,37 +12093,37 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>11910</v>
+        <v>8973.4513332944698</v>
       </c>
       <c r="D7" s="5">
-        <v>7092.5</v>
+        <v>6707.4153211003968</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>37753</v>
+        <v>35333.827747715681</v>
       </c>
       <c r="G7" s="5">
-        <v>9390</v>
+        <v>7682.6985478767092</v>
       </c>
       <c r="H7" s="5">
-        <v>27667</v>
+        <v>20271.856938477817</v>
       </c>
       <c r="I7" s="5">
-        <v>1095.5</v>
+        <v>720.46062396910713</v>
       </c>
       <c r="J7" s="5">
-        <v>6</v>
+        <v>5.3699413017634239</v>
       </c>
       <c r="K7" s="5">
-        <v>1376</v>
+        <v>1264.7374744511835</v>
       </c>
       <c r="L7" s="5">
-        <v>96302</v>
+        <v>80275.858228481084</v>
       </c>
       <c r="M7" s="5">
-        <v>12</v>
+        <v>5.9141969950465088</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -11731,37 +12134,37 @@
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>16315</v>
+        <v>12292.347481334951</v>
       </c>
       <c r="D8" s="5">
-        <v>9513.5</v>
+        <v>8996.9680165369937</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>42767.5</v>
+        <v>40027.003899039293</v>
       </c>
       <c r="G8" s="5">
-        <v>12197.5</v>
+        <v>9979.735414028346</v>
       </c>
       <c r="H8" s="5">
-        <v>36703.5</v>
+        <v>26892.980848715823</v>
       </c>
       <c r="I8" s="5">
-        <v>2550.5</v>
+        <v>1677.3480798112346</v>
       </c>
       <c r="J8" s="5">
-        <v>12</v>
+        <v>10.739882603526848</v>
       </c>
       <c r="K8" s="5">
-        <v>1649</v>
+        <v>1515.6628600072686</v>
       </c>
       <c r="L8" s="5">
-        <v>121720</v>
+        <v>101463.91002856343</v>
       </c>
       <c r="M8" s="5">
-        <v>11.5</v>
+        <v>5.6677721202529039</v>
       </c>
       <c r="O8" s="5"/>
     </row>
@@ -11770,40 +12173,40 @@
         <v>1903</v>
       </c>
       <c r="B9" s="5">
-        <v>8.5</v>
+        <v>7.9051321928460343</v>
       </c>
       <c r="C9" s="5">
-        <v>14426.5</v>
+        <v>10869.479064632465</v>
       </c>
       <c r="D9" s="5">
-        <v>8806.5</v>
+        <v>8328.3543215044974</v>
       </c>
       <c r="E9" s="5">
-        <v>1.5</v>
+        <v>1.2182692307692307</v>
       </c>
       <c r="F9" s="5">
-        <v>62616.5</v>
+        <v>58604.101002962387</v>
       </c>
       <c r="G9" s="5">
-        <v>13563.5</v>
+        <v>11097.367598948429</v>
       </c>
       <c r="H9" s="5">
-        <v>36062.5</v>
+        <v>26423.314448399044</v>
       </c>
       <c r="I9" s="5">
-        <v>3736</v>
+        <v>2456.9976185747</v>
       </c>
       <c r="J9" s="5">
-        <v>98.5</v>
+        <v>88.156536370616209</v>
       </c>
       <c r="K9" s="5">
-        <v>1221</v>
+        <v>1122.270680454139</v>
       </c>
       <c r="L9" s="5">
-        <v>140617</v>
+        <v>117216.15705296176</v>
       </c>
       <c r="M9" s="5">
-        <v>76</v>
+        <v>37.45658096862789</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -11811,40 +12214,40 @@
         <v>1904</v>
       </c>
       <c r="B10" s="5">
-        <v>13.5</v>
+        <v>12.555209953343702</v>
       </c>
       <c r="C10" s="5">
-        <v>13374</v>
+        <v>10076.485149578526</v>
       </c>
       <c r="D10" s="5">
-        <v>6925</v>
+        <v>6549.0096719943958</v>
       </c>
       <c r="E10" s="5">
-        <v>4</v>
+        <v>3.2487179487179487</v>
       </c>
       <c r="F10" s="5">
-        <v>84966</v>
+        <v>79521.468715397728</v>
       </c>
       <c r="G10" s="5">
-        <v>15178</v>
+        <v>12418.31720550295</v>
       </c>
       <c r="H10" s="5">
-        <v>39900.5</v>
+        <v>29235.451179156909</v>
       </c>
       <c r="I10" s="5">
-        <v>3592.5</v>
+        <v>2362.6241822081397</v>
       </c>
       <c r="J10" s="5">
-        <v>175.5</v>
+        <v>157.07078307658014</v>
       </c>
       <c r="K10" s="5">
-        <v>780.5</v>
+        <v>717.3892433206023</v>
       </c>
       <c r="L10" s="5">
-        <v>165019</v>
+        <v>137557.28696190857</v>
       </c>
       <c r="M10" s="5">
-        <v>109.5</v>
+        <v>53.967047579799399</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -11852,40 +12255,40 @@
         <v>1905</v>
       </c>
       <c r="B11" s="5">
-        <v>70</v>
+        <v>65.101088646967341</v>
       </c>
       <c r="C11" s="5">
-        <v>15066</v>
+        <v>11351.302920857639</v>
       </c>
       <c r="D11" s="5">
-        <v>8500.5</v>
+        <v>8038.9684789586081</v>
       </c>
       <c r="E11" s="5">
-        <v>10</v>
+        <v>8.1217948717948723</v>
       </c>
       <c r="F11" s="5">
-        <v>108811</v>
+        <v>101838.5063718563</v>
       </c>
       <c r="G11" s="5">
-        <v>15673</v>
+        <v>12823.31569125364</v>
       </c>
       <c r="H11" s="5">
-        <v>46714</v>
+        <v>34227.763220589615</v>
       </c>
       <c r="I11" s="5">
-        <v>4280</v>
+        <v>2814.7617257761553</v>
       </c>
       <c r="J11" s="5">
-        <v>218.5</v>
+        <v>195.55536240588469</v>
       </c>
       <c r="K11" s="5">
-        <v>813.5</v>
+        <v>747.72088333287638</v>
       </c>
       <c r="L11" s="5">
-        <v>200281</v>
+        <v>166951.14495917445</v>
       </c>
       <c r="M11" s="5">
-        <v>124.5</v>
+        <v>61.359793823607532</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -11893,40 +12296,40 @@
         <v>1906</v>
       </c>
       <c r="B12" s="5">
-        <v>235.5</v>
+        <v>219.01866251944011</v>
       </c>
       <c r="C12" s="5">
-        <v>13886</v>
+        <v>10462.245609918304</v>
       </c>
       <c r="D12" s="5">
-        <v>11879.5</v>
+        <v>11234.506916744755</v>
       </c>
       <c r="E12" s="5">
-        <v>30.5</v>
+        <v>24.771474358974359</v>
       </c>
       <c r="F12" s="5">
-        <v>120083</v>
+        <v>112388.20855108049</v>
       </c>
       <c r="G12" s="5">
-        <v>19254</v>
+        <v>15753.213827563171</v>
       </c>
       <c r="H12" s="5">
-        <v>59663</v>
+        <v>43715.610674102798</v>
       </c>
       <c r="I12" s="5">
-        <v>10683.5</v>
+        <v>7026.0530133947568</v>
       </c>
       <c r="J12" s="5">
-        <v>204.5</v>
+        <v>183.0254993684367</v>
       </c>
       <c r="K12" s="5">
-        <v>1176.5</v>
+        <v>1081.3689234678905</v>
       </c>
       <c r="L12" s="5">
-        <v>237304</v>
+        <v>197812.94532877277</v>
       </c>
       <c r="M12" s="5">
-        <v>208</v>
+        <v>102.51274791413948</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -11934,40 +12337,40 @@
         <v>1907</v>
       </c>
       <c r="B13" s="5">
-        <v>201.5</v>
+        <v>185.06765163297044</v>
       </c>
       <c r="C13" s="5">
-        <v>10307</v>
+        <v>6862.7284647681427</v>
       </c>
       <c r="D13" s="5">
-        <v>11744.5</v>
+        <v>11174.554178951945</v>
       </c>
       <c r="E13" s="5">
-        <v>35</v>
+        <v>27.180128205128206</v>
       </c>
       <c r="F13" s="5">
-        <v>93455</v>
+        <v>87053.139587588521</v>
       </c>
       <c r="G13" s="5">
-        <v>19040.5</v>
+        <v>15143.916595919545</v>
       </c>
       <c r="H13" s="5">
-        <v>55534.5</v>
+        <v>36668.56983148471</v>
       </c>
       <c r="I13" s="5">
-        <v>16204.5</v>
+        <v>10133.187191484751</v>
       </c>
       <c r="J13" s="5">
-        <v>93.5</v>
+        <v>60.624266272042803</v>
       </c>
       <c r="K13" s="5">
-        <v>971.5</v>
+        <v>843.75154935424268</v>
       </c>
       <c r="L13" s="5">
-        <v>207827</v>
+        <v>167392.44057889545</v>
       </c>
       <c r="M13" s="5">
-        <v>239.5</v>
+        <v>47.359793823607525</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -11975,40 +12378,40 @@
         <v>1908</v>
       </c>
       <c r="B14" s="5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5">
-        <v>8752.5</v>
+        <v>6555</v>
       </c>
       <c r="D14" s="5">
-        <v>8895</v>
+        <v>8522</v>
       </c>
       <c r="E14" s="5">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5">
-        <v>55564</v>
+        <v>50850</v>
       </c>
       <c r="G14" s="5">
-        <v>13932.5</v>
+        <v>11319.5</v>
       </c>
       <c r="H14" s="5">
-        <v>37858.5</v>
+        <v>24554.5</v>
       </c>
       <c r="I14" s="5">
-        <v>12711.5</v>
+        <v>7484</v>
       </c>
       <c r="J14" s="5">
-        <v>53.5</v>
+        <v>13.5</v>
       </c>
       <c r="K14" s="5">
-        <v>559</v>
+        <v>468</v>
       </c>
       <c r="L14" s="5">
-        <v>138585.5</v>
+        <v>109843.5</v>
       </c>
       <c r="M14" s="5">
-        <v>188.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -12016,40 +12419,40 @@
         <v>1909</v>
       </c>
       <c r="B15" s="5">
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="C15" s="5">
-        <v>13100.5</v>
+        <v>12237</v>
       </c>
       <c r="D15" s="5">
-        <v>8898.5</v>
+        <v>8478</v>
       </c>
       <c r="E15" s="5">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F15" s="5">
-        <v>49487</v>
+        <v>45845</v>
       </c>
       <c r="G15" s="5">
-        <v>18135.5</v>
+        <v>16281</v>
       </c>
       <c r="H15" s="5">
-        <v>50702.5</v>
+        <v>43139.5</v>
       </c>
       <c r="I15" s="5">
-        <v>11933.5</v>
+        <v>7912.5</v>
       </c>
       <c r="J15" s="5">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="K15" s="5">
-        <v>994.5</v>
+        <v>963</v>
       </c>
       <c r="L15" s="5">
-        <v>153626</v>
+        <v>135091.5</v>
       </c>
       <c r="M15" s="5">
-        <v>233</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -12057,40 +12460,40 @@
         <v>1910</v>
       </c>
       <c r="B16" s="5">
-        <v>102</v>
+        <v>94.68118195956454</v>
       </c>
       <c r="C16" s="5">
-        <v>11970.5</v>
+        <v>9515</v>
       </c>
       <c r="D16" s="5">
-        <v>9397.5</v>
+        <v>8907.673711945039</v>
       </c>
       <c r="E16" s="5">
-        <v>16</v>
+        <v>11.776602564102564</v>
       </c>
       <c r="F16" s="5">
-        <v>62648</v>
+        <v>58902.811793744084</v>
       </c>
       <c r="G16" s="5">
-        <v>18943</v>
+        <v>16845.5</v>
       </c>
       <c r="H16" s="5">
-        <v>51914</v>
+        <v>43189.884265157751</v>
       </c>
       <c r="I16" s="5">
-        <v>16174.5</v>
+        <v>12144</v>
       </c>
       <c r="J16" s="5">
-        <v>149</v>
+        <v>119.70904126213593</v>
       </c>
       <c r="K16" s="5">
-        <v>1064</v>
+        <v>1023.4863213478793</v>
       </c>
       <c r="L16" s="5">
-        <v>172756.5</v>
+        <v>150549</v>
       </c>
       <c r="M16" s="5">
-        <v>378</v>
+        <v>211.18767028480519</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -12098,40 +12501,40 @@
         <v>1911</v>
       </c>
       <c r="B17" s="5">
-        <v>201</v>
+        <v>186.68118195956453</v>
       </c>
       <c r="C17" s="5">
-        <v>7325.5</v>
+        <v>4001</v>
       </c>
       <c r="D17" s="5">
-        <v>9905</v>
+        <v>9407.173711945039</v>
       </c>
       <c r="E17" s="5">
-        <v>19</v>
+        <v>14.776602564102564</v>
       </c>
       <c r="F17" s="5">
-        <v>61930.5</v>
+        <v>57608.811793744084</v>
       </c>
       <c r="G17" s="5">
-        <v>14983</v>
+        <v>11712</v>
       </c>
       <c r="H17" s="5">
-        <v>45718.5</v>
+        <v>32996.384265157751</v>
       </c>
       <c r="I17" s="5">
-        <v>19341</v>
+        <v>13352.5</v>
       </c>
       <c r="J17" s="5">
-        <v>290</v>
+        <v>213.20904126213594</v>
       </c>
       <c r="K17" s="5">
-        <v>572</v>
+        <v>512.98632134787931</v>
       </c>
       <c r="L17" s="5">
-        <v>160558</v>
+        <v>129691</v>
       </c>
       <c r="M17" s="5">
-        <v>272.5</v>
+        <v>102.18767028480519</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -12139,40 +12542,40 @@
         <v>1912</v>
       </c>
       <c r="B18" s="5">
-        <v>579.5</v>
+        <v>538.69206842923791</v>
       </c>
       <c r="C18" s="5">
-        <v>8432.5</v>
+        <v>5691</v>
       </c>
       <c r="D18" s="5">
-        <v>14444</v>
+        <v>13699.730376375734</v>
       </c>
       <c r="E18" s="5">
-        <v>19.5</v>
+        <v>15.182692307692308</v>
       </c>
       <c r="F18" s="5">
-        <v>66211</v>
+        <v>61615.021887619987</v>
       </c>
       <c r="G18" s="5">
-        <v>18814.5</v>
+        <v>15120.5</v>
       </c>
       <c r="H18" s="5">
-        <v>81794.5</v>
+        <v>59429.590283610269</v>
       </c>
       <c r="I18" s="5">
-        <v>34786.5</v>
+        <v>28053.5</v>
       </c>
       <c r="J18" s="5">
-        <v>729</v>
+        <v>606.10974650782646</v>
       </c>
       <c r="K18" s="5">
-        <v>653</v>
+        <v>587.43671046891563</v>
       </c>
       <c r="L18" s="5">
-        <v>226717.5</v>
+        <v>195915.5</v>
       </c>
       <c r="M18" s="5">
-        <v>253.5</v>
+        <v>92.823525042648214</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -12180,40 +12583,40 @@
         <v>1913</v>
       </c>
       <c r="B19" s="5">
-        <v>890.5</v>
+        <v>829.69206842923791</v>
       </c>
       <c r="C19" s="5">
-        <v>11062</v>
+        <v>8409.5</v>
       </c>
       <c r="D19" s="5">
-        <v>13873</v>
+        <v>12982.730376375734</v>
       </c>
       <c r="E19" s="5">
-        <v>46.5</v>
+        <v>41.182692307692307</v>
       </c>
       <c r="F19" s="5">
-        <v>88335.5</v>
+        <v>83876.52188761998</v>
       </c>
       <c r="G19" s="5">
-        <v>22340.5</v>
+        <v>17962.5</v>
       </c>
       <c r="H19" s="5">
-        <v>89311.5</v>
+        <v>64907.590283610269</v>
       </c>
       <c r="I19" s="5">
-        <v>44356.5</v>
+        <v>33841.5</v>
       </c>
       <c r="J19" s="5">
-        <v>1808.5</v>
+        <v>1718.6097465078265</v>
       </c>
       <c r="K19" s="5">
-        <v>817.5</v>
+        <v>767.43671046891563</v>
       </c>
       <c r="L19" s="5">
-        <v>273350</v>
+        <v>236163</v>
       </c>
       <c r="M19" s="5">
-        <v>508</v>
+        <v>359.82352504264821</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -12221,40 +12624,40 @@
         <v>1914</v>
       </c>
       <c r="B20" s="5">
-        <v>456.5</v>
+        <v>319</v>
       </c>
       <c r="C20" s="5">
-        <v>6309</v>
+        <v>4819.5</v>
       </c>
       <c r="D20" s="5">
-        <v>5397</v>
+        <v>4908</v>
       </c>
       <c r="E20" s="5">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="F20" s="5">
-        <v>58567</v>
+        <v>56043.5</v>
       </c>
       <c r="G20" s="5">
-        <v>11513</v>
+        <v>8290.5</v>
       </c>
       <c r="H20" s="5">
-        <v>35382</v>
+        <v>23645.5</v>
       </c>
       <c r="I20" s="5">
-        <v>21135.5</v>
+        <v>8033.5</v>
       </c>
       <c r="J20" s="5">
-        <v>1350.5</v>
+        <v>1297</v>
       </c>
       <c r="K20" s="5">
-        <v>432</v>
+        <v>401.5</v>
       </c>
       <c r="L20" s="5">
-        <v>140923.5</v>
+        <v>108049.5</v>
       </c>
       <c r="M20" s="5">
-        <v>342.5</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -12262,40 +12665,40 @@
         <v>1915</v>
       </c>
       <c r="B21" s="5">
-        <v>42.5</v>
+        <v>-243</v>
       </c>
       <c r="C21" s="5">
-        <v>2742</v>
+        <v>2189</v>
       </c>
       <c r="D21" s="5">
-        <v>484</v>
+        <v>390.5</v>
       </c>
       <c r="E21" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="5">
-        <v>8317</v>
+        <v>7858</v>
       </c>
       <c r="G21" s="5">
-        <v>1177</v>
+        <v>681.5</v>
       </c>
       <c r="H21" s="5">
-        <v>2381.5</v>
+        <v>-80</v>
       </c>
       <c r="I21" s="5">
-        <v>1528</v>
+        <v>-5775.5</v>
       </c>
       <c r="J21" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K21" s="5">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="L21" s="5">
-        <v>17014.5</v>
+        <v>5236.5</v>
       </c>
       <c r="M21" s="5">
-        <v>60.5</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -12303,40 +12706,40 @@
         <v>1916</v>
       </c>
       <c r="B22" s="5">
-        <v>73.5</v>
+        <v>-107.10419906687403</v>
       </c>
       <c r="C22" s="5">
-        <v>3789.5</v>
+        <v>2972</v>
       </c>
       <c r="D22" s="5">
-        <v>51</v>
+        <v>39.941254672041978</v>
       </c>
       <c r="E22" s="5">
-        <v>6.5</v>
+        <v>5.4669871794871794</v>
       </c>
       <c r="F22" s="5">
-        <v>4469.5</v>
+        <v>4229.0995617860081</v>
       </c>
       <c r="G22" s="5">
-        <v>104.5</v>
+        <v>72.5</v>
       </c>
       <c r="H22" s="5">
-        <v>318.5</v>
+        <v>144.5</v>
       </c>
       <c r="I22" s="5">
-        <v>1016</v>
+        <v>-4233.5</v>
       </c>
       <c r="J22" s="5">
-        <v>4.5</v>
+        <v>4.1324657593619971</v>
       </c>
       <c r="K22" s="5">
-        <v>361</v>
+        <v>337.10448796340427</v>
       </c>
       <c r="L22" s="5">
-        <v>10279</v>
+        <v>4676</v>
       </c>
       <c r="M22" s="5">
-        <v>84.5</v>
+        <v>10.585285476058125</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683EB772-3809-4169-8342-3FEC35168E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1163B-F976-48B7-A786-C2C67428C724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="3870" windowWidth="26055" windowHeight="17910" activeTab="4" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="7185" yWindow="4050" windowWidth="26055" windowHeight="17910" activeTab="4" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
   <dimension ref="A1:AI191"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:M189"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8010,7 +8010,7 @@
         <v>37777</v>
       </c>
       <c r="M129" s="5">
-        <f t="shared" ref="M129:M137" si="62">L129-SUM(B129:K129)</f>
+        <f t="shared" ref="M129:M131" si="62">L129-SUM(B129:K129)</f>
         <v>258</v>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
         <v>34681</v>
       </c>
       <c r="M133" s="5">
-        <f t="shared" ref="M133:M138" si="64">L133-SUM(B133:K133)</f>
+        <f t="shared" ref="M133" si="64">L133-SUM(B133:K133)</f>
         <v>119</v>
       </c>
     </row>
@@ -8282,7 +8282,7 @@
         <v>47451</v>
       </c>
       <c r="M135" s="5">
-        <f t="shared" ref="M135:M138" si="67">L135-SUM(B135:K135)</f>
+        <f t="shared" ref="M135:M137" si="67">L135-SUM(B135:K135)</f>
         <v>94</v>
       </c>
     </row>
@@ -8471,51 +8471,51 @@
         <v>1896</v>
       </c>
       <c r="B143" s="5">
-        <f>B11-B117</f>
+        <f t="shared" ref="B143:B164" si="70">B11-B117</f>
         <v>0.20456528323585293</v>
       </c>
       <c r="C143" s="5">
-        <f t="shared" ref="C143:M143" si="70">C11-C117</f>
+        <f t="shared" ref="C143:M143" si="71">C11-C117</f>
         <v>4727.9842353568074</v>
       </c>
       <c r="D143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3406.2685381909596</v>
       </c>
       <c r="E143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.53593854358074322</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>20369.444339981215</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4668.3122033781083</v>
       </c>
       <c r="H143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9588.0822810653262</v>
       </c>
       <c r="I143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>502.97254454953452</v>
       </c>
       <c r="J143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>8.0713069790221681</v>
       </c>
       <c r="K143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>787.66694752282172</v>
       </c>
       <c r="L143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>43459.763500239758</v>
       </c>
       <c r="M143" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>35.340595299671655</v>
       </c>
     </row>
@@ -8525,721 +8525,721 @@
         <v>1897</v>
       </c>
       <c r="B144" s="5">
-        <f>B12-B118</f>
+        <f t="shared" si="70"/>
         <v>0.11763602418087515</v>
       </c>
       <c r="C144" s="5">
-        <f t="shared" ref="C144:M144" si="71">C12-C118</f>
+        <f t="shared" ref="C144:M144" si="72">C12-C118</f>
         <v>2718.8448549990876</v>
       </c>
       <c r="D144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1958.78734547152</v>
       </c>
       <c r="E144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.3081934455097104</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>11713.524450609497</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2684.5302318835174</v>
       </c>
       <c r="H144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5513.662246214124</v>
       </c>
       <c r="I144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>289.23622560494852</v>
       </c>
       <c r="J144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4.6414349880708849</v>
       </c>
       <c r="K144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>452.95079702473754</v>
       </c>
       <c r="L144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>24991.698049345716</v>
       </c>
       <c r="M144" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>20.322740288466203</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f t="shared" ref="A145:A163" si="72">A144+1</f>
+        <f t="shared" ref="A145:A163" si="73">A144+1</f>
         <v>1898</v>
       </c>
       <c r="B145" s="5">
-        <f>B13-B119</f>
+        <f t="shared" si="70"/>
         <v>0.13557903937647042</v>
       </c>
       <c r="C145" s="5">
-        <f t="shared" ref="C145:M145" si="73">C13-C119</f>
+        <f t="shared" ref="C145:M145" si="74">C13-C119</f>
         <v>3133.5500857088982</v>
       </c>
       <c r="D145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2257.5610531811112</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.35520217191362968</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>13500.187581013328</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3094.0014553384835</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6354.6607936921009</v>
       </c>
       <c r="I145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>333.35340847714849</v>
       </c>
       <c r="J145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5.3493927680131197</v>
       </c>
       <c r="K145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>522.03935293661925</v>
       </c>
       <c r="L145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>28803.680143994257</v>
       </c>
       <c r="M145" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>23.422566556407052</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1899</v>
       </c>
       <c r="B146" s="5">
-        <f>B14-B120</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="C146" s="5">
-        <f t="shared" ref="C146:M146" si="74">C14-C120</f>
+        <f t="shared" ref="C146:M146" si="75">C14-C120</f>
         <v>4556.7954377636397</v>
       </c>
       <c r="D146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5090.7319948513832</v>
       </c>
       <c r="E146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.81217948717948718</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>22719.483711911587</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5594.706354673157</v>
       </c>
       <c r="H146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>11369.443890351693</v>
       </c>
       <c r="I146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1089.7336868250209</v>
       </c>
       <c r="J146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>25.954716291856549</v>
       </c>
       <c r="K146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>930.17029370973671</v>
       </c>
       <c r="L146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>50833.652327981072</v>
       </c>
       <c r="M146" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>109.41264440836041</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1900</v>
       </c>
       <c r="B147" s="5">
-        <f>B15-B121</f>
+        <f t="shared" si="70"/>
         <v>0.93001555209953346</v>
       </c>
       <c r="C147" s="5">
-        <f t="shared" ref="C147:M147" si="75">C15-C121</f>
+        <f t="shared" ref="C147:M147" si="76">C15-C121</f>
         <v>9429.2815647506541</v>
       </c>
       <c r="D147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>5058.5780123462846</v>
       </c>
       <c r="E147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.6243589743589744</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>34639.374321794428</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8424.7866823734275</v>
       </c>
       <c r="H147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>16485.950089122452</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>766.16761928252834</v>
       </c>
       <c r="J147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="K147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1708.6823873581034</v>
       </c>
       <c r="L147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>75678.639498547403</v>
       </c>
       <c r="M147" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>43.370777963674399</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1901</v>
       </c>
       <c r="B148" s="5">
-        <f>B16-B122</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="C148" s="5">
-        <f t="shared" ref="C148:M148" si="76">C16-C122</f>
+        <f t="shared" ref="C148:M148" si="77">C16-C122</f>
         <v>7508.7670854418711</v>
       </c>
       <c r="D148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5336.6153904786097</v>
       </c>
       <c r="E148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>35246.787089210724</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7204.0639738077134</v>
       </c>
       <c r="H148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>15734.923473951319</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>430.763768781164</v>
       </c>
       <c r="J148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10.739882603526848</v>
       </c>
       <c r="K148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>942.11912159335986</v>
       </c>
       <c r="L148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>71068.917000535934</v>
       </c>
       <c r="M148" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7.885595993395345</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1902</v>
       </c>
       <c r="B149" s="5">
-        <f>B17-B123</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="C149" s="5">
-        <f t="shared" ref="C149:M149" si="77">C17-C123</f>
+        <f t="shared" ref="C149:M149" si="78">C17-C123</f>
         <v>10438.135581147068</v>
       </c>
       <c r="D149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>8078.2152517221839</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>35420.868406220638</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>8161.3331219457059</v>
       </c>
       <c r="H149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>24808.790403004317</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1010.1574791570503</v>
       </c>
       <c r="J149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1587.3558273090073</v>
       </c>
       <c r="L149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>89482.799456426219</v>
       </c>
       <c r="M149" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3.9427979966976725</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1903</v>
       </c>
       <c r="B150" s="5">
-        <f>B18-B124</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="C150" s="5">
-        <f t="shared" ref="C150:M150" si="78">C18-C124</f>
+        <f t="shared" ref="C150:M150" si="79">C18-C124</f>
         <v>14146.559381522835</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9915.7207813518035</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>44633.139391857949</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>11798.137706110985</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>28977.171294427324</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2344.538680465419</v>
       </c>
       <c r="J150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>21.479765207053696</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1443.9698927055301</v>
       </c>
       <c r="L150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>113445.02060070066</v>
       </c>
       <c r="M150" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>7.3927462438081362</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1904</v>
       </c>
       <c r="B151" s="5">
-        <f>B19-B125</f>
+        <f t="shared" si="70"/>
         <v>15.810264385692069</v>
       </c>
       <c r="C151" s="5">
-        <f t="shared" ref="C151:M151" si="79">C19-C125</f>
+        <f t="shared" ref="C151:M151" si="80">C19-C125</f>
         <v>7592.3987477420969</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>6740.9878616571914</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.4365384615384613</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>72575.062614066817</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>10396.597491785873</v>
       </c>
       <c r="H151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>23869.457602370763</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2569.456556683981</v>
       </c>
       <c r="J151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>154.83330753417872</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>800.57146820274772</v>
       </c>
       <c r="L151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>120987.29350522286</v>
       </c>
       <c r="M151" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>67.520415693447646</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1905</v>
       </c>
       <c r="B152" s="5">
-        <f>B20-B126</f>
+        <f t="shared" si="70"/>
         <v>9.3001555209953342</v>
       </c>
       <c r="C152" s="5">
-        <f t="shared" ref="C152:M152" si="80">C20-C126</f>
+        <f t="shared" ref="C152:M152" si="81">C20-C126</f>
         <v>12560.571551414954</v>
       </c>
       <c r="D152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>6357.0314823315994</v>
       </c>
       <c r="E152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4.0608974358974361</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>86467.874816728639</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>14440.036919220027</v>
       </c>
       <c r="H152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>34601.444755943055</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2155.7918077322984</v>
       </c>
       <c r="J152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>159.30825861898157</v>
       </c>
       <c r="K152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>634.20701843845688</v>
       </c>
       <c r="L152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>154127.28041859428</v>
       </c>
       <c r="M152" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>40.413679466151144</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1906</v>
       </c>
       <c r="B153" s="5">
-        <f>B21-B127</f>
+        <f t="shared" si="70"/>
         <v>120.90202177293935</v>
       </c>
       <c r="C153" s="5">
-        <f t="shared" ref="C153:M153" si="81">C21-C127</f>
+        <f t="shared" ref="C153:M153" si="82">C21-C127</f>
         <v>10142.034290300324</v>
       </c>
       <c r="D153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>9720.9054755856159</v>
       </c>
       <c r="E153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>12.182692307692307</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>117209.13792698397</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>11206.594463287252</v>
       </c>
       <c r="H153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>33854.081685236175</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>3473.7316438200123</v>
       </c>
       <c r="J153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>231.80246619278779</v>
       </c>
       <c r="K153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>861.23474822729577</v>
       </c>
       <c r="L153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>179775.00949975464</v>
       </c>
       <c r="M153" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>82.305908181063913</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1907</v>
       </c>
       <c r="B154" s="5">
-        <f>B22-B128</f>
+        <f t="shared" si="70"/>
         <v>317.13530326594088</v>
       </c>
       <c r="C154" s="5">
-        <f t="shared" ref="C154:M154" si="82">C22-C128</f>
+        <f t="shared" ref="C154:M154" si="83">C22-C128</f>
         <v>10782.456929536285</v>
       </c>
       <c r="D154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>12748.108357903891</v>
       </c>
       <c r="E154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>37.360256410256412</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>107567.27917517703</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>20299.83319183909</v>
       </c>
       <c r="H154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>53577.139662969421</v>
       </c>
       <c r="I154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>10578.374382969501</v>
       </c>
       <c r="J154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>134.24853254408561</v>
       </c>
       <c r="K154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1301.5030987084854</v>
       </c>
       <c r="L154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>215850.88115779086</v>
       </c>
       <c r="M154" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>122.71958764721505</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1908</v>
       </c>
       <c r="B155" s="5">
-        <f>B23-B129</f>
+        <f t="shared" si="70"/>
         <v>53</v>
       </c>
       <c r="C155" s="5">
-        <f t="shared" ref="C155:M155" si="83">C23-C129</f>
+        <f t="shared" ref="C155:M155" si="84">C23-C129</f>
         <v>2943</v>
       </c>
       <c r="D155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>9601</v>
       </c>
       <c r="E155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>17</v>
       </c>
       <c r="F155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>66539</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>9988</v>
       </c>
       <c r="H155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>19760</v>
       </c>
       <c r="I155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>9688</v>
       </c>
       <c r="J155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-13</v>
       </c>
       <c r="K155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>386</v>
       </c>
       <c r="L155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>118934</v>
       </c>
       <c r="M155" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-28</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1909</v>
       </c>
       <c r="B156" s="5">
-        <f>B24-B130</f>
+        <f t="shared" si="70"/>
         <v>49</v>
       </c>
       <c r="C156" s="5">
-        <f t="shared" ref="C156:M156" si="84">C24-C130</f>
+        <f t="shared" ref="C156:M156" si="85">C24-C130</f>
         <v>10167</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>7443</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>35161</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>12651</v>
       </c>
       <c r="H156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>29349</v>
       </c>
       <c r="I156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>5280</v>
       </c>
       <c r="J156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>40</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>550</v>
       </c>
       <c r="L156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>100753</v>
       </c>
       <c r="M156" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1910</v>
       </c>
       <c r="B157" s="5">
-        <f>B25-B131</f>
+        <f t="shared" si="70"/>
         <v>48</v>
       </c>
       <c r="C157" s="5">
-        <f t="shared" ref="C157:M157" si="85">C25-C131</f>
+        <f t="shared" ref="C157:M157" si="86">C25-C131</f>
         <v>14307</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>9513</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="F157" s="5">
@@ -9247,355 +9247,355 @@
         <v>56529</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>19911</v>
       </c>
       <c r="H157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>56930</v>
       </c>
       <c r="I157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>10545</v>
       </c>
       <c r="J157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>64</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1376</v>
       </c>
       <c r="L157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>169430</v>
       </c>
       <c r="M157" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1911</v>
       </c>
       <c r="B158" s="5">
-        <f>B26-B132</f>
+        <f t="shared" si="70"/>
         <v>141.36236391912908</v>
       </c>
       <c r="C158" s="5">
-        <f t="shared" ref="C158:M158" si="86">C26-C132</f>
+        <f t="shared" ref="C158:M158" si="87">C26-C132</f>
         <v>4723</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>8302.3474238900781</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>23.553205128205128</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>61276.623587488175</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>13780</v>
       </c>
       <c r="H158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>29449.768530315501</v>
       </c>
       <c r="I158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>13743</v>
       </c>
       <c r="J158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>175.41808252427185</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>670.97264269575874</v>
       </c>
       <c r="L158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>131668</v>
       </c>
       <c r="M158" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>215.37534056961039</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1912</v>
       </c>
       <c r="B159" s="5">
-        <f>B27-B133</f>
+        <f t="shared" si="70"/>
         <v>232</v>
       </c>
       <c r="C159" s="5">
-        <f t="shared" ref="C159:M159" si="87">C27-C133</f>
+        <f t="shared" ref="C159:M159" si="88">C27-C133</f>
         <v>3279</v>
       </c>
       <c r="D159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>10512</v>
       </c>
       <c r="E159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>6</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>53941</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>9644</v>
       </c>
       <c r="H159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>36543</v>
       </c>
       <c r="I159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>12962</v>
       </c>
       <c r="J159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>251</v>
       </c>
       <c r="K159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>355</v>
       </c>
       <c r="L159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>127714</v>
       </c>
       <c r="M159" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>-11</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1913</v>
       </c>
       <c r="B160" s="5">
-        <f>B28-B134</f>
+        <f t="shared" si="70"/>
         <v>845.38413685847593</v>
       </c>
       <c r="C160" s="5">
-        <f t="shared" ref="C160:M160" si="88">C28-C134</f>
+        <f t="shared" ref="C160:M160" si="89">C28-C134</f>
         <v>8103</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>16887.460752751467</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>24.365384615384617</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>69289.043775239974</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>20597</v>
       </c>
       <c r="H160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>82316.180567220537</v>
       </c>
       <c r="I160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>43145</v>
       </c>
       <c r="J160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>961.21949301565292</v>
       </c>
       <c r="K160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>819.87342093783116</v>
       </c>
       <c r="L160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>264117</v>
       </c>
       <c r="M160" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>196.64705008529643</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1914</v>
       </c>
       <c r="B161" s="5">
-        <f>B29-B135</f>
+        <f t="shared" si="70"/>
         <v>814</v>
       </c>
       <c r="C161" s="5">
-        <f t="shared" ref="C161:M161" si="89">C29-C135</f>
+        <f t="shared" ref="C161:M161" si="90">C29-C135</f>
         <v>8716</v>
       </c>
       <c r="D161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>9078</v>
       </c>
       <c r="E161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>58</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>98464</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>15328</v>
       </c>
       <c r="H161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>47499</v>
       </c>
       <c r="I161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>24538</v>
       </c>
       <c r="J161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2476</v>
       </c>
       <c r="K161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>715</v>
       </c>
       <c r="L161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>208209</v>
       </c>
       <c r="M161" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>523</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1915</v>
       </c>
       <c r="B162" s="5">
-        <f>B30-B136</f>
+        <f t="shared" si="70"/>
         <v>-176</v>
       </c>
       <c r="C162" s="5">
-        <f t="shared" ref="C162:M162" si="90">C30-C136</f>
+        <f t="shared" ref="C162:M162" si="91">C30-C136</f>
         <v>923</v>
       </c>
       <c r="D162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>738</v>
       </c>
       <c r="E162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>12</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>13623</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1253</v>
       </c>
       <c r="H162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>-208</v>
       </c>
       <c r="I162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>-8471</v>
       </c>
       <c r="J162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>118</v>
       </c>
       <c r="K162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>88</v>
       </c>
       <c r="L162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>7890</v>
       </c>
       <c r="M162" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>-10</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1916</v>
       </c>
       <c r="B163" s="5">
-        <f>B31-B137</f>
+        <f t="shared" si="70"/>
         <v>-310</v>
       </c>
       <c r="C163" s="5">
-        <f t="shared" ref="C163:M163" si="91">C31-C137</f>
+        <f t="shared" ref="C163:M163" si="92">C31-C137</f>
         <v>3455</v>
       </c>
       <c r="D163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>43</v>
       </c>
       <c r="E163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2093</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>110</v>
       </c>
       <c r="H163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>48</v>
       </c>
       <c r="I163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-3080</v>
       </c>
       <c r="J163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2</v>
       </c>
       <c r="K163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>256</v>
       </c>
       <c r="L163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2583</v>
       </c>
       <c r="M163" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-36</v>
       </c>
     </row>
@@ -9604,51 +9604,51 @@
         <v>1917</v>
       </c>
       <c r="B164" s="5">
-        <f>B32-B138</f>
+        <f t="shared" si="70"/>
         <v>95.791601866251938</v>
       </c>
       <c r="C164" s="5">
-        <f t="shared" ref="C164:M164" si="92">C32-C138</f>
+        <f t="shared" ref="C164:M164" si="93">C32-C138</f>
         <v>2489</v>
       </c>
       <c r="D164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>36.882509344083957</v>
       </c>
       <c r="E164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>8.9339743589743588</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>6365.1991235720161</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>35</v>
       </c>
       <c r="H164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>241</v>
       </c>
       <c r="I164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-5387</v>
       </c>
       <c r="J164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>6.2649315187239942</v>
       </c>
       <c r="K164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>418.20897592680853</v>
       </c>
       <c r="L164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>6769</v>
       </c>
       <c r="M164" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>57.17057095211625</v>
       </c>
     </row>
@@ -9707,47 +9707,47 @@
         <v>0.16110065370836404</v>
       </c>
       <c r="C169" s="5">
-        <f t="shared" ref="C169:M169" si="93">(C143+C144)/2</f>
+        <f t="shared" ref="C169:M169" si="94">(C143+C144)/2</f>
         <v>3723.4145451779477</v>
       </c>
       <c r="D169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2682.5279418312398</v>
       </c>
       <c r="E169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.42206599454522681</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>16041.484395295356</v>
       </c>
       <c r="G169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>3676.4212176308129</v>
       </c>
       <c r="H169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>7550.8722636397251</v>
       </c>
       <c r="I169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>396.10438507724155</v>
       </c>
       <c r="J169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>6.3563709835465261</v>
       </c>
       <c r="K169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>620.30887227377957</v>
       </c>
       <c r="L169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>34225.730774792741</v>
       </c>
       <c r="M169" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>27.831667794068927</v>
       </c>
     </row>
@@ -9757,1023 +9757,1023 @@
         <v>1897</v>
       </c>
       <c r="B170" s="5">
-        <f t="shared" ref="B170:M170" si="94">(B144+B145)/2</f>
+        <f t="shared" ref="B170:M170" si="95">(B144+B145)/2</f>
         <v>0.12660753177867279</v>
       </c>
       <c r="C170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2926.1974703539927</v>
       </c>
       <c r="D170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2108.1741993263158</v>
       </c>
       <c r="E170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.33169780871167004</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>12606.856015811412</v>
       </c>
       <c r="G170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2889.2658436110005</v>
       </c>
       <c r="H170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>5934.1615199531125</v>
       </c>
       <c r="I170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>311.29481704104853</v>
       </c>
       <c r="J170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>4.9954138780420028</v>
       </c>
       <c r="K170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>487.4950749806784</v>
       </c>
       <c r="L170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>26897.689096669987</v>
       </c>
       <c r="M170" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>21.872653422436628</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f t="shared" ref="A171:A188" si="95">A170+1</f>
+        <f t="shared" ref="A171:A188" si="96">A170+1</f>
         <v>1898</v>
       </c>
       <c r="B171" s="5">
-        <f t="shared" ref="B171:M171" si="96">(B145+B146)/2</f>
+        <f t="shared" ref="B171:M171" si="97">(B145+B146)/2</f>
         <v>6.7789519688235211E-2</v>
       </c>
       <c r="C171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>3845.172761736269</v>
       </c>
       <c r="D171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>3674.146524016247</v>
       </c>
       <c r="E171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0.58369082954655838</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>18109.835646462459</v>
       </c>
       <c r="G171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4344.3539050058207</v>
       </c>
       <c r="H171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>8862.052342021896</v>
       </c>
       <c r="I171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>711.54354765108474</v>
       </c>
       <c r="J171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>15.652054529934833</v>
       </c>
       <c r="K171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>726.10482332317792</v>
       </c>
       <c r="L171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>39818.666235987665</v>
       </c>
       <c r="M171" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>66.417605482383735</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1899</v>
       </c>
       <c r="B172" s="5">
-        <f t="shared" ref="B172:M172" si="97">(B146+B147)/2</f>
+        <f t="shared" ref="B172:M172" si="98">(B146+B147)/2</f>
         <v>0.46500777604976673</v>
       </c>
       <c r="C172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6993.0385012571469</v>
       </c>
       <c r="D172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>5074.6550035988339</v>
       </c>
       <c r="E172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.2182692307692307</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>28679.429016853006</v>
       </c>
       <c r="G172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>7009.7465185232923</v>
       </c>
       <c r="H172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>13927.696989737073</v>
       </c>
       <c r="I172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>927.95065305377466</v>
       </c>
       <c r="J172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>12.977358145928275</v>
       </c>
       <c r="K172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1319.42634053392</v>
       </c>
       <c r="L172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>63256.145913264234</v>
       </c>
       <c r="M172" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>76.391711186017403</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1900</v>
       </c>
       <c r="B173" s="5">
-        <f t="shared" ref="B173:M173" si="98">(B147+B148)/2</f>
+        <f t="shared" ref="B173:M173" si="99">(B147+B148)/2</f>
         <v>0.46500777604976673</v>
       </c>
       <c r="C173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>8469.0243250962631</v>
       </c>
       <c r="D173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5197.5967014124471</v>
       </c>
       <c r="E173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.81217948717948718</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>34943.08070550258</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>7814.4253280905705</v>
       </c>
       <c r="H173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>16110.436781536886</v>
       </c>
       <c r="I173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>598.46569403184617</v>
       </c>
       <c r="J173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5.3699413017634239</v>
       </c>
       <c r="K173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1325.4007544757317</v>
       </c>
       <c r="L173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>73373.778249541676</v>
       </c>
       <c r="M173" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>25.62818697853487</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1901</v>
       </c>
       <c r="B174" s="5">
-        <f t="shared" ref="B174:M174" si="99">(B148+B149)/2</f>
+        <f t="shared" ref="B174:M174" si="100">(B148+B149)/2</f>
         <v>0</v>
       </c>
       <c r="C174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>8973.4513332944698</v>
       </c>
       <c r="D174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>6707.4153211003968</v>
       </c>
       <c r="E174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>35333.827747715681</v>
       </c>
       <c r="G174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>7682.6985478767092</v>
       </c>
       <c r="H174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>20271.856938477817</v>
       </c>
       <c r="I174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>720.46062396910713</v>
       </c>
       <c r="J174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5.3699413017634239</v>
       </c>
       <c r="K174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1264.7374744511835</v>
       </c>
       <c r="L174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>80275.858228481084</v>
       </c>
       <c r="M174" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5.9141969950465088</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1902</v>
       </c>
       <c r="B175" s="5">
-        <f t="shared" ref="B175:M175" si="100">(B149+B150)/2</f>
+        <f t="shared" ref="B175:M175" si="101">(B149+B150)/2</f>
         <v>0</v>
       </c>
       <c r="C175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>12292.347481334951</v>
       </c>
       <c r="D175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>8996.9680165369937</v>
       </c>
       <c r="E175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="F175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>40027.003899039293</v>
       </c>
       <c r="G175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>9979.735414028346</v>
       </c>
       <c r="H175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>26892.980848715823</v>
       </c>
       <c r="I175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>1677.3480798112346</v>
       </c>
       <c r="J175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>10.739882603526848</v>
       </c>
       <c r="K175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>1515.6628600072686</v>
       </c>
       <c r="L175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>101463.91002856343</v>
       </c>
       <c r="M175" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>5.6677721202529039</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1903</v>
       </c>
       <c r="B176" s="5">
-        <f t="shared" ref="B176:M176" si="101">(B150+B151)/2</f>
+        <f t="shared" ref="B176:M176" si="102">(B150+B151)/2</f>
         <v>7.9051321928460343</v>
       </c>
       <c r="C176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>10869.479064632465</v>
       </c>
       <c r="D176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>8328.3543215044974</v>
       </c>
       <c r="E176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1.2182692307692307</v>
       </c>
       <c r="F176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>58604.101002962387</v>
       </c>
       <c r="G176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>11097.367598948429</v>
       </c>
       <c r="H176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>26423.314448399044</v>
       </c>
       <c r="I176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2456.9976185747</v>
       </c>
       <c r="J176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>88.156536370616209</v>
       </c>
       <c r="K176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1122.270680454139</v>
       </c>
       <c r="L176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>117216.15705296176</v>
       </c>
       <c r="M176" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>37.45658096862789</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1904</v>
       </c>
       <c r="B177" s="5">
-        <f t="shared" ref="B177:M177" si="102">(B151+B152)/2</f>
+        <f t="shared" ref="B177:M177" si="103">(B151+B152)/2</f>
         <v>12.555209953343702</v>
       </c>
       <c r="C177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>10076.485149578526</v>
       </c>
       <c r="D177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>6549.0096719943958</v>
       </c>
       <c r="E177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>3.2487179487179487</v>
       </c>
       <c r="F177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>79521.468715397728</v>
       </c>
       <c r="G177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>12418.31720550295</v>
       </c>
       <c r="H177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>29235.451179156909</v>
       </c>
       <c r="I177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2362.6241822081397</v>
       </c>
       <c r="J177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>157.07078307658014</v>
       </c>
       <c r="K177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>717.3892433206023</v>
       </c>
       <c r="L177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>137557.28696190857</v>
       </c>
       <c r="M177" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>53.967047579799399</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1905</v>
       </c>
       <c r="B178" s="5">
-        <f t="shared" ref="B178:M178" si="103">(B152+B153)/2</f>
+        <f t="shared" ref="B178:M178" si="104">(B152+B153)/2</f>
         <v>65.101088646967341</v>
       </c>
       <c r="C178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>11351.302920857639</v>
       </c>
       <c r="D178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>8038.9684789586081</v>
       </c>
       <c r="E178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>8.1217948717948723</v>
       </c>
       <c r="F178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>101838.5063718563</v>
       </c>
       <c r="G178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>12823.31569125364</v>
       </c>
       <c r="H178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>34227.763220589615</v>
       </c>
       <c r="I178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2814.7617257761553</v>
       </c>
       <c r="J178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>195.55536240588469</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>747.72088333287638</v>
       </c>
       <c r="L178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>166951.14495917445</v>
       </c>
       <c r="M178" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>61.359793823607532</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1906</v>
       </c>
       <c r="B179" s="5">
-        <f t="shared" ref="B179:M179" si="104">(B153+B154)/2</f>
+        <f t="shared" ref="B179:M179" si="105">(B153+B154)/2</f>
         <v>219.01866251944011</v>
       </c>
       <c r="C179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>10462.245609918304</v>
       </c>
       <c r="D179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>11234.506916744755</v>
       </c>
       <c r="E179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>24.771474358974359</v>
       </c>
       <c r="F179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>112388.20855108049</v>
       </c>
       <c r="G179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>15753.213827563171</v>
       </c>
       <c r="H179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>43715.610674102798</v>
       </c>
       <c r="I179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>7026.0530133947568</v>
       </c>
       <c r="J179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>183.0254993684367</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1081.3689234678905</v>
       </c>
       <c r="L179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>197812.94532877277</v>
       </c>
       <c r="M179" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>102.51274791413948</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1907</v>
       </c>
       <c r="B180" s="5">
-        <f t="shared" ref="B180:M180" si="105">(B154+B155)/2</f>
+        <f t="shared" ref="B180:M180" si="106">(B154+B155)/2</f>
         <v>185.06765163297044</v>
       </c>
       <c r="C180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6862.7284647681427</v>
       </c>
       <c r="D180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>11174.554178951945</v>
       </c>
       <c r="E180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>27.180128205128206</v>
       </c>
       <c r="F180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>87053.139587588521</v>
       </c>
       <c r="G180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>15143.916595919545</v>
       </c>
       <c r="H180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>36668.56983148471</v>
       </c>
       <c r="I180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>10133.187191484751</v>
       </c>
       <c r="J180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>60.624266272042803</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>843.75154935424268</v>
       </c>
       <c r="L180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>167392.44057889545</v>
       </c>
       <c r="M180" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>47.359793823607525</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1908</v>
       </c>
       <c r="B181" s="5">
-        <f t="shared" ref="B181:M181" si="106">(B155+B156)/2</f>
+        <f t="shared" ref="B181:M181" si="107">(B155+B156)/2</f>
         <v>51</v>
       </c>
       <c r="C181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6555</v>
       </c>
       <c r="D181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8522</v>
       </c>
       <c r="E181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>10</v>
       </c>
       <c r="F181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>50850</v>
       </c>
       <c r="G181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>11319.5</v>
       </c>
       <c r="H181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>24554.5</v>
       </c>
       <c r="I181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7484</v>
       </c>
       <c r="J181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>13.5</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>468</v>
       </c>
       <c r="L181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>109843.5</v>
       </c>
       <c r="M181" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1909</v>
       </c>
       <c r="B182" s="5">
-        <f t="shared" ref="B182:M182" si="107">(B156+B157)/2</f>
+        <f t="shared" ref="B182:M182" si="108">(B156+B157)/2</f>
         <v>48.5</v>
       </c>
       <c r="C182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12237</v>
       </c>
       <c r="D182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>8478</v>
       </c>
       <c r="E182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1.5</v>
       </c>
       <c r="F182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>45845</v>
       </c>
       <c r="G182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>16281</v>
       </c>
       <c r="H182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>43139.5</v>
       </c>
       <c r="I182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>7912.5</v>
       </c>
       <c r="J182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>52</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>963</v>
       </c>
       <c r="L182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>135091.5</v>
       </c>
       <c r="M182" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>133.5</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1910</v>
       </c>
       <c r="B183" s="5">
-        <f t="shared" ref="B183:M183" si="108">(B157+B158)/2</f>
+        <f t="shared" ref="B183:M183" si="109">(B157+B158)/2</f>
         <v>94.68118195956454</v>
       </c>
       <c r="C183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>9515</v>
       </c>
       <c r="D183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8907.673711945039</v>
       </c>
       <c r="E183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>11.776602564102564</v>
       </c>
       <c r="F183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>58902.811793744084</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>16845.5</v>
       </c>
       <c r="H183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>43189.884265157751</v>
       </c>
       <c r="I183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>12144</v>
       </c>
       <c r="J183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>119.70904126213593</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1023.4863213478793</v>
       </c>
       <c r="L183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>150549</v>
       </c>
       <c r="M183" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>211.18767028480519</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1911</v>
       </c>
       <c r="B184" s="5">
-        <f t="shared" ref="B184:M184" si="109">(B158+B159)/2</f>
+        <f t="shared" ref="B184:M184" si="110">(B158+B159)/2</f>
         <v>186.68118195956453</v>
       </c>
       <c r="C184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4001</v>
       </c>
       <c r="D184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>9407.173711945039</v>
       </c>
       <c r="E184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>14.776602564102564</v>
       </c>
       <c r="F184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>57608.811793744084</v>
       </c>
       <c r="G184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11712</v>
       </c>
       <c r="H184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>32996.384265157751</v>
       </c>
       <c r="I184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>13352.5</v>
       </c>
       <c r="J184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>213.20904126213594</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>512.98632134787931</v>
       </c>
       <c r="L184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>129691</v>
       </c>
       <c r="M184" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>102.18767028480519</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1912</v>
       </c>
       <c r="B185" s="5">
-        <f t="shared" ref="B185:M185" si="110">(B159+B160)/2</f>
+        <f t="shared" ref="B185:M185" si="111">(B159+B160)/2</f>
         <v>538.69206842923791</v>
       </c>
       <c r="C185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>5691</v>
       </c>
       <c r="D185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>13699.730376375734</v>
       </c>
       <c r="E185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>15.182692307692308</v>
       </c>
       <c r="F185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>61615.021887619987</v>
       </c>
       <c r="G185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>15120.5</v>
       </c>
       <c r="H185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>59429.590283610269</v>
       </c>
       <c r="I185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>28053.5</v>
       </c>
       <c r="J185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>606.10974650782646</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>587.43671046891563</v>
       </c>
       <c r="L185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>195915.5</v>
       </c>
       <c r="M185" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>92.823525042648214</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1913</v>
       </c>
       <c r="B186" s="5">
-        <f t="shared" ref="B186:M186" si="111">(B160+B161)/2</f>
+        <f t="shared" ref="B186:M186" si="112">(B160+B161)/2</f>
         <v>829.69206842923791</v>
       </c>
       <c r="C186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8409.5</v>
       </c>
       <c r="D186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>12982.730376375734</v>
       </c>
       <c r="E186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>41.182692307692307</v>
       </c>
       <c r="F186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>83876.52188761998</v>
       </c>
       <c r="G186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>17962.5</v>
       </c>
       <c r="H186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>64907.590283610269</v>
       </c>
       <c r="I186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>33841.5</v>
       </c>
       <c r="J186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1718.6097465078265</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>767.43671046891563</v>
       </c>
       <c r="L186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>236163</v>
       </c>
       <c r="M186" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>359.82352504264821</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1914</v>
       </c>
       <c r="B187" s="5">
-        <f t="shared" ref="B187:M187" si="112">(B161+B162)/2</f>
+        <f t="shared" ref="B187:M187" si="113">(B161+B162)/2</f>
         <v>319</v>
       </c>
       <c r="C187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>4819.5</v>
       </c>
       <c r="D187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>4908</v>
       </c>
       <c r="E187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>35</v>
       </c>
       <c r="F187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>56043.5</v>
       </c>
       <c r="G187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>8290.5</v>
       </c>
       <c r="H187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>23645.5</v>
       </c>
       <c r="I187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>8033.5</v>
       </c>
       <c r="J187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1297</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>401.5</v>
       </c>
       <c r="L187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>108049.5</v>
       </c>
       <c r="M187" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>256.5</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1915</v>
       </c>
       <c r="B188" s="5">
-        <f t="shared" ref="B188:M188" si="113">(B162+B163)/2</f>
+        <f t="shared" ref="B188:M188" si="114">(B162+B163)/2</f>
         <v>-243</v>
       </c>
       <c r="C188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>2189</v>
       </c>
       <c r="D188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>390.5</v>
       </c>
       <c r="E188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>7</v>
       </c>
       <c r="F188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>7858</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>681.5</v>
       </c>
       <c r="H188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-80</v>
       </c>
       <c r="I188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-5775.5</v>
       </c>
       <c r="J188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>60</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>172</v>
       </c>
       <c r="L188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>5236.5</v>
       </c>
       <c r="M188" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-23</v>
       </c>
     </row>
@@ -10782,51 +10782,51 @@
         <v>1916</v>
       </c>
       <c r="B189" s="5">
-        <f t="shared" ref="B189:M189" si="114">(B163+B164)/2</f>
+        <f t="shared" ref="B189:M189" si="115">(B163+B164)/2</f>
         <v>-107.10419906687403</v>
       </c>
       <c r="C189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>2972</v>
       </c>
       <c r="D189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>39.941254672041978</v>
       </c>
       <c r="E189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>5.4669871794871794</v>
       </c>
       <c r="F189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>4229.0995617860081</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>72.5</v>
       </c>
       <c r="H189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>144.5</v>
       </c>
       <c r="I189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>-4233.5</v>
       </c>
       <c r="J189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>4.1324657593619971</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>337.10448796340427</v>
       </c>
       <c r="L189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>4676</v>
       </c>
       <c r="M189" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>10.585285476058125</v>
       </c>
     </row>
@@ -10839,47 +10839,47 @@
         <v>2209.0755599135732</v>
       </c>
       <c r="C190" s="5">
-        <f t="shared" ref="C190:M190" si="115">SUM(C169:C189)</f>
+        <f t="shared" ref="C190:M190" si="116">SUM(C169:C189)</f>
         <v>153233.88762800611</v>
       </c>
       <c r="D190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>147102.62670729027</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>209.79386488921369</v>
       </c>
       <c r="F190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>1051975.7085800793</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>208918.27769395427</v>
       </c>
       <c r="H190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>561748.21613535145</v>
       </c>
       <c r="I190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>130949.29153207384</v>
       </c>
       <c r="J190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>4830.1634515373526</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>17004.588031572483</v>
       </c>
       <c r="L190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>2281457.2534090141</v>
       </c>
       <c r="M190" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>1691.9874342194878</v>
       </c>
     </row>
@@ -10892,47 +10892,47 @@
         <v>9.6827392080772665E-2</v>
       </c>
       <c r="C191" s="28">
-        <f t="shared" ref="C191:M191" si="116">100*C190/$L190</f>
+        <f t="shared" ref="C191:M191" si="117">100*C190/$L190</f>
         <v>6.7164917247097211</v>
       </c>
       <c r="D191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>6.4477485382417576</v>
       </c>
       <c r="E191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>9.1956079639771513E-3</v>
       </c>
       <c r="F191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>46.109814549809741</v>
       </c>
       <c r="G191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>9.1572295462377404</v>
       </c>
       <c r="H191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>24.622342377704964</v>
       </c>
       <c r="I191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>5.739721458134091</v>
       </c>
       <c r="J191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.21171395801170476</v>
       </c>
       <c r="K191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.74533888400336124</v>
       </c>
       <c r="L191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>100</v>
       </c>
       <c r="M191" s="28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>7.4162574455045135E-2</v>
       </c>
     </row>
@@ -11828,10 +11828,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12742,6 +12742,11 @@
         <v>10.585285476058125</v>
       </c>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1163B-F976-48B7-A786-C2C67428C724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B66BDB-6DC2-460A-B16A-FA7184097A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="4050" windowWidth="26055" windowHeight="17910" activeTab="4" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="7185" yWindow="4050" windowWidth="26055" windowHeight="17910" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -524,10 +524,10 @@
     <t>Для 1908-1914 гг:</t>
   </si>
   <si>
-    <t>Мы сохраняем для армян коэффициент 1908-1914 гг., для остальных принимаем среднее значение между величинами для 1908-1914 гг. и 1909-1917 гг.:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Как видно, для армян повышенное возвращение в 1915-1917 гг. было вызвано специфическими временными причинами, для остальных коэффициенты малоизменны (русское возвращение было ускорено войной). </t>
+  </si>
+  <si>
+    <t>Мы сохраняем для армян коэффициент 1908-1914 гг., для остальных принимаем среднее значение между величинами для 1908-1914 гг. и 1908-1917 гг.:</t>
   </si>
 </sst>
 </file>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
   <dimension ref="A1:AI191"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="I183" sqref="I183"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -11830,7 +11830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B66BDB-6DC2-460A-B16A-FA7184097A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54217943-AC41-4A12-B916-478C8B0D0DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="4050" windowWidth="26055" windowHeight="17910" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="17340" yWindow="5040" windowWidth="26055" windowHeight="17910" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -2205,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
-  <dimension ref="A1:AI191"/>
+  <dimension ref="A1:AI194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="P96" sqref="P96"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="L194" sqref="L194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7369,8 +7369,8 @@
         <v>69.293284687990678</v>
       </c>
       <c r="L117" s="5">
-        <f t="shared" si="49"/>
-        <v>8676.2364997602399</v>
+        <f>SUM(B117:K117) + M117</f>
+        <v>8041.1165038497156</v>
       </c>
       <c r="M117" s="5">
         <f t="shared" si="49"/>
@@ -7423,8 +7423,8 @@
         <v>39.847360139455432</v>
       </c>
       <c r="L118" s="5">
-        <f t="shared" si="50"/>
-        <v>4989.3019506542832</v>
+        <f t="shared" ref="L118:L128" si="51">SUM(B118:K118) + M118</f>
+        <v>4624.0738434463401</v>
       </c>
       <c r="M118" s="5">
         <f t="shared" si="50"/>
@@ -7433,493 +7433,493 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f t="shared" ref="A119:A137" si="51">A118+1</f>
+        <f t="shared" ref="A119:A137" si="52">A118+1</f>
         <v>1898</v>
       </c>
       <c r="B119" s="5">
-        <f t="shared" ref="B119:M119" si="52">B13* (B$112/100)</f>
+        <f t="shared" ref="B119:M119" si="53">B13* (B$112/100)</f>
         <v>1.0202436073480215E-2</v>
       </c>
       <c r="C119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1025.4496274027433</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>129.61060731183034</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.2142254436222181E-2</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>924.30628885748808</v>
       </c>
       <c r="G119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>687.57001783323608</v>
       </c>
       <c r="H119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2318.1707437763639</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>173.52878166232986</v>
       </c>
       <c r="J119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.62764772543485581</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>45.92527541638848</v>
       </c>
       <c r="L119" s="5">
-        <f t="shared" si="52"/>
-        <v>5750.3198560057408</v>
+        <f t="shared" si="51"/>
+        <v>5329.3835291165997</v>
       </c>
       <c r="M119" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>24.102194440275692</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
+        <f t="shared" si="52"/>
+        <v>1899</v>
+      </c>
+      <c r="B120" s="5">
+        <f t="shared" ref="B120:M120" si="54">B14* (B$112/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C120" s="5">
+        <f t="shared" si="54"/>
+        <v>1491.2045622363598</v>
+      </c>
+      <c r="D120" s="5">
+        <f t="shared" si="54"/>
+        <v>292.26800514861657</v>
+      </c>
+      <c r="E120" s="5">
+        <f t="shared" si="54"/>
+        <v>0.18782051282051282</v>
+      </c>
+      <c r="F120" s="5">
+        <f t="shared" si="54"/>
+        <v>1555.5162880884134</v>
+      </c>
+      <c r="G120" s="5">
+        <f t="shared" si="54"/>
+        <v>1243.2936453268433</v>
+      </c>
+      <c r="H120" s="5">
+        <f t="shared" si="54"/>
+        <v>4147.5561096483061</v>
+      </c>
+      <c r="I120" s="5">
+        <f t="shared" si="54"/>
+        <v>567.26631317497902</v>
+      </c>
+      <c r="J120" s="5">
+        <f t="shared" si="54"/>
+        <v>3.0452837081434518</v>
+      </c>
+      <c r="K120" s="5">
+        <f t="shared" si="54"/>
+        <v>81.82970629026326</v>
+      </c>
+      <c r="L120" s="5">
         <f t="shared" si="51"/>
-        <v>1899</v>
-      </c>
-      <c r="B120" s="5">
-        <f t="shared" ref="B120:M120" si="53">B14* (B$112/100)</f>
-        <v>0</v>
-      </c>
-      <c r="C120" s="5">
-        <f t="shared" si="53"/>
-        <v>1491.2045622363598</v>
-      </c>
-      <c r="D120" s="5">
-        <f t="shared" si="53"/>
-        <v>292.26800514861657</v>
-      </c>
-      <c r="E120" s="5">
-        <f t="shared" si="53"/>
-        <v>0.18782051282051282</v>
-      </c>
-      <c r="F120" s="5">
-        <f t="shared" si="53"/>
-        <v>1555.5162880884134</v>
-      </c>
-      <c r="G120" s="5">
-        <f t="shared" si="53"/>
-        <v>1243.2936453268433</v>
-      </c>
-      <c r="H120" s="5">
-        <f t="shared" si="53"/>
-        <v>4147.5561096483061</v>
-      </c>
-      <c r="I120" s="5">
-        <f t="shared" si="53"/>
-        <v>567.26631317497902</v>
-      </c>
-      <c r="J120" s="5">
-        <f t="shared" si="53"/>
-        <v>3.0452837081434518</v>
-      </c>
-      <c r="K120" s="5">
-        <f t="shared" si="53"/>
-        <v>81.82970629026326</v>
-      </c>
-      <c r="L120" s="5">
-        <f t="shared" si="53"/>
-        <v>10148.34767201893</v>
+        <v>9494.7550897263845</v>
       </c>
       <c r="M120" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>112.58735559163959</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
+        <f t="shared" si="52"/>
+        <v>1900</v>
+      </c>
+      <c r="B121" s="5">
+        <f t="shared" ref="B121:M121" si="55">B15* (B$112/100)</f>
+        <v>6.9984447900466568E-2</v>
+      </c>
+      <c r="C121" s="5">
+        <f t="shared" si="55"/>
+        <v>3085.7184352493459</v>
+      </c>
+      <c r="D121" s="5">
+        <f t="shared" si="55"/>
+        <v>290.42198765371541</v>
+      </c>
+      <c r="E121" s="5">
+        <f t="shared" si="55"/>
+        <v>0.37564102564102564</v>
+      </c>
+      <c r="F121" s="5">
+        <f t="shared" si="55"/>
+        <v>2371.6256782055721</v>
+      </c>
+      <c r="G121" s="5">
+        <f t="shared" si="55"/>
+        <v>1872.2133176265729</v>
+      </c>
+      <c r="H121" s="5">
+        <f t="shared" si="55"/>
+        <v>6014.0499108775466</v>
+      </c>
+      <c r="I121" s="5">
+        <f t="shared" si="55"/>
+        <v>398.83238071747166</v>
+      </c>
+      <c r="J121" s="5">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="5">
+        <f t="shared" si="55"/>
+        <v>150.31761264189663</v>
+      </c>
+      <c r="L121" s="5">
         <f t="shared" si="51"/>
-        <v>1900</v>
-      </c>
-      <c r="B121" s="5">
-        <f t="shared" ref="B121:M121" si="54">B15* (B$112/100)</f>
-        <v>6.9984447900466568E-2</v>
-      </c>
-      <c r="C121" s="5">
-        <f t="shared" si="54"/>
-        <v>3085.7184352493459</v>
-      </c>
-      <c r="D121" s="5">
-        <f t="shared" si="54"/>
-        <v>290.42198765371541</v>
-      </c>
-      <c r="E121" s="5">
-        <f t="shared" si="54"/>
-        <v>0.37564102564102564</v>
-      </c>
-      <c r="F121" s="5">
-        <f t="shared" si="54"/>
-        <v>2371.6256782055721</v>
-      </c>
-      <c r="G121" s="5">
-        <f t="shared" si="54"/>
-        <v>1872.2133176265729</v>
-      </c>
-      <c r="H121" s="5">
-        <f t="shared" si="54"/>
-        <v>6014.0499108775466</v>
-      </c>
-      <c r="I121" s="5">
-        <f t="shared" si="54"/>
-        <v>398.83238071747166</v>
-      </c>
-      <c r="J121" s="5">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="K121" s="5">
-        <f t="shared" si="54"/>
-        <v>150.31761264189663</v>
-      </c>
-      <c r="L121" s="5">
-        <f t="shared" si="54"/>
-        <v>15108.360501452602</v>
+        <v>14228.254170481987</v>
       </c>
       <c r="M121" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>44.629222036325601</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
+        <f t="shared" si="52"/>
+        <v>1901</v>
+      </c>
+      <c r="B122" s="5">
+        <f t="shared" ref="B122:M122" si="56">B16* (B$112/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="5">
+        <f t="shared" si="56"/>
+        <v>2457.2329145581289</v>
+      </c>
+      <c r="D122" s="5">
+        <f t="shared" si="56"/>
+        <v>306.38460952139019</v>
+      </c>
+      <c r="E122" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="5">
+        <f t="shared" si="56"/>
+        <v>2413.2129107892747</v>
+      </c>
+      <c r="G122" s="5">
+        <f t="shared" si="56"/>
+        <v>1600.9360261922864</v>
+      </c>
+      <c r="H122" s="5">
+        <f t="shared" si="56"/>
+        <v>5740.0765260486805</v>
+      </c>
+      <c r="I122" s="5">
+        <f t="shared" si="56"/>
+        <v>224.236231218836</v>
+      </c>
+      <c r="J122" s="5">
+        <f t="shared" si="56"/>
+        <v>1.2601173964731525</v>
+      </c>
+      <c r="K122" s="5">
+        <f t="shared" si="56"/>
+        <v>82.88087840664015</v>
+      </c>
+      <c r="L122" s="5">
         <f t="shared" si="51"/>
-        <v>1901</v>
-      </c>
-      <c r="B122" s="5">
-        <f t="shared" ref="B122:M122" si="55">B16* (B$112/100)</f>
-        <v>0</v>
-      </c>
-      <c r="C122" s="5">
-        <f t="shared" si="55"/>
-        <v>2457.2329145581289</v>
-      </c>
-      <c r="D122" s="5">
-        <f t="shared" si="55"/>
-        <v>306.38460952139019</v>
-      </c>
-      <c r="E122" s="5">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="F122" s="5">
-        <f t="shared" si="55"/>
-        <v>2413.2129107892747</v>
-      </c>
-      <c r="G122" s="5">
-        <f t="shared" si="55"/>
-        <v>1600.9360261922864</v>
-      </c>
-      <c r="H122" s="5">
-        <f t="shared" si="55"/>
-        <v>5740.0765260486805</v>
-      </c>
-      <c r="I122" s="5">
-        <f t="shared" si="55"/>
-        <v>224.236231218836</v>
-      </c>
-      <c r="J122" s="5">
-        <f t="shared" si="55"/>
-        <v>1.2601173964731525</v>
-      </c>
-      <c r="K122" s="5">
-        <f t="shared" si="55"/>
-        <v>82.88087840664015</v>
-      </c>
-      <c r="L122" s="5">
-        <f t="shared" si="55"/>
-        <v>14188.08299946407</v>
+        <v>12834.334618138317</v>
       </c>
       <c r="M122" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>8.114404006604655</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
+        <f t="shared" si="52"/>
+        <v>1902</v>
+      </c>
+      <c r="B123" s="5">
+        <f t="shared" ref="B123:M123" si="57">B17* (B$112/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C123" s="5">
+        <f t="shared" si="57"/>
+        <v>3415.8644188529315</v>
+      </c>
+      <c r="D123" s="5">
+        <f t="shared" si="57"/>
+        <v>463.78474827781588</v>
+      </c>
+      <c r="E123" s="5">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="57"/>
+        <v>2425.1315937793652</v>
+      </c>
+      <c r="G123" s="5">
+        <f t="shared" si="57"/>
+        <v>1813.6668780542939</v>
+      </c>
+      <c r="H123" s="5">
+        <f t="shared" si="57"/>
+        <v>9050.2095969956827</v>
+      </c>
+      <c r="I123" s="5">
+        <f t="shared" si="57"/>
+        <v>525.84252084294974</v>
+      </c>
+      <c r="J123" s="5">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="5">
+        <f t="shared" si="57"/>
+        <v>139.64417269099272</v>
+      </c>
+      <c r="L123" s="5">
         <f t="shared" si="51"/>
-        <v>1902</v>
-      </c>
-      <c r="B123" s="5">
-        <f t="shared" ref="B123:M123" si="56">B17* (B$112/100)</f>
-        <v>0</v>
-      </c>
-      <c r="C123" s="5">
-        <f t="shared" si="56"/>
-        <v>3415.8644188529315</v>
-      </c>
-      <c r="D123" s="5">
-        <f t="shared" si="56"/>
-        <v>463.78474827781588</v>
-      </c>
-      <c r="E123" s="5">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="F123" s="5">
-        <f t="shared" si="56"/>
-        <v>2425.1315937793652</v>
-      </c>
-      <c r="G123" s="5">
-        <f t="shared" si="56"/>
-        <v>1813.6668780542939</v>
-      </c>
-      <c r="H123" s="5">
-        <f t="shared" si="56"/>
-        <v>9050.2095969956827</v>
-      </c>
-      <c r="I123" s="5">
-        <f t="shared" si="56"/>
-        <v>525.84252084294974</v>
-      </c>
-      <c r="J123" s="5">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="5">
-        <f t="shared" si="56"/>
-        <v>139.64417269099272</v>
-      </c>
-      <c r="L123" s="5">
-        <f t="shared" si="56"/>
-        <v>17864.200543573777</v>
+        <v>17838.201131497339</v>
       </c>
       <c r="M123" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.0572020033023275</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
+        <f t="shared" si="52"/>
+        <v>1903</v>
+      </c>
+      <c r="B124" s="5">
+        <f t="shared" ref="B124:M124" si="58">B18* (B$112/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="5">
+        <f t="shared" si="58"/>
+        <v>4629.4406184771651</v>
+      </c>
+      <c r="D124" s="5">
+        <f t="shared" si="58"/>
+        <v>569.27921864819712</v>
+      </c>
+      <c r="E124" s="5">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="58"/>
+        <v>3055.860608142053</v>
+      </c>
+      <c r="G124" s="5">
+        <f t="shared" si="58"/>
+        <v>2621.8622938890144</v>
+      </c>
+      <c r="H124" s="5">
+        <f t="shared" si="58"/>
+        <v>10570.828705572676</v>
+      </c>
+      <c r="I124" s="5">
+        <f t="shared" si="58"/>
+        <v>1220.4613195345808</v>
+      </c>
+      <c r="J124" s="5">
+        <f t="shared" si="58"/>
+        <v>2.5202347929463049</v>
+      </c>
+      <c r="K124" s="5">
+        <f t="shared" si="58"/>
+        <v>127.03010729446993</v>
+      </c>
+      <c r="L124" s="5">
         <f t="shared" si="51"/>
-        <v>1903</v>
-      </c>
-      <c r="B124" s="5">
-        <f t="shared" ref="B124:M124" si="57">B18* (B$112/100)</f>
-        <v>0</v>
-      </c>
-      <c r="C124" s="5">
-        <f t="shared" si="57"/>
-        <v>4629.4406184771651</v>
-      </c>
-      <c r="D124" s="5">
-        <f t="shared" si="57"/>
-        <v>569.27921864819712</v>
-      </c>
-      <c r="E124" s="5">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="F124" s="5">
-        <f t="shared" si="57"/>
-        <v>3055.860608142053</v>
-      </c>
-      <c r="G124" s="5">
-        <f t="shared" si="57"/>
-        <v>2621.8622938890144</v>
-      </c>
-      <c r="H124" s="5">
-        <f t="shared" si="57"/>
-        <v>10570.828705572676</v>
-      </c>
-      <c r="I124" s="5">
-        <f t="shared" si="57"/>
-        <v>1220.4613195345808</v>
-      </c>
-      <c r="J124" s="5">
-        <f t="shared" si="57"/>
-        <v>2.5202347929463049</v>
-      </c>
-      <c r="K124" s="5">
-        <f t="shared" si="57"/>
-        <v>127.03010729446993</v>
-      </c>
-      <c r="L124" s="5">
-        <f t="shared" si="57"/>
-        <v>22647.979399299336</v>
+        <v>22804.8903601073</v>
       </c>
       <c r="M124" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7.6072537561918638</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
+        <f t="shared" si="52"/>
+        <v>1904</v>
+      </c>
+      <c r="B125" s="5">
+        <f t="shared" ref="B125:M125" si="59">B19* (B$112/100)</f>
+        <v>1.1897356143079316</v>
+      </c>
+      <c r="C125" s="5">
+        <f t="shared" si="59"/>
+        <v>2484.6012522579031</v>
+      </c>
+      <c r="D125" s="5">
+        <f t="shared" si="59"/>
+        <v>387.01213834280867</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" si="59"/>
+        <v>0.56346153846153846</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="59"/>
+        <v>4968.937385933179</v>
+      </c>
+      <c r="G125" s="5">
+        <f t="shared" si="59"/>
+        <v>2310.4025082141266</v>
+      </c>
+      <c r="H125" s="5">
+        <f t="shared" si="59"/>
+        <v>8707.5423976292368</v>
+      </c>
+      <c r="I125" s="5">
+        <f t="shared" si="59"/>
+        <v>1337.5434433160187</v>
+      </c>
+      <c r="J125" s="5">
+        <f t="shared" si="59"/>
+        <v>18.166692465821281</v>
+      </c>
+      <c r="K125" s="5">
+        <f t="shared" si="59"/>
+        <v>70.428531797252262</v>
+      </c>
+      <c r="L125" s="5">
         <f t="shared" si="51"/>
-        <v>1904</v>
-      </c>
-      <c r="B125" s="5">
-        <f t="shared" ref="B125:M125" si="58">B19* (B$112/100)</f>
-        <v>1.1897356143079316</v>
-      </c>
-      <c r="C125" s="5">
-        <f t="shared" si="58"/>
-        <v>2484.6012522579031</v>
-      </c>
-      <c r="D125" s="5">
-        <f t="shared" si="58"/>
-        <v>387.01213834280867</v>
-      </c>
-      <c r="E125" s="5">
-        <f t="shared" si="58"/>
-        <v>0.56346153846153846</v>
-      </c>
-      <c r="F125" s="5">
-        <f t="shared" si="58"/>
-        <v>4968.937385933179</v>
-      </c>
-      <c r="G125" s="5">
-        <f t="shared" si="58"/>
-        <v>2310.4025082141266</v>
-      </c>
-      <c r="H125" s="5">
-        <f t="shared" si="58"/>
-        <v>8707.5423976292368</v>
-      </c>
-      <c r="I125" s="5">
-        <f t="shared" si="58"/>
-        <v>1337.5434433160187</v>
-      </c>
-      <c r="J125" s="5">
-        <f t="shared" si="58"/>
-        <v>18.166692465821281</v>
-      </c>
-      <c r="K125" s="5">
-        <f t="shared" si="58"/>
-        <v>70.428531797252262</v>
-      </c>
-      <c r="L125" s="5">
-        <f t="shared" si="58"/>
-        <v>24153.70649477714</v>
+        <v>20355.867131415667</v>
       </c>
       <c r="M125" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>69.479584306552354</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
+        <f t="shared" si="52"/>
+        <v>1905</v>
+      </c>
+      <c r="B126" s="5">
+        <f t="shared" ref="B126:M126" si="60">B20* (B$112/100)</f>
+        <v>0.69984447900466562</v>
+      </c>
+      <c r="C126" s="5">
+        <f t="shared" si="60"/>
+        <v>4110.4284485850458</v>
+      </c>
+      <c r="D126" s="5">
+        <f t="shared" si="60"/>
+        <v>364.96851766840064</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" si="60"/>
+        <v>0.9391025641025641</v>
+      </c>
+      <c r="F126" s="5">
+        <f t="shared" si="60"/>
+        <v>5920.1251832713624</v>
+      </c>
+      <c r="G126" s="5">
+        <f t="shared" si="60"/>
+        <v>3208.9630807799731</v>
+      </c>
+      <c r="H126" s="5">
+        <f t="shared" si="60"/>
+        <v>12622.555244056945</v>
+      </c>
+      <c r="I126" s="5">
+        <f t="shared" si="60"/>
+        <v>1122.2081922677014</v>
+      </c>
+      <c r="J126" s="5">
+        <f t="shared" si="60"/>
+        <v>18.691741381018428</v>
+      </c>
+      <c r="K126" s="5">
+        <f t="shared" si="60"/>
+        <v>55.792981561543129</v>
+      </c>
+      <c r="L126" s="5">
         <f t="shared" si="51"/>
-        <v>1905</v>
-      </c>
-      <c r="B126" s="5">
-        <f t="shared" ref="B126:M126" si="59">B20* (B$112/100)</f>
-        <v>0.69984447900466562</v>
-      </c>
-      <c r="C126" s="5">
-        <f t="shared" si="59"/>
-        <v>4110.4284485850458</v>
-      </c>
-      <c r="D126" s="5">
-        <f t="shared" si="59"/>
-        <v>364.96851766840064</v>
-      </c>
-      <c r="E126" s="5">
-        <f t="shared" si="59"/>
-        <v>0.9391025641025641</v>
-      </c>
-      <c r="F126" s="5">
-        <f t="shared" si="59"/>
-        <v>5920.1251832713624</v>
-      </c>
-      <c r="G126" s="5">
-        <f t="shared" si="59"/>
-        <v>3208.9630807799731</v>
-      </c>
-      <c r="H126" s="5">
-        <f t="shared" si="59"/>
-        <v>12622.555244056945</v>
-      </c>
-      <c r="I126" s="5">
-        <f t="shared" si="59"/>
-        <v>1122.2081922677014</v>
-      </c>
-      <c r="J126" s="5">
-        <f t="shared" si="59"/>
-        <v>18.691741381018428</v>
-      </c>
-      <c r="K126" s="5">
-        <f t="shared" si="59"/>
-        <v>55.792981561543129</v>
-      </c>
-      <c r="L126" s="5">
-        <f t="shared" si="59"/>
-        <v>30769.719581405727</v>
+        <v>27466.958657148949</v>
       </c>
       <c r="M126" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>41.586320533848856</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
+        <f t="shared" si="52"/>
+        <v>1906</v>
+      </c>
+      <c r="B127" s="5">
+        <f t="shared" ref="B127:M127" si="61">B21* (B$112/100)</f>
+        <v>9.0979782270606542</v>
+      </c>
+      <c r="C127" s="5">
+        <f t="shared" si="61"/>
+        <v>3318.9657096996762</v>
+      </c>
+      <c r="D127" s="5">
+        <f t="shared" si="61"/>
+        <v>558.09452441438418</v>
+      </c>
+      <c r="E127" s="5">
+        <f t="shared" si="61"/>
+        <v>2.8173076923076925</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" si="61"/>
+        <v>8024.8620730160392</v>
+      </c>
+      <c r="G127" s="5">
+        <f t="shared" si="61"/>
+        <v>2490.405536712748</v>
+      </c>
+      <c r="H127" s="5">
+        <f t="shared" si="61"/>
+        <v>12349.918314763829</v>
+      </c>
+      <c r="I127" s="5">
+        <f t="shared" si="61"/>
+        <v>1808.2683561799874</v>
+      </c>
+      <c r="J127" s="5">
+        <f t="shared" si="61"/>
+        <v>27.197533807212206</v>
+      </c>
+      <c r="K127" s="5">
+        <f t="shared" si="61"/>
+        <v>75.765251772704218</v>
+      </c>
+      <c r="L127" s="5">
         <f t="shared" si="51"/>
-        <v>1906</v>
-      </c>
-      <c r="B127" s="5">
-        <f t="shared" ref="B127:M127" si="60">B21* (B$112/100)</f>
-        <v>9.0979782270606542</v>
-      </c>
-      <c r="C127" s="5">
-        <f t="shared" si="60"/>
-        <v>3318.9657096996762</v>
-      </c>
-      <c r="D127" s="5">
-        <f t="shared" si="60"/>
-        <v>558.09452441438418</v>
-      </c>
-      <c r="E127" s="5">
-        <f t="shared" si="60"/>
-        <v>2.8173076923076925</v>
-      </c>
-      <c r="F127" s="5">
-        <f t="shared" si="60"/>
-        <v>8024.8620730160392</v>
-      </c>
-      <c r="G127" s="5">
-        <f t="shared" si="60"/>
-        <v>2490.405536712748</v>
-      </c>
-      <c r="H127" s="5">
-        <f t="shared" si="60"/>
-        <v>12349.918314763829</v>
-      </c>
-      <c r="I127" s="5">
-        <f t="shared" si="60"/>
-        <v>1808.2683561799874</v>
-      </c>
-      <c r="J127" s="5">
-        <f t="shared" si="60"/>
-        <v>27.197533807212206</v>
-      </c>
-      <c r="K127" s="5">
-        <f t="shared" si="60"/>
-        <v>75.765251772704218</v>
-      </c>
-      <c r="L127" s="5">
-        <f t="shared" si="60"/>
-        <v>35889.99050024536</v>
+        <v>28750.086678104879</v>
       </c>
       <c r="M127" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>84.694091818936087</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1907</v>
       </c>
       <c r="B128" s="5">
@@ -7927,53 +7927,53 @@
         <v>23.864696734059098</v>
       </c>
       <c r="C128" s="5">
-        <f t="shared" ref="C128:M128" si="61">C22* (C$112/100)</f>
+        <f t="shared" ref="C128:M128" si="62">C22* (C$112/100)</f>
         <v>3528.5430704637147</v>
       </c>
       <c r="D128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>731.8916420961084</v>
       </c>
       <c r="E128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.6397435897435901</v>
       </c>
       <c r="F128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>7364.7208248229663</v>
       </c>
       <c r="G128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4511.1668081609105</v>
       </c>
       <c r="H128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>19544.860337030575</v>
       </c>
       <c r="I128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5506.6256170304996</v>
       </c>
       <c r="J128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>15.751467455914407</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>114.49690129151459</v>
       </c>
       <c r="L128" s="5">
-        <f t="shared" si="61"/>
-        <v>43092.118842209136</v>
+        <f t="shared" si="51"/>
+        <v>41476.841521028786</v>
       </c>
       <c r="M128" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>126.28041235278495</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1908</v>
       </c>
       <c r="B129" s="5">
@@ -8010,13 +8010,13 @@
         <v>37777</v>
       </c>
       <c r="M129" s="5">
-        <f t="shared" ref="M129:M131" si="62">L129-SUM(B129:K129)</f>
+        <f t="shared" ref="M129:M131" si="63">L129-SUM(B129:K129)</f>
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1909</v>
       </c>
       <c r="B130" s="5">
@@ -8053,13 +8053,13 @@
         <v>19707</v>
       </c>
       <c r="M130" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1910</v>
       </c>
       <c r="B131" s="5">
@@ -8096,13 +8096,13 @@
         <v>17362</v>
       </c>
       <c r="M131" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1911</v>
       </c>
       <c r="B132" s="5">
@@ -8113,15 +8113,15 @@
         <v>4219</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" ref="D132:F132" si="63">D26*D$112/100</f>
+        <f t="shared" ref="D132:F132" si="64">D26*D$112/100</f>
         <v>476.65257610992109</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.4467948717948715</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4195.3764125118269</v>
       </c>
       <c r="G132" s="5">
@@ -8150,9 +8150,9 @@
         <v>221.62465943038961</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1912</v>
       </c>
       <c r="B133" s="5">
@@ -8189,13 +8189,13 @@
         <v>34681</v>
       </c>
       <c r="M133" s="5">
-        <f t="shared" ref="M133" si="64">L133-SUM(B133:K133)</f>
+        <f t="shared" ref="M133" si="65">L133-SUM(B133:K133)</f>
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1913</v>
       </c>
       <c r="B134" s="5">
@@ -8206,15 +8206,15 @@
         <v>3053</v>
       </c>
       <c r="D134" s="5">
-        <f t="shared" ref="D134:F134" si="65">D28*D$112/100</f>
+        <f t="shared" ref="D134:F134" si="66">D28*D$112/100</f>
         <v>969.53924724853175</v>
       </c>
       <c r="E134" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5.6346153846153841</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4743.9562247600206</v>
       </c>
       <c r="G134" s="5">
@@ -8228,11 +8228,11 @@
         <v>5327</v>
       </c>
       <c r="J134" s="5">
-        <f t="shared" ref="J134:K134" si="66">J28*J$112/100</f>
+        <f t="shared" ref="J134:K134" si="67">J28*J$112/100</f>
         <v>112.78050698434714</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>72.126579062168801</v>
       </c>
       <c r="L134" s="5">
@@ -8243,9 +8243,9 @@
         <v>202.35294991470357</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1914</v>
       </c>
       <c r="B135" s="5">
@@ -8282,13 +8282,13 @@
         <v>47451</v>
       </c>
       <c r="M135" s="5">
-        <f t="shared" ref="M135:M137" si="67">L135-SUM(B135:K135)</f>
+        <f t="shared" ref="M135:M137" si="68">L135-SUM(B135:K135)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1915</v>
       </c>
       <c r="B136" s="5">
@@ -8325,13 +8325,13 @@
         <v>18297</v>
       </c>
       <c r="M136" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1916</v>
       </c>
       <c r="B137" s="5">
@@ -8368,11 +8368,11 @@
         <v>5259</v>
       </c>
       <c r="M137" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1917</v>
       </c>
@@ -8384,15 +8384,15 @@
         <v>1256</v>
       </c>
       <c r="D138" s="5">
-        <f t="shared" ref="D138:F138" si="68">D32*D$112/100</f>
+        <f t="shared" ref="D138:F138" si="69">D32*D$112/100</f>
         <v>2.1174906559160407</v>
       </c>
       <c r="E138" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2.0660256410256408</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>435.80087642798344</v>
       </c>
       <c r="G138" s="5">
@@ -8405,11 +8405,11 @@
         <v>6393</v>
       </c>
       <c r="J138" s="5">
-        <f t="shared" ref="J138:K138" si="69">J32*J$112/100</f>
+        <f t="shared" ref="J138:K138" si="70">J32*J$112/100</f>
         <v>0.73506848127600566</v>
       </c>
       <c r="K138" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>36.791024073191487</v>
       </c>
       <c r="L138" s="5">
@@ -8420,12 +8420,12 @@
         <v>58.82942904788375</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>84</v>
       </c>
@@ -8466,780 +8466,792 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1896</v>
       </c>
       <c r="B143" s="5">
-        <f t="shared" ref="B143:B164" si="70">B11-B117</f>
+        <f t="shared" ref="B143:B164" si="71">B11-B117</f>
         <v>0.20456528323585293</v>
       </c>
       <c r="C143" s="5">
-        <f t="shared" ref="C143:M143" si="71">C11-C117</f>
+        <f t="shared" ref="C143:M143" si="72">C11-C117</f>
         <v>4727.9842353568074</v>
       </c>
       <c r="D143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3406.2685381909596</v>
       </c>
       <c r="E143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.53593854358074322</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>20369.444339981215</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4668.3122033781083</v>
       </c>
       <c r="H143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>9588.0822810653262</v>
       </c>
       <c r="I143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>502.97254454953452</v>
       </c>
       <c r="J143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>8.0713069790221681</v>
       </c>
       <c r="K143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>787.66694752282172</v>
       </c>
       <c r="L143" s="5">
-        <f t="shared" si="71"/>
-        <v>43459.763500239758</v>
+        <f t="shared" si="72"/>
+        <v>44094.883496150287</v>
       </c>
       <c r="M143" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>35.340595299671655</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P143" s="5"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f>A143+1</f>
         <v>1897</v>
       </c>
       <c r="B144" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.11763602418087515</v>
       </c>
       <c r="C144" s="5">
-        <f t="shared" ref="C144:M144" si="72">C12-C118</f>
+        <f t="shared" ref="C144:M144" si="73">C12-C118</f>
         <v>2718.8448549990876</v>
       </c>
       <c r="D144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1958.78734547152</v>
       </c>
       <c r="E144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.3081934455097104</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>11713.524450609497</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2684.5302318835174</v>
       </c>
       <c r="H144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>5513.662246214124</v>
       </c>
       <c r="I144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>289.23622560494852</v>
       </c>
       <c r="J144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4.6414349880708849</v>
       </c>
       <c r="K144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>452.95079702473754</v>
       </c>
       <c r="L144" s="5">
-        <f t="shared" si="72"/>
-        <v>24991.698049345716</v>
+        <f t="shared" si="73"/>
+        <v>25356.926156553658</v>
       </c>
       <c r="M144" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>20.322740288466203</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P144" s="5"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f t="shared" ref="A145:A163" si="73">A144+1</f>
+        <f t="shared" ref="A145:A163" si="74">A144+1</f>
         <v>1898</v>
       </c>
       <c r="B145" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.13557903937647042</v>
       </c>
       <c r="C145" s="5">
-        <f t="shared" ref="C145:M145" si="74">C13-C119</f>
+        <f t="shared" ref="C145:M145" si="75">C13-C119</f>
         <v>3133.5500857088982</v>
       </c>
       <c r="D145" s="5">
+        <f t="shared" si="75"/>
+        <v>2257.5610531811112</v>
+      </c>
+      <c r="E145" s="5">
+        <f t="shared" si="75"/>
+        <v>0.35520217191362968</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="75"/>
+        <v>13500.187581013328</v>
+      </c>
+      <c r="G145" s="5">
+        <f t="shared" si="75"/>
+        <v>3094.0014553384835</v>
+      </c>
+      <c r="H145" s="5">
+        <f t="shared" si="75"/>
+        <v>6354.6607936921009</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="75"/>
+        <v>333.35340847714849</v>
+      </c>
+      <c r="J145" s="5">
+        <f t="shared" si="75"/>
+        <v>5.3493927680131197</v>
+      </c>
+      <c r="K145" s="5">
+        <f t="shared" si="75"/>
+        <v>522.03935293661925</v>
+      </c>
+      <c r="L145" s="5">
+        <f t="shared" si="75"/>
+        <v>29224.6164708834</v>
+      </c>
+      <c r="M145" s="5">
+        <f t="shared" si="75"/>
+        <v>23.422566556407052</v>
+      </c>
+      <c r="P145" s="5"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <f t="shared" si="74"/>
-        <v>2257.5610531811112</v>
-      </c>
-      <c r="E145" s="5">
+        <v>1899</v>
+      </c>
+      <c r="B146" s="5">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="C146" s="5">
+        <f t="shared" ref="C146:M146" si="76">C14-C120</f>
+        <v>4556.7954377636397</v>
+      </c>
+      <c r="D146" s="5">
+        <f t="shared" si="76"/>
+        <v>5090.7319948513832</v>
+      </c>
+      <c r="E146" s="5">
+        <f t="shared" si="76"/>
+        <v>0.81217948717948718</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" si="76"/>
+        <v>22719.483711911587</v>
+      </c>
+      <c r="G146" s="5">
+        <f t="shared" si="76"/>
+        <v>5594.706354673157</v>
+      </c>
+      <c r="H146" s="5">
+        <f t="shared" si="76"/>
+        <v>11369.443890351693</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="76"/>
+        <v>1089.7336868250209</v>
+      </c>
+      <c r="J146" s="5">
+        <f t="shared" si="76"/>
+        <v>25.954716291856549</v>
+      </c>
+      <c r="K146" s="5">
+        <f t="shared" si="76"/>
+        <v>930.17029370973671</v>
+      </c>
+      <c r="L146" s="5">
+        <f t="shared" si="76"/>
+        <v>51487.244910273614</v>
+      </c>
+      <c r="M146" s="5">
+        <f t="shared" si="76"/>
+        <v>109.41264440836041</v>
+      </c>
+      <c r="P146" s="5"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <f t="shared" si="74"/>
-        <v>0.35520217191362968</v>
-      </c>
-      <c r="F145" s="5">
-        <f t="shared" si="74"/>
-        <v>13500.187581013328</v>
-      </c>
-      <c r="G145" s="5">
-        <f t="shared" si="74"/>
-        <v>3094.0014553384835</v>
-      </c>
-      <c r="H145" s="5">
-        <f t="shared" si="74"/>
-        <v>6354.6607936921009</v>
-      </c>
-      <c r="I145" s="5">
-        <f t="shared" si="74"/>
-        <v>333.35340847714849</v>
-      </c>
-      <c r="J145" s="5">
-        <f t="shared" si="74"/>
-        <v>5.3493927680131197</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="74"/>
-        <v>522.03935293661925</v>
-      </c>
-      <c r="L145" s="5">
-        <f t="shared" si="74"/>
-        <v>28803.680143994257</v>
-      </c>
-      <c r="M145" s="5">
-        <f t="shared" si="74"/>
-        <v>23.422566556407052</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <f t="shared" si="73"/>
-        <v>1899</v>
-      </c>
-      <c r="B146" s="5">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="C146" s="5">
-        <f t="shared" ref="C146:M146" si="75">C14-C120</f>
-        <v>4556.7954377636397</v>
-      </c>
-      <c r="D146" s="5">
-        <f t="shared" si="75"/>
-        <v>5090.7319948513832</v>
-      </c>
-      <c r="E146" s="5">
-        <f t="shared" si="75"/>
-        <v>0.81217948717948718</v>
-      </c>
-      <c r="F146" s="5">
-        <f t="shared" si="75"/>
-        <v>22719.483711911587</v>
-      </c>
-      <c r="G146" s="5">
-        <f t="shared" si="75"/>
-        <v>5594.706354673157</v>
-      </c>
-      <c r="H146" s="5">
-        <f t="shared" si="75"/>
-        <v>11369.443890351693</v>
-      </c>
-      <c r="I146" s="5">
-        <f t="shared" si="75"/>
-        <v>1089.7336868250209</v>
-      </c>
-      <c r="J146" s="5">
-        <f t="shared" si="75"/>
-        <v>25.954716291856549</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="75"/>
-        <v>930.17029370973671</v>
-      </c>
-      <c r="L146" s="5">
-        <f t="shared" si="75"/>
-        <v>50833.652327981072</v>
-      </c>
-      <c r="M146" s="5">
-        <f t="shared" si="75"/>
-        <v>109.41264440836041</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <f t="shared" si="73"/>
         <v>1900</v>
       </c>
       <c r="B147" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.93001555209953346</v>
       </c>
       <c r="C147" s="5">
-        <f t="shared" ref="C147:M147" si="76">C15-C121</f>
+        <f t="shared" ref="C147:M147" si="77">C15-C121</f>
         <v>9429.2815647506541</v>
       </c>
       <c r="D147" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5058.5780123462846</v>
       </c>
       <c r="E147" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.6243589743589744</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>34639.374321794428</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>8424.7866823734275</v>
       </c>
       <c r="H147" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>16485.950089122452</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>766.16761928252834</v>
       </c>
       <c r="J147" s="5">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="76"/>
-        <v>1708.6823873581034</v>
-      </c>
-      <c r="L147" s="5">
-        <f t="shared" si="76"/>
-        <v>75678.639498547403</v>
-      </c>
-      <c r="M147" s="5">
-        <f t="shared" si="76"/>
-        <v>43.370777963674399</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <f t="shared" si="73"/>
-        <v>1901</v>
-      </c>
-      <c r="B148" s="5">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="C148" s="5">
-        <f t="shared" ref="C148:M148" si="77">C16-C122</f>
-        <v>7508.7670854418711</v>
-      </c>
-      <c r="D148" s="5">
-        <f t="shared" si="77"/>
-        <v>5336.6153904786097</v>
-      </c>
-      <c r="E148" s="5">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="F148" s="5">
+      <c r="K147" s="5">
         <f t="shared" si="77"/>
-        <v>35246.787089210724</v>
-      </c>
-      <c r="G148" s="5">
+        <v>1708.6823873581034</v>
+      </c>
+      <c r="L147" s="5">
         <f t="shared" si="77"/>
-        <v>7204.0639738077134</v>
-      </c>
-      <c r="H148" s="5">
+        <v>76558.745829518011</v>
+      </c>
+      <c r="M147" s="5">
         <f t="shared" si="77"/>
-        <v>15734.923473951319</v>
-      </c>
-      <c r="I148" s="5">
-        <f t="shared" si="77"/>
-        <v>430.763768781164</v>
-      </c>
-      <c r="J148" s="5">
-        <f t="shared" si="77"/>
-        <v>10.739882603526848</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="77"/>
-        <v>942.11912159335986</v>
-      </c>
-      <c r="L148" s="5">
-        <f t="shared" si="77"/>
-        <v>71068.917000535934</v>
-      </c>
-      <c r="M148" s="5">
-        <f t="shared" si="77"/>
-        <v>7.885595993395345</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <f t="shared" si="73"/>
-        <v>1902</v>
-      </c>
-      <c r="B149" s="5">
-        <f t="shared" si="70"/>
+        <v>43.370777963674399</v>
+      </c>
+      <c r="P147" s="5"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <f t="shared" si="74"/>
+        <v>1901</v>
+      </c>
+      <c r="B148" s="5">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="C149" s="5">
-        <f t="shared" ref="C149:M149" si="78">C17-C123</f>
-        <v>10438.135581147068</v>
-      </c>
-      <c r="D149" s="5">
+      <c r="C148" s="5">
+        <f t="shared" ref="C148:M148" si="78">C16-C122</f>
+        <v>7508.7670854418711</v>
+      </c>
+      <c r="D148" s="5">
         <f t="shared" si="78"/>
-        <v>8078.2152517221839</v>
-      </c>
-      <c r="E149" s="5">
+        <v>5336.6153904786097</v>
+      </c>
+      <c r="E148" s="5">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F148" s="5">
         <f t="shared" si="78"/>
-        <v>35420.868406220638</v>
-      </c>
-      <c r="G149" s="5">
+        <v>35246.787089210724</v>
+      </c>
+      <c r="G148" s="5">
         <f t="shared" si="78"/>
-        <v>8161.3331219457059</v>
-      </c>
-      <c r="H149" s="5">
+        <v>7204.0639738077134</v>
+      </c>
+      <c r="H148" s="5">
         <f t="shared" si="78"/>
-        <v>24808.790403004317</v>
-      </c>
-      <c r="I149" s="5">
+        <v>15734.923473951319</v>
+      </c>
+      <c r="I148" s="5">
         <f t="shared" si="78"/>
-        <v>1010.1574791570503</v>
-      </c>
-      <c r="J149" s="5">
+        <v>430.763768781164</v>
+      </c>
+      <c r="J148" s="5">
         <f t="shared" si="78"/>
+        <v>10.739882603526848</v>
+      </c>
+      <c r="K148" s="5">
+        <f t="shared" si="78"/>
+        <v>942.11912159335986</v>
+      </c>
+      <c r="L148" s="5">
+        <f t="shared" si="78"/>
+        <v>72422.665381861676</v>
+      </c>
+      <c r="M148" s="5">
+        <f t="shared" si="78"/>
+        <v>7.885595993395345</v>
+      </c>
+      <c r="P148" s="5"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <f t="shared" si="74"/>
+        <v>1902</v>
+      </c>
+      <c r="B149" s="5">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="K149" s="5">
-        <f t="shared" si="78"/>
-        <v>1587.3558273090073</v>
-      </c>
-      <c r="L149" s="5">
-        <f t="shared" si="78"/>
-        <v>89482.799456426219</v>
-      </c>
-      <c r="M149" s="5">
-        <f t="shared" si="78"/>
-        <v>3.9427979966976725</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <f t="shared" si="73"/>
-        <v>1903</v>
-      </c>
-      <c r="B150" s="5">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="C150" s="5">
-        <f t="shared" ref="C150:M150" si="79">C18-C124</f>
-        <v>14146.559381522835</v>
-      </c>
-      <c r="D150" s="5">
+      <c r="C149" s="5">
+        <f t="shared" ref="C149:M149" si="79">C17-C123</f>
+        <v>10438.135581147068</v>
+      </c>
+      <c r="D149" s="5">
         <f t="shared" si="79"/>
-        <v>9915.7207813518035</v>
-      </c>
-      <c r="E150" s="5">
+        <v>8078.2152517221839</v>
+      </c>
+      <c r="E149" s="5">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
+      <c r="F149" s="5">
+        <f t="shared" si="79"/>
+        <v>35420.868406220638</v>
+      </c>
+      <c r="G149" s="5">
+        <f t="shared" si="79"/>
+        <v>8161.3331219457059</v>
+      </c>
+      <c r="H149" s="5">
+        <f t="shared" si="79"/>
+        <v>24808.790403004317</v>
+      </c>
+      <c r="I149" s="5">
+        <f t="shared" si="79"/>
+        <v>1010.1574791570503</v>
+      </c>
+      <c r="J149" s="5">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="K149" s="5">
+        <f t="shared" si="79"/>
+        <v>1587.3558273090073</v>
+      </c>
+      <c r="L149" s="5">
+        <f t="shared" si="79"/>
+        <v>89508.798868502665</v>
+      </c>
+      <c r="M149" s="5">
+        <f t="shared" si="79"/>
+        <v>3.9427979966976725</v>
+      </c>
+      <c r="P149" s="5"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <f t="shared" si="74"/>
+        <v>1903</v>
+      </c>
+      <c r="B150" s="5">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="C150" s="5">
+        <f t="shared" ref="C150:M150" si="80">C18-C124</f>
+        <v>14146.559381522835</v>
+      </c>
+      <c r="D150" s="5">
+        <f t="shared" si="80"/>
+        <v>9915.7207813518035</v>
+      </c>
+      <c r="E150" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
       <c r="F150" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>44633.139391857949</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>11798.137706110985</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>28977.171294427324</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2344.538680465419</v>
       </c>
       <c r="J150" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>21.479765207053696</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1443.9698927055301</v>
       </c>
       <c r="L150" s="5">
-        <f t="shared" si="79"/>
-        <v>113445.02060070066</v>
+        <f t="shared" si="80"/>
+        <v>113288.1096398927</v>
       </c>
       <c r="M150" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7.3927462438081362</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P150" s="5"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1904</v>
       </c>
       <c r="B151" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>15.810264385692069</v>
       </c>
       <c r="C151" s="5">
-        <f t="shared" ref="C151:M151" si="80">C19-C125</f>
+        <f t="shared" ref="C151:M151" si="81">C19-C125</f>
         <v>7592.3987477420969</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>6740.9878616571914</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2.4365384615384613</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>72575.062614066817</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>10396.597491785873</v>
       </c>
       <c r="H151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>23869.457602370763</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2569.456556683981</v>
       </c>
       <c r="J151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>154.83330753417872</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>800.57146820274772</v>
       </c>
       <c r="L151" s="5">
-        <f t="shared" si="80"/>
-        <v>120987.29350522286</v>
+        <f t="shared" si="81"/>
+        <v>124785.13286858433</v>
       </c>
       <c r="M151" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>67.520415693447646</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P151" s="5"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1905</v>
       </c>
       <c r="B152" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9.3001555209953342</v>
       </c>
       <c r="C152" s="5">
-        <f t="shared" ref="C152:M152" si="81">C20-C126</f>
+        <f t="shared" ref="C152:M152" si="82">C20-C126</f>
         <v>12560.571551414954</v>
       </c>
       <c r="D152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>6357.0314823315994</v>
       </c>
       <c r="E152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>4.0608974358974361</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>86467.874816728639</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>14440.036919220027</v>
       </c>
       <c r="H152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>34601.444755943055</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2155.7918077322984</v>
       </c>
       <c r="J152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>159.30825861898157</v>
       </c>
       <c r="K152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>634.20701843845688</v>
       </c>
       <c r="L152" s="5">
-        <f t="shared" si="81"/>
-        <v>154127.28041859428</v>
+        <f t="shared" si="82"/>
+        <v>157430.04134285107</v>
       </c>
       <c r="M152" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>40.413679466151144</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P152" s="5"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1906</v>
       </c>
       <c r="B153" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>120.90202177293935</v>
       </c>
       <c r="C153" s="5">
-        <f t="shared" ref="C153:M153" si="82">C21-C127</f>
+        <f t="shared" ref="C153:M153" si="83">C21-C127</f>
         <v>10142.034290300324</v>
       </c>
       <c r="D153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>9720.9054755856159</v>
       </c>
       <c r="E153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>12.182692307692307</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>117209.13792698397</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>11206.594463287252</v>
       </c>
       <c r="H153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>33854.081685236175</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3473.7316438200123</v>
       </c>
       <c r="J153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>231.80246619278779</v>
       </c>
       <c r="K153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>861.23474822729577</v>
       </c>
       <c r="L153" s="5">
-        <f t="shared" si="82"/>
-        <v>179775.00949975464</v>
+        <f t="shared" si="83"/>
+        <v>186914.91332189512</v>
       </c>
       <c r="M153" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>82.305908181063913</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P153" s="5"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1907</v>
       </c>
       <c r="B154" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>317.13530326594088</v>
       </c>
       <c r="C154" s="5">
-        <f t="shared" ref="C154:M154" si="83">C22-C128</f>
+        <f t="shared" ref="C154:M154" si="84">C22-C128</f>
         <v>10782.456929536285</v>
       </c>
       <c r="D154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>12748.108357903891</v>
       </c>
       <c r="E154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>37.360256410256412</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>107567.27917517703</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>20299.83319183909</v>
       </c>
       <c r="H154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>53577.139662969421</v>
       </c>
       <c r="I154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>10578.374382969501</v>
       </c>
       <c r="J154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>134.24853254408561</v>
       </c>
       <c r="K154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1301.5030987084854</v>
       </c>
       <c r="L154" s="5">
-        <f t="shared" si="83"/>
-        <v>215850.88115779086</v>
+        <f t="shared" si="84"/>
+        <v>217466.15847897122</v>
       </c>
       <c r="M154" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>122.71958764721505</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P154" s="5"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1908</v>
       </c>
       <c r="B155" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>53</v>
       </c>
       <c r="C155" s="5">
-        <f t="shared" ref="C155:M155" si="84">C23-C129</f>
+        <f t="shared" ref="C155:M155" si="85">C23-C129</f>
         <v>2943</v>
       </c>
       <c r="D155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9601</v>
       </c>
       <c r="E155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>17</v>
       </c>
       <c r="F155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>66539</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9988</v>
       </c>
       <c r="H155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>19760</v>
       </c>
       <c r="I155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9688</v>
       </c>
       <c r="J155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-13</v>
       </c>
       <c r="K155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>386</v>
       </c>
       <c r="L155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>118934</v>
       </c>
       <c r="M155" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-28</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1909</v>
       </c>
       <c r="B156" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>49</v>
       </c>
       <c r="C156" s="5">
-        <f t="shared" ref="C156:M156" si="85">C24-C130</f>
+        <f t="shared" ref="C156:M156" si="86">C24-C130</f>
         <v>10167</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>7443</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>35161</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>12651</v>
       </c>
       <c r="H156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>29349</v>
       </c>
       <c r="I156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>5280</v>
       </c>
       <c r="J156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>40</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>550</v>
       </c>
       <c r="L156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>100753</v>
       </c>
       <c r="M156" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1910</v>
       </c>
       <c r="B157" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>48</v>
       </c>
       <c r="C157" s="5">
-        <f t="shared" ref="C157:M157" si="86">C25-C131</f>
+        <f t="shared" ref="C157:M157" si="87">C25-C131</f>
         <v>14307</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>9513</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="F157" s="5">
@@ -9247,355 +9259,355 @@
         <v>56529</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>19911</v>
       </c>
       <c r="H157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>56930</v>
       </c>
       <c r="I157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>10545</v>
       </c>
       <c r="J157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>64</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1376</v>
       </c>
       <c r="L157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>169430</v>
       </c>
       <c r="M157" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>207</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1911</v>
       </c>
       <c r="B158" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>141.36236391912908</v>
       </c>
       <c r="C158" s="5">
-        <f t="shared" ref="C158:M158" si="87">C26-C132</f>
+        <f t="shared" ref="C158:M158" si="88">C26-C132</f>
         <v>4723</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>8302.3474238900781</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>23.553205128205128</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>61276.623587488175</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>13780</v>
       </c>
       <c r="H158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>29449.768530315501</v>
       </c>
       <c r="I158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>13743</v>
       </c>
       <c r="J158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>175.41808252427185</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>670.97264269575874</v>
       </c>
       <c r="L158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>131668</v>
       </c>
       <c r="M158" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>215.37534056961039</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1912</v>
       </c>
       <c r="B159" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>232</v>
       </c>
       <c r="C159" s="5">
-        <f t="shared" ref="C159:M159" si="88">C27-C133</f>
+        <f t="shared" ref="C159:M159" si="89">C27-C133</f>
         <v>3279</v>
       </c>
       <c r="D159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>10512</v>
       </c>
       <c r="E159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>53941</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9644</v>
       </c>
       <c r="H159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>36543</v>
       </c>
       <c r="I159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>12962</v>
       </c>
       <c r="J159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>251</v>
       </c>
       <c r="K159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>355</v>
       </c>
       <c r="L159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>127714</v>
       </c>
       <c r="M159" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-11</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1913</v>
       </c>
       <c r="B160" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>845.38413685847593</v>
       </c>
       <c r="C160" s="5">
-        <f t="shared" ref="C160:M160" si="89">C28-C134</f>
+        <f t="shared" ref="C160:M160" si="90">C28-C134</f>
         <v>8103</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>16887.460752751467</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>24.365384615384617</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>69289.043775239974</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>20597</v>
       </c>
       <c r="H160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>82316.180567220537</v>
       </c>
       <c r="I160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>43145</v>
       </c>
       <c r="J160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>961.21949301565292</v>
       </c>
       <c r="K160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>819.87342093783116</v>
       </c>
       <c r="L160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>264117</v>
       </c>
       <c r="M160" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>196.64705008529643</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1914</v>
       </c>
       <c r="B161" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>814</v>
       </c>
       <c r="C161" s="5">
-        <f t="shared" ref="C161:M161" si="90">C29-C135</f>
+        <f t="shared" ref="C161:M161" si="91">C29-C135</f>
         <v>8716</v>
       </c>
       <c r="D161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>9078</v>
       </c>
       <c r="E161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>58</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>98464</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>15328</v>
       </c>
       <c r="H161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>47499</v>
       </c>
       <c r="I161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>24538</v>
       </c>
       <c r="J161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2476</v>
       </c>
       <c r="K161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>715</v>
       </c>
       <c r="L161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>208209</v>
       </c>
       <c r="M161" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>523</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1915</v>
       </c>
       <c r="B162" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-176</v>
       </c>
       <c r="C162" s="5">
-        <f t="shared" ref="C162:M162" si="91">C30-C136</f>
+        <f t="shared" ref="C162:M162" si="92">C30-C136</f>
         <v>923</v>
       </c>
       <c r="D162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>738</v>
       </c>
       <c r="E162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>12</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>13623</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1253</v>
       </c>
       <c r="H162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-208</v>
       </c>
       <c r="I162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-8471</v>
       </c>
       <c r="J162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>118</v>
       </c>
       <c r="K162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>88</v>
       </c>
       <c r="L162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7890</v>
       </c>
       <c r="M162" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-10</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1916</v>
       </c>
       <c r="B163" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-310</v>
       </c>
       <c r="C163" s="5">
-        <f t="shared" ref="C163:M163" si="92">C31-C137</f>
+        <f t="shared" ref="C163:M163" si="93">C31-C137</f>
         <v>3455</v>
       </c>
       <c r="D163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>43</v>
       </c>
       <c r="E163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2093</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>110</v>
       </c>
       <c r="H163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>48</v>
       </c>
       <c r="I163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-3080</v>
       </c>
       <c r="J163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2</v>
       </c>
       <c r="K163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>256</v>
       </c>
       <c r="L163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2583</v>
       </c>
       <c r="M163" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-36</v>
       </c>
     </row>
@@ -9604,51 +9616,51 @@
         <v>1917</v>
       </c>
       <c r="B164" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>95.791601866251938</v>
       </c>
       <c r="C164" s="5">
-        <f t="shared" ref="C164:M164" si="93">C32-C138</f>
+        <f t="shared" ref="C164:M164" si="94">C32-C138</f>
         <v>2489</v>
       </c>
       <c r="D164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>36.882509344083957</v>
       </c>
       <c r="E164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8.9339743589743588</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>6365.1991235720161</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>35</v>
       </c>
       <c r="H164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>241</v>
       </c>
       <c r="I164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>-5387</v>
       </c>
       <c r="J164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>6.2649315187239942</v>
       </c>
       <c r="K164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>418.20897592680853</v>
       </c>
       <c r="L164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>6769</v>
       </c>
       <c r="M164" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>57.17057095211625</v>
       </c>
     </row>
@@ -9707,47 +9719,47 @@
         <v>0.16110065370836404</v>
       </c>
       <c r="C169" s="5">
-        <f t="shared" ref="C169:M169" si="94">(C143+C144)/2</f>
+        <f t="shared" ref="C169:M169" si="95">(C143+C144)/2</f>
         <v>3723.4145451779477</v>
       </c>
       <c r="D169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2682.5279418312398</v>
       </c>
       <c r="E169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.42206599454522681</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>16041.484395295356</v>
       </c>
       <c r="G169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3676.4212176308129</v>
       </c>
       <c r="H169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>7550.8722636397251</v>
       </c>
       <c r="I169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>396.10438507724155</v>
       </c>
       <c r="J169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6.3563709835465261</v>
       </c>
       <c r="K169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>620.30887227377957</v>
       </c>
       <c r="L169" s="5">
-        <f t="shared" si="94"/>
-        <v>34225.730774792741</v>
+        <f t="shared" si="95"/>
+        <v>34725.904826351973</v>
       </c>
       <c r="M169" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>27.831667794068927</v>
       </c>
     </row>
@@ -9757,1023 +9769,1023 @@
         <v>1897</v>
       </c>
       <c r="B170" s="5">
-        <f t="shared" ref="B170:M170" si="95">(B144+B145)/2</f>
+        <f t="shared" ref="B170:M170" si="96">(B144+B145)/2</f>
         <v>0.12660753177867279</v>
       </c>
       <c r="C170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2926.1974703539927</v>
       </c>
       <c r="D170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2108.1741993263158</v>
       </c>
       <c r="E170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.33169780871167004</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>12606.856015811412</v>
       </c>
       <c r="G170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2889.2658436110005</v>
       </c>
       <c r="H170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5934.1615199531125</v>
       </c>
       <c r="I170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>311.29481704104853</v>
       </c>
       <c r="J170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>4.9954138780420028</v>
       </c>
       <c r="K170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>487.4950749806784</v>
       </c>
       <c r="L170" s="5">
-        <f t="shared" si="95"/>
-        <v>26897.689096669987</v>
+        <f t="shared" si="96"/>
+        <v>27290.771313718527</v>
       </c>
       <c r="M170" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>21.872653422436628</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f t="shared" ref="A171:A188" si="96">A170+1</f>
+        <f t="shared" ref="A171:A188" si="97">A170+1</f>
         <v>1898</v>
       </c>
       <c r="B171" s="5">
-        <f t="shared" ref="B171:M171" si="97">(B145+B146)/2</f>
+        <f t="shared" ref="B171:M171" si="98">(B145+B146)/2</f>
         <v>6.7789519688235211E-2</v>
       </c>
       <c r="C171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3845.172761736269</v>
       </c>
       <c r="D171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3674.146524016247</v>
       </c>
       <c r="E171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.58369082954655838</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>18109.835646462459</v>
       </c>
       <c r="G171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>4344.3539050058207</v>
       </c>
       <c r="H171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>8862.052342021896</v>
       </c>
       <c r="I171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>711.54354765108474</v>
       </c>
       <c r="J171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>15.652054529934833</v>
       </c>
       <c r="K171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>726.10482332317792</v>
       </c>
       <c r="L171" s="5">
-        <f t="shared" si="97"/>
-        <v>39818.666235987665</v>
+        <f t="shared" si="98"/>
+        <v>40355.930690578505</v>
       </c>
       <c r="M171" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>66.417605482383735</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1899</v>
       </c>
       <c r="B172" s="5">
-        <f t="shared" ref="B172:M172" si="98">(B146+B147)/2</f>
+        <f t="shared" ref="B172:M172" si="99">(B146+B147)/2</f>
         <v>0.46500777604976673</v>
       </c>
       <c r="C172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>6993.0385012571469</v>
       </c>
       <c r="D172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5074.6550035988339</v>
       </c>
       <c r="E172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.2182692307692307</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>28679.429016853006</v>
       </c>
       <c r="G172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>7009.7465185232923</v>
       </c>
       <c r="H172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13927.696989737073</v>
       </c>
       <c r="I172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>927.95065305377466</v>
       </c>
       <c r="J172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>12.977358145928275</v>
       </c>
       <c r="K172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1319.42634053392</v>
       </c>
       <c r="L172" s="5">
-        <f t="shared" si="98"/>
-        <v>63256.145913264234</v>
+        <f t="shared" si="99"/>
+        <v>64022.995369895812</v>
       </c>
       <c r="M172" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>76.391711186017403</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1900</v>
       </c>
       <c r="B173" s="5">
-        <f t="shared" ref="B173:M173" si="99">(B147+B148)/2</f>
+        <f t="shared" ref="B173:M173" si="100">(B147+B148)/2</f>
         <v>0.46500777604976673</v>
       </c>
       <c r="C173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>8469.0243250962631</v>
       </c>
       <c r="D173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5197.5967014124471</v>
       </c>
       <c r="E173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.81217948717948718</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>34943.08070550258</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>7814.4253280905705</v>
       </c>
       <c r="H173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>16110.436781536886</v>
       </c>
       <c r="I173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>598.46569403184617</v>
       </c>
       <c r="J173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5.3699413017634239</v>
       </c>
       <c r="K173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1325.4007544757317</v>
       </c>
       <c r="L173" s="5">
-        <f t="shared" si="99"/>
-        <v>73373.778249541676</v>
+        <f t="shared" si="100"/>
+        <v>74490.705605689844</v>
       </c>
       <c r="M173" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>25.62818697853487</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1901</v>
       </c>
       <c r="B174" s="5">
-        <f t="shared" ref="B174:M174" si="100">(B148+B149)/2</f>
+        <f t="shared" ref="B174:M174" si="101">(B148+B149)/2</f>
         <v>0</v>
       </c>
       <c r="C174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>8973.4513332944698</v>
       </c>
       <c r="D174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>6707.4153211003968</v>
       </c>
       <c r="E174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>35333.827747715681</v>
       </c>
       <c r="G174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>7682.6985478767092</v>
       </c>
       <c r="H174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>20271.856938477817</v>
       </c>
       <c r="I174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>720.46062396910713</v>
       </c>
       <c r="J174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>5.3699413017634239</v>
       </c>
       <c r="K174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>1264.7374744511835</v>
       </c>
       <c r="L174" s="5">
-        <f t="shared" si="100"/>
-        <v>80275.858228481084</v>
+        <f t="shared" si="101"/>
+        <v>80965.73212518217</v>
       </c>
       <c r="M174" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>5.9141969950465088</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1902</v>
       </c>
       <c r="B175" s="5">
-        <f t="shared" ref="B175:M175" si="101">(B149+B150)/2</f>
+        <f t="shared" ref="B175:M175" si="102">(B149+B150)/2</f>
         <v>0</v>
       </c>
       <c r="C175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>12292.347481334951</v>
       </c>
       <c r="D175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>8996.9680165369937</v>
       </c>
       <c r="E175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="F175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>40027.003899039293</v>
       </c>
       <c r="G175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>9979.735414028346</v>
       </c>
       <c r="H175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>26892.980848715823</v>
       </c>
       <c r="I175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1677.3480798112346</v>
       </c>
       <c r="J175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>10.739882603526848</v>
       </c>
       <c r="K175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1515.6628600072686</v>
       </c>
       <c r="L175" s="5">
-        <f t="shared" si="101"/>
-        <v>101463.91002856343</v>
+        <f t="shared" si="102"/>
+        <v>101398.45425419768</v>
       </c>
       <c r="M175" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>5.6677721202529039</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1903</v>
       </c>
       <c r="B176" s="5">
-        <f t="shared" ref="B176:M176" si="102">(B150+B151)/2</f>
+        <f t="shared" ref="B176:M176" si="103">(B150+B151)/2</f>
         <v>7.9051321928460343</v>
       </c>
       <c r="C176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>10869.479064632465</v>
       </c>
       <c r="D176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>8328.3543215044974</v>
       </c>
       <c r="E176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.2182692307692307</v>
       </c>
       <c r="F176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>58604.101002962387</v>
       </c>
       <c r="G176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>11097.367598948429</v>
       </c>
       <c r="H176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>26423.314448399044</v>
       </c>
       <c r="I176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2456.9976185747</v>
       </c>
       <c r="J176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>88.156536370616209</v>
       </c>
       <c r="K176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1122.270680454139</v>
       </c>
       <c r="L176" s="5">
-        <f t="shared" si="102"/>
-        <v>117216.15705296176</v>
+        <f t="shared" si="103"/>
+        <v>119036.62125423852</v>
       </c>
       <c r="M176" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>37.45658096862789</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1904</v>
       </c>
       <c r="B177" s="5">
-        <f t="shared" ref="B177:M177" si="103">(B151+B152)/2</f>
+        <f t="shared" ref="B177:M177" si="104">(B151+B152)/2</f>
         <v>12.555209953343702</v>
       </c>
       <c r="C177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>10076.485149578526</v>
       </c>
       <c r="D177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>6549.0096719943958</v>
       </c>
       <c r="E177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>3.2487179487179487</v>
       </c>
       <c r="F177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>79521.468715397728</v>
       </c>
       <c r="G177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>12418.31720550295</v>
       </c>
       <c r="H177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>29235.451179156909</v>
       </c>
       <c r="I177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2362.6241822081397</v>
       </c>
       <c r="J177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>157.07078307658014</v>
       </c>
       <c r="K177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>717.3892433206023</v>
       </c>
       <c r="L177" s="5">
-        <f t="shared" si="103"/>
-        <v>137557.28696190857</v>
+        <f t="shared" si="104"/>
+        <v>141107.58710571768</v>
       </c>
       <c r="M177" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>53.967047579799399</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1905</v>
       </c>
       <c r="B178" s="5">
-        <f t="shared" ref="B178:M178" si="104">(B152+B153)/2</f>
+        <f t="shared" ref="B178:M178" si="105">(B152+B153)/2</f>
         <v>65.101088646967341</v>
       </c>
       <c r="C178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>11351.302920857639</v>
       </c>
       <c r="D178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>8038.9684789586081</v>
       </c>
       <c r="E178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>8.1217948717948723</v>
       </c>
       <c r="F178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>101838.5063718563</v>
       </c>
       <c r="G178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>12823.31569125364</v>
       </c>
       <c r="H178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>34227.763220589615</v>
       </c>
       <c r="I178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2814.7617257761553</v>
       </c>
       <c r="J178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>195.55536240588469</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>747.72088333287638</v>
       </c>
       <c r="L178" s="5">
-        <f t="shared" si="104"/>
-        <v>166951.14495917445</v>
+        <f t="shared" si="105"/>
+        <v>172172.47733237309</v>
       </c>
       <c r="M178" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>61.359793823607532</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1906</v>
       </c>
       <c r="B179" s="5">
-        <f t="shared" ref="B179:M179" si="105">(B153+B154)/2</f>
+        <f t="shared" ref="B179:M179" si="106">(B153+B154)/2</f>
         <v>219.01866251944011</v>
       </c>
       <c r="C179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>10462.245609918304</v>
       </c>
       <c r="D179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>11234.506916744755</v>
       </c>
       <c r="E179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>24.771474358974359</v>
       </c>
       <c r="F179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>112388.20855108049</v>
       </c>
       <c r="G179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>15753.213827563171</v>
       </c>
       <c r="H179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>43715.610674102798</v>
       </c>
       <c r="I179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7026.0530133947568</v>
       </c>
       <c r="J179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>183.0254993684367</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1081.3689234678905</v>
       </c>
       <c r="L179" s="5">
-        <f t="shared" si="105"/>
-        <v>197812.94532877277</v>
+        <f t="shared" si="106"/>
+        <v>202190.53590043317</v>
       </c>
       <c r="M179" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>102.51274791413948</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1907</v>
       </c>
       <c r="B180" s="5">
-        <f t="shared" ref="B180:M180" si="106">(B154+B155)/2</f>
+        <f t="shared" ref="B180:M180" si="107">(B154+B155)/2</f>
         <v>185.06765163297044</v>
       </c>
       <c r="C180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6862.7284647681427</v>
       </c>
       <c r="D180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>11174.554178951945</v>
       </c>
       <c r="E180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>27.180128205128206</v>
       </c>
       <c r="F180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>87053.139587588521</v>
       </c>
       <c r="G180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>15143.916595919545</v>
       </c>
       <c r="H180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>36668.56983148471</v>
       </c>
       <c r="I180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>10133.187191484751</v>
       </c>
       <c r="J180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>60.624266272042803</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>843.75154935424268</v>
       </c>
       <c r="L180" s="5">
-        <f t="shared" si="106"/>
-        <v>167392.44057889545</v>
+        <f t="shared" si="107"/>
+        <v>168200.07923948561</v>
       </c>
       <c r="M180" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>47.359793823607525</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1908</v>
       </c>
       <c r="B181" s="5">
-        <f t="shared" ref="B181:M181" si="107">(B155+B156)/2</f>
+        <f t="shared" ref="B181:M181" si="108">(B155+B156)/2</f>
         <v>51</v>
       </c>
       <c r="C181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6555</v>
       </c>
       <c r="D181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>8522</v>
       </c>
       <c r="E181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10</v>
       </c>
       <c r="F181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>50850</v>
       </c>
       <c r="G181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11319.5</v>
       </c>
       <c r="H181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>24554.5</v>
       </c>
       <c r="I181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>7484</v>
       </c>
       <c r="J181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13.5</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>468</v>
       </c>
       <c r="L181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>109843.5</v>
       </c>
       <c r="M181" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1909</v>
       </c>
       <c r="B182" s="5">
-        <f t="shared" ref="B182:M182" si="108">(B156+B157)/2</f>
+        <f t="shared" ref="B182:M182" si="109">(B156+B157)/2</f>
         <v>48.5</v>
       </c>
       <c r="C182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>12237</v>
       </c>
       <c r="D182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8478</v>
       </c>
       <c r="E182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1.5</v>
       </c>
       <c r="F182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>45845</v>
       </c>
       <c r="G182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>16281</v>
       </c>
       <c r="H182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>43139.5</v>
       </c>
       <c r="I182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7912.5</v>
       </c>
       <c r="J182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>52</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>963</v>
       </c>
       <c r="L182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>135091.5</v>
       </c>
       <c r="M182" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>133.5</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1910</v>
       </c>
       <c r="B183" s="5">
-        <f t="shared" ref="B183:M183" si="109">(B157+B158)/2</f>
+        <f t="shared" ref="B183:M183" si="110">(B157+B158)/2</f>
         <v>94.68118195956454</v>
       </c>
       <c r="C183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>9515</v>
       </c>
       <c r="D183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>8907.673711945039</v>
       </c>
       <c r="E183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11.776602564102564</v>
       </c>
       <c r="F183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>58902.811793744084</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>16845.5</v>
       </c>
       <c r="H183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>43189.884265157751</v>
       </c>
       <c r="I183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>12144</v>
       </c>
       <c r="J183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>119.70904126213593</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1023.4863213478793</v>
       </c>
       <c r="L183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>150549</v>
       </c>
       <c r="M183" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>211.18767028480519</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1911</v>
       </c>
       <c r="B184" s="5">
-        <f t="shared" ref="B184:M184" si="110">(B158+B159)/2</f>
+        <f t="shared" ref="B184:M184" si="111">(B158+B159)/2</f>
         <v>186.68118195956453</v>
       </c>
       <c r="C184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>4001</v>
       </c>
       <c r="D184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>9407.173711945039</v>
       </c>
       <c r="E184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>14.776602564102564</v>
       </c>
       <c r="F184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>57608.811793744084</v>
       </c>
       <c r="G184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>11712</v>
       </c>
       <c r="H184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>32996.384265157751</v>
       </c>
       <c r="I184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>13352.5</v>
       </c>
       <c r="J184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>213.20904126213594</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>512.98632134787931</v>
       </c>
       <c r="L184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>129691</v>
       </c>
       <c r="M184" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>102.18767028480519</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1912</v>
       </c>
       <c r="B185" s="5">
-        <f t="shared" ref="B185:M185" si="111">(B159+B160)/2</f>
+        <f t="shared" ref="B185:M185" si="112">(B159+B160)/2</f>
         <v>538.69206842923791</v>
       </c>
       <c r="C185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5691</v>
       </c>
       <c r="D185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>13699.730376375734</v>
       </c>
       <c r="E185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>15.182692307692308</v>
       </c>
       <c r="F185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>61615.021887619987</v>
       </c>
       <c r="G185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>15120.5</v>
       </c>
       <c r="H185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>59429.590283610269</v>
       </c>
       <c r="I185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>28053.5</v>
       </c>
       <c r="J185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>606.10974650782646</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>587.43671046891563</v>
       </c>
       <c r="L185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>195915.5</v>
       </c>
       <c r="M185" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>92.823525042648214</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1913</v>
       </c>
       <c r="B186" s="5">
-        <f t="shared" ref="B186:M186" si="112">(B160+B161)/2</f>
+        <f t="shared" ref="B186:M186" si="113">(B160+B161)/2</f>
         <v>829.69206842923791</v>
       </c>
       <c r="C186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>8409.5</v>
       </c>
       <c r="D186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>12982.730376375734</v>
       </c>
       <c r="E186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>41.182692307692307</v>
       </c>
       <c r="F186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>83876.52188761998</v>
       </c>
       <c r="G186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>17962.5</v>
       </c>
       <c r="H186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>64907.590283610269</v>
       </c>
       <c r="I186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>33841.5</v>
       </c>
       <c r="J186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1718.6097465078265</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>767.43671046891563</v>
       </c>
       <c r="L186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>236163</v>
       </c>
       <c r="M186" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>359.82352504264821</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1914</v>
       </c>
       <c r="B187" s="5">
-        <f t="shared" ref="B187:M187" si="113">(B161+B162)/2</f>
+        <f t="shared" ref="B187:M187" si="114">(B161+B162)/2</f>
         <v>319</v>
       </c>
       <c r="C187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>4819.5</v>
       </c>
       <c r="D187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>4908</v>
       </c>
       <c r="E187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>35</v>
       </c>
       <c r="F187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>56043.5</v>
       </c>
       <c r="G187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>8290.5</v>
       </c>
       <c r="H187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>23645.5</v>
       </c>
       <c r="I187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>8033.5</v>
       </c>
       <c r="J187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1297</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>401.5</v>
       </c>
       <c r="L187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>108049.5</v>
       </c>
       <c r="M187" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>256.5</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1915</v>
       </c>
       <c r="B188" s="5">
-        <f t="shared" ref="B188:M188" si="114">(B162+B163)/2</f>
+        <f t="shared" ref="B188:M188" si="115">(B162+B163)/2</f>
         <v>-243</v>
       </c>
       <c r="C188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>2189</v>
       </c>
       <c r="D188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>390.5</v>
       </c>
       <c r="E188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>7</v>
       </c>
       <c r="F188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>7858</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>681.5</v>
       </c>
       <c r="H188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>-80</v>
       </c>
       <c r="I188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>-5775.5</v>
       </c>
       <c r="J188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>60</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>172</v>
       </c>
       <c r="L188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>5236.5</v>
       </c>
       <c r="M188" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>-23</v>
       </c>
     </row>
@@ -10782,51 +10794,51 @@
         <v>1916</v>
       </c>
       <c r="B189" s="5">
-        <f t="shared" ref="B189:M189" si="115">(B163+B164)/2</f>
+        <f t="shared" ref="B189:M189" si="116">(B163+B164)/2</f>
         <v>-107.10419906687403</v>
       </c>
       <c r="C189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>2972</v>
       </c>
       <c r="D189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>39.941254672041978</v>
       </c>
       <c r="E189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>5.4669871794871794</v>
       </c>
       <c r="F189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>4229.0995617860081</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>72.5</v>
       </c>
       <c r="H189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>144.5</v>
       </c>
       <c r="I189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>-4233.5</v>
       </c>
       <c r="J189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>4.1324657593619971</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>337.10448796340427</v>
       </c>
       <c r="L189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>4676</v>
       </c>
       <c r="M189" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>10.585285476058125</v>
       </c>
     </row>
@@ -10839,47 +10851,47 @@
         <v>2209.0755599135732</v>
       </c>
       <c r="C190" s="5">
-        <f t="shared" ref="C190:M190" si="116">SUM(C169:C189)</f>
+        <f t="shared" ref="C190:M190" si="117">SUM(C169:C189)</f>
         <v>153233.88762800611</v>
       </c>
       <c r="D190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>147102.62670729027</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>209.79386488921369</v>
       </c>
       <c r="F190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1051975.7085800793</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>208918.27769395427</v>
       </c>
       <c r="H190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>561748.21613535145</v>
       </c>
       <c r="I190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>130949.29153207384</v>
       </c>
       <c r="J190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>4830.1634515373526</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>17004.588031572483</v>
       </c>
       <c r="L190" s="5">
-        <f t="shared" si="116"/>
-        <v>2281457.2534090141</v>
+        <f t="shared" si="117"/>
+        <v>2301173.2950178627</v>
       </c>
       <c r="M190" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1691.9874342194878</v>
       </c>
     </row>
@@ -10889,56 +10901,62 @@
       </c>
       <c r="B191" s="5">
         <f>100*B190/$L190</f>
-        <v>9.6827392080772665E-2</v>
+        <v>9.5997792286930977E-2</v>
       </c>
       <c r="C191" s="28">
-        <f t="shared" ref="C191:M191" si="117">100*C190/$L190</f>
-        <v>6.7164917247097211</v>
+        <f t="shared" ref="C191:M191" si="118">100*C190/$L190</f>
+        <v>6.6589460237420601</v>
       </c>
       <c r="D191" s="28">
-        <f t="shared" si="117"/>
-        <v>6.4477485382417576</v>
+        <f t="shared" si="118"/>
+        <v>6.3925053808756456</v>
       </c>
       <c r="E191" s="28">
-        <f t="shared" si="117"/>
-        <v>9.1956079639771513E-3</v>
+        <f t="shared" si="118"/>
+        <v>9.1168216380498705E-3</v>
       </c>
       <c r="F191" s="28">
-        <f t="shared" si="117"/>
-        <v>46.109814549809741</v>
+        <f t="shared" si="118"/>
+        <v>45.714753897833383</v>
       </c>
       <c r="G191" s="28">
-        <f t="shared" si="117"/>
-        <v>9.1572295462377404</v>
+        <f t="shared" si="118"/>
+        <v>9.078772039736041</v>
       </c>
       <c r="H191" s="28">
-        <f t="shared" si="117"/>
-        <v>24.622342377704964</v>
+        <f t="shared" si="118"/>
+        <v>24.411382547831579</v>
       </c>
       <c r="I191" s="28">
-        <f t="shared" si="117"/>
-        <v>5.739721458134091</v>
+        <f t="shared" si="118"/>
+        <v>5.6905445502772256</v>
       </c>
       <c r="J191" s="28">
-        <f t="shared" si="117"/>
-        <v>0.21171395801170476</v>
+        <f t="shared" si="118"/>
+        <v>0.20990003064935875</v>
       </c>
       <c r="K191" s="28">
-        <f t="shared" si="117"/>
-        <v>0.74533888400336124</v>
+        <f t="shared" si="118"/>
+        <v>0.73895295362535862</v>
       </c>
       <c r="L191" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="M191" s="28">
-        <f t="shared" si="117"/>
-        <v>7.4162574455045135E-2</v>
-      </c>
+        <f t="shared" si="118"/>
+        <v>7.3527162768780255E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L194" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L117 L118:L128 M133" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54217943-AC41-4A12-B916-478C8B0D0DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC79826-20DF-465F-9FD5-30C3F2DF0301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="5040" windowWidth="26055" windowHeight="17910" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="4635" yWindow="4155" windowWidth="26025" windowHeight="17910" activeTab="5" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
     <sheet name="note-2" sheetId="1" r:id="rId2"/>
     <sheet name="note-3" sheetId="3" r:id="rId3"/>
-    <sheet name="note-5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="note-4" sheetId="5" r:id="rId4"/>
+    <sheet name="note-5" sheetId="7" r:id="rId5"/>
+    <sheet name="data" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="176">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -528,6 +529,51 @@
   </si>
   <si>
     <t>Мы сохраняем для армян коэффициент 1908-1914 гг., для остальных принимаем среднее значение между величинами для 1908-1914 гг. и 1908-1917 гг.:</t>
+  </si>
+  <si>
+    <t>таблицы</t>
+  </si>
+  <si>
+    <t>42,46</t>
+  </si>
+  <si>
+    <t>61,66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблицы  </t>
+  </si>
+  <si>
+    <t>"Число лиц, взявших паспорта для стран за пределами Европы, по месту жительства (губернии)"</t>
+  </si>
+  <si>
+    <t>"Количество финских подданных вернувшихся из стран за пределами Европы"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Источник: Suomen Tilastollinen Vuosikirja </t>
+  </si>
+  <si>
+    <t>Баланс эмиграции из Финляндии за океан</t>
+  </si>
+  <si>
+    <t>эмигранты</t>
+  </si>
+  <si>
+    <t>Финляндия</t>
+  </si>
+  <si>
+    <t>Выборгская губ.</t>
+  </si>
+  <si>
+    <t>реэмигранты</t>
+  </si>
+  <si>
+    <t>баланс</t>
+  </si>
+  <si>
+    <t>% Выборгской губернии</t>
+  </si>
+  <si>
+    <t>% для Выборгской губернии</t>
   </si>
 </sst>
 </file>
@@ -539,7 +585,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +606,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -600,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,6 +713,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E018E8-FFD2-476D-8A98-BDF34A70858D}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +1621,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T4"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
   <dimension ref="A1:AI194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="L194" sqref="L194"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="L187" sqref="L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10964,8 +11026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F1B77F-63AA-4843-B8D8-CA14FF4F0797}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11845,19 +11907,830 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
-  <dimension ref="A1:O26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D506FF2-5C72-4314-9474-BB1C48673607}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="J15" sqref="J15:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>1908</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>1917</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>1918</v>
+      </c>
+      <c r="C12" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1896</v>
+      </c>
+      <c r="B16" s="31">
+        <v>5185</v>
+      </c>
+      <c r="C16" s="5">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5">
+        <v>894</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <f>B16-D16</f>
+        <v>4291</v>
+      </c>
+      <c r="H16" s="5">
+        <f>C16-E16</f>
+        <v>33</v>
+      </c>
+      <c r="J16" s="28">
+        <f>100*H16/G16</f>
+        <v>0.76905150314611981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f>A16+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1916</v>
+      </c>
+      <c r="C17" s="5">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5">
+        <v>693</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:G36" si="0">B17-D17</f>
+        <v>1223</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" ref="H17:H36" si="1">C17-E17</f>
+        <v>14</v>
+      </c>
+      <c r="J17" s="28">
+        <f t="shared" ref="J17:J37" si="2">100*H17/G17</f>
+        <v>1.1447260834014719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" ref="A18:A36" si="3">A17+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B18" s="31">
+        <v>3467</v>
+      </c>
+      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5">
+        <v>572</v>
+      </c>
+      <c r="E18" s="5">
+        <v>16</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>2895</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="2"/>
+        <v>3.4542314335060449E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="3"/>
+        <v>1899</v>
+      </c>
+      <c r="B19" s="31">
+        <v>12075</v>
+      </c>
+      <c r="C19" s="5">
+        <v>141</v>
+      </c>
+      <c r="D19" s="5">
+        <v>312</v>
+      </c>
+      <c r="E19" s="5">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>11763</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" si="2"/>
+        <v>1.0711553175210407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="B20" s="31">
+        <v>10397</v>
+      </c>
+      <c r="C20" s="5">
+        <v>236</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1043</v>
+      </c>
+      <c r="E20" s="5">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>9354</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="2"/>
+        <v>2.3305537737866153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f t="shared" si="3"/>
+        <v>1901</v>
+      </c>
+      <c r="B21" s="31">
+        <v>12561</v>
+      </c>
+      <c r="C21" s="5">
+        <v>627</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1148</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>11413</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="1"/>
+        <v>617</v>
+      </c>
+      <c r="J21" s="28">
+        <f t="shared" si="2"/>
+        <v>5.4061158328222199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="B22" s="31">
+        <v>23152</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1623</v>
+      </c>
+      <c r="D22" s="5">
+        <v>901</v>
+      </c>
+      <c r="E22" s="5">
+        <v>26</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>22251</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="1"/>
+        <v>1597</v>
+      </c>
+      <c r="J22" s="28">
+        <f t="shared" si="2"/>
+        <v>7.1772055188530857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f t="shared" si="3"/>
+        <v>1903</v>
+      </c>
+      <c r="B23" s="31">
+        <v>16964</v>
+      </c>
+      <c r="C23" s="5">
+        <v>881</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1740</v>
+      </c>
+      <c r="E23" s="5">
+        <v>33</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>15224</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
+        <v>848</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" si="2"/>
+        <v>5.5701523909616393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f t="shared" si="3"/>
+        <v>1904</v>
+      </c>
+      <c r="B24" s="31">
+        <v>10952</v>
+      </c>
+      <c r="C24" s="5">
+        <v>667</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1764</v>
+      </c>
+      <c r="E24" s="5">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>9188</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="1"/>
+        <v>647</v>
+      </c>
+      <c r="J24" s="28">
+        <f t="shared" si="2"/>
+        <v>7.0417936438833264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f t="shared" si="3"/>
+        <v>1905</v>
+      </c>
+      <c r="B25" s="31">
+        <v>17427</v>
+      </c>
+      <c r="C25" s="5">
+        <v>944</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1259</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>16168</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="1"/>
+        <v>939</v>
+      </c>
+      <c r="J25" s="28">
+        <f t="shared" si="2"/>
+        <v>5.8077684314695697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f t="shared" si="3"/>
+        <v>1906</v>
+      </c>
+      <c r="B26" s="31">
+        <v>17517</v>
+      </c>
+      <c r="C26" s="5">
+        <v>950</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1602</v>
+      </c>
+      <c r="E26" s="5">
+        <v>21</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>15915</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>929</v>
+      </c>
+      <c r="J26" s="28">
+        <f t="shared" si="2"/>
+        <v>5.8372604461200126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <f t="shared" si="3"/>
+        <v>1907</v>
+      </c>
+      <c r="B27" s="18">
+        <v>16296</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1077</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3783</v>
+      </c>
+      <c r="E27" s="5">
+        <v>56</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>12513</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>1021</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" si="2"/>
+        <v>8.159514105330457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <f t="shared" si="3"/>
+        <v>1908</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5812</v>
+      </c>
+      <c r="C28" s="5">
+        <v>425</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3183</v>
+      </c>
+      <c r="E28" s="5">
+        <v>65</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>2629</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="J28" s="28">
+        <f t="shared" si="2"/>
+        <v>13.693419551160137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f t="shared" si="3"/>
+        <v>1909</v>
+      </c>
+      <c r="B29" s="5">
+        <v>19144</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1627</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1601</v>
+      </c>
+      <c r="E29" s="5">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>17543</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="1"/>
+        <v>1604</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="2"/>
+        <v>9.1432480191529386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="3"/>
+        <v>1910</v>
+      </c>
+      <c r="B30" s="5">
+        <v>19007</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2014</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1641</v>
+      </c>
+      <c r="E30" s="5">
+        <v>27</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>17366</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="1"/>
+        <v>1987</v>
+      </c>
+      <c r="J30" s="28">
+        <f t="shared" si="2"/>
+        <v>11.441897961534032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f t="shared" si="3"/>
+        <v>1911</v>
+      </c>
+      <c r="B31" s="5">
+        <v>9372</v>
+      </c>
+      <c r="C31" s="5">
+        <v>965</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2423</v>
+      </c>
+      <c r="E31" s="5">
+        <v>60</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>6949</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="1"/>
+        <v>905</v>
+      </c>
+      <c r="J31" s="28">
+        <f t="shared" si="2"/>
+        <v>13.023456612462224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <f t="shared" si="3"/>
+        <v>1912</v>
+      </c>
+      <c r="B32" s="5">
+        <v>10724</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1208</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2159</v>
+      </c>
+      <c r="E32" s="5">
+        <v>81</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>8565</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="1"/>
+        <v>1127</v>
+      </c>
+      <c r="J32" s="28">
+        <f t="shared" si="2"/>
+        <v>13.15820198482195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <f t="shared" si="3"/>
+        <v>1913</v>
+      </c>
+      <c r="B33" s="5">
+        <v>20057</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1783</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2068</v>
+      </c>
+      <c r="E33" s="5">
+        <v>52</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>17989</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="1"/>
+        <v>1731</v>
+      </c>
+      <c r="J33" s="28">
+        <f t="shared" si="2"/>
+        <v>9.6225471121240762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <f t="shared" si="3"/>
+        <v>1914</v>
+      </c>
+      <c r="B34" s="5">
+        <v>6474</v>
+      </c>
+      <c r="C34" s="5">
+        <v>647</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1840</v>
+      </c>
+      <c r="E34" s="5">
+        <v>52</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>4634</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="1"/>
+        <v>595</v>
+      </c>
+      <c r="J34" s="28">
+        <f t="shared" si="2"/>
+        <v>12.839879154078551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <f t="shared" si="3"/>
+        <v>1915</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4041</v>
+      </c>
+      <c r="C35" s="5">
+        <v>238</v>
+      </c>
+      <c r="D35" s="5">
+        <v>478</v>
+      </c>
+      <c r="E35" s="5">
+        <v>31</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>3563</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="2"/>
+        <v>5.8097109177659272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <f t="shared" si="3"/>
+        <v>1916</v>
+      </c>
+      <c r="B36" s="5">
+        <v>5325</v>
+      </c>
+      <c r="C36" s="5">
+        <v>296</v>
+      </c>
+      <c r="D36" s="5">
+        <v>221</v>
+      </c>
+      <c r="E36" s="5">
+        <v>6</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>5104</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="J36" s="28">
+        <f t="shared" si="2"/>
+        <v>5.6818181818181817</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="5">
+        <f>SUM(B16:B36)</f>
+        <v>247865</v>
+      </c>
+      <c r="C37" s="5">
+        <f>SUM(C16:C36)</f>
+        <v>16417</v>
+      </c>
+      <c r="D37" s="5">
+        <f>SUM(D16:D36)</f>
+        <v>31325</v>
+      </c>
+      <c r="E37" s="5">
+        <f>SUM(E16:E36)</f>
+        <v>621</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5">
+        <f>SUM(G16:G36)</f>
+        <v>216540</v>
+      </c>
+      <c r="H37" s="5">
+        <f>SUM(H16:H36)</f>
+        <v>15796</v>
+      </c>
+      <c r="J37" s="28">
+        <f t="shared" si="2"/>
+        <v>7.2947261475939777</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
@@ -11897,8 +12770,12 @@
       <c r="M1" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1896</v>
       </c>
@@ -11938,8 +12815,13 @@
       <c r="M2" s="5">
         <v>27.831667794068927</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="32">
+        <v>0.76905150314611981</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1897</v>
       </c>
@@ -11979,8 +12861,13 @@
       <c r="M3" s="5">
         <v>21.872653422436628</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="32">
+        <v>1.1447260834014719</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1898</v>
       </c>
@@ -12020,8 +12907,13 @@
       <c r="M4" s="5">
         <v>66.417605482383735</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="32">
+        <v>3.4542314335060449E-2</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1899</v>
       </c>
@@ -12061,8 +12953,13 @@
       <c r="M5" s="5">
         <v>76.391711186017403</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="32">
+        <v>1.0711553175210407</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1900</v>
       </c>
@@ -12102,8 +12999,13 @@
       <c r="M6" s="5">
         <v>25.62818697853487</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="32">
+        <v>2.3305537737866153</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1901</v>
       </c>
@@ -12143,8 +13045,13 @@
       <c r="M7" s="5">
         <v>5.9141969950465088</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="32">
+        <v>5.4061158328222199</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1902</v>
       </c>
@@ -12184,9 +13091,13 @@
       <c r="M8" s="5">
         <v>5.6677721202529039</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="32">
+        <v>7.1772055188530857</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1903</v>
       </c>
@@ -12226,8 +13137,13 @@
       <c r="M9" s="5">
         <v>37.45658096862789</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="32">
+        <v>5.5701523909616393</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1904</v>
       </c>
@@ -12267,8 +13183,13 @@
       <c r="M10" s="5">
         <v>53.967047579799399</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="32">
+        <v>7.0417936438833264</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1905</v>
       </c>
@@ -12308,8 +13229,13 @@
       <c r="M11" s="5">
         <v>61.359793823607532</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="32">
+        <v>5.8077684314695697</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1906</v>
       </c>
@@ -12349,8 +13275,13 @@
       <c r="M12" s="5">
         <v>102.51274791413948</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="32">
+        <v>5.8372604461200126</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1907</v>
       </c>
@@ -12390,8 +13321,13 @@
       <c r="M13" s="5">
         <v>47.359793823607525</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="32">
+        <v>8.159514105330457</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1908</v>
       </c>
@@ -12431,8 +13367,13 @@
       <c r="M14" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="32">
+        <v>13.693419551160137</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1909</v>
       </c>
@@ -12472,8 +13413,13 @@
       <c r="M15" s="5">
         <v>133.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="32">
+        <v>9.1432480191529386</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1910</v>
       </c>
@@ -12513,8 +13459,13 @@
       <c r="M16" s="5">
         <v>211.18767028480519</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" s="32">
+        <v>11.441897961534032</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1911</v>
       </c>
@@ -12554,8 +13505,13 @@
       <c r="M17" s="5">
         <v>102.18767028480519</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="32">
+        <v>13.023456612462224</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1912</v>
       </c>
@@ -12595,8 +13551,13 @@
       <c r="M18" s="5">
         <v>92.823525042648214</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="32">
+        <v>13.15820198482195</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1913</v>
       </c>
@@ -12636,8 +13597,13 @@
       <c r="M19" s="5">
         <v>359.82352504264821</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="32">
+        <v>9.6225471121240762</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1914</v>
       </c>
@@ -12677,8 +13643,13 @@
       <c r="M20" s="5">
         <v>256.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" s="32">
+        <v>12.839879154078551</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1915</v>
       </c>
@@ -12718,8 +13689,13 @@
       <c r="M21" s="5">
         <v>-23</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" s="32">
+        <v>5.8097109177659272</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1916</v>
       </c>
@@ -12759,8 +13735,16 @@
       <c r="M22" s="5">
         <v>10.585285476058125</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="32">
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED311380-2507-41C6-93A4-6CDAB047F611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501EE18C-CC38-4D5B-813D-5F5224603F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="79545" yWindow="1050" windowWidth="30045" windowHeight="21915" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="64185" yWindow="930" windowWidth="30045" windowHeight="21915" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="184">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -591,6 +591,18 @@
   </si>
   <si>
     <t>Распределим годовую разницу (несхождение) по пробелам пропорционально их величине:</t>
+  </si>
+  <si>
+    <t>ф+л+р</t>
+  </si>
+  <si>
+    <t>все/ф+л+р</t>
+  </si>
+  <si>
+    <t>все</t>
+  </si>
+  <si>
+    <t>вместо 5947</t>
   </si>
 </sst>
 </file>
@@ -741,9 +753,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -754,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2301,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
   <dimension ref="A1:AI230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="T187" sqref="T187"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="R218" sqref="R218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2437,7 +2449,7 @@
       <c r="M10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="36" t="s">
         <v>95</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -6029,12 +6041,12 @@
         <v>0.12899442300236147</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:19">
       <c r="A68" s="11" t="s">
         <v>84</v>
       </c>
@@ -6075,7 +6087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>1908</v>
       </c>
@@ -6117,7 +6129,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <f t="shared" ref="A70:A76" si="39">A69+1</f>
         <v>1909</v>
@@ -6160,7 +6172,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <f t="shared" si="39"/>
         <v>1910</v>
@@ -6203,7 +6215,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <f t="shared" si="39"/>
         <v>1911</v>
@@ -6229,7 +6241,7 @@
       </c>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <f t="shared" si="39"/>
         <v>1912</v>
@@ -6272,7 +6284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <f t="shared" si="39"/>
         <v>1913</v>
@@ -6298,7 +6310,7 @@
       </c>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <f t="shared" si="39"/>
         <v>1914</v>
@@ -6341,7 +6353,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <f t="shared" si="39"/>
         <v>1915</v>
@@ -6383,8 +6395,17 @@
         <f t="shared" si="38"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>181</v>
+      </c>
+      <c r="R76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>1916</v>
       </c>
@@ -6425,8 +6446,16 @@
         <f t="shared" si="38"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="P77" s="5">
+        <f>I77+G77+C77</f>
+        <v>4511</v>
+      </c>
+      <c r="Q77">
+        <f>L77/P77</f>
+        <v>1.1658168920416758</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>1917</v>
       </c>
@@ -6436,18 +6465,27 @@
       <c r="G78" s="5">
         <v>38</v>
       </c>
-      <c r="H78" s="5">
-        <v>119</v>
-      </c>
+      <c r="H78" s="5"/>
       <c r="I78" s="5">
         <v>6393</v>
       </c>
       <c r="L78" s="5">
-        <v>5947</v>
+        <v>8962</v>
       </c>
       <c r="M78" s="5"/>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="P78" s="5">
+        <f>I78+G78+C78</f>
+        <v>7687</v>
+      </c>
+      <c r="R78">
+        <f>P78*Q77</f>
+        <v>8961.6344491243617</v>
+      </c>
+      <c r="S78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" t="s">
         <v>143</v>
       </c>
@@ -6995,7 +7033,7 @@
       </c>
       <c r="H98" s="5">
         <f t="shared" si="44"/>
-        <v>71835</v>
+        <v>71716</v>
       </c>
       <c r="I98" s="5">
         <f t="shared" si="44"/>
@@ -7011,7 +7049,7 @@
       </c>
       <c r="L98" s="5">
         <f t="shared" si="44"/>
-        <v>240457</v>
+        <v>243472</v>
       </c>
       <c r="M98" s="5">
         <f t="shared" si="44"/>
@@ -7048,7 +7086,7 @@
       </c>
       <c r="H99" s="28">
         <f t="shared" si="45"/>
-        <v>27.455979085526895</v>
+        <v>27.410496221864644</v>
       </c>
       <c r="I99" s="28">
         <f t="shared" si="45"/>
@@ -7064,7 +7102,7 @@
       </c>
       <c r="L99" s="28">
         <f t="shared" si="45"/>
-        <v>17.443076798082586</v>
+        <v>17.661788985900863</v>
       </c>
       <c r="M99" s="28">
         <f t="shared" si="45"/>
@@ -7440,7 +7478,7 @@
       </c>
       <c r="H112" s="28">
         <f t="shared" si="49"/>
-        <v>26.72911071501132</v>
+        <v>26.706369283180194</v>
       </c>
       <c r="I112" s="28">
         <f t="shared" si="49"/>
@@ -7456,7 +7494,7 @@
       </c>
       <c r="L112" s="28">
         <f t="shared" si="49"/>
-        <v>16.641546148074728</v>
+        <v>16.750902241983866</v>
       </c>
       <c r="M112" s="28">
         <f t="shared" si="49"/>
@@ -7545,7 +7583,7 @@
       </c>
       <c r="H117" s="5">
         <f t="shared" si="50"/>
-        <v>3497.7180615131242</v>
+        <v>3494.7421631486595</v>
       </c>
       <c r="I117" s="5">
         <f t="shared" si="50"/>
@@ -7561,7 +7599,7 @@
       </c>
       <c r="L117" s="5">
         <f>SUM(B117:K117) + M117</f>
-        <v>8041.1165038497156</v>
+        <v>8038.1406054852505</v>
       </c>
       <c r="M117" s="5">
         <f t="shared" si="50"/>
@@ -7603,7 +7641,7 @@
       </c>
       <c r="H118" s="5">
         <f t="shared" si="51"/>
-        <v>2011.3757327417711</v>
+        <v>2009.6644313595207</v>
       </c>
       <c r="I118" s="5">
         <f t="shared" si="51"/>
@@ -7619,7 +7657,7 @@
       </c>
       <c r="L118" s="5">
         <f t="shared" ref="L118:L128" si="52">SUM(B118:K118) + M118</f>
-        <v>4624.0738434463401</v>
+        <v>4622.3625420640892</v>
       </c>
       <c r="M118" s="5">
         <f t="shared" si="51"/>
@@ -7661,7 +7699,7 @@
       </c>
       <c r="H119" s="5">
         <f t="shared" si="55"/>
-        <v>2318.1707437763639</v>
+        <v>2316.1984177044424</v>
       </c>
       <c r="I119" s="5">
         <f t="shared" si="55"/>
@@ -7677,7 +7715,7 @@
       </c>
       <c r="L119" s="5">
         <f t="shared" si="52"/>
-        <v>5329.3835291165997</v>
+        <v>5327.4112030446777</v>
       </c>
       <c r="M119" s="5">
         <f t="shared" si="55"/>
@@ -7719,7 +7757,7 @@
       </c>
       <c r="H120" s="5">
         <f t="shared" si="56"/>
-        <v>4147.5561096483061</v>
+        <v>4144.0273216710702</v>
       </c>
       <c r="I120" s="5">
         <f t="shared" si="56"/>
@@ -7735,7 +7773,7 @@
       </c>
       <c r="L120" s="5">
         <f t="shared" si="52"/>
-        <v>9494.7550897263845</v>
+        <v>9491.2263017491478</v>
       </c>
       <c r="M120" s="5">
         <f t="shared" si="56"/>
@@ -7777,7 +7815,7 @@
       </c>
       <c r="H121" s="5">
         <f t="shared" si="57"/>
-        <v>6014.0499108775466</v>
+        <v>6008.9330887155429</v>
       </c>
       <c r="I121" s="5">
         <f t="shared" si="57"/>
@@ -7793,7 +7831,7 @@
       </c>
       <c r="L121" s="5">
         <f t="shared" si="52"/>
-        <v>14228.254170481987</v>
+        <v>14223.137348319982</v>
       </c>
       <c r="M121" s="5">
         <f t="shared" si="57"/>
@@ -7835,7 +7873,7 @@
       </c>
       <c r="H122" s="5">
         <f t="shared" si="58"/>
-        <v>5740.0765260486805</v>
+        <v>5735.1928035629462</v>
       </c>
       <c r="I122" s="5">
         <f t="shared" si="58"/>
@@ -7851,7 +7889,7 @@
       </c>
       <c r="L122" s="5">
         <f t="shared" si="52"/>
-        <v>12834.334618138317</v>
+        <v>12829.450895652582</v>
       </c>
       <c r="M122" s="5">
         <f t="shared" si="58"/>
@@ -7893,7 +7931,7 @@
       </c>
       <c r="H123" s="5">
         <f t="shared" si="59"/>
-        <v>9050.2095969956827</v>
+        <v>9042.509575591981</v>
       </c>
       <c r="I123" s="5">
         <f t="shared" si="59"/>
@@ -7909,7 +7947,7 @@
       </c>
       <c r="L123" s="5">
         <f t="shared" si="52"/>
-        <v>17838.201131497339</v>
+        <v>17830.501110093635</v>
       </c>
       <c r="M123" s="5">
         <f t="shared" si="59"/>
@@ -7951,7 +7989,7 @@
       </c>
       <c r="H124" s="5">
         <f t="shared" si="60"/>
-        <v>10570.828705572676</v>
+        <v>10561.834924112103</v>
       </c>
       <c r="I124" s="5">
         <f t="shared" si="60"/>
@@ -7967,7 +8005,7 @@
       </c>
       <c r="L124" s="5">
         <f t="shared" si="52"/>
-        <v>22804.8903601073</v>
+        <v>22795.896578646727</v>
       </c>
       <c r="M124" s="5">
         <f t="shared" si="60"/>
@@ -8009,7 +8047,7 @@
       </c>
       <c r="H125" s="5">
         <f t="shared" si="61"/>
-        <v>8707.5423976292368</v>
+        <v>8700.1339213816118</v>
       </c>
       <c r="I125" s="5">
         <f t="shared" si="61"/>
@@ -8025,7 +8063,7 @@
       </c>
       <c r="L125" s="5">
         <f t="shared" si="52"/>
-        <v>20355.867131415667</v>
+        <v>20348.45865516804</v>
       </c>
       <c r="M125" s="5">
         <f t="shared" si="61"/>
@@ -8067,7 +8105,7 @@
       </c>
       <c r="H126" s="5">
         <f t="shared" si="62"/>
-        <v>12622.555244056945</v>
+        <v>12611.815830289013</v>
       </c>
       <c r="I126" s="5">
         <f t="shared" si="62"/>
@@ -8083,7 +8121,7 @@
       </c>
       <c r="L126" s="5">
         <f t="shared" si="52"/>
-        <v>27466.958657148949</v>
+        <v>27456.219243381016</v>
       </c>
       <c r="M126" s="5">
         <f t="shared" si="62"/>
@@ -8125,7 +8163,7 @@
       </c>
       <c r="H127" s="5">
         <f t="shared" si="63"/>
-        <v>12349.918314763829</v>
+        <v>12339.410863600577</v>
       </c>
       <c r="I127" s="5">
         <f t="shared" si="63"/>
@@ -8141,7 +8179,7 @@
       </c>
       <c r="L127" s="5">
         <f t="shared" si="52"/>
-        <v>28750.086678104879</v>
+        <v>28739.579226941631</v>
       </c>
       <c r="M127" s="5">
         <f t="shared" si="63"/>
@@ -8183,7 +8221,7 @@
       </c>
       <c r="H128" s="5">
         <f t="shared" si="64"/>
-        <v>19544.860337030575</v>
+        <v>19528.23134724702</v>
       </c>
       <c r="I128" s="5">
         <f t="shared" si="64"/>
@@ -8199,7 +8237,7 @@
       </c>
       <c r="L128" s="5">
         <f t="shared" si="52"/>
-        <v>41476.841521028786</v>
+        <v>41460.212531245234</v>
       </c>
       <c r="M128" s="5">
         <f t="shared" si="64"/>
@@ -8380,7 +8418,7 @@
       </c>
       <c r="H132" s="5">
         <f>H26*H$112/100</f>
-        <v>10743.231469684499</v>
+        <v>10734.091005988616</v>
       </c>
       <c r="I132" s="5">
         <v>3838</v>
@@ -8402,11 +8440,11 @@
       </c>
       <c r="O132" s="5">
         <f t="shared" si="53"/>
-        <v>-833.42117653073365</v>
+        <v>-842.56164022661687</v>
       </c>
       <c r="P132" s="5">
         <f>B132+D132+E132+F132+H132+J132+K132+M132</f>
-        <v>15732.578823469272</v>
+        <v>15723.438359773389</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8485,7 +8523,7 @@
       </c>
       <c r="H134" s="5">
         <f>H28*H$112/100</f>
-        <v>30028.819432779466</v>
+        <v>30003.27057118879</v>
       </c>
       <c r="I134" s="5">
         <v>5327</v>
@@ -8507,11 +8545,11 @@
       </c>
       <c r="O134" s="5">
         <f t="shared" si="53"/>
-        <v>20931.825419275374</v>
+        <v>20906.276557684701</v>
       </c>
       <c r="P134" s="5">
         <f>B134+D134+E134+F134+H134+J134+K134+M134</f>
-        <v>36198.825419275374</v>
+        <v>36173.276557684701</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8682,7 +8720,8 @@
         <v>38</v>
       </c>
       <c r="H138" s="5">
-        <v>119</v>
+        <f>H32*H$112/100</f>
+        <v>96.142929419448706</v>
       </c>
       <c r="I138" s="5">
         <v>6393</v>
@@ -8704,11 +8743,11 @@
       </c>
       <c r="O138" s="5">
         <f t="shared" si="53"/>
-        <v>2402.5483124610237</v>
+        <v>2379.6912418804732</v>
       </c>
       <c r="P138" s="5">
         <f>B138+D138+E138+F138+H138+J138+K138+M138</f>
-        <v>662.54831246102435</v>
+        <v>639.69124188047317</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8727,7 +8766,7 @@
       <c r="M139" s="5"/>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="34" t="s">
+      <c r="A140" s="33" t="s">
         <v>179</v>
       </c>
       <c r="B140" s="5"/>
@@ -8764,39 +8803,39 @@
       </c>
       <c r="B142" s="5">
         <f>B132*$O132/$P132</f>
-        <v>-0.56352053134479174</v>
+        <v>-0.57003206928090866</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5">
         <f t="shared" ref="D142:F144" si="73">D132*$O132/$P132</f>
-        <v>-25.250300998672213</v>
+        <v>-25.542070834384951</v>
       </c>
       <c r="E142" s="5">
         <f t="shared" si="73"/>
-        <v>-0.28853973918128606</v>
+        <v>-0.29187384566587599</v>
       </c>
       <c r="F142" s="5">
         <f t="shared" si="73"/>
-        <v>-222.24681566437945</v>
+        <v>-224.81490057146573</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5">
         <f>H132*$O132/$P132</f>
-        <v>-569.11436527174794</v>
+        <v>-575.2007364677894</v>
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5">
         <f>J132*$O132/$P132</f>
-        <v>-1.0903111352787895</v>
+        <v>-1.1029097930465837</v>
       </c>
       <c r="K142" s="5">
         <f>K132*$O132/$P132</f>
-        <v>-3.1269285298996263</v>
+        <v>-3.1630605119897512</v>
       </c>
       <c r="L142" s="5"/>
       <c r="M142" s="5">
         <f>M132*$O132/$P132</f>
-        <v>-11.740394660229509</v>
+        <v>-11.876056132993654</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8824,39 +8863,39 @@
       </c>
       <c r="B144" s="5">
         <f>B134*$O134/$P134</f>
-        <v>36.78561737160237</v>
+        <v>36.766667409065064</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5">
         <f t="shared" si="73"/>
-        <v>560.63217591959574</v>
+        <v>560.34336851360456</v>
       </c>
       <c r="E144" s="5">
         <f t="shared" si="73"/>
-        <v>3.2581937167698674</v>
+        <v>3.2565152714076944</v>
       </c>
       <c r="F144" s="5">
         <f t="shared" si="73"/>
-        <v>2743.1736345921804</v>
+        <v>2741.760499749731</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5">
         <f>H134*$O134/$P134</f>
-        <v>17364.044237169783</v>
+        <v>17340.333303676365</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5">
         <f>J134*$O134/$P134</f>
-        <v>65.214875221798778</v>
+        <v>65.181280041654219</v>
       </c>
       <c r="K144" s="5">
         <f>K134*$O134/$P134</f>
-        <v>41.706904672519116</v>
+        <v>41.685419528662294</v>
       </c>
       <c r="L144" s="5"/>
       <c r="M144" s="5">
         <f>M134*$O134/$P134</f>
-        <v>117.00978061112839</v>
+        <v>116.94950349421394</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -8920,39 +8959,39 @@
       </c>
       <c r="B148" s="5">
         <f>B138*$O138/$P138</f>
-        <v>26.139263274936472</v>
+        <v>26.815689795035514</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5">
         <f t="shared" ref="D148:F148" si="75">D138*$O138/$P138</f>
-        <v>7.678494543478811</v>
+        <v>7.8771970581217943</v>
       </c>
       <c r="E148" s="5">
         <f t="shared" si="75"/>
-        <v>7.4918708930216438</v>
+        <v>7.6857439989273146</v>
       </c>
       <c r="F148" s="5">
         <f t="shared" si="75"/>
-        <v>1580.31141358115</v>
+        <v>1621.2063898059187</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5">
         <f>H138*$O138/$P138</f>
-        <v>431.52060582703638</v>
+        <v>357.65768253388757</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5">
         <f>J138*$O138/$P138</f>
-        <v>2.6655226585258949</v>
+        <v>2.7345005098596262</v>
       </c>
       <c r="K148" s="5">
         <f>K138*$O138/$P138</f>
-        <v>133.4124789668964</v>
+        <v>136.86489986859388</v>
       </c>
       <c r="L148" s="5"/>
       <c r="M148" s="5">
         <f>M138*$O138/$P138</f>
-        <v>213.32866271597857</v>
+        <v>218.84913831012869</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -8971,7 +9010,7 @@
       <c r="M149" s="5"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="33" t="s">
         <v>177</v>
       </c>
       <c r="B150" s="5"/>
@@ -9004,55 +9043,55 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="11" t="str">
-        <f>A116</f>
+        <f t="shared" ref="A152:M152" si="76">A116</f>
         <v>фин. год</v>
       </c>
       <c r="B152" s="11" t="str">
-        <f>B116</f>
+        <f t="shared" si="76"/>
         <v>армяне</v>
       </c>
       <c r="C152" s="11" t="str">
-        <f>C116</f>
+        <f t="shared" si="76"/>
         <v>финны</v>
       </c>
       <c r="D152" s="11" t="str">
-        <f>D116</f>
+        <f t="shared" si="76"/>
         <v>немцы</v>
       </c>
       <c r="E152" s="11" t="str">
-        <f>E116</f>
+        <f t="shared" si="76"/>
         <v>греки</v>
       </c>
       <c r="F152" s="11" t="str">
-        <f>F116</f>
+        <f t="shared" si="76"/>
         <v>евреи</v>
       </c>
       <c r="G152" s="11" t="str">
-        <f>G116</f>
+        <f t="shared" si="76"/>
         <v>литовцы</v>
       </c>
       <c r="H152" s="11" t="str">
-        <f>H116</f>
+        <f t="shared" si="76"/>
         <v>поляки</v>
       </c>
       <c r="I152" s="11" t="str">
-        <f>I116</f>
+        <f t="shared" si="76"/>
         <v>русские</v>
       </c>
       <c r="J152" s="11" t="str">
-        <f>J116</f>
+        <f t="shared" si="76"/>
         <v>русины</v>
       </c>
       <c r="K152" s="11" t="str">
-        <f>K116</f>
+        <f t="shared" si="76"/>
         <v>скандинавы</v>
       </c>
       <c r="L152" s="11" t="str">
-        <f>L116</f>
+        <f t="shared" si="76"/>
         <v>всего</v>
       </c>
       <c r="M152" s="11" t="str">
-        <f>M116</f>
+        <f t="shared" si="76"/>
         <v>другие</v>
       </c>
       <c r="N152" s="11"/>
@@ -9062,1300 +9101,1300 @@
       </c>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="35">
-        <f>A117</f>
+      <c r="A153" s="34">
+        <f t="shared" ref="A153:M153" si="77">A117</f>
         <v>1896</v>
       </c>
-      <c r="B153" s="36">
-        <f>B117</f>
+      <c r="B153" s="35">
+        <f t="shared" si="77"/>
         <v>1.5393708604704653E-2</v>
       </c>
-      <c r="C153" s="36">
-        <f>C117</f>
+      <c r="C153" s="35">
+        <f t="shared" si="77"/>
         <v>1547.2258428624598</v>
       </c>
-      <c r="D153" s="36">
-        <f>D117</f>
+      <c r="D153" s="35">
+        <f t="shared" si="77"/>
         <v>195.55995319817058</v>
       </c>
-      <c r="E153" s="36">
-        <f>E117</f>
+      <c r="E153" s="35">
+        <f t="shared" si="77"/>
         <v>0.12393843194092957</v>
       </c>
-      <c r="F153" s="36">
-        <f>F117</f>
+      <c r="F153" s="35">
+        <f t="shared" si="77"/>
         <v>1394.6180666745963</v>
       </c>
-      <c r="G153" s="36">
-        <f>G117</f>
+      <c r="G153" s="35">
+        <f t="shared" si="77"/>
         <v>1037.4240449659544</v>
       </c>
-      <c r="H153" s="36">
-        <f>H117</f>
-        <v>3497.7180615131242</v>
-      </c>
-      <c r="I153" s="36">
-        <f>I117</f>
+      <c r="H153" s="35">
+        <f t="shared" si="77"/>
+        <v>3494.7421631486595</v>
+      </c>
+      <c r="I153" s="35">
+        <f t="shared" si="77"/>
         <v>261.82487008008422</v>
       </c>
-      <c r="J153" s="36">
-        <f>J117</f>
+      <c r="J153" s="35">
+        <f t="shared" si="77"/>
         <v>0.947011686440691</v>
       </c>
-      <c r="K153" s="36">
-        <f>K117</f>
+      <c r="K153" s="35">
+        <f t="shared" si="77"/>
         <v>69.293284687990678</v>
       </c>
-      <c r="L153" s="36">
-        <f>L117</f>
-        <v>8041.1165038497156</v>
-      </c>
-      <c r="M153" s="36">
-        <f>M117</f>
+      <c r="L153" s="35">
+        <f t="shared" si="77"/>
+        <v>8038.1406054852505</v>
+      </c>
+      <c r="M153" s="35">
+        <f t="shared" si="77"/>
         <v>36.366036040349321</v>
       </c>
-      <c r="N153" s="36"/>
+      <c r="N153" s="35"/>
       <c r="O153" s="5">
-        <f t="shared" ref="O153:O174" si="76">SUM(B153:K153) +M153 -L153</f>
+        <f t="shared" ref="O153:O174" si="78">SUM(B153:K153) +M153 -L153</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="35">
-        <f>A118</f>
+      <c r="A154" s="34">
+        <f t="shared" ref="A154:M154" si="79">A118</f>
         <v>1897</v>
       </c>
-      <c r="B154" s="36">
-        <f>B118</f>
+      <c r="B154" s="35">
+        <f t="shared" si="79"/>
         <v>8.8522091774906053E-3</v>
       </c>
-      <c r="C154" s="36">
-        <f>C118</f>
+      <c r="C154" s="35">
+        <f t="shared" si="79"/>
         <v>889.73795448172848</v>
       </c>
-      <c r="D154" s="36">
-        <f>D118</f>
+      <c r="D154" s="35">
+        <f t="shared" si="79"/>
         <v>112.4574757717192</v>
       </c>
-      <c r="E154" s="36">
-        <f>E118</f>
+      <c r="E154" s="35">
+        <f t="shared" si="79"/>
         <v>7.1271254565386855E-2</v>
       </c>
-      <c r="F154" s="36">
-        <f>F118</f>
+      <c r="F154" s="35">
+        <f t="shared" si="79"/>
         <v>801.9802872673597</v>
       </c>
-      <c r="G154" s="36">
-        <f>G118</f>
+      <c r="G154" s="35">
+        <f t="shared" si="79"/>
         <v>596.5745414324897</v>
       </c>
-      <c r="H154" s="36">
-        <f>H118</f>
-        <v>2011.3757327417711</v>
-      </c>
-      <c r="I154" s="36">
-        <f>I118</f>
+      <c r="H154" s="35">
+        <f t="shared" si="79"/>
+        <v>2009.6644313595207</v>
+      </c>
+      <c r="I154" s="35">
+        <f t="shared" si="79"/>
         <v>150.56336178208926</v>
       </c>
-      <c r="J154" s="36">
-        <f>J118</f>
+      <c r="J154" s="35">
+        <f t="shared" si="79"/>
         <v>0.54458257962211065</v>
       </c>
-      <c r="K154" s="36">
-        <f>K118</f>
+      <c r="K154" s="35">
+        <f t="shared" si="79"/>
         <v>39.847360139455432</v>
       </c>
-      <c r="L154" s="36">
-        <f>L118</f>
-        <v>4624.0738434463401</v>
-      </c>
-      <c r="M154" s="36">
-        <f>M118</f>
+      <c r="L154" s="35">
+        <f t="shared" si="79"/>
+        <v>4622.3625420640892</v>
+      </c>
+      <c r="M154" s="35">
+        <f t="shared" si="79"/>
         <v>20.912423786361277</v>
       </c>
-      <c r="N154" s="36"/>
+      <c r="N154" s="35"/>
       <c r="O154" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="35">
-        <f>A119</f>
+      <c r="A155" s="34">
+        <f t="shared" ref="A155:M155" si="80">A119</f>
         <v>1898</v>
       </c>
-      <c r="B155" s="36">
-        <f>B119</f>
+      <c r="B155" s="35">
+        <f t="shared" si="80"/>
         <v>1.0202436073480215E-2</v>
       </c>
-      <c r="C155" s="36">
-        <f>C119</f>
+      <c r="C155" s="35">
+        <f t="shared" si="80"/>
         <v>1025.4496274027433</v>
       </c>
-      <c r="D155" s="36">
-        <f>D119</f>
+      <c r="D155" s="35">
+        <f t="shared" si="80"/>
         <v>129.61060731183034</v>
       </c>
-      <c r="E155" s="36">
-        <f>E119</f>
+      <c r="E155" s="35">
+        <f t="shared" si="80"/>
         <v>8.2142254436222181E-2</v>
       </c>
-      <c r="F155" s="36">
-        <f>F119</f>
+      <c r="F155" s="35">
+        <f t="shared" si="80"/>
         <v>924.30628885748808</v>
       </c>
-      <c r="G155" s="36">
-        <f>G119</f>
+      <c r="G155" s="35">
+        <f t="shared" si="80"/>
         <v>687.57001783323608</v>
       </c>
-      <c r="H155" s="36">
-        <f>H119</f>
-        <v>2318.1707437763639</v>
-      </c>
-      <c r="I155" s="36">
-        <f>I119</f>
+      <c r="H155" s="35">
+        <f t="shared" si="80"/>
+        <v>2316.1984177044424</v>
+      </c>
+      <c r="I155" s="35">
+        <f t="shared" si="80"/>
         <v>173.52878166232986</v>
       </c>
-      <c r="J155" s="36">
-        <f>J119</f>
+      <c r="J155" s="35">
+        <f t="shared" si="80"/>
         <v>0.62764772543485581</v>
       </c>
-      <c r="K155" s="36">
-        <f>K119</f>
+      <c r="K155" s="35">
+        <f t="shared" si="80"/>
         <v>45.92527541638848</v>
       </c>
-      <c r="L155" s="36">
-        <f>L119</f>
-        <v>5329.3835291165997</v>
-      </c>
-      <c r="M155" s="36">
-        <f>M119</f>
+      <c r="L155" s="35">
+        <f t="shared" si="80"/>
+        <v>5327.4112030446777</v>
+      </c>
+      <c r="M155" s="35">
+        <f t="shared" si="80"/>
         <v>24.102194440275692</v>
       </c>
-      <c r="N155" s="36"/>
+      <c r="N155" s="35"/>
       <c r="O155" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="35">
-        <f>A120</f>
+      <c r="A156" s="34">
+        <f t="shared" ref="A156:M156" si="81">A120</f>
         <v>1899</v>
       </c>
-      <c r="B156" s="36">
-        <f>B120</f>
-        <v>0</v>
-      </c>
-      <c r="C156" s="36">
-        <f>C120</f>
+      <c r="B156" s="35">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="C156" s="35">
+        <f t="shared" si="81"/>
         <v>1491.2045622363598</v>
       </c>
-      <c r="D156" s="36">
-        <f>D120</f>
+      <c r="D156" s="35">
+        <f t="shared" si="81"/>
         <v>292.26800514861657</v>
       </c>
-      <c r="E156" s="36">
-        <f>E120</f>
+      <c r="E156" s="35">
+        <f t="shared" si="81"/>
         <v>0.18782051282051282</v>
       </c>
-      <c r="F156" s="36">
-        <f>F120</f>
+      <c r="F156" s="35">
+        <f t="shared" si="81"/>
         <v>1555.5162880884134</v>
       </c>
-      <c r="G156" s="36">
-        <f>G120</f>
+      <c r="G156" s="35">
+        <f t="shared" si="81"/>
         <v>1243.2936453268433</v>
       </c>
-      <c r="H156" s="36">
-        <f>H120</f>
-        <v>4147.5561096483061</v>
-      </c>
-      <c r="I156" s="36">
-        <f>I120</f>
+      <c r="H156" s="35">
+        <f t="shared" si="81"/>
+        <v>4144.0273216710702</v>
+      </c>
+      <c r="I156" s="35">
+        <f t="shared" si="81"/>
         <v>567.26631317497902</v>
       </c>
-      <c r="J156" s="36">
-        <f>J120</f>
+      <c r="J156" s="35">
+        <f t="shared" si="81"/>
         <v>3.0452837081434518</v>
       </c>
-      <c r="K156" s="36">
-        <f>K120</f>
+      <c r="K156" s="35">
+        <f t="shared" si="81"/>
         <v>81.82970629026326</v>
       </c>
-      <c r="L156" s="36">
-        <f>L120</f>
-        <v>9494.7550897263845</v>
-      </c>
-      <c r="M156" s="36">
-        <f>M120</f>
+      <c r="L156" s="35">
+        <f t="shared" si="81"/>
+        <v>9491.2263017491478</v>
+      </c>
+      <c r="M156" s="35">
+        <f t="shared" si="81"/>
         <v>112.58735559163959</v>
       </c>
-      <c r="N156" s="36"/>
+      <c r="N156" s="35"/>
       <c r="O156" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="35">
-        <f>A121</f>
+      <c r="A157" s="34">
+        <f t="shared" ref="A157:M157" si="82">A121</f>
         <v>1900</v>
       </c>
-      <c r="B157" s="36">
-        <f>B121</f>
+      <c r="B157" s="35">
+        <f t="shared" si="82"/>
         <v>6.9984447900466568E-2</v>
       </c>
-      <c r="C157" s="36">
-        <f>C121</f>
+      <c r="C157" s="35">
+        <f t="shared" si="82"/>
         <v>3085.7184352493459</v>
       </c>
-      <c r="D157" s="36">
-        <f>D121</f>
+      <c r="D157" s="35">
+        <f t="shared" si="82"/>
         <v>290.42198765371541</v>
       </c>
-      <c r="E157" s="36">
-        <f>E121</f>
+      <c r="E157" s="35">
+        <f t="shared" si="82"/>
         <v>0.37564102564102564</v>
       </c>
-      <c r="F157" s="36">
-        <f>F121</f>
+      <c r="F157" s="35">
+        <f t="shared" si="82"/>
         <v>2371.6256782055721</v>
       </c>
-      <c r="G157" s="36">
-        <f>G121</f>
+      <c r="G157" s="35">
+        <f t="shared" si="82"/>
         <v>1872.2133176265729</v>
       </c>
-      <c r="H157" s="36">
-        <f>H121</f>
-        <v>6014.0499108775466</v>
-      </c>
-      <c r="I157" s="36">
-        <f>I121</f>
+      <c r="H157" s="35">
+        <f t="shared" si="82"/>
+        <v>6008.9330887155429</v>
+      </c>
+      <c r="I157" s="35">
+        <f t="shared" si="82"/>
         <v>398.83238071747166</v>
       </c>
-      <c r="J157" s="36">
-        <f>J121</f>
-        <v>0</v>
-      </c>
-      <c r="K157" s="36">
-        <f>K121</f>
+      <c r="J157" s="35">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="K157" s="35">
+        <f t="shared" si="82"/>
         <v>150.31761264189663</v>
       </c>
-      <c r="L157" s="36">
-        <f>L121</f>
-        <v>14228.254170481987</v>
-      </c>
-      <c r="M157" s="36">
-        <f>M121</f>
+      <c r="L157" s="35">
+        <f t="shared" si="82"/>
+        <v>14223.137348319982</v>
+      </c>
+      <c r="M157" s="35">
+        <f t="shared" si="82"/>
         <v>44.629222036325601</v>
       </c>
-      <c r="N157" s="36"/>
+      <c r="N157" s="35"/>
       <c r="O157" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="35">
-        <f>A122</f>
+      <c r="A158" s="34">
+        <f t="shared" ref="A158:M158" si="83">A122</f>
         <v>1901</v>
       </c>
-      <c r="B158" s="36">
-        <f>B122</f>
-        <v>0</v>
-      </c>
-      <c r="C158" s="36">
-        <f>C122</f>
+      <c r="B158" s="35">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="C158" s="35">
+        <f t="shared" si="83"/>
         <v>2457.2329145581289</v>
       </c>
-      <c r="D158" s="36">
-        <f>D122</f>
+      <c r="D158" s="35">
+        <f t="shared" si="83"/>
         <v>306.38460952139019</v>
       </c>
-      <c r="E158" s="36">
-        <f>E122</f>
-        <v>0</v>
-      </c>
-      <c r="F158" s="36">
-        <f>F122</f>
+      <c r="E158" s="35">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="35">
+        <f t="shared" si="83"/>
         <v>2413.2129107892747</v>
       </c>
-      <c r="G158" s="36">
-        <f>G122</f>
+      <c r="G158" s="35">
+        <f t="shared" si="83"/>
         <v>1600.9360261922864</v>
       </c>
-      <c r="H158" s="36">
-        <f>H122</f>
-        <v>5740.0765260486805</v>
-      </c>
-      <c r="I158" s="36">
-        <f>I122</f>
+      <c r="H158" s="35">
+        <f t="shared" si="83"/>
+        <v>5735.1928035629462</v>
+      </c>
+      <c r="I158" s="35">
+        <f t="shared" si="83"/>
         <v>224.236231218836</v>
       </c>
-      <c r="J158" s="36">
-        <f>J122</f>
+      <c r="J158" s="35">
+        <f t="shared" si="83"/>
         <v>1.2601173964731525</v>
       </c>
-      <c r="K158" s="36">
-        <f>K122</f>
+      <c r="K158" s="35">
+        <f t="shared" si="83"/>
         <v>82.88087840664015</v>
       </c>
-      <c r="L158" s="36">
-        <f>L122</f>
-        <v>12834.334618138317</v>
-      </c>
-      <c r="M158" s="36">
-        <f>M122</f>
+      <c r="L158" s="35">
+        <f t="shared" si="83"/>
+        <v>12829.450895652582</v>
+      </c>
+      <c r="M158" s="35">
+        <f t="shared" si="83"/>
         <v>8.114404006604655</v>
       </c>
-      <c r="N158" s="36"/>
+      <c r="N158" s="35"/>
       <c r="O158" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="35">
-        <f>A123</f>
+      <c r="A159" s="34">
+        <f t="shared" ref="A159:M159" si="84">A123</f>
         <v>1902</v>
       </c>
-      <c r="B159" s="36">
-        <f>B123</f>
-        <v>0</v>
-      </c>
-      <c r="C159" s="36">
-        <f>C123</f>
+      <c r="B159" s="35">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="C159" s="35">
+        <f t="shared" si="84"/>
         <v>3415.8644188529315</v>
       </c>
-      <c r="D159" s="36">
-        <f>D123</f>
+      <c r="D159" s="35">
+        <f t="shared" si="84"/>
         <v>463.78474827781588</v>
       </c>
-      <c r="E159" s="36">
-        <f>E123</f>
-        <v>0</v>
-      </c>
-      <c r="F159" s="36">
-        <f>F123</f>
+      <c r="E159" s="35">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="35">
+        <f t="shared" si="84"/>
         <v>2425.1315937793652</v>
       </c>
-      <c r="G159" s="36">
-        <f>G123</f>
+      <c r="G159" s="35">
+        <f t="shared" si="84"/>
         <v>1813.6668780542939</v>
       </c>
-      <c r="H159" s="36">
-        <f>H123</f>
-        <v>9050.2095969956827</v>
-      </c>
-      <c r="I159" s="36">
-        <f>I123</f>
+      <c r="H159" s="35">
+        <f t="shared" si="84"/>
+        <v>9042.509575591981</v>
+      </c>
+      <c r="I159" s="35">
+        <f t="shared" si="84"/>
         <v>525.84252084294974</v>
       </c>
-      <c r="J159" s="36">
-        <f>J123</f>
-        <v>0</v>
-      </c>
-      <c r="K159" s="36">
-        <f>K123</f>
+      <c r="J159" s="35">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="35">
+        <f t="shared" si="84"/>
         <v>139.64417269099272</v>
       </c>
-      <c r="L159" s="36">
-        <f>L123</f>
-        <v>17838.201131497339</v>
-      </c>
-      <c r="M159" s="36">
-        <f>M123</f>
+      <c r="L159" s="35">
+        <f t="shared" si="84"/>
+        <v>17830.501110093635</v>
+      </c>
+      <c r="M159" s="35">
+        <f t="shared" si="84"/>
         <v>4.0572020033023275</v>
       </c>
-      <c r="N159" s="36"/>
+      <c r="N159" s="35"/>
       <c r="O159" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="35">
-        <f>A124</f>
+      <c r="A160" s="34">
+        <f t="shared" ref="A160:M160" si="85">A124</f>
         <v>1903</v>
       </c>
-      <c r="B160" s="36">
-        <f>B124</f>
-        <v>0</v>
-      </c>
-      <c r="C160" s="36">
-        <f>C124</f>
+      <c r="B160" s="35">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="C160" s="35">
+        <f t="shared" si="85"/>
         <v>4629.4406184771651</v>
       </c>
-      <c r="D160" s="36">
-        <f>D124</f>
+      <c r="D160" s="35">
+        <f t="shared" si="85"/>
         <v>569.27921864819712</v>
       </c>
-      <c r="E160" s="36">
-        <f>E124</f>
-        <v>0</v>
-      </c>
-      <c r="F160" s="36">
-        <f>F124</f>
+      <c r="E160" s="35">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="35">
+        <f t="shared" si="85"/>
         <v>3055.860608142053</v>
       </c>
-      <c r="G160" s="36">
-        <f>G124</f>
+      <c r="G160" s="35">
+        <f t="shared" si="85"/>
         <v>2621.8622938890144</v>
       </c>
-      <c r="H160" s="36">
-        <f>H124</f>
-        <v>10570.828705572676</v>
-      </c>
-      <c r="I160" s="36">
-        <f>I124</f>
+      <c r="H160" s="35">
+        <f t="shared" si="85"/>
+        <v>10561.834924112103</v>
+      </c>
+      <c r="I160" s="35">
+        <f t="shared" si="85"/>
         <v>1220.4613195345808</v>
       </c>
-      <c r="J160" s="36">
-        <f>J124</f>
+      <c r="J160" s="35">
+        <f t="shared" si="85"/>
         <v>2.5202347929463049</v>
       </c>
-      <c r="K160" s="36">
-        <f>K124</f>
+      <c r="K160" s="35">
+        <f t="shared" si="85"/>
         <v>127.03010729446993</v>
       </c>
-      <c r="L160" s="36">
-        <f>L124</f>
-        <v>22804.8903601073</v>
-      </c>
-      <c r="M160" s="36">
-        <f>M124</f>
+      <c r="L160" s="35">
+        <f t="shared" si="85"/>
+        <v>22795.896578646727</v>
+      </c>
+      <c r="M160" s="35">
+        <f t="shared" si="85"/>
         <v>7.6072537561918638</v>
       </c>
-      <c r="N160" s="36"/>
+      <c r="N160" s="35"/>
       <c r="O160" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="35">
-        <f>A125</f>
+      <c r="A161" s="34">
+        <f t="shared" ref="A161:M161" si="86">A125</f>
         <v>1904</v>
       </c>
-      <c r="B161" s="36">
-        <f>B125</f>
+      <c r="B161" s="35">
+        <f t="shared" si="86"/>
         <v>1.1897356143079316</v>
       </c>
-      <c r="C161" s="36">
-        <f>C125</f>
+      <c r="C161" s="35">
+        <f t="shared" si="86"/>
         <v>2484.6012522579031</v>
       </c>
-      <c r="D161" s="36">
-        <f>D125</f>
+      <c r="D161" s="35">
+        <f t="shared" si="86"/>
         <v>387.01213834280867</v>
       </c>
-      <c r="E161" s="36">
-        <f>E125</f>
+      <c r="E161" s="35">
+        <f t="shared" si="86"/>
         <v>0.56346153846153846</v>
       </c>
-      <c r="F161" s="36">
-        <f>F125</f>
+      <c r="F161" s="35">
+        <f t="shared" si="86"/>
         <v>4968.937385933179</v>
       </c>
-      <c r="G161" s="36">
-        <f>G125</f>
+      <c r="G161" s="35">
+        <f t="shared" si="86"/>
         <v>2310.4025082141266</v>
       </c>
-      <c r="H161" s="36">
-        <f>H125</f>
-        <v>8707.5423976292368</v>
-      </c>
-      <c r="I161" s="36">
-        <f>I125</f>
+      <c r="H161" s="35">
+        <f t="shared" si="86"/>
+        <v>8700.1339213816118</v>
+      </c>
+      <c r="I161" s="35">
+        <f t="shared" si="86"/>
         <v>1337.5434433160187</v>
       </c>
-      <c r="J161" s="36">
-        <f>J125</f>
+      <c r="J161" s="35">
+        <f t="shared" si="86"/>
         <v>18.166692465821281</v>
       </c>
-      <c r="K161" s="36">
-        <f>K125</f>
+      <c r="K161" s="35">
+        <f t="shared" si="86"/>
         <v>70.428531797252262</v>
       </c>
-      <c r="L161" s="36">
-        <f>L125</f>
-        <v>20355.867131415667</v>
-      </c>
-      <c r="M161" s="36">
-        <f>M125</f>
+      <c r="L161" s="35">
+        <f t="shared" si="86"/>
+        <v>20348.45865516804</v>
+      </c>
+      <c r="M161" s="35">
+        <f t="shared" si="86"/>
         <v>69.479584306552354</v>
       </c>
-      <c r="N161" s="36"/>
+      <c r="N161" s="35"/>
       <c r="O161" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:15">
-      <c r="A162" s="35">
-        <f>A126</f>
+      <c r="A162" s="34">
+        <f t="shared" ref="A162:M162" si="87">A126</f>
         <v>1905</v>
       </c>
-      <c r="B162" s="36">
-        <f>B126</f>
+      <c r="B162" s="35">
+        <f t="shared" si="87"/>
         <v>0.69984447900466562</v>
       </c>
-      <c r="C162" s="36">
-        <f>C126</f>
+      <c r="C162" s="35">
+        <f t="shared" si="87"/>
         <v>4110.4284485850458</v>
       </c>
-      <c r="D162" s="36">
-        <f>D126</f>
+      <c r="D162" s="35">
+        <f t="shared" si="87"/>
         <v>364.96851766840064</v>
       </c>
-      <c r="E162" s="36">
-        <f>E126</f>
+      <c r="E162" s="35">
+        <f t="shared" si="87"/>
         <v>0.9391025641025641</v>
       </c>
-      <c r="F162" s="36">
-        <f>F126</f>
+      <c r="F162" s="35">
+        <f t="shared" si="87"/>
         <v>5920.1251832713624</v>
       </c>
-      <c r="G162" s="36">
-        <f>G126</f>
+      <c r="G162" s="35">
+        <f t="shared" si="87"/>
         <v>3208.9630807799731</v>
       </c>
-      <c r="H162" s="36">
-        <f>H126</f>
-        <v>12622.555244056945</v>
-      </c>
-      <c r="I162" s="36">
-        <f>I126</f>
+      <c r="H162" s="35">
+        <f t="shared" si="87"/>
+        <v>12611.815830289013</v>
+      </c>
+      <c r="I162" s="35">
+        <f t="shared" si="87"/>
         <v>1122.2081922677014</v>
       </c>
-      <c r="J162" s="36">
-        <f>J126</f>
+      <c r="J162" s="35">
+        <f t="shared" si="87"/>
         <v>18.691741381018428</v>
       </c>
-      <c r="K162" s="36">
-        <f>K126</f>
+      <c r="K162" s="35">
+        <f t="shared" si="87"/>
         <v>55.792981561543129</v>
       </c>
-      <c r="L162" s="36">
-        <f>L126</f>
-        <v>27466.958657148949</v>
-      </c>
-      <c r="M162" s="36">
-        <f>M126</f>
+      <c r="L162" s="35">
+        <f t="shared" si="87"/>
+        <v>27456.219243381016</v>
+      </c>
+      <c r="M162" s="35">
+        <f t="shared" si="87"/>
         <v>41.586320533848856</v>
       </c>
-      <c r="N162" s="36"/>
+      <c r="N162" s="35"/>
       <c r="O162" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="35">
-        <f>A127</f>
+      <c r="A163" s="34">
+        <f t="shared" ref="A163:M163" si="88">A127</f>
         <v>1906</v>
       </c>
-      <c r="B163" s="36">
-        <f>B127</f>
+      <c r="B163" s="35">
+        <f t="shared" si="88"/>
         <v>9.0979782270606542</v>
       </c>
-      <c r="C163" s="36">
-        <f>C127</f>
+      <c r="C163" s="35">
+        <f t="shared" si="88"/>
         <v>3318.9657096996762</v>
       </c>
-      <c r="D163" s="36">
-        <f>D127</f>
+      <c r="D163" s="35">
+        <f t="shared" si="88"/>
         <v>558.09452441438418</v>
       </c>
-      <c r="E163" s="36">
-        <f>E127</f>
+      <c r="E163" s="35">
+        <f t="shared" si="88"/>
         <v>2.8173076923076925</v>
       </c>
-      <c r="F163" s="36">
-        <f>F127</f>
+      <c r="F163" s="35">
+        <f t="shared" si="88"/>
         <v>8024.8620730160392</v>
       </c>
-      <c r="G163" s="36">
-        <f>G127</f>
+      <c r="G163" s="35">
+        <f t="shared" si="88"/>
         <v>2490.405536712748</v>
       </c>
-      <c r="H163" s="36">
-        <f>H127</f>
-        <v>12349.918314763829</v>
-      </c>
-      <c r="I163" s="36">
-        <f>I127</f>
+      <c r="H163" s="35">
+        <f t="shared" si="88"/>
+        <v>12339.410863600577</v>
+      </c>
+      <c r="I163" s="35">
+        <f t="shared" si="88"/>
         <v>1808.2683561799874</v>
       </c>
-      <c r="J163" s="36">
-        <f>J127</f>
+      <c r="J163" s="35">
+        <f t="shared" si="88"/>
         <v>27.197533807212206</v>
       </c>
-      <c r="K163" s="36">
-        <f>K127</f>
+      <c r="K163" s="35">
+        <f t="shared" si="88"/>
         <v>75.765251772704218</v>
       </c>
-      <c r="L163" s="36">
-        <f>L127</f>
-        <v>28750.086678104879</v>
-      </c>
-      <c r="M163" s="36">
-        <f>M127</f>
+      <c r="L163" s="35">
+        <f t="shared" si="88"/>
+        <v>28739.579226941631</v>
+      </c>
+      <c r="M163" s="35">
+        <f t="shared" si="88"/>
         <v>84.694091818936087</v>
       </c>
-      <c r="N163" s="36"/>
+      <c r="N163" s="35"/>
       <c r="O163" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="35">
-        <f>A128</f>
+      <c r="A164" s="34">
+        <f t="shared" ref="A164:M164" si="89">A128</f>
         <v>1907</v>
       </c>
-      <c r="B164" s="36">
-        <f>B128</f>
+      <c r="B164" s="35">
+        <f t="shared" si="89"/>
         <v>23.864696734059098</v>
       </c>
-      <c r="C164" s="36">
-        <f>C128</f>
+      <c r="C164" s="35">
+        <f t="shared" si="89"/>
         <v>3528.5430704637147</v>
       </c>
-      <c r="D164" s="36">
-        <f>D128</f>
+      <c r="D164" s="35">
+        <f t="shared" si="89"/>
         <v>731.8916420961084</v>
       </c>
-      <c r="E164" s="36">
-        <f>E128</f>
+      <c r="E164" s="35">
+        <f t="shared" si="89"/>
         <v>8.6397435897435901</v>
       </c>
-      <c r="F164" s="36">
-        <f>F128</f>
+      <c r="F164" s="35">
+        <f t="shared" si="89"/>
         <v>7364.7208248229663</v>
       </c>
-      <c r="G164" s="36">
-        <f>G128</f>
+      <c r="G164" s="35">
+        <f t="shared" si="89"/>
         <v>4511.1668081609105</v>
       </c>
-      <c r="H164" s="36">
-        <f>H128</f>
-        <v>19544.860337030575</v>
-      </c>
-      <c r="I164" s="36">
-        <f>I128</f>
+      <c r="H164" s="35">
+        <f t="shared" si="89"/>
+        <v>19528.23134724702</v>
+      </c>
+      <c r="I164" s="35">
+        <f t="shared" si="89"/>
         <v>5506.6256170304996</v>
       </c>
-      <c r="J164" s="36">
-        <f>J128</f>
+      <c r="J164" s="35">
+        <f t="shared" si="89"/>
         <v>15.751467455914407</v>
       </c>
-      <c r="K164" s="36">
-        <f>K128</f>
+      <c r="K164" s="35">
+        <f t="shared" si="89"/>
         <v>114.49690129151459</v>
       </c>
-      <c r="L164" s="36">
-        <f>L128</f>
-        <v>41476.841521028786</v>
-      </c>
-      <c r="M164" s="36">
-        <f>M128</f>
+      <c r="L164" s="35">
+        <f t="shared" si="89"/>
+        <v>41460.212531245234</v>
+      </c>
+      <c r="M164" s="35">
+        <f t="shared" si="89"/>
         <v>126.28041235278495</v>
       </c>
-      <c r="N164" s="36"/>
+      <c r="N164" s="35"/>
       <c r="O164" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="35">
-        <f>A129</f>
+      <c r="A165" s="34">
+        <f t="shared" ref="A165:M165" si="90">A129</f>
         <v>1908</v>
       </c>
-      <c r="B165" s="36">
-        <f>B129</f>
+      <c r="B165" s="35">
+        <f t="shared" si="90"/>
         <v>9</v>
       </c>
-      <c r="C165" s="36">
-        <f>C129</f>
+      <c r="C165" s="35">
+        <f t="shared" si="90"/>
         <v>3360</v>
       </c>
-      <c r="D165" s="36">
-        <f>D129</f>
+      <c r="D165" s="35">
+        <f t="shared" si="90"/>
         <v>408</v>
       </c>
-      <c r="E165" s="36">
-        <f>E129</f>
+      <c r="E165" s="35">
+        <f t="shared" si="90"/>
         <v>7</v>
       </c>
-      <c r="F165" s="36">
-        <f>F129</f>
+      <c r="F165" s="35">
+        <f t="shared" si="90"/>
         <v>5439</v>
       </c>
-      <c r="G165" s="36">
-        <f>G129</f>
+      <c r="G165" s="35">
+        <f t="shared" si="90"/>
         <v>3282</v>
       </c>
-      <c r="H165" s="36">
-        <f>H129</f>
+      <c r="H165" s="35">
+        <f t="shared" si="90"/>
         <v>18187</v>
       </c>
-      <c r="I165" s="36">
-        <f>I129</f>
+      <c r="I165" s="35">
+        <f t="shared" si="90"/>
         <v>6636</v>
       </c>
-      <c r="J165" s="36">
-        <f>J129</f>
+      <c r="J165" s="35">
+        <f t="shared" si="90"/>
         <v>50</v>
       </c>
-      <c r="K165" s="36">
-        <f>K129</f>
+      <c r="K165" s="35">
+        <f t="shared" si="90"/>
         <v>141</v>
       </c>
-      <c r="L165" s="36">
-        <f>L129</f>
+      <c r="L165" s="35">
+        <f t="shared" si="90"/>
         <v>37777</v>
       </c>
-      <c r="M165" s="36">
-        <f>M129</f>
+      <c r="M165" s="35">
+        <f t="shared" si="90"/>
         <v>258</v>
       </c>
-      <c r="N165" s="36"/>
+      <c r="N165" s="35"/>
       <c r="O165" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="35">
-        <f>A130</f>
+      <c r="A166" s="34">
+        <f t="shared" ref="A166:M166" si="91">A130</f>
         <v>1909</v>
       </c>
-      <c r="B166" s="36">
-        <f>B130</f>
+      <c r="B166" s="35">
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
-      <c r="C166" s="36">
-        <f>C130</f>
+      <c r="C166" s="35">
+        <f t="shared" si="91"/>
         <v>1035</v>
       </c>
-      <c r="D166" s="36">
-        <f>D130</f>
+      <c r="D166" s="35">
+        <f t="shared" si="91"/>
         <v>338</v>
       </c>
-      <c r="E166" s="36">
-        <f>E130</f>
+      <c r="E166" s="35">
+        <f t="shared" si="91"/>
         <v>2</v>
       </c>
-      <c r="F166" s="36">
-        <f>F130</f>
+      <c r="F166" s="35">
+        <f t="shared" si="91"/>
         <v>3989</v>
       </c>
-      <c r="G166" s="36">
-        <f>G130</f>
+      <c r="G166" s="35">
+        <f t="shared" si="91"/>
         <v>1944</v>
       </c>
-      <c r="H166" s="36">
-        <f>H130</f>
+      <c r="H166" s="35">
+        <f t="shared" si="91"/>
         <v>8421</v>
       </c>
-      <c r="I166" s="36">
-        <f>I130</f>
+      <c r="I166" s="35">
+        <f t="shared" si="91"/>
         <v>3819</v>
       </c>
-      <c r="J166" s="36">
-        <f>J130</f>
+      <c r="J166" s="35">
+        <f t="shared" si="91"/>
         <v>30</v>
       </c>
-      <c r="K166" s="36">
-        <f>K130</f>
+      <c r="K166" s="35">
+        <f t="shared" si="91"/>
         <v>41</v>
       </c>
-      <c r="L166" s="36">
-        <f>L130</f>
+      <c r="L166" s="35">
+        <f t="shared" si="91"/>
         <v>19707</v>
       </c>
-      <c r="M166" s="36">
-        <f>M130</f>
+      <c r="M166" s="35">
+        <f t="shared" si="91"/>
         <v>87</v>
       </c>
-      <c r="N166" s="36"/>
+      <c r="N166" s="35"/>
       <c r="O166" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="35">
-        <f>A131</f>
+      <c r="A167" s="34">
+        <f t="shared" ref="A167:M167" si="92">A131</f>
         <v>1910</v>
       </c>
-      <c r="B167" s="36">
-        <f>B131</f>
+      <c r="B167" s="35">
+        <f t="shared" si="92"/>
         <v>4</v>
       </c>
-      <c r="C167" s="36">
-        <f>C131</f>
+      <c r="C167" s="35">
+        <f t="shared" si="92"/>
         <v>692</v>
       </c>
-      <c r="D167" s="36">
-        <f>D131</f>
+      <c r="D167" s="35">
+        <f t="shared" si="92"/>
         <v>503</v>
       </c>
-      <c r="E167" s="36">
-        <f>E131</f>
+      <c r="E167" s="35">
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
-      <c r="F167" s="36">
-        <f>F131</f>
+      <c r="F167" s="35">
+        <f t="shared" si="92"/>
         <v>3295</v>
       </c>
-      <c r="G167" s="36">
-        <f>G131</f>
+      <c r="G167" s="35">
+        <f t="shared" si="92"/>
         <v>1765</v>
       </c>
-      <c r="H167" s="36">
-        <f>H131</f>
+      <c r="H167" s="35">
+        <f t="shared" si="92"/>
         <v>6705</v>
       </c>
-      <c r="I167" s="36">
-        <f>I131</f>
+      <c r="I167" s="35">
+        <f t="shared" si="92"/>
         <v>4223</v>
       </c>
-      <c r="J167" s="36">
-        <f>J131</f>
+      <c r="J167" s="35">
+        <f t="shared" si="92"/>
         <v>38</v>
       </c>
-      <c r="K167" s="36">
-        <f>K131</f>
+      <c r="K167" s="35">
+        <f t="shared" si="92"/>
         <v>22</v>
       </c>
-      <c r="L167" s="36">
-        <f>L131</f>
+      <c r="L167" s="35">
+        <f t="shared" si="92"/>
         <v>17362</v>
       </c>
-      <c r="M167" s="36">
-        <f>M131</f>
+      <c r="M167" s="35">
+        <f t="shared" si="92"/>
         <v>112</v>
       </c>
-      <c r="N167" s="36"/>
+      <c r="N167" s="35"/>
       <c r="O167" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="35">
-        <f>A132</f>
+      <c r="A168" s="34">
+        <f t="shared" ref="A168:A174" si="93">A132</f>
         <v>1911</v>
       </c>
-      <c r="B168" s="36">
+      <c r="B168" s="35">
         <f>B132-B142</f>
-        <v>11.201156612215708</v>
-      </c>
-      <c r="C168" s="36">
-        <f t="shared" ref="C168:M168" si="77">C132-C142</f>
+        <v>11.207668150151827</v>
+      </c>
+      <c r="C168" s="35">
+        <f t="shared" ref="C168:M168" si="94">C132-C142</f>
         <v>4219</v>
       </c>
-      <c r="D168" s="36">
-        <f t="shared" si="77"/>
-        <v>501.90287710859332</v>
-      </c>
-      <c r="E168" s="36">
-        <f t="shared" si="77"/>
-        <v>5.7353346109761576</v>
-      </c>
-      <c r="F168" s="36">
-        <f t="shared" si="77"/>
-        <v>4417.6232281762059</v>
-      </c>
-      <c r="G168" s="36">
-        <f t="shared" si="77"/>
+      <c r="D168" s="35">
+        <f t="shared" si="94"/>
+        <v>502.19464694430604</v>
+      </c>
+      <c r="E168" s="35">
+        <f t="shared" si="94"/>
+        <v>5.7386687174607474</v>
+      </c>
+      <c r="F168" s="35">
+        <f t="shared" si="94"/>
+        <v>4420.1913130832927</v>
+      </c>
+      <c r="G168" s="35">
+        <f t="shared" si="94"/>
         <v>2430</v>
       </c>
-      <c r="H168" s="36">
-        <f t="shared" si="77"/>
-        <v>11312.345834956246</v>
-      </c>
-      <c r="I168" s="36">
-        <f t="shared" si="77"/>
+      <c r="H168" s="35">
+        <f t="shared" si="94"/>
+        <v>11309.291742456406</v>
+      </c>
+      <c r="I168" s="35">
+        <f t="shared" si="94"/>
         <v>3838</v>
       </c>
-      <c r="J168" s="36">
-        <f t="shared" si="77"/>
-        <v>21.672228611006943</v>
-      </c>
-      <c r="K168" s="36">
-        <f t="shared" si="77"/>
-        <v>62.154285834140914</v>
-      </c>
-      <c r="L168" s="36">
-        <f t="shared" si="77"/>
+      <c r="J168" s="35">
+        <f t="shared" si="94"/>
+        <v>21.68482726877474</v>
+      </c>
+      <c r="K168" s="35">
+        <f t="shared" si="94"/>
+        <v>62.190417816231033</v>
+      </c>
+      <c r="L168" s="35">
+        <f t="shared" si="94"/>
         <v>27053</v>
       </c>
-      <c r="M168" s="36">
-        <f t="shared" si="77"/>
-        <v>233.36505409061911</v>
-      </c>
-      <c r="N168" s="36"/>
+      <c r="M168" s="35">
+        <f t="shared" si="94"/>
+        <v>233.50071556338327</v>
+      </c>
+      <c r="N168" s="35"/>
       <c r="O168" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="35">
-        <f>A133</f>
+      <c r="A169" s="34">
+        <f t="shared" si="93"/>
         <v>1912</v>
       </c>
-      <c r="B169" s="36">
-        <f t="shared" ref="B169:M169" si="78">B133-B143</f>
+      <c r="B169" s="35">
+        <f t="shared" ref="B169:M169" si="95">B133-B143</f>
         <v>18</v>
       </c>
-      <c r="C169" s="36">
+      <c r="C169" s="35">
+        <f t="shared" si="95"/>
+        <v>2430</v>
+      </c>
+      <c r="D169" s="35">
+        <f t="shared" si="95"/>
+        <v>519</v>
+      </c>
+      <c r="E169" s="35">
+        <f t="shared" si="95"/>
+        <v>3</v>
+      </c>
+      <c r="F169" s="35">
+        <f t="shared" si="95"/>
+        <v>4448</v>
+      </c>
+      <c r="G169" s="35">
+        <f t="shared" si="95"/>
+        <v>4112</v>
+      </c>
+      <c r="H169" s="35">
+        <f t="shared" si="95"/>
+        <v>14701</v>
+      </c>
+      <c r="I169" s="35">
+        <f t="shared" si="95"/>
+        <v>8139</v>
+      </c>
+      <c r="J169" s="35">
+        <f t="shared" si="95"/>
+        <v>133</v>
+      </c>
+      <c r="K169" s="35">
+        <f t="shared" si="95"/>
+        <v>59</v>
+      </c>
+      <c r="L169" s="35">
+        <f t="shared" si="95"/>
+        <v>34681</v>
+      </c>
+      <c r="M169" s="35">
+        <f t="shared" si="95"/>
+        <v>119</v>
+      </c>
+      <c r="N169" s="35"/>
+      <c r="O169" s="5">
         <f t="shared" si="78"/>
-        <v>2430</v>
-      </c>
-      <c r="D169" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="34">
+        <f t="shared" si="93"/>
+        <v>1913</v>
+      </c>
+      <c r="B170" s="35">
+        <f t="shared" ref="B170:M170" si="96">B134-B144</f>
+        <v>26.849195732459037</v>
+      </c>
+      <c r="C170" s="35">
+        <f t="shared" si="96"/>
+        <v>3053</v>
+      </c>
+      <c r="D170" s="35">
+        <f t="shared" si="96"/>
+        <v>409.19587873492719</v>
+      </c>
+      <c r="E170" s="35">
+        <f t="shared" si="96"/>
+        <v>2.3781001132076898</v>
+      </c>
+      <c r="F170" s="35">
+        <f t="shared" si="96"/>
+        <v>2002.1957250102896</v>
+      </c>
+      <c r="G170" s="35">
+        <f t="shared" si="96"/>
+        <v>3276</v>
+      </c>
+      <c r="H170" s="35">
+        <f t="shared" si="96"/>
+        <v>12662.937267512425</v>
+      </c>
+      <c r="I170" s="35">
+        <f t="shared" si="96"/>
+        <v>5327</v>
+      </c>
+      <c r="J170" s="35">
+        <f t="shared" si="96"/>
+        <v>47.599226942692923</v>
+      </c>
+      <c r="K170" s="35">
+        <f t="shared" si="96"/>
+        <v>30.441159533506507</v>
+      </c>
+      <c r="L170" s="35">
+        <f t="shared" si="96"/>
+        <v>26923</v>
+      </c>
+      <c r="M170" s="35">
+        <f t="shared" si="96"/>
+        <v>85.40344642048963</v>
+      </c>
+      <c r="N170" s="35"/>
+      <c r="O170" s="5">
         <f t="shared" si="78"/>
-        <v>519</v>
-      </c>
-      <c r="E169" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="34">
+        <f t="shared" si="93"/>
+        <v>1914</v>
+      </c>
+      <c r="B171" s="35">
+        <f t="shared" ref="B171:M171" si="97">B135-B145</f>
+        <v>58</v>
+      </c>
+      <c r="C171" s="35">
+        <f t="shared" si="97"/>
+        <v>2252</v>
+      </c>
+      <c r="D171" s="35">
+        <f t="shared" si="97"/>
+        <v>811</v>
+      </c>
+      <c r="E171" s="35">
+        <f t="shared" si="97"/>
+        <v>5</v>
+      </c>
+      <c r="F171" s="35">
+        <f t="shared" si="97"/>
+        <v>4174</v>
+      </c>
+      <c r="G171" s="35">
+        <f t="shared" si="97"/>
+        <v>5480</v>
+      </c>
+      <c r="H171" s="35">
+        <f t="shared" si="97"/>
+        <v>18779</v>
+      </c>
+      <c r="I171" s="35">
+        <f t="shared" si="97"/>
+        <v>15703</v>
+      </c>
+      <c r="J171" s="35">
+        <f t="shared" si="97"/>
+        <v>67</v>
+      </c>
+      <c r="K171" s="35">
+        <f t="shared" si="97"/>
+        <v>28</v>
+      </c>
+      <c r="L171" s="35">
+        <f t="shared" si="97"/>
+        <v>47451</v>
+      </c>
+      <c r="M171" s="35">
+        <f t="shared" si="97"/>
+        <v>94</v>
+      </c>
+      <c r="N171" s="35"/>
+      <c r="O171" s="5">
         <f t="shared" si="78"/>
-        <v>3</v>
-      </c>
-      <c r="F169" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="34">
+        <f t="shared" si="93"/>
+        <v>1915</v>
+      </c>
+      <c r="B172" s="35">
+        <f t="shared" ref="B172:M172" si="98">B136-B146</f>
+        <v>217</v>
+      </c>
+      <c r="C172" s="35">
+        <f t="shared" si="98"/>
+        <v>727</v>
+      </c>
+      <c r="D172" s="35">
+        <f t="shared" si="98"/>
+        <v>167</v>
+      </c>
+      <c r="E172" s="35">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="F172" s="35">
+        <f t="shared" si="98"/>
+        <v>873</v>
+      </c>
+      <c r="G172" s="35">
+        <f t="shared" si="98"/>
+        <v>965</v>
+      </c>
+      <c r="H172" s="35">
+        <f t="shared" si="98"/>
+        <v>4694</v>
+      </c>
+      <c r="I172" s="35">
+        <f t="shared" si="98"/>
+        <v>10501</v>
+      </c>
+      <c r="J172" s="35">
+        <f t="shared" si="98"/>
+        <v>40</v>
+      </c>
+      <c r="K172" s="35">
+        <f t="shared" si="98"/>
+        <v>33</v>
+      </c>
+      <c r="L172" s="35">
+        <f t="shared" si="98"/>
+        <v>18297</v>
+      </c>
+      <c r="M172" s="35">
+        <f t="shared" si="98"/>
+        <v>78</v>
+      </c>
+      <c r="N172" s="35"/>
+      <c r="O172" s="5">
         <f t="shared" si="78"/>
-        <v>4448</v>
-      </c>
-      <c r="G169" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="34">
+        <f t="shared" si="93"/>
+        <v>1916</v>
+      </c>
+      <c r="B173" s="35">
+        <f t="shared" ref="B173:M173" si="99">B137-B147</f>
+        <v>354</v>
+      </c>
+      <c r="C173" s="35">
+        <f t="shared" si="99"/>
+        <v>379</v>
+      </c>
+      <c r="D173" s="35">
+        <f t="shared" si="99"/>
+        <v>20</v>
+      </c>
+      <c r="E173" s="35">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="F173" s="35">
+        <f t="shared" si="99"/>
+        <v>45</v>
+      </c>
+      <c r="G173" s="35">
+        <f t="shared" si="99"/>
+        <v>26</v>
+      </c>
+      <c r="H173" s="35">
+        <f t="shared" si="99"/>
+        <v>229</v>
+      </c>
+      <c r="I173" s="35">
+        <f t="shared" si="99"/>
+        <v>4106</v>
+      </c>
+      <c r="J173" s="35">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="35">
+        <f t="shared" si="99"/>
+        <v>11</v>
+      </c>
+      <c r="L173" s="35">
+        <f t="shared" si="99"/>
+        <v>5259</v>
+      </c>
+      <c r="M173" s="35">
+        <f t="shared" si="99"/>
+        <v>89</v>
+      </c>
+      <c r="N173" s="35"/>
+      <c r="O173" s="5">
         <f t="shared" si="78"/>
-        <v>4112</v>
-      </c>
-      <c r="H169" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" s="34">
+        <f t="shared" si="93"/>
+        <v>1917</v>
+      </c>
+      <c r="B174" s="35">
+        <f t="shared" ref="B174:M174" si="100">B138-B148</f>
+        <v>-19.607291661287455</v>
+      </c>
+      <c r="C174" s="35">
+        <f t="shared" si="100"/>
+        <v>1256</v>
+      </c>
+      <c r="D174" s="35">
+        <f t="shared" si="100"/>
+        <v>-5.7597064022057536</v>
+      </c>
+      <c r="E174" s="35">
+        <f t="shared" si="100"/>
+        <v>-5.6197183579016734</v>
+      </c>
+      <c r="F174" s="35">
+        <f t="shared" si="100"/>
+        <v>-1185.4055133779352</v>
+      </c>
+      <c r="G174" s="35">
+        <f t="shared" si="100"/>
+        <v>38</v>
+      </c>
+      <c r="H174" s="35">
+        <f t="shared" si="100"/>
+        <v>-261.51475311443886</v>
+      </c>
+      <c r="I174" s="35">
+        <f t="shared" si="100"/>
+        <v>6393</v>
+      </c>
+      <c r="J174" s="35">
+        <f t="shared" si="100"/>
+        <v>-1.9994320285836205</v>
+      </c>
+      <c r="K174" s="35">
+        <f t="shared" si="100"/>
+        <v>-100.07387579540239</v>
+      </c>
+      <c r="L174" s="35">
+        <f t="shared" si="100"/>
+        <v>5947</v>
+      </c>
+      <c r="M174" s="35">
+        <f t="shared" si="100"/>
+        <v>-160.01970926224493</v>
+      </c>
+      <c r="N174" s="35"/>
+      <c r="O174" s="5">
         <f t="shared" si="78"/>
-        <v>14701</v>
-      </c>
-      <c r="I169" s="36">
-        <f t="shared" si="78"/>
-        <v>8139</v>
-      </c>
-      <c r="J169" s="36">
-        <f t="shared" si="78"/>
-        <v>133</v>
-      </c>
-      <c r="K169" s="36">
-        <f t="shared" si="78"/>
-        <v>59</v>
-      </c>
-      <c r="L169" s="36">
-        <f t="shared" si="78"/>
-        <v>34681</v>
-      </c>
-      <c r="M169" s="36">
-        <f t="shared" si="78"/>
-        <v>119</v>
-      </c>
-      <c r="N169" s="36"/>
-      <c r="O169" s="5">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
-      <c r="A170" s="35">
-        <f>A134</f>
-        <v>1913</v>
-      </c>
-      <c r="B170" s="36">
-        <f t="shared" ref="B170:M170" si="79">B134-B144</f>
-        <v>26.830245769921731</v>
-      </c>
-      <c r="C170" s="36">
-        <f t="shared" si="79"/>
-        <v>3053</v>
-      </c>
-      <c r="D170" s="36">
-        <f t="shared" si="79"/>
-        <v>408.90707132893601</v>
-      </c>
-      <c r="E170" s="36">
-        <f t="shared" si="79"/>
-        <v>2.3764216678455168</v>
-      </c>
-      <c r="F170" s="36">
-        <f t="shared" si="79"/>
-        <v>2000.7825901678402</v>
-      </c>
-      <c r="G170" s="36">
-        <f t="shared" si="79"/>
-        <v>3276</v>
-      </c>
-      <c r="H170" s="36">
-        <f t="shared" si="79"/>
-        <v>12664.775195609684</v>
-      </c>
-      <c r="I170" s="36">
-        <f t="shared" si="79"/>
-        <v>5327</v>
-      </c>
-      <c r="J170" s="36">
-        <f t="shared" si="79"/>
-        <v>47.565631762548364</v>
-      </c>
-      <c r="K170" s="36">
-        <f t="shared" si="79"/>
-        <v>30.419674389649686</v>
-      </c>
-      <c r="L170" s="36">
-        <f t="shared" si="79"/>
-        <v>26923</v>
-      </c>
-      <c r="M170" s="36">
-        <f t="shared" si="79"/>
-        <v>85.343169303575181</v>
-      </c>
-      <c r="N170" s="36"/>
-      <c r="O170" s="5">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
-      <c r="A171" s="35">
-        <f>A135</f>
-        <v>1914</v>
-      </c>
-      <c r="B171" s="36">
-        <f t="shared" ref="B171:M171" si="80">B135-B145</f>
-        <v>58</v>
-      </c>
-      <c r="C171" s="36">
-        <f t="shared" si="80"/>
-        <v>2252</v>
-      </c>
-      <c r="D171" s="36">
-        <f t="shared" si="80"/>
-        <v>811</v>
-      </c>
-      <c r="E171" s="36">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="F171" s="36">
-        <f t="shared" si="80"/>
-        <v>4174</v>
-      </c>
-      <c r="G171" s="36">
-        <f t="shared" si="80"/>
-        <v>5480</v>
-      </c>
-      <c r="H171" s="36">
-        <f t="shared" si="80"/>
-        <v>18779</v>
-      </c>
-      <c r="I171" s="36">
-        <f t="shared" si="80"/>
-        <v>15703</v>
-      </c>
-      <c r="J171" s="36">
-        <f t="shared" si="80"/>
-        <v>67</v>
-      </c>
-      <c r="K171" s="36">
-        <f t="shared" si="80"/>
-        <v>28</v>
-      </c>
-      <c r="L171" s="36">
-        <f t="shared" si="80"/>
-        <v>47451</v>
-      </c>
-      <c r="M171" s="36">
-        <f t="shared" si="80"/>
-        <v>94</v>
-      </c>
-      <c r="N171" s="36"/>
-      <c r="O171" s="5">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
-      <c r="A172" s="35">
-        <f>A136</f>
-        <v>1915</v>
-      </c>
-      <c r="B172" s="36">
-        <f t="shared" ref="B172:M172" si="81">B136-B146</f>
-        <v>217</v>
-      </c>
-      <c r="C172" s="36">
-        <f t="shared" si="81"/>
-        <v>727</v>
-      </c>
-      <c r="D172" s="36">
-        <f t="shared" si="81"/>
-        <v>167</v>
-      </c>
-      <c r="E172" s="36">
-        <f t="shared" si="81"/>
-        <v>2</v>
-      </c>
-      <c r="F172" s="36">
-        <f t="shared" si="81"/>
-        <v>873</v>
-      </c>
-      <c r="G172" s="36">
-        <f t="shared" si="81"/>
-        <v>965</v>
-      </c>
-      <c r="H172" s="36">
-        <f t="shared" si="81"/>
-        <v>4694</v>
-      </c>
-      <c r="I172" s="36">
-        <f t="shared" si="81"/>
-        <v>10501</v>
-      </c>
-      <c r="J172" s="36">
-        <f t="shared" si="81"/>
-        <v>40</v>
-      </c>
-      <c r="K172" s="36">
-        <f t="shared" si="81"/>
-        <v>33</v>
-      </c>
-      <c r="L172" s="36">
-        <f t="shared" si="81"/>
-        <v>18297</v>
-      </c>
-      <c r="M172" s="36">
-        <f t="shared" si="81"/>
-        <v>78</v>
-      </c>
-      <c r="N172" s="36"/>
-      <c r="O172" s="5">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
-      <c r="A173" s="35">
-        <f>A137</f>
-        <v>1916</v>
-      </c>
-      <c r="B173" s="36">
-        <f t="shared" ref="B173:M173" si="82">B137-B147</f>
-        <v>354</v>
-      </c>
-      <c r="C173" s="36">
-        <f t="shared" si="82"/>
-        <v>379</v>
-      </c>
-      <c r="D173" s="36">
-        <f t="shared" si="82"/>
-        <v>20</v>
-      </c>
-      <c r="E173" s="36">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="F173" s="36">
-        <f t="shared" si="82"/>
-        <v>45</v>
-      </c>
-      <c r="G173" s="36">
-        <f t="shared" si="82"/>
-        <v>26</v>
-      </c>
-      <c r="H173" s="36">
-        <f t="shared" si="82"/>
-        <v>229</v>
-      </c>
-      <c r="I173" s="36">
-        <f t="shared" si="82"/>
-        <v>4106</v>
-      </c>
-      <c r="J173" s="36">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="K173" s="36">
-        <f t="shared" si="82"/>
-        <v>11</v>
-      </c>
-      <c r="L173" s="36">
-        <f t="shared" si="82"/>
-        <v>5259</v>
-      </c>
-      <c r="M173" s="36">
-        <f t="shared" si="82"/>
-        <v>89</v>
-      </c>
-      <c r="N173" s="36"/>
-      <c r="O173" s="5">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
-      <c r="A174" s="35">
-        <f>A138</f>
-        <v>1917</v>
-      </c>
-      <c r="B174" s="36">
-        <f t="shared" ref="B174:M174" si="83">B138-B148</f>
-        <v>-18.930865141188413</v>
-      </c>
-      <c r="C174" s="36">
-        <f t="shared" si="83"/>
-        <v>1256</v>
-      </c>
-      <c r="D174" s="36">
-        <f t="shared" si="83"/>
-        <v>-5.5610038875627703</v>
-      </c>
-      <c r="E174" s="36">
-        <f t="shared" si="83"/>
-        <v>-5.4258452519960034</v>
-      </c>
-      <c r="F174" s="36">
-        <f t="shared" si="83"/>
-        <v>-1144.5105371531665</v>
-      </c>
-      <c r="G174" s="36">
-        <f t="shared" si="83"/>
-        <v>38</v>
-      </c>
-      <c r="H174" s="36">
-        <f t="shared" si="83"/>
-        <v>-312.52060582703638</v>
-      </c>
-      <c r="I174" s="36">
-        <f t="shared" si="83"/>
-        <v>6393</v>
-      </c>
-      <c r="J174" s="36">
-        <f t="shared" si="83"/>
-        <v>-1.9304541772498891</v>
-      </c>
-      <c r="K174" s="36">
-        <f t="shared" si="83"/>
-        <v>-96.621454893704907</v>
-      </c>
-      <c r="L174" s="36">
-        <f t="shared" si="83"/>
-        <v>5947</v>
-      </c>
-      <c r="M174" s="36">
-        <f t="shared" si="83"/>
-        <v>-154.4992336680948</v>
-      </c>
-      <c r="N174" s="36"/>
-      <c r="O174" s="5">
-        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
@@ -10417,51 +10456,51 @@
         <v>0.20456528323585293</v>
       </c>
       <c r="C179" s="5">
-        <f t="shared" ref="C179:M179" si="84">C11-C153</f>
+        <f t="shared" ref="C179:M179" si="101">C11-C153</f>
         <v>4727.9842353568074</v>
       </c>
       <c r="D179" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>3406.2685381909596</v>
       </c>
       <c r="E179" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>0.53593854358074322</v>
       </c>
       <c r="F179" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>20369.444339981215</v>
       </c>
       <c r="G179" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>4668.3122033781083</v>
       </c>
       <c r="H179" s="5">
-        <f t="shared" si="84"/>
-        <v>9588.0822810653262</v>
+        <f t="shared" si="101"/>
+        <v>9591.0581794297905</v>
       </c>
       <c r="I179" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>502.97254454953452</v>
       </c>
       <c r="J179" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>8.0713069790221681</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>787.66694752282172</v>
       </c>
       <c r="L179" s="5">
-        <f t="shared" si="84"/>
-        <v>44094.883496150287</v>
+        <f t="shared" si="101"/>
+        <v>44097.859394514751</v>
       </c>
       <c r="M179" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>35.340595299671655</v>
       </c>
       <c r="O179" s="5">
-        <f t="shared" ref="O179:O200" si="85">SUM(B179:K179) +M179 -L179</f>
+        <f t="shared" ref="O179:O200" si="102">SUM(B179:K179) +M179 -L179</f>
         <v>0</v>
       </c>
       <c r="P179" s="5"/>
@@ -10472,1168 +10511,1168 @@
         <v>1897</v>
       </c>
       <c r="B180" s="5">
-        <f t="shared" ref="B180:M180" si="86">B12-B154</f>
+        <f t="shared" ref="B180:M180" si="103">B12-B154</f>
         <v>0.11763602418087515</v>
       </c>
       <c r="C180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>2718.8448549990876</v>
       </c>
       <c r="D180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>1958.78734547152</v>
       </c>
       <c r="E180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>0.3081934455097104</v>
       </c>
       <c r="F180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>11713.524450609497</v>
       </c>
       <c r="G180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>2684.5302318835174</v>
       </c>
       <c r="H180" s="5">
-        <f t="shared" si="86"/>
-        <v>5513.662246214124</v>
+        <f t="shared" si="103"/>
+        <v>5515.373547596374</v>
       </c>
       <c r="I180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>289.23622560494852</v>
       </c>
       <c r="J180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>4.6414349880708849</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>452.95079702473754</v>
       </c>
       <c r="L180" s="5">
-        <f t="shared" si="86"/>
-        <v>25356.926156553658</v>
+        <f t="shared" si="103"/>
+        <v>25358.637457935911</v>
       </c>
       <c r="M180" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>20.322740288466203</v>
       </c>
       <c r="O180" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P180" s="5"/>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="1">
-        <f t="shared" ref="A181:A199" si="87">A180+1</f>
+        <f t="shared" ref="A181:A199" si="104">A180+1</f>
         <v>1898</v>
       </c>
       <c r="B181" s="5">
-        <f t="shared" ref="B181:M181" si="88">B13-B155</f>
+        <f t="shared" ref="B181:M181" si="105">B13-B155</f>
         <v>0.13557903937647042</v>
       </c>
       <c r="C181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>3133.5500857088982</v>
       </c>
       <c r="D181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>2257.5610531811112</v>
       </c>
       <c r="E181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>0.35520217191362968</v>
       </c>
       <c r="F181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>13500.187581013328</v>
       </c>
       <c r="G181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>3094.0014553384835</v>
       </c>
       <c r="H181" s="5">
-        <f t="shared" si="88"/>
-        <v>6354.6607936921009</v>
+        <f t="shared" si="105"/>
+        <v>6356.633119764022</v>
       </c>
       <c r="I181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>333.35340847714849</v>
       </c>
       <c r="J181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>5.3493927680131197</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>522.03935293661925</v>
       </c>
       <c r="L181" s="5">
-        <f t="shared" si="88"/>
-        <v>29224.6164708834</v>
+        <f t="shared" si="105"/>
+        <v>29226.588796955322</v>
       </c>
       <c r="M181" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>23.422566556407052</v>
       </c>
       <c r="O181" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P181" s="5"/>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1899</v>
       </c>
       <c r="B182" s="5">
-        <f t="shared" ref="B182:M182" si="89">B14-B156</f>
+        <f t="shared" ref="B182:M182" si="106">B14-B156</f>
         <v>0</v>
       </c>
       <c r="C182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>4556.7954377636397</v>
       </c>
       <c r="D182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>5090.7319948513832</v>
       </c>
       <c r="E182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>0.81217948717948718</v>
       </c>
       <c r="F182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>22719.483711911587</v>
       </c>
       <c r="G182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>5594.706354673157</v>
       </c>
       <c r="H182" s="5">
-        <f t="shared" si="89"/>
-        <v>11369.443890351693</v>
+        <f t="shared" si="106"/>
+        <v>11372.97267832893</v>
       </c>
       <c r="I182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>1089.7336868250209</v>
       </c>
       <c r="J182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>25.954716291856549</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>930.17029370973671</v>
       </c>
       <c r="L182" s="5">
-        <f t="shared" si="89"/>
-        <v>51487.244910273614</v>
+        <f t="shared" si="106"/>
+        <v>51490.77369825085</v>
       </c>
       <c r="M182" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>109.41264440836041</v>
       </c>
       <c r="O182" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P182" s="5"/>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1900</v>
       </c>
       <c r="B183" s="5">
-        <f t="shared" ref="B183:M183" si="90">B15-B157</f>
+        <f t="shared" ref="B183:M183" si="107">B15-B157</f>
         <v>0.93001555209953346</v>
       </c>
       <c r="C183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>9429.2815647506541</v>
       </c>
       <c r="D183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>5058.5780123462846</v>
       </c>
       <c r="E183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>1.6243589743589744</v>
       </c>
       <c r="F183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>34639.374321794428</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>8424.7866823734275</v>
       </c>
       <c r="H183" s="5">
-        <f t="shared" si="90"/>
-        <v>16485.950089122452</v>
+        <f t="shared" si="107"/>
+        <v>16491.066911284455</v>
       </c>
       <c r="I183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>766.16761928252834</v>
       </c>
       <c r="J183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>1708.6823873581034</v>
       </c>
       <c r="L183" s="5">
-        <f t="shared" si="90"/>
-        <v>76558.745829518011</v>
+        <f t="shared" si="107"/>
+        <v>76563.862651680014</v>
       </c>
       <c r="M183" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="107"/>
         <v>43.370777963674399</v>
       </c>
       <c r="O183" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P183" s="5"/>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1901</v>
       </c>
       <c r="B184" s="5">
-        <f t="shared" ref="B184:M184" si="91">B16-B158</f>
+        <f t="shared" ref="B184:M184" si="108">B16-B158</f>
         <v>0</v>
       </c>
       <c r="C184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>7508.7670854418711</v>
       </c>
       <c r="D184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>5336.6153904786097</v>
       </c>
       <c r="E184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="F184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>35246.787089210724</v>
       </c>
       <c r="G184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>7204.0639738077134</v>
       </c>
       <c r="H184" s="5">
-        <f t="shared" si="91"/>
-        <v>15734.923473951319</v>
+        <f t="shared" si="108"/>
+        <v>15739.807196437054</v>
       </c>
       <c r="I184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>430.763768781164</v>
       </c>
       <c r="J184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>10.739882603526848</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>942.11912159335986</v>
       </c>
       <c r="L184" s="5">
-        <f t="shared" si="91"/>
-        <v>72422.665381861676</v>
+        <f t="shared" si="108"/>
+        <v>72427.549104347418</v>
       </c>
       <c r="M184" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="108"/>
         <v>7.885595993395345</v>
       </c>
       <c r="O184" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P184" s="5"/>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1902</v>
       </c>
       <c r="B185" s="5">
-        <f t="shared" ref="B185:M185" si="92">B17-B159</f>
+        <f t="shared" ref="B185:M185" si="109">B17-B159</f>
         <v>0</v>
       </c>
       <c r="C185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>10438.135581147068</v>
       </c>
       <c r="D185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>8078.2152517221839</v>
       </c>
       <c r="E185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="F185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>35420.868406220638</v>
       </c>
       <c r="G185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>8161.3331219457059</v>
       </c>
       <c r="H185" s="5">
-        <f t="shared" si="92"/>
-        <v>24808.790403004317</v>
+        <f t="shared" si="109"/>
+        <v>24816.490424408017</v>
       </c>
       <c r="I185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>1010.1574791570503</v>
       </c>
       <c r="J185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>1587.3558273090073</v>
       </c>
       <c r="L185" s="5">
-        <f t="shared" si="92"/>
-        <v>89508.798868502665</v>
+        <f t="shared" si="109"/>
+        <v>89516.498889906361</v>
       </c>
       <c r="M185" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>3.9427979966976725</v>
       </c>
       <c r="O185" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P185" s="5"/>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1903</v>
       </c>
       <c r="B186" s="5">
-        <f t="shared" ref="B186:M186" si="93">B18-B160</f>
+        <f t="shared" ref="B186:M186" si="110">B18-B160</f>
         <v>0</v>
       </c>
       <c r="C186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>14146.559381522835</v>
       </c>
       <c r="D186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>9915.7207813518035</v>
       </c>
       <c r="E186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="F186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>44633.139391857949</v>
       </c>
       <c r="G186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>11798.137706110985</v>
       </c>
       <c r="H186" s="5">
-        <f t="shared" si="93"/>
-        <v>28977.171294427324</v>
+        <f t="shared" si="110"/>
+        <v>28986.165075887897</v>
       </c>
       <c r="I186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>2344.538680465419</v>
       </c>
       <c r="J186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>21.479765207053696</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>1443.9698927055301</v>
       </c>
       <c r="L186" s="5">
-        <f t="shared" si="93"/>
-        <v>113288.1096398927</v>
+        <f t="shared" si="110"/>
+        <v>113297.10342135327</v>
       </c>
       <c r="M186" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>7.3927462438081362</v>
       </c>
       <c r="O186" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P186" s="5"/>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1904</v>
       </c>
       <c r="B187" s="5">
-        <f t="shared" ref="B187:M187" si="94">B19-B161</f>
+        <f t="shared" ref="B187:M187" si="111">B19-B161</f>
         <v>15.810264385692069</v>
       </c>
       <c r="C187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>7592.3987477420969</v>
       </c>
       <c r="D187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>6740.9878616571914</v>
       </c>
       <c r="E187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>2.4365384615384613</v>
       </c>
       <c r="F187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>72575.062614066817</v>
       </c>
       <c r="G187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>10396.597491785873</v>
       </c>
       <c r="H187" s="5">
-        <f t="shared" si="94"/>
-        <v>23869.457602370763</v>
+        <f t="shared" si="111"/>
+        <v>23876.86607861839</v>
       </c>
       <c r="I187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>2569.456556683981</v>
       </c>
       <c r="J187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>154.83330753417872</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>800.57146820274772</v>
       </c>
       <c r="L187" s="5">
-        <f t="shared" si="94"/>
-        <v>124785.13286858433</v>
+        <f t="shared" si="111"/>
+        <v>124792.54134483196</v>
       </c>
       <c r="M187" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>67.520415693447646</v>
       </c>
       <c r="O187" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P187" s="5"/>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1905</v>
       </c>
       <c r="B188" s="5">
-        <f t="shared" ref="B188:M188" si="95">B20-B162</f>
+        <f t="shared" ref="B188:M188" si="112">B20-B162</f>
         <v>9.3001555209953342</v>
       </c>
       <c r="C188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>12560.571551414954</v>
       </c>
       <c r="D188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>6357.0314823315994</v>
       </c>
       <c r="E188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>4.0608974358974361</v>
       </c>
       <c r="F188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>86467.874816728639</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>14440.036919220027</v>
       </c>
       <c r="H188" s="5">
-        <f t="shared" si="95"/>
-        <v>34601.444755943055</v>
+        <f t="shared" si="112"/>
+        <v>34612.184169710985</v>
       </c>
       <c r="I188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>2155.7918077322984</v>
       </c>
       <c r="J188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>159.30825861898157</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>634.20701843845688</v>
       </c>
       <c r="L188" s="5">
-        <f t="shared" si="95"/>
-        <v>157430.04134285107</v>
+        <f t="shared" si="112"/>
+        <v>157440.78075661897</v>
       </c>
       <c r="M188" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>40.413679466151144</v>
       </c>
       <c r="O188" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P188" s="5"/>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1906</v>
       </c>
       <c r="B189" s="5">
-        <f t="shared" ref="B189:M189" si="96">B21-B163</f>
+        <f t="shared" ref="B189:M189" si="113">B21-B163</f>
         <v>120.90202177293935</v>
       </c>
       <c r="C189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>10142.034290300324</v>
       </c>
       <c r="D189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>9720.9054755856159</v>
       </c>
       <c r="E189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>12.182692307692307</v>
       </c>
       <c r="F189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>117209.13792698397</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>11206.594463287252</v>
       </c>
       <c r="H189" s="5">
-        <f t="shared" si="96"/>
-        <v>33854.081685236175</v>
+        <f t="shared" si="113"/>
+        <v>33864.589136399423</v>
       </c>
       <c r="I189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>3473.7316438200123</v>
       </c>
       <c r="J189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>231.80246619278779</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>861.23474822729577</v>
       </c>
       <c r="L189" s="5">
-        <f t="shared" si="96"/>
-        <v>186914.91332189512</v>
+        <f t="shared" si="113"/>
+        <v>186925.42077305837</v>
       </c>
       <c r="M189" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>82.305908181063913</v>
       </c>
       <c r="O189" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P189" s="5"/>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1907</v>
       </c>
       <c r="B190" s="5">
-        <f t="shared" ref="B190:M190" si="97">B22-B164</f>
+        <f t="shared" ref="B190:M190" si="114">B22-B164</f>
         <v>317.13530326594088</v>
       </c>
       <c r="C190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>10782.456929536285</v>
       </c>
       <c r="D190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>12748.108357903891</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>37.360256410256412</v>
       </c>
       <c r="F190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>107567.27917517703</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>20299.83319183909</v>
       </c>
       <c r="H190" s="5">
-        <f t="shared" si="97"/>
-        <v>53577.139662969421</v>
+        <f t="shared" si="114"/>
+        <v>53593.76865275298</v>
       </c>
       <c r="I190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>10578.374382969501</v>
       </c>
       <c r="J190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>134.24853254408561</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>1301.5030987084854</v>
       </c>
       <c r="L190" s="5">
-        <f t="shared" si="97"/>
-        <v>217466.15847897122</v>
+        <f t="shared" si="114"/>
+        <v>217482.78746875477</v>
       </c>
       <c r="M190" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>122.71958764721505</v>
       </c>
       <c r="O190" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P190" s="5"/>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1908</v>
       </c>
       <c r="B191" s="5">
-        <f t="shared" ref="B191:M191" si="98">B23-B165</f>
+        <f t="shared" ref="B191:M191" si="115">B23-B165</f>
         <v>53</v>
       </c>
       <c r="C191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>2943</v>
       </c>
       <c r="D191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>9601</v>
       </c>
       <c r="E191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>17</v>
       </c>
       <c r="F191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>66539</v>
       </c>
       <c r="G191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>9988</v>
       </c>
       <c r="H191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>19760</v>
       </c>
       <c r="I191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>9688</v>
       </c>
       <c r="J191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>-13</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>386</v>
       </c>
       <c r="L191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>118934</v>
       </c>
       <c r="M191" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>-28</v>
       </c>
       <c r="O191" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1909</v>
       </c>
       <c r="B192" s="5">
-        <f t="shared" ref="B192:M192" si="99">B24-B166</f>
+        <f t="shared" ref="B192:M192" si="116">B24-B166</f>
         <v>49</v>
       </c>
       <c r="C192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>10167</v>
       </c>
       <c r="D192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>7443</v>
       </c>
       <c r="E192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>3</v>
       </c>
       <c r="F192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>35161</v>
       </c>
       <c r="G192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>12651</v>
       </c>
       <c r="H192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>29349</v>
       </c>
       <c r="I192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>5280</v>
       </c>
       <c r="J192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>40</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>550</v>
       </c>
       <c r="L192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>100753</v>
       </c>
       <c r="M192" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>60</v>
       </c>
       <c r="O192" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1910</v>
       </c>
       <c r="B193" s="5">
-        <f t="shared" ref="B193:M193" si="100">B25-B167</f>
+        <f t="shared" ref="B193:M193" si="117">B25-B167</f>
         <v>48</v>
       </c>
       <c r="C193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>14307</v>
       </c>
       <c r="D193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>9513</v>
       </c>
       <c r="E193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="F193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>56529</v>
       </c>
       <c r="G193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>19911</v>
       </c>
       <c r="H193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>56930</v>
       </c>
       <c r="I193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>10545</v>
       </c>
       <c r="J193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>64</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>1376</v>
       </c>
       <c r="L193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>169430</v>
       </c>
       <c r="M193" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>207</v>
       </c>
       <c r="O193" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1911</v>
       </c>
       <c r="B194" s="5">
-        <f t="shared" ref="B194:M194" si="101">B26-B168</f>
-        <v>140.7988433877843</v>
+        <f t="shared" ref="B194:M194" si="118">B26-B168</f>
+        <v>140.79233184984818</v>
       </c>
       <c r="C194" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>4723</v>
       </c>
       <c r="D194" s="5">
-        <f t="shared" si="101"/>
-        <v>8277.0971228914059</v>
+        <f t="shared" si="118"/>
+        <v>8276.8053530556936</v>
       </c>
       <c r="E194" s="5">
-        <f t="shared" si="101"/>
-        <v>23.264665389023843</v>
+        <f t="shared" si="118"/>
+        <v>23.261331282539253</v>
       </c>
       <c r="F194" s="5">
-        <f t="shared" si="101"/>
-        <v>61054.376771823794</v>
+        <f t="shared" si="118"/>
+        <v>61051.808686916709</v>
       </c>
       <c r="G194" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>13780</v>
       </c>
       <c r="H194" s="5">
-        <f t="shared" si="101"/>
-        <v>28880.654165043754</v>
+        <f t="shared" si="118"/>
+        <v>28883.708257543592</v>
       </c>
       <c r="I194" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>13743</v>
       </c>
       <c r="J194" s="5">
-        <f t="shared" si="101"/>
-        <v>174.32777138899306</v>
+        <f t="shared" si="118"/>
+        <v>174.31517273122526</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="101"/>
-        <v>667.84571416585914</v>
+        <f t="shared" si="118"/>
+        <v>667.80958218376895</v>
       </c>
       <c r="L194" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>131668</v>
       </c>
       <c r="M194" s="5">
-        <f t="shared" si="101"/>
-        <v>203.63494590938089</v>
+        <f t="shared" si="118"/>
+        <v>203.49928443661673</v>
       </c>
       <c r="O194" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1912</v>
       </c>
       <c r="B195" s="5">
-        <f t="shared" ref="B195:M195" si="102">B27-B169</f>
+        <f t="shared" ref="B195:M195" si="119">B27-B169</f>
         <v>232</v>
       </c>
       <c r="C195" s="5">
+        <f t="shared" si="119"/>
+        <v>3279</v>
+      </c>
+      <c r="D195" s="5">
+        <f t="shared" si="119"/>
+        <v>10512</v>
+      </c>
+      <c r="E195" s="5">
+        <f t="shared" si="119"/>
+        <v>6</v>
+      </c>
+      <c r="F195" s="5">
+        <f t="shared" si="119"/>
+        <v>53941</v>
+      </c>
+      <c r="G195" s="5">
+        <f t="shared" si="119"/>
+        <v>9644</v>
+      </c>
+      <c r="H195" s="5">
+        <f t="shared" si="119"/>
+        <v>36543</v>
+      </c>
+      <c r="I195" s="5">
+        <f t="shared" si="119"/>
+        <v>12962</v>
+      </c>
+      <c r="J195" s="5">
+        <f t="shared" si="119"/>
+        <v>251</v>
+      </c>
+      <c r="K195" s="5">
+        <f t="shared" si="119"/>
+        <v>355</v>
+      </c>
+      <c r="L195" s="5">
+        <f t="shared" si="119"/>
+        <v>127714</v>
+      </c>
+      <c r="M195" s="5">
+        <f t="shared" si="119"/>
+        <v>-11</v>
+      </c>
+      <c r="O195" s="5">
         <f t="shared" si="102"/>
-        <v>3279</v>
-      </c>
-      <c r="D195" s="5">
-        <f t="shared" si="102"/>
-        <v>10512</v>
-      </c>
-      <c r="E195" s="5">
-        <f t="shared" si="102"/>
-        <v>6</v>
-      </c>
-      <c r="F195" s="5">
-        <f t="shared" si="102"/>
-        <v>53941</v>
-      </c>
-      <c r="G195" s="5">
-        <f t="shared" si="102"/>
-        <v>9644</v>
-      </c>
-      <c r="H195" s="5">
-        <f t="shared" si="102"/>
-        <v>36543</v>
-      </c>
-      <c r="I195" s="5">
-        <f t="shared" si="102"/>
-        <v>12962</v>
-      </c>
-      <c r="J195" s="5">
-        <f t="shared" si="102"/>
-        <v>251</v>
-      </c>
-      <c r="K195" s="5">
-        <f t="shared" si="102"/>
-        <v>355</v>
-      </c>
-      <c r="L195" s="5">
-        <f t="shared" si="102"/>
-        <v>127714</v>
-      </c>
-      <c r="M195" s="5">
-        <f t="shared" si="102"/>
-        <v>-11</v>
-      </c>
-      <c r="O195" s="5">
-        <f t="shared" si="85"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1913</v>
       </c>
       <c r="B196" s="5">
-        <f t="shared" ref="B196:M196" si="103">B28-B170</f>
-        <v>882.1697542300783</v>
+        <f t="shared" ref="B196:M196" si="120">B28-B170</f>
+        <v>882.15080426754093</v>
       </c>
       <c r="C196" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>8103</v>
       </c>
       <c r="D196" s="5">
-        <f t="shared" si="103"/>
-        <v>17448.092928671063</v>
+        <f t="shared" si="120"/>
+        <v>17447.804121265071</v>
       </c>
       <c r="E196" s="5">
-        <f t="shared" si="103"/>
-        <v>27.623578332154484</v>
+        <f t="shared" si="120"/>
+        <v>27.62189988679231</v>
       </c>
       <c r="F196" s="5">
-        <f t="shared" si="103"/>
-        <v>72032.217409832156</v>
+        <f t="shared" si="120"/>
+        <v>72030.804274989714</v>
       </c>
       <c r="G196" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>20597</v>
       </c>
       <c r="H196" s="5">
-        <f t="shared" si="103"/>
-        <v>99680.224804390309</v>
+        <f t="shared" si="120"/>
+        <v>99682.062732487568</v>
       </c>
       <c r="I196" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>43145</v>
       </c>
       <c r="J196" s="5">
-        <f t="shared" si="103"/>
-        <v>1026.4343682374517</v>
+        <f t="shared" si="120"/>
+        <v>1026.4007730573071</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="103"/>
-        <v>861.58032561035031</v>
+        <f t="shared" si="120"/>
+        <v>861.55884046649351</v>
       </c>
       <c r="L196" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>264117</v>
       </c>
       <c r="M196" s="5">
-        <f t="shared" si="103"/>
-        <v>313.65683069642483</v>
+        <f t="shared" si="120"/>
+        <v>313.59655357951038</v>
       </c>
       <c r="O196" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1914</v>
       </c>
       <c r="B197" s="5">
-        <f t="shared" ref="B197:M197" si="104">B29-B171</f>
+        <f t="shared" ref="B197:M197" si="121">B29-B171</f>
         <v>814</v>
       </c>
       <c r="C197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>8716</v>
       </c>
       <c r="D197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>9078</v>
       </c>
       <c r="E197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>58</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>98464</v>
       </c>
       <c r="G197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>15328</v>
       </c>
       <c r="H197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>47499</v>
       </c>
       <c r="I197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>24538</v>
       </c>
       <c r="J197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>2476</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>715</v>
       </c>
       <c r="L197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>208209</v>
       </c>
       <c r="M197" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>523</v>
       </c>
       <c r="O197" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1915</v>
       </c>
       <c r="B198" s="5">
-        <f t="shared" ref="B198:M198" si="105">B30-B172</f>
+        <f t="shared" ref="B198:M198" si="122">B30-B172</f>
         <v>-176</v>
       </c>
       <c r="C198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>923</v>
       </c>
       <c r="D198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>738</v>
       </c>
       <c r="E198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>12</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>13623</v>
       </c>
       <c r="G198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>1253</v>
       </c>
       <c r="H198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>-208</v>
       </c>
       <c r="I198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>-8471</v>
       </c>
       <c r="J198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>118</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>88</v>
       </c>
       <c r="L198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>7890</v>
       </c>
       <c r="M198" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>-10</v>
       </c>
       <c r="O198" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>1916</v>
       </c>
       <c r="B199" s="5">
-        <f t="shared" ref="B199:M199" si="106">B31-B173</f>
+        <f t="shared" ref="B199:M199" si="123">B31-B173</f>
         <v>-310</v>
       </c>
       <c r="C199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>3455</v>
       </c>
       <c r="D199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>43</v>
       </c>
       <c r="E199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>2</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>2093</v>
       </c>
       <c r="G199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>110</v>
       </c>
       <c r="H199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>48</v>
       </c>
       <c r="I199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>-3080</v>
       </c>
       <c r="J199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>2</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>256</v>
       </c>
       <c r="L199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>2583</v>
       </c>
       <c r="M199" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>-36</v>
       </c>
       <c r="O199" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
@@ -11642,55 +11681,55 @@
         <v>1917</v>
       </c>
       <c r="B200" s="5">
-        <f t="shared" ref="B200:M200" si="107">B32-B174</f>
-        <v>121.93086514118841</v>
+        <f t="shared" ref="B200:M200" si="124">B32-B174</f>
+        <v>122.60729166128746</v>
       </c>
       <c r="C200" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>2489</v>
       </c>
       <c r="D200" s="5">
-        <f t="shared" si="107"/>
-        <v>44.561003887562769</v>
+        <f t="shared" si="124"/>
+        <v>44.759706402205751</v>
       </c>
       <c r="E200" s="5">
-        <f t="shared" si="107"/>
-        <v>16.425845251996002</v>
+        <f t="shared" si="124"/>
+        <v>16.619718357901675</v>
       </c>
       <c r="F200" s="5">
-        <f t="shared" si="107"/>
-        <v>7945.5105371531663</v>
+        <f t="shared" si="124"/>
+        <v>7986.4055133779348</v>
       </c>
       <c r="G200" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>35</v>
       </c>
       <c r="H200" s="5">
-        <f t="shared" si="107"/>
-        <v>672.52060582703643</v>
+        <f t="shared" si="124"/>
+        <v>621.51475311443892</v>
       </c>
       <c r="I200" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>-5387</v>
       </c>
       <c r="J200" s="5">
-        <f t="shared" si="107"/>
-        <v>8.9304541772498887</v>
+        <f t="shared" si="124"/>
+        <v>8.9994320285836196</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="107"/>
-        <v>551.62145489370494</v>
+        <f t="shared" si="124"/>
+        <v>555.07387579540239</v>
       </c>
       <c r="L200" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>6769</v>
       </c>
       <c r="M200" s="5">
-        <f t="shared" si="107"/>
-        <v>270.4992336680948</v>
+        <f t="shared" si="124"/>
+        <v>276.01970926224493</v>
       </c>
       <c r="O200" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
@@ -11749,47 +11788,47 @@
         <v>0.16110065370836404</v>
       </c>
       <c r="C205" s="5">
-        <f t="shared" ref="C205:M205" si="108">(C179+C180)/2</f>
+        <f t="shared" ref="C205:M205" si="125">(C179+C180)/2</f>
         <v>3723.4145451779477</v>
       </c>
       <c r="D205" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>2682.5279418312398</v>
       </c>
       <c r="E205" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.42206599454522681</v>
       </c>
       <c r="F205" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>16041.484395295356</v>
       </c>
       <c r="G205" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>3676.4212176308129</v>
       </c>
       <c r="H205" s="5">
-        <f t="shared" si="108"/>
-        <v>7550.8722636397251</v>
+        <f t="shared" si="125"/>
+        <v>7553.2158635130818</v>
       </c>
       <c r="I205" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>396.10438507724155</v>
       </c>
       <c r="J205" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>6.3563709835465261</v>
       </c>
       <c r="K205" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>620.30887227377957</v>
       </c>
       <c r="L205" s="5">
-        <f t="shared" si="108"/>
-        <v>34725.904826351973</v>
+        <f t="shared" si="125"/>
+        <v>34728.248426225327</v>
       </c>
       <c r="M205" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>27.831667794068927</v>
       </c>
     </row>
@@ -11799,1023 +11838,1023 @@
         <v>1897</v>
       </c>
       <c r="B206" s="5">
-        <f t="shared" ref="B206:M206" si="109">(B180+B181)/2</f>
+        <f t="shared" ref="B206:M206" si="126">(B180+B181)/2</f>
         <v>0.12660753177867279</v>
       </c>
       <c r="C206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>2926.1974703539927</v>
       </c>
       <c r="D206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>2108.1741993263158</v>
       </c>
       <c r="E206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.33169780871167004</v>
       </c>
       <c r="F206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>12606.856015811412</v>
       </c>
       <c r="G206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>2889.2658436110005</v>
       </c>
       <c r="H206" s="5">
-        <f t="shared" si="109"/>
-        <v>5934.1615199531125</v>
+        <f t="shared" si="126"/>
+        <v>5936.003333680198</v>
       </c>
       <c r="I206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>311.29481704104853</v>
       </c>
       <c r="J206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>4.9954138780420028</v>
       </c>
       <c r="K206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>487.4950749806784</v>
       </c>
       <c r="L206" s="5">
-        <f t="shared" si="109"/>
-        <v>27290.771313718527</v>
+        <f t="shared" si="126"/>
+        <v>27292.613127445617</v>
       </c>
       <c r="M206" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>21.872653422436628</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1">
-        <f t="shared" ref="A207:A224" si="110">A206+1</f>
+        <f t="shared" ref="A207:A224" si="127">A206+1</f>
         <v>1898</v>
       </c>
       <c r="B207" s="5">
-        <f t="shared" ref="B207:M207" si="111">(B181+B182)/2</f>
+        <f t="shared" ref="B207:M207" si="128">(B181+B182)/2</f>
         <v>6.7789519688235211E-2</v>
       </c>
       <c r="C207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>3845.172761736269</v>
       </c>
       <c r="D207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>3674.146524016247</v>
       </c>
       <c r="E207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0.58369082954655838</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>18109.835646462459</v>
       </c>
       <c r="G207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>4344.3539050058207</v>
       </c>
       <c r="H207" s="5">
-        <f t="shared" si="111"/>
-        <v>8862.052342021896</v>
+        <f t="shared" si="128"/>
+        <v>8864.8028990464754</v>
       </c>
       <c r="I207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>711.54354765108474</v>
       </c>
       <c r="J207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>15.652054529934833</v>
       </c>
       <c r="K207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>726.10482332317792</v>
       </c>
       <c r="L207" s="5">
-        <f t="shared" si="111"/>
-        <v>40355.930690578505</v>
+        <f t="shared" si="128"/>
+        <v>40358.68124760309</v>
       </c>
       <c r="M207" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>66.417605482383735</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1899</v>
       </c>
       <c r="B208" s="5">
-        <f t="shared" ref="B208:M208" si="112">(B182+B183)/2</f>
+        <f t="shared" ref="B208:M208" si="129">(B182+B183)/2</f>
         <v>0.46500777604976673</v>
       </c>
       <c r="C208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>6993.0385012571469</v>
       </c>
       <c r="D208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>5074.6550035988339</v>
       </c>
       <c r="E208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>1.2182692307692307</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>28679.429016853006</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>7009.7465185232923</v>
       </c>
       <c r="H208" s="5">
-        <f t="shared" si="112"/>
-        <v>13927.696989737073</v>
+        <f t="shared" si="129"/>
+        <v>13932.019794806693</v>
       </c>
       <c r="I208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>927.95065305377466</v>
       </c>
       <c r="J208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>12.977358145928275</v>
       </c>
       <c r="K208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>1319.42634053392</v>
       </c>
       <c r="L208" s="5">
-        <f t="shared" si="112"/>
-        <v>64022.995369895812</v>
+        <f t="shared" si="129"/>
+        <v>64027.318174965432</v>
       </c>
       <c r="M208" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>76.391711186017403</v>
       </c>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1900</v>
       </c>
       <c r="B209" s="5">
-        <f t="shared" ref="B209:M209" si="113">(B183+B184)/2</f>
+        <f t="shared" ref="B209:M209" si="130">(B183+B184)/2</f>
         <v>0.46500777604976673</v>
       </c>
       <c r="C209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>8469.0243250962631</v>
       </c>
       <c r="D209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>5197.5967014124471</v>
       </c>
       <c r="E209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>0.81217948717948718</v>
       </c>
       <c r="F209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>34943.08070550258</v>
       </c>
       <c r="G209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>7814.4253280905705</v>
       </c>
       <c r="H209" s="5">
-        <f t="shared" si="113"/>
-        <v>16110.436781536886</v>
+        <f t="shared" si="130"/>
+        <v>16115.437053860755</v>
       </c>
       <c r="I209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>598.46569403184617</v>
       </c>
       <c r="J209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>5.3699413017634239</v>
       </c>
       <c r="K209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>1325.4007544757317</v>
       </c>
       <c r="L209" s="5">
-        <f t="shared" si="113"/>
-        <v>74490.705605689844</v>
+        <f t="shared" si="130"/>
+        <v>74495.705878013716</v>
       </c>
       <c r="M209" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>25.62818697853487</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1901</v>
       </c>
       <c r="B210" s="5">
-        <f t="shared" ref="B210:M210" si="114">(B184+B185)/2</f>
+        <f t="shared" ref="B210:M210" si="131">(B184+B185)/2</f>
         <v>0</v>
       </c>
       <c r="C210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>8973.4513332944698</v>
       </c>
       <c r="D210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>6707.4153211003968</v>
       </c>
       <c r="E210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="F210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>35333.827747715681</v>
       </c>
       <c r="G210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>7682.6985478767092</v>
       </c>
       <c r="H210" s="5">
-        <f t="shared" si="114"/>
-        <v>20271.856938477817</v>
+        <f t="shared" si="131"/>
+        <v>20278.148810422535</v>
       </c>
       <c r="I210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>720.46062396910713</v>
       </c>
       <c r="J210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>5.3699413017634239</v>
       </c>
       <c r="K210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>1264.7374744511835</v>
       </c>
       <c r="L210" s="5">
-        <f t="shared" si="114"/>
-        <v>80965.73212518217</v>
+        <f t="shared" si="131"/>
+        <v>80972.023997126889</v>
       </c>
       <c r="M210" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>5.9141969950465088</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1902</v>
       </c>
       <c r="B211" s="5">
-        <f t="shared" ref="B211:M211" si="115">(B185+B186)/2</f>
+        <f t="shared" ref="B211:M211" si="132">(B185+B186)/2</f>
         <v>0</v>
       </c>
       <c r="C211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>12292.347481334951</v>
       </c>
       <c r="D211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>8996.9680165369937</v>
       </c>
       <c r="E211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="F211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>40027.003899039293</v>
       </c>
       <c r="G211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>9979.735414028346</v>
       </c>
       <c r="H211" s="5">
-        <f t="shared" si="115"/>
-        <v>26892.980848715823</v>
+        <f t="shared" si="132"/>
+        <v>26901.327750147957</v>
       </c>
       <c r="I211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>1677.3480798112346</v>
       </c>
       <c r="J211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>10.739882603526848</v>
       </c>
       <c r="K211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>1515.6628600072686</v>
       </c>
       <c r="L211" s="5">
-        <f t="shared" si="115"/>
-        <v>101398.45425419768</v>
+        <f t="shared" si="132"/>
+        <v>101406.80115562982</v>
       </c>
       <c r="M211" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>5.6677721202529039</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1903</v>
       </c>
       <c r="B212" s="5">
-        <f t="shared" ref="B212:M212" si="116">(B186+B187)/2</f>
+        <f t="shared" ref="B212:M212" si="133">(B186+B187)/2</f>
         <v>7.9051321928460343</v>
       </c>
       <c r="C212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>10869.479064632465</v>
       </c>
       <c r="D212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>8328.3543215044974</v>
       </c>
       <c r="E212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>1.2182692307692307</v>
       </c>
       <c r="F212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>58604.101002962387</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>11097.367598948429</v>
       </c>
       <c r="H212" s="5">
-        <f t="shared" si="116"/>
-        <v>26423.314448399044</v>
+        <f t="shared" si="133"/>
+        <v>26431.515577253143</v>
       </c>
       <c r="I212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>2456.9976185747</v>
       </c>
       <c r="J212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>88.156536370616209</v>
       </c>
       <c r="K212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>1122.270680454139</v>
       </c>
       <c r="L212" s="5">
-        <f t="shared" si="116"/>
-        <v>119036.62125423852</v>
+        <f t="shared" si="133"/>
+        <v>119044.82238309261</v>
       </c>
       <c r="M212" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>37.45658096862789</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1904</v>
       </c>
       <c r="B213" s="5">
-        <f t="shared" ref="B213:M213" si="117">(B187+B188)/2</f>
+        <f t="shared" ref="B213:M213" si="134">(B187+B188)/2</f>
         <v>12.555209953343702</v>
       </c>
       <c r="C213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>10076.485149578526</v>
       </c>
       <c r="D213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>6549.0096719943958</v>
       </c>
       <c r="E213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>3.2487179487179487</v>
       </c>
       <c r="F213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>79521.468715397728</v>
       </c>
       <c r="G213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>12418.31720550295</v>
       </c>
       <c r="H213" s="5">
-        <f t="shared" si="117"/>
-        <v>29235.451179156909</v>
+        <f t="shared" si="134"/>
+        <v>29244.525124164687</v>
       </c>
       <c r="I213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>2362.6241822081397</v>
       </c>
       <c r="J213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>157.07078307658014</v>
       </c>
       <c r="K213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>717.3892433206023</v>
       </c>
       <c r="L213" s="5">
-        <f t="shared" si="117"/>
-        <v>141107.58710571768</v>
+        <f t="shared" si="134"/>
+        <v>141116.66105072547</v>
       </c>
       <c r="M213" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>53.967047579799399</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1905</v>
       </c>
       <c r="B214" s="5">
-        <f t="shared" ref="B214:M214" si="118">(B188+B189)/2</f>
+        <f t="shared" ref="B214:M214" si="135">(B188+B189)/2</f>
         <v>65.101088646967341</v>
       </c>
       <c r="C214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>11351.302920857639</v>
       </c>
       <c r="D214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>8038.9684789586081</v>
       </c>
       <c r="E214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>8.1217948717948723</v>
       </c>
       <c r="F214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>101838.5063718563</v>
       </c>
       <c r="G214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>12823.31569125364</v>
       </c>
       <c r="H214" s="5">
-        <f t="shared" si="118"/>
-        <v>34227.763220589615</v>
+        <f t="shared" si="135"/>
+        <v>34238.386653055204</v>
       </c>
       <c r="I214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>2814.7617257761553</v>
       </c>
       <c r="J214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>195.55536240588469</v>
       </c>
       <c r="K214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>747.72088333287638</v>
       </c>
       <c r="L214" s="5">
-        <f t="shared" si="118"/>
-        <v>172172.47733237309</v>
+        <f t="shared" si="135"/>
+        <v>172183.10076483869</v>
       </c>
       <c r="M214" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>61.359793823607532</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1906</v>
       </c>
       <c r="B215" s="5">
-        <f t="shared" ref="B215:M215" si="119">(B189+B190)/2</f>
+        <f t="shared" ref="B215:M215" si="136">(B189+B190)/2</f>
         <v>219.01866251944011</v>
       </c>
       <c r="C215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>10462.245609918304</v>
       </c>
       <c r="D215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>11234.506916744755</v>
       </c>
       <c r="E215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>24.771474358974359</v>
       </c>
       <c r="F215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>112388.20855108049</v>
       </c>
       <c r="G215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>15753.213827563171</v>
       </c>
       <c r="H215" s="5">
-        <f t="shared" si="119"/>
-        <v>43715.610674102798</v>
+        <f t="shared" si="136"/>
+        <v>43729.178894576202</v>
       </c>
       <c r="I215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>7026.0530133947568</v>
       </c>
       <c r="J215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>183.0254993684367</v>
       </c>
       <c r="K215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>1081.3689234678905</v>
       </c>
       <c r="L215" s="5">
-        <f t="shared" si="119"/>
-        <v>202190.53590043317</v>
+        <f t="shared" si="136"/>
+        <v>202204.10412090656</v>
       </c>
       <c r="M215" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>102.51274791413948</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1907</v>
       </c>
       <c r="B216" s="5">
-        <f t="shared" ref="B216:M216" si="120">(B190+B191)/2</f>
+        <f t="shared" ref="B216:M216" si="137">(B190+B191)/2</f>
         <v>185.06765163297044</v>
       </c>
       <c r="C216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>6862.7284647681427</v>
       </c>
       <c r="D216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>11174.554178951945</v>
       </c>
       <c r="E216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>27.180128205128206</v>
       </c>
       <c r="F216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>87053.139587588521</v>
       </c>
       <c r="G216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>15143.916595919545</v>
       </c>
       <c r="H216" s="5">
-        <f t="shared" si="120"/>
-        <v>36668.56983148471</v>
+        <f t="shared" si="137"/>
+        <v>36676.884326376487</v>
       </c>
       <c r="I216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>10133.187191484751</v>
       </c>
       <c r="J216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>60.624266272042803</v>
       </c>
       <c r="K216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>843.75154935424268</v>
       </c>
       <c r="L216" s="5">
-        <f t="shared" si="120"/>
-        <v>168200.07923948561</v>
+        <f t="shared" si="137"/>
+        <v>168208.3937343774</v>
       </c>
       <c r="M216" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>47.359793823607525</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1908</v>
       </c>
       <c r="B217" s="5">
-        <f t="shared" ref="B217:M217" si="121">(B191+B192)/2</f>
+        <f t="shared" ref="B217:M217" si="138">(B191+B192)/2</f>
         <v>51</v>
       </c>
       <c r="C217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>6555</v>
       </c>
       <c r="D217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>8522</v>
       </c>
       <c r="E217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>10</v>
       </c>
       <c r="F217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>50850</v>
       </c>
       <c r="G217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>11319.5</v>
       </c>
       <c r="H217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>24554.5</v>
       </c>
       <c r="I217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>7484</v>
       </c>
       <c r="J217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>13.5</v>
       </c>
       <c r="K217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>468</v>
       </c>
       <c r="L217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>109843.5</v>
       </c>
       <c r="M217" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1909</v>
       </c>
       <c r="B218" s="5">
-        <f t="shared" ref="B218:M218" si="122">(B192+B193)/2</f>
+        <f t="shared" ref="B218:M218" si="139">(B192+B193)/2</f>
         <v>48.5</v>
       </c>
       <c r="C218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>12237</v>
       </c>
       <c r="D218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>8478</v>
       </c>
       <c r="E218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>1.5</v>
       </c>
       <c r="F218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>45845</v>
       </c>
       <c r="G218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>16281</v>
       </c>
       <c r="H218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>43139.5</v>
       </c>
       <c r="I218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>7912.5</v>
       </c>
       <c r="J218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>52</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>963</v>
       </c>
       <c r="L218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>135091.5</v>
       </c>
       <c r="M218" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>133.5</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1910</v>
       </c>
       <c r="B219" s="5">
-        <f t="shared" ref="B219:M219" si="123">(B193+B194)/2</f>
-        <v>94.399421693892151</v>
+        <f t="shared" ref="B219:M219" si="140">(B193+B194)/2</f>
+        <v>94.396165924924091</v>
       </c>
       <c r="C219" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>9515</v>
       </c>
       <c r="D219" s="5">
-        <f t="shared" si="123"/>
-        <v>8895.0485614457029</v>
+        <f t="shared" si="140"/>
+        <v>8894.9026765278468</v>
       </c>
       <c r="E219" s="5">
-        <f t="shared" si="123"/>
-        <v>11.632332694511922</v>
+        <f t="shared" si="140"/>
+        <v>11.630665641269626</v>
       </c>
       <c r="F219" s="5">
-        <f t="shared" si="123"/>
-        <v>58791.688385911897</v>
+        <f t="shared" si="140"/>
+        <v>58790.404343458358</v>
       </c>
       <c r="G219" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>16845.5</v>
       </c>
       <c r="H219" s="5">
-        <f t="shared" si="123"/>
-        <v>42905.327082521879</v>
+        <f t="shared" si="140"/>
+        <v>42906.854128771796</v>
       </c>
       <c r="I219" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>12144</v>
       </c>
       <c r="J219" s="5">
-        <f t="shared" si="123"/>
-        <v>119.16388569449653</v>
+        <f t="shared" si="140"/>
+        <v>119.15758636561263</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="123"/>
-        <v>1021.9228570829296</v>
+        <f t="shared" si="140"/>
+        <v>1021.9047910918845</v>
       </c>
       <c r="L219" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>150549</v>
       </c>
       <c r="M219" s="5">
-        <f t="shared" si="123"/>
-        <v>205.31747295469046</v>
+        <f t="shared" si="140"/>
+        <v>205.24964221830837</v>
       </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1911</v>
       </c>
       <c r="B220" s="5">
-        <f t="shared" ref="B220:M220" si="124">(B194+B195)/2</f>
-        <v>186.39942169389215</v>
+        <f t="shared" ref="B220:M220" si="141">(B194+B195)/2</f>
+        <v>186.39616592492411</v>
       </c>
       <c r="C220" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>4001</v>
       </c>
       <c r="D220" s="5">
-        <f t="shared" si="124"/>
-        <v>9394.5485614457029</v>
+        <f t="shared" si="141"/>
+        <v>9394.4026765278468</v>
       </c>
       <c r="E220" s="5">
-        <f t="shared" si="124"/>
-        <v>14.632332694511922</v>
+        <f t="shared" si="141"/>
+        <v>14.630665641269626</v>
       </c>
       <c r="F220" s="5">
-        <f t="shared" si="124"/>
-        <v>57497.688385911897</v>
+        <f t="shared" si="141"/>
+        <v>57496.404343458358</v>
       </c>
       <c r="G220" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>11712</v>
       </c>
       <c r="H220" s="5">
-        <f t="shared" si="124"/>
-        <v>32711.827082521879</v>
+        <f t="shared" si="141"/>
+        <v>32713.354128771796</v>
       </c>
       <c r="I220" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>13352.5</v>
       </c>
       <c r="J220" s="5">
-        <f t="shared" si="124"/>
-        <v>212.66388569449651</v>
+        <f t="shared" si="141"/>
+        <v>212.65758636561264</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="124"/>
-        <v>511.42285708292957</v>
+        <f t="shared" si="141"/>
+        <v>511.40479109188448</v>
       </c>
       <c r="L220" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>129691</v>
       </c>
       <c r="M220" s="5">
-        <f t="shared" si="124"/>
-        <v>96.317472954690444</v>
+        <f t="shared" si="141"/>
+        <v>96.249642218308367</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1912</v>
       </c>
       <c r="B221" s="5">
-        <f t="shared" ref="B221:M221" si="125">(B195+B196)/2</f>
-        <v>557.08487711503915</v>
+        <f t="shared" ref="B221:M221" si="142">(B195+B196)/2</f>
+        <v>557.07540213377047</v>
       </c>
       <c r="C221" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="142"/>
         <v>5691</v>
       </c>
       <c r="D221" s="5">
-        <f t="shared" si="125"/>
-        <v>13980.046464335532</v>
+        <f t="shared" si="142"/>
+        <v>13979.902060632536</v>
       </c>
       <c r="E221" s="5">
-        <f t="shared" si="125"/>
-        <v>16.81178916607724</v>
+        <f t="shared" si="142"/>
+        <v>16.810949943396153</v>
       </c>
       <c r="F221" s="5">
-        <f t="shared" si="125"/>
-        <v>62986.608704916078</v>
+        <f t="shared" si="142"/>
+        <v>62985.902137494857</v>
       </c>
       <c r="G221" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="142"/>
         <v>15120.5</v>
       </c>
       <c r="H221" s="5">
-        <f t="shared" si="125"/>
-        <v>68111.612402195155</v>
+        <f t="shared" si="142"/>
+        <v>68112.531366243784</v>
       </c>
       <c r="I221" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="142"/>
         <v>28053.5</v>
       </c>
       <c r="J221" s="5">
-        <f t="shared" si="125"/>
-        <v>638.71718411872587</v>
+        <f t="shared" si="142"/>
+        <v>638.70038652865355</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="125"/>
-        <v>608.29016280517521</v>
+        <f t="shared" si="142"/>
+        <v>608.27942023324681</v>
       </c>
       <c r="L221" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="142"/>
         <v>195915.5</v>
       </c>
       <c r="M221" s="5">
-        <f t="shared" si="125"/>
-        <v>151.32841534821242</v>
+        <f t="shared" si="142"/>
+        <v>151.29827678975519</v>
       </c>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1913</v>
       </c>
       <c r="B222" s="5">
-        <f t="shared" ref="B222:M222" si="126">(B196+B197)/2</f>
-        <v>848.08487711503915</v>
+        <f t="shared" ref="B222:M222" si="143">(B196+B197)/2</f>
+        <v>848.07540213377047</v>
       </c>
       <c r="C222" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>8409.5</v>
       </c>
       <c r="D222" s="5">
-        <f t="shared" si="126"/>
-        <v>13263.046464335532</v>
+        <f t="shared" si="143"/>
+        <v>13262.902060632536</v>
       </c>
       <c r="E222" s="5">
-        <f t="shared" si="126"/>
-        <v>42.81178916607724</v>
+        <f t="shared" si="143"/>
+        <v>42.810949943396153</v>
       </c>
       <c r="F222" s="5">
-        <f t="shared" si="126"/>
-        <v>85248.108704916085</v>
+        <f t="shared" si="143"/>
+        <v>85247.40213749485</v>
       </c>
       <c r="G222" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>17962.5</v>
       </c>
       <c r="H222" s="5">
-        <f t="shared" si="126"/>
-        <v>73589.612402195155</v>
+        <f t="shared" si="143"/>
+        <v>73590.531366243784</v>
       </c>
       <c r="I222" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>33841.5</v>
       </c>
       <c r="J222" s="5">
-        <f t="shared" si="126"/>
-        <v>1751.217184118726</v>
+        <f t="shared" si="143"/>
+        <v>1751.2003865286536</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="126"/>
-        <v>788.29016280517521</v>
+        <f t="shared" si="143"/>
+        <v>788.27942023324681</v>
       </c>
       <c r="L222" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>236163</v>
       </c>
       <c r="M222" s="5">
-        <f t="shared" si="126"/>
-        <v>418.32841534821239</v>
+        <f t="shared" si="143"/>
+        <v>418.29827678975516</v>
       </c>
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1914</v>
       </c>
       <c r="B223" s="5">
-        <f t="shared" ref="B223:M223" si="127">(B197+B198)/2</f>
+        <f t="shared" ref="B223:M223" si="144">(B197+B198)/2</f>
         <v>319</v>
       </c>
       <c r="C223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>4819.5</v>
       </c>
       <c r="D223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>4908</v>
       </c>
       <c r="E223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>35</v>
       </c>
       <c r="F223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>56043.5</v>
       </c>
       <c r="G223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>8290.5</v>
       </c>
       <c r="H223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>23645.5</v>
       </c>
       <c r="I223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>8033.5</v>
       </c>
       <c r="J223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>1297</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>401.5</v>
       </c>
       <c r="L223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>108049.5</v>
       </c>
       <c r="M223" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="144"/>
         <v>256.5</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1915</v>
       </c>
       <c r="B224" s="5">
-        <f t="shared" ref="B224:M224" si="128">(B198+B199)/2</f>
+        <f t="shared" ref="B224:M224" si="145">(B198+B199)/2</f>
         <v>-243</v>
       </c>
       <c r="C224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>2189</v>
       </c>
       <c r="D224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>390.5</v>
       </c>
       <c r="E224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>7</v>
       </c>
       <c r="F224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>7858</v>
       </c>
       <c r="G224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>681.5</v>
       </c>
       <c r="H224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>-80</v>
       </c>
       <c r="I224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>-5775.5</v>
       </c>
       <c r="J224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>60</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>172</v>
       </c>
       <c r="L224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>5236.5</v>
       </c>
       <c r="M224" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>-23</v>
       </c>
     </row>
@@ -12824,52 +12863,52 @@
         <v>1916</v>
       </c>
       <c r="B225" s="5">
-        <f t="shared" ref="B225:M225" si="129">(B199+B200)/2</f>
-        <v>-94.034567429405797</v>
+        <f t="shared" ref="B225:M225" si="146">(B199+B200)/2</f>
+        <v>-93.696354169356269</v>
       </c>
       <c r="C225" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>2972</v>
       </c>
       <c r="D225" s="5">
-        <f t="shared" si="129"/>
-        <v>43.780501943781388</v>
+        <f t="shared" si="146"/>
+        <v>43.879853201102875</v>
       </c>
       <c r="E225" s="5">
-        <f t="shared" si="129"/>
-        <v>9.2129226259980008</v>
+        <f t="shared" si="146"/>
+        <v>9.3098591789508376</v>
       </c>
       <c r="F225" s="5">
-        <f t="shared" si="129"/>
-        <v>5019.2552685765831</v>
+        <f t="shared" si="146"/>
+        <v>5039.7027566889674</v>
       </c>
       <c r="G225" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>72.5</v>
       </c>
       <c r="H225" s="5">
-        <f t="shared" si="129"/>
-        <v>360.26030291351822</v>
+        <f t="shared" si="146"/>
+        <v>334.75737655721946</v>
       </c>
       <c r="I225" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>-4233.5</v>
       </c>
       <c r="J225" s="5">
-        <f t="shared" si="129"/>
-        <v>5.4652270886249443</v>
+        <f t="shared" si="146"/>
+        <v>5.4997160142918098</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="129"/>
-        <v>403.81072744685247</v>
+        <f t="shared" si="146"/>
+        <v>405.53693789770119</v>
       </c>
       <c r="L225" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>4676</v>
       </c>
       <c r="M225" s="5">
-        <f t="shared" si="129"/>
-        <v>117.2496168340474</v>
+        <f t="shared" si="146"/>
+        <v>120.00985463112247</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -12878,51 +12917,51 @@
       </c>
       <c r="B226" s="5">
         <f>SUM(B205:B225)</f>
-        <v>2258.3672883912991</v>
+        <v>2258.6800401508754</v>
       </c>
       <c r="C226" s="5">
-        <f t="shared" ref="C226:M226" si="130">SUM(C205:C225)</f>
+        <f t="shared" ref="C226:M226" si="147">SUM(C205:C225)</f>
         <v>153233.88762800611</v>
       </c>
       <c r="D226" s="5">
-        <f t="shared" si="130"/>
-        <v>147641.84782948293</v>
+        <f t="shared" si="147"/>
+        <v>147641.36660349855</v>
       </c>
       <c r="E226" s="5">
-        <f t="shared" si="130"/>
-        <v>216.50945431331309</v>
+        <f t="shared" si="147"/>
+        <v>216.60137831441918</v>
       </c>
       <c r="F226" s="5">
-        <f t="shared" si="130"/>
-        <v>1055286.7911057975</v>
+        <f t="shared" si="147"/>
+        <v>1055303.2573741605</v>
       </c>
       <c r="G226" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="147"/>
         <v>208918.27769395427</v>
       </c>
       <c r="H226" s="5">
-        <f t="shared" si="130"/>
-        <v>578758.90631016297</v>
+        <f t="shared" si="147"/>
+        <v>578818.97444749181</v>
       </c>
       <c r="I226" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="147"/>
         <v>130949.29153207384</v>
       </c>
       <c r="J226" s="5">
-        <f t="shared" si="130"/>
-        <v>4895.6207769531356</v>
+        <f t="shared" si="147"/>
+        <v>4895.6090720408902</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="130"/>
-        <v>17109.87424719855</v>
+        <f t="shared" si="147"/>
+        <v>17111.542840523452</v>
       </c>
       <c r="L226" s="5">
-        <f t="shared" si="130"/>
-        <v>2301173.2950178627</v>
+        <f t="shared" si="147"/>
+        <v>2301253.9740609508</v>
       </c>
       <c r="M226" s="5">
-        <f t="shared" si="130"/>
-        <v>1903.9211515283757</v>
+        <f t="shared" si="147"/>
+        <v>1906.4854507357722</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -12931,51 +12970,51 @@
       </c>
       <c r="B227" s="5">
         <f>100*B226/$L226</f>
-        <v>9.8139818208422616E-2</v>
+        <v>9.8149968043946642E-2</v>
       </c>
       <c r="C227" s="28">
-        <f t="shared" ref="C227:M227" si="131">100*C226/$L226</f>
-        <v>6.6589460237420601</v>
+        <f t="shared" ref="C227:M227" si="148">100*C226/$L226</f>
+        <v>6.658712569547423</v>
       </c>
       <c r="D227" s="28">
-        <f t="shared" si="131"/>
-        <v>6.4159378239411069</v>
+        <f t="shared" si="148"/>
+        <v>6.4156919778376507</v>
       </c>
       <c r="E227" s="28">
-        <f t="shared" si="131"/>
-        <v>9.4086549145197002E-3</v>
+        <f t="shared" si="148"/>
+        <v>9.4123195768865738E-3</v>
       </c>
       <c r="F227" s="28">
-        <f t="shared" si="131"/>
-        <v>45.858640606969409</v>
+        <f t="shared" si="148"/>
+        <v>45.857748395840893</v>
       </c>
       <c r="G227" s="28">
-        <f t="shared" si="131"/>
-        <v>9.078772039736041</v>
+        <f t="shared" si="148"/>
+        <v>9.0784537495130415</v>
       </c>
       <c r="H227" s="28">
-        <f t="shared" si="131"/>
-        <v>25.150600676759133</v>
+        <f t="shared" si="148"/>
+        <v>25.152329163654549</v>
       </c>
       <c r="I227" s="28">
-        <f t="shared" si="131"/>
-        <v>5.6905445502772256</v>
+        <f t="shared" si="148"/>
+        <v>5.6903450470089458</v>
       </c>
       <c r="J227" s="28">
-        <f t="shared" si="131"/>
-        <v>0.21274455024975134</v>
+        <f t="shared" si="148"/>
+        <v>0.21273658306396151</v>
       </c>
       <c r="K227" s="28">
-        <f t="shared" si="131"/>
-        <v>0.74352828117039904</v>
+        <f t="shared" si="148"/>
+        <v>0.74357472201676411</v>
       </c>
       <c r="L227" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="148"/>
         <v>100</v>
       </c>
       <c r="M227" s="28">
-        <f t="shared" si="131"/>
-        <v>8.2736974031918639E-2</v>
+        <f t="shared" si="148"/>
+        <v>8.2845503895924058E-2</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -13950,18 +13989,18 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="G14" s="33" t="s">
+      <c r="E14" s="37"/>
+      <c r="G14" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="16" t="s">

--- a/rtss-pre1917/src/main/resources/emigration.xlsx
+++ b/rtss-pre1917/src/main/resources/emigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501EE18C-CC38-4D5B-813D-5F5224603F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E605727-6917-4389-B89A-A4EB64AB0A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64185" yWindow="930" windowWidth="30045" windowHeight="21915" activeTab="2" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
+    <workbookView xWindow="58260" yWindow="1125" windowWidth="30045" windowHeight="21915" activeTab="5" xr2:uid="{4A7477AA-BE08-4E7C-AEF1-FC3B0656E4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="189">
   <si>
     <t>Источник: ЦСК, "Ежегодник России" ("Статистический Ежегодник России")</t>
   </si>
@@ -500,9 +500,6 @@
     <t>Баланс чистой иммиграции (иммиграция минус реэмиграция) для фин. лет будет:</t>
   </si>
   <si>
-    <t>Баланс чистой иммиграции (иммиграция минус реэмиграция) для календарных лет:</t>
-  </si>
-  <si>
     <t>Эмиграция из России в различные страны вне Европы ТОЛЬКО через немецкие порты.</t>
   </si>
   <si>
@@ -604,6 +601,24 @@
   <si>
     <t>вместо 5947</t>
   </si>
+  <si>
+    <t>Баланс чистой иммиграции в США из России (иммиграция минус реэмиграция) для календарных лет:</t>
+  </si>
+  <si>
+    <t>Оценка эмиграционного баланса из России в другие, кроме США, страны:</t>
+  </si>
+  <si>
+    <t>Процент всей эмиграции из России направляющийся в США:</t>
+  </si>
+  <si>
+    <t>доб. процент</t>
+  </si>
+  <si>
+    <t>Поправка на иммиграцию в США через английский транзит:</t>
+  </si>
+  <si>
+    <t>Общий эмиграционный баланс из России:</t>
+  </si>
 </sst>
 </file>
 
@@ -682,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,6 +778,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1083,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E018E8-FFD2-476D-8A98-BDF34A70858D}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -2311,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54424CF4-C226-4A4F-8C1B-D8A2CB8D4757}">
-  <dimension ref="A1:AI230"/>
+  <dimension ref="A1:AI310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="R218" sqref="R218"/>
+    <sheetView topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="H319" sqref="H319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4712,7 +4730,7 @@
         <v>81</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -6396,13 +6414,13 @@
         <v>78</v>
       </c>
       <c r="P76" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q76" t="s">
         <v>180</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>181</v>
-      </c>
-      <c r="R76" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -6482,7 +6500,7 @@
         <v>8961.6344491243617</v>
       </c>
       <c r="S78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -7125,7 +7143,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -7367,7 +7385,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
@@ -7384,7 +7402,7 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -7503,7 +7521,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7547,10 +7565,10 @@
         <v>81</v>
       </c>
       <c r="O116" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P116" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8767,7 +8785,7 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -9011,7 +9029,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -10444,7 +10462,7 @@
         <v>81</v>
       </c>
       <c r="O178" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11735,7 +11753,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204" spans="1:15">
@@ -11778,6 +11796,9 @@
       <c r="M204" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="O204" s="11" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1">
@@ -11830,6 +11851,10 @@
       <c r="M205" s="5">
         <f t="shared" si="125"/>
         <v>27.831667794068927</v>
+      </c>
+      <c r="O205" s="5">
+        <f t="shared" ref="O205:O226" si="126">SUM(B205:K205) +M205 -L205</f>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:15">
@@ -11838,1080 +11863,1160 @@
         <v>1897</v>
       </c>
       <c r="B206" s="5">
-        <f t="shared" ref="B206:M206" si="126">(B180+B181)/2</f>
+        <f t="shared" ref="B206:M206" si="127">(B180+B181)/2</f>
         <v>0.12660753177867279</v>
       </c>
       <c r="C206" s="5">
+        <f t="shared" si="127"/>
+        <v>2926.1974703539927</v>
+      </c>
+      <c r="D206" s="5">
+        <f t="shared" si="127"/>
+        <v>2108.1741993263158</v>
+      </c>
+      <c r="E206" s="5">
+        <f t="shared" si="127"/>
+        <v>0.33169780871167004</v>
+      </c>
+      <c r="F206" s="5">
+        <f t="shared" si="127"/>
+        <v>12606.856015811412</v>
+      </c>
+      <c r="G206" s="5">
+        <f t="shared" si="127"/>
+        <v>2889.2658436110005</v>
+      </c>
+      <c r="H206" s="5">
+        <f t="shared" si="127"/>
+        <v>5936.003333680198</v>
+      </c>
+      <c r="I206" s="5">
+        <f t="shared" si="127"/>
+        <v>311.29481704104853</v>
+      </c>
+      <c r="J206" s="5">
+        <f t="shared" si="127"/>
+        <v>4.9954138780420028</v>
+      </c>
+      <c r="K206" s="5">
+        <f t="shared" si="127"/>
+        <v>487.4950749806784</v>
+      </c>
+      <c r="L206" s="5">
+        <f t="shared" si="127"/>
+        <v>27292.613127445617</v>
+      </c>
+      <c r="M206" s="5">
+        <f t="shared" si="127"/>
+        <v>21.872653422436628</v>
+      </c>
+      <c r="O206" s="5">
         <f t="shared" si="126"/>
-        <v>2926.1974703539927</v>
-      </c>
-      <c r="D206" s="5">
-        <f t="shared" si="126"/>
-        <v>2108.1741993263158</v>
-      </c>
-      <c r="E206" s="5">
-        <f t="shared" si="126"/>
-        <v>0.33169780871167004</v>
-      </c>
-      <c r="F206" s="5">
-        <f t="shared" si="126"/>
-        <v>12606.856015811412</v>
-      </c>
-      <c r="G206" s="5">
-        <f t="shared" si="126"/>
-        <v>2889.2658436110005</v>
-      </c>
-      <c r="H206" s="5">
-        <f t="shared" si="126"/>
-        <v>5936.003333680198</v>
-      </c>
-      <c r="I206" s="5">
-        <f t="shared" si="126"/>
-        <v>311.29481704104853</v>
-      </c>
-      <c r="J206" s="5">
-        <f t="shared" si="126"/>
-        <v>4.9954138780420028</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="126"/>
-        <v>487.4950749806784</v>
-      </c>
-      <c r="L206" s="5">
-        <f t="shared" si="126"/>
-        <v>27292.613127445617</v>
-      </c>
-      <c r="M206" s="5">
-        <f t="shared" si="126"/>
-        <v>21.872653422436628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1">
-        <f t="shared" ref="A207:A224" si="127">A206+1</f>
+        <f t="shared" ref="A207:A224" si="128">A206+1</f>
         <v>1898</v>
       </c>
       <c r="B207" s="5">
-        <f t="shared" ref="B207:M207" si="128">(B181+B182)/2</f>
+        <f t="shared" ref="B207:M207" si="129">(B181+B182)/2</f>
         <v>6.7789519688235211E-2</v>
       </c>
       <c r="C207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>3845.172761736269</v>
       </c>
       <c r="D207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>3674.146524016247</v>
       </c>
       <c r="E207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.58369082954655838</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>18109.835646462459</v>
       </c>
       <c r="G207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>4344.3539050058207</v>
       </c>
       <c r="H207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>8864.8028990464754</v>
       </c>
       <c r="I207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>711.54354765108474</v>
       </c>
       <c r="J207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>15.652054529934833</v>
       </c>
       <c r="K207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>726.10482332317792</v>
       </c>
       <c r="L207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>40358.68124760309</v>
       </c>
       <c r="M207" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>66.417605482383735</v>
+      </c>
+      <c r="O207" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1899</v>
       </c>
       <c r="B208" s="5">
-        <f t="shared" ref="B208:M208" si="129">(B182+B183)/2</f>
+        <f t="shared" ref="B208:M208" si="130">(B182+B183)/2</f>
         <v>0.46500777604976673</v>
       </c>
       <c r="C208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>6993.0385012571469</v>
       </c>
       <c r="D208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5074.6550035988339</v>
       </c>
       <c r="E208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1.2182692307692307</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>28679.429016853006</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>7009.7465185232923</v>
       </c>
       <c r="H208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>13932.019794806693</v>
       </c>
       <c r="I208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>927.95065305377466</v>
       </c>
       <c r="J208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>12.977358145928275</v>
       </c>
       <c r="K208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1319.42634053392</v>
       </c>
       <c r="L208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>64027.318174965432</v>
       </c>
       <c r="M208" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>76.391711186017403</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="O208" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
       <c r="A209" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1900</v>
       </c>
       <c r="B209" s="5">
-        <f t="shared" ref="B209:M209" si="130">(B183+B184)/2</f>
+        <f t="shared" ref="B209:M209" si="131">(B183+B184)/2</f>
         <v>0.46500777604976673</v>
       </c>
       <c r="C209" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>8469.0243250962631</v>
       </c>
       <c r="D209" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>5197.5967014124471</v>
       </c>
       <c r="E209" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.81217948717948718</v>
       </c>
       <c r="F209" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>34943.08070550258</v>
       </c>
       <c r="G209" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>7814.4253280905705</v>
       </c>
       <c r="H209" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>16115.437053860755</v>
       </c>
       <c r="I209" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>598.46569403184617</v>
       </c>
       <c r="J209" s="5">
-        <f t="shared" si="130"/>
-        <v>5.3699413017634239</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="130"/>
-        <v>1325.4007544757317</v>
-      </c>
-      <c r="L209" s="5">
-        <f t="shared" si="130"/>
-        <v>74495.705878013716</v>
-      </c>
-      <c r="M209" s="5">
-        <f t="shared" si="130"/>
-        <v>25.62818697853487</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
-      <c r="A210" s="1">
-        <f t="shared" si="127"/>
-        <v>1901</v>
-      </c>
-      <c r="B210" s="5">
-        <f t="shared" ref="B210:M210" si="131">(B184+B185)/2</f>
-        <v>0</v>
-      </c>
-      <c r="C210" s="5">
-        <f t="shared" si="131"/>
-        <v>8973.4513332944698</v>
-      </c>
-      <c r="D210" s="5">
-        <f t="shared" si="131"/>
-        <v>6707.4153211003968</v>
-      </c>
-      <c r="E210" s="5">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="F210" s="5">
-        <f t="shared" si="131"/>
-        <v>35333.827747715681</v>
-      </c>
-      <c r="G210" s="5">
-        <f t="shared" si="131"/>
-        <v>7682.6985478767092</v>
-      </c>
-      <c r="H210" s="5">
-        <f t="shared" si="131"/>
-        <v>20278.148810422535</v>
-      </c>
-      <c r="I210" s="5">
-        <f t="shared" si="131"/>
-        <v>720.46062396910713</v>
-      </c>
-      <c r="J210" s="5">
         <f t="shared" si="131"/>
         <v>5.3699413017634239</v>
       </c>
+      <c r="K209" s="5">
+        <f t="shared" si="131"/>
+        <v>1325.4007544757317</v>
+      </c>
+      <c r="L209" s="5">
+        <f t="shared" si="131"/>
+        <v>74495.705878013716</v>
+      </c>
+      <c r="M209" s="5">
+        <f t="shared" si="131"/>
+        <v>25.62818697853487</v>
+      </c>
+      <c r="O209" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210" s="1">
+        <f t="shared" si="128"/>
+        <v>1901</v>
+      </c>
+      <c r="B210" s="5">
+        <f t="shared" ref="B210:M210" si="132">(B184+B185)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C210" s="5">
+        <f t="shared" si="132"/>
+        <v>8973.4513332944698</v>
+      </c>
+      <c r="D210" s="5">
+        <f t="shared" si="132"/>
+        <v>6707.4153211003968</v>
+      </c>
+      <c r="E210" s="5">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="F210" s="5">
+        <f t="shared" si="132"/>
+        <v>35333.827747715681</v>
+      </c>
+      <c r="G210" s="5">
+        <f t="shared" si="132"/>
+        <v>7682.6985478767092</v>
+      </c>
+      <c r="H210" s="5">
+        <f t="shared" si="132"/>
+        <v>20278.148810422535</v>
+      </c>
+      <c r="I210" s="5">
+        <f t="shared" si="132"/>
+        <v>720.46062396910713</v>
+      </c>
+      <c r="J210" s="5">
+        <f t="shared" si="132"/>
+        <v>5.3699413017634239</v>
+      </c>
       <c r="K210" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1264.7374744511835</v>
       </c>
       <c r="L210" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>80972.023997126889</v>
       </c>
       <c r="M210" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>5.9141969950465088</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="O210" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
       <c r="A211" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1902</v>
       </c>
       <c r="B211" s="5">
-        <f t="shared" ref="B211:M211" si="132">(B185+B186)/2</f>
+        <f t="shared" ref="B211:M211" si="133">(B185+B186)/2</f>
         <v>0</v>
       </c>
       <c r="C211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>12292.347481334951</v>
       </c>
       <c r="D211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>8996.9680165369937</v>
       </c>
       <c r="E211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="F211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>40027.003899039293</v>
       </c>
       <c r="G211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>9979.735414028346</v>
       </c>
       <c r="H211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>26901.327750147957</v>
       </c>
       <c r="I211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1677.3480798112346</v>
       </c>
       <c r="J211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>10.739882603526848</v>
       </c>
       <c r="K211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1515.6628600072686</v>
       </c>
       <c r="L211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>101406.80115562982</v>
       </c>
       <c r="M211" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>5.6677721202529039</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="O211" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
       <c r="A212" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1903</v>
       </c>
       <c r="B212" s="5">
-        <f t="shared" ref="B212:M212" si="133">(B186+B187)/2</f>
+        <f t="shared" ref="B212:M212" si="134">(B186+B187)/2</f>
         <v>7.9051321928460343</v>
       </c>
       <c r="C212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>10869.479064632465</v>
       </c>
       <c r="D212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>8328.3543215044974</v>
       </c>
       <c r="E212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1.2182692307692307</v>
       </c>
       <c r="F212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>58604.101002962387</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>11097.367598948429</v>
       </c>
       <c r="H212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>26431.515577253143</v>
       </c>
       <c r="I212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>2456.9976185747</v>
       </c>
       <c r="J212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>88.156536370616209</v>
       </c>
       <c r="K212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1122.270680454139</v>
       </c>
       <c r="L212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>119044.82238309261</v>
       </c>
       <c r="M212" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>37.45658096862789</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="O212" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
       <c r="A213" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1904</v>
       </c>
       <c r="B213" s="5">
-        <f t="shared" ref="B213:M213" si="134">(B187+B188)/2</f>
+        <f t="shared" ref="B213:M213" si="135">(B187+B188)/2</f>
         <v>12.555209953343702</v>
       </c>
       <c r="C213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>10076.485149578526</v>
       </c>
       <c r="D213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>6549.0096719943958</v>
       </c>
       <c r="E213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>3.2487179487179487</v>
       </c>
       <c r="F213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>79521.468715397728</v>
       </c>
       <c r="G213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>12418.31720550295</v>
       </c>
       <c r="H213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>29244.525124164687</v>
       </c>
       <c r="I213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>2362.6241822081397</v>
       </c>
       <c r="J213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>157.07078307658014</v>
       </c>
       <c r="K213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>717.3892433206023</v>
       </c>
       <c r="L213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>141116.66105072547</v>
       </c>
       <c r="M213" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>53.967047579799399</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="O213" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
       <c r="A214" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1905</v>
       </c>
       <c r="B214" s="5">
-        <f t="shared" ref="B214:M214" si="135">(B188+B189)/2</f>
+        <f t="shared" ref="B214:M214" si="136">(B188+B189)/2</f>
         <v>65.101088646967341</v>
       </c>
       <c r="C214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>11351.302920857639</v>
       </c>
       <c r="D214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>8038.9684789586081</v>
       </c>
       <c r="E214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>8.1217948717948723</v>
       </c>
       <c r="F214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>101838.5063718563</v>
       </c>
       <c r="G214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>12823.31569125364</v>
       </c>
       <c r="H214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>34238.386653055204</v>
       </c>
       <c r="I214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>2814.7617257761553</v>
       </c>
       <c r="J214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>195.55536240588469</v>
       </c>
       <c r="K214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>747.72088333287638</v>
       </c>
       <c r="L214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>172183.10076483869</v>
       </c>
       <c r="M214" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>61.359793823607532</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="O214" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
       <c r="A215" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1906</v>
       </c>
       <c r="B215" s="5">
-        <f t="shared" ref="B215:M215" si="136">(B189+B190)/2</f>
+        <f t="shared" ref="B215:M215" si="137">(B189+B190)/2</f>
         <v>219.01866251944011</v>
       </c>
       <c r="C215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>10462.245609918304</v>
       </c>
       <c r="D215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>11234.506916744755</v>
       </c>
       <c r="E215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>24.771474358974359</v>
       </c>
       <c r="F215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>112388.20855108049</v>
       </c>
       <c r="G215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>15753.213827563171</v>
       </c>
       <c r="H215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>43729.178894576202</v>
       </c>
       <c r="I215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>7026.0530133947568</v>
       </c>
       <c r="J215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>183.0254993684367</v>
       </c>
       <c r="K215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1081.3689234678905</v>
       </c>
       <c r="L215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>202204.10412090656</v>
       </c>
       <c r="M215" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>102.51274791413948</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="O215" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
       <c r="A216" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1907</v>
       </c>
       <c r="B216" s="5">
-        <f t="shared" ref="B216:M216" si="137">(B190+B191)/2</f>
+        <f t="shared" ref="B216:M216" si="138">(B190+B191)/2</f>
         <v>185.06765163297044</v>
       </c>
       <c r="C216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>6862.7284647681427</v>
       </c>
       <c r="D216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>11174.554178951945</v>
       </c>
       <c r="E216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>27.180128205128206</v>
       </c>
       <c r="F216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>87053.139587588521</v>
       </c>
       <c r="G216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>15143.916595919545</v>
       </c>
       <c r="H216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>36676.884326376487</v>
       </c>
       <c r="I216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>10133.187191484751</v>
       </c>
       <c r="J216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>60.624266272042803</v>
       </c>
       <c r="K216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>843.75154935424268</v>
       </c>
       <c r="L216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>168208.3937343774</v>
       </c>
       <c r="M216" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>47.359793823607525</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="O216" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
       <c r="A217" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1908</v>
       </c>
       <c r="B217" s="5">
-        <f t="shared" ref="B217:M217" si="138">(B191+B192)/2</f>
+        <f t="shared" ref="B217:M217" si="139">(B191+B192)/2</f>
         <v>51</v>
       </c>
       <c r="C217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>6555</v>
       </c>
       <c r="D217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>8522</v>
       </c>
       <c r="E217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>10</v>
       </c>
       <c r="F217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>50850</v>
       </c>
       <c r="G217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>11319.5</v>
       </c>
       <c r="H217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>24554.5</v>
       </c>
       <c r="I217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>7484</v>
       </c>
       <c r="J217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>13.5</v>
       </c>
       <c r="K217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>468</v>
       </c>
       <c r="L217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>109843.5</v>
       </c>
       <c r="M217" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="O217" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
       <c r="A218" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1909</v>
       </c>
       <c r="B218" s="5">
-        <f t="shared" ref="B218:M218" si="139">(B192+B193)/2</f>
+        <f t="shared" ref="B218:M218" si="140">(B192+B193)/2</f>
         <v>48.5</v>
       </c>
       <c r="C218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>12237</v>
       </c>
       <c r="D218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>8478</v>
       </c>
       <c r="E218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1.5</v>
       </c>
       <c r="F218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>45845</v>
       </c>
       <c r="G218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>16281</v>
       </c>
       <c r="H218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>43139.5</v>
       </c>
       <c r="I218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>7912.5</v>
       </c>
       <c r="J218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>52</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>963</v>
       </c>
       <c r="L218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>135091.5</v>
       </c>
       <c r="M218" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>133.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="O218" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
       <c r="A219" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1910</v>
       </c>
       <c r="B219" s="5">
-        <f t="shared" ref="B219:M219" si="140">(B193+B194)/2</f>
+        <f t="shared" ref="B219:M219" si="141">(B193+B194)/2</f>
         <v>94.396165924924091</v>
       </c>
       <c r="C219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>9515</v>
       </c>
       <c r="D219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>8894.9026765278468</v>
       </c>
       <c r="E219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>11.630665641269626</v>
       </c>
       <c r="F219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>58790.404343458358</v>
       </c>
       <c r="G219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>16845.5</v>
       </c>
       <c r="H219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>42906.854128771796</v>
       </c>
       <c r="I219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>12144</v>
       </c>
       <c r="J219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>119.15758636561263</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1021.9047910918845</v>
       </c>
       <c r="L219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>150549</v>
       </c>
       <c r="M219" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>205.24964221830837</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="O219" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1911</v>
       </c>
       <c r="B220" s="5">
-        <f t="shared" ref="B220:M220" si="141">(B194+B195)/2</f>
+        <f t="shared" ref="B220:M220" si="142">(B194+B195)/2</f>
         <v>186.39616592492411</v>
       </c>
       <c r="C220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>4001</v>
       </c>
       <c r="D220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9394.4026765278468</v>
       </c>
       <c r="E220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>14.630665641269626</v>
       </c>
       <c r="F220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>57496.404343458358</v>
       </c>
       <c r="G220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>11712</v>
       </c>
       <c r="H220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>32713.354128771796</v>
       </c>
       <c r="I220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>13352.5</v>
       </c>
       <c r="J220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>212.65758636561264</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>511.40479109188448</v>
       </c>
       <c r="L220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>129691</v>
       </c>
       <c r="M220" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>96.249642218308367</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="O220" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
       <c r="A221" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1912</v>
       </c>
       <c r="B221" s="5">
-        <f t="shared" ref="B221:M221" si="142">(B195+B196)/2</f>
+        <f t="shared" ref="B221:M221" si="143">(B195+B196)/2</f>
         <v>557.07540213377047</v>
       </c>
       <c r="C221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5691</v>
       </c>
       <c r="D221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>13979.902060632536</v>
       </c>
       <c r="E221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>16.810949943396153</v>
       </c>
       <c r="F221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>62985.902137494857</v>
       </c>
       <c r="G221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>15120.5</v>
       </c>
       <c r="H221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>68112.531366243784</v>
       </c>
       <c r="I221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>28053.5</v>
       </c>
       <c r="J221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>638.70038652865355</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>608.27942023324681</v>
       </c>
       <c r="L221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>195915.5</v>
       </c>
       <c r="M221" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>151.29827678975519</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="O221" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
       <c r="A222" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1913</v>
       </c>
       <c r="B222" s="5">
-        <f t="shared" ref="B222:M222" si="143">(B196+B197)/2</f>
+        <f t="shared" ref="B222:M222" si="144">(B196+B197)/2</f>
         <v>848.07540213377047</v>
       </c>
       <c r="C222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>8409.5</v>
       </c>
       <c r="D222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>13262.902060632536</v>
       </c>
       <c r="E222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>42.810949943396153</v>
       </c>
       <c r="F222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>85247.40213749485</v>
       </c>
       <c r="G222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>17962.5</v>
       </c>
       <c r="H222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>73590.531366243784</v>
       </c>
       <c r="I222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>33841.5</v>
       </c>
       <c r="J222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1751.2003865286536</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>788.27942023324681</v>
       </c>
       <c r="L222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>236163</v>
       </c>
       <c r="M222" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>418.29827678975516</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="O222" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
       <c r="A223" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1914</v>
       </c>
       <c r="B223" s="5">
-        <f t="shared" ref="B223:M223" si="144">(B197+B198)/2</f>
+        <f t="shared" ref="B223:M223" si="145">(B197+B198)/2</f>
         <v>319</v>
       </c>
       <c r="C223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>4819.5</v>
       </c>
       <c r="D223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>4908</v>
       </c>
       <c r="E223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>35</v>
       </c>
       <c r="F223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>56043.5</v>
       </c>
       <c r="G223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>8290.5</v>
       </c>
       <c r="H223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>23645.5</v>
       </c>
       <c r="I223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>8033.5</v>
       </c>
       <c r="J223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>1297</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>401.5</v>
       </c>
       <c r="L223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>108049.5</v>
       </c>
       <c r="M223" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>256.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="O223" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
       <c r="A224" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1915</v>
       </c>
       <c r="B224" s="5">
-        <f t="shared" ref="B224:M224" si="145">(B198+B199)/2</f>
+        <f t="shared" ref="B224:M224" si="146">(B198+B199)/2</f>
         <v>-243</v>
       </c>
       <c r="C224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>2189</v>
       </c>
       <c r="D224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>390.5</v>
       </c>
       <c r="E224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>7</v>
       </c>
       <c r="F224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>7858</v>
       </c>
       <c r="G224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>681.5</v>
       </c>
       <c r="H224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>-80</v>
       </c>
       <c r="I224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>-5775.5</v>
       </c>
       <c r="J224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>60</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>172</v>
       </c>
       <c r="L224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>5236.5</v>
       </c>
       <c r="M224" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>-23</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="O224" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
       <c r="A225" s="1">
         <v>1916</v>
       </c>
       <c r="B225" s="5">
-        <f t="shared" ref="B225:M225" si="146">(B199+B200)/2</f>
+        <f t="shared" ref="B225:M225" si="147">(B199+B200)/2</f>
         <v>-93.696354169356269</v>
       </c>
       <c r="C225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>2972</v>
       </c>
       <c r="D225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>43.879853201102875</v>
       </c>
       <c r="E225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>9.3098591789508376</v>
       </c>
       <c r="F225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>5039.7027566889674</v>
       </c>
       <c r="G225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>72.5</v>
       </c>
       <c r="H225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>334.75737655721946</v>
       </c>
       <c r="I225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-4233.5</v>
       </c>
       <c r="J225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>5.4997160142918098</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>405.53693789770119</v>
       </c>
       <c r="L225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>4676</v>
       </c>
       <c r="M225" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>120.00985463112247</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="O225" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" s="13" t="s">
         <v>49</v>
       </c>
@@ -12920,51 +13025,55 @@
         <v>2258.6800401508754</v>
       </c>
       <c r="C226" s="5">
-        <f t="shared" ref="C226:M226" si="147">SUM(C205:C225)</f>
+        <f t="shared" ref="C226:M226" si="148">SUM(C205:C225)</f>
         <v>153233.88762800611</v>
       </c>
       <c r="D226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>147641.36660349855</v>
       </c>
       <c r="E226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>216.60137831441918</v>
       </c>
       <c r="F226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1055303.2573741605</v>
       </c>
       <c r="G226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>208918.27769395427</v>
       </c>
       <c r="H226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>578818.97444749181</v>
       </c>
       <c r="I226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>130949.29153207384</v>
       </c>
       <c r="J226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>4895.6090720408902</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>17111.542840523452</v>
       </c>
       <c r="L226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2301253.9740609508</v>
       </c>
       <c r="M226" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1906.4854507357722</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="O226" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
       <c r="A227" s="13" t="s">
         <v>88</v>
       </c>
@@ -12973,52 +13082,4107 @@
         <v>9.8149968043946642E-2</v>
       </c>
       <c r="C227" s="28">
-        <f t="shared" ref="C227:M227" si="148">100*C226/$L226</f>
+        <f t="shared" ref="C227:M227" si="149">100*C226/$L226</f>
         <v>6.658712569547423</v>
       </c>
       <c r="D227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>6.4156919778376507</v>
       </c>
       <c r="E227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>9.4123195768865738E-3</v>
       </c>
       <c r="F227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>45.857748395840893</v>
       </c>
       <c r="G227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>9.0784537495130415</v>
       </c>
       <c r="H227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>25.152329163654549</v>
       </c>
       <c r="I227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5.6903450470089458</v>
       </c>
       <c r="J227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.21273658306396151</v>
       </c>
       <c r="K227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.74357472201676411</v>
       </c>
       <c r="L227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>100</v>
       </c>
       <c r="M227" s="28">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>8.2845503895924058E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="229" spans="1:15">
+      <c r="A229" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
       <c r="L230" s="5"/>
+    </row>
+    <row r="231" spans="1:15">
+      <c r="A231" t="s">
+        <v>185</v>
+      </c>
+      <c r="G231">
+        <v>89</v>
+      </c>
+      <c r="L231" s="5"/>
+    </row>
+    <row r="232" spans="1:15">
+      <c r="L232" s="5"/>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="A233" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G233" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H233" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I233" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J233" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K233" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L233" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M233" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O233" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="A234" s="37">
+        <v>1896</v>
+      </c>
+      <c r="B234" s="5">
+        <f>B205*(100/$G$231 - 1)</f>
+        <v>1.9911316750471975E-2</v>
+      </c>
+      <c r="C234" s="5">
+        <f t="shared" ref="C234:M234" si="150">C205*(100/$G$231 - 1)</f>
+        <v>460.19730333660056</v>
+      </c>
+      <c r="D234" s="5">
+        <f t="shared" si="150"/>
+        <v>331.54839730498492</v>
+      </c>
+      <c r="E234" s="5">
+        <f t="shared" si="150"/>
+        <v>5.2165459999971887E-2</v>
+      </c>
+      <c r="F234" s="5">
+        <f t="shared" si="150"/>
+        <v>1982.6553746994273</v>
+      </c>
+      <c r="G234" s="5">
+        <f t="shared" si="150"/>
+        <v>454.38913925774119</v>
+      </c>
+      <c r="H234" s="5">
+        <f t="shared" si="150"/>
+        <v>933.54353369262867</v>
+      </c>
+      <c r="I234" s="5">
+        <f t="shared" si="150"/>
+        <v>48.956721751119773</v>
+      </c>
+      <c r="J234" s="5">
+        <f t="shared" si="150"/>
+        <v>0.78561888560687454</v>
+      </c>
+      <c r="K234" s="5">
+        <f t="shared" si="150"/>
+        <v>76.667388707995272</v>
+      </c>
+      <c r="L234" s="5">
+        <f t="shared" si="150"/>
+        <v>4292.2554234660547</v>
+      </c>
+      <c r="M234" s="5">
+        <f t="shared" si="150"/>
+        <v>3.4398690531995326</v>
+      </c>
+      <c r="O234" s="5">
+        <f t="shared" ref="O234:O255" si="151">SUM(B234:K234) +M234 -L234</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="A235" s="37">
+        <f>A234+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B235" s="5">
+        <f t="shared" ref="B235:M235" si="152">B206*(100/$G$231 - 1)</f>
+        <v>1.5648121905229233E-2</v>
+      </c>
+      <c r="C235" s="5">
+        <f t="shared" si="152"/>
+        <v>361.66485588644878</v>
+      </c>
+      <c r="D235" s="5">
+        <f t="shared" si="152"/>
+        <v>260.56085609651109</v>
+      </c>
+      <c r="E235" s="5">
+        <f t="shared" si="152"/>
+        <v>4.0996358380094078E-2</v>
+      </c>
+      <c r="F235" s="5">
+        <f t="shared" si="152"/>
+        <v>1558.1507435272542</v>
+      </c>
+      <c r="G235" s="5">
+        <f t="shared" si="152"/>
+        <v>357.10027280585422</v>
+      </c>
+      <c r="H235" s="5">
+        <f t="shared" si="152"/>
+        <v>733.66333337620472</v>
+      </c>
+      <c r="I235" s="5">
+        <f t="shared" si="152"/>
+        <v>38.474640308444222</v>
+      </c>
+      <c r="J235" s="5">
+        <f t="shared" si="152"/>
+        <v>0.61741070402766363</v>
+      </c>
+      <c r="K235" s="5">
+        <f t="shared" si="152"/>
+        <v>60.252200278510855</v>
+      </c>
+      <c r="L235" s="5">
+        <f t="shared" si="152"/>
+        <v>3373.2443191224943</v>
+      </c>
+      <c r="M235" s="5">
+        <f t="shared" si="152"/>
+        <v>2.7033616589528435</v>
+      </c>
+      <c r="O235" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" s="37">
+        <f t="shared" ref="A236:A253" si="153">A235+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B236" s="5">
+        <f t="shared" ref="B236:M236" si="154">B207*(100/$G$231 - 1)</f>
+        <v>8.3784799614672785E-3</v>
+      </c>
+      <c r="C236" s="5">
+        <f t="shared" si="154"/>
+        <v>475.24607167526949</v>
+      </c>
+      <c r="D236" s="5">
+        <f t="shared" si="154"/>
+        <v>454.10799735032293</v>
+      </c>
+      <c r="E236" s="5">
+        <f t="shared" si="154"/>
+        <v>7.2141563202383671E-2</v>
+      </c>
+      <c r="F236" s="5">
+        <f t="shared" si="154"/>
+        <v>2238.2942933830022</v>
+      </c>
+      <c r="G236" s="5">
+        <f t="shared" si="154"/>
+        <v>536.94261747262988</v>
+      </c>
+      <c r="H236" s="5">
+        <f t="shared" si="154"/>
+        <v>1095.6497965113629</v>
+      </c>
+      <c r="I236" s="5">
+        <f t="shared" si="154"/>
+        <v>87.943584541145356</v>
+      </c>
+      <c r="J236" s="5">
+        <f t="shared" si="154"/>
+        <v>1.9345235935874525</v>
+      </c>
+      <c r="K236" s="5">
+        <f t="shared" si="154"/>
+        <v>89.743292770280476</v>
+      </c>
+      <c r="L236" s="5">
+        <f t="shared" si="154"/>
+        <v>4988.1516148722949</v>
+      </c>
+      <c r="M236" s="5">
+        <f t="shared" si="154"/>
+        <v>8.2089175315305791</v>
+      </c>
+      <c r="O236" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
+      <c r="A237" s="37">
+        <f t="shared" si="153"/>
+        <v>1899</v>
+      </c>
+      <c r="B237" s="5">
+        <f t="shared" ref="B237:M237" si="155">B208*(100/$G$231 - 1)</f>
+        <v>5.7472871197162219E-2</v>
+      </c>
+      <c r="C237" s="5">
+        <f t="shared" si="155"/>
+        <v>864.30812936886139</v>
+      </c>
+      <c r="D237" s="5">
+        <f t="shared" si="155"/>
+        <v>627.20455100659785</v>
+      </c>
+      <c r="E237" s="5">
+        <f t="shared" si="155"/>
+        <v>0.1505726015557477</v>
+      </c>
+      <c r="F237" s="5">
+        <f t="shared" si="155"/>
+        <v>3544.6485301728458</v>
+      </c>
+      <c r="G237" s="5">
+        <f t="shared" si="155"/>
+        <v>866.37316521074456</v>
+      </c>
+      <c r="H237" s="5">
+        <f t="shared" si="155"/>
+        <v>1721.9350308188059</v>
+      </c>
+      <c r="I237" s="5">
+        <f t="shared" si="155"/>
+        <v>114.69053015271379</v>
+      </c>
+      <c r="J237" s="5">
+        <f t="shared" si="155"/>
+        <v>1.6039431416315855</v>
+      </c>
+      <c r="K237" s="5">
+        <f t="shared" si="155"/>
+        <v>163.07516568396775</v>
+      </c>
+      <c r="L237" s="5">
+        <f t="shared" si="155"/>
+        <v>7913.48876319798</v>
+      </c>
+      <c r="M237" s="5">
+        <f t="shared" si="155"/>
+        <v>9.4416721690583376</v>
+      </c>
+      <c r="O237" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="A238" s="37">
+        <f t="shared" si="153"/>
+        <v>1900</v>
+      </c>
+      <c r="B238" s="5">
+        <f t="shared" ref="B238:M238" si="156">B209*(100/$G$231 - 1)</f>
+        <v>5.7472871197162219E-2</v>
+      </c>
+      <c r="C238" s="5">
+        <f t="shared" si="156"/>
+        <v>1046.7333435512242</v>
+      </c>
+      <c r="D238" s="5">
+        <f t="shared" si="156"/>
+        <v>642.39959230940394</v>
+      </c>
+      <c r="E238" s="5">
+        <f t="shared" si="156"/>
+        <v>0.10038173437049848</v>
+      </c>
+      <c r="F238" s="5">
+        <f t="shared" si="156"/>
+        <v>4318.8077276463891</v>
+      </c>
+      <c r="G238" s="5">
+        <f t="shared" si="156"/>
+        <v>965.82784953928467</v>
+      </c>
+      <c r="H238" s="5">
+        <f t="shared" si="156"/>
+        <v>1991.7955909266113</v>
+      </c>
+      <c r="I238" s="5">
+        <f t="shared" si="156"/>
+        <v>73.96767004887991</v>
+      </c>
+      <c r="J238" s="5">
+        <f t="shared" si="156"/>
+        <v>0.66370061033031125</v>
+      </c>
+      <c r="K238" s="5">
+        <f t="shared" si="156"/>
+        <v>163.81357639587705</v>
+      </c>
+      <c r="L238" s="5">
+        <f t="shared" si="156"/>
+        <v>9207.3344343612516</v>
+      </c>
+      <c r="M238" s="5">
+        <f t="shared" si="156"/>
+        <v>3.1675287276840871</v>
+      </c>
+      <c r="O238" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="A239" s="37">
+        <f t="shared" si="153"/>
+        <v>1901</v>
+      </c>
+      <c r="B239" s="5">
+        <f t="shared" ref="B239:M239" si="157">B210*(100/$G$231 - 1)</f>
+        <v>0</v>
+      </c>
+      <c r="C239" s="5">
+        <f t="shared" si="157"/>
+        <v>1109.0782546768453</v>
+      </c>
+      <c r="D239" s="5">
+        <f t="shared" si="157"/>
+        <v>829.00638800117315</v>
+      </c>
+      <c r="E239" s="5">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="F239" s="5">
+        <f t="shared" si="157"/>
+        <v>4367.1023058974461</v>
+      </c>
+      <c r="G239" s="5">
+        <f t="shared" si="157"/>
+        <v>949.54701153532426</v>
+      </c>
+      <c r="H239" s="5">
+        <f t="shared" si="157"/>
+        <v>2506.2880552207644</v>
+      </c>
+      <c r="I239" s="5">
+        <f t="shared" si="157"/>
+        <v>89.04569509730544</v>
+      </c>
+      <c r="J239" s="5">
+        <f t="shared" si="157"/>
+        <v>0.66370061033031125</v>
+      </c>
+      <c r="K239" s="5">
+        <f t="shared" si="157"/>
+        <v>156.31586762879806</v>
+      </c>
+      <c r="L239" s="5">
+        <f t="shared" si="157"/>
+        <v>10007.778246835915</v>
+      </c>
+      <c r="M239" s="5">
+        <f t="shared" si="157"/>
+        <v>0.73096816792709707</v>
+      </c>
+      <c r="O239" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="A240" s="37">
+        <f t="shared" si="153"/>
+        <v>1902</v>
+      </c>
+      <c r="B240" s="5">
+        <f t="shared" ref="B240:M240" si="158">B211*(100/$G$231 - 1)</f>
+        <v>0</v>
+      </c>
+      <c r="C240" s="5">
+        <f t="shared" si="158"/>
+        <v>1519.2789021874669</v>
+      </c>
+      <c r="D240" s="5">
+        <f t="shared" si="158"/>
+        <v>1111.9848110326629</v>
+      </c>
+      <c r="E240" s="5">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="F240" s="5">
+        <f t="shared" si="158"/>
+        <v>4947.1577852745222</v>
+      </c>
+      <c r="G240" s="5">
+        <f t="shared" si="158"/>
+        <v>1233.4504444304705</v>
+      </c>
+      <c r="H240" s="5">
+        <f t="shared" si="158"/>
+        <v>3324.8832050744686</v>
+      </c>
+      <c r="I240" s="5">
+        <f t="shared" si="158"/>
+        <v>207.31268402161339</v>
+      </c>
+      <c r="J240" s="5">
+        <f t="shared" si="158"/>
+        <v>1.3274012206606225</v>
+      </c>
+      <c r="K240" s="5">
+        <f t="shared" si="158"/>
+        <v>187.32911752898838</v>
+      </c>
+      <c r="L240" s="5">
+        <f t="shared" si="158"/>
+        <v>12533.424861931782</v>
+      </c>
+      <c r="M240" s="5">
+        <f t="shared" si="158"/>
+        <v>0.70051116093013466</v>
+      </c>
+      <c r="O240" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" s="37">
+        <f t="shared" si="153"/>
+        <v>1903</v>
+      </c>
+      <c r="B241" s="5">
+        <f t="shared" ref="B241:M241" si="159">B212*(100/$G$231 - 1)</f>
+        <v>0.97703881035175766</v>
+      </c>
+      <c r="C241" s="5">
+        <f t="shared" si="159"/>
+        <v>1343.4187607972719</v>
+      </c>
+      <c r="D241" s="5">
+        <f t="shared" si="159"/>
+        <v>1029.3471633320171</v>
+      </c>
+      <c r="E241" s="5">
+        <f t="shared" si="159"/>
+        <v>0.1505726015557477</v>
+      </c>
+      <c r="F241" s="5">
+        <f t="shared" si="159"/>
+        <v>7243.2034947481652</v>
+      </c>
+      <c r="G241" s="5">
+        <f t="shared" si="159"/>
+        <v>1371.5847594205932</v>
+      </c>
+      <c r="H241" s="5">
+        <f t="shared" si="159"/>
+        <v>3266.8165320200537</v>
+      </c>
+      <c r="I241" s="5">
+        <f t="shared" si="159"/>
+        <v>303.67386296990696</v>
+      </c>
+      <c r="J241" s="5">
+        <f t="shared" si="159"/>
+        <v>10.895751686255943</v>
+      </c>
+      <c r="K241" s="5">
+        <f t="shared" si="159"/>
+        <v>138.7076121909611</v>
+      </c>
+      <c r="L241" s="5">
+        <f t="shared" si="159"/>
+        <v>14713.405013640669</v>
+      </c>
+      <c r="M241" s="5">
+        <f t="shared" si="159"/>
+        <v>4.6294650635382819</v>
+      </c>
+      <c r="O241" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" s="37">
+        <f t="shared" si="153"/>
+        <v>1904</v>
+      </c>
+      <c r="B242" s="5">
+        <f t="shared" ref="B242:M242" si="160">B213*(100/$G$231 - 1)</f>
+        <v>1.55176752232338</v>
+      </c>
+      <c r="C242" s="5">
+        <f t="shared" si="160"/>
+        <v>1245.4082769142005</v>
+      </c>
+      <c r="D242" s="5">
+        <f t="shared" si="160"/>
+        <v>809.42816170717299</v>
+      </c>
+      <c r="E242" s="5">
+        <f t="shared" si="160"/>
+        <v>0.40152693748199392</v>
+      </c>
+      <c r="F242" s="5">
+        <f t="shared" si="160"/>
+        <v>9828.4961333637712</v>
+      </c>
+      <c r="G242" s="5">
+        <f t="shared" si="160"/>
+        <v>1534.8481939385679</v>
+      </c>
+      <c r="H242" s="5">
+        <f t="shared" si="160"/>
+        <v>3614.4918692787837</v>
+      </c>
+      <c r="I242" s="5">
+        <f t="shared" si="160"/>
+        <v>292.00973038527587</v>
+      </c>
+      <c r="J242" s="5">
+        <f t="shared" si="160"/>
+        <v>19.413242852161602</v>
+      </c>
+      <c r="K242" s="5">
+        <f t="shared" si="160"/>
+        <v>88.666086253108205</v>
+      </c>
+      <c r="L242" s="5">
+        <f t="shared" si="160"/>
+        <v>17441.385073685182</v>
+      </c>
+      <c r="M242" s="5">
+        <f t="shared" si="160"/>
+        <v>6.6700845323347613</v>
+      </c>
+      <c r="O242" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
+      <c r="A243" s="37">
+        <f t="shared" si="153"/>
+        <v>1905</v>
+      </c>
+      <c r="B243" s="5">
+        <f t="shared" ref="B243:M243" si="161">B214*(100/$G$231 - 1)</f>
+        <v>8.0462019676027108</v>
+      </c>
+      <c r="C243" s="5">
+        <f t="shared" si="161"/>
+        <v>1402.9700239262258</v>
+      </c>
+      <c r="D243" s="5">
+        <f t="shared" si="161"/>
+        <v>993.5803738038735</v>
+      </c>
+      <c r="E243" s="5">
+        <f t="shared" si="161"/>
+        <v>1.0038173437049849</v>
+      </c>
+      <c r="F243" s="5">
+        <f t="shared" si="161"/>
+        <v>12586.781686409215</v>
+      </c>
+      <c r="G243" s="5">
+        <f t="shared" si="161"/>
+        <v>1584.9041865594397</v>
+      </c>
+      <c r="H243" s="5">
+        <f t="shared" si="161"/>
+        <v>4231.7107099281739</v>
+      </c>
+      <c r="I243" s="5">
+        <f t="shared" si="161"/>
+        <v>347.89189869143513</v>
+      </c>
+      <c r="J243" s="5">
+        <f t="shared" si="161"/>
+        <v>24.169763892862168</v>
+      </c>
+      <c r="K243" s="5">
+        <f t="shared" si="161"/>
+        <v>92.4149406366477</v>
+      </c>
+      <c r="L243" s="5">
+        <f t="shared" si="161"/>
+        <v>21281.057397901426</v>
+      </c>
+      <c r="M243" s="5">
+        <f t="shared" si="161"/>
+        <v>7.583794742243632</v>
+      </c>
+      <c r="O243" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
+      <c r="A244" s="37">
+        <f t="shared" si="153"/>
+        <v>1906</v>
+      </c>
+      <c r="B244" s="5">
+        <f t="shared" ref="B244:M244" si="162">B215*(100/$G$231 - 1)</f>
+        <v>27.069722333863403</v>
+      </c>
+      <c r="C244" s="5">
+        <f t="shared" si="162"/>
+        <v>1293.0865360573193</v>
+      </c>
+      <c r="D244" s="5">
+        <f t="shared" si="162"/>
+        <v>1388.5345627437346</v>
+      </c>
+      <c r="E244" s="5">
+        <f t="shared" si="162"/>
+        <v>3.0616428983002035</v>
+      </c>
+      <c r="F244" s="5">
+        <f t="shared" si="162"/>
+        <v>13890.677461369507</v>
+      </c>
+      <c r="G244" s="5">
+        <f t="shared" si="162"/>
+        <v>1947.0264281257864</v>
+      </c>
+      <c r="H244" s="5">
+        <f t="shared" si="162"/>
+        <v>5404.7299757341407</v>
+      </c>
+      <c r="I244" s="5">
+        <f t="shared" si="162"/>
+        <v>868.38857468924016</v>
+      </c>
+      <c r="J244" s="5">
+        <f t="shared" si="162"/>
+        <v>22.621129135424773</v>
+      </c>
+      <c r="K244" s="5">
+        <f t="shared" si="162"/>
+        <v>133.65233885558206</v>
+      </c>
+      <c r="L244" s="5">
+        <f t="shared" si="162"/>
+        <v>24991.518486853634</v>
+      </c>
+      <c r="M244" s="5">
+        <f t="shared" si="162"/>
+        <v>12.670114910736348</v>
+      </c>
+      <c r="O244" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
+      <c r="A245" s="37">
+        <f t="shared" si="153"/>
+        <v>1907</v>
+      </c>
+      <c r="B245" s="5">
+        <f t="shared" ref="B245:M245" si="163">B216*(100/$G$231 - 1)</f>
+        <v>22.873529977108721</v>
+      </c>
+      <c r="C245" s="5">
+        <f t="shared" si="163"/>
+        <v>848.20239452190583</v>
+      </c>
+      <c r="D245" s="5">
+        <f t="shared" si="163"/>
+        <v>1381.1246738030502</v>
+      </c>
+      <c r="E245" s="5">
+        <f t="shared" si="163"/>
+        <v>3.3593416882742746</v>
+      </c>
+      <c r="F245" s="5">
+        <f t="shared" si="163"/>
+        <v>10759.376802960385</v>
+      </c>
+      <c r="G245" s="5">
+        <f t="shared" si="163"/>
+        <v>1871.7200287091584</v>
+      </c>
+      <c r="H245" s="5">
+        <f t="shared" si="163"/>
+        <v>4533.0980628105799</v>
+      </c>
+      <c r="I245" s="5">
+        <f t="shared" si="163"/>
+        <v>1252.4163944531722</v>
+      </c>
+      <c r="J245" s="5">
+        <f t="shared" si="163"/>
+        <v>7.4928868426120365</v>
+      </c>
+      <c r="K245" s="5">
+        <f t="shared" si="163"/>
+        <v>104.28389935838962</v>
+      </c>
+      <c r="L245" s="5">
+        <f t="shared" si="163"/>
+        <v>20789.801472788233</v>
+      </c>
+      <c r="M245" s="5">
+        <f t="shared" si="163"/>
+        <v>5.8534576635919455</v>
+      </c>
+      <c r="O245" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
+      <c r="A246" s="37">
+        <f t="shared" si="153"/>
+        <v>1908</v>
+      </c>
+      <c r="B246" s="5">
+        <f t="shared" ref="B246:M246" si="164">B217*(100/$G$231 - 1)</f>
+        <v>6.303370786516858</v>
+      </c>
+      <c r="C246" s="5">
+        <f t="shared" si="164"/>
+        <v>810.1685393258432</v>
+      </c>
+      <c r="D246" s="5">
+        <f t="shared" si="164"/>
+        <v>1053.2808988764052</v>
+      </c>
+      <c r="E246" s="5">
+        <f t="shared" si="164"/>
+        <v>1.2359550561797761</v>
+      </c>
+      <c r="F246" s="5">
+        <f t="shared" si="164"/>
+        <v>6284.8314606741615</v>
+      </c>
+      <c r="G246" s="5">
+        <f t="shared" si="164"/>
+        <v>1399.0393258426975</v>
+      </c>
+      <c r="H246" s="5">
+        <f t="shared" si="164"/>
+        <v>3034.8258426966313</v>
+      </c>
+      <c r="I246" s="5">
+        <f t="shared" si="164"/>
+        <v>924.98876404494445</v>
+      </c>
+      <c r="J246" s="5">
+        <f t="shared" si="164"/>
+        <v>1.6685393258426977</v>
+      </c>
+      <c r="K246" s="5">
+        <f t="shared" si="164"/>
+        <v>57.842696629213521</v>
+      </c>
+      <c r="L246" s="5">
+        <f t="shared" si="164"/>
+        <v>13576.162921348323</v>
+      </c>
+      <c r="M246" s="5">
+        <f t="shared" si="164"/>
+        <v>1.9775280898876417</v>
+      </c>
+      <c r="O246" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
+      <c r="A247" s="37">
+        <f t="shared" si="153"/>
+        <v>1909</v>
+      </c>
+      <c r="B247" s="5">
+        <f t="shared" ref="B247:M247" si="165">B218*(100/$G$231 - 1)</f>
+        <v>5.994382022471914</v>
+      </c>
+      <c r="C247" s="5">
+        <f t="shared" si="165"/>
+        <v>1512.4382022471921</v>
+      </c>
+      <c r="D247" s="5">
+        <f t="shared" si="165"/>
+        <v>1047.8426966292141</v>
+      </c>
+      <c r="E247" s="5">
+        <f t="shared" si="165"/>
+        <v>0.18539325842696641</v>
+      </c>
+      <c r="F247" s="5">
+        <f t="shared" si="165"/>
+        <v>5666.2359550561832</v>
+      </c>
+      <c r="G247" s="5">
+        <f t="shared" si="165"/>
+        <v>2012.2584269662934</v>
+      </c>
+      <c r="H247" s="5">
+        <f t="shared" si="165"/>
+        <v>5331.8483146067447</v>
+      </c>
+      <c r="I247" s="5">
+        <f t="shared" si="165"/>
+        <v>977.94943820224785</v>
+      </c>
+      <c r="J247" s="5">
+        <f t="shared" si="165"/>
+        <v>6.4269662921348356</v>
+      </c>
+      <c r="K247" s="5">
+        <f t="shared" si="165"/>
+        <v>119.02247191011244</v>
+      </c>
+      <c r="L247" s="5">
+        <f t="shared" si="165"/>
+        <v>16696.70224719102</v>
+      </c>
+      <c r="M247" s="5">
+        <f t="shared" si="165"/>
+        <v>16.500000000000011</v>
+      </c>
+      <c r="O247" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
+      <c r="A248" s="37">
+        <f t="shared" si="153"/>
+        <v>1910</v>
+      </c>
+      <c r="B248" s="5">
+        <f t="shared" ref="B248:M248" si="166">B219*(100/$G$231 - 1)</f>
+        <v>11.666941855889501</v>
+      </c>
+      <c r="C248" s="5">
+        <f t="shared" si="166"/>
+        <v>1176.0112359550569</v>
+      </c>
+      <c r="D248" s="5">
+        <f t="shared" si="166"/>
+        <v>1099.3699937281615</v>
+      </c>
+      <c r="E248" s="5">
+        <f t="shared" si="166"/>
+        <v>1.4374980006063591</v>
+      </c>
+      <c r="F248" s="5">
+        <f t="shared" si="166"/>
+        <v>7266.229750315083</v>
+      </c>
+      <c r="G248" s="5">
+        <f t="shared" si="166"/>
+        <v>2082.0280898876417</v>
+      </c>
+      <c r="H248" s="5">
+        <f t="shared" si="166"/>
+        <v>5303.09433052236</v>
+      </c>
+      <c r="I248" s="5">
+        <f t="shared" si="166"/>
+        <v>1500.9438202247202</v>
+      </c>
+      <c r="J248" s="5">
+        <f t="shared" si="166"/>
+        <v>14.727342135075729</v>
+      </c>
+      <c r="K248" s="5">
+        <f t="shared" si="166"/>
+        <v>126.30283934843524</v>
+      </c>
+      <c r="L248" s="5">
+        <f t="shared" si="166"/>
+        <v>18607.179775280911</v>
+      </c>
+      <c r="M248" s="5">
+        <f t="shared" si="166"/>
+        <v>25.367933307880826</v>
+      </c>
+      <c r="O248" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
+      <c r="A249" s="37">
+        <f t="shared" si="153"/>
+        <v>1911</v>
+      </c>
+      <c r="B249" s="5">
+        <f t="shared" ref="B249:M249" si="167">B220*(100/$G$231 - 1)</f>
+        <v>23.037728372743445</v>
+      </c>
+      <c r="C249" s="5">
+        <f t="shared" si="167"/>
+        <v>494.5056179775284</v>
+      </c>
+      <c r="D249" s="5">
+        <f t="shared" si="167"/>
+        <v>1161.1059487843413</v>
+      </c>
+      <c r="E249" s="5">
+        <f t="shared" si="167"/>
+        <v>1.808284517460292</v>
+      </c>
+      <c r="F249" s="5">
+        <f t="shared" si="167"/>
+        <v>7106.2971660454195</v>
+      </c>
+      <c r="G249" s="5">
+        <f t="shared" si="167"/>
+        <v>1447.5505617977537</v>
+      </c>
+      <c r="H249" s="5">
+        <f t="shared" si="167"/>
+        <v>4043.2235440055056</v>
+      </c>
+      <c r="I249" s="5">
+        <f t="shared" si="167"/>
+        <v>1650.308988764046</v>
+      </c>
+      <c r="J249" s="5">
+        <f t="shared" si="167"/>
+        <v>26.283521910356637</v>
+      </c>
+      <c r="K249" s="5">
+        <f t="shared" si="167"/>
+        <v>63.20733373045767</v>
+      </c>
+      <c r="L249" s="5">
+        <f t="shared" si="167"/>
+        <v>16029.224719101134</v>
+      </c>
+      <c r="M249" s="5">
+        <f t="shared" si="167"/>
+        <v>11.896023195521266</v>
+      </c>
+      <c r="O249" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
+      <c r="A250" s="37">
+        <f t="shared" si="153"/>
+        <v>1912</v>
+      </c>
+      <c r="B250" s="5">
+        <f t="shared" ref="B250:M250" si="168">B221*(100/$G$231 - 1)</f>
+        <v>68.85201599406156</v>
+      </c>
+      <c r="C250" s="5">
+        <f t="shared" si="168"/>
+        <v>703.38202247191055</v>
+      </c>
+      <c r="D250" s="5">
+        <f t="shared" si="168"/>
+        <v>1727.8530636736853</v>
+      </c>
+      <c r="E250" s="5">
+        <f t="shared" si="168"/>
+        <v>2.0777578581725598</v>
+      </c>
+      <c r="F250" s="5">
+        <f t="shared" si="168"/>
+        <v>7784.7744214881332</v>
+      </c>
+      <c r="G250" s="5">
+        <f t="shared" si="168"/>
+        <v>1868.8258426966304</v>
+      </c>
+      <c r="H250" s="5">
+        <f t="shared" si="168"/>
+        <v>8418.4027531312604</v>
+      </c>
+      <c r="I250" s="5">
+        <f t="shared" si="168"/>
+        <v>3467.2865168539347</v>
+      </c>
+      <c r="J250" s="5">
+        <f t="shared" si="168"/>
+        <v>78.940497211406665</v>
+      </c>
+      <c r="K250" s="5">
+        <f t="shared" si="168"/>
+        <v>75.180602500738416</v>
+      </c>
+      <c r="L250" s="5">
+        <f t="shared" si="168"/>
+        <v>24214.275280898892</v>
+      </c>
+      <c r="M250" s="5">
+        <f t="shared" si="168"/>
+        <v>18.699787018958521</v>
+      </c>
+      <c r="O250" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
+      <c r="A251" s="37">
+        <f t="shared" si="153"/>
+        <v>1913</v>
+      </c>
+      <c r="B251" s="5">
+        <f t="shared" ref="B251:M251" si="169">B222*(100/$G$231 - 1)</f>
+        <v>104.81830812889305</v>
+      </c>
+      <c r="C251" s="5">
+        <f t="shared" si="169"/>
+        <v>1039.3764044943828</v>
+      </c>
+      <c r="D251" s="5">
+        <f t="shared" si="169"/>
+        <v>1639.2350861455955</v>
+      </c>
+      <c r="E251" s="5">
+        <f t="shared" si="169"/>
+        <v>5.2912410042399776</v>
+      </c>
+      <c r="F251" s="5">
+        <f t="shared" si="169"/>
+        <v>10536.195769802742</v>
+      </c>
+      <c r="G251" s="5">
+        <f t="shared" si="169"/>
+        <v>2220.0842696629229</v>
+      </c>
+      <c r="H251" s="5">
+        <f t="shared" si="169"/>
+        <v>9095.4589329065402</v>
+      </c>
+      <c r="I251" s="5">
+        <f t="shared" si="169"/>
+        <v>4182.6573033707891</v>
+      </c>
+      <c r="J251" s="5">
+        <f t="shared" si="169"/>
+        <v>216.44049721140675</v>
+      </c>
+      <c r="K251" s="5">
+        <f t="shared" si="169"/>
+        <v>97.427793511974386</v>
+      </c>
+      <c r="L251" s="5">
+        <f t="shared" si="169"/>
+        <v>29188.685393258445</v>
+      </c>
+      <c r="M251" s="5">
+        <f t="shared" si="169"/>
+        <v>51.699787018958538</v>
+      </c>
+      <c r="O251" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
+      <c r="A252" s="37">
+        <f t="shared" si="153"/>
+        <v>1914</v>
+      </c>
+      <c r="B252" s="5">
+        <f t="shared" ref="B252:M252" si="170">B223*(100/$G$231 - 1)</f>
+        <v>39.426966292134857</v>
+      </c>
+      <c r="C252" s="5">
+        <f t="shared" si="170"/>
+        <v>595.66853932584308</v>
+      </c>
+      <c r="D252" s="5">
+        <f t="shared" si="170"/>
+        <v>606.60674157303413</v>
+      </c>
+      <c r="E252" s="5">
+        <f t="shared" si="170"/>
+        <v>4.3258426966292163</v>
+      </c>
+      <c r="F252" s="5">
+        <f t="shared" si="170"/>
+        <v>6926.7247191011284</v>
+      </c>
+      <c r="G252" s="5">
+        <f t="shared" si="170"/>
+        <v>1024.6685393258433</v>
+      </c>
+      <c r="H252" s="5">
+        <f t="shared" si="170"/>
+        <v>2922.4775280898893</v>
+      </c>
+      <c r="I252" s="5">
+        <f t="shared" si="170"/>
+        <v>992.90449438202313</v>
+      </c>
+      <c r="J252" s="5">
+        <f t="shared" si="170"/>
+        <v>160.30337078651695</v>
+      </c>
+      <c r="K252" s="5">
+        <f t="shared" si="170"/>
+        <v>49.623595505618013</v>
+      </c>
+      <c r="L252" s="5">
+        <f t="shared" si="170"/>
+        <v>13354.432584269671</v>
+      </c>
+      <c r="M252" s="5">
+        <f t="shared" si="170"/>
+        <v>31.702247191011256</v>
+      </c>
+      <c r="O252" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="A253" s="37">
+        <f t="shared" si="153"/>
+        <v>1915</v>
+      </c>
+      <c r="B253" s="5">
+        <f t="shared" ref="B253:M253" si="171">B224*(100/$G$231 - 1)</f>
+        <v>-30.033707865168559</v>
+      </c>
+      <c r="C253" s="5">
+        <f t="shared" si="171"/>
+        <v>270.55056179775301</v>
+      </c>
+      <c r="D253" s="5">
+        <f t="shared" si="171"/>
+        <v>48.264044943820252</v>
+      </c>
+      <c r="E253" s="5">
+        <f t="shared" si="171"/>
+        <v>0.86516853932584326</v>
+      </c>
+      <c r="F253" s="5">
+        <f t="shared" si="171"/>
+        <v>971.21348314606803</v>
+      </c>
+      <c r="G253" s="5">
+        <f t="shared" si="171"/>
+        <v>84.230337078651743</v>
+      </c>
+      <c r="H253" s="5">
+        <f t="shared" si="171"/>
+        <v>-9.8876404494382086</v>
+      </c>
+      <c r="I253" s="5">
+        <f t="shared" si="171"/>
+        <v>-713.82584269662971</v>
+      </c>
+      <c r="J253" s="5">
+        <f t="shared" si="171"/>
+        <v>7.4157303370786565</v>
+      </c>
+      <c r="K253" s="5">
+        <f t="shared" si="171"/>
+        <v>21.258426966292149</v>
+      </c>
+      <c r="L253" s="5">
+        <f t="shared" si="171"/>
+        <v>647.2078651685398</v>
+      </c>
+      <c r="M253" s="5">
+        <f t="shared" si="171"/>
+        <v>-2.842696629213485</v>
+      </c>
+      <c r="O253" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
+      <c r="A254" s="37">
+        <v>1916</v>
+      </c>
+      <c r="B254" s="5">
+        <f t="shared" ref="B254:M254" si="172">B225*(100/$G$231 - 1)</f>
+        <v>-11.580448268122693</v>
+      </c>
+      <c r="C254" s="5">
+        <f t="shared" si="172"/>
+        <v>367.32584269662948</v>
+      </c>
+      <c r="D254" s="5">
+        <f t="shared" si="172"/>
+        <v>5.4233526428329428</v>
+      </c>
+      <c r="E254" s="5">
+        <f t="shared" si="172"/>
+        <v>1.1506567524545988</v>
+      </c>
+      <c r="F254" s="5">
+        <f t="shared" si="172"/>
+        <v>622.88461037728848</v>
+      </c>
+      <c r="G254" s="5">
+        <f t="shared" si="172"/>
+        <v>8.9606741573033766</v>
+      </c>
+      <c r="H254" s="5">
+        <f t="shared" si="172"/>
+        <v>41.37450721493726</v>
+      </c>
+      <c r="I254" s="5">
+        <f t="shared" si="172"/>
+        <v>-523.24157303370816</v>
+      </c>
+      <c r="J254" s="5">
+        <f t="shared" si="172"/>
+        <v>0.67974018154168481</v>
+      </c>
+      <c r="K254" s="5">
+        <f t="shared" si="172"/>
+        <v>50.122542886232765</v>
+      </c>
+      <c r="L254" s="5">
+        <f t="shared" si="172"/>
+        <v>577.93258426966327</v>
+      </c>
+      <c r="M254" s="5">
+        <f t="shared" si="172"/>
+        <v>14.832678662273572</v>
+      </c>
+      <c r="O254" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
+      <c r="A255" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B255" s="5">
+        <f>SUM(B234:B254)</f>
+        <v>279.16270159168147</v>
+      </c>
+      <c r="C255" s="5">
+        <f t="shared" ref="C255:M255" si="173">SUM(C234:C254)</f>
+        <v>18939.019819191781</v>
+      </c>
+      <c r="D255" s="5">
+        <f t="shared" si="173"/>
+        <v>18247.809355488593</v>
+      </c>
+      <c r="E255" s="5">
+        <f t="shared" si="173"/>
+        <v>26.770956870321491</v>
+      </c>
+      <c r="F255" s="5">
+        <f t="shared" si="173"/>
+        <v>130430.73967545814</v>
+      </c>
+      <c r="G255" s="5">
+        <f t="shared" si="173"/>
+        <v>25821.360164421334</v>
+      </c>
+      <c r="H255" s="5">
+        <f t="shared" si="173"/>
+        <v>71539.423808117004</v>
+      </c>
+      <c r="I255" s="5">
+        <f t="shared" si="173"/>
+        <v>16184.743897222615</v>
+      </c>
+      <c r="J255" s="5">
+        <f t="shared" si="173"/>
+        <v>605.07527856685203</v>
+      </c>
+      <c r="K255" s="5">
+        <f t="shared" si="173"/>
+        <v>2114.9097892781811</v>
+      </c>
+      <c r="L255" s="5">
+        <f t="shared" si="173"/>
+        <v>284424.64847944351</v>
+      </c>
+      <c r="M255" s="5">
+        <f t="shared" si="173"/>
+        <v>235.63303323700572</v>
+      </c>
+      <c r="O255" s="5">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
+      <c r="A257" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
+      <c r="A259" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G259" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H259" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I259" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J259" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K259" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L259" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M259" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
+      <c r="B260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F260">
+        <v>4.3</v>
+      </c>
+      <c r="G260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M260">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
+      <c r="A262" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I262" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J262" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K262" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L262" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M262" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O262" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="A263" s="37">
+        <v>1896</v>
+      </c>
+      <c r="B263" s="5">
+        <f>B205*B$260/100</f>
+        <v>8.8605359539600239E-4</v>
+      </c>
+      <c r="C263" s="5">
+        <f t="shared" ref="C263:K263" si="174">C205*C$260/100</f>
+        <v>20.478779998478714</v>
+      </c>
+      <c r="D263" s="5">
+        <f t="shared" si="174"/>
+        <v>14.753903680071819</v>
+      </c>
+      <c r="E263" s="5">
+        <f t="shared" si="174"/>
+        <v>2.3213629699987475E-3</v>
+      </c>
+      <c r="F263" s="5">
+        <f t="shared" si="174"/>
+        <v>689.78382899770031</v>
+      </c>
+      <c r="G263" s="5">
+        <f t="shared" si="174"/>
+        <v>20.220316696969473</v>
+      </c>
+      <c r="H263" s="5">
+        <f t="shared" si="174"/>
+        <v>41.542687249321951</v>
+      </c>
+      <c r="I263" s="5">
+        <f t="shared" si="174"/>
+        <v>2.1785741179248288</v>
+      </c>
+      <c r="J263" s="5">
+        <f t="shared" si="174"/>
+        <v>3.4960040409505899E-2</v>
+      </c>
+      <c r="K263" s="5">
+        <f t="shared" si="174"/>
+        <v>3.411698797505788</v>
+      </c>
+      <c r="L263" s="5">
+        <f>SUM(B263:K263) + M263</f>
+        <v>792.56103116781514</v>
+      </c>
+      <c r="M263" s="5">
+        <f>M205*M$260/100</f>
+        <v>0.15307417286737912</v>
+      </c>
+      <c r="O263" s="5">
+        <f t="shared" ref="O263:O284" si="175">SUM(B263:K263) +M263 -L263</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
+      <c r="A264" s="37">
+        <f>A263+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B264" s="5">
+        <f t="shared" ref="B264:K264" si="176">B206*B$260/100</f>
+        <v>6.9634142478270039E-4</v>
+      </c>
+      <c r="C264" s="5">
+        <f t="shared" si="176"/>
+        <v>16.094086086946962</v>
+      </c>
+      <c r="D264" s="5">
+        <f t="shared" si="176"/>
+        <v>11.594958096294738</v>
+      </c>
+      <c r="E264" s="5">
+        <f t="shared" si="176"/>
+        <v>1.8243379479141852E-3</v>
+      </c>
+      <c r="F264" s="5">
+        <f t="shared" si="176"/>
+        <v>542.09480867989066</v>
+      </c>
+      <c r="G264" s="5">
+        <f t="shared" si="176"/>
+        <v>15.890962139860504</v>
+      </c>
+      <c r="H264" s="5">
+        <f t="shared" si="176"/>
+        <v>32.64801833524109</v>
+      </c>
+      <c r="I264" s="5">
+        <f t="shared" si="176"/>
+        <v>1.7121214937257669</v>
+      </c>
+      <c r="J264" s="5">
+        <f t="shared" si="176"/>
+        <v>2.747477632923102E-2</v>
+      </c>
+      <c r="K264" s="5">
+        <f t="shared" si="176"/>
+        <v>2.6812229123937312</v>
+      </c>
+      <c r="L264" s="5">
+        <f t="shared" ref="L264:L283" si="177">SUM(B264:K264) + M264</f>
+        <v>622.86647279387876</v>
+      </c>
+      <c r="M264" s="5">
+        <f t="shared" ref="M264:M283" si="178">M206*M$260/100</f>
+        <v>0.12029959382340147</v>
+      </c>
+      <c r="O264" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
+      <c r="A265" s="37">
+        <f t="shared" ref="A265:A282" si="179">A264+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B265" s="5">
+        <f t="shared" ref="B265:K265" si="180">B207*B$260/100</f>
+        <v>3.7284235828529371E-4</v>
+      </c>
+      <c r="C265" s="5">
+        <f t="shared" si="180"/>
+        <v>21.148450189549479</v>
+      </c>
+      <c r="D265" s="5">
+        <f t="shared" si="180"/>
+        <v>20.20780588208936</v>
+      </c>
+      <c r="E265" s="5">
+        <f t="shared" si="180"/>
+        <v>3.2102995625060715E-3</v>
+      </c>
+      <c r="F265" s="5">
+        <f t="shared" si="180"/>
+        <v>778.72293279788573</v>
+      </c>
+      <c r="G265" s="5">
+        <f t="shared" si="180"/>
+        <v>23.893946477532019</v>
+      </c>
+      <c r="H265" s="5">
+        <f t="shared" si="180"/>
+        <v>48.756415944755616</v>
+      </c>
+      <c r="I265" s="5">
+        <f t="shared" si="180"/>
+        <v>3.9134895120809663</v>
+      </c>
+      <c r="J265" s="5">
+        <f t="shared" si="180"/>
+        <v>8.608629991464159E-2</v>
+      </c>
+      <c r="K265" s="5">
+        <f t="shared" si="180"/>
+        <v>3.9935765282774787</v>
+      </c>
+      <c r="L265" s="5">
+        <f t="shared" si="177"/>
+        <v>901.09158360415927</v>
+      </c>
+      <c r="M265" s="5">
+        <f t="shared" si="178"/>
+        <v>0.3652968301531106</v>
+      </c>
+      <c r="O265" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
+      <c r="A266" s="37">
+        <f t="shared" si="179"/>
+        <v>1899</v>
+      </c>
+      <c r="B266" s="5">
+        <f t="shared" ref="B266:K266" si="181">B208*B$260/100</f>
+        <v>2.5575427682737171E-3</v>
+      </c>
+      <c r="C266" s="5">
+        <f t="shared" si="181"/>
+        <v>38.461711756914312</v>
+      </c>
+      <c r="D266" s="5">
+        <f t="shared" si="181"/>
+        <v>27.910602519793589</v>
+      </c>
+      <c r="E266" s="5">
+        <f t="shared" si="181"/>
+        <v>6.7004807692307685E-3</v>
+      </c>
+      <c r="F266" s="5">
+        <f t="shared" si="181"/>
+        <v>1233.2154477246793</v>
+      </c>
+      <c r="G266" s="5">
+        <f t="shared" si="181"/>
+        <v>38.55360585187811</v>
+      </c>
+      <c r="H266" s="5">
+        <f t="shared" si="181"/>
+        <v>76.626108871436813</v>
+      </c>
+      <c r="I266" s="5">
+        <f t="shared" si="181"/>
+        <v>5.1037285917957611</v>
+      </c>
+      <c r="J266" s="5">
+        <f t="shared" si="181"/>
+        <v>7.1375469802605507E-2</v>
+      </c>
+      <c r="K266" s="5">
+        <f t="shared" si="181"/>
+        <v>7.2568448729365604</v>
+      </c>
+      <c r="L266" s="5">
+        <f t="shared" si="177"/>
+        <v>1427.6288380942976</v>
+      </c>
+      <c r="M266" s="5">
+        <f t="shared" si="178"/>
+        <v>0.42015441152309579</v>
+      </c>
+      <c r="O266" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
+      <c r="A267" s="37">
+        <f t="shared" si="179"/>
+        <v>1900</v>
+      </c>
+      <c r="B267" s="5">
+        <f t="shared" ref="B267:K267" si="182">B209*B$260/100</f>
+        <v>2.5575427682737171E-3</v>
+      </c>
+      <c r="C267" s="5">
+        <f t="shared" si="182"/>
+        <v>46.579633788029447</v>
+      </c>
+      <c r="D267" s="5">
+        <f t="shared" si="182"/>
+        <v>28.586781857768461</v>
+      </c>
+      <c r="E267" s="5">
+        <f t="shared" si="182"/>
+        <v>4.4669871794871798E-3</v>
+      </c>
+      <c r="F267" s="5">
+        <f t="shared" si="182"/>
+        <v>1502.5524703366109</v>
+      </c>
+      <c r="G267" s="5">
+        <f t="shared" si="182"/>
+        <v>42.979339304498147</v>
+      </c>
+      <c r="H267" s="5">
+        <f t="shared" si="182"/>
+        <v>88.634903796234155</v>
+      </c>
+      <c r="I267" s="5">
+        <f t="shared" si="182"/>
+        <v>3.2915613171751539</v>
+      </c>
+      <c r="J267" s="5">
+        <f t="shared" si="182"/>
+        <v>2.9534677159698833E-2</v>
+      </c>
+      <c r="K267" s="5">
+        <f t="shared" si="182"/>
+        <v>7.2897041496165249</v>
+      </c>
+      <c r="L267" s="5">
+        <f t="shared" si="177"/>
+        <v>1720.0919087854222</v>
+      </c>
+      <c r="M267" s="5">
+        <f t="shared" si="178"/>
+        <v>0.14095502838194179</v>
+      </c>
+      <c r="O267" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
+      <c r="A268" s="37">
+        <f t="shared" si="179"/>
+        <v>1901</v>
+      </c>
+      <c r="B268" s="5">
+        <f t="shared" ref="B268:K268" si="183">B210*B$260/100</f>
+        <v>0</v>
+      </c>
+      <c r="C268" s="5">
+        <f t="shared" si="183"/>
+        <v>49.353982333119582</v>
+      </c>
+      <c r="D268" s="5">
+        <f t="shared" si="183"/>
+        <v>36.890784266052187</v>
+      </c>
+      <c r="E268" s="5">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="F268" s="5">
+        <f t="shared" si="183"/>
+        <v>1519.3545931517742</v>
+      </c>
+      <c r="G268" s="5">
+        <f t="shared" si="183"/>
+        <v>42.254842013321905</v>
+      </c>
+      <c r="H268" s="5">
+        <f t="shared" si="183"/>
+        <v>111.52981845732394</v>
+      </c>
+      <c r="I268" s="5">
+        <f t="shared" si="183"/>
+        <v>3.9625334318300895</v>
+      </c>
+      <c r="J268" s="5">
+        <f t="shared" si="183"/>
+        <v>2.9534677159698833E-2</v>
+      </c>
+      <c r="K268" s="5">
+        <f t="shared" si="183"/>
+        <v>6.9560561094815103</v>
+      </c>
+      <c r="L268" s="5">
+        <f t="shared" si="177"/>
+        <v>1770.3646725235358</v>
+      </c>
+      <c r="M268" s="5">
+        <f t="shared" si="178"/>
+        <v>3.2528083472755799E-2</v>
+      </c>
+      <c r="O268" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="Q268" s="5"/>
+    </row>
+    <row r="269" spans="1:17">
+      <c r="A269" s="37">
+        <f t="shared" si="179"/>
+        <v>1902</v>
+      </c>
+      <c r="B269" s="5">
+        <f t="shared" ref="B269:K269" si="184">B211*B$260/100</f>
+        <v>0</v>
+      </c>
+      <c r="C269" s="5">
+        <f t="shared" si="184"/>
+        <v>67.607911147342236</v>
+      </c>
+      <c r="D269" s="5">
+        <f t="shared" si="184"/>
+        <v>49.483324090953467</v>
+      </c>
+      <c r="E269" s="5">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="F269" s="5">
+        <f t="shared" si="184"/>
+        <v>1721.1611676586897</v>
+      </c>
+      <c r="G269" s="5">
+        <f t="shared" si="184"/>
+        <v>54.8885447771559</v>
+      </c>
+      <c r="H269" s="5">
+        <f t="shared" si="184"/>
+        <v>147.95730262581378</v>
+      </c>
+      <c r="I269" s="5">
+        <f t="shared" si="184"/>
+        <v>9.2254144389617903</v>
+      </c>
+      <c r="J269" s="5">
+        <f t="shared" si="184"/>
+        <v>5.9069354319397666E-2</v>
+      </c>
+      <c r="K269" s="5">
+        <f t="shared" si="184"/>
+        <v>8.3361457300399771</v>
+      </c>
+      <c r="L269" s="5">
+        <f t="shared" si="177"/>
+        <v>2058.7500525699375</v>
+      </c>
+      <c r="M269" s="5">
+        <f t="shared" si="178"/>
+        <v>3.1172746661390974E-2</v>
+      </c>
+      <c r="O269" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
+      <c r="A270" s="37">
+        <f t="shared" si="179"/>
+        <v>1903</v>
+      </c>
+      <c r="B270" s="5">
+        <f t="shared" ref="B270:K270" si="185">B212*B$260/100</f>
+        <v>4.3478227060653192E-2</v>
+      </c>
+      <c r="C270" s="5">
+        <f t="shared" si="185"/>
+        <v>59.78213485547856</v>
+      </c>
+      <c r="D270" s="5">
+        <f t="shared" si="185"/>
+        <v>45.805948768274739</v>
+      </c>
+      <c r="E270" s="5">
+        <f t="shared" si="185"/>
+        <v>6.7004807692307685E-3</v>
+      </c>
+      <c r="F270" s="5">
+        <f t="shared" si="185"/>
+        <v>2519.9763431273827</v>
+      </c>
+      <c r="G270" s="5">
+        <f t="shared" si="185"/>
+        <v>61.035521794216365</v>
+      </c>
+      <c r="H270" s="5">
+        <f t="shared" si="185"/>
+        <v>145.3733356748923</v>
+      </c>
+      <c r="I270" s="5">
+        <f t="shared" si="185"/>
+        <v>13.513486902160851</v>
+      </c>
+      <c r="J270" s="5">
+        <f t="shared" si="185"/>
+        <v>0.48486095003838919</v>
+      </c>
+      <c r="K270" s="5">
+        <f t="shared" si="185"/>
+        <v>6.172488742497765</v>
+      </c>
+      <c r="L270" s="5">
+        <f t="shared" si="177"/>
+        <v>2852.4003107180988</v>
+      </c>
+      <c r="M270" s="5">
+        <f t="shared" si="178"/>
+        <v>0.20601119532745341</v>
+      </c>
+      <c r="O270" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="A271" s="37">
+        <f t="shared" si="179"/>
+        <v>1904</v>
+      </c>
+      <c r="B271" s="5">
+        <f t="shared" ref="B271:K271" si="186">B213*B$260/100</f>
+        <v>6.9053654743390369E-2</v>
+      </c>
+      <c r="C271" s="5">
+        <f t="shared" si="186"/>
+        <v>55.420668322681898</v>
+      </c>
+      <c r="D271" s="5">
+        <f t="shared" si="186"/>
+        <v>36.019553195969181</v>
+      </c>
+      <c r="E271" s="5">
+        <f t="shared" si="186"/>
+        <v>1.7867948717948719E-2</v>
+      </c>
+      <c r="F271" s="5">
+        <f t="shared" si="186"/>
+        <v>3419.4231547621021</v>
+      </c>
+      <c r="G271" s="5">
+        <f t="shared" si="186"/>
+        <v>68.300744630266223</v>
+      </c>
+      <c r="H271" s="5">
+        <f t="shared" si="186"/>
+        <v>160.84488818290581</v>
+      </c>
+      <c r="I271" s="5">
+        <f t="shared" si="186"/>
+        <v>12.994433002144769</v>
+      </c>
+      <c r="J271" s="5">
+        <f t="shared" si="186"/>
+        <v>0.86388930692119092</v>
+      </c>
+      <c r="K271" s="5">
+        <f t="shared" si="186"/>
+        <v>3.945640838263313</v>
+      </c>
+      <c r="L271" s="5">
+        <f t="shared" si="177"/>
+        <v>3758.1967126064051</v>
+      </c>
+      <c r="M271" s="5">
+        <f t="shared" si="178"/>
+        <v>0.2968187616888967</v>
+      </c>
+      <c r="O271" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
+      <c r="A272" s="37">
+        <f t="shared" si="179"/>
+        <v>1905</v>
+      </c>
+      <c r="B272" s="5">
+        <f t="shared" ref="B272:K272" si="187">B214*B$260/100</f>
+        <v>0.35805598755832047</v>
+      </c>
+      <c r="C272" s="5">
+        <f t="shared" si="187"/>
+        <v>62.432166064717023</v>
+      </c>
+      <c r="D272" s="5">
+        <f t="shared" si="187"/>
+        <v>44.214326634272346</v>
+      </c>
+      <c r="E272" s="5">
+        <f t="shared" si="187"/>
+        <v>4.46698717948718E-2</v>
+      </c>
+      <c r="F272" s="5">
+        <f t="shared" si="187"/>
+        <v>4379.0557739898204</v>
+      </c>
+      <c r="G272" s="5">
+        <f t="shared" si="187"/>
+        <v>70.528236301895021</v>
+      </c>
+      <c r="H272" s="5">
+        <f t="shared" si="187"/>
+        <v>188.31112659180363</v>
+      </c>
+      <c r="I272" s="5">
+        <f t="shared" si="187"/>
+        <v>15.481189491768856</v>
+      </c>
+      <c r="J272" s="5">
+        <f t="shared" si="187"/>
+        <v>1.075554493232366</v>
+      </c>
+      <c r="K272" s="5">
+        <f t="shared" si="187"/>
+        <v>4.1124648583308208</v>
+      </c>
+      <c r="L272" s="5">
+        <f t="shared" si="177"/>
+        <v>4765.9510431512226</v>
+      </c>
+      <c r="M272" s="5">
+        <f t="shared" si="178"/>
+        <v>0.33747886602984145</v>
+      </c>
+      <c r="O272" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
+      <c r="A273" s="37">
+        <f t="shared" si="179"/>
+        <v>1906</v>
+      </c>
+      <c r="B273" s="5">
+        <f t="shared" ref="B273:K273" si="188">B215*B$260/100</f>
+        <v>1.2046026438569206</v>
+      </c>
+      <c r="C273" s="5">
+        <f t="shared" si="188"/>
+        <v>57.542350854550676</v>
+      </c>
+      <c r="D273" s="5">
+        <f t="shared" si="188"/>
+        <v>61.789788042096149</v>
+      </c>
+      <c r="E273" s="5">
+        <f t="shared" si="188"/>
+        <v>0.13624310897435898</v>
+      </c>
+      <c r="F273" s="5">
+        <f t="shared" si="188"/>
+        <v>4832.692967696461</v>
+      </c>
+      <c r="G273" s="5">
+        <f t="shared" si="188"/>
+        <v>86.642676051597448</v>
+      </c>
+      <c r="H273" s="5">
+        <f t="shared" si="188"/>
+        <v>240.51048392016912</v>
+      </c>
+      <c r="I273" s="5">
+        <f t="shared" si="188"/>
+        <v>38.643291573671171</v>
+      </c>
+      <c r="J273" s="5">
+        <f t="shared" si="188"/>
+        <v>1.0066402465264019</v>
+      </c>
+      <c r="K273" s="5">
+        <f t="shared" si="188"/>
+        <v>5.9475290790733979</v>
+      </c>
+      <c r="L273" s="5">
+        <f t="shared" si="177"/>
+        <v>5326.6803933305055</v>
+      </c>
+      <c r="M273" s="5">
+        <f t="shared" si="178"/>
+        <v>0.56382011352776717</v>
+      </c>
+      <c r="O273" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
+      <c r="A274" s="37">
+        <f t="shared" si="179"/>
+        <v>1907</v>
+      </c>
+      <c r="B274" s="5">
+        <f t="shared" ref="B274:K274" si="189">B216*B$260/100</f>
+        <v>1.0178720839813373</v>
+      </c>
+      <c r="C274" s="5">
+        <f t="shared" si="189"/>
+        <v>37.745006556224787</v>
+      </c>
+      <c r="D274" s="5">
+        <f t="shared" si="189"/>
+        <v>61.4600479842357</v>
+      </c>
+      <c r="E274" s="5">
+        <f t="shared" si="189"/>
+        <v>0.14949070512820514</v>
+      </c>
+      <c r="F274" s="5">
+        <f t="shared" si="189"/>
+        <v>3743.285002266306</v>
+      </c>
+      <c r="G274" s="5">
+        <f t="shared" si="189"/>
+        <v>83.291541277557499</v>
+      </c>
+      <c r="H274" s="5">
+        <f t="shared" si="189"/>
+        <v>201.72286379507071</v>
+      </c>
+      <c r="I274" s="5">
+        <f t="shared" si="189"/>
+        <v>55.732529553166131</v>
+      </c>
+      <c r="J274" s="5">
+        <f t="shared" si="189"/>
+        <v>0.33343346449623545</v>
+      </c>
+      <c r="K274" s="5">
+        <f t="shared" si="189"/>
+        <v>4.6406335214483354</v>
+      </c>
+      <c r="L274" s="5">
+        <f t="shared" si="177"/>
+        <v>4189.6389000736453</v>
+      </c>
+      <c r="M274" s="5">
+        <f t="shared" si="178"/>
+        <v>0.26047886602984138</v>
+      </c>
+      <c r="O274" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
+      <c r="A275" s="37">
+        <f t="shared" si="179"/>
+        <v>1908</v>
+      </c>
+      <c r="B275" s="5">
+        <f t="shared" ref="B275:K275" si="190">B217*B$260/100</f>
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="C275" s="5">
+        <f t="shared" si="190"/>
+        <v>36.052500000000002</v>
+      </c>
+      <c r="D275" s="5">
+        <f t="shared" si="190"/>
+        <v>46.871000000000002</v>
+      </c>
+      <c r="E275" s="5">
+        <f t="shared" si="190"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="F275" s="5">
+        <f t="shared" si="190"/>
+        <v>2186.5500000000002</v>
+      </c>
+      <c r="G275" s="5">
+        <f t="shared" si="190"/>
+        <v>62.257250000000006</v>
+      </c>
+      <c r="H275" s="5">
+        <f t="shared" si="190"/>
+        <v>135.04975000000002</v>
+      </c>
+      <c r="I275" s="5">
+        <f t="shared" si="190"/>
+        <v>41.162000000000006</v>
+      </c>
+      <c r="J275" s="5">
+        <f t="shared" si="190"/>
+        <v>7.425000000000001E-2</v>
+      </c>
+      <c r="K275" s="5">
+        <f t="shared" si="190"/>
+        <v>2.5740000000000003</v>
+      </c>
+      <c r="L275" s="5">
+        <f t="shared" si="177"/>
+        <v>2511.0142500000006</v>
+      </c>
+      <c r="M275" s="5">
+        <f t="shared" si="178"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="O275" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15">
+      <c r="A276" s="37">
+        <f t="shared" si="179"/>
+        <v>1909</v>
+      </c>
+      <c r="B276" s="5">
+        <f t="shared" ref="B276:K276" si="191">B218*B$260/100</f>
+        <v>0.26674999999999999</v>
+      </c>
+      <c r="C276" s="5">
+        <f t="shared" si="191"/>
+        <v>67.3035</v>
+      </c>
+      <c r="D276" s="5">
+        <f t="shared" si="191"/>
+        <v>46.629000000000005</v>
+      </c>
+      <c r="E276" s="5">
+        <f t="shared" si="191"/>
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="F276" s="5">
+        <f t="shared" si="191"/>
+        <v>1971.335</v>
+      </c>
+      <c r="G276" s="5">
+        <f t="shared" si="191"/>
+        <v>89.545500000000004</v>
+      </c>
+      <c r="H276" s="5">
+        <f t="shared" si="191"/>
+        <v>237.26725000000002</v>
+      </c>
+      <c r="I276" s="5">
+        <f t="shared" si="191"/>
+        <v>43.518749999999997</v>
+      </c>
+      <c r="J276" s="5">
+        <f t="shared" si="191"/>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="K276" s="5">
+        <f t="shared" si="191"/>
+        <v>5.2965000000000009</v>
+      </c>
+      <c r="L276" s="5">
+        <f t="shared" si="177"/>
+        <v>2462.1907500000002</v>
+      </c>
+      <c r="M276" s="5">
+        <f t="shared" si="178"/>
+        <v>0.73425000000000007</v>
+      </c>
+      <c r="O276" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15">
+      <c r="A277" s="37">
+        <f t="shared" si="179"/>
+        <v>1910</v>
+      </c>
+      <c r="B277" s="5">
+        <f t="shared" ref="B277:K277" si="192">B219*B$260/100</f>
+        <v>0.51917891258708249</v>
+      </c>
+      <c r="C277" s="5">
+        <f t="shared" si="192"/>
+        <v>52.332500000000003</v>
+      </c>
+      <c r="D277" s="5">
+        <f t="shared" si="192"/>
+        <v>48.921964720903162</v>
+      </c>
+      <c r="E277" s="5">
+        <f t="shared" si="192"/>
+        <v>6.3968661026982954E-2</v>
+      </c>
+      <c r="F277" s="5">
+        <f t="shared" si="192"/>
+        <v>2527.9873867687093</v>
+      </c>
+      <c r="G277" s="5">
+        <f t="shared" si="192"/>
+        <v>92.650250000000014</v>
+      </c>
+      <c r="H277" s="5">
+        <f t="shared" si="192"/>
+        <v>235.98769770824489</v>
+      </c>
+      <c r="I277" s="5">
+        <f t="shared" si="192"/>
+        <v>66.792000000000002</v>
+      </c>
+      <c r="J277" s="5">
+        <f t="shared" si="192"/>
+        <v>0.65536672501086957</v>
+      </c>
+      <c r="K277" s="5">
+        <f t="shared" si="192"/>
+        <v>5.6204763510053644</v>
+      </c>
+      <c r="L277" s="5">
+        <f t="shared" si="177"/>
+        <v>3032.6596628796888</v>
+      </c>
+      <c r="M277" s="5">
+        <f t="shared" si="178"/>
+        <v>1.1288730322006961</v>
+      </c>
+      <c r="O277" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15">
+      <c r="A278" s="37">
+        <f t="shared" si="179"/>
+        <v>1911</v>
+      </c>
+      <c r="B278" s="5">
+        <f t="shared" ref="B278:K278" si="193">B220*B$260/100</f>
+        <v>1.0251789125870827</v>
+      </c>
+      <c r="C278" s="5">
+        <f t="shared" si="193"/>
+        <v>22.005500000000001</v>
+      </c>
+      <c r="D278" s="5">
+        <f t="shared" si="193"/>
+        <v>51.669214720903163</v>
+      </c>
+      <c r="E278" s="5">
+        <f t="shared" si="193"/>
+        <v>8.0468661026982954E-2</v>
+      </c>
+      <c r="F278" s="5">
+        <f t="shared" si="193"/>
+        <v>2472.3453867687094</v>
+      </c>
+      <c r="G278" s="5">
+        <f t="shared" si="193"/>
+        <v>64.415999999999997</v>
+      </c>
+      <c r="H278" s="5">
+        <f t="shared" si="193"/>
+        <v>179.92344770824491</v>
+      </c>
+      <c r="I278" s="5">
+        <f t="shared" si="193"/>
+        <v>73.438750000000013</v>
+      </c>
+      <c r="J278" s="5">
+        <f t="shared" si="193"/>
+        <v>1.1696167250108696</v>
+      </c>
+      <c r="K278" s="5">
+        <f t="shared" si="193"/>
+        <v>2.8127263510053648</v>
+      </c>
+      <c r="L278" s="5">
+        <f t="shared" si="177"/>
+        <v>2869.4156628796882</v>
+      </c>
+      <c r="M278" s="5">
+        <f t="shared" si="178"/>
+        <v>0.52937303220069609</v>
+      </c>
+      <c r="O278" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
+      <c r="A279" s="37">
+        <f t="shared" si="179"/>
+        <v>1912</v>
+      </c>
+      <c r="B279" s="5">
+        <f t="shared" ref="B279:K279" si="194">B221*B$260/100</f>
+        <v>3.0639147117357379</v>
+      </c>
+      <c r="C279" s="5">
+        <f t="shared" si="194"/>
+        <v>31.300500000000003</v>
+      </c>
+      <c r="D279" s="5">
+        <f t="shared" si="194"/>
+        <v>76.889461333478948</v>
+      </c>
+      <c r="E279" s="5">
+        <f t="shared" si="194"/>
+        <v>9.2460224688678844E-2</v>
+      </c>
+      <c r="F279" s="5">
+        <f t="shared" si="194"/>
+        <v>2708.3937919122791</v>
+      </c>
+      <c r="G279" s="5">
+        <f t="shared" si="194"/>
+        <v>83.162750000000017</v>
+      </c>
+      <c r="H279" s="5">
+        <f t="shared" si="194"/>
+        <v>374.6189225143408</v>
+      </c>
+      <c r="I279" s="5">
+        <f t="shared" si="194"/>
+        <v>154.29425000000001</v>
+      </c>
+      <c r="J279" s="5">
+        <f t="shared" si="194"/>
+        <v>3.5128521259075951</v>
+      </c>
+      <c r="K279" s="5">
+        <f t="shared" si="194"/>
+        <v>3.3455368112828574</v>
+      </c>
+      <c r="L279" s="5">
+        <f t="shared" si="177"/>
+        <v>3439.5065801560572</v>
+      </c>
+      <c r="M279" s="5">
+        <f t="shared" si="178"/>
+        <v>0.83214052234365365</v>
+      </c>
+      <c r="O279" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15">
+      <c r="A280" s="37">
+        <f t="shared" si="179"/>
+        <v>1913</v>
+      </c>
+      <c r="B280" s="5">
+        <f t="shared" ref="B280:K280" si="195">B222*B$260/100</f>
+        <v>4.6644147117357377</v>
+      </c>
+      <c r="C280" s="5">
+        <f t="shared" si="195"/>
+        <v>46.252250000000004</v>
+      </c>
+      <c r="D280" s="5">
+        <f t="shared" si="195"/>
+        <v>72.945961333478948</v>
+      </c>
+      <c r="E280" s="5">
+        <f t="shared" si="195"/>
+        <v>0.23546022468867886</v>
+      </c>
+      <c r="F280" s="5">
+        <f t="shared" si="195"/>
+        <v>3665.6382919122784</v>
+      </c>
+      <c r="G280" s="5">
+        <f t="shared" si="195"/>
+        <v>98.793750000000003</v>
+      </c>
+      <c r="H280" s="5">
+        <f t="shared" si="195"/>
+        <v>404.74792251434081</v>
+      </c>
+      <c r="I280" s="5">
+        <f t="shared" si="195"/>
+        <v>186.12825000000001</v>
+      </c>
+      <c r="J280" s="5">
+        <f t="shared" si="195"/>
+        <v>9.6316021259075963</v>
+      </c>
+      <c r="K280" s="5">
+        <f t="shared" si="195"/>
+        <v>4.3355368112828581</v>
+      </c>
+      <c r="L280" s="5">
+        <f t="shared" si="177"/>
+        <v>4495.6740801560554</v>
+      </c>
+      <c r="M280" s="5">
+        <f t="shared" si="178"/>
+        <v>2.3006405223436537</v>
+      </c>
+      <c r="O280" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15">
+      <c r="A281" s="37">
+        <f t="shared" si="179"/>
+        <v>1914</v>
+      </c>
+      <c r="B281" s="5">
+        <f t="shared" ref="B281:K281" si="196">B223*B$260/100</f>
+        <v>1.7545000000000002</v>
+      </c>
+      <c r="C281" s="5">
+        <f t="shared" si="196"/>
+        <v>26.507250000000003</v>
+      </c>
+      <c r="D281" s="5">
+        <f t="shared" si="196"/>
+        <v>26.994</v>
+      </c>
+      <c r="E281" s="5">
+        <f t="shared" si="196"/>
+        <v>0.1925</v>
+      </c>
+      <c r="F281" s="5">
+        <f t="shared" si="196"/>
+        <v>2409.8705</v>
+      </c>
+      <c r="G281" s="5">
+        <f t="shared" si="196"/>
+        <v>45.597750000000005</v>
+      </c>
+      <c r="H281" s="5">
+        <f t="shared" si="196"/>
+        <v>130.05025000000001</v>
+      </c>
+      <c r="I281" s="5">
+        <f t="shared" si="196"/>
+        <v>44.184249999999999</v>
+      </c>
+      <c r="J281" s="5">
+        <f t="shared" si="196"/>
+        <v>7.1335000000000006</v>
+      </c>
+      <c r="K281" s="5">
+        <f t="shared" si="196"/>
+        <v>2.20825</v>
+      </c>
+      <c r="L281" s="5">
+        <f t="shared" si="177"/>
+        <v>2695.9034999999994</v>
+      </c>
+      <c r="M281" s="5">
+        <f t="shared" si="178"/>
+        <v>1.4107500000000002</v>
+      </c>
+      <c r="O281" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
+      <c r="A282" s="37">
+        <f t="shared" si="179"/>
+        <v>1915</v>
+      </c>
+      <c r="B282" s="5">
+        <f t="shared" ref="B282:K282" si="197">B224*B$260/100</f>
+        <v>-1.3365</v>
+      </c>
+      <c r="C282" s="5">
+        <f t="shared" si="197"/>
+        <v>12.0395</v>
+      </c>
+      <c r="D282" s="5">
+        <f t="shared" si="197"/>
+        <v>2.1477500000000003</v>
+      </c>
+      <c r="E282" s="5">
+        <f t="shared" si="197"/>
+        <v>3.8500000000000006E-2</v>
+      </c>
+      <c r="F282" s="5">
+        <f t="shared" si="197"/>
+        <v>337.89400000000001</v>
+      </c>
+      <c r="G282" s="5">
+        <f t="shared" si="197"/>
+        <v>3.7482500000000005</v>
+      </c>
+      <c r="H282" s="5">
+        <f t="shared" si="197"/>
+        <v>-0.44</v>
+      </c>
+      <c r="I282" s="5">
+        <f t="shared" si="197"/>
+        <v>-31.765250000000002</v>
+      </c>
+      <c r="J282" s="5">
+        <f t="shared" si="197"/>
+        <v>0.33</v>
+      </c>
+      <c r="K282" s="5">
+        <f t="shared" si="197"/>
+        <v>0.94600000000000006</v>
+      </c>
+      <c r="L282" s="5">
+        <f t="shared" si="177"/>
+        <v>323.47575000000001</v>
+      </c>
+      <c r="M282" s="5">
+        <f t="shared" si="178"/>
+        <v>-0.1265</v>
+      </c>
+      <c r="O282" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
+      <c r="A283" s="37">
+        <v>1916</v>
+      </c>
+      <c r="B283" s="5">
+        <f t="shared" ref="B283:K283" si="198">B225*B$260/100</f>
+        <v>-0.51532994793145948</v>
+      </c>
+      <c r="C283" s="5">
+        <f t="shared" si="198"/>
+        <v>16.346</v>
+      </c>
+      <c r="D283" s="5">
+        <f t="shared" si="198"/>
+        <v>0.24133919260606582</v>
+      </c>
+      <c r="E283" s="5">
+        <f t="shared" si="198"/>
+        <v>5.1204225484229607E-2</v>
+      </c>
+      <c r="F283" s="5">
+        <f t="shared" si="198"/>
+        <v>216.70721853762561</v>
+      </c>
+      <c r="G283" s="5">
+        <f t="shared" si="198"/>
+        <v>0.39874999999999999</v>
+      </c>
+      <c r="H283" s="5">
+        <f t="shared" si="198"/>
+        <v>1.841165571064707</v>
+      </c>
+      <c r="I283" s="5">
+        <f t="shared" si="198"/>
+        <v>-23.28425</v>
+      </c>
+      <c r="J283" s="5">
+        <f t="shared" si="198"/>
+        <v>3.0248438078604955E-2</v>
+      </c>
+      <c r="K283" s="5">
+        <f t="shared" si="198"/>
+        <v>2.2304531584373568</v>
+      </c>
+      <c r="L283" s="5">
+        <f t="shared" si="177"/>
+        <v>214.70685337583635</v>
+      </c>
+      <c r="M283" s="5">
+        <f t="shared" si="178"/>
+        <v>0.66005420047117358</v>
+      </c>
+      <c r="O283" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15">
+      <c r="A284" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B284" s="5">
+        <f>SUM(B263:B283)</f>
+        <v>12.422740220829816</v>
+      </c>
+      <c r="C284" s="5">
+        <f t="shared" ref="C284:M284" si="199">SUM(C263:C283)</f>
+        <v>842.78638195403369</v>
+      </c>
+      <c r="D284" s="5">
+        <f t="shared" si="199"/>
+        <v>812.02751631924195</v>
+      </c>
+      <c r="E284" s="5">
+        <f t="shared" si="199"/>
+        <v>1.1913075807293054</v>
+      </c>
+      <c r="F284" s="5">
+        <f t="shared" si="199"/>
+        <v>45378.040067088892</v>
+      </c>
+      <c r="G284" s="5">
+        <f t="shared" si="199"/>
+        <v>1149.0505273167487</v>
+      </c>
+      <c r="H284" s="5">
+        <f t="shared" si="199"/>
+        <v>3183.5043594612052</v>
+      </c>
+      <c r="I284" s="5">
+        <f t="shared" si="199"/>
+        <v>720.2211034264061</v>
+      </c>
+      <c r="J284" s="5">
+        <f t="shared" si="199"/>
+        <v>26.925849896224896</v>
+      </c>
+      <c r="K284" s="5">
+        <f t="shared" si="199"/>
+        <v>94.113485622879011</v>
+      </c>
+      <c r="L284" s="5">
+        <f t="shared" si="199"/>
+        <v>52230.769008866242</v>
+      </c>
+      <c r="M284" s="5">
+        <f t="shared" si="199"/>
+        <v>10.485669979046747</v>
+      </c>
+      <c r="O284" s="5">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15">
+      <c r="A286" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
+      <c r="A288" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F288" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G288" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H288" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I288" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J288" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K288" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L288" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M288" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O288" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15">
+      <c r="A289" s="37">
+        <v>1896</v>
+      </c>
+      <c r="B289" s="5">
+        <f>B205+B234+B263</f>
+        <v>0.18189802405423203</v>
+      </c>
+      <c r="C289" s="5">
+        <f t="shared" ref="C289:M289" si="200">C205+C234+C263</f>
+        <v>4204.0906285130268</v>
+      </c>
+      <c r="D289" s="5">
+        <f t="shared" si="200"/>
+        <v>3028.8302428162965</v>
+      </c>
+      <c r="E289" s="5">
+        <f t="shared" si="200"/>
+        <v>0.47655281751519746</v>
+      </c>
+      <c r="F289" s="5">
+        <f t="shared" si="200"/>
+        <v>18713.923598992485</v>
+      </c>
+      <c r="G289" s="5">
+        <f t="shared" si="200"/>
+        <v>4151.0306735855238</v>
+      </c>
+      <c r="H289" s="5">
+        <f t="shared" si="200"/>
+        <v>8528.3020844550338</v>
+      </c>
+      <c r="I289" s="5">
+        <f t="shared" si="200"/>
+        <v>447.23968094628611</v>
+      </c>
+      <c r="J289" s="5">
+        <f t="shared" si="200"/>
+        <v>7.1769499095629063</v>
+      </c>
+      <c r="K289" s="5">
+        <f t="shared" si="200"/>
+        <v>700.38795977928066</v>
+      </c>
+      <c r="L289" s="5">
+        <f t="shared" si="200"/>
+        <v>39813.064880859201</v>
+      </c>
+      <c r="M289" s="5">
+        <f t="shared" si="200"/>
+        <v>31.424611020135838</v>
+      </c>
+      <c r="O289" s="5">
+        <f t="shared" ref="O289:O310" si="201">SUM(B289:K289) +M289 -L289</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15">
+      <c r="A290" s="37">
+        <f>A289+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B290" s="5">
+        <f t="shared" ref="B290:M290" si="202">B206+B235+B264</f>
+        <v>0.14295199510868473</v>
+      </c>
+      <c r="C290" s="5">
+        <f t="shared" si="202"/>
+        <v>3303.9564123273885</v>
+      </c>
+      <c r="D290" s="5">
+        <f t="shared" si="202"/>
+        <v>2380.3300135191216</v>
+      </c>
+      <c r="E290" s="5">
+        <f t="shared" si="202"/>
+        <v>0.37451850503967832</v>
+      </c>
+      <c r="F290" s="5">
+        <f t="shared" si="202"/>
+        <v>14707.101568018557</v>
+      </c>
+      <c r="G290" s="5">
+        <f t="shared" si="202"/>
+        <v>3262.2570785567154</v>
+      </c>
+      <c r="H290" s="5">
+        <f t="shared" si="202"/>
+        <v>6702.3146853916442</v>
+      </c>
+      <c r="I290" s="5">
+        <f t="shared" si="202"/>
+        <v>351.48157884321853</v>
+      </c>
+      <c r="J290" s="5">
+        <f t="shared" si="202"/>
+        <v>5.640299358398897</v>
+      </c>
+      <c r="K290" s="5">
+        <f t="shared" si="202"/>
+        <v>550.42849817158299</v>
+      </c>
+      <c r="L290" s="5">
+        <f t="shared" si="202"/>
+        <v>31288.72391936199</v>
+      </c>
+      <c r="M290" s="5">
+        <f t="shared" si="202"/>
+        <v>24.696314675212871</v>
+      </c>
+      <c r="O290" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15">
+      <c r="A291" s="37">
+        <f t="shared" ref="A291:A308" si="203">A290+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B291" s="5">
+        <f t="shared" ref="B291:M291" si="204">B207+B236+B265</f>
+        <v>7.6540842007987775E-2</v>
+      </c>
+      <c r="C291" s="5">
+        <f t="shared" si="204"/>
+        <v>4341.5672836010881</v>
+      </c>
+      <c r="D291" s="5">
+        <f t="shared" si="204"/>
+        <v>4148.4623272486588</v>
+      </c>
+      <c r="E291" s="5">
+        <f t="shared" si="204"/>
+        <v>0.65904269231144808</v>
+      </c>
+      <c r="F291" s="5">
+        <f t="shared" si="204"/>
+        <v>21126.852872643347</v>
+      </c>
+      <c r="G291" s="5">
+        <f t="shared" si="204"/>
+        <v>4905.1904689559824</v>
+      </c>
+      <c r="H291" s="5">
+        <f t="shared" si="204"/>
+        <v>10009.209111502594</v>
+      </c>
+      <c r="I291" s="5">
+        <f t="shared" si="204"/>
+        <v>803.40062170431111</v>
+      </c>
+      <c r="J291" s="5">
+        <f t="shared" si="204"/>
+        <v>17.672664423436927</v>
+      </c>
+      <c r="K291" s="5">
+        <f t="shared" si="204"/>
+        <v>819.84169262173589</v>
+      </c>
+      <c r="L291" s="5">
+        <f t="shared" si="204"/>
+        <v>46247.924446079545</v>
+      </c>
+      <c r="M291" s="5">
+        <f t="shared" si="204"/>
+        <v>74.991819844067422</v>
+      </c>
+      <c r="O291" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15">
+      <c r="A292" s="37">
+        <f t="shared" si="203"/>
+        <v>1899</v>
+      </c>
+      <c r="B292" s="5">
+        <f t="shared" ref="B292:M292" si="205">B208+B237+B266</f>
+        <v>0.52503819001520269</v>
+      </c>
+      <c r="C292" s="5">
+        <f t="shared" si="205"/>
+        <v>7895.8083423829221</v>
+      </c>
+      <c r="D292" s="5">
+        <f t="shared" si="205"/>
+        <v>5729.7701571252255</v>
+      </c>
+      <c r="E292" s="5">
+        <f t="shared" si="205"/>
+        <v>1.3755423130942093</v>
+      </c>
+      <c r="F292" s="5">
+        <f t="shared" si="205"/>
+        <v>33457.292994750533</v>
+      </c>
+      <c r="G292" s="5">
+        <f t="shared" si="205"/>
+        <v>7914.673289585915</v>
+      </c>
+      <c r="H292" s="5">
+        <f t="shared" si="205"/>
+        <v>15730.580934496935</v>
+      </c>
+      <c r="I292" s="5">
+        <f t="shared" si="205"/>
+        <v>1047.7449117982842</v>
+      </c>
+      <c r="J292" s="5">
+        <f t="shared" si="205"/>
+        <v>14.652676757362466</v>
+      </c>
+      <c r="K292" s="5">
+        <f t="shared" si="205"/>
+        <v>1489.7583510908244</v>
+      </c>
+      <c r="L292" s="5">
+        <f t="shared" si="205"/>
+        <v>73368.435776257713</v>
+      </c>
+      <c r="M292" s="5">
+        <f t="shared" si="205"/>
+        <v>86.253537766598839</v>
+      </c>
+      <c r="O292" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
+      <c r="A293" s="37">
+        <f t="shared" si="203"/>
+        <v>1900</v>
+      </c>
+      <c r="B293" s="5">
+        <f t="shared" ref="B293:M293" si="206">B209+B238+B267</f>
+        <v>0.52503819001520269</v>
+      </c>
+      <c r="C293" s="5">
+        <f t="shared" si="206"/>
+        <v>9562.3373024355169</v>
+      </c>
+      <c r="D293" s="5">
+        <f t="shared" si="206"/>
+        <v>5868.5830755796196</v>
+      </c>
+      <c r="E293" s="5">
+        <f t="shared" si="206"/>
+        <v>0.91702820872947277</v>
+      </c>
+      <c r="F293" s="5">
+        <f t="shared" si="206"/>
+        <v>40764.440903485578</v>
+      </c>
+      <c r="G293" s="5">
+        <f t="shared" si="206"/>
+        <v>8823.232516934353</v>
+      </c>
+      <c r="H293" s="5">
+        <f t="shared" si="206"/>
+        <v>18195.867548583603</v>
+      </c>
+      <c r="I293" s="5">
+        <f t="shared" si="206"/>
+        <v>675.72492539790119</v>
+      </c>
+      <c r="J293" s="5">
+        <f t="shared" si="206"/>
+        <v>6.0631765892534339</v>
+      </c>
+      <c r="K293" s="5">
+        <f t="shared" si="206"/>
+        <v>1496.5040350212253</v>
+      </c>
+      <c r="L293" s="5">
+        <f t="shared" si="206"/>
+        <v>85423.132221160398</v>
+      </c>
+      <c r="M293" s="5">
+        <f t="shared" si="206"/>
+        <v>28.936670734600899</v>
+      </c>
+      <c r="O293" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
+      <c r="A294" s="37">
+        <f t="shared" si="203"/>
+        <v>1901</v>
+      </c>
+      <c r="B294" s="5">
+        <f t="shared" ref="B294:M294" si="207">B210+B239+B268</f>
+        <v>0</v>
+      </c>
+      <c r="C294" s="5">
+        <f t="shared" si="207"/>
+        <v>10131.883570304435</v>
+      </c>
+      <c r="D294" s="5">
+        <f t="shared" si="207"/>
+        <v>7573.3124933676218</v>
+      </c>
+      <c r="E294" s="5">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="F294" s="5">
+        <f t="shared" si="207"/>
+        <v>41220.2846467649</v>
+      </c>
+      <c r="G294" s="5">
+        <f t="shared" si="207"/>
+        <v>8674.5004014253554</v>
+      </c>
+      <c r="H294" s="5">
+        <f t="shared" si="207"/>
+        <v>22895.966684100626</v>
+      </c>
+      <c r="I294" s="5">
+        <f t="shared" si="207"/>
+        <v>813.46885249824265</v>
+      </c>
+      <c r="J294" s="5">
+        <f t="shared" si="207"/>
+        <v>6.0631765892534339</v>
+      </c>
+      <c r="K294" s="5">
+        <f t="shared" si="207"/>
+        <v>1428.0093981894631</v>
+      </c>
+      <c r="L294" s="5">
+        <f t="shared" si="207"/>
+        <v>92750.166916486327</v>
+      </c>
+      <c r="M294" s="5">
+        <f t="shared" si="207"/>
+        <v>6.6776932464463616</v>
+      </c>
+      <c r="O294" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
+      <c r="A295" s="37">
+        <f t="shared" si="203"/>
+        <v>1902</v>
+      </c>
+      <c r="B295" s="5">
+        <f t="shared" ref="B295:M295" si="208">B211+B240+B269</f>
+        <v>0</v>
+      </c>
+      <c r="C295" s="5">
+        <f t="shared" si="208"/>
+        <v>13879.234294669761</v>
+      </c>
+      <c r="D295" s="5">
+        <f t="shared" si="208"/>
+        <v>10158.436151660611</v>
+      </c>
+      <c r="E295" s="5">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="F295" s="5">
+        <f t="shared" si="208"/>
+        <v>46695.322851972509</v>
+      </c>
+      <c r="G295" s="5">
+        <f t="shared" si="208"/>
+        <v>11268.074403235973</v>
+      </c>
+      <c r="H295" s="5">
+        <f t="shared" si="208"/>
+        <v>30374.16825784824</v>
+      </c>
+      <c r="I295" s="5">
+        <f t="shared" si="208"/>
+        <v>1893.8861782718097</v>
+      </c>
+      <c r="J295" s="5">
+        <f t="shared" si="208"/>
+        <v>12.126353178506868</v>
+      </c>
+      <c r="K295" s="5">
+        <f t="shared" si="208"/>
+        <v>1711.3281232662969</v>
+      </c>
+      <c r="L295" s="5">
+        <f t="shared" si="208"/>
+        <v>115998.97607013154</v>
+      </c>
+      <c r="M295" s="5">
+        <f t="shared" si="208"/>
+        <v>6.3994560278444297</v>
+      </c>
+      <c r="O295" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
+      <c r="A296" s="37">
+        <f t="shared" si="203"/>
+        <v>1903</v>
+      </c>
+      <c r="B296" s="5">
+        <f t="shared" ref="B296:M296" si="209">B212+B241+B270</f>
+        <v>8.9256492302584451</v>
+      </c>
+      <c r="C296" s="5">
+        <f t="shared" si="209"/>
+        <v>12272.679960285217</v>
+      </c>
+      <c r="D296" s="5">
+        <f t="shared" si="209"/>
+        <v>9403.5074336047892</v>
+      </c>
+      <c r="E296" s="5">
+        <f t="shared" si="209"/>
+        <v>1.3755423130942093</v>
+      </c>
+      <c r="F296" s="5">
+        <f t="shared" si="209"/>
+        <v>68367.280840837935</v>
+      </c>
+      <c r="G296" s="5">
+        <f t="shared" si="209"/>
+        <v>12529.987880163239</v>
+      </c>
+      <c r="H296" s="5">
+        <f t="shared" si="209"/>
+        <v>29843.705444948089</v>
+      </c>
+      <c r="I296" s="5">
+        <f t="shared" si="209"/>
+        <v>2774.1849684467679</v>
+      </c>
+      <c r="J296" s="5">
+        <f t="shared" si="209"/>
+        <v>99.537149006910553</v>
+      </c>
+      <c r="K296" s="5">
+        <f t="shared" si="209"/>
+        <v>1267.1507813875978</v>
+      </c>
+      <c r="L296" s="5">
+        <f t="shared" si="209"/>
+        <v>136610.62770745138</v>
+      </c>
+      <c r="M296" s="5">
+        <f t="shared" si="209"/>
+        <v>42.292057227493629</v>
+      </c>
+      <c r="O296" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
+      <c r="A297" s="37">
+        <f t="shared" si="203"/>
+        <v>1904</v>
+      </c>
+      <c r="B297" s="5">
+        <f t="shared" ref="B297:M297" si="210">B213+B242+B271</f>
+        <v>14.176031130410474</v>
+      </c>
+      <c r="C297" s="5">
+        <f t="shared" si="210"/>
+        <v>11377.314094815409</v>
+      </c>
+      <c r="D297" s="5">
+        <f t="shared" si="210"/>
+        <v>7394.4573868975376</v>
+      </c>
+      <c r="E297" s="5">
+        <f t="shared" si="210"/>
+        <v>3.6681128349178911</v>
+      </c>
+      <c r="F297" s="5">
+        <f t="shared" si="210"/>
+        <v>92769.388003523607</v>
+      </c>
+      <c r="G297" s="5">
+        <f t="shared" si="210"/>
+        <v>14021.466144071783</v>
+      </c>
+      <c r="H297" s="5">
+        <f t="shared" si="210"/>
+        <v>33019.861881626377</v>
+      </c>
+      <c r="I297" s="5">
+        <f t="shared" si="210"/>
+        <v>2667.6283455955604</v>
+      </c>
+      <c r="J297" s="5">
+        <f t="shared" si="210"/>
+        <v>177.34791523566292</v>
+      </c>
+      <c r="K297" s="5">
+        <f t="shared" si="210"/>
+        <v>810.00097041197387</v>
+      </c>
+      <c r="L297" s="5">
+        <f t="shared" si="210"/>
+        <v>162316.24283701705</v>
+      </c>
+      <c r="M297" s="5">
+        <f t="shared" si="210"/>
+        <v>60.933950873823058</v>
+      </c>
+      <c r="O297" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
+      <c r="A298" s="37">
+        <f t="shared" si="203"/>
+        <v>1905</v>
+      </c>
+      <c r="B298" s="5">
+        <f t="shared" ref="B298:M298" si="211">B214+B243+B272</f>
+        <v>73.50534660212837</v>
+      </c>
+      <c r="C298" s="5">
+        <f t="shared" si="211"/>
+        <v>12816.705110848581</v>
+      </c>
+      <c r="D298" s="5">
+        <f t="shared" si="211"/>
+        <v>9076.7631793967539</v>
+      </c>
+      <c r="E298" s="5">
+        <f t="shared" si="211"/>
+        <v>9.1702820872947282</v>
+      </c>
+      <c r="F298" s="5">
+        <f t="shared" si="211"/>
+        <v>118804.34383225534</v>
+      </c>
+      <c r="G298" s="5">
+        <f t="shared" si="211"/>
+        <v>14478.748114114973</v>
+      </c>
+      <c r="H298" s="5">
+        <f t="shared" si="211"/>
+        <v>38658.40848957518</v>
+      </c>
+      <c r="I298" s="5">
+        <f t="shared" si="211"/>
+        <v>3178.1348139593592</v>
+      </c>
+      <c r="J298" s="5">
+        <f t="shared" si="211"/>
+        <v>220.80068079197923</v>
+      </c>
+      <c r="K298" s="5">
+        <f t="shared" si="211"/>
+        <v>844.24828882785482</v>
+      </c>
+      <c r="L298" s="5">
+        <f t="shared" si="211"/>
+        <v>198230.10920589135</v>
+      </c>
+      <c r="M298" s="5">
+        <f t="shared" si="211"/>
+        <v>69.281067431880999</v>
+      </c>
+      <c r="O298" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
+      <c r="A299" s="37">
+        <f t="shared" si="203"/>
+        <v>1906</v>
+      </c>
+      <c r="B299" s="5">
+        <f t="shared" ref="B299:M299" si="212">B215+B244+B273</f>
+        <v>247.29298749716045</v>
+      </c>
+      <c r="C299" s="5">
+        <f t="shared" si="212"/>
+        <v>11812.874496830173</v>
+      </c>
+      <c r="D299" s="5">
+        <f t="shared" si="212"/>
+        <v>12684.831267530586</v>
+      </c>
+      <c r="E299" s="5">
+        <f t="shared" si="212"/>
+        <v>27.969360366248921</v>
+      </c>
+      <c r="F299" s="5">
+        <f t="shared" si="212"/>
+        <v>131111.57898014644</v>
+      </c>
+      <c r="G299" s="5">
+        <f t="shared" si="212"/>
+        <v>17786.882931740554</v>
+      </c>
+      <c r="H299" s="5">
+        <f t="shared" si="212"/>
+        <v>49374.419354230507</v>
+      </c>
+      <c r="I299" s="5">
+        <f t="shared" si="212"/>
+        <v>7933.0848796576684</v>
+      </c>
+      <c r="J299" s="5">
+        <f t="shared" si="212"/>
+        <v>206.65326875038789</v>
+      </c>
+      <c r="K299" s="5">
+        <f t="shared" si="212"/>
+        <v>1220.9687914025458</v>
+      </c>
+      <c r="L299" s="5">
+        <f t="shared" si="212"/>
+        <v>232522.30300109071</v>
+      </c>
+      <c r="M299" s="5">
+        <f t="shared" si="212"/>
+        <v>115.74668293840359</v>
+      </c>
+      <c r="O299" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
+      <c r="A300" s="37">
+        <f t="shared" si="203"/>
+        <v>1907</v>
+      </c>
+      <c r="B300" s="5">
+        <f t="shared" ref="B300:M300" si="213">B216+B245+B274</f>
+        <v>208.95905369406049</v>
+      </c>
+      <c r="C300" s="5">
+        <f t="shared" si="213"/>
+        <v>7748.6758658462741</v>
+      </c>
+      <c r="D300" s="5">
+        <f t="shared" si="213"/>
+        <v>12617.13890073923</v>
+      </c>
+      <c r="E300" s="5">
+        <f t="shared" si="213"/>
+        <v>30.688960598530684</v>
+      </c>
+      <c r="F300" s="5">
+        <f t="shared" si="213"/>
+        <v>101555.80139281521</v>
+      </c>
+      <c r="G300" s="5">
+        <f t="shared" si="213"/>
+        <v>17098.928165906262</v>
+      </c>
+      <c r="H300" s="5">
+        <f t="shared" si="213"/>
+        <v>41411.705252982138</v>
+      </c>
+      <c r="I300" s="5">
+        <f t="shared" si="213"/>
+        <v>11441.336115491089</v>
+      </c>
+      <c r="J300" s="5">
+        <f t="shared" si="213"/>
+        <v>68.450586579151079</v>
+      </c>
+      <c r="K300" s="5">
+        <f t="shared" si="213"/>
+        <v>952.67608223408058</v>
+      </c>
+      <c r="L300" s="5">
+        <f t="shared" si="213"/>
+        <v>193187.83410723929</v>
+      </c>
+      <c r="M300" s="5">
+        <f t="shared" si="213"/>
+        <v>53.473730353229314</v>
+      </c>
+      <c r="O300" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
+      <c r="A301" s="37">
+        <f t="shared" si="203"/>
+        <v>1908</v>
+      </c>
+      <c r="B301" s="5">
+        <f t="shared" ref="B301:M301" si="214">B217+B246+B275</f>
+        <v>57.583870786516862</v>
+      </c>
+      <c r="C301" s="5">
+        <f t="shared" si="214"/>
+        <v>7401.2210393258429</v>
+      </c>
+      <c r="D301" s="5">
+        <f t="shared" si="214"/>
+        <v>9622.1518988764037</v>
+      </c>
+      <c r="E301" s="5">
+        <f t="shared" si="214"/>
+        <v>11.290955056179776</v>
+      </c>
+      <c r="F301" s="5">
+        <f t="shared" si="214"/>
+        <v>59321.381460674165</v>
+      </c>
+      <c r="G301" s="5">
+        <f t="shared" si="214"/>
+        <v>12780.796575842698</v>
+      </c>
+      <c r="H301" s="5">
+        <f t="shared" si="214"/>
+        <v>27724.37559269663</v>
+      </c>
+      <c r="I301" s="5">
+        <f t="shared" si="214"/>
+        <v>8450.1507640449454</v>
+      </c>
+      <c r="J301" s="5">
+        <f t="shared" si="214"/>
+        <v>15.242789325842697</v>
+      </c>
+      <c r="K301" s="5">
+        <f t="shared" si="214"/>
+        <v>528.41669662921345</v>
+      </c>
+      <c r="L301" s="5">
+        <f t="shared" si="214"/>
+        <v>125930.67717134833</v>
+      </c>
+      <c r="M301" s="5">
+        <f t="shared" si="214"/>
+        <v>18.065528089887643</v>
+      </c>
+      <c r="O301" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15">
+      <c r="A302" s="37">
+        <f t="shared" si="203"/>
+        <v>1909</v>
+      </c>
+      <c r="B302" s="5">
+        <f t="shared" ref="B302:M302" si="215">B218+B247+B276</f>
+        <v>54.761132022471912</v>
+      </c>
+      <c r="C302" s="5">
+        <f t="shared" si="215"/>
+        <v>13816.741702247193</v>
+      </c>
+      <c r="D302" s="5">
+        <f t="shared" si="215"/>
+        <v>9572.4716966292144</v>
+      </c>
+      <c r="E302" s="5">
+        <f t="shared" si="215"/>
+        <v>1.6936432584269665</v>
+      </c>
+      <c r="F302" s="5">
+        <f t="shared" si="215"/>
+        <v>53482.570955056181</v>
+      </c>
+      <c r="G302" s="5">
+        <f t="shared" si="215"/>
+        <v>18382.803926966295</v>
+      </c>
+      <c r="H302" s="5">
+        <f t="shared" si="215"/>
+        <v>48708.615564606742</v>
+      </c>
+      <c r="I302" s="5">
+        <f t="shared" si="215"/>
+        <v>8933.9681882022469</v>
+      </c>
+      <c r="J302" s="5">
+        <f t="shared" si="215"/>
+        <v>58.712966292134837</v>
+      </c>
+      <c r="K302" s="5">
+        <f t="shared" si="215"/>
+        <v>1087.3189719101124</v>
+      </c>
+      <c r="L302" s="5">
+        <f t="shared" si="215"/>
+        <v>154250.39299719103</v>
+      </c>
+      <c r="M302" s="5">
+        <f t="shared" si="215"/>
+        <v>150.73425</v>
+      </c>
+      <c r="O302" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15">
+      <c r="A303" s="37">
+        <f t="shared" si="203"/>
+        <v>1910</v>
+      </c>
+      <c r="B303" s="5">
+        <f t="shared" ref="B303:M303" si="216">B219+B248+B277</f>
+        <v>106.58228669340068</v>
+      </c>
+      <c r="C303" s="5">
+        <f t="shared" si="216"/>
+        <v>10743.343735955057</v>
+      </c>
+      <c r="D303" s="5">
+        <f t="shared" si="216"/>
+        <v>10043.194634976911</v>
+      </c>
+      <c r="E303" s="5">
+        <f t="shared" si="216"/>
+        <v>13.132132302902969</v>
+      </c>
+      <c r="F303" s="5">
+        <f t="shared" si="216"/>
+        <v>68584.621480542148</v>
+      </c>
+      <c r="G303" s="5">
+        <f t="shared" si="216"/>
+        <v>19020.17833988764</v>
+      </c>
+      <c r="H303" s="5">
+        <f t="shared" si="216"/>
+        <v>48445.936157002405</v>
+      </c>
+      <c r="I303" s="5">
+        <f t="shared" si="216"/>
+        <v>13711.73582022472</v>
+      </c>
+      <c r="J303" s="5">
+        <f t="shared" si="216"/>
+        <v>134.54029522569923</v>
+      </c>
+      <c r="K303" s="5">
+        <f t="shared" si="216"/>
+        <v>1153.8281067913251</v>
+      </c>
+      <c r="L303" s="5">
+        <f t="shared" si="216"/>
+        <v>172188.83943816059</v>
+      </c>
+      <c r="M303" s="5">
+        <f t="shared" si="216"/>
+        <v>231.74644855838989</v>
+      </c>
+      <c r="O303" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15">
+      <c r="A304" s="37">
+        <f t="shared" si="203"/>
+        <v>1911</v>
+      </c>
+      <c r="B304" s="5">
+        <f t="shared" ref="B304:M304" si="217">B220+B249+B278</f>
+        <v>210.45907321025464</v>
+      </c>
+      <c r="C304" s="5">
+        <f t="shared" si="217"/>
+        <v>4517.5111179775286</v>
+      </c>
+      <c r="D304" s="5">
+        <f t="shared" si="217"/>
+        <v>10607.177840033091</v>
+      </c>
+      <c r="E304" s="5">
+        <f t="shared" si="217"/>
+        <v>16.519418819756901</v>
+      </c>
+      <c r="F304" s="5">
+        <f t="shared" si="217"/>
+        <v>67075.046896272484</v>
+      </c>
+      <c r="G304" s="5">
+        <f t="shared" si="217"/>
+        <v>13223.966561797753</v>
+      </c>
+      <c r="H304" s="5">
+        <f t="shared" si="217"/>
+        <v>36936.501120485547</v>
+      </c>
+      <c r="I304" s="5">
+        <f t="shared" si="217"/>
+        <v>15076.247738764045</v>
+      </c>
+      <c r="J304" s="5">
+        <f t="shared" si="217"/>
+        <v>240.11072500098015</v>
+      </c>
+      <c r="K304" s="5">
+        <f t="shared" si="217"/>
+        <v>577.42485117334752</v>
+      </c>
+      <c r="L304" s="5">
+        <f t="shared" si="217"/>
+        <v>148589.6403819808</v>
+      </c>
+      <c r="M304" s="5">
+        <f t="shared" si="217"/>
+        <v>108.67503844603033</v>
+      </c>
+      <c r="O304" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15">
+      <c r="A305" s="37">
+        <f t="shared" si="203"/>
+        <v>1912</v>
+      </c>
+      <c r="B305" s="5">
+        <f t="shared" ref="B305:M305" si="218">B221+B250+B279</f>
+        <v>628.99133283956769</v>
+      </c>
+      <c r="C305" s="5">
+        <f t="shared" si="218"/>
+        <v>6425.6825224719105</v>
+      </c>
+      <c r="D305" s="5">
+        <f t="shared" si="218"/>
+        <v>15784.6445856397</v>
+      </c>
+      <c r="E305" s="5">
+        <f t="shared" si="218"/>
+        <v>18.981168026257393</v>
+      </c>
+      <c r="F305" s="5">
+        <f t="shared" si="218"/>
+        <v>73479.070350895272</v>
+      </c>
+      <c r="G305" s="5">
+        <f t="shared" si="218"/>
+        <v>17072.488592696631</v>
+      </c>
+      <c r="H305" s="5">
+        <f t="shared" si="218"/>
+        <v>76905.55304188939</v>
+      </c>
+      <c r="I305" s="5">
+        <f t="shared" si="218"/>
+        <v>31675.080766853935</v>
+      </c>
+      <c r="J305" s="5">
+        <f t="shared" si="218"/>
+        <v>721.15373586596775</v>
+      </c>
+      <c r="K305" s="5">
+        <f t="shared" si="218"/>
+        <v>686.80555954526801</v>
+      </c>
+      <c r="L305" s="5">
+        <f t="shared" si="218"/>
+        <v>223569.28186105497</v>
+      </c>
+      <c r="M305" s="5">
+        <f t="shared" si="218"/>
+        <v>170.83020433105736</v>
+      </c>
+      <c r="O305" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15">
+      <c r="A306" s="37">
+        <f t="shared" si="203"/>
+        <v>1913</v>
+      </c>
+      <c r="B306" s="5">
+        <f t="shared" ref="B306:M306" si="219">B222+B251+B280</f>
+        <v>957.55812497439922</v>
+      </c>
+      <c r="C306" s="5">
+        <f t="shared" si="219"/>
+        <v>9495.1286544943814</v>
+      </c>
+      <c r="D306" s="5">
+        <f t="shared" si="219"/>
+        <v>14975.08310811161</v>
+      </c>
+      <c r="E306" s="5">
+        <f t="shared" si="219"/>
+        <v>48.337651172324811</v>
+      </c>
+      <c r="F306" s="5">
+        <f t="shared" si="219"/>
+        <v>99449.236199209874</v>
+      </c>
+      <c r="G306" s="5">
+        <f t="shared" si="219"/>
+        <v>20281.378019662923</v>
+      </c>
+      <c r="H306" s="5">
+        <f t="shared" si="219"/>
+        <v>83090.738221664666</v>
+      </c>
+      <c r="I306" s="5">
+        <f t="shared" si="219"/>
+        <v>38210.285553370792</v>
+      </c>
+      <c r="J306" s="5">
+        <f t="shared" si="219"/>
+        <v>1977.2724858659681</v>
+      </c>
+      <c r="K306" s="5">
+        <f t="shared" si="219"/>
+        <v>890.04275055650407</v>
+      </c>
+      <c r="L306" s="5">
+        <f t="shared" si="219"/>
+        <v>269847.35947341454</v>
+      </c>
+      <c r="M306" s="5">
+        <f t="shared" si="219"/>
+        <v>472.29870433105737</v>
+      </c>
+      <c r="O306" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" s="37">
+        <f t="shared" si="203"/>
+        <v>1914</v>
+      </c>
+      <c r="B307" s="5">
+        <f t="shared" ref="B307:M307" si="220">B223+B252+B281</f>
+        <v>360.18146629213487</v>
+      </c>
+      <c r="C307" s="5">
+        <f t="shared" si="220"/>
+        <v>5441.6757893258427</v>
+      </c>
+      <c r="D307" s="5">
+        <f t="shared" si="220"/>
+        <v>5541.6007415730337</v>
+      </c>
+      <c r="E307" s="5">
+        <f t="shared" si="220"/>
+        <v>39.518342696629219</v>
+      </c>
+      <c r="F307" s="5">
+        <f t="shared" si="220"/>
+        <v>65380.095219101124</v>
+      </c>
+      <c r="G307" s="5">
+        <f t="shared" si="220"/>
+        <v>9360.7662893258439</v>
+      </c>
+      <c r="H307" s="5">
+        <f t="shared" si="220"/>
+        <v>26698.02777808989</v>
+      </c>
+      <c r="I307" s="5">
+        <f t="shared" si="220"/>
+        <v>9070.5887443820229</v>
+      </c>
+      <c r="J307" s="5">
+        <f t="shared" si="220"/>
+        <v>1464.4368707865169</v>
+      </c>
+      <c r="K307" s="5">
+        <f t="shared" si="220"/>
+        <v>453.33184550561805</v>
+      </c>
+      <c r="L307" s="5">
+        <f t="shared" si="220"/>
+        <v>124099.83608426967</v>
+      </c>
+      <c r="M307" s="5">
+        <f t="shared" si="220"/>
+        <v>289.61299719101129</v>
+      </c>
+      <c r="O307" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
+      <c r="A308" s="37">
+        <f t="shared" si="203"/>
+        <v>1915</v>
+      </c>
+      <c r="B308" s="5">
+        <f t="shared" ref="B308:M308" si="221">B224+B253+B282</f>
+        <v>-274.37020786516854</v>
+      </c>
+      <c r="C308" s="5">
+        <f t="shared" si="221"/>
+        <v>2471.5900617977527</v>
+      </c>
+      <c r="D308" s="5">
+        <f t="shared" si="221"/>
+        <v>440.91179494382021</v>
+      </c>
+      <c r="E308" s="5">
+        <f t="shared" si="221"/>
+        <v>7.9036685393258432</v>
+      </c>
+      <c r="F308" s="5">
+        <f t="shared" si="221"/>
+        <v>9167.1074831460683</v>
+      </c>
+      <c r="G308" s="5">
+        <f t="shared" si="221"/>
+        <v>769.47858707865169</v>
+      </c>
+      <c r="H308" s="5">
+        <f t="shared" si="221"/>
+        <v>-90.327640449438206</v>
+      </c>
+      <c r="I308" s="5">
+        <f t="shared" si="221"/>
+        <v>-6521.0910926966299</v>
+      </c>
+      <c r="J308" s="5">
+        <f t="shared" si="221"/>
+        <v>67.745730337078655</v>
+      </c>
+      <c r="K308" s="5">
+        <f t="shared" si="221"/>
+        <v>194.20442696629215</v>
+      </c>
+      <c r="L308" s="5">
+        <f t="shared" si="221"/>
+        <v>6207.1836151685393</v>
+      </c>
+      <c r="M308" s="5">
+        <f t="shared" si="221"/>
+        <v>-25.969196629213485</v>
+      </c>
+      <c r="O308" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15">
+      <c r="A309" s="37">
+        <v>1916</v>
+      </c>
+      <c r="B309" s="5">
+        <f t="shared" ref="B309:M309" si="222">B225+B254+B283</f>
+        <v>-105.79213238541043</v>
+      </c>
+      <c r="C309" s="5">
+        <f t="shared" si="222"/>
+        <v>3355.6718426966295</v>
+      </c>
+      <c r="D309" s="5">
+        <f t="shared" si="222"/>
+        <v>49.544545036541884</v>
+      </c>
+      <c r="E309" s="5">
+        <f t="shared" si="222"/>
+        <v>10.511720156889664</v>
+      </c>
+      <c r="F309" s="5">
+        <f t="shared" si="222"/>
+        <v>5879.2945856038814</v>
+      </c>
+      <c r="G309" s="5">
+        <f t="shared" si="222"/>
+        <v>81.85942415730338</v>
+      </c>
+      <c r="H309" s="5">
+        <f t="shared" si="222"/>
+        <v>377.97304934322142</v>
+      </c>
+      <c r="I309" s="5">
+        <f t="shared" si="222"/>
+        <v>-4780.0258230337076</v>
+      </c>
+      <c r="J309" s="5">
+        <f t="shared" si="222"/>
+        <v>6.2097046339120991</v>
+      </c>
+      <c r="K309" s="5">
+        <f t="shared" si="222"/>
+        <v>457.88993394237133</v>
+      </c>
+      <c r="L309" s="5">
+        <f t="shared" si="222"/>
+        <v>5468.6394376455</v>
+      </c>
+      <c r="M309" s="5">
+        <f t="shared" si="222"/>
+        <v>135.5025874938672</v>
+      </c>
+      <c r="O309" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="A310" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B310" s="5">
+        <f>SUM(B289:B309)</f>
+        <v>2550.2654819633863</v>
+      </c>
+      <c r="C310" s="5">
+        <f t="shared" ref="C310:M310" si="223">SUM(C289:C309)</f>
+        <v>173015.69382915195</v>
+      </c>
+      <c r="D310" s="5">
+        <f t="shared" si="223"/>
+        <v>166701.20347530636</v>
+      </c>
+      <c r="E310" s="5">
+        <f t="shared" si="223"/>
+        <v>244.56364276546998</v>
+      </c>
+      <c r="F310" s="5">
+        <f t="shared" si="223"/>
+        <v>1231112.0371167075</v>
+      </c>
+      <c r="G310" s="5">
+        <f t="shared" si="223"/>
+        <v>235888.68838569237</v>
+      </c>
+      <c r="H310" s="5">
+        <f t="shared" si="223"/>
+        <v>653541.90261507011</v>
+      </c>
+      <c r="I310" s="5">
+        <f t="shared" si="223"/>
+        <v>147854.25653272288</v>
+      </c>
+      <c r="J310" s="5">
+        <f t="shared" si="223"/>
+        <v>5527.6102005039666</v>
+      </c>
+      <c r="K310" s="5">
+        <f t="shared" si="223"/>
+        <v>19320.566115424514</v>
+      </c>
+      <c r="L310" s="5">
+        <f t="shared" si="223"/>
+        <v>2637909.3915492608</v>
+      </c>
+      <c r="M310" s="5">
+        <f t="shared" si="223"/>
+        <v>2152.6041539518251</v>
+      </c>
+      <c r="O310" s="5">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13046,7 +17210,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -13597,7 +17761,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -13612,7 +17776,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -13642,7 +17806,7 @@
         <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>110</v>
@@ -13654,13 +17818,13 @@
         <v>112</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>80</v>
@@ -13933,27 +18097,27 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13961,7 +18125,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13969,7 +18133,7 @@
         <v>1908</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13977,7 +18141,7 @@
         <v>1917</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13989,43 +18153,43 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="G14" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="G14" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>170</v>
-      </c>
       <c r="D15" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>170</v>
-      </c>
       <c r="G15" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>170</v>
-      </c>
       <c r="J15" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14726,8 +18890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1A41B-E56C-436F-BC19-85A66CBD0B6E}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14778,7 +18942,7 @@
         <v>81</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P1" s="11"/>
     </row>
@@ -14787,40 +18951,40 @@
         <v>1896</v>
       </c>
       <c r="B2" s="5">
-        <v>0.16110065370836404</v>
+        <v>0.18189802405423203</v>
       </c>
       <c r="C2" s="5">
-        <v>3723.4145451779477</v>
+        <v>4204.0906285130268</v>
       </c>
       <c r="D2" s="5">
-        <v>2682.5279418312398</v>
+        <v>3028.8302428162965</v>
       </c>
       <c r="E2" s="5">
-        <v>0.42206599454522681</v>
+        <v>0.47655281751519746</v>
       </c>
       <c r="F2" s="5">
-        <v>16041.484395295356</v>
+        <v>18713.923598992485</v>
       </c>
       <c r="G2" s="5">
-        <v>3676.4212176308129</v>
+        <v>4151.0306735855238</v>
       </c>
       <c r="H2" s="5">
-        <v>7550.8722636397251</v>
+        <v>8528.3020844550338</v>
       </c>
       <c r="I2" s="5">
-        <v>396.10438507724155</v>
+        <v>447.23968094628611</v>
       </c>
       <c r="J2" s="5">
-        <v>6.3563709835465261</v>
+        <v>7.1769499095629063</v>
       </c>
       <c r="K2" s="5">
-        <v>620.30887227377957</v>
+        <v>700.38795977928066</v>
       </c>
       <c r="L2" s="5">
-        <v>34225.730774792741</v>
+        <v>39813.064880859201</v>
       </c>
       <c r="M2" s="5">
-        <v>27.831667794068927</v>
+        <v>31.424611020135838</v>
       </c>
       <c r="O2" s="32">
         <v>0.76905150314611981</v>
@@ -14833,40 +18997,40 @@
         <v>1897</v>
       </c>
       <c r="B3" s="5">
-        <v>0.12660753177867279</v>
+        <v>0.14295199510868473</v>
       </c>
       <c r="C3" s="5">
-        <v>2926.1974703539927</v>
+        <v>3303.9564123273885</v>
       </c>
       <c r="D3" s="5">
-        <v>2108.1741993263158</v>
+        <v>2380.3300135191216</v>
       </c>
       <c r="E3" s="5">
-        <v>0.33169780871167004</v>
+        <v>0.37451850503967832</v>
       </c>
       <c r="F3" s="5">
-        <v>12606.856015811412</v>
+        <v>14707.101568018557</v>
       </c>
       <c r="G3" s="5">
-        <v>2889.2658436110005</v>
+        <v>3262.2570785567154</v>
       </c>
       <c r="H3" s="5">
-        <v>5934.1615199531125</v>
+        <v>6702.3146853916442</v>
       </c>
       <c r="I3" s="5">
-        <v>311.29481704104853</v>
+        <v>351.48157884321853</v>
       </c>
       <c r="J3" s="5">
-        <v>4.9954138780420028</v>
+        <v>5.640299358398897</v>
       </c>
       <c r="K3" s="5">
-        <v>487.4950749806784</v>
+        <v>550.42849817158299</v>
       </c>
       <c r="L3" s="5">
-        <v>26897.689096669987</v>
+        <v>31288.72391936199</v>
       </c>
       <c r="M3" s="5">
-        <v>21.872653422436628</v>
+        <v>24.696314675212871</v>
       </c>
       <c r="O3" s="32">
         <v>1.1447260834014719</v>
@@ -14879,40 +19043,40 @@
         <v>1898</v>
       </c>
       <c r="B4" s="5">
-        <v>6.7789519688235211E-2</v>
+        <v>7.6540842007987775E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>3845.172761736269</v>
+        <v>4341.5672836010881</v>
       </c>
       <c r="D4" s="5">
-        <v>3674.146524016247</v>
+        <v>4148.4623272486588</v>
       </c>
       <c r="E4" s="5">
-        <v>0.58369082954655838</v>
+        <v>0.65904269231144808</v>
       </c>
       <c r="F4" s="5">
-        <v>18109.835646462459</v>
+        <v>21126.852872643347</v>
       </c>
       <c r="G4" s="5">
-        <v>4344.3539050058207</v>
+        <v>4905.1904689559824</v>
       </c>
       <c r="H4" s="5">
-        <v>8862.052342021896</v>
+        <v>10009.209111502594</v>
       </c>
       <c r="I4" s="5">
-        <v>711.54354765108474</v>
+        <v>803.40062170431111</v>
       </c>
       <c r="J4" s="5">
-        <v>15.652054529934833</v>
+        <v>17.672664423436927</v>
       </c>
       <c r="K4" s="5">
-        <v>726.10482332317792</v>
+        <v>819.84169262173589</v>
       </c>
       <c r="L4" s="5">
-        <v>39818.666235987665</v>
+        <v>46247.924446079545</v>
       </c>
       <c r="M4" s="5">
-        <v>66.417605482383735</v>
+        <v>74.991819844067422</v>
       </c>
       <c r="O4" s="32">
         <v>3.4542314335060449E-2</v>
@@ -14925,40 +19089,40 @@
         <v>1899</v>
       </c>
       <c r="B5" s="5">
-        <v>0.46500777604976673</v>
+        <v>0.52503819001520269</v>
       </c>
       <c r="C5" s="5">
-        <v>6993.0385012571469</v>
+        <v>7895.8083423829221</v>
       </c>
       <c r="D5" s="5">
-        <v>5074.6550035988339</v>
+        <v>5729.7701571252255</v>
       </c>
       <c r="E5" s="5">
-        <v>1.2182692307692307</v>
+        <v>1.3755423130942093</v>
       </c>
       <c r="F5" s="5">
-        <v>28679.429016853006</v>
+        <v>33457.292994750533</v>
       </c>
       <c r="G5" s="5">
-        <v>7009.7465185232923</v>
+        <v>7914.673289585915</v>
       </c>
       <c r="H5" s="5">
-        <v>13927.696989737073</v>
+        <v>15730.580934496935</v>
       </c>
       <c r="I5" s="5">
-        <v>927.95065305377466</v>
+        <v>1047.7449117982842</v>
       </c>
       <c r="J5" s="5">
-        <v>12.977358145928275</v>
+        <v>14.652676757362466</v>
       </c>
       <c r="K5" s="5">
-        <v>1319.42634053392</v>
+        <v>1489.7583510908244</v>
       </c>
       <c r="L5" s="5">
-        <v>63256.145913264234</v>
+        <v>73368.435776257713</v>
       </c>
       <c r="M5" s="5">
-        <v>76.391711186017403</v>
+        <v>86.253537766598839</v>
       </c>
       <c r="O5" s="32">
         <v>1.0711553175210407</v>
@@ -14971,40 +19135,40 @@
         <v>1900</v>
       </c>
       <c r="B6" s="5">
-        <v>0.46500777604976673</v>
+        <v>0.52503819001520269</v>
       </c>
       <c r="C6" s="5">
-        <v>8469.0243250962631</v>
+        <v>9562.3373024355169</v>
       </c>
       <c r="D6" s="5">
-        <v>5197.5967014124471</v>
+        <v>5868.5830755796196</v>
       </c>
       <c r="E6" s="5">
-        <v>0.81217948717948718</v>
+        <v>0.91702820872947277</v>
       </c>
       <c r="F6" s="5">
-        <v>34943.08070550258</v>
+        <v>40764.440903485578</v>
       </c>
       <c r="G6" s="5">
-        <v>7814.4253280905705</v>
+        <v>8823.232516934353</v>
       </c>
       <c r="H6" s="5">
-        <v>16110.436781536886</v>
+        <v>18195.867548583603</v>
       </c>
       <c r="I6" s="5">
-        <v>598.46569403184617</v>
+        <v>675.72492539790119</v>
       </c>
       <c r="J6" s="5">
-        <v>5.3699413017634239</v>
+        <v>6.0631765892534339</v>
       </c>
       <c r="K6" s="5">
-        <v>1325.4007544757317</v>
+        <v>1496.5040350212253</v>
       </c>
       <c r="L6" s="5">
-        <v>73373.778249541676</v>
+        <v>85423.132221160398</v>
       </c>
       <c r="M6" s="5">
-        <v>25.62818697853487</v>
+        <v>28.936670734600899</v>
       </c>
       <c r="O6" s="32">
         <v>2.3305537737866153</v>
@@ -15020,37 +19184,37 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>8973.4513332944698</v>
+        <v>10131.883570304435</v>
       </c>
       <c r="D7" s="5">
-        <v>6707.4153211003968</v>
+        <v>7573.3124933676218</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>35333.827747715681</v>
+        <v>41220.2846467649</v>
       </c>
       <c r="G7" s="5">
-        <v>7682.6985478767092</v>
+        <v>8674.5004014253554</v>
       </c>
       <c r="H7" s="5">
-        <v>20271.856938477817</v>
+        <v>22895.966684100626</v>
       </c>
       <c r="I7" s="5">
-        <v>720.46062396910713</v>
+        <v>813.46885249824265</v>
       </c>
       <c r="J7" s="5">
-        <v>5.3699413017634239</v>
+        <v>6.0631765892534339</v>
       </c>
       <c r="K7" s="5">
-        <v>1264.7374744511835</v>
+        <v>1428.0093981894631</v>
       </c>
       <c r="L7" s="5">
-        <v>80275.858228481084</v>
+        <v>92750.166916486327</v>
       </c>
       <c r="M7" s="5">
-        <v>5.9141969950465088</v>
+        <v>6.6776932464463616</v>
       </c>
       <c r="O7" s="32">
         <v>5.4061158328222199</v>
@@ -15066,37 +19230,37 @@
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>12292.347481334951</v>
+        <v>13879.234294669761</v>
       </c>
       <c r="D8" s="5">
-        <v>8996.9680165369937</v>
+        <v>10158.436151660611</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>40027.003899039293</v>
+        <v>46695.322851972509</v>
       </c>
       <c r="G8" s="5">
-        <v>9979.735414028346</v>
+        <v>11268.074403235973</v>
       </c>
       <c r="H8" s="5">
-        <v>26892.980848715823</v>
+        <v>30374.16825784824</v>
       </c>
       <c r="I8" s="5">
-        <v>1677.3480798112346</v>
+        <v>1893.8861782718097</v>
       </c>
       <c r="J8" s="5">
-        <v>10.739882603526848</v>
+        <v>12.126353178506868</v>
       </c>
       <c r="K8" s="5">
-        <v>1515.6628600072686</v>
+        <v>1711.3281232662969</v>
       </c>
       <c r="L8" s="5">
-        <v>101463.91002856343</v>
+        <v>115998.97607013154</v>
       </c>
       <c r="M8" s="5">
-        <v>5.6677721202529039</v>
+        <v>6.3994560278444297</v>
       </c>
       <c r="O8" s="32">
         <v>7.1772055188530857</v>
@@ -15109,40 +19273,40 @@
         <v>1903</v>
       </c>
       <c r="B9" s="5">
-        <v>7.9051321928460343</v>
+        <v>8.9256492302584451</v>
       </c>
       <c r="C9" s="5">
-        <v>10869.479064632465</v>
+        <v>12272.679960285217</v>
       </c>
       <c r="D9" s="5">
-        <v>8328.3543215044974</v>
+        <v>9403.5074336047892</v>
       </c>
       <c r="E9" s="5">
-        <v>1.2182692307692307</v>
+        <v>1.3755423130942093</v>
       </c>
       <c r="F9" s="5">
-        <v>58604.101002962387</v>
+        <v>68367.280840837935</v>
       </c>
       <c r="G9" s="5">
-        <v>11097.367598948429</v>
+        <v>12529.987880163239</v>
       </c>
       <c r="H9" s="5">
-        <v>26423.314448399044</v>
+        <v>29843.705444948089</v>
       </c>
       <c r="I9" s="5">
-        <v>2456.9976185747</v>
+        <v>2774.1849684467679</v>
       </c>
       <c r="J9" s="5">
-        <v>88.156536370616209</v>
+        <v>99.537149006910553</v>
       </c>
       <c r="K9" s="5">
-        <v>1122.270680454139</v>
+        <v>1267.1507813875978</v>
       </c>
       <c r="L9" s="5">
-        <v>117216.15705296176</v>
+        <v>136610.62770745138</v>
       </c>
       <c r="M9" s="5">
-        <v>37.45658096862789</v>
+        <v>42.292057227493629</v>
       </c>
       <c r="O9" s="32">
         <v>5.5701523909616393</v>
@@ -15155,40 +19319,40 @@
         <v>1904</v>
       </c>
       <c r="B10" s="5">
-        <v>12.555209953343702</v>
+        <v>14.176031130410474</v>
       </c>
       <c r="C10" s="5">
-        <v>10076.485149578526</v>
+        <v>11377.314094815409</v>
       </c>
       <c r="D10" s="5">
-        <v>6549.0096719943958</v>
+        <v>7394.4573868975376</v>
       </c>
       <c r="E10" s="5">
-        <v>3.2487179487179487</v>
+        <v>3.6681128349178911</v>
       </c>
       <c r="F10" s="5">
-        <v>79521.468715397728</v>
+        <v>92769.388003523607</v>
       </c>
       <c r="G10" s="5">
-        <v>12418.31720550295</v>
+        <v>14021.466144071783</v>
       </c>
       <c r="H10" s="5">
-        <v>29235.451179156909</v>
+        <v>33019.861881626377</v>
       </c>
       <c r="I10" s="5">
-        <v>2362.6241822081397</v>
+        <v>2667.6283455955604</v>
       </c>
       <c r="J10" s="5">
-        <v>157.07078307658014</v>
+        <v>177.34791523566292</v>
       </c>
       <c r="K10" s="5">
-        <v>717.3892433206023</v>
+        <v>810.00097041197387</v>
       </c>
       <c r="L10" s="5">
-        <v>137557.28696190857</v>
+        <v>162316.24283701705</v>
       </c>
       <c r="M10" s="5">
-        <v>53.967047579799399</v>
+        <v>60.933950873823058</v>
       </c>
       <c r="O10" s="32">
         <v>7.0417936438833264</v>
@@ -15201,40 +19365,40 @@
         <v>1905</v>
       </c>
       <c r="B11" s="5">
-        <v>65.101088646967341</v>
+        <v>73.50534660212837</v>
       </c>
       <c r="C11" s="5">
-        <v>11351.302920857639</v>
+        <v>12816.705110848581</v>
       </c>
       <c r="D11" s="5">
-        <v>8038.9684789586081</v>
+        <v>9076.7631793967539</v>
       </c>
       <c r="E11" s="5">
-        <v>8.1217948717948723</v>
+        <v>9.1702820872947282</v>
       </c>
       <c r="F11" s="5">
-        <v>101838.5063718563</v>
+        <v>118804.34383225534</v>
       </c>
       <c r="G11" s="5">
-        <v>12823.31569125364</v>
+        <v>14478.748114114973</v>
       </c>
       <c r="H11" s="5">
-        <v>34227.763220589615</v>
+        <v>38658.40848957518</v>
       </c>
       <c r="I11" s="5">
-        <v>2814.7617257761553</v>
+        <v>3178.1348139593592</v>
       </c>
       <c r="J11" s="5">
-        <v>195.55536240588469</v>
+        <v>220.80068079197923</v>
       </c>
       <c r="K11" s="5">
-        <v>747.72088333287638</v>
+        <v>844.24828882785482</v>
       </c>
       <c r="L11" s="5">
-        <v>166951.14495917445</v>
+        <v>198230.10920589135</v>
       </c>
       <c r="M11" s="5">
-        <v>61.359793823607532</v>
+        <v>69.281067431880999</v>
       </c>
       <c r="O11" s="32">
         <v>5.8077684314695697</v>
@@ -15247,40 +19411,40 @@
         <v>1906</v>
       </c>
       <c r="B12" s="5">
-        <v>219.01866251944011</v>
+        <v>247.29298749716045</v>
       </c>
       <c r="C12" s="5">
-        <v>10462.245609918304</v>
+        <v>11812.874496830173</v>
       </c>
       <c r="D12" s="5">
-        <v>11234.506916744755</v>
+        <v>12684.831267530586</v>
       </c>
       <c r="E12" s="5">
-        <v>24.771474358974359</v>
+        <v>27.969360366248921</v>
       </c>
       <c r="F12" s="5">
-        <v>112388.20855108049</v>
+        <v>131111.57898014644</v>
       </c>
       <c r="G12" s="5">
-        <v>15753.213827563171</v>
+        <v>17786.882931740554</v>
       </c>
       <c r="H12" s="5">
-        <v>43715.610674102798</v>
+        <v>49374.419354230507</v>
       </c>
       <c r="I12" s="5">
-        <v>7026.0530133947568</v>
+        <v>7933.0848796576684</v>
       </c>
       <c r="J12" s="5">
-        <v>183.0254993684367</v>
+        <v>206.65326875038789</v>
       </c>
       <c r="K12" s="5">
-        <v>1081.3689234678905</v>
+        <v>1220.9687914025458</v>
       </c>
       <c r="L12" s="5">
-        <v>197812.94532877277</v>
+        <v>232522.30300109071</v>
       </c>
       <c r="M12" s="5">
-        <v>102.51274791413948</v>
+        <v>115.74668293840359</v>
       </c>
       <c r="O12" s="32">
         <v>5.8372604461200126</v>
@@ -15293,40 +19457,40 @@
         <v>1907</v>
       </c>
       <c r="B13" s="5">
-        <v>185.06765163297044</v>
+        <v>208.95905369406049</v>
       </c>
       <c r="C13" s="5">
-        <v>6862.7284647681427</v>
+        <v>7748.6758658462741</v>
       </c>
       <c r="D13" s="5">
-        <v>11174.554178951945</v>
+        <v>12617.13890073923</v>
       </c>
       <c r="E13" s="5">
-        <v>27.180128205128206</v>
+        <v>30.688960598530684</v>
       </c>
       <c r="F13" s="5">
-        <v>87053.139587588521</v>
+        <v>101555.80139281521</v>
       </c>
       <c r="G13" s="5">
-        <v>15143.916595919545</v>
+        <v>17098.928165906262</v>
       </c>
       <c r="H13" s="5">
-        <v>36668.56983148471</v>
+        <v>41411.705252982138</v>
       </c>
       <c r="I13" s="5">
-        <v>10133.187191484751</v>
+        <v>11441.336115491089</v>
       </c>
       <c r="J13" s="5">
-        <v>60.624266272042803</v>
+        <v>68.450586579151079</v>
       </c>
       <c r="K13" s="5">
-        <v>843.75154935424268</v>
+        <v>952.67608223408058</v>
       </c>
       <c r="L13" s="5">
-        <v>167392.44057889545</v>
+        <v>193187.83410723929</v>
       </c>
       <c r="M13" s="5">
-        <v>47.359793823607525</v>
+        <v>53.473730353229314</v>
       </c>
       <c r="O13" s="32">
         <v>8.159514105330457</v>
@@ -15339,40 +19503,40 @@
         <v>1908</v>
       </c>
       <c r="B14" s="5">
-        <v>51</v>
+        <v>57.583870786516862</v>
       </c>
       <c r="C14" s="5">
-        <v>6555</v>
+        <v>7401.2210393258429</v>
       </c>
       <c r="D14" s="5">
-        <v>8522</v>
+        <v>9622.1518988764037</v>
       </c>
       <c r="E14" s="5">
-        <v>10</v>
+        <v>11.290955056179776</v>
       </c>
       <c r="F14" s="5">
-        <v>50850</v>
+        <v>59321.381460674165</v>
       </c>
       <c r="G14" s="5">
-        <v>11319.5</v>
+        <v>12780.796575842698</v>
       </c>
       <c r="H14" s="5">
-        <v>24554.5</v>
+        <v>27724.37559269663</v>
       </c>
       <c r="I14" s="5">
-        <v>7484</v>
+        <v>8450.1507640449454</v>
       </c>
       <c r="J14" s="5">
-        <v>13.5</v>
+        <v>15.242789325842697</v>
       </c>
       <c r="K14" s="5">
-        <v>468</v>
+        <v>528.41669662921345</v>
       </c>
       <c r="L14" s="5">
-        <v>109843.5</v>
+        <v>125930.67717134833</v>
       </c>
       <c r="M14" s="5">
-        <v>16</v>
+        <v>18.065528089887643</v>
       </c>
       <c r="O14" s="32">
         <v>13.693419551160137</v>
@@ -15385,40 +19549,40 @@
         <v>1909</v>
       </c>
       <c r="B15" s="5">
-        <v>48.5</v>
+        <v>54.761132022471912</v>
       </c>
       <c r="C15" s="5">
-        <v>12237</v>
+        <v>13816.741702247193</v>
       </c>
       <c r="D15" s="5">
-        <v>8478</v>
+        <v>9572.4716966292144</v>
       </c>
       <c r="E15" s="5">
-        <v>1.5</v>
+        <v>1.6936432584269665</v>
       </c>
       <c r="F15" s="5">
-        <v>45845</v>
+        <v>53482.570955056181</v>
       </c>
       <c r="G15" s="5">
-        <v>16281</v>
+        <v>18382.803926966295</v>
       </c>
       <c r="H15" s="5">
-        <v>43139.5</v>
+        <v>48708.615564606742</v>
       </c>
       <c r="I15" s="5">
-        <v>7912.5</v>
+        <v>8933.9681882022469</v>
       </c>
       <c r="J15" s="5">
-        <v>52</v>
+        <v>58.712966292134837</v>
       </c>
       <c r="K15" s="5">
-        <v>963</v>
+        <v>1087.3189719101124</v>
       </c>
       <c r="L15" s="5">
-        <v>135091.5</v>
+        <v>154250.39299719103</v>
       </c>
       <c r="M15" s="5">
-        <v>133.5</v>
+        <v>150.73425</v>
       </c>
       <c r="O15" s="32">
         <v>9.1432480191529386</v>
@@ -15431,40 +19595,40 @@
         <v>1910</v>
       </c>
       <c r="B16" s="5">
-        <v>94.68118195956454</v>
+        <v>106.58228669340068</v>
       </c>
       <c r="C16" s="5">
-        <v>9515</v>
+        <v>10743.343735955057</v>
       </c>
       <c r="D16" s="5">
-        <v>8907.673711945039</v>
+        <v>10043.194634976911</v>
       </c>
       <c r="E16" s="5">
-        <v>11.776602564102564</v>
+        <v>13.132132302902969</v>
       </c>
       <c r="F16" s="5">
-        <v>58902.811793744084</v>
+        <v>68584.621480542148</v>
       </c>
       <c r="G16" s="5">
-        <v>16845.5</v>
+        <v>19020.17833988764</v>
       </c>
       <c r="H16" s="5">
-        <v>43189.884265157751</v>
+        <v>48445.936157002405</v>
       </c>
       <c r="I16" s="5">
-        <v>12144</v>
+        <v>13711.73582022472</v>
       </c>
       <c r="J16" s="5">
-        <v>119.70904126213593</v>
+        <v>134.54029522569923</v>
       </c>
       <c r="K16" s="5">
-        <v>1023.4863213478793</v>
+        <v>1153.8281067913251</v>
       </c>
       <c r="L16" s="5">
-        <v>150549</v>
+        <v>172188.83943816059</v>
       </c>
       <c r="M16" s="5">
-        <v>211.18767028480519</v>
+        <v>231.74644855838989</v>
       </c>
       <c r="O16" s="32">
         <v>11.441897961534032</v>
@@ -15477,40 +19641,40 @@
         <v>1911</v>
       </c>
       <c r="B17" s="5">
-        <v>186.68118195956453</v>
+        <v>210.45907321025464</v>
       </c>
       <c r="C17" s="5">
-        <v>4001</v>
+        <v>4517.5111179775286</v>
       </c>
       <c r="D17" s="5">
-        <v>9407.173711945039</v>
+        <v>10607.177840033091</v>
       </c>
       <c r="E17" s="5">
-        <v>14.776602564102564</v>
+        <v>16.519418819756901</v>
       </c>
       <c r="F17" s="5">
-        <v>57608.811793744084</v>
+        <v>67075.046896272484</v>
       </c>
       <c r="G17" s="5">
-        <v>11712</v>
+        <v>13223.966561797753</v>
       </c>
       <c r="H17" s="5">
-        <v>32996.384265157751</v>
+        <v>36936.501120485547</v>
       </c>
       <c r="I17" s="5">
-        <v>13352.5</v>
+        <v>15076.247738764045</v>
       </c>
       <c r="J17" s="5">
-        <v>213.20904126213594</v>
+        <v>240.11072500098015</v>
       </c>
       <c r="K17" s="5">
-        <v>512.98632134787931</v>
+        <v>577.42485117334752</v>
       </c>
       <c r="L17" s="5">
-        <v>129691</v>
+        <v>148589.6403819808</v>
       </c>
       <c r="M17" s="5">
-        <v>102.18767028480519</v>
+        <v>108.67503844603033</v>
       </c>
       <c r="O17" s="32">
         <v>13.023456612462224</v>
@@ -15523,40 +19687,40 @@
         <v>1912</v>
       </c>
       <c r="B18" s="5">
-        <v>538.69206842923791</v>
+        <v>628.99133283956769</v>
       </c>
       <c r="C18" s="5">
-        <v>5691</v>
+        <v>6425.6825224719105</v>
       </c>
       <c r="D18" s="5">
-        <v>13699.730376375734</v>
+        <v>15784.6445856397</v>
       </c>
       <c r="E18" s="5">
-        <v>15.182692307692308</v>
+        <v>18.981168026257393</v>
       </c>
       <c r="F18" s="5">
-        <v>61615.021887619987</v>
+        <v>73479.070350895272</v>
       </c>
       <c r="G18" s="5">
-        <v>15120.5</v>
+        <v>17072.488592696631</v>
       </c>
       <c r="H18" s="5">
-        <v>59429.590283610269</v>
+        <v>76905.55304188939</v>
       </c>
       <c r="I18" s="5">
-        <v>28053.5</v>
+        <v>31675.080766853935</v>
       </c>
       <c r="J18" s="5">
-        <v>606.10974650782646</v>
+        <v>721.15373586596775</v>
       </c>
       <c r="K18" s="5">
-        <v>587.43671046891563</v>
+        <v>686.80555954526801</v>
       </c>
       <c r="L18" s="5">
-        <v>195915.5</v>
+        <v>223569.28186105497</v>
       </c>
       <c r="M18" s="5">
-        <v>92.823525042648214</v>
+        <v>170.83020433105736</v>
       </c>
       <c r="O18" s="32">
         <v>13.15820198482195</v>
@@ -15569,40 +19733,40 @@
         <v>1913</v>
       </c>
       <c r="B19" s="5">
-        <v>829.69206842923791</v>
+        <v>957.55812497439922</v>
       </c>
       <c r="C19" s="5">
-        <v>8409.5</v>
+        <v>9495.1286544943814</v>
       </c>
       <c r="D19" s="5">
-        <v>12982.730376375734</v>
+        <v>14975.08310811161</v>
       </c>
       <c r="E19" s="5">
-        <v>41.182692307692307</v>
+        <v>48.337651172324811</v>
       </c>
       <c r="F19" s="5">
-        <v>83876.52188761998</v>
+        <v>99449.236199209874</v>
       </c>
       <c r="G19" s="5">
-        <v>17962.5</v>
+        <v>20281.378019662923</v>
       </c>
       <c r="H19" s="5">
-        <v>64907.590283610269</v>
+        <v>83090.738221664666</v>
       </c>
       <c r="I19" s="5">
-        <v>33841.5</v>
+        <v>38210.285553370792</v>
       </c>
       <c r="J19" s="5">
-        <v>1718.6097465078265</v>
+        <v>1977.2724858659681</v>
       </c>
       <c r="K19" s="5">
-        <v>767.43671046891563</v>
+        <v>890.04275055650407</v>
       </c>
       <c r="L19" s="5">
-        <v>236163</v>
+        <v>269847.35947341454</v>
       </c>
       <c r="M19" s="5">
-        <v>359.82352504264821</v>
+        <v>472.29870433105737</v>
       </c>
       <c r="O19" s="32">
         <v>9.6225471121240762</v>
@@ -15615,40 +19779,40 @@
         <v>1914</v>
       </c>
       <c r="B20" s="5">
-        <v>319</v>
+        <v>360.18146629213487</v>
       </c>
       <c r="C20" s="5">
-        <v>4819.5</v>
+        <v>5441.6757893258427</v>
       </c>
       <c r="D20" s="5">
-        <v>4908</v>
+        <v>5541.6007415730337</v>
       </c>
       <c r="E20" s="5">
-        <v>35</v>
+        <v>39.518342696629219</v>
       </c>
       <c r="F20" s="5">
-        <v>56043.5</v>
+        <v>65380.095219101124</v>
       </c>
       <c r="G20" s="5">
-        <v>8290.5</v>
+        <v>9360.7662893258439</v>
       </c>
       <c r="H20" s="5">
-        <v>23645.5</v>
+        <v>26698.02777808989</v>
       </c>
       <c r="I20" s="5">
-        <v>8033.5</v>
+        <v>9070.5887443820229</v>
       </c>
       <c r="J20" s="5">
-        <v>1297</v>
+        <v>1464.4368707865169</v>
       </c>
       <c r="K20" s="5">
-        <v>401.5</v>
+        <v>453.33184550561805</v>
       </c>
       <c r="L20" s="5">
-        <v>108049.5</v>
+        <v>124099.83608426967</v>
       </c>
       <c r="M20" s="5">
-        <v>256.5</v>
+        <v>289.61299719101129</v>
       </c>
       <c r="O20" s="32">
         <v>12.839879154078551</v>
@@ -15661,40 +19825,40 @@
         <v>1915</v>
       </c>
       <c r="B21" s="5">
-        <v>-243</v>
+        <v>-274.37020786516854</v>
       </c>
       <c r="C21" s="5">
-        <v>2189</v>
+        <v>2471.5900617977527</v>
       </c>
       <c r="D21" s="5">
-        <v>390.5</v>
+        <v>440.91179494382021</v>
       </c>
       <c r="E21" s="5">
-        <v>7</v>
+        <v>7.9036685393258432</v>
       </c>
       <c r="F21" s="5">
-        <v>7858</v>
+        <v>9167.1074831460683</v>
       </c>
       <c r="G21" s="5">
-        <v>681.5</v>
+        <v>769.47858707865169</v>
       </c>
       <c r="H21" s="5">
-        <v>-80</v>
+        <v>-90.327640449438206</v>
       </c>
       <c r="I21" s="5">
-        <v>-5775.5</v>
+        <v>-6521.0910926966299</v>
       </c>
       <c r="J21" s="5">
-        <v>60</v>
+        <v>67.745730337078655</v>
       </c>
       <c r="K21" s="5">
-        <v>172</v>
+        <v>194.20442696629215</v>
       </c>
       <c r="L21" s="5">
-        <v>5236.5</v>
+        <v>6207.1836151685393</v>
       </c>
       <c r="M21" s="5">
-        <v>-23</v>
+        <v>-25.969196629213485</v>
       </c>
       <c r="O21" s="32">
         <v>5.8097109177659272</v>
@@ -15707,40 +19871,40 @@
         <v>1916</v>
       </c>
       <c r="B22" s="5">
-        <v>-107.10419906687403</v>
+        <v>-105.79213238541043</v>
       </c>
       <c r="C22" s="5">
-        <v>2972</v>
+        <v>3355.6718426966295</v>
       </c>
       <c r="D22" s="5">
-        <v>39.941254672041978</v>
+        <v>49.544545036541884</v>
       </c>
       <c r="E22" s="5">
-        <v>5.4669871794871794</v>
+        <v>10.511720156889664</v>
       </c>
       <c r="F22" s="5">
-        <v>4229.0995617860081</v>
+        <v>5879.2945856038814</v>
       </c>
       <c r="G22" s="5">
-        <v>72.5</v>
+        <v>81.85942415730338</v>
       </c>
       <c r="H22" s="5">
-        <v>144.5</v>
+        <v>377.97304934322142</v>
       </c>
       <c r="I22" s="5">
-        <v>-4233.5</v>
+        <v>-4780.0258230337076</v>
       </c>
       <c r="J22" s="5">
-        <v>4.1324657593619971</v>
+        <v>6.2097046339120991</v>
       </c>
       <c r="K22" s="5">
-        <v>337.10448796340427</v>
+        <v>457.88993394237133</v>
       </c>
       <c r="L22" s="5">
-        <v>4676</v>
+        <v>5468.6394376455</v>
       </c>
       <c r="M22" s="5">
-        <v>10.585285476058125</v>
+        <v>135.5025874938672</v>
       </c>
       <c r="O22" s="32">
         <v>5.6818181818181817</v>
